--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="190">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -421,6 +421,9 @@
     <t>['8', '51', '90']</t>
   </si>
   <si>
+    <t>['66']</t>
+  </si>
+  <si>
     <t>['12', '85']</t>
   </si>
   <si>
@@ -436,10 +439,10 @@
     <t>['79']</t>
   </si>
   <si>
-    <t>['9', '89']</t>
+    <t>['25', '32', '85']</t>
   </si>
   <si>
-    <t>['25', '32', '85']</t>
+    <t>['9', '89']</t>
   </si>
   <si>
     <t>['15', '27', '50', '75']</t>
@@ -568,6 +571,9 @@
     <t>['19', '65', '67']</t>
   </si>
   <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
     <t>['12', '45', '59']</t>
   </si>
   <si>
@@ -575,9 +581,6 @@
   </si>
   <si>
     <t>['25', '67', '73', '90+4']</t>
-  </si>
-  <si>
-    <t>['90+1']</t>
   </si>
   <si>
     <t>['20', '90+3']</t>
@@ -942,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP88"/>
+  <dimension ref="A1:BP90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1279,10 +1282,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ2">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1407,7 +1410,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1485,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ3">
         <v>0.93</v>
@@ -2231,7 +2234,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2312,7 +2315,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ7">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2437,7 +2440,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2515,7 +2518,7 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ8">
         <v>0.93</v>
@@ -2643,7 +2646,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2724,7 +2727,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ9">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2849,7 +2852,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3055,7 +3058,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3133,7 +3136,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ11">
         <v>1.47</v>
@@ -3467,7 +3470,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3545,7 +3548,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ13">
         <v>2.07</v>
@@ -3673,7 +3676,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q14">
         <v>2.63</v>
@@ -3879,7 +3882,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -3957,10 +3960,10 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ15">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR15">
         <v>1.26</v>
@@ -4166,7 +4169,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ16">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR16">
         <v>1.67</v>
@@ -4497,7 +4500,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4578,7 +4581,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ18">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4703,7 +4706,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4781,7 +4784,7 @@
         <v>1.67</v>
       </c>
       <c r="AP19">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ19">
         <v>1.4</v>
@@ -4909,7 +4912,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5115,7 +5118,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5321,7 +5324,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5605,7 +5608,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ23">
         <v>1.5</v>
@@ -5733,7 +5736,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5811,10 +5814,10 @@
         <v>1.67</v>
       </c>
       <c r="AP24">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ24">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
         <v>1.32</v>
@@ -6145,7 +6148,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6432,7 +6435,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ27">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR27">
         <v>1.24</v>
@@ -6557,7 +6560,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6635,7 +6638,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ28">
         <v>0.93</v>
@@ -6844,7 +6847,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ29">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR29">
         <v>2.35</v>
@@ -7050,7 +7053,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ30">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR30">
         <v>1.47</v>
@@ -7381,7 +7384,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7459,7 +7462,7 @@
         <v>1.6</v>
       </c>
       <c r="AP32">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ32">
         <v>1.47</v>
@@ -7587,7 +7590,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -7665,7 +7668,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ33">
         <v>2.07</v>
@@ -7793,7 +7796,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -7874,7 +7877,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ34">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR34">
         <v>1.7</v>
@@ -7999,7 +8002,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8077,7 +8080,7 @@
         <v>0.6</v>
       </c>
       <c r="AP35">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ35">
         <v>0.67</v>
@@ -8205,7 +8208,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8411,7 +8414,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8698,7 +8701,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR38">
         <v>0.99</v>
@@ -9029,7 +9032,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9110,7 +9113,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ40">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR40">
         <v>1.42</v>
@@ -9235,7 +9238,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9316,7 +9319,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ41">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR41">
         <v>1.18</v>
@@ -9441,7 +9444,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9519,7 +9522,7 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ42">
         <v>1.2</v>
@@ -9647,7 +9650,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9853,7 +9856,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9931,7 +9934,7 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ44">
         <v>1.5</v>
@@ -10137,7 +10140,7 @@
         <v>1.71</v>
       </c>
       <c r="AP45">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ45">
         <v>1.47</v>
@@ -10265,7 +10268,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10471,7 +10474,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10758,7 +10761,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ48">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -10883,7 +10886,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11089,7 +11092,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11295,7 +11298,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11376,7 +11379,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ51">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR51">
         <v>1.3</v>
@@ -11785,10 +11788,10 @@
         <v>1.38</v>
       </c>
       <c r="AP53">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ53">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR53">
         <v>1.71</v>
@@ -11913,7 +11916,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12119,7 +12122,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12197,7 +12200,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ55">
         <v>1.5</v>
@@ -12325,7 +12328,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12406,7 +12409,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ56">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -12531,7 +12534,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12609,7 +12612,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ57">
         <v>1.2</v>
@@ -12737,7 +12740,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13021,7 +13024,7 @@
         <v>1.11</v>
       </c>
       <c r="AP59">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ59">
         <v>0.93</v>
@@ -13149,7 +13152,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13230,7 +13233,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ60">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR60">
         <v>1.2</v>
@@ -13642,7 +13645,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ62">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR62">
         <v>2</v>
@@ -13845,10 +13848,10 @@
         <v>1.7</v>
       </c>
       <c r="AP63">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ63">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR63">
         <v>1.64</v>
@@ -14385,7 +14388,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14591,7 +14594,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14669,10 +14672,10 @@
         <v>1.36</v>
       </c>
       <c r="AP67">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ67">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -14797,7 +14800,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15081,7 +15084,7 @@
         <v>1.27</v>
       </c>
       <c r="AP69">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ69">
         <v>1.4</v>
@@ -15290,7 +15293,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ70">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR70">
         <v>1.37</v>
@@ -15827,7 +15830,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16033,7 +16036,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16111,7 +16114,7 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ74">
         <v>1.2</v>
@@ -16239,7 +16242,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16320,7 +16323,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ75">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR75">
         <v>1.39</v>
@@ -16445,7 +16448,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16526,7 +16529,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ76">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AR76">
         <v>1.47</v>
@@ -16732,7 +16735,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ77">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR77">
         <v>1.95</v>
@@ -16815,7 +16818,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7330015</v>
+        <v>7329981</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16824,196 +16827,196 @@
         <v>69</v>
       </c>
       <c r="E78" s="2">
-        <v>45401.79166666666</v>
+        <v>45399.83333333334</v>
       </c>
       <c r="F78">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G78" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H78" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O78" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q78">
+        <v>5.5</v>
+      </c>
+      <c r="R78">
+        <v>2.1</v>
+      </c>
+      <c r="S78">
+        <v>2.38</v>
+      </c>
+      <c r="T78">
+        <v>1.42</v>
+      </c>
+      <c r="U78">
+        <v>2.81</v>
+      </c>
+      <c r="V78">
+        <v>3.11</v>
+      </c>
+      <c r="W78">
+        <v>1.35</v>
+      </c>
+      <c r="X78">
+        <v>7.8</v>
+      </c>
+      <c r="Y78">
+        <v>1.06</v>
+      </c>
+      <c r="Z78">
+        <v>4.75</v>
+      </c>
+      <c r="AA78">
         <v>3.6</v>
       </c>
-      <c r="R78">
+      <c r="AB78">
+        <v>1.67</v>
+      </c>
+      <c r="AC78">
+        <v>1.07</v>
+      </c>
+      <c r="AD78">
+        <v>7.5</v>
+      </c>
+      <c r="AE78">
+        <v>1.33</v>
+      </c>
+      <c r="AF78">
+        <v>3.25</v>
+      </c>
+      <c r="AG78">
         <v>2.05</v>
       </c>
-      <c r="S78">
-        <v>3.2</v>
-      </c>
-      <c r="T78">
-        <v>1.45</v>
-      </c>
-      <c r="U78">
-        <v>2.55</v>
-      </c>
-      <c r="V78">
-        <v>3</v>
-      </c>
-      <c r="W78">
-        <v>1.33</v>
-      </c>
-      <c r="X78">
-        <v>8</v>
-      </c>
-      <c r="Y78">
-        <v>1.05</v>
-      </c>
-      <c r="Z78">
+      <c r="AH78">
+        <v>1.75</v>
+      </c>
+      <c r="AI78">
+        <v>2</v>
+      </c>
+      <c r="AJ78">
+        <v>1.73</v>
+      </c>
+      <c r="AK78">
+        <v>2.05</v>
+      </c>
+      <c r="AL78">
+        <v>1.29</v>
+      </c>
+      <c r="AM78">
+        <v>1.15</v>
+      </c>
+      <c r="AN78">
+        <v>0.75</v>
+      </c>
+      <c r="AO78">
+        <v>2.33</v>
+      </c>
+      <c r="AP78">
+        <v>0.67</v>
+      </c>
+      <c r="AQ78">
+        <v>2.13</v>
+      </c>
+      <c r="AR78">
+        <v>1.66</v>
+      </c>
+      <c r="AS78">
+        <v>1.51</v>
+      </c>
+      <c r="AT78">
+        <v>3.17</v>
+      </c>
+      <c r="AU78">
+        <v>5</v>
+      </c>
+      <c r="AV78">
+        <v>6</v>
+      </c>
+      <c r="AW78">
+        <v>5</v>
+      </c>
+      <c r="AX78">
+        <v>7</v>
+      </c>
+      <c r="AY78">
+        <v>10</v>
+      </c>
+      <c r="AZ78">
+        <v>13</v>
+      </c>
+      <c r="BA78">
+        <v>0</v>
+      </c>
+      <c r="BB78">
+        <v>7</v>
+      </c>
+      <c r="BC78">
+        <v>7</v>
+      </c>
+      <c r="BD78">
         <v>2.9</v>
       </c>
-      <c r="AA78">
-        <v>3.2</v>
-      </c>
-      <c r="AB78">
-        <v>2.38</v>
-      </c>
-      <c r="AC78">
-        <v>1.06</v>
-      </c>
-      <c r="AD78">
-        <v>8</v>
-      </c>
-      <c r="AE78">
-        <v>1.36</v>
-      </c>
-      <c r="AF78">
-        <v>3</v>
-      </c>
-      <c r="AG78">
-        <v>2.15</v>
-      </c>
-      <c r="AH78">
-        <v>1.67</v>
-      </c>
-      <c r="AI78">
-        <v>1.83</v>
-      </c>
-      <c r="AJ78">
-        <v>1.83</v>
-      </c>
-      <c r="AK78">
-        <v>1.45</v>
-      </c>
-      <c r="AL78">
-        <v>1.28</v>
-      </c>
-      <c r="AM78">
-        <v>1.48</v>
-      </c>
-      <c r="AN78">
-        <v>1.08</v>
-      </c>
-      <c r="AO78">
-        <v>1.46</v>
-      </c>
-      <c r="AP78">
-        <v>0.93</v>
-      </c>
-      <c r="AQ78">
-        <v>1.47</v>
-      </c>
-      <c r="AR78">
-        <v>1.38</v>
-      </c>
-      <c r="AS78">
-        <v>1.33</v>
-      </c>
-      <c r="AT78">
-        <v>2.71</v>
-      </c>
-      <c r="AU78">
-        <v>4</v>
-      </c>
-      <c r="AV78">
-        <v>9</v>
-      </c>
-      <c r="AW78">
-        <v>4</v>
-      </c>
-      <c r="AX78">
-        <v>2</v>
-      </c>
-      <c r="AY78">
-        <v>8</v>
-      </c>
-      <c r="AZ78">
-        <v>11</v>
-      </c>
-      <c r="BA78">
-        <v>3</v>
-      </c>
-      <c r="BB78">
-        <v>5</v>
-      </c>
-      <c r="BC78">
-        <v>8</v>
-      </c>
-      <c r="BD78">
-        <v>1.95</v>
-      </c>
       <c r="BE78">
-        <v>8.699999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="BF78">
-        <v>2.04</v>
+        <v>1.6</v>
       </c>
       <c r="BG78">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="BH78">
-        <v>3.6</v>
+        <v>3.28</v>
       </c>
       <c r="BI78">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="BJ78">
-        <v>2.51</v>
+        <v>2.35</v>
       </c>
       <c r="BK78">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="BL78">
         <v>1.82</v>
       </c>
       <c r="BM78">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="BN78">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="BO78">
-        <v>3.07</v>
+        <v>3.2</v>
       </c>
       <c r="BP78">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="79" spans="1:68">
@@ -17021,7 +17024,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7330013</v>
+        <v>7330015</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17030,196 +17033,196 @@
         <v>69</v>
       </c>
       <c r="E79" s="2">
-        <v>45401.89583333334</v>
+        <v>45401.79166666666</v>
       </c>
       <c r="F79">
         <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H79" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
       <c r="M79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O79" t="s">
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q79">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="R79">
         <v>2.05</v>
       </c>
       <c r="S79">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="T79">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="U79">
-        <v>2.94</v>
+        <v>2.55</v>
       </c>
       <c r="V79">
-        <v>2.73</v>
+        <v>3</v>
       </c>
       <c r="W79">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="X79">
-        <v>6.75</v>
+        <v>8</v>
       </c>
       <c r="Y79">
+        <v>1.05</v>
+      </c>
+      <c r="Z79">
+        <v>2.9</v>
+      </c>
+      <c r="AA79">
+        <v>3.2</v>
+      </c>
+      <c r="AB79">
+        <v>2.38</v>
+      </c>
+      <c r="AC79">
+        <v>1.06</v>
+      </c>
+      <c r="AD79">
+        <v>8</v>
+      </c>
+      <c r="AE79">
+        <v>1.36</v>
+      </c>
+      <c r="AF79">
+        <v>3</v>
+      </c>
+      <c r="AG79">
+        <v>2.15</v>
+      </c>
+      <c r="AH79">
+        <v>1.67</v>
+      </c>
+      <c r="AI79">
+        <v>1.83</v>
+      </c>
+      <c r="AJ79">
+        <v>1.83</v>
+      </c>
+      <c r="AK79">
+        <v>1.45</v>
+      </c>
+      <c r="AL79">
+        <v>1.28</v>
+      </c>
+      <c r="AM79">
+        <v>1.48</v>
+      </c>
+      <c r="AN79">
         <v>1.08</v>
       </c>
-      <c r="Z79">
-        <v>4.2</v>
-      </c>
-      <c r="AA79">
-        <v>3.25</v>
-      </c>
-      <c r="AB79">
-        <v>1.91</v>
-      </c>
-      <c r="AC79">
-        <v>1.01</v>
-      </c>
-      <c r="AD79">
-        <v>9.5</v>
-      </c>
-      <c r="AE79">
-        <v>1.25</v>
-      </c>
-      <c r="AF79">
-        <v>3.42</v>
-      </c>
-      <c r="AG79">
-        <v>2.2</v>
-      </c>
-      <c r="AH79">
-        <v>1.65</v>
-      </c>
-      <c r="AI79">
-        <v>2</v>
-      </c>
-      <c r="AJ79">
-        <v>1.73</v>
-      </c>
-      <c r="AK79">
-        <v>1.91</v>
-      </c>
-      <c r="AL79">
-        <v>1.22</v>
-      </c>
-      <c r="AM79">
-        <v>1.2</v>
-      </c>
-      <c r="AN79">
-        <v>1.5</v>
-      </c>
       <c r="AO79">
-        <v>1.92</v>
+        <v>1.46</v>
       </c>
       <c r="AP79">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="AQ79">
-        <v>2.07</v>
+        <v>1.47</v>
       </c>
       <c r="AR79">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AS79">
-        <v>1.81</v>
+        <v>1.33</v>
       </c>
       <c r="AT79">
-        <v>3.17</v>
+        <v>2.71</v>
       </c>
       <c r="AU79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV79">
+        <v>9</v>
+      </c>
+      <c r="AW79">
         <v>4</v>
       </c>
-      <c r="AW79">
-        <v>0</v>
-      </c>
       <c r="AX79">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AY79">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AZ79">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA79">
+        <v>3</v>
+      </c>
+      <c r="BB79">
         <v>5</v>
       </c>
-      <c r="BB79">
-        <v>2</v>
-      </c>
       <c r="BC79">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD79">
-        <v>2.39</v>
+        <v>1.95</v>
       </c>
       <c r="BE79">
         <v>8.699999999999999</v>
       </c>
       <c r="BF79">
-        <v>1.71</v>
+        <v>2.04</v>
       </c>
       <c r="BG79">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="BH79">
-        <v>3.69</v>
+        <v>3.6</v>
       </c>
       <c r="BI79">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="BJ79">
-        <v>2.57</v>
+        <v>2.51</v>
       </c>
       <c r="BK79">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="BL79">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="BM79">
-        <v>2.19</v>
+        <v>2.28</v>
       </c>
       <c r="BN79">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="BO79">
-        <v>2.93</v>
+        <v>3.07</v>
       </c>
       <c r="BP79">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="80" spans="1:68">
@@ -17227,7 +17230,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>7330018</v>
+        <v>7330013</v>
       </c>
       <c r="C80" t="s">
         <v>68</v>
@@ -17236,196 +17239,196 @@
         <v>69</v>
       </c>
       <c r="E80" s="2">
-        <v>45402.77083333334</v>
+        <v>45401.89583333334</v>
       </c>
       <c r="F80">
         <v>14</v>
       </c>
       <c r="G80" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H80" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80">
         <v>1</v>
       </c>
       <c r="L80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N80">
         <v>2</v>
       </c>
       <c r="O80" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="Q80">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="R80">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S80">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="T80">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="U80">
-        <v>2.87</v>
+        <v>2.94</v>
       </c>
       <c r="V80">
-        <v>3.04</v>
+        <v>2.73</v>
       </c>
       <c r="W80">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="X80">
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="Y80">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z80">
-        <v>1.97</v>
+        <v>4.2</v>
       </c>
       <c r="AA80">
-        <v>3.31</v>
+        <v>3.25</v>
       </c>
       <c r="AB80">
-        <v>3.68</v>
+        <v>1.91</v>
       </c>
       <c r="AC80">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD80">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE80">
+        <v>1.25</v>
+      </c>
+      <c r="AF80">
+        <v>3.42</v>
+      </c>
+      <c r="AG80">
+        <v>2.2</v>
+      </c>
+      <c r="AH80">
+        <v>1.65</v>
+      </c>
+      <c r="AI80">
+        <v>2</v>
+      </c>
+      <c r="AJ80">
+        <v>1.73</v>
+      </c>
+      <c r="AK80">
+        <v>1.91</v>
+      </c>
+      <c r="AL80">
+        <v>1.22</v>
+      </c>
+      <c r="AM80">
+        <v>1.2</v>
+      </c>
+      <c r="AN80">
+        <v>1.5</v>
+      </c>
+      <c r="AO80">
+        <v>1.92</v>
+      </c>
+      <c r="AP80">
+        <v>1.5</v>
+      </c>
+      <c r="AQ80">
+        <v>2.07</v>
+      </c>
+      <c r="AR80">
+        <v>1.36</v>
+      </c>
+      <c r="AS80">
+        <v>1.81</v>
+      </c>
+      <c r="AT80">
+        <v>3.17</v>
+      </c>
+      <c r="AU80">
+        <v>0</v>
+      </c>
+      <c r="AV80">
+        <v>4</v>
+      </c>
+      <c r="AW80">
+        <v>0</v>
+      </c>
+      <c r="AX80">
+        <v>6</v>
+      </c>
+      <c r="AY80">
+        <v>0</v>
+      </c>
+      <c r="AZ80">
+        <v>10</v>
+      </c>
+      <c r="BA80">
+        <v>5</v>
+      </c>
+      <c r="BB80">
+        <v>2</v>
+      </c>
+      <c r="BC80">
+        <v>7</v>
+      </c>
+      <c r="BD80">
+        <v>2.39</v>
+      </c>
+      <c r="BE80">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF80">
+        <v>1.71</v>
+      </c>
+      <c r="BG80">
+        <v>1.23</v>
+      </c>
+      <c r="BH80">
+        <v>3.69</v>
+      </c>
+      <c r="BI80">
+        <v>1.42</v>
+      </c>
+      <c r="BJ80">
+        <v>2.57</v>
+      </c>
+      <c r="BK80">
+        <v>2.2</v>
+      </c>
+      <c r="BL80">
+        <v>1.95</v>
+      </c>
+      <c r="BM80">
+        <v>2.19</v>
+      </c>
+      <c r="BN80">
+        <v>1.57</v>
+      </c>
+      <c r="BO80">
+        <v>2.93</v>
+      </c>
+      <c r="BP80">
         <v>1.33</v>
-      </c>
-      <c r="AF80">
-        <v>3</v>
-      </c>
-      <c r="AG80">
-        <v>2</v>
-      </c>
-      <c r="AH80">
-        <v>1.73</v>
-      </c>
-      <c r="AI80">
-        <v>1.83</v>
-      </c>
-      <c r="AJ80">
-        <v>1.83</v>
-      </c>
-      <c r="AK80">
-        <v>1.33</v>
-      </c>
-      <c r="AL80">
-        <v>1.3</v>
-      </c>
-      <c r="AM80">
-        <v>1.73</v>
-      </c>
-      <c r="AN80">
-        <v>1.23</v>
-      </c>
-      <c r="AO80">
-        <v>1.08</v>
-      </c>
-      <c r="AP80">
-        <v>1.36</v>
-      </c>
-      <c r="AQ80">
-        <v>0.93</v>
-      </c>
-      <c r="AR80">
-        <v>1.24</v>
-      </c>
-      <c r="AS80">
-        <v>1.32</v>
-      </c>
-      <c r="AT80">
-        <v>2.56</v>
-      </c>
-      <c r="AU80">
-        <v>7</v>
-      </c>
-      <c r="AV80">
-        <v>3</v>
-      </c>
-      <c r="AW80">
-        <v>12</v>
-      </c>
-      <c r="AX80">
-        <v>0</v>
-      </c>
-      <c r="AY80">
-        <v>19</v>
-      </c>
-      <c r="AZ80">
-        <v>3</v>
-      </c>
-      <c r="BA80">
-        <v>6</v>
-      </c>
-      <c r="BB80">
-        <v>0</v>
-      </c>
-      <c r="BC80">
-        <v>6</v>
-      </c>
-      <c r="BD80">
-        <v>1.78</v>
-      </c>
-      <c r="BE80">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="BF80">
-        <v>2.46</v>
-      </c>
-      <c r="BG80">
-        <v>1.29</v>
-      </c>
-      <c r="BH80">
-        <v>3.29</v>
-      </c>
-      <c r="BI80">
-        <v>1.56</v>
-      </c>
-      <c r="BJ80">
-        <v>2.27</v>
-      </c>
-      <c r="BK80">
-        <v>2.25</v>
-      </c>
-      <c r="BL80">
-        <v>1.73</v>
-      </c>
-      <c r="BM80">
-        <v>2.62</v>
-      </c>
-      <c r="BN80">
-        <v>1.43</v>
-      </c>
-      <c r="BO80">
-        <v>2.88</v>
-      </c>
-      <c r="BP80">
-        <v>1.36</v>
       </c>
     </row>
     <row r="81" spans="1:68">
@@ -17433,7 +17436,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7330014</v>
+        <v>7330018</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -17442,16 +17445,16 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45402.875</v>
+        <v>45402.77083333334</v>
       </c>
       <c r="F81">
         <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H81" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -17478,160 +17481,160 @@
         <v>89</v>
       </c>
       <c r="Q81">
+        <v>3</v>
+      </c>
+      <c r="R81">
         <v>2.1</v>
       </c>
-      <c r="R81">
-        <v>2.38</v>
-      </c>
       <c r="S81">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="T81">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U81">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="V81">
-        <v>2.45</v>
+        <v>3.04</v>
       </c>
       <c r="W81">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="X81">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Y81">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="Z81">
-        <v>1.53</v>
+        <v>1.97</v>
       </c>
       <c r="AA81">
-        <v>3.75</v>
+        <v>3.31</v>
       </c>
       <c r="AB81">
-        <v>5</v>
+        <v>3.68</v>
       </c>
       <c r="AC81">
         <v>1.04</v>
       </c>
       <c r="AD81">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE81">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AF81">
-        <v>3.95</v>
+        <v>3</v>
       </c>
       <c r="AG81">
+        <v>2</v>
+      </c>
+      <c r="AH81">
         <v>1.73</v>
       </c>
-      <c r="AH81">
-        <v>2.08</v>
-      </c>
       <c r="AI81">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AJ81">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AK81">
-        <v>1.1</v>
+        <v>1.33</v>
       </c>
       <c r="AL81">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="AM81">
-        <v>2.21</v>
+        <v>1.73</v>
       </c>
       <c r="AN81">
-        <v>2.33</v>
+        <v>1.23</v>
       </c>
       <c r="AO81">
-        <v>0.54</v>
+        <v>1.08</v>
       </c>
       <c r="AP81">
-        <v>2.21</v>
+        <v>1.47</v>
       </c>
       <c r="AQ81">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="AR81">
-        <v>1.7</v>
+        <v>1.24</v>
       </c>
       <c r="AS81">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AT81">
-        <v>3.05</v>
+        <v>2.56</v>
       </c>
       <c r="AU81">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV81">
         <v>3</v>
       </c>
       <c r="AW81">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AX81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY81">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BA81">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB81">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC81">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD81">
-        <v>1.32</v>
+        <v>1.78</v>
       </c>
       <c r="BE81">
-        <v>10.2</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="BF81">
-        <v>4.24</v>
+        <v>2.46</v>
       </c>
       <c r="BG81">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="BH81">
-        <v>3.14</v>
+        <v>3.29</v>
       </c>
       <c r="BI81">
-        <v>1.77</v>
+        <v>1.56</v>
       </c>
       <c r="BJ81">
-        <v>1.95</v>
+        <v>2.27</v>
       </c>
       <c r="BK81">
-        <v>2.03</v>
+        <v>2.25</v>
       </c>
       <c r="BL81">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="BM81">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="BN81">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="BO81">
-        <v>3.34</v>
+        <v>2.88</v>
       </c>
       <c r="BP81">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="82" spans="1:68">
@@ -17639,7 +17642,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7330016</v>
+        <v>7330014</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17648,196 +17651,196 @@
         <v>69</v>
       </c>
       <c r="E82" s="2">
-        <v>45403.77083333334</v>
+        <v>45402.875</v>
       </c>
       <c r="F82">
         <v>14</v>
       </c>
       <c r="G82" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M82">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N82">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O82" t="s">
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="Q82">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="R82">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="S82">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="T82">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="U82">
-        <v>2.47</v>
+        <v>3</v>
       </c>
       <c r="V82">
-        <v>3.19</v>
+        <v>2.45</v>
       </c>
       <c r="W82">
-        <v>1.22</v>
+        <v>1.48</v>
       </c>
       <c r="X82">
-        <v>7.8</v>
+        <v>5.25</v>
       </c>
       <c r="Y82">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="Z82">
-        <v>2.75</v>
+        <v>1.53</v>
       </c>
       <c r="AA82">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="AB82">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="AC82">
         <v>1.04</v>
       </c>
       <c r="AD82">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE82">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="AF82">
-        <v>3</v>
+        <v>3.95</v>
       </c>
       <c r="AG82">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="AH82">
-        <v>1.67</v>
+        <v>2.08</v>
       </c>
       <c r="AI82">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AJ82">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AK82">
-        <v>1.45</v>
+        <v>1.1</v>
       </c>
       <c r="AL82">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="AM82">
-        <v>1.34</v>
+        <v>2.21</v>
       </c>
       <c r="AN82">
-        <v>1.08</v>
+        <v>2.23</v>
       </c>
       <c r="AO82">
+        <v>0.54</v>
+      </c>
+      <c r="AP82">
+        <v>2.13</v>
+      </c>
+      <c r="AQ82">
+        <v>0.67</v>
+      </c>
+      <c r="AR82">
+        <v>1.7</v>
+      </c>
+      <c r="AS82">
+        <v>1.35</v>
+      </c>
+      <c r="AT82">
+        <v>3.05</v>
+      </c>
+      <c r="AU82">
+        <v>10</v>
+      </c>
+      <c r="AV82">
+        <v>3</v>
+      </c>
+      <c r="AW82">
+        <v>5</v>
+      </c>
+      <c r="AX82">
+        <v>2</v>
+      </c>
+      <c r="AY82">
+        <v>15</v>
+      </c>
+      <c r="AZ82">
+        <v>5</v>
+      </c>
+      <c r="BA82">
+        <v>3</v>
+      </c>
+      <c r="BB82">
+        <v>5</v>
+      </c>
+      <c r="BC82">
+        <v>8</v>
+      </c>
+      <c r="BD82">
+        <v>1.32</v>
+      </c>
+      <c r="BE82">
+        <v>10.2</v>
+      </c>
+      <c r="BF82">
+        <v>4.24</v>
+      </c>
+      <c r="BG82">
         <v>1.31</v>
       </c>
-      <c r="AP82">
-        <v>1.2</v>
-      </c>
-      <c r="AQ82">
-        <v>1.4</v>
-      </c>
-      <c r="AR82">
-        <v>1.25</v>
-      </c>
-      <c r="AS82">
-        <v>1.44</v>
-      </c>
-      <c r="AT82">
-        <v>2.69</v>
-      </c>
-      <c r="AU82">
-        <v>5</v>
-      </c>
-      <c r="AV82">
-        <v>6</v>
-      </c>
-      <c r="AW82">
-        <v>0</v>
-      </c>
-      <c r="AX82">
-        <v>8</v>
-      </c>
-      <c r="AY82">
-        <v>5</v>
-      </c>
-      <c r="AZ82">
-        <v>14</v>
-      </c>
-      <c r="BA82">
-        <v>2</v>
-      </c>
-      <c r="BB82">
-        <v>8</v>
-      </c>
-      <c r="BC82">
-        <v>10</v>
-      </c>
-      <c r="BD82">
-        <v>2.1</v>
-      </c>
-      <c r="BE82">
-        <v>7.6</v>
-      </c>
-      <c r="BF82">
-        <v>2.1</v>
-      </c>
-      <c r="BG82">
-        <v>1.2</v>
-      </c>
       <c r="BH82">
-        <v>4</v>
+        <v>3.14</v>
       </c>
       <c r="BI82">
-        <v>1.31</v>
+        <v>1.77</v>
       </c>
       <c r="BJ82">
-        <v>3.14</v>
+        <v>1.95</v>
       </c>
       <c r="BK82">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="BL82">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="BM82">
-        <v>1.99</v>
+        <v>2.7</v>
       </c>
       <c r="BN82">
-        <v>1.73</v>
+        <v>1.41</v>
       </c>
       <c r="BO82">
-        <v>2.6</v>
+        <v>3.34</v>
       </c>
       <c r="BP82">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="83" spans="1:68">
@@ -17845,7 +17848,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>7330017</v>
+        <v>7330016</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -17854,91 +17857,91 @@
         <v>69</v>
       </c>
       <c r="E83" s="2">
-        <v>45403.875</v>
+        <v>45403.77083333334</v>
       </c>
       <c r="F83">
         <v>14</v>
       </c>
       <c r="G83" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H83" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O83" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q83">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R83">
         <v>2.05</v>
       </c>
       <c r="S83">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T83">
         <v>1.44</v>
       </c>
       <c r="U83">
-        <v>2.63</v>
+        <v>2.47</v>
       </c>
       <c r="V83">
-        <v>3.25</v>
+        <v>3.19</v>
       </c>
       <c r="W83">
+        <v>1.22</v>
+      </c>
+      <c r="X83">
+        <v>7.8</v>
+      </c>
+      <c r="Y83">
+        <v>1.05</v>
+      </c>
+      <c r="Z83">
+        <v>2.75</v>
+      </c>
+      <c r="AA83">
+        <v>3.2</v>
+      </c>
+      <c r="AB83">
+        <v>2.5</v>
+      </c>
+      <c r="AC83">
+        <v>1.04</v>
+      </c>
+      <c r="AD83">
+        <v>8.5</v>
+      </c>
+      <c r="AE83">
         <v>1.33</v>
       </c>
-      <c r="X83">
-        <v>10</v>
-      </c>
-      <c r="Y83">
-        <v>1.06</v>
-      </c>
-      <c r="Z83">
-        <v>3.1</v>
-      </c>
-      <c r="AA83">
-        <v>3.1</v>
-      </c>
-      <c r="AB83">
-        <v>2.2</v>
-      </c>
-      <c r="AC83">
-        <v>0</v>
-      </c>
-      <c r="AD83">
-        <v>0</v>
-      </c>
-      <c r="AE83">
-        <v>0</v>
-      </c>
       <c r="AF83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG83">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AH83">
         <v>1.67</v>
@@ -17950,100 +17953,100 @@
         <v>1.83</v>
       </c>
       <c r="AK83">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AL83">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AM83">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AN83">
-        <v>0.75</v>
+        <v>1.08</v>
       </c>
       <c r="AO83">
-        <v>1.69</v>
+        <v>1.31</v>
       </c>
       <c r="AP83">
-        <v>0.64</v>
+        <v>1.2</v>
       </c>
       <c r="AQ83">
-        <v>1.79</v>
+        <v>1.4</v>
       </c>
       <c r="AR83">
-        <v>1.66</v>
+        <v>1.25</v>
       </c>
       <c r="AS83">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT83">
-        <v>3.13</v>
+        <v>2.69</v>
       </c>
       <c r="AU83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV83">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW83">
+        <v>0</v>
+      </c>
+      <c r="AX83">
+        <v>8</v>
+      </c>
+      <c r="AY83">
         <v>5</v>
       </c>
-      <c r="AX83">
-        <v>5</v>
-      </c>
-      <c r="AY83">
-        <v>9</v>
-      </c>
       <c r="AZ83">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB83">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC83">
         <v>10</v>
       </c>
       <c r="BD83">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BE83">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="BF83">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BG83">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BH83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI83">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="BJ83">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="BK83">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="BL83">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="BM83">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="BN83">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="BO83">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BP83">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="84" spans="1:68">
@@ -18051,7 +18054,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7330023</v>
+        <v>7330017</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -18060,196 +18063,196 @@
         <v>69</v>
       </c>
       <c r="E84" s="2">
-        <v>45408.85416666666</v>
+        <v>45403.875</v>
       </c>
       <c r="F84">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H84" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O84" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
       </c>
       <c r="R84">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S84">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="T84">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="U84">
-        <v>2.97</v>
+        <v>2.63</v>
       </c>
       <c r="V84">
-        <v>2.91</v>
+        <v>3.25</v>
       </c>
       <c r="W84">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="X84">
-        <v>7.31</v>
+        <v>10</v>
       </c>
       <c r="Y84">
         <v>1.06</v>
       </c>
       <c r="Z84">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AA84">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AB84">
+        <v>2.2</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
+      <c r="AF84">
+        <v>0</v>
+      </c>
+      <c r="AG84">
         <v>2.15</v>
       </c>
-      <c r="AC84">
-        <v>1.06</v>
-      </c>
-      <c r="AD84">
-        <v>8</v>
-      </c>
-      <c r="AE84">
-        <v>1.33</v>
-      </c>
-      <c r="AF84">
-        <v>3.2</v>
-      </c>
-      <c r="AG84">
-        <v>1.95</v>
-      </c>
       <c r="AH84">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="AI84">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AJ84">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AK84">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AL84">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AM84">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AN84">
-        <v>0.5</v>
+        <v>0.77</v>
       </c>
       <c r="AO84">
-        <v>1</v>
+        <v>1.69</v>
       </c>
       <c r="AP84">
         <v>0.67</v>
       </c>
       <c r="AQ84">
-        <v>0.93</v>
+        <v>1.67</v>
       </c>
       <c r="AR84">
-        <v>1.17</v>
+        <v>1.59</v>
       </c>
       <c r="AS84">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="AT84">
-        <v>2.6</v>
+        <v>3.06</v>
       </c>
       <c r="AU84">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV84">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX84">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="AY84">
         <v>9</v>
       </c>
       <c r="AZ84">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="BA84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC84">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD84">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="BE84">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="BF84">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="BG84">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="BH84">
-        <v>3.52</v>
+        <v>0</v>
       </c>
       <c r="BI84">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="BJ84">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="BK84">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="BL84">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BM84">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="BN84">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="BO84">
-        <v>3.18</v>
+        <v>0</v>
       </c>
       <c r="BP84">
-        <v>1.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:68">
@@ -18257,7 +18260,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7330022</v>
+        <v>7330023</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -18266,196 +18269,196 @@
         <v>69</v>
       </c>
       <c r="E85" s="2">
-        <v>45409.875</v>
+        <v>45408.85416666666</v>
       </c>
       <c r="F85">
         <v>15</v>
       </c>
       <c r="G85" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H85" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85">
         <v>1</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O85" t="s">
         <v>139</v>
       </c>
       <c r="P85" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="Q85">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="R85">
         <v>2.1</v>
       </c>
       <c r="S85">
+        <v>2.88</v>
+      </c>
+      <c r="T85">
+        <v>1.38</v>
+      </c>
+      <c r="U85">
+        <v>2.97</v>
+      </c>
+      <c r="V85">
+        <v>2.91</v>
+      </c>
+      <c r="W85">
+        <v>1.39</v>
+      </c>
+      <c r="X85">
+        <v>7.31</v>
+      </c>
+      <c r="Y85">
+        <v>1.06</v>
+      </c>
+      <c r="Z85">
+        <v>3.25</v>
+      </c>
+      <c r="AA85">
+        <v>3.3</v>
+      </c>
+      <c r="AB85">
+        <v>2.15</v>
+      </c>
+      <c r="AC85">
+        <v>1.06</v>
+      </c>
+      <c r="AD85">
+        <v>8</v>
+      </c>
+      <c r="AE85">
+        <v>1.33</v>
+      </c>
+      <c r="AF85">
+        <v>3.2</v>
+      </c>
+      <c r="AG85">
+        <v>1.95</v>
+      </c>
+      <c r="AH85">
+        <v>1.85</v>
+      </c>
+      <c r="AI85">
+        <v>1.73</v>
+      </c>
+      <c r="AJ85">
+        <v>2</v>
+      </c>
+      <c r="AK85">
+        <v>1.45</v>
+      </c>
+      <c r="AL85">
+        <v>1.29</v>
+      </c>
+      <c r="AM85">
+        <v>1.45</v>
+      </c>
+      <c r="AN85">
+        <v>0.5</v>
+      </c>
+      <c r="AO85">
+        <v>1</v>
+      </c>
+      <c r="AP85">
+        <v>0.67</v>
+      </c>
+      <c r="AQ85">
+        <v>0.93</v>
+      </c>
+      <c r="AR85">
+        <v>1.17</v>
+      </c>
+      <c r="AS85">
+        <v>1.43</v>
+      </c>
+      <c r="AT85">
+        <v>2.6</v>
+      </c>
+      <c r="AU85">
+        <v>6</v>
+      </c>
+      <c r="AV85">
+        <v>9</v>
+      </c>
+      <c r="AW85">
+        <v>3</v>
+      </c>
+      <c r="AX85">
+        <v>19</v>
+      </c>
+      <c r="AY85">
+        <v>9</v>
+      </c>
+      <c r="AZ85">
+        <v>28</v>
+      </c>
+      <c r="BA85">
+        <v>2</v>
+      </c>
+      <c r="BB85">
         <v>5</v>
       </c>
-      <c r="T85">
-        <v>1.42</v>
-      </c>
-      <c r="U85">
-        <v>2.6</v>
-      </c>
-      <c r="V85">
-        <v>3.1</v>
-      </c>
-      <c r="W85">
+      <c r="BC85">
+        <v>7</v>
+      </c>
+      <c r="BD85">
+        <v>1.88</v>
+      </c>
+      <c r="BE85">
+        <v>7.5</v>
+      </c>
+      <c r="BF85">
+        <v>2.4</v>
+      </c>
+      <c r="BG85">
+        <v>1.25</v>
+      </c>
+      <c r="BH85">
+        <v>3.52</v>
+      </c>
+      <c r="BI85">
+        <v>1.44</v>
+      </c>
+      <c r="BJ85">
+        <v>2.5</v>
+      </c>
+      <c r="BK85">
+        <v>2.38</v>
+      </c>
+      <c r="BL85">
+        <v>1.9</v>
+      </c>
+      <c r="BM85">
+        <v>2.3</v>
+      </c>
+      <c r="BN85">
+        <v>1.52</v>
+      </c>
+      <c r="BO85">
+        <v>3.18</v>
+      </c>
+      <c r="BP85">
         <v>1.3</v>
-      </c>
-      <c r="X85">
-        <v>6.8</v>
-      </c>
-      <c r="Y85">
-        <v>1.05</v>
-      </c>
-      <c r="Z85">
-        <v>1.75</v>
-      </c>
-      <c r="AA85">
-        <v>3.4</v>
-      </c>
-      <c r="AB85">
-        <v>5</v>
-      </c>
-      <c r="AC85">
-        <v>1.04</v>
-      </c>
-      <c r="AD85">
-        <v>7.8</v>
-      </c>
-      <c r="AE85">
-        <v>1.32</v>
-      </c>
-      <c r="AF85">
-        <v>3.1</v>
-      </c>
-      <c r="AG85">
-        <v>2.1</v>
-      </c>
-      <c r="AH85">
-        <v>1.7</v>
-      </c>
-      <c r="AI85">
-        <v>2</v>
-      </c>
-      <c r="AJ85">
-        <v>1.73</v>
-      </c>
-      <c r="AK85">
-        <v>1.1</v>
-      </c>
-      <c r="AL85">
-        <v>1.3</v>
-      </c>
-      <c r="AM85">
-        <v>1.9</v>
-      </c>
-      <c r="AN85">
-        <v>1.57</v>
-      </c>
-      <c r="AO85">
-        <v>1.07</v>
-      </c>
-      <c r="AP85">
-        <v>1.47</v>
-      </c>
-      <c r="AQ85">
-        <v>1.2</v>
-      </c>
-      <c r="AR85">
-        <v>1.44</v>
-      </c>
-      <c r="AS85">
-        <v>1.23</v>
-      </c>
-      <c r="AT85">
-        <v>2.67</v>
-      </c>
-      <c r="AU85">
-        <v>5</v>
-      </c>
-      <c r="AV85">
-        <v>3</v>
-      </c>
-      <c r="AW85">
-        <v>7</v>
-      </c>
-      <c r="AX85">
-        <v>6</v>
-      </c>
-      <c r="AY85">
-        <v>12</v>
-      </c>
-      <c r="AZ85">
-        <v>9</v>
-      </c>
-      <c r="BA85">
-        <v>5</v>
-      </c>
-      <c r="BB85">
-        <v>9</v>
-      </c>
-      <c r="BC85">
-        <v>14</v>
-      </c>
-      <c r="BD85">
-        <v>1.52</v>
-      </c>
-      <c r="BE85">
-        <v>8.5</v>
-      </c>
-      <c r="BF85">
-        <v>3.25</v>
-      </c>
-      <c r="BG85">
-        <v>1.22</v>
-      </c>
-      <c r="BH85">
-        <v>3.8</v>
-      </c>
-      <c r="BI85">
-        <v>1.41</v>
-      </c>
-      <c r="BJ85">
-        <v>2.7</v>
-      </c>
-      <c r="BK85">
-        <v>1.91</v>
-      </c>
-      <c r="BL85">
-        <v>1.99</v>
-      </c>
-      <c r="BM85">
-        <v>2.2</v>
-      </c>
-      <c r="BN85">
-        <v>1.6</v>
-      </c>
-      <c r="BO85">
-        <v>2.9</v>
-      </c>
-      <c r="BP85">
-        <v>1.36</v>
       </c>
     </row>
     <row r="86" spans="1:68">
@@ -18463,7 +18466,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7330024</v>
+        <v>7330022</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -18472,196 +18475,196 @@
         <v>69</v>
       </c>
       <c r="E86" s="2">
-        <v>45410.77083333334</v>
+        <v>45409.875</v>
       </c>
       <c r="F86">
         <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H86" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86">
         <v>1</v>
       </c>
       <c r="L86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O86" t="s">
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="Q86">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="R86">
         <v>2.1</v>
       </c>
       <c r="S86">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="T86">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="U86">
-        <v>3.02</v>
+        <v>2.6</v>
       </c>
       <c r="V86">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="W86">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="X86">
-        <v>7.32</v>
+        <v>6.8</v>
       </c>
       <c r="Y86">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z86">
-        <v>3.65</v>
+        <v>1.75</v>
       </c>
       <c r="AA86">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AB86">
-        <v>1.83</v>
+        <v>5</v>
       </c>
       <c r="AC86">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD86">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AE86">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AF86">
-        <v>3.34</v>
+        <v>3.1</v>
       </c>
       <c r="AG86">
+        <v>2.1</v>
+      </c>
+      <c r="AH86">
+        <v>1.7</v>
+      </c>
+      <c r="AI86">
+        <v>2</v>
+      </c>
+      <c r="AJ86">
+        <v>1.73</v>
+      </c>
+      <c r="AK86">
+        <v>1.1</v>
+      </c>
+      <c r="AL86">
+        <v>1.3</v>
+      </c>
+      <c r="AM86">
         <v>1.9</v>
       </c>
-      <c r="AH86">
-        <v>1.8</v>
-      </c>
-      <c r="AI86">
-        <v>1.83</v>
-      </c>
-      <c r="AJ86">
-        <v>1.83</v>
-      </c>
-      <c r="AK86">
-        <v>1.84</v>
-      </c>
-      <c r="AL86">
-        <v>1.26</v>
-      </c>
-      <c r="AM86">
+      <c r="AN86">
+        <v>1.57</v>
+      </c>
+      <c r="AO86">
+        <v>1.07</v>
+      </c>
+      <c r="AP86">
+        <v>1.47</v>
+      </c>
+      <c r="AQ86">
+        <v>1.2</v>
+      </c>
+      <c r="AR86">
+        <v>1.44</v>
+      </c>
+      <c r="AS86">
+        <v>1.23</v>
+      </c>
+      <c r="AT86">
+        <v>2.67</v>
+      </c>
+      <c r="AU86">
+        <v>5</v>
+      </c>
+      <c r="AV86">
+        <v>3</v>
+      </c>
+      <c r="AW86">
+        <v>7</v>
+      </c>
+      <c r="AX86">
+        <v>6</v>
+      </c>
+      <c r="AY86">
+        <v>12</v>
+      </c>
+      <c r="AZ86">
+        <v>9</v>
+      </c>
+      <c r="BA86">
+        <v>5</v>
+      </c>
+      <c r="BB86">
+        <v>9</v>
+      </c>
+      <c r="BC86">
+        <v>14</v>
+      </c>
+      <c r="BD86">
+        <v>1.52</v>
+      </c>
+      <c r="BE86">
+        <v>8.5</v>
+      </c>
+      <c r="BF86">
+        <v>3.25</v>
+      </c>
+      <c r="BG86">
         <v>1.22</v>
       </c>
-      <c r="AN86">
-        <v>1.38</v>
-      </c>
-      <c r="AO86">
-        <v>2.38</v>
-      </c>
-      <c r="AP86">
-        <v>1.5</v>
-      </c>
-      <c r="AQ86">
-        <v>2.21</v>
-      </c>
-      <c r="AR86">
-        <v>1.22</v>
-      </c>
-      <c r="AS86">
-        <v>1.51</v>
-      </c>
-      <c r="AT86">
-        <v>2.73</v>
-      </c>
-      <c r="AU86">
-        <v>3</v>
-      </c>
-      <c r="AV86">
-        <v>0</v>
-      </c>
-      <c r="AW86">
-        <v>2</v>
-      </c>
-      <c r="AX86">
-        <v>3</v>
-      </c>
-      <c r="AY86">
-        <v>5</v>
-      </c>
-      <c r="AZ86">
-        <v>3</v>
-      </c>
-      <c r="BA86">
-        <v>1</v>
-      </c>
-      <c r="BB86">
-        <v>3</v>
-      </c>
-      <c r="BC86">
-        <v>4</v>
-      </c>
-      <c r="BD86">
-        <v>2.37</v>
-      </c>
-      <c r="BE86">
-        <v>7.41</v>
-      </c>
-      <c r="BF86">
+      <c r="BH86">
+        <v>3.8</v>
+      </c>
+      <c r="BI86">
+        <v>1.41</v>
+      </c>
+      <c r="BJ86">
+        <v>2.7</v>
+      </c>
+      <c r="BK86">
         <v>1.91</v>
       </c>
-      <c r="BG86">
+      <c r="BL86">
+        <v>1.99</v>
+      </c>
+      <c r="BM86">
+        <v>2.2</v>
+      </c>
+      <c r="BN86">
+        <v>1.6</v>
+      </c>
+      <c r="BO86">
+        <v>2.9</v>
+      </c>
+      <c r="BP86">
         <v>1.36</v>
-      </c>
-      <c r="BH86">
-        <v>2.9</v>
-      </c>
-      <c r="BI86">
-        <v>1.48</v>
-      </c>
-      <c r="BJ86">
-        <v>2.47</v>
-      </c>
-      <c r="BK86">
-        <v>2</v>
-      </c>
-      <c r="BL86">
-        <v>1.8</v>
-      </c>
-      <c r="BM86">
-        <v>2.47</v>
-      </c>
-      <c r="BN86">
-        <v>1.48</v>
-      </c>
-      <c r="BO86">
-        <v>3.3</v>
-      </c>
-      <c r="BP86">
-        <v>1.29</v>
       </c>
     </row>
     <row r="87" spans="1:68">
@@ -18786,13 +18789,13 @@
         <v>1.29</v>
       </c>
       <c r="AO87">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AP87">
         <v>1.4</v>
       </c>
       <c r="AQ87">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -18875,7 +18878,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7330019</v>
+        <v>7330024</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18884,34 +18887,34 @@
         <v>69</v>
       </c>
       <c r="E88" s="2">
-        <v>45410.875</v>
+        <v>45410.77083333334</v>
       </c>
       <c r="F88">
         <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H88" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M88">
         <v>0</v>
       </c>
       <c r="N88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O88" t="s">
         <v>142</v>
@@ -18920,160 +18923,572 @@
         <v>89</v>
       </c>
       <c r="Q88">
+        <v>4</v>
+      </c>
+      <c r="R88">
+        <v>2.1</v>
+      </c>
+      <c r="S88">
+        <v>2.75</v>
+      </c>
+      <c r="T88">
+        <v>1.37</v>
+      </c>
+      <c r="U88">
+        <v>3.02</v>
+      </c>
+      <c r="V88">
+        <v>2.86</v>
+      </c>
+      <c r="W88">
+        <v>1.4</v>
+      </c>
+      <c r="X88">
+        <v>7.32</v>
+      </c>
+      <c r="Y88">
+        <v>1.06</v>
+      </c>
+      <c r="Z88">
+        <v>3.65</v>
+      </c>
+      <c r="AA88">
+        <v>3.3</v>
+      </c>
+      <c r="AB88">
         <v>1.83</v>
       </c>
-      <c r="R88">
+      <c r="AC88">
+        <v>1.01</v>
+      </c>
+      <c r="AD88">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE88">
+        <v>1.26</v>
+      </c>
+      <c r="AF88">
+        <v>3.34</v>
+      </c>
+      <c r="AG88">
+        <v>1.9</v>
+      </c>
+      <c r="AH88">
+        <v>1.8</v>
+      </c>
+      <c r="AI88">
+        <v>1.83</v>
+      </c>
+      <c r="AJ88">
+        <v>1.83</v>
+      </c>
+      <c r="AK88">
+        <v>1.84</v>
+      </c>
+      <c r="AL88">
+        <v>1.26</v>
+      </c>
+      <c r="AM88">
+        <v>1.22</v>
+      </c>
+      <c r="AN88">
+        <v>1.38</v>
+      </c>
+      <c r="AO88">
+        <v>2.29</v>
+      </c>
+      <c r="AP88">
+        <v>1.5</v>
+      </c>
+      <c r="AQ88">
+        <v>2.13</v>
+      </c>
+      <c r="AR88">
+        <v>1.22</v>
+      </c>
+      <c r="AS88">
+        <v>1.58</v>
+      </c>
+      <c r="AT88">
+        <v>2.8</v>
+      </c>
+      <c r="AU88">
+        <v>3</v>
+      </c>
+      <c r="AV88">
+        <v>0</v>
+      </c>
+      <c r="AW88">
+        <v>2</v>
+      </c>
+      <c r="AX88">
+        <v>3</v>
+      </c>
+      <c r="AY88">
+        <v>5</v>
+      </c>
+      <c r="AZ88">
+        <v>3</v>
+      </c>
+      <c r="BA88">
+        <v>1</v>
+      </c>
+      <c r="BB88">
+        <v>3</v>
+      </c>
+      <c r="BC88">
+        <v>4</v>
+      </c>
+      <c r="BD88">
+        <v>2.37</v>
+      </c>
+      <c r="BE88">
+        <v>7.41</v>
+      </c>
+      <c r="BF88">
+        <v>1.91</v>
+      </c>
+      <c r="BG88">
+        <v>1.36</v>
+      </c>
+      <c r="BH88">
+        <v>2.9</v>
+      </c>
+      <c r="BI88">
+        <v>1.48</v>
+      </c>
+      <c r="BJ88">
+        <v>2.47</v>
+      </c>
+      <c r="BK88">
+        <v>2</v>
+      </c>
+      <c r="BL88">
+        <v>1.8</v>
+      </c>
+      <c r="BM88">
+        <v>2.47</v>
+      </c>
+      <c r="BN88">
+        <v>1.48</v>
+      </c>
+      <c r="BO88">
+        <v>3.3</v>
+      </c>
+      <c r="BP88">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7330019</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45410.875</v>
+      </c>
+      <c r="F89">
+        <v>15</v>
+      </c>
+      <c r="G89" t="s">
+        <v>74</v>
+      </c>
+      <c r="H89" t="s">
+        <v>73</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>4</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>4</v>
+      </c>
+      <c r="O89" t="s">
+        <v>143</v>
+      </c>
+      <c r="P89" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q89">
+        <v>1.83</v>
+      </c>
+      <c r="R89">
         <v>2.4</v>
       </c>
-      <c r="S88">
+      <c r="S89">
         <v>8</v>
       </c>
-      <c r="T88">
+      <c r="T89">
         <v>1.36</v>
       </c>
-      <c r="U88">
+      <c r="U89">
         <v>2.99</v>
       </c>
-      <c r="V88">
+      <c r="V89">
         <v>2.7</v>
       </c>
-      <c r="W88">
+      <c r="W89">
         <v>1.43</v>
       </c>
-      <c r="X88">
+      <c r="X89">
         <v>6.6</v>
       </c>
-      <c r="Y88">
+      <c r="Y89">
         <v>1.09</v>
       </c>
-      <c r="Z88">
+      <c r="Z89">
         <v>1.36</v>
       </c>
-      <c r="AA88">
+      <c r="AA89">
         <v>5</v>
       </c>
-      <c r="AB88">
+      <c r="AB89">
         <v>8</v>
       </c>
-      <c r="AC88">
+      <c r="AC89">
         <v>1.05</v>
       </c>
-      <c r="AD88">
+      <c r="AD89">
         <v>9</v>
       </c>
-      <c r="AE88">
+      <c r="AE89">
         <v>1.25</v>
       </c>
-      <c r="AF88">
+      <c r="AF89">
         <v>3.75</v>
       </c>
-      <c r="AG88">
+      <c r="AG89">
         <v>1.8</v>
       </c>
-      <c r="AH88">
-        <v>2</v>
-      </c>
-      <c r="AI88">
+      <c r="AH89">
+        <v>2</v>
+      </c>
+      <c r="AI89">
         <v>2.2</v>
       </c>
-      <c r="AJ88">
+      <c r="AJ89">
         <v>1.62</v>
       </c>
-      <c r="AK88">
+      <c r="AK89">
         <v>1.05</v>
       </c>
-      <c r="AL88">
+      <c r="AL89">
         <v>1.18</v>
       </c>
-      <c r="AM88">
-        <v>3</v>
-      </c>
-      <c r="AN88">
-        <v>2</v>
-      </c>
-      <c r="AO88">
-        <v>1</v>
-      </c>
-      <c r="AP88">
+      <c r="AM89">
+        <v>3</v>
+      </c>
+      <c r="AN89">
+        <v>2</v>
+      </c>
+      <c r="AO89">
+        <v>1</v>
+      </c>
+      <c r="AP89">
         <v>2.07</v>
       </c>
-      <c r="AQ88">
+      <c r="AQ89">
         <v>0.93</v>
       </c>
-      <c r="AR88">
+      <c r="AR89">
         <v>1.9</v>
       </c>
-      <c r="AS88">
+      <c r="AS89">
         <v>1.22</v>
       </c>
-      <c r="AT88">
+      <c r="AT89">
         <v>3.12</v>
       </c>
-      <c r="AU88">
+      <c r="AU89">
         <v>5</v>
       </c>
-      <c r="AV88">
+      <c r="AV89">
         <v>4</v>
       </c>
-      <c r="AW88">
+      <c r="AW89">
         <v>8</v>
       </c>
-      <c r="AX88">
-        <v>2</v>
-      </c>
-      <c r="AY88">
+      <c r="AX89">
+        <v>2</v>
+      </c>
+      <c r="AY89">
         <v>13</v>
       </c>
-      <c r="AZ88">
+      <c r="AZ89">
         <v>6</v>
       </c>
-      <c r="BA88">
+      <c r="BA89">
         <v>4</v>
       </c>
-      <c r="BB88">
-        <v>3</v>
-      </c>
-      <c r="BC88">
+      <c r="BB89">
+        <v>3</v>
+      </c>
+      <c r="BC89">
         <v>7</v>
       </c>
-      <c r="BD88">
+      <c r="BD89">
         <v>1.31</v>
       </c>
-      <c r="BE88">
+      <c r="BE89">
         <v>11</v>
       </c>
-      <c r="BF88">
+      <c r="BF89">
         <v>4.22</v>
       </c>
-      <c r="BG88">
+      <c r="BG89">
         <v>1.22</v>
       </c>
-      <c r="BH88">
+      <c r="BH89">
         <v>3.8</v>
       </c>
-      <c r="BI88">
+      <c r="BI89">
         <v>1.36</v>
       </c>
-      <c r="BJ88">
+      <c r="BJ89">
         <v>2.9</v>
       </c>
-      <c r="BK88">
-        <v>2</v>
-      </c>
-      <c r="BL88">
+      <c r="BK89">
+        <v>2</v>
+      </c>
+      <c r="BL89">
         <v>2.13</v>
       </c>
-      <c r="BM88">
+      <c r="BM89">
         <v>2.1</v>
       </c>
-      <c r="BN88">
+      <c r="BN89">
         <v>1.65</v>
       </c>
-      <c r="BO88">
+      <c r="BO89">
         <v>2.75</v>
       </c>
-      <c r="BP88">
+      <c r="BP89">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7330020</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45411.85416666666</v>
+      </c>
+      <c r="F90">
+        <v>15</v>
+      </c>
+      <c r="G90" t="s">
+        <v>71</v>
+      </c>
+      <c r="H90" t="s">
+        <v>70</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90" t="s">
+        <v>89</v>
+      </c>
+      <c r="P90" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q90">
+        <v>2.3</v>
+      </c>
+      <c r="R90">
+        <v>2.2</v>
+      </c>
+      <c r="S90">
+        <v>5</v>
+      </c>
+      <c r="T90">
+        <v>1.4</v>
+      </c>
+      <c r="U90">
+        <v>2.75</v>
+      </c>
+      <c r="V90">
+        <v>3</v>
+      </c>
+      <c r="W90">
+        <v>1.36</v>
+      </c>
+      <c r="X90">
+        <v>8</v>
+      </c>
+      <c r="Y90">
+        <v>1.08</v>
+      </c>
+      <c r="Z90">
+        <v>1.7</v>
+      </c>
+      <c r="AA90">
+        <v>3.6</v>
+      </c>
+      <c r="AB90">
+        <v>5</v>
+      </c>
+      <c r="AC90">
+        <v>1.06</v>
+      </c>
+      <c r="AD90">
+        <v>8</v>
+      </c>
+      <c r="AE90">
+        <v>1.3</v>
+      </c>
+      <c r="AF90">
+        <v>3.3</v>
+      </c>
+      <c r="AG90">
+        <v>1.9</v>
+      </c>
+      <c r="AH90">
+        <v>1.9</v>
+      </c>
+      <c r="AI90">
+        <v>1.83</v>
+      </c>
+      <c r="AJ90">
+        <v>1.83</v>
+      </c>
+      <c r="AK90">
+        <v>1.17</v>
+      </c>
+      <c r="AL90">
+        <v>1.21</v>
+      </c>
+      <c r="AM90">
+        <v>1.81</v>
+      </c>
+      <c r="AN90">
+        <v>1.79</v>
+      </c>
+      <c r="AO90">
+        <v>1.36</v>
+      </c>
+      <c r="AP90">
+        <v>1.67</v>
+      </c>
+      <c r="AQ90">
+        <v>1.47</v>
+      </c>
+      <c r="AR90">
+        <v>1.32</v>
+      </c>
+      <c r="AS90">
+        <v>1.29</v>
+      </c>
+      <c r="AT90">
+        <v>2.61</v>
+      </c>
+      <c r="AU90">
+        <v>4</v>
+      </c>
+      <c r="AV90">
+        <v>6</v>
+      </c>
+      <c r="AW90">
+        <v>4</v>
+      </c>
+      <c r="AX90">
+        <v>0</v>
+      </c>
+      <c r="AY90">
+        <v>8</v>
+      </c>
+      <c r="AZ90">
+        <v>6</v>
+      </c>
+      <c r="BA90">
+        <v>6</v>
+      </c>
+      <c r="BB90">
+        <v>1</v>
+      </c>
+      <c r="BC90">
+        <v>7</v>
+      </c>
+      <c r="BD90">
+        <v>1.68</v>
+      </c>
+      <c r="BE90">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF90">
+        <v>2.45</v>
+      </c>
+      <c r="BG90">
+        <v>1.29</v>
+      </c>
+      <c r="BH90">
+        <v>3.4</v>
+      </c>
+      <c r="BI90">
+        <v>1.48</v>
+      </c>
+      <c r="BJ90">
+        <v>2.5</v>
+      </c>
+      <c r="BK90">
+        <v>2.38</v>
+      </c>
+      <c r="BL90">
+        <v>2</v>
+      </c>
+      <c r="BM90">
+        <v>2.2</v>
+      </c>
+      <c r="BN90">
+        <v>1.62</v>
+      </c>
+      <c r="BO90">
+        <v>2.8</v>
+      </c>
+      <c r="BP90">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -448,6 +448,9 @@
     <t>['15', '27', '50', '75']</t>
   </si>
   <si>
+    <t>['49']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -584,6 +587,15 @@
   </si>
   <si>
     <t>['20', '90+3']</t>
+  </si>
+  <si>
+    <t>['70', '72', '90+3']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['26', '53', '62']</t>
   </si>
 </sst>
 </file>
@@ -945,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP90"/>
+  <dimension ref="A1:BP93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1282,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ2">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1410,7 +1422,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1694,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -2106,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ6">
         <v>0.67</v>
@@ -2234,7 +2246,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2312,10 +2324,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2440,7 +2452,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2518,7 +2530,7 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AQ8">
         <v>0.93</v>
@@ -2646,7 +2658,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2852,7 +2864,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -2933,7 +2945,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ10">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3058,7 +3070,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3136,10 +3148,10 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3470,7 +3482,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3548,10 +3560,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ13">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR13">
         <v>1.34</v>
@@ -3676,7 +3688,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q14">
         <v>2.63</v>
@@ -3754,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ14">
         <v>0.93</v>
@@ -3882,7 +3894,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -3963,7 +3975,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ15">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR15">
         <v>1.26</v>
@@ -4169,7 +4181,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ16">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR16">
         <v>1.67</v>
@@ -4372,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
         <v>1.2</v>
@@ -4500,7 +4512,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4581,7 +4593,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ18">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4706,7 +4718,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4784,10 +4796,10 @@
         <v>1.67</v>
       </c>
       <c r="AP19">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AQ19">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>1.77</v>
@@ -4912,7 +4924,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5118,7 +5130,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5199,7 +5211,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ21">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR21">
         <v>1.74</v>
@@ -5324,7 +5336,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5405,7 +5417,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ22">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR22">
         <v>1.61</v>
@@ -5608,7 +5620,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>1.5</v>
@@ -5736,7 +5748,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5814,7 +5826,7 @@
         <v>1.67</v>
       </c>
       <c r="AP24">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ24">
         <v>1.67</v>
@@ -6148,7 +6160,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6432,10 +6444,10 @@
         <v>1.75</v>
       </c>
       <c r="AP27">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR27">
         <v>1.24</v>
@@ -6560,7 +6572,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6844,10 +6856,10 @@
         <v>2.5</v>
       </c>
       <c r="AP29">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ29">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR29">
         <v>2.35</v>
@@ -7050,10 +7062,10 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ30">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR30">
         <v>1.47</v>
@@ -7259,7 +7271,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ31">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR31">
         <v>1.29</v>
@@ -7384,7 +7396,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7462,10 +7474,10 @@
         <v>1.6</v>
       </c>
       <c r="AP32">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ32">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR32">
         <v>1.26</v>
@@ -7671,7 +7683,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ33">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR33">
         <v>1.34</v>
@@ -7796,7 +7808,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -7877,7 +7889,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ34">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR34">
         <v>1.7</v>
@@ -8002,7 +8014,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8080,7 +8092,7 @@
         <v>0.6</v>
       </c>
       <c r="AP35">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AQ35">
         <v>0.67</v>
@@ -8208,7 +8220,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8414,7 +8426,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8492,7 +8504,7 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ37">
         <v>0.93</v>
@@ -8701,7 +8713,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR38">
         <v>0.99</v>
@@ -8904,7 +8916,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ39">
         <v>0.93</v>
@@ -9032,7 +9044,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9113,7 +9125,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ40">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR40">
         <v>1.42</v>
@@ -9238,7 +9250,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9316,7 +9328,7 @@
         <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ41">
         <v>1.67</v>
@@ -9444,7 +9456,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9522,7 +9534,7 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
         <v>1.2</v>
@@ -9650,7 +9662,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9728,10 +9740,10 @@
         <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR43">
         <v>1.28</v>
@@ -9856,7 +9868,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9934,7 +9946,7 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ44">
         <v>1.5</v>
@@ -10143,7 +10155,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ45">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR45">
         <v>1.36</v>
@@ -10268,7 +10280,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10474,7 +10486,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10761,7 +10773,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ48">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -10886,7 +10898,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11092,7 +11104,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11170,7 +11182,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ50">
         <v>1.2</v>
@@ -11298,7 +11310,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11582,10 +11594,10 @@
         <v>1.38</v>
       </c>
       <c r="AP52">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ52">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR52">
         <v>1.53</v>
@@ -11788,10 +11800,10 @@
         <v>1.38</v>
       </c>
       <c r="AP53">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR53">
         <v>1.71</v>
@@ -11916,7 +11928,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -11994,10 +12006,10 @@
         <v>1.38</v>
       </c>
       <c r="AP54">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ54">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR54">
         <v>1.55</v>
@@ -12122,7 +12134,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12328,7 +12340,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12409,7 +12421,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ56">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -12534,7 +12546,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12612,7 +12624,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AQ57">
         <v>1.2</v>
@@ -12740,7 +12752,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -12818,7 +12830,7 @@
         <v>0.44</v>
       </c>
       <c r="AP58">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
         <v>0.67</v>
@@ -13024,7 +13036,7 @@
         <v>1.11</v>
       </c>
       <c r="AP59">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ59">
         <v>0.93</v>
@@ -13152,7 +13164,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13233,7 +13245,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ60">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR60">
         <v>1.2</v>
@@ -13439,7 +13451,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ61">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR61">
         <v>1.17</v>
@@ -13642,10 +13654,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP62">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ62">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR62">
         <v>2</v>
@@ -13848,7 +13860,7 @@
         <v>1.7</v>
       </c>
       <c r="AP63">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
         <v>1.67</v>
@@ -14263,7 +14275,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR65">
         <v>1.26</v>
@@ -14388,7 +14400,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14594,7 +14606,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14672,10 +14684,10 @@
         <v>1.36</v>
       </c>
       <c r="AP67">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AQ67">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -14800,7 +14812,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14881,7 +14893,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ68">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR68">
         <v>1.18</v>
@@ -15084,10 +15096,10 @@
         <v>1.27</v>
       </c>
       <c r="AP69">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR69">
         <v>1.74</v>
@@ -15499,7 +15511,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR71">
         <v>1.26</v>
@@ -15702,7 +15714,7 @@
         <v>1.17</v>
       </c>
       <c r="AP72">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ72">
         <v>0.93</v>
@@ -15830,7 +15842,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16036,7 +16048,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16242,7 +16254,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16323,7 +16335,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ75">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR75">
         <v>1.39</v>
@@ -16448,7 +16460,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16526,10 +16538,10 @@
         <v>2.27</v>
       </c>
       <c r="AP76">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ76">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR76">
         <v>1.47</v>
@@ -16732,10 +16744,10 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ77">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR77">
         <v>1.95</v>
@@ -16860,7 +16872,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -16938,10 +16950,10 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AQ78">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR78">
         <v>1.66</v>
@@ -17066,7 +17078,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17147,7 +17159,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ79">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR79">
         <v>1.38</v>
@@ -17272,7 +17284,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17353,7 +17365,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ80">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR80">
         <v>1.36</v>
@@ -17556,7 +17568,7 @@
         <v>1.08</v>
       </c>
       <c r="AP81">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ81">
         <v>0.93</v>
@@ -17762,7 +17774,7 @@
         <v>0.54</v>
       </c>
       <c r="AP82">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ82">
         <v>0.67</v>
@@ -17890,7 +17902,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -17971,7 +17983,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ83">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR83">
         <v>1.25</v>
@@ -18096,7 +18108,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18174,7 +18186,7 @@
         <v>1.69</v>
       </c>
       <c r="AP84">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AQ84">
         <v>1.67</v>
@@ -18508,7 +18520,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18586,7 +18598,7 @@
         <v>1.07</v>
       </c>
       <c r="AP86">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ86">
         <v>1.2</v>
@@ -18792,10 +18804,10 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -19001,7 +19013,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR88">
         <v>1.22</v>
@@ -19204,7 +19216,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ89">
         <v>0.93</v>
@@ -19413,7 +19425,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ90">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR90">
         <v>1.32</v>
@@ -19489,6 +19501,624 @@
       </c>
       <c r="BP90">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7330029</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45415.77083333334</v>
+      </c>
+      <c r="F91">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>70</v>
+      </c>
+      <c r="H91" t="s">
+        <v>75</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>3</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91" t="s">
+        <v>89</v>
+      </c>
+      <c r="P91" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q91">
+        <v>3.6</v>
+      </c>
+      <c r="R91">
+        <v>2.05</v>
+      </c>
+      <c r="S91">
+        <v>3.2</v>
+      </c>
+      <c r="T91">
+        <v>1.42</v>
+      </c>
+      <c r="U91">
+        <v>2.62</v>
+      </c>
+      <c r="V91">
+        <v>3</v>
+      </c>
+      <c r="W91">
+        <v>1.33</v>
+      </c>
+      <c r="X91">
+        <v>7.6</v>
+      </c>
+      <c r="Y91">
+        <v>1.06</v>
+      </c>
+      <c r="Z91">
+        <v>2.7</v>
+      </c>
+      <c r="AA91">
+        <v>3.2</v>
+      </c>
+      <c r="AB91">
+        <v>2.6</v>
+      </c>
+      <c r="AC91">
+        <v>1.06</v>
+      </c>
+      <c r="AD91">
+        <v>8</v>
+      </c>
+      <c r="AE91">
+        <v>1.33</v>
+      </c>
+      <c r="AF91">
+        <v>3.1</v>
+      </c>
+      <c r="AG91">
+        <v>2.1</v>
+      </c>
+      <c r="AH91">
+        <v>1.7</v>
+      </c>
+      <c r="AI91">
+        <v>1.83</v>
+      </c>
+      <c r="AJ91">
+        <v>1.83</v>
+      </c>
+      <c r="AK91">
+        <v>1.53</v>
+      </c>
+      <c r="AL91">
+        <v>1.25</v>
+      </c>
+      <c r="AM91">
+        <v>1.42</v>
+      </c>
+      <c r="AN91">
+        <v>1.47</v>
+      </c>
+      <c r="AO91">
+        <v>1.4</v>
+      </c>
+      <c r="AP91">
+        <v>1.38</v>
+      </c>
+      <c r="AQ91">
+        <v>1.5</v>
+      </c>
+      <c r="AR91">
+        <v>1.43</v>
+      </c>
+      <c r="AS91">
+        <v>1.51</v>
+      </c>
+      <c r="AT91">
+        <v>2.94</v>
+      </c>
+      <c r="AU91">
+        <v>4</v>
+      </c>
+      <c r="AV91">
+        <v>6</v>
+      </c>
+      <c r="AW91">
+        <v>2</v>
+      </c>
+      <c r="AX91">
+        <v>1</v>
+      </c>
+      <c r="AY91">
+        <v>6</v>
+      </c>
+      <c r="AZ91">
+        <v>7</v>
+      </c>
+      <c r="BA91">
+        <v>3</v>
+      </c>
+      <c r="BB91">
+        <v>1</v>
+      </c>
+      <c r="BC91">
+        <v>4</v>
+      </c>
+      <c r="BD91">
+        <v>1.68</v>
+      </c>
+      <c r="BE91">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF91">
+        <v>2.69</v>
+      </c>
+      <c r="BG91">
+        <v>1.23</v>
+      </c>
+      <c r="BH91">
+        <v>3.7</v>
+      </c>
+      <c r="BI91">
+        <v>1.46</v>
+      </c>
+      <c r="BJ91">
+        <v>2.52</v>
+      </c>
+      <c r="BK91">
+        <v>1.85</v>
+      </c>
+      <c r="BL91">
+        <v>1.85</v>
+      </c>
+      <c r="BM91">
+        <v>2.37</v>
+      </c>
+      <c r="BN91">
+        <v>1.51</v>
+      </c>
+      <c r="BO91">
+        <v>3.2</v>
+      </c>
+      <c r="BP91">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7330028</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45415.875</v>
+      </c>
+      <c r="F92">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>76</v>
+      </c>
+      <c r="H92" t="s">
+        <v>72</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92" t="s">
+        <v>89</v>
+      </c>
+      <c r="P92" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q92">
+        <v>3.25</v>
+      </c>
+      <c r="R92">
+        <v>2.2</v>
+      </c>
+      <c r="S92">
+        <v>3.2</v>
+      </c>
+      <c r="T92">
+        <v>1.43</v>
+      </c>
+      <c r="U92">
+        <v>2.63</v>
+      </c>
+      <c r="V92">
+        <v>3.25</v>
+      </c>
+      <c r="W92">
+        <v>1.29</v>
+      </c>
+      <c r="X92">
+        <v>8.4</v>
+      </c>
+      <c r="Y92">
+        <v>1.05</v>
+      </c>
+      <c r="Z92">
+        <v>2.7</v>
+      </c>
+      <c r="AA92">
+        <v>3.25</v>
+      </c>
+      <c r="AB92">
+        <v>2.55</v>
+      </c>
+      <c r="AC92">
+        <v>1.07</v>
+      </c>
+      <c r="AD92">
+        <v>8</v>
+      </c>
+      <c r="AE92">
+        <v>1.36</v>
+      </c>
+      <c r="AF92">
+        <v>3.05</v>
+      </c>
+      <c r="AG92">
+        <v>1.95</v>
+      </c>
+      <c r="AH92">
+        <v>1.85</v>
+      </c>
+      <c r="AI92">
+        <v>1.73</v>
+      </c>
+      <c r="AJ92">
+        <v>2</v>
+      </c>
+      <c r="AK92">
+        <v>1.49</v>
+      </c>
+      <c r="AL92">
+        <v>1.33</v>
+      </c>
+      <c r="AM92">
+        <v>1.37</v>
+      </c>
+      <c r="AN92">
+        <v>0.67</v>
+      </c>
+      <c r="AO92">
+        <v>1.47</v>
+      </c>
+      <c r="AP92">
+        <v>0.63</v>
+      </c>
+      <c r="AQ92">
+        <v>1.56</v>
+      </c>
+      <c r="AR92">
+        <v>1.54</v>
+      </c>
+      <c r="AS92">
+        <v>1.45</v>
+      </c>
+      <c r="AT92">
+        <v>2.99</v>
+      </c>
+      <c r="AU92">
+        <v>4</v>
+      </c>
+      <c r="AV92">
+        <v>3</v>
+      </c>
+      <c r="AW92">
+        <v>3</v>
+      </c>
+      <c r="AX92">
+        <v>7</v>
+      </c>
+      <c r="AY92">
+        <v>7</v>
+      </c>
+      <c r="AZ92">
+        <v>10</v>
+      </c>
+      <c r="BA92">
+        <v>3</v>
+      </c>
+      <c r="BB92">
+        <v>3</v>
+      </c>
+      <c r="BC92">
+        <v>6</v>
+      </c>
+      <c r="BD92">
+        <v>2.24</v>
+      </c>
+      <c r="BE92">
+        <v>7.7</v>
+      </c>
+      <c r="BF92">
+        <v>1.98</v>
+      </c>
+      <c r="BG92">
+        <v>1.23</v>
+      </c>
+      <c r="BH92">
+        <v>3.7</v>
+      </c>
+      <c r="BI92">
+        <v>1.5</v>
+      </c>
+      <c r="BJ92">
+        <v>2.4</v>
+      </c>
+      <c r="BK92">
+        <v>2.1</v>
+      </c>
+      <c r="BL92">
+        <v>1.8</v>
+      </c>
+      <c r="BM92">
+        <v>2.4</v>
+      </c>
+      <c r="BN92">
+        <v>1.5</v>
+      </c>
+      <c r="BO92">
+        <v>3.2</v>
+      </c>
+      <c r="BP92">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7330025</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45415.875</v>
+      </c>
+      <c r="F93">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>79</v>
+      </c>
+      <c r="H93" t="s">
+        <v>74</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>3</v>
+      </c>
+      <c r="N93">
+        <v>4</v>
+      </c>
+      <c r="O93" t="s">
+        <v>144</v>
+      </c>
+      <c r="P93" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q93">
+        <v>3.4</v>
+      </c>
+      <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="S93">
+        <v>3.6</v>
+      </c>
+      <c r="T93">
+        <v>1.38</v>
+      </c>
+      <c r="U93">
+        <v>2.8</v>
+      </c>
+      <c r="V93">
+        <v>3</v>
+      </c>
+      <c r="W93">
+        <v>1.33</v>
+      </c>
+      <c r="X93">
+        <v>7.2</v>
+      </c>
+      <c r="Y93">
+        <v>1.07</v>
+      </c>
+      <c r="Z93">
+        <v>2.63</v>
+      </c>
+      <c r="AA93">
+        <v>2.9</v>
+      </c>
+      <c r="AB93">
+        <v>2.8</v>
+      </c>
+      <c r="AC93">
+        <v>1.05</v>
+      </c>
+      <c r="AD93">
+        <v>9</v>
+      </c>
+      <c r="AE93">
+        <v>1.3</v>
+      </c>
+      <c r="AF93">
+        <v>3.35</v>
+      </c>
+      <c r="AG93">
+        <v>2.35</v>
+      </c>
+      <c r="AH93">
+        <v>1.57</v>
+      </c>
+      <c r="AI93">
+        <v>1.91</v>
+      </c>
+      <c r="AJ93">
+        <v>1.8</v>
+      </c>
+      <c r="AK93">
+        <v>1.4</v>
+      </c>
+      <c r="AL93">
+        <v>1.3</v>
+      </c>
+      <c r="AM93">
+        <v>1.49</v>
+      </c>
+      <c r="AN93">
+        <v>2.13</v>
+      </c>
+      <c r="AO93">
+        <v>2.07</v>
+      </c>
+      <c r="AP93">
+        <v>2</v>
+      </c>
+      <c r="AQ93">
+        <v>2.13</v>
+      </c>
+      <c r="AR93">
+        <v>1.77</v>
+      </c>
+      <c r="AS93">
+        <v>1.73</v>
+      </c>
+      <c r="AT93">
+        <v>3.5</v>
+      </c>
+      <c r="AU93">
+        <v>6</v>
+      </c>
+      <c r="AV93">
+        <v>8</v>
+      </c>
+      <c r="AW93">
+        <v>3</v>
+      </c>
+      <c r="AX93">
+        <v>7</v>
+      </c>
+      <c r="AY93">
+        <v>9</v>
+      </c>
+      <c r="AZ93">
+        <v>15</v>
+      </c>
+      <c r="BA93">
+        <v>4</v>
+      </c>
+      <c r="BB93">
+        <v>4</v>
+      </c>
+      <c r="BC93">
+        <v>8</v>
+      </c>
+      <c r="BD93">
+        <v>1.93</v>
+      </c>
+      <c r="BE93">
+        <v>7.6</v>
+      </c>
+      <c r="BF93">
+        <v>2.32</v>
+      </c>
+      <c r="BG93">
+        <v>1.31</v>
+      </c>
+      <c r="BH93">
+        <v>3.14</v>
+      </c>
+      <c r="BI93">
+        <v>1.67</v>
+      </c>
+      <c r="BJ93">
+        <v>2.1</v>
+      </c>
+      <c r="BK93">
+        <v>2.38</v>
+      </c>
+      <c r="BL93">
+        <v>1.67</v>
+      </c>
+      <c r="BM93">
+        <v>2.77</v>
+      </c>
+      <c r="BN93">
+        <v>1.39</v>
+      </c>
+      <c r="BO93">
+        <v>3</v>
+      </c>
+      <c r="BP93">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -957,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP93"/>
+  <dimension ref="A1:BP94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1915,7 +1915,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ5">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ6">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ9">
         <v>1.67</v>
@@ -3357,7 +3357,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4387,7 +4387,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR17">
         <v>1.03</v>
@@ -4590,7 +4590,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -5005,7 +5005,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ20">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR20">
         <v>1.8</v>
@@ -5208,7 +5208,7 @@
         <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ21">
         <v>1.56</v>
@@ -6238,10 +6238,10 @@
         <v>0.25</v>
       </c>
       <c r="AP26">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ26">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR26">
         <v>1.5</v>
@@ -8095,7 +8095,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ35">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR35">
         <v>2</v>
@@ -8298,7 +8298,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ36">
         <v>1.5</v>
@@ -9122,7 +9122,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ40">
         <v>1.38</v>
@@ -9537,7 +9537,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR42">
         <v>1.46</v>
@@ -10361,7 +10361,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ46">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR46">
         <v>1.26</v>
@@ -10564,7 +10564,7 @@
         <v>0.57</v>
       </c>
       <c r="AP47">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ47">
         <v>0.93</v>
@@ -11185,7 +11185,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ50">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR50">
         <v>1.99</v>
@@ -11388,7 +11388,7 @@
         <v>1.63</v>
       </c>
       <c r="AP51">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ51">
         <v>1.67</v>
@@ -12627,7 +12627,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ57">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR57">
         <v>1.75</v>
@@ -12833,7 +12833,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR58">
         <v>1.39</v>
@@ -13242,7 +13242,7 @@
         <v>1.4</v>
       </c>
       <c r="AP60">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ60">
         <v>1.38</v>
@@ -13448,7 +13448,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ61">
         <v>1.56</v>
@@ -14478,7 +14478,7 @@
         <v>1.18</v>
       </c>
       <c r="AP66">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ66">
         <v>0.93</v>
@@ -14890,7 +14890,7 @@
         <v>1.7</v>
       </c>
       <c r="AP68">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ68">
         <v>2.13</v>
@@ -15920,7 +15920,7 @@
         <v>1.36</v>
       </c>
       <c r="AP73">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ73">
         <v>1.5</v>
@@ -16129,7 +16129,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ74">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR74">
         <v>1.3</v>
@@ -17777,7 +17777,7 @@
         <v>2</v>
       </c>
       <c r="AQ82">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR82">
         <v>1.7</v>
@@ -17980,7 +17980,7 @@
         <v>1.31</v>
       </c>
       <c r="AP83">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ83">
         <v>1.5</v>
@@ -18392,7 +18392,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ85">
         <v>0.93</v>
@@ -18601,7 +18601,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ86">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR86">
         <v>1.44</v>
@@ -20119,6 +20119,212 @@
       </c>
       <c r="BP93">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7330027</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45416.85416666666</v>
+      </c>
+      <c r="F94">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>77</v>
+      </c>
+      <c r="H94" t="s">
+        <v>81</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94" t="s">
+        <v>89</v>
+      </c>
+      <c r="P94" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q94">
+        <v>3</v>
+      </c>
+      <c r="R94">
+        <v>2.1</v>
+      </c>
+      <c r="S94">
+        <v>3.6</v>
+      </c>
+      <c r="T94">
+        <v>1.42</v>
+      </c>
+      <c r="U94">
+        <v>2.89</v>
+      </c>
+      <c r="V94">
+        <v>3.08</v>
+      </c>
+      <c r="W94">
+        <v>1.37</v>
+      </c>
+      <c r="X94">
+        <v>7.6</v>
+      </c>
+      <c r="Y94">
+        <v>1.05</v>
+      </c>
+      <c r="Z94">
+        <v>2.3</v>
+      </c>
+      <c r="AA94">
+        <v>3.1</v>
+      </c>
+      <c r="AB94">
+        <v>3</v>
+      </c>
+      <c r="AC94">
+        <v>1.04</v>
+      </c>
+      <c r="AD94">
+        <v>8.5</v>
+      </c>
+      <c r="AE94">
+        <v>1.3</v>
+      </c>
+      <c r="AF94">
+        <v>3.2</v>
+      </c>
+      <c r="AG94">
+        <v>2.05</v>
+      </c>
+      <c r="AH94">
+        <v>1.75</v>
+      </c>
+      <c r="AI94">
+        <v>1.8</v>
+      </c>
+      <c r="AJ94">
+        <v>1.91</v>
+      </c>
+      <c r="AK94">
+        <v>1.33</v>
+      </c>
+      <c r="AL94">
+        <v>1.31</v>
+      </c>
+      <c r="AM94">
+        <v>1.56</v>
+      </c>
+      <c r="AN94">
+        <v>1.2</v>
+      </c>
+      <c r="AO94">
+        <v>0.67</v>
+      </c>
+      <c r="AP94">
+        <v>1.19</v>
+      </c>
+      <c r="AQ94">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR94">
+        <v>1.22</v>
+      </c>
+      <c r="AS94">
+        <v>1.29</v>
+      </c>
+      <c r="AT94">
+        <v>2.51</v>
+      </c>
+      <c r="AU94">
+        <v>3</v>
+      </c>
+      <c r="AV94">
+        <v>0</v>
+      </c>
+      <c r="AW94">
+        <v>3</v>
+      </c>
+      <c r="AX94">
+        <v>7</v>
+      </c>
+      <c r="AY94">
+        <v>6</v>
+      </c>
+      <c r="AZ94">
+        <v>7</v>
+      </c>
+      <c r="BA94">
+        <v>3</v>
+      </c>
+      <c r="BB94">
+        <v>5</v>
+      </c>
+      <c r="BC94">
+        <v>8</v>
+      </c>
+      <c r="BD94">
+        <v>2.01</v>
+      </c>
+      <c r="BE94">
+        <v>7.6</v>
+      </c>
+      <c r="BF94">
+        <v>2.21</v>
+      </c>
+      <c r="BG94">
+        <v>1.2</v>
+      </c>
+      <c r="BH94">
+        <v>4.08</v>
+      </c>
+      <c r="BI94">
+        <v>1.48</v>
+      </c>
+      <c r="BJ94">
+        <v>2.47</v>
+      </c>
+      <c r="BK94">
+        <v>2.25</v>
+      </c>
+      <c r="BL94">
+        <v>1.95</v>
+      </c>
+      <c r="BM94">
+        <v>2.33</v>
+      </c>
+      <c r="BN94">
+        <v>1.53</v>
+      </c>
+      <c r="BO94">
+        <v>3.1</v>
+      </c>
+      <c r="BP94">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -451,6 +451,9 @@
     <t>['49']</t>
   </si>
   <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -529,9 +532,6 @@
     <t>['70', '73']</t>
   </si>
   <si>
-    <t>['45+3']</t>
-  </si>
-  <si>
     <t>['82']</t>
   </si>
   <si>
@@ -596,6 +596,9 @@
   </si>
   <si>
     <t>['26', '53', '62']</t>
+  </si>
+  <si>
+    <t>['53', '89', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -957,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP94"/>
+  <dimension ref="A1:BP96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1422,7 +1425,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1500,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1709,7 +1712,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1912,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ5">
         <v>1.19</v>
@@ -2246,7 +2249,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2452,7 +2455,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2533,7 +2536,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ8">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2658,7 +2661,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2739,7 +2742,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ9">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2864,7 +2867,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -2942,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ10">
         <v>1.5</v>
@@ -3070,7 +3073,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3354,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ12">
         <v>0.6899999999999999</v>
@@ -3482,7 +3485,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3688,7 +3691,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q14">
         <v>2.63</v>
@@ -3769,7 +3772,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ14">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR14">
         <v>1.61</v>
@@ -3894,7 +3897,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -3972,7 +3975,7 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ15">
         <v>0.63</v>
@@ -4178,7 +4181,7 @@
         <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ16">
         <v>1.38</v>
@@ -4512,7 +4515,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4718,7 +4721,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4924,7 +4927,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5002,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ20">
         <v>0.6899999999999999</v>
@@ -5130,7 +5133,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5336,7 +5339,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5414,7 +5417,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ22">
         <v>2.13</v>
@@ -5623,7 +5626,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -5748,7 +5751,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5829,7 +5832,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR24">
         <v>1.32</v>
@@ -6032,10 +6035,10 @@
         <v>0.75</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ25">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR25">
         <v>1.13</v>
@@ -6160,7 +6163,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6572,7 +6575,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6650,10 +6653,10 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ28">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR28">
         <v>1.3</v>
@@ -7268,7 +7271,7 @@
         <v>1.8</v>
       </c>
       <c r="AP31">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ31">
         <v>1.5</v>
@@ -7396,7 +7399,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7680,7 +7683,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ33">
         <v>2.13</v>
@@ -7808,7 +7811,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -7886,7 +7889,7 @@
         <v>2.2</v>
       </c>
       <c r="AP34">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ34">
         <v>2</v>
@@ -8014,7 +8017,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8220,7 +8223,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8301,7 +8304,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR36">
         <v>1.44</v>
@@ -8426,7 +8429,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8507,7 +8510,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ37">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR37">
         <v>1.59</v>
@@ -8710,7 +8713,7 @@
         <v>0.83</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ38">
         <v>0.63</v>
@@ -8919,7 +8922,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ39">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR39">
         <v>1.98</v>
@@ -9044,7 +9047,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9250,7 +9253,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9331,7 +9334,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR41">
         <v>1.18</v>
@@ -9456,7 +9459,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9662,7 +9665,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9868,7 +9871,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9949,7 +9952,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR44">
         <v>1.26</v>
@@ -10152,7 +10155,7 @@
         <v>1.71</v>
       </c>
       <c r="AP45">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ45">
         <v>1.56</v>
@@ -10280,7 +10283,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10358,7 +10361,7 @@
         <v>0.43</v>
       </c>
       <c r="AP46">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ46">
         <v>0.6899999999999999</v>
@@ -10486,7 +10489,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10567,7 +10570,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ47">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR47">
         <v>1.29</v>
@@ -10770,7 +10773,7 @@
         <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ48">
         <v>0.63</v>
@@ -10898,7 +10901,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10976,10 +10979,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ49">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR49">
         <v>1.08</v>
@@ -11391,7 +11394,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ51">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR51">
         <v>1.3</v>
@@ -12212,10 +12215,10 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR55">
         <v>1.3</v>
@@ -12418,7 +12421,7 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ56">
         <v>2</v>
@@ -13039,7 +13042,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ59">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR59">
         <v>1.22</v>
@@ -13863,7 +13866,7 @@
         <v>2</v>
       </c>
       <c r="AQ63">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR63">
         <v>1.64</v>
@@ -14066,10 +14069,10 @@
         <v>1.3</v>
       </c>
       <c r="AP64">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ64">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR64">
         <v>1.39</v>
@@ -14272,7 +14275,7 @@
         <v>1.1</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ65">
         <v>1.5</v>
@@ -14481,7 +14484,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ66">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR66">
         <v>1.22</v>
@@ -15302,10 +15305,10 @@
         <v>1.64</v>
       </c>
       <c r="AP70">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ70">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR70">
         <v>1.37</v>
@@ -15508,7 +15511,7 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ71">
         <v>1.56</v>
@@ -15717,7 +15720,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ72">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR72">
         <v>1.49</v>
@@ -15923,7 +15926,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ73">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR73">
         <v>1.16</v>
@@ -16126,7 +16129,7 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ74">
         <v>1.19</v>
@@ -16332,7 +16335,7 @@
         <v>0.55</v>
       </c>
       <c r="AP75">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ75">
         <v>0.63</v>
@@ -17156,7 +17159,7 @@
         <v>1.46</v>
       </c>
       <c r="AP79">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ79">
         <v>1.56</v>
@@ -17362,7 +17365,7 @@
         <v>1.92</v>
       </c>
       <c r="AP80">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ80">
         <v>2.13</v>
@@ -17571,7 +17574,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ81">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR81">
         <v>1.24</v>
@@ -18189,7 +18192,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ84">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR84">
         <v>1.59</v>
@@ -18395,7 +18398,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ85">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR85">
         <v>1.17</v>
@@ -19010,7 +19013,7 @@
         <v>2.29</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ88">
         <v>2</v>
@@ -19219,7 +19222,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ89">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR89">
         <v>1.9</v>
@@ -19422,7 +19425,7 @@
         <v>1.36</v>
       </c>
       <c r="AP90">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ90">
         <v>1.38</v>
@@ -20325,6 +20328,418 @@
       </c>
       <c r="BP94">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7330030</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45417.75</v>
+      </c>
+      <c r="F95">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>73</v>
+      </c>
+      <c r="H95" t="s">
+        <v>71</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>3</v>
+      </c>
+      <c r="N95">
+        <v>4</v>
+      </c>
+      <c r="O95" t="s">
+        <v>145</v>
+      </c>
+      <c r="P95" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q95">
+        <v>5</v>
+      </c>
+      <c r="R95">
+        <v>2.1</v>
+      </c>
+      <c r="S95">
+        <v>2.4</v>
+      </c>
+      <c r="T95">
+        <v>1.42</v>
+      </c>
+      <c r="U95">
+        <v>2.73</v>
+      </c>
+      <c r="V95">
+        <v>2.99</v>
+      </c>
+      <c r="W95">
+        <v>1.36</v>
+      </c>
+      <c r="X95">
+        <v>7.7</v>
+      </c>
+      <c r="Y95">
+        <v>1.06</v>
+      </c>
+      <c r="Z95">
+        <v>3.9</v>
+      </c>
+      <c r="AA95">
+        <v>3.35</v>
+      </c>
+      <c r="AB95">
+        <v>1.8</v>
+      </c>
+      <c r="AC95">
+        <v>1.03</v>
+      </c>
+      <c r="AD95">
+        <v>8.4</v>
+      </c>
+      <c r="AE95">
+        <v>1.31</v>
+      </c>
+      <c r="AF95">
+        <v>3.04</v>
+      </c>
+      <c r="AG95">
+        <v>2</v>
+      </c>
+      <c r="AH95">
+        <v>1.64</v>
+      </c>
+      <c r="AI95">
+        <v>2</v>
+      </c>
+      <c r="AJ95">
+        <v>1.73</v>
+      </c>
+      <c r="AK95">
+        <v>1.94</v>
+      </c>
+      <c r="AL95">
+        <v>1.25</v>
+      </c>
+      <c r="AM95">
+        <v>1.17</v>
+      </c>
+      <c r="AN95">
+        <v>0.93</v>
+      </c>
+      <c r="AO95">
+        <v>1.67</v>
+      </c>
+      <c r="AP95">
+        <v>0.88</v>
+      </c>
+      <c r="AQ95">
+        <v>1.75</v>
+      </c>
+      <c r="AR95">
+        <v>1.46</v>
+      </c>
+      <c r="AS95">
+        <v>1.51</v>
+      </c>
+      <c r="AT95">
+        <v>2.97</v>
+      </c>
+      <c r="AU95">
+        <v>4</v>
+      </c>
+      <c r="AV95">
+        <v>8</v>
+      </c>
+      <c r="AW95">
+        <v>6</v>
+      </c>
+      <c r="AX95">
+        <v>7</v>
+      </c>
+      <c r="AY95">
+        <v>10</v>
+      </c>
+      <c r="AZ95">
+        <v>15</v>
+      </c>
+      <c r="BA95">
+        <v>2</v>
+      </c>
+      <c r="BB95">
+        <v>3</v>
+      </c>
+      <c r="BC95">
+        <v>5</v>
+      </c>
+      <c r="BD95">
+        <v>2.95</v>
+      </c>
+      <c r="BE95">
+        <v>8.4</v>
+      </c>
+      <c r="BF95">
+        <v>1.6</v>
+      </c>
+      <c r="BG95">
+        <v>1.21</v>
+      </c>
+      <c r="BH95">
+        <v>3.74</v>
+      </c>
+      <c r="BI95">
+        <v>1.5</v>
+      </c>
+      <c r="BJ95">
+        <v>2.4</v>
+      </c>
+      <c r="BK95">
+        <v>1.77</v>
+      </c>
+      <c r="BL95">
+        <v>1.95</v>
+      </c>
+      <c r="BM95">
+        <v>2.4</v>
+      </c>
+      <c r="BN95">
+        <v>1.5</v>
+      </c>
+      <c r="BO95">
+        <v>3.29</v>
+      </c>
+      <c r="BP95">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7330026</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45417.85416666666</v>
+      </c>
+      <c r="F96">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>78</v>
+      </c>
+      <c r="H96" t="s">
+        <v>80</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96" t="s">
+        <v>117</v>
+      </c>
+      <c r="P96" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q96">
+        <v>3.5</v>
+      </c>
+      <c r="R96">
+        <v>2.05</v>
+      </c>
+      <c r="S96">
+        <v>3.2</v>
+      </c>
+      <c r="T96">
+        <v>1.41</v>
+      </c>
+      <c r="U96">
+        <v>2.7</v>
+      </c>
+      <c r="V96">
+        <v>3.15</v>
+      </c>
+      <c r="W96">
+        <v>1.3</v>
+      </c>
+      <c r="X96">
+        <v>8</v>
+      </c>
+      <c r="Y96">
+        <v>1.06</v>
+      </c>
+      <c r="Z96">
+        <v>2.9</v>
+      </c>
+      <c r="AA96">
+        <v>3</v>
+      </c>
+      <c r="AB96">
+        <v>2.55</v>
+      </c>
+      <c r="AC96">
+        <v>1.04</v>
+      </c>
+      <c r="AD96">
+        <v>7.5</v>
+      </c>
+      <c r="AE96">
+        <v>1.33</v>
+      </c>
+      <c r="AF96">
+        <v>2.93</v>
+      </c>
+      <c r="AG96">
+        <v>2.1</v>
+      </c>
+      <c r="AH96">
+        <v>1.7</v>
+      </c>
+      <c r="AI96">
+        <v>1.83</v>
+      </c>
+      <c r="AJ96">
+        <v>1.83</v>
+      </c>
+      <c r="AK96">
+        <v>1.4</v>
+      </c>
+      <c r="AL96">
+        <v>1.33</v>
+      </c>
+      <c r="AM96">
+        <v>1.46</v>
+      </c>
+      <c r="AN96">
+        <v>0.93</v>
+      </c>
+      <c r="AO96">
+        <v>1.5</v>
+      </c>
+      <c r="AP96">
+        <v>1.06</v>
+      </c>
+      <c r="AQ96">
+        <v>1.4</v>
+      </c>
+      <c r="AR96">
+        <v>1.4</v>
+      </c>
+      <c r="AS96">
+        <v>1.27</v>
+      </c>
+      <c r="AT96">
+        <v>2.67</v>
+      </c>
+      <c r="AU96">
+        <v>9</v>
+      </c>
+      <c r="AV96">
+        <v>3</v>
+      </c>
+      <c r="AW96">
+        <v>7</v>
+      </c>
+      <c r="AX96">
+        <v>4</v>
+      </c>
+      <c r="AY96">
+        <v>16</v>
+      </c>
+      <c r="AZ96">
+        <v>7</v>
+      </c>
+      <c r="BA96">
+        <v>3</v>
+      </c>
+      <c r="BB96">
+        <v>2</v>
+      </c>
+      <c r="BC96">
+        <v>5</v>
+      </c>
+      <c r="BD96">
+        <v>2.32</v>
+      </c>
+      <c r="BE96">
+        <v>7.6</v>
+      </c>
+      <c r="BF96">
+        <v>1.93</v>
+      </c>
+      <c r="BG96">
+        <v>1.28</v>
+      </c>
+      <c r="BH96">
+        <v>3.2</v>
+      </c>
+      <c r="BI96">
+        <v>1.53</v>
+      </c>
+      <c r="BJ96">
+        <v>2.33</v>
+      </c>
+      <c r="BK96">
+        <v>1.9</v>
+      </c>
+      <c r="BL96">
+        <v>1.8</v>
+      </c>
+      <c r="BM96">
+        <v>2.5</v>
+      </c>
+      <c r="BN96">
+        <v>1.47</v>
+      </c>
+      <c r="BO96">
+        <v>3.42</v>
+      </c>
+      <c r="BP96">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="198">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -454,6 +454,12 @@
     <t>['45+3']</t>
   </si>
   <si>
+    <t>['12', '64', '83']</t>
+  </si>
+  <si>
+    <t>['34', '36', '45+3', '89']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -599,6 +605,9 @@
   </si>
   <si>
     <t>['53', '89', '90+5']</t>
+  </si>
+  <si>
+    <t>['89']</t>
   </si>
 </sst>
 </file>
@@ -960,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP96"/>
+  <dimension ref="A1:BP98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1425,7 +1434,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1506,7 +1515,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1712,7 +1721,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ4">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1918,7 +1927,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ5">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2249,7 +2258,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2330,7 +2339,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2455,7 +2464,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2661,7 +2670,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2739,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ9">
         <v>1.75</v>
@@ -2867,7 +2876,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -2945,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>1.5</v>
@@ -3073,7 +3082,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3151,7 +3160,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ11">
         <v>1.56</v>
@@ -3357,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
         <v>0.6899999999999999</v>
@@ -3485,7 +3494,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3691,7 +3700,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q14">
         <v>2.63</v>
@@ -3772,7 +3781,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ14">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>1.61</v>
@@ -3897,7 +3906,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4390,7 +4399,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR17">
         <v>1.03</v>
@@ -4515,7 +4524,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4596,7 +4605,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4721,7 +4730,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4927,7 +4936,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5005,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
         <v>0.6899999999999999</v>
@@ -5133,7 +5142,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5211,7 +5220,7 @@
         <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ21">
         <v>1.56</v>
@@ -5339,7 +5348,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5623,10 +5632,10 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ23">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -5751,7 +5760,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6035,10 +6044,10 @@
         <v>0.75</v>
       </c>
       <c r="AP25">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.13</v>
@@ -6163,7 +6172,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6244,7 +6253,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ26">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR26">
         <v>1.5</v>
@@ -6575,7 +6584,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6862,7 +6871,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR29">
         <v>2.35</v>
@@ -7399,7 +7408,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7811,7 +7820,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -7889,10 +7898,10 @@
         <v>2.2</v>
       </c>
       <c r="AP34">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR34">
         <v>1.7</v>
@@ -8017,7 +8026,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8223,7 +8232,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8301,10 +8310,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ36">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR36">
         <v>1.44</v>
@@ -8429,7 +8438,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8713,7 +8722,7 @@
         <v>0.83</v>
       </c>
       <c r="AP38">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38">
         <v>0.63</v>
@@ -8922,7 +8931,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ39">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.98</v>
@@ -9047,7 +9056,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9253,7 +9262,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9459,7 +9468,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9537,10 +9546,10 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ42">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR42">
         <v>1.46</v>
@@ -9665,7 +9674,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9871,7 +9880,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9952,7 +9961,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ44">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
         <v>1.26</v>
@@ -10283,7 +10292,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10489,7 +10498,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10567,10 +10576,10 @@
         <v>0.57</v>
       </c>
       <c r="AP47">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ47">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.29</v>
@@ -10773,7 +10782,7 @@
         <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
         <v>0.63</v>
@@ -10979,7 +10988,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
         <v>0.88</v>
@@ -11107,7 +11116,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11188,7 +11197,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ50">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR50">
         <v>1.99</v>
@@ -11313,7 +11322,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11803,7 +11812,7 @@
         <v>1.38</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ53">
         <v>1.38</v>
@@ -11931,7 +11940,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12137,7 +12146,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12218,7 +12227,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ55">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR55">
         <v>1.3</v>
@@ -12343,7 +12352,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12424,7 +12433,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ56">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -12549,7 +12558,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12630,7 +12639,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ57">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR57">
         <v>1.75</v>
@@ -12755,7 +12764,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13042,7 +13051,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ59">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>1.22</v>
@@ -13167,7 +13176,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13245,7 +13254,7 @@
         <v>1.4</v>
       </c>
       <c r="AP60">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ60">
         <v>1.38</v>
@@ -13863,7 +13872,7 @@
         <v>1.7</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ63">
         <v>1.75</v>
@@ -14069,7 +14078,7 @@
         <v>1.3</v>
       </c>
       <c r="AP64">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
         <v>0.88</v>
@@ -14275,7 +14284,7 @@
         <v>1.1</v>
       </c>
       <c r="AP65">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
         <v>1.5</v>
@@ -14403,7 +14412,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14481,7 +14490,7 @@
         <v>1.18</v>
       </c>
       <c r="AP66">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ66">
         <v>0.88</v>
@@ -14609,7 +14618,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14815,7 +14824,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15099,7 +15108,7 @@
         <v>1.27</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ69">
         <v>1.5</v>
@@ -15305,7 +15314,7 @@
         <v>1.64</v>
       </c>
       <c r="AP70">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
         <v>1.75</v>
@@ -15511,7 +15520,7 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71">
         <v>1.56</v>
@@ -15720,7 +15729,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ72">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>1.49</v>
@@ -15845,7 +15854,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -15926,7 +15935,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ73">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR73">
         <v>1.16</v>
@@ -16051,7 +16060,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16132,7 +16141,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ74">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR74">
         <v>1.3</v>
@@ -16257,7 +16266,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16463,7 +16472,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16544,7 +16553,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ76">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR76">
         <v>1.47</v>
@@ -16875,7 +16884,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -16956,7 +16965,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ78">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR78">
         <v>1.66</v>
@@ -17081,7 +17090,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17159,7 +17168,7 @@
         <v>1.46</v>
       </c>
       <c r="AP79">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ79">
         <v>1.56</v>
@@ -17287,7 +17296,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17365,7 +17374,7 @@
         <v>1.92</v>
       </c>
       <c r="AP80">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ80">
         <v>2.13</v>
@@ -17777,7 +17786,7 @@
         <v>0.54</v>
       </c>
       <c r="AP82">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ82">
         <v>0.6899999999999999</v>
@@ -17905,7 +17914,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -17983,7 +17992,7 @@
         <v>1.31</v>
       </c>
       <c r="AP83">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ83">
         <v>1.5</v>
@@ -18111,7 +18120,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18398,7 +18407,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ85">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.17</v>
@@ -18523,7 +18532,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18604,7 +18613,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ86">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR86">
         <v>1.44</v>
@@ -19013,10 +19022,10 @@
         <v>2.29</v>
       </c>
       <c r="AP88">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR88">
         <v>1.22</v>
@@ -19553,7 +19562,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19759,7 +19768,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -19965,7 +19974,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20043,7 +20052,7 @@
         <v>2.07</v>
       </c>
       <c r="AP93">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ93">
         <v>2.13</v>
@@ -20249,7 +20258,7 @@
         <v>0.67</v>
       </c>
       <c r="AP94">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ94">
         <v>0.6899999999999999</v>
@@ -20377,7 +20386,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20661,10 +20670,10 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ96">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR96">
         <v>1.4</v>
@@ -20740,6 +20749,418 @@
       </c>
       <c r="BP96">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7330035</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45422.79166666666</v>
+      </c>
+      <c r="F97">
+        <v>17</v>
+      </c>
+      <c r="G97" t="s">
+        <v>80</v>
+      </c>
+      <c r="H97" t="s">
+        <v>77</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>3</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>4</v>
+      </c>
+      <c r="O97" t="s">
+        <v>146</v>
+      </c>
+      <c r="P97" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q97">
+        <v>2.63</v>
+      </c>
+      <c r="R97">
+        <v>2.05</v>
+      </c>
+      <c r="S97">
+        <v>4.75</v>
+      </c>
+      <c r="T97">
+        <v>1.45</v>
+      </c>
+      <c r="U97">
+        <v>2.55</v>
+      </c>
+      <c r="V97">
+        <v>3</v>
+      </c>
+      <c r="W97">
+        <v>1.33</v>
+      </c>
+      <c r="X97">
+        <v>7.7</v>
+      </c>
+      <c r="Y97">
+        <v>1.06</v>
+      </c>
+      <c r="Z97">
+        <v>1.85</v>
+      </c>
+      <c r="AA97">
+        <v>3.3</v>
+      </c>
+      <c r="AB97">
+        <v>4.33</v>
+      </c>
+      <c r="AC97">
+        <v>1.06</v>
+      </c>
+      <c r="AD97">
+        <v>8</v>
+      </c>
+      <c r="AE97">
+        <v>1.36</v>
+      </c>
+      <c r="AF97">
+        <v>3</v>
+      </c>
+      <c r="AG97">
+        <v>2.25</v>
+      </c>
+      <c r="AH97">
+        <v>1.62</v>
+      </c>
+      <c r="AI97">
+        <v>2</v>
+      </c>
+      <c r="AJ97">
+        <v>1.73</v>
+      </c>
+      <c r="AK97">
+        <v>1.22</v>
+      </c>
+      <c r="AL97">
+        <v>1.25</v>
+      </c>
+      <c r="AM97">
+        <v>1.85</v>
+      </c>
+      <c r="AN97">
+        <v>1.4</v>
+      </c>
+      <c r="AO97">
+        <v>1.19</v>
+      </c>
+      <c r="AP97">
+        <v>1.5</v>
+      </c>
+      <c r="AQ97">
+        <v>1.12</v>
+      </c>
+      <c r="AR97">
+        <v>1.17</v>
+      </c>
+      <c r="AS97">
+        <v>1.23</v>
+      </c>
+      <c r="AT97">
+        <v>2.4</v>
+      </c>
+      <c r="AU97">
+        <v>7</v>
+      </c>
+      <c r="AV97">
+        <v>4</v>
+      </c>
+      <c r="AW97">
+        <v>2</v>
+      </c>
+      <c r="AX97">
+        <v>4</v>
+      </c>
+      <c r="AY97">
+        <v>9</v>
+      </c>
+      <c r="AZ97">
+        <v>8</v>
+      </c>
+      <c r="BA97">
+        <v>4</v>
+      </c>
+      <c r="BB97">
+        <v>6</v>
+      </c>
+      <c r="BC97">
+        <v>10</v>
+      </c>
+      <c r="BD97">
+        <v>1.52</v>
+      </c>
+      <c r="BE97">
+        <v>8.5</v>
+      </c>
+      <c r="BF97">
+        <v>3.25</v>
+      </c>
+      <c r="BG97">
+        <v>1.21</v>
+      </c>
+      <c r="BH97">
+        <v>3.74</v>
+      </c>
+      <c r="BI97">
+        <v>1.51</v>
+      </c>
+      <c r="BJ97">
+        <v>2.37</v>
+      </c>
+      <c r="BK97">
+        <v>2</v>
+      </c>
+      <c r="BL97">
+        <v>2.05</v>
+      </c>
+      <c r="BM97">
+        <v>2.47</v>
+      </c>
+      <c r="BN97">
+        <v>1.48</v>
+      </c>
+      <c r="BO97">
+        <v>2.88</v>
+      </c>
+      <c r="BP97">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7330036</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45422.89583333334</v>
+      </c>
+      <c r="F98">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>79</v>
+      </c>
+      <c r="H98" t="s">
+        <v>78</v>
+      </c>
+      <c r="I98">
+        <v>3</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>3</v>
+      </c>
+      <c r="L98">
+        <v>4</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>5</v>
+      </c>
+      <c r="O98" t="s">
+        <v>147</v>
+      </c>
+      <c r="P98" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q98">
+        <v>2.1</v>
+      </c>
+      <c r="R98">
+        <v>2.25</v>
+      </c>
+      <c r="S98">
+        <v>6</v>
+      </c>
+      <c r="T98">
+        <v>1.32</v>
+      </c>
+      <c r="U98">
+        <v>3.1</v>
+      </c>
+      <c r="V98">
+        <v>2.8</v>
+      </c>
+      <c r="W98">
+        <v>1.38</v>
+      </c>
+      <c r="X98">
+        <v>6.7</v>
+      </c>
+      <c r="Y98">
+        <v>1.09</v>
+      </c>
+      <c r="Z98">
+        <v>1.53</v>
+      </c>
+      <c r="AA98">
+        <v>4</v>
+      </c>
+      <c r="AB98">
+        <v>6.5</v>
+      </c>
+      <c r="AC98">
+        <v>1.04</v>
+      </c>
+      <c r="AD98">
+        <v>9</v>
+      </c>
+      <c r="AE98">
+        <v>1.28</v>
+      </c>
+      <c r="AF98">
+        <v>3.55</v>
+      </c>
+      <c r="AG98">
+        <v>1.85</v>
+      </c>
+      <c r="AH98">
+        <v>1.95</v>
+      </c>
+      <c r="AI98">
+        <v>1.91</v>
+      </c>
+      <c r="AJ98">
+        <v>1.8</v>
+      </c>
+      <c r="AK98">
+        <v>1.13</v>
+      </c>
+      <c r="AL98">
+        <v>1.19</v>
+      </c>
+      <c r="AM98">
+        <v>2.01</v>
+      </c>
+      <c r="AN98">
+        <v>2</v>
+      </c>
+      <c r="AO98">
+        <v>1.06</v>
+      </c>
+      <c r="AP98">
+        <v>2.06</v>
+      </c>
+      <c r="AQ98">
+        <v>1</v>
+      </c>
+      <c r="AR98">
+        <v>1.73</v>
+      </c>
+      <c r="AS98">
+        <v>1.61</v>
+      </c>
+      <c r="AT98">
+        <v>3.34</v>
+      </c>
+      <c r="AU98">
+        <v>8</v>
+      </c>
+      <c r="AV98">
+        <v>3</v>
+      </c>
+      <c r="AW98">
+        <v>4</v>
+      </c>
+      <c r="AX98">
+        <v>5</v>
+      </c>
+      <c r="AY98">
+        <v>12</v>
+      </c>
+      <c r="AZ98">
+        <v>8</v>
+      </c>
+      <c r="BA98">
+        <v>8</v>
+      </c>
+      <c r="BB98">
+        <v>1</v>
+      </c>
+      <c r="BC98">
+        <v>9</v>
+      </c>
+      <c r="BD98">
+        <v>1.36</v>
+      </c>
+      <c r="BE98">
+        <v>8.4</v>
+      </c>
+      <c r="BF98">
+        <v>4.37</v>
+      </c>
+      <c r="BG98">
+        <v>1.28</v>
+      </c>
+      <c r="BH98">
+        <v>3.31</v>
+      </c>
+      <c r="BI98">
+        <v>1.5</v>
+      </c>
+      <c r="BJ98">
+        <v>2.35</v>
+      </c>
+      <c r="BK98">
+        <v>1.95</v>
+      </c>
+      <c r="BL98">
+        <v>1.77</v>
+      </c>
+      <c r="BM98">
+        <v>2.42</v>
+      </c>
+      <c r="BN98">
+        <v>1.47</v>
+      </c>
+      <c r="BO98">
+        <v>3.31</v>
+      </c>
+      <c r="BP98">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="199">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -609,6 +609,9 @@
   <si>
     <t>['89']</t>
   </si>
+  <si>
+    <t>['6']</t>
+  </si>
 </sst>
 </file>
 
@@ -969,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP98"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1306,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ2">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1718,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -2133,7 +2136,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ6">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2542,7 +2545,7 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AQ8">
         <v>0.88</v>
@@ -3163,7 +3166,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ11">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3369,7 +3372,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3572,7 +3575,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ13">
         <v>2.13</v>
@@ -3778,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -3987,7 +3990,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ15">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR15">
         <v>1.26</v>
@@ -4193,7 +4196,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ16">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR16">
         <v>1.67</v>
@@ -4602,7 +4605,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ18">
         <v>2.06</v>
@@ -4808,7 +4811,7 @@
         <v>1.67</v>
       </c>
       <c r="AP19">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AQ19">
         <v>1.5</v>
@@ -5017,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR20">
         <v>1.8</v>
@@ -5223,7 +5226,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ21">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR21">
         <v>1.74</v>
@@ -5838,7 +5841,7 @@
         <v>1.67</v>
       </c>
       <c r="AP24">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ24">
         <v>1.75</v>
@@ -6250,7 +6253,7 @@
         <v>0.25</v>
       </c>
       <c r="AP26">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ26">
         <v>1.12</v>
@@ -6459,7 +6462,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR27">
         <v>1.24</v>
@@ -7074,10 +7077,10 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ30">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR30">
         <v>1.47</v>
@@ -7486,10 +7489,10 @@
         <v>1.6</v>
       </c>
       <c r="AP32">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ32">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR32">
         <v>1.26</v>
@@ -8104,10 +8107,10 @@
         <v>0.6</v>
       </c>
       <c r="AP35">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AQ35">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR35">
         <v>2</v>
@@ -8516,7 +8519,7 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ37">
         <v>0.88</v>
@@ -8725,7 +8728,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR38">
         <v>0.99</v>
@@ -9134,10 +9137,10 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ40">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR40">
         <v>1.42</v>
@@ -9958,7 +9961,7 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ44">
         <v>1.5</v>
@@ -10167,7 +10170,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ45">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR45">
         <v>1.36</v>
@@ -10373,7 +10376,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ46">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR46">
         <v>1.26</v>
@@ -10785,7 +10788,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -11400,7 +11403,7 @@
         <v>1.63</v>
       </c>
       <c r="AP51">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ51">
         <v>1.75</v>
@@ -11606,7 +11609,7 @@
         <v>1.38</v>
       </c>
       <c r="AP52">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ52">
         <v>1.5</v>
@@ -11815,7 +11818,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ53">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR53">
         <v>1.71</v>
@@ -12018,7 +12021,7 @@
         <v>1.38</v>
       </c>
       <c r="AP54">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ54">
         <v>2.13</v>
@@ -12636,7 +12639,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AQ57">
         <v>1.12</v>
@@ -12845,7 +12848,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR58">
         <v>1.39</v>
@@ -13048,7 +13051,7 @@
         <v>1.11</v>
       </c>
       <c r="AP59">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13257,7 +13260,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ60">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR60">
         <v>1.2</v>
@@ -13460,10 +13463,10 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ61">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR61">
         <v>1.17</v>
@@ -13669,7 +13672,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ62">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR62">
         <v>2</v>
@@ -14696,10 +14699,10 @@
         <v>1.36</v>
       </c>
       <c r="AP67">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AQ67">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -14902,7 +14905,7 @@
         <v>1.7</v>
       </c>
       <c r="AP68">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ68">
         <v>2.13</v>
@@ -15523,7 +15526,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR71">
         <v>1.26</v>
@@ -15932,7 +15935,7 @@
         <v>1.36</v>
       </c>
       <c r="AP73">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ73">
         <v>1.5</v>
@@ -16347,7 +16350,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ75">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR75">
         <v>1.39</v>
@@ -16550,7 +16553,7 @@
         <v>2.27</v>
       </c>
       <c r="AP76">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ76">
         <v>2.06</v>
@@ -16759,7 +16762,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ77">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR77">
         <v>1.95</v>
@@ -16962,7 +16965,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AQ78">
         <v>2.06</v>
@@ -17171,7 +17174,7 @@
         <v>1</v>
       </c>
       <c r="AQ79">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR79">
         <v>1.38</v>
@@ -17580,7 +17583,7 @@
         <v>1.08</v>
       </c>
       <c r="AP81">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ81">
         <v>0.88</v>
@@ -17789,7 +17792,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ82">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR82">
         <v>1.7</v>
@@ -18198,7 +18201,7 @@
         <v>1.69</v>
       </c>
       <c r="AP84">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AQ84">
         <v>1.75</v>
@@ -18404,7 +18407,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ85">
         <v>1</v>
@@ -18610,7 +18613,7 @@
         <v>1.07</v>
       </c>
       <c r="AP86">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ86">
         <v>1.12</v>
@@ -18819,7 +18822,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ87">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -19437,7 +19440,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ90">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR90">
         <v>1.32</v>
@@ -19640,7 +19643,7 @@
         <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ91">
         <v>1.5</v>
@@ -19846,10 +19849,10 @@
         <v>1.47</v>
       </c>
       <c r="AP92">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AQ92">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR92">
         <v>1.54</v>
@@ -20261,7 +20264,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ94">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR94">
         <v>1.22</v>
@@ -21161,6 +21164,418 @@
       </c>
       <c r="BP98">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7330034</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45423.75</v>
+      </c>
+      <c r="F99">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>81</v>
+      </c>
+      <c r="H99" t="s">
+        <v>76</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99" t="s">
+        <v>89</v>
+      </c>
+      <c r="P99" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q99">
+        <v>3.5</v>
+      </c>
+      <c r="R99">
+        <v>2.1</v>
+      </c>
+      <c r="S99">
+        <v>3.1</v>
+      </c>
+      <c r="T99">
+        <v>1.41</v>
+      </c>
+      <c r="U99">
+        <v>2.77</v>
+      </c>
+      <c r="V99">
+        <v>2.9</v>
+      </c>
+      <c r="W99">
+        <v>1.38</v>
+      </c>
+      <c r="X99">
+        <v>7.4</v>
+      </c>
+      <c r="Y99">
+        <v>1.07</v>
+      </c>
+      <c r="Z99">
+        <v>2.7</v>
+      </c>
+      <c r="AA99">
+        <v>3.1</v>
+      </c>
+      <c r="AB99">
+        <v>2.6</v>
+      </c>
+      <c r="AC99">
+        <v>1.02</v>
+      </c>
+      <c r="AD99">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE99">
+        <v>1.28</v>
+      </c>
+      <c r="AF99">
+        <v>3.18</v>
+      </c>
+      <c r="AG99">
+        <v>1.98</v>
+      </c>
+      <c r="AH99">
+        <v>1.79</v>
+      </c>
+      <c r="AI99">
+        <v>1.73</v>
+      </c>
+      <c r="AJ99">
+        <v>2</v>
+      </c>
+      <c r="AK99">
+        <v>1.4</v>
+      </c>
+      <c r="AL99">
+        <v>1.29</v>
+      </c>
+      <c r="AM99">
+        <v>1.37</v>
+      </c>
+      <c r="AN99">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AO99">
+        <v>0.63</v>
+      </c>
+      <c r="AP99">
+        <v>0.65</v>
+      </c>
+      <c r="AQ99">
+        <v>0.76</v>
+      </c>
+      <c r="AR99">
+        <v>1.18</v>
+      </c>
+      <c r="AS99">
+        <v>1.09</v>
+      </c>
+      <c r="AT99">
+        <v>2.27</v>
+      </c>
+      <c r="AU99">
+        <v>5</v>
+      </c>
+      <c r="AV99">
+        <v>4</v>
+      </c>
+      <c r="AW99">
+        <v>8</v>
+      </c>
+      <c r="AX99">
+        <v>7</v>
+      </c>
+      <c r="AY99">
+        <v>13</v>
+      </c>
+      <c r="AZ99">
+        <v>11</v>
+      </c>
+      <c r="BA99">
+        <v>6</v>
+      </c>
+      <c r="BB99">
+        <v>3</v>
+      </c>
+      <c r="BC99">
+        <v>9</v>
+      </c>
+      <c r="BD99">
+        <v>1.96</v>
+      </c>
+      <c r="BE99">
+        <v>7.42</v>
+      </c>
+      <c r="BF99">
+        <v>2.29</v>
+      </c>
+      <c r="BG99">
+        <v>1.28</v>
+      </c>
+      <c r="BH99">
+        <v>3.34</v>
+      </c>
+      <c r="BI99">
+        <v>1.59</v>
+      </c>
+      <c r="BJ99">
+        <v>2.22</v>
+      </c>
+      <c r="BK99">
+        <v>1.95</v>
+      </c>
+      <c r="BL99">
+        <v>1.77</v>
+      </c>
+      <c r="BM99">
+        <v>2.65</v>
+      </c>
+      <c r="BN99">
+        <v>1.42</v>
+      </c>
+      <c r="BO99">
+        <v>3.18</v>
+      </c>
+      <c r="BP99">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7330033</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45423.85416666666</v>
+      </c>
+      <c r="F100">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>72</v>
+      </c>
+      <c r="H100" t="s">
+        <v>70</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100" t="s">
+        <v>89</v>
+      </c>
+      <c r="P100" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q100">
+        <v>2.6</v>
+      </c>
+      <c r="R100">
+        <v>2.1</v>
+      </c>
+      <c r="S100">
+        <v>4.75</v>
+      </c>
+      <c r="T100">
+        <v>1.44</v>
+      </c>
+      <c r="U100">
+        <v>2.66</v>
+      </c>
+      <c r="V100">
+        <v>3.04</v>
+      </c>
+      <c r="W100">
+        <v>1.35</v>
+      </c>
+      <c r="X100">
+        <v>7.9</v>
+      </c>
+      <c r="Y100">
+        <v>1.06</v>
+      </c>
+      <c r="Z100">
+        <v>1.83</v>
+      </c>
+      <c r="AA100">
+        <v>3.5</v>
+      </c>
+      <c r="AB100">
+        <v>4.2</v>
+      </c>
+      <c r="AC100">
+        <v>1.03</v>
+      </c>
+      <c r="AD100">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE100">
+        <v>1.33</v>
+      </c>
+      <c r="AF100">
+        <v>2.93</v>
+      </c>
+      <c r="AG100">
+        <v>2.08</v>
+      </c>
+      <c r="AH100">
+        <v>1.73</v>
+      </c>
+      <c r="AI100">
+        <v>1.91</v>
+      </c>
+      <c r="AJ100">
+        <v>1.8</v>
+      </c>
+      <c r="AK100">
+        <v>1.19</v>
+      </c>
+      <c r="AL100">
+        <v>1.24</v>
+      </c>
+      <c r="AM100">
+        <v>1.74</v>
+      </c>
+      <c r="AN100">
+        <v>1.56</v>
+      </c>
+      <c r="AO100">
+        <v>1.38</v>
+      </c>
+      <c r="AP100">
+        <v>1.53</v>
+      </c>
+      <c r="AQ100">
+        <v>1.35</v>
+      </c>
+      <c r="AR100">
+        <v>1.51</v>
+      </c>
+      <c r="AS100">
+        <v>1.27</v>
+      </c>
+      <c r="AT100">
+        <v>2.78</v>
+      </c>
+      <c r="AU100">
+        <v>4</v>
+      </c>
+      <c r="AV100">
+        <v>0</v>
+      </c>
+      <c r="AW100">
+        <v>7</v>
+      </c>
+      <c r="AX100">
+        <v>6</v>
+      </c>
+      <c r="AY100">
+        <v>11</v>
+      </c>
+      <c r="AZ100">
+        <v>6</v>
+      </c>
+      <c r="BA100">
+        <v>7</v>
+      </c>
+      <c r="BB100">
+        <v>2</v>
+      </c>
+      <c r="BC100">
+        <v>9</v>
+      </c>
+      <c r="BD100">
+        <v>1.63</v>
+      </c>
+      <c r="BE100">
+        <v>7.8</v>
+      </c>
+      <c r="BF100">
+        <v>2.95</v>
+      </c>
+      <c r="BG100">
+        <v>1.24</v>
+      </c>
+      <c r="BH100">
+        <v>3.48</v>
+      </c>
+      <c r="BI100">
+        <v>1.51</v>
+      </c>
+      <c r="BJ100">
+        <v>2.37</v>
+      </c>
+      <c r="BK100">
+        <v>1.85</v>
+      </c>
+      <c r="BL100">
+        <v>1.85</v>
+      </c>
+      <c r="BM100">
+        <v>2.5</v>
+      </c>
+      <c r="BN100">
+        <v>1.47</v>
+      </c>
+      <c r="BO100">
+        <v>3.14</v>
+      </c>
+      <c r="BP100">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="200">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -460,6 +460,9 @@
     <t>['34', '36', '45+3', '89']</t>
   </si>
   <si>
+    <t>['51']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -479,9 +482,6 @@
   </si>
   <si>
     <t>['6', '62', '67', '83']</t>
-  </si>
-  <si>
-    <t>['51']</t>
   </si>
   <si>
     <t>['4', '72']</t>
@@ -611,6 +611,9 @@
   </si>
   <si>
     <t>['6']</t>
+  </si>
+  <si>
+    <t>['45']</t>
   </si>
 </sst>
 </file>
@@ -972,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1437,7 +1440,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1515,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -2133,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ6">
         <v>0.65</v>
@@ -2261,7 +2264,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2467,7 +2470,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2673,7 +2676,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2754,7 +2757,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ9">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2879,7 +2882,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3085,7 +3088,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3497,7 +3500,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3578,7 +3581,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ13">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR13">
         <v>1.34</v>
@@ -3703,7 +3706,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q14">
         <v>2.63</v>
@@ -3987,7 +3990,7 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ15">
         <v>0.76</v>
@@ -5432,7 +5435,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ22">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR22">
         <v>1.61</v>
@@ -5763,7 +5766,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5844,7 +5847,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ24">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR24">
         <v>1.32</v>
@@ -6665,7 +6668,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ28">
         <v>0.88</v>
@@ -6871,7 +6874,7 @@
         <v>2.5</v>
       </c>
       <c r="AP29">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ29">
         <v>2.06</v>
@@ -7695,10 +7698,10 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ33">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR33">
         <v>1.34</v>
@@ -8441,7 +8444,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8931,7 +8934,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9346,7 +9349,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR41">
         <v>1.18</v>
@@ -9758,7 +9761,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR43">
         <v>1.28</v>
@@ -10167,7 +10170,7 @@
         <v>1.71</v>
       </c>
       <c r="AP45">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ45">
         <v>1.53</v>
@@ -11197,7 +11200,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ50">
         <v>1.12</v>
@@ -11406,7 +11409,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ51">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR51">
         <v>1.3</v>
@@ -12024,7 +12027,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ54">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR54">
         <v>1.55</v>
@@ -12227,7 +12230,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ55">
         <v>1.5</v>
@@ -13669,7 +13672,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP62">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ62">
         <v>0.76</v>
@@ -13878,7 +13881,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ63">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR63">
         <v>1.64</v>
@@ -14908,7 +14911,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ68">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR68">
         <v>1.18</v>
@@ -15320,7 +15323,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR70">
         <v>1.37</v>
@@ -16141,7 +16144,7 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ74">
         <v>1.12</v>
@@ -16759,7 +16762,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ77">
         <v>1.35</v>
@@ -17380,7 +17383,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ80">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR80">
         <v>1.36</v>
@@ -18204,7 +18207,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ84">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR84">
         <v>1.59</v>
@@ -19231,7 +19234,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AQ89">
         <v>0.88</v>
@@ -19437,7 +19440,7 @@
         <v>1.36</v>
       </c>
       <c r="AP90">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ90">
         <v>1.35</v>
@@ -20058,7 +20061,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ93">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AR93">
         <v>1.77</v>
@@ -20470,7 +20473,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ95">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR95">
         <v>1.46</v>
@@ -21576,6 +21579,212 @@
       </c>
       <c r="BP100">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7330031</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45424.72916666666</v>
+      </c>
+      <c r="F101">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>74</v>
+      </c>
+      <c r="H101" t="s">
+        <v>71</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>2</v>
+      </c>
+      <c r="O101" t="s">
+        <v>148</v>
+      </c>
+      <c r="P101" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q101">
+        <v>2.6</v>
+      </c>
+      <c r="R101">
+        <v>2.1</v>
+      </c>
+      <c r="S101">
+        <v>4.75</v>
+      </c>
+      <c r="T101">
+        <v>1.38</v>
+      </c>
+      <c r="U101">
+        <v>2.8</v>
+      </c>
+      <c r="V101">
+        <v>3.1</v>
+      </c>
+      <c r="W101">
+        <v>1.32</v>
+      </c>
+      <c r="X101">
+        <v>7.5</v>
+      </c>
+      <c r="Y101">
+        <v>1.06</v>
+      </c>
+      <c r="Z101">
+        <v>1.85</v>
+      </c>
+      <c r="AA101">
+        <v>3.4</v>
+      </c>
+      <c r="AB101">
+        <v>4.2</v>
+      </c>
+      <c r="AC101">
+        <v>1.05</v>
+      </c>
+      <c r="AD101">
+        <v>8</v>
+      </c>
+      <c r="AE101">
+        <v>1.33</v>
+      </c>
+      <c r="AF101">
+        <v>3</v>
+      </c>
+      <c r="AG101">
+        <v>2.1</v>
+      </c>
+      <c r="AH101">
+        <v>1.7</v>
+      </c>
+      <c r="AI101">
+        <v>1.91</v>
+      </c>
+      <c r="AJ101">
+        <v>1.8</v>
+      </c>
+      <c r="AK101">
+        <v>1.2</v>
+      </c>
+      <c r="AL101">
+        <v>1.27</v>
+      </c>
+      <c r="AM101">
+        <v>1.88</v>
+      </c>
+      <c r="AN101">
+        <v>2.13</v>
+      </c>
+      <c r="AO101">
+        <v>1.75</v>
+      </c>
+      <c r="AP101">
+        <v>2.06</v>
+      </c>
+      <c r="AQ101">
+        <v>1.71</v>
+      </c>
+      <c r="AR101">
+        <v>1.87</v>
+      </c>
+      <c r="AS101">
+        <v>1.57</v>
+      </c>
+      <c r="AT101">
+        <v>3.44</v>
+      </c>
+      <c r="AU101">
+        <v>2</v>
+      </c>
+      <c r="AV101">
+        <v>5</v>
+      </c>
+      <c r="AW101">
+        <v>10</v>
+      </c>
+      <c r="AX101">
+        <v>6</v>
+      </c>
+      <c r="AY101">
+        <v>12</v>
+      </c>
+      <c r="AZ101">
+        <v>11</v>
+      </c>
+      <c r="BA101">
+        <v>8</v>
+      </c>
+      <c r="BB101">
+        <v>6</v>
+      </c>
+      <c r="BC101">
+        <v>14</v>
+      </c>
+      <c r="BD101">
+        <v>1.6</v>
+      </c>
+      <c r="BE101">
+        <v>8.4</v>
+      </c>
+      <c r="BF101">
+        <v>2.95</v>
+      </c>
+      <c r="BG101">
+        <v>1.23</v>
+      </c>
+      <c r="BH101">
+        <v>3.56</v>
+      </c>
+      <c r="BI101">
+        <v>1.48</v>
+      </c>
+      <c r="BJ101">
+        <v>2.47</v>
+      </c>
+      <c r="BK101">
+        <v>1.85</v>
+      </c>
+      <c r="BL101">
+        <v>1.85</v>
+      </c>
+      <c r="BM101">
+        <v>2.37</v>
+      </c>
+      <c r="BN101">
+        <v>1.51</v>
+      </c>
+      <c r="BO101">
+        <v>3.2</v>
+      </c>
+      <c r="BP101">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="200">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -975,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP101"/>
+  <dimension ref="A1:BP102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ7">
         <v>2.06</v>
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4402,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ17">
         <v>1.12</v>
@@ -4817,7 +4817,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR19">
         <v>1.77</v>
@@ -6462,7 +6462,7 @@
         <v>1.75</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ27">
         <v>1.35</v>
@@ -7289,7 +7289,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR31">
         <v>1.29</v>
@@ -9346,7 +9346,7 @@
         <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ41">
         <v>1.71</v>
@@ -9758,7 +9758,7 @@
         <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ43">
         <v>2.06</v>
@@ -11615,7 +11615,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ52">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR52">
         <v>1.53</v>
@@ -12848,7 +12848,7 @@
         <v>0.44</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ58">
         <v>0.65</v>
@@ -14293,7 +14293,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR65">
         <v>1.26</v>
@@ -15117,7 +15117,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ69">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR69">
         <v>1.74</v>
@@ -15732,7 +15732,7 @@
         <v>1.17</v>
       </c>
       <c r="AP72">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -18001,7 +18001,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ83">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR83">
         <v>1.25</v>
@@ -18822,7 +18822,7 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ87">
         <v>0.76</v>
@@ -19649,7 +19649,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ91">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR91">
         <v>1.43</v>
@@ -21785,6 +21785,212 @@
       </c>
       <c r="BP101">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7330032</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45425.85416666666</v>
+      </c>
+      <c r="F102">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>75</v>
+      </c>
+      <c r="H102" t="s">
+        <v>73</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102" t="s">
+        <v>89</v>
+      </c>
+      <c r="P102" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q102">
+        <v>2.3</v>
+      </c>
+      <c r="R102">
+        <v>2.3</v>
+      </c>
+      <c r="S102">
+        <v>4.75</v>
+      </c>
+      <c r="T102">
+        <v>1.36</v>
+      </c>
+      <c r="U102">
+        <v>3.07</v>
+      </c>
+      <c r="V102">
+        <v>2.82</v>
+      </c>
+      <c r="W102">
+        <v>1.42</v>
+      </c>
+      <c r="X102">
+        <v>8</v>
+      </c>
+      <c r="Y102">
+        <v>1.08</v>
+      </c>
+      <c r="Z102">
+        <v>1.73</v>
+      </c>
+      <c r="AA102">
+        <v>4</v>
+      </c>
+      <c r="AB102">
+        <v>4.2</v>
+      </c>
+      <c r="AC102">
+        <v>1.02</v>
+      </c>
+      <c r="AD102">
+        <v>10</v>
+      </c>
+      <c r="AE102">
+        <v>1.29</v>
+      </c>
+      <c r="AF102">
+        <v>3.4</v>
+      </c>
+      <c r="AG102">
+        <v>1.75</v>
+      </c>
+      <c r="AH102">
+        <v>2.05</v>
+      </c>
+      <c r="AI102">
+        <v>1.73</v>
+      </c>
+      <c r="AJ102">
+        <v>2</v>
+      </c>
+      <c r="AK102">
+        <v>1.17</v>
+      </c>
+      <c r="AL102">
+        <v>1.21</v>
+      </c>
+      <c r="AM102">
+        <v>1.86</v>
+      </c>
+      <c r="AN102">
+        <v>1.5</v>
+      </c>
+      <c r="AO102">
+        <v>0.88</v>
+      </c>
+      <c r="AP102">
+        <v>1.47</v>
+      </c>
+      <c r="AQ102">
+        <v>0.88</v>
+      </c>
+      <c r="AR102">
+        <v>1.41</v>
+      </c>
+      <c r="AS102">
+        <v>1.2</v>
+      </c>
+      <c r="AT102">
+        <v>2.61</v>
+      </c>
+      <c r="AU102">
+        <v>-1</v>
+      </c>
+      <c r="AV102">
+        <v>-1</v>
+      </c>
+      <c r="AW102">
+        <v>-1</v>
+      </c>
+      <c r="AX102">
+        <v>-1</v>
+      </c>
+      <c r="AY102">
+        <v>-1</v>
+      </c>
+      <c r="AZ102">
+        <v>-1</v>
+      </c>
+      <c r="BA102">
+        <v>6</v>
+      </c>
+      <c r="BB102">
+        <v>3</v>
+      </c>
+      <c r="BC102">
+        <v>9</v>
+      </c>
+      <c r="BD102">
+        <v>1.52</v>
+      </c>
+      <c r="BE102">
+        <v>8.1</v>
+      </c>
+      <c r="BF102">
+        <v>3.36</v>
+      </c>
+      <c r="BG102">
+        <v>1.21</v>
+      </c>
+      <c r="BH102">
+        <v>3.88</v>
+      </c>
+      <c r="BI102">
+        <v>1.39</v>
+      </c>
+      <c r="BJ102">
+        <v>2.77</v>
+      </c>
+      <c r="BK102">
+        <v>2.1</v>
+      </c>
+      <c r="BL102">
+        <v>2.03</v>
+      </c>
+      <c r="BM102">
+        <v>2.17</v>
+      </c>
+      <c r="BN102">
+        <v>1.61</v>
+      </c>
+      <c r="BO102">
+        <v>2.85</v>
+      </c>
+      <c r="BP102">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="203">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -463,6 +463,9 @@
     <t>['51']</t>
   </si>
   <si>
+    <t>['41', '45', '80']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -614,6 +617,12 @@
   </si>
   <si>
     <t>['45']</t>
+  </si>
+  <si>
+    <t>['31', '71']</t>
+  </si>
+  <si>
+    <t>['38']</t>
   </si>
 </sst>
 </file>
@@ -975,7 +984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP102"/>
+  <dimension ref="A1:BP104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1312,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ2">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1440,7 +1449,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1727,7 +1736,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2139,7 +2148,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ6">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2264,7 +2273,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2470,7 +2479,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2548,7 +2557,7 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AQ8">
         <v>0.88</v>
@@ -2676,7 +2685,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2882,7 +2891,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3088,7 +3097,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3372,10 +3381,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ12">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3500,7 +3509,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3578,7 +3587,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ13">
         <v>2.06</v>
@@ -3912,7 +3921,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -3993,7 +4002,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ15">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR15">
         <v>1.26</v>
@@ -4199,7 +4208,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ16">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR16">
         <v>1.67</v>
@@ -4530,7 +4539,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4608,7 +4617,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AQ18">
         <v>2.06</v>
@@ -4736,7 +4745,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4814,7 +4823,7 @@
         <v>1.67</v>
       </c>
       <c r="AP19">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AQ19">
         <v>1.47</v>
@@ -4942,7 +4951,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5023,7 +5032,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR20">
         <v>1.8</v>
@@ -5148,7 +5157,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5354,7 +5363,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5641,7 +5650,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -5766,7 +5775,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5844,7 +5853,7 @@
         <v>1.67</v>
       </c>
       <c r="AP24">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ24">
         <v>1.71</v>
@@ -6050,7 +6059,7 @@
         <v>0.75</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6178,7 +6187,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6256,7 +6265,7 @@
         <v>0.25</v>
       </c>
       <c r="AP26">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AQ26">
         <v>1.12</v>
@@ -6465,7 +6474,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ27">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR27">
         <v>1.24</v>
@@ -6590,7 +6599,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -7083,7 +7092,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ30">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR30">
         <v>1.47</v>
@@ -7414,7 +7423,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7492,7 +7501,7 @@
         <v>1.6</v>
       </c>
       <c r="AP32">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ32">
         <v>1.53</v>
@@ -7826,7 +7835,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8032,7 +8041,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8110,10 +8119,10 @@
         <v>0.6</v>
       </c>
       <c r="AP35">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AQ35">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR35">
         <v>2</v>
@@ -8238,7 +8247,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8319,7 +8328,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR36">
         <v>1.44</v>
@@ -8444,7 +8453,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8728,10 +8737,10 @@
         <v>0.83</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ38">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR38">
         <v>0.99</v>
@@ -9062,7 +9071,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9140,10 +9149,10 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AQ40">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR40">
         <v>1.42</v>
@@ -9268,7 +9277,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9474,7 +9483,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9680,7 +9689,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9886,7 +9895,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9964,10 +9973,10 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR44">
         <v>1.26</v>
@@ -10298,7 +10307,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10379,7 +10388,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ46">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR46">
         <v>1.26</v>
@@ -10504,7 +10513,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10791,7 +10800,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -10994,7 +11003,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ49">
         <v>0.88</v>
@@ -11122,7 +11131,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11328,7 +11337,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11406,7 +11415,7 @@
         <v>1.63</v>
       </c>
       <c r="AP51">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AQ51">
         <v>1.71</v>
@@ -11821,7 +11830,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ53">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR53">
         <v>1.71</v>
@@ -11946,7 +11955,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12152,7 +12161,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12233,7 +12242,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR55">
         <v>1.3</v>
@@ -12358,7 +12367,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12564,7 +12573,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12642,7 +12651,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AQ57">
         <v>1.12</v>
@@ -12770,7 +12779,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -12851,7 +12860,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ58">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR58">
         <v>1.39</v>
@@ -13054,7 +13063,7 @@
         <v>1.11</v>
       </c>
       <c r="AP59">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13182,7 +13191,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13263,7 +13272,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ60">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR60">
         <v>1.2</v>
@@ -13466,7 +13475,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AQ61">
         <v>1.53</v>
@@ -13675,7 +13684,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ62">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR62">
         <v>2</v>
@@ -14290,7 +14299,7 @@
         <v>1.1</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ65">
         <v>1.47</v>
@@ -14418,7 +14427,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14624,7 +14633,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14702,10 +14711,10 @@
         <v>1.36</v>
       </c>
       <c r="AP67">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AQ67">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -14830,7 +14839,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14908,7 +14917,7 @@
         <v>1.7</v>
       </c>
       <c r="AP68">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AQ68">
         <v>2.06</v>
@@ -15526,7 +15535,7 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ71">
         <v>1.53</v>
@@ -15860,7 +15869,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -15938,10 +15947,10 @@
         <v>1.36</v>
       </c>
       <c r="AP73">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AQ73">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR73">
         <v>1.16</v>
@@ -16066,7 +16075,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16272,7 +16281,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16353,7 +16362,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ75">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR75">
         <v>1.39</v>
@@ -16478,7 +16487,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16765,7 +16774,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ77">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR77">
         <v>1.95</v>
@@ -16890,7 +16899,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -16968,7 +16977,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AQ78">
         <v>2.06</v>
@@ -17096,7 +17105,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17302,7 +17311,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17380,7 +17389,7 @@
         <v>1.92</v>
       </c>
       <c r="AP80">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ80">
         <v>2.06</v>
@@ -17586,7 +17595,7 @@
         <v>1.08</v>
       </c>
       <c r="AP81">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ81">
         <v>0.88</v>
@@ -17795,7 +17804,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ82">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR82">
         <v>1.7</v>
@@ -17920,7 +17929,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18126,7 +18135,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18204,7 +18213,7 @@
         <v>1.69</v>
       </c>
       <c r="AP84">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AQ84">
         <v>1.71</v>
@@ -18410,7 +18419,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AQ85">
         <v>1</v>
@@ -18538,7 +18547,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18825,7 +18834,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ87">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -19028,7 +19037,7 @@
         <v>2.29</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ88">
         <v>2.06</v>
@@ -19443,7 +19452,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ90">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR90">
         <v>1.32</v>
@@ -19568,7 +19577,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19646,7 +19655,7 @@
         <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ91">
         <v>1.47</v>
@@ -19774,7 +19783,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -19852,7 +19861,7 @@
         <v>1.47</v>
       </c>
       <c r="AP92">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AQ92">
         <v>1.53</v>
@@ -19980,7 +19989,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20267,7 +20276,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ94">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR94">
         <v>1.22</v>
@@ -20392,7 +20401,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20679,7 +20688,7 @@
         <v>1</v>
       </c>
       <c r="AQ96">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR96">
         <v>1.4</v>
@@ -20804,7 +20813,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -20882,7 +20891,7 @@
         <v>1.19</v>
       </c>
       <c r="AP97">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ97">
         <v>1.12</v>
@@ -21216,7 +21225,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21294,10 +21303,10 @@
         <v>0.63</v>
       </c>
       <c r="AP99">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AQ99">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR99">
         <v>1.18</v>
@@ -21503,7 +21512,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ100">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AR100">
         <v>1.51</v>
@@ -21628,7 +21637,7 @@
         <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -21991,6 +22000,418 @@
       </c>
       <c r="BP102">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7330040</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45429.77083333334</v>
+      </c>
+      <c r="F103">
+        <v>18</v>
+      </c>
+      <c r="G103" t="s">
+        <v>70</v>
+      </c>
+      <c r="H103" t="s">
+        <v>81</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+      <c r="O103" t="s">
+        <v>89</v>
+      </c>
+      <c r="P103" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q103">
+        <v>3.1</v>
+      </c>
+      <c r="R103">
+        <v>2.05</v>
+      </c>
+      <c r="S103">
+        <v>3.6</v>
+      </c>
+      <c r="T103">
+        <v>1.37</v>
+      </c>
+      <c r="U103">
+        <v>3.02</v>
+      </c>
+      <c r="V103">
+        <v>2.87</v>
+      </c>
+      <c r="W103">
+        <v>1.4</v>
+      </c>
+      <c r="X103">
+        <v>6</v>
+      </c>
+      <c r="Y103">
+        <v>1.09</v>
+      </c>
+      <c r="Z103">
+        <v>2.38</v>
+      </c>
+      <c r="AA103">
+        <v>3.25</v>
+      </c>
+      <c r="AB103">
+        <v>2.88</v>
+      </c>
+      <c r="AC103">
+        <v>1.03</v>
+      </c>
+      <c r="AD103">
+        <v>9</v>
+      </c>
+      <c r="AE103">
+        <v>1.29</v>
+      </c>
+      <c r="AF103">
+        <v>3.3</v>
+      </c>
+      <c r="AG103">
+        <v>2.1</v>
+      </c>
+      <c r="AH103">
+        <v>1.7</v>
+      </c>
+      <c r="AI103">
+        <v>1.83</v>
+      </c>
+      <c r="AJ103">
+        <v>1.83</v>
+      </c>
+      <c r="AK103">
+        <v>1.48</v>
+      </c>
+      <c r="AL103">
+        <v>1.3</v>
+      </c>
+      <c r="AM103">
+        <v>1.53</v>
+      </c>
+      <c r="AN103">
+        <v>1.35</v>
+      </c>
+      <c r="AO103">
+        <v>0.65</v>
+      </c>
+      <c r="AP103">
+        <v>1.28</v>
+      </c>
+      <c r="AQ103">
+        <v>0.78</v>
+      </c>
+      <c r="AR103">
+        <v>1.39</v>
+      </c>
+      <c r="AS103">
+        <v>1.23</v>
+      </c>
+      <c r="AT103">
+        <v>2.62</v>
+      </c>
+      <c r="AU103">
+        <v>5</v>
+      </c>
+      <c r="AV103">
+        <v>3</v>
+      </c>
+      <c r="AW103">
+        <v>5</v>
+      </c>
+      <c r="AX103">
+        <v>5</v>
+      </c>
+      <c r="AY103">
+        <v>10</v>
+      </c>
+      <c r="AZ103">
+        <v>8</v>
+      </c>
+      <c r="BA103">
+        <v>11</v>
+      </c>
+      <c r="BB103">
+        <v>2</v>
+      </c>
+      <c r="BC103">
+        <v>13</v>
+      </c>
+      <c r="BD103">
+        <v>2</v>
+      </c>
+      <c r="BE103">
+        <v>7.42</v>
+      </c>
+      <c r="BF103">
+        <v>2.24</v>
+      </c>
+      <c r="BG103">
+        <v>1.28</v>
+      </c>
+      <c r="BH103">
+        <v>3.31</v>
+      </c>
+      <c r="BI103">
+        <v>1.51</v>
+      </c>
+      <c r="BJ103">
+        <v>2.32</v>
+      </c>
+      <c r="BK103">
+        <v>1.87</v>
+      </c>
+      <c r="BL103">
+        <v>1.79</v>
+      </c>
+      <c r="BM103">
+        <v>2.45</v>
+      </c>
+      <c r="BN103">
+        <v>1.46</v>
+      </c>
+      <c r="BO103">
+        <v>3.38</v>
+      </c>
+      <c r="BP103">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7330039</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45429.875</v>
+      </c>
+      <c r="F104">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s">
+        <v>76</v>
+      </c>
+      <c r="H104" t="s">
+        <v>80</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>3</v>
+      </c>
+      <c r="L104">
+        <v>3</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>4</v>
+      </c>
+      <c r="O104" t="s">
+        <v>149</v>
+      </c>
+      <c r="P104" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q104">
+        <v>3.4</v>
+      </c>
+      <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
+        <v>3.6</v>
+      </c>
+      <c r="T104">
+        <v>1.46</v>
+      </c>
+      <c r="U104">
+        <v>2.66</v>
+      </c>
+      <c r="V104">
+        <v>3.33</v>
+      </c>
+      <c r="W104">
+        <v>1.32</v>
+      </c>
+      <c r="X104">
+        <v>7.5</v>
+      </c>
+      <c r="Y104">
+        <v>1.06</v>
+      </c>
+      <c r="Z104">
+        <v>2.5</v>
+      </c>
+      <c r="AA104">
+        <v>3.1</v>
+      </c>
+      <c r="AB104">
+        <v>2.8</v>
+      </c>
+      <c r="AC104">
+        <v>1.07</v>
+      </c>
+      <c r="AD104">
+        <v>6.8</v>
+      </c>
+      <c r="AE104">
+        <v>1.35</v>
+      </c>
+      <c r="AF104">
+        <v>2.9</v>
+      </c>
+      <c r="AG104">
+        <v>2.3</v>
+      </c>
+      <c r="AH104">
+        <v>1.6</v>
+      </c>
+      <c r="AI104">
+        <v>2</v>
+      </c>
+      <c r="AJ104">
+        <v>1.73</v>
+      </c>
+      <c r="AK104">
+        <v>1.5</v>
+      </c>
+      <c r="AL104">
+        <v>1.35</v>
+      </c>
+      <c r="AM104">
+        <v>1.45</v>
+      </c>
+      <c r="AN104">
+        <v>0.76</v>
+      </c>
+      <c r="AO104">
+        <v>1.5</v>
+      </c>
+      <c r="AP104">
+        <v>0.89</v>
+      </c>
+      <c r="AQ104">
+        <v>1.41</v>
+      </c>
+      <c r="AR104">
+        <v>1.48</v>
+      </c>
+      <c r="AS104">
+        <v>1.23</v>
+      </c>
+      <c r="AT104">
+        <v>2.71</v>
+      </c>
+      <c r="AU104">
+        <v>7</v>
+      </c>
+      <c r="AV104">
+        <v>2</v>
+      </c>
+      <c r="AW104">
+        <v>5</v>
+      </c>
+      <c r="AX104">
+        <v>7</v>
+      </c>
+      <c r="AY104">
+        <v>12</v>
+      </c>
+      <c r="AZ104">
+        <v>9</v>
+      </c>
+      <c r="BA104">
+        <v>5</v>
+      </c>
+      <c r="BB104">
+        <v>9</v>
+      </c>
+      <c r="BC104">
+        <v>14</v>
+      </c>
+      <c r="BD104">
+        <v>2.22</v>
+      </c>
+      <c r="BE104">
+        <v>7.22</v>
+      </c>
+      <c r="BF104">
+        <v>2.03</v>
+      </c>
+      <c r="BG104">
+        <v>1.34</v>
+      </c>
+      <c r="BH104">
+        <v>2.88</v>
+      </c>
+      <c r="BI104">
+        <v>1.62</v>
+      </c>
+      <c r="BJ104">
+        <v>2.1</v>
+      </c>
+      <c r="BK104">
+        <v>2.05</v>
+      </c>
+      <c r="BL104">
+        <v>1.65</v>
+      </c>
+      <c r="BM104">
+        <v>2.75</v>
+      </c>
+      <c r="BN104">
+        <v>1.37</v>
+      </c>
+      <c r="BO104">
+        <v>3.88</v>
+      </c>
+      <c r="BP104">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="204">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -464,6 +464,9 @@
   </si>
   <si>
     <t>['41', '45', '80']</t>
+  </si>
+  <si>
+    <t>['58', '59']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -984,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP104"/>
+  <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1449,7 +1452,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1527,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1942,7 +1945,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ5">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2273,7 +2276,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2351,10 +2354,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ7">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2479,7 +2482,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2685,7 +2688,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2763,10 +2766,10 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ9">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2891,7 +2894,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -2972,7 +2975,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3097,7 +3100,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3175,7 +3178,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>1.53</v>
@@ -3509,7 +3512,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3921,7 +3924,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -3999,7 +4002,7 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ15">
         <v>0.89</v>
@@ -4411,10 +4414,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ17">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR17">
         <v>1.03</v>
@@ -4539,7 +4542,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4620,7 +4623,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ18">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4745,7 +4748,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4826,7 +4829,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ19">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR19">
         <v>1.77</v>
@@ -4951,7 +4954,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5157,7 +5160,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5235,7 +5238,7 @@
         <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ21">
         <v>1.53</v>
@@ -5363,7 +5366,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5647,7 +5650,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>1.41</v>
@@ -5775,7 +5778,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5856,7 +5859,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ24">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR24">
         <v>1.32</v>
@@ -6187,7 +6190,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6268,7 +6271,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ26">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR26">
         <v>1.5</v>
@@ -6471,7 +6474,7 @@
         <v>1.75</v>
       </c>
       <c r="AP27">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ27">
         <v>1.28</v>
@@ -6599,7 +6602,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6677,7 +6680,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ28">
         <v>0.88</v>
@@ -6886,7 +6889,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ29">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR29">
         <v>2.35</v>
@@ -7298,7 +7301,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ31">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR31">
         <v>1.29</v>
@@ -7423,7 +7426,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7707,7 +7710,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ33">
         <v>2.06</v>
@@ -7835,7 +7838,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -7916,7 +7919,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR34">
         <v>1.7</v>
@@ -8041,7 +8044,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8247,7 +8250,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8325,7 +8328,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ36">
         <v>1.41</v>
@@ -8453,7 +8456,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -9071,7 +9074,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9277,7 +9280,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9355,10 +9358,10 @@
         <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ41">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR41">
         <v>1.18</v>
@@ -9483,7 +9486,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9561,10 +9564,10 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR42">
         <v>1.46</v>
@@ -9689,7 +9692,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9767,7 +9770,7 @@
         <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ43">
         <v>2.06</v>
@@ -9895,7 +9898,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10179,7 +10182,7 @@
         <v>1.71</v>
       </c>
       <c r="AP45">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ45">
         <v>1.53</v>
@@ -10307,7 +10310,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10513,7 +10516,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10591,7 +10594,7 @@
         <v>0.57</v>
       </c>
       <c r="AP47">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -11131,7 +11134,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11212,7 +11215,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ50">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR50">
         <v>1.99</v>
@@ -11337,7 +11340,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11418,7 +11421,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ51">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR51">
         <v>1.3</v>
@@ -11624,7 +11627,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ52">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR52">
         <v>1.53</v>
@@ -11827,7 +11830,7 @@
         <v>1.38</v>
       </c>
       <c r="AP53">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
         <v>1.28</v>
@@ -11955,7 +11958,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12161,7 +12164,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12239,7 +12242,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ55">
         <v>1.41</v>
@@ -12367,7 +12370,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12448,7 +12451,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ56">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -12573,7 +12576,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12654,7 +12657,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ57">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR57">
         <v>1.75</v>
@@ -12779,7 +12782,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -12857,7 +12860,7 @@
         <v>0.44</v>
       </c>
       <c r="AP58">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ58">
         <v>0.78</v>
@@ -13191,7 +13194,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13269,7 +13272,7 @@
         <v>1.4</v>
       </c>
       <c r="AP60">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ60">
         <v>1.28</v>
@@ -13887,10 +13890,10 @@
         <v>1.7</v>
       </c>
       <c r="AP63">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR63">
         <v>1.64</v>
@@ -14302,7 +14305,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ65">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR65">
         <v>1.26</v>
@@ -14427,7 +14430,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14505,7 +14508,7 @@
         <v>1.18</v>
       </c>
       <c r="AP66">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ66">
         <v>0.88</v>
@@ -14633,7 +14636,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14839,7 +14842,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15123,10 +15126,10 @@
         <v>1.27</v>
       </c>
       <c r="AP69">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR69">
         <v>1.74</v>
@@ -15332,7 +15335,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR70">
         <v>1.37</v>
@@ -15741,7 +15744,7 @@
         <v>1.17</v>
       </c>
       <c r="AP72">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -15869,7 +15872,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16075,7 +16078,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16153,10 +16156,10 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ74">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR74">
         <v>1.3</v>
@@ -16281,7 +16284,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16487,7 +16490,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16568,7 +16571,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ76">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR76">
         <v>1.47</v>
@@ -16899,7 +16902,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -16980,7 +16983,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ78">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR78">
         <v>1.66</v>
@@ -17105,7 +17108,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17311,7 +17314,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17801,7 +17804,7 @@
         <v>0.54</v>
       </c>
       <c r="AP82">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ82">
         <v>0.78</v>
@@ -17929,7 +17932,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18007,10 +18010,10 @@
         <v>1.31</v>
       </c>
       <c r="AP83">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ83">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR83">
         <v>1.25</v>
@@ -18135,7 +18138,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18216,7 +18219,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ84">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR84">
         <v>1.59</v>
@@ -18547,7 +18550,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18628,7 +18631,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ86">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR86">
         <v>1.44</v>
@@ -18831,7 +18834,7 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ87">
         <v>0.89</v>
@@ -19040,7 +19043,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ88">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR88">
         <v>1.22</v>
@@ -19449,7 +19452,7 @@
         <v>1.36</v>
       </c>
       <c r="AP90">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ90">
         <v>1.28</v>
@@ -19577,7 +19580,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19658,7 +19661,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ91">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR91">
         <v>1.43</v>
@@ -19783,7 +19786,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -19989,7 +19992,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20067,7 +20070,7 @@
         <v>2.07</v>
       </c>
       <c r="AP93">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ93">
         <v>2.06</v>
@@ -20273,7 +20276,7 @@
         <v>0.67</v>
       </c>
       <c r="AP94">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ94">
         <v>0.78</v>
@@ -20401,7 +20404,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20482,7 +20485,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ95">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR95">
         <v>1.46</v>
@@ -20813,7 +20816,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -20894,7 +20897,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ97">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR97">
         <v>1.17</v>
@@ -21097,7 +21100,7 @@
         <v>1.06</v>
       </c>
       <c r="AP98">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ98">
         <v>1</v>
@@ -21225,7 +21228,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21637,7 +21640,7 @@
         <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -21718,7 +21721,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ101">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR101">
         <v>1.87</v>
@@ -21921,7 +21924,7 @@
         <v>0.88</v>
       </c>
       <c r="AP102">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ102">
         <v>0.88</v>
@@ -22049,7 +22052,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22255,7 +22258,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22412,6 +22415,418 @@
       </c>
       <c r="BP104">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7330042</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45430.66666666666</v>
+      </c>
+      <c r="F105">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s">
+        <v>71</v>
+      </c>
+      <c r="H105" t="s">
+        <v>75</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>2</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105" t="s">
+        <v>150</v>
+      </c>
+      <c r="P105" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q105">
+        <v>3</v>
+      </c>
+      <c r="R105">
+        <v>2.1</v>
+      </c>
+      <c r="S105">
+        <v>3.75</v>
+      </c>
+      <c r="T105">
+        <v>1.42</v>
+      </c>
+      <c r="U105">
+        <v>2.65</v>
+      </c>
+      <c r="V105">
+        <v>2.95</v>
+      </c>
+      <c r="W105">
+        <v>1.35</v>
+      </c>
+      <c r="X105">
+        <v>7</v>
+      </c>
+      <c r="Y105">
+        <v>1.07</v>
+      </c>
+      <c r="Z105">
+        <v>2.25</v>
+      </c>
+      <c r="AA105">
+        <v>3.25</v>
+      </c>
+      <c r="AB105">
+        <v>3</v>
+      </c>
+      <c r="AC105">
+        <v>1.06</v>
+      </c>
+      <c r="AD105">
+        <v>8</v>
+      </c>
+      <c r="AE105">
+        <v>1.33</v>
+      </c>
+      <c r="AF105">
+        <v>3.1</v>
+      </c>
+      <c r="AG105">
+        <v>1.99</v>
+      </c>
+      <c r="AH105">
+        <v>1.64</v>
+      </c>
+      <c r="AI105">
+        <v>1.83</v>
+      </c>
+      <c r="AJ105">
+        <v>1.83</v>
+      </c>
+      <c r="AK105">
+        <v>1.3</v>
+      </c>
+      <c r="AL105">
+        <v>1.25</v>
+      </c>
+      <c r="AM105">
+        <v>1.7</v>
+      </c>
+      <c r="AN105">
+        <v>1.71</v>
+      </c>
+      <c r="AO105">
+        <v>1.47</v>
+      </c>
+      <c r="AP105">
+        <v>1.78</v>
+      </c>
+      <c r="AQ105">
+        <v>1.39</v>
+      </c>
+      <c r="AR105">
+        <v>1.32</v>
+      </c>
+      <c r="AS105">
+        <v>1.49</v>
+      </c>
+      <c r="AT105">
+        <v>2.81</v>
+      </c>
+      <c r="AU105">
+        <v>10</v>
+      </c>
+      <c r="AV105">
+        <v>6</v>
+      </c>
+      <c r="AW105">
+        <v>6</v>
+      </c>
+      <c r="AX105">
+        <v>11</v>
+      </c>
+      <c r="AY105">
+        <v>16</v>
+      </c>
+      <c r="AZ105">
+        <v>17</v>
+      </c>
+      <c r="BA105">
+        <v>8</v>
+      </c>
+      <c r="BB105">
+        <v>4</v>
+      </c>
+      <c r="BC105">
+        <v>12</v>
+      </c>
+      <c r="BD105">
+        <v>1.95</v>
+      </c>
+      <c r="BE105">
+        <v>7.6</v>
+      </c>
+      <c r="BF105">
+        <v>2.2</v>
+      </c>
+      <c r="BG105">
+        <v>1.23</v>
+      </c>
+      <c r="BH105">
+        <v>3.69</v>
+      </c>
+      <c r="BI105">
+        <v>1.46</v>
+      </c>
+      <c r="BJ105">
+        <v>2.61</v>
+      </c>
+      <c r="BK105">
+        <v>1.8</v>
+      </c>
+      <c r="BL105">
+        <v>2</v>
+      </c>
+      <c r="BM105">
+        <v>2.22</v>
+      </c>
+      <c r="BN105">
+        <v>1.62</v>
+      </c>
+      <c r="BO105">
+        <v>2.98</v>
+      </c>
+      <c r="BP105">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7330038</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45430.77083333334</v>
+      </c>
+      <c r="F106">
+        <v>18</v>
+      </c>
+      <c r="G106" t="s">
+        <v>77</v>
+      </c>
+      <c r="H106" t="s">
+        <v>79</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106" t="s">
+        <v>89</v>
+      </c>
+      <c r="P106" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q106">
+        <v>5.5</v>
+      </c>
+      <c r="R106">
+        <v>2.25</v>
+      </c>
+      <c r="S106">
+        <v>2.25</v>
+      </c>
+      <c r="T106">
+        <v>1.36</v>
+      </c>
+      <c r="U106">
+        <v>3.13</v>
+      </c>
+      <c r="V106">
+        <v>2.8</v>
+      </c>
+      <c r="W106">
+        <v>1.44</v>
+      </c>
+      <c r="X106">
+        <v>6</v>
+      </c>
+      <c r="Y106">
+        <v>1.09</v>
+      </c>
+      <c r="Z106">
+        <v>5.25</v>
+      </c>
+      <c r="AA106">
+        <v>3.7</v>
+      </c>
+      <c r="AB106">
+        <v>1.62</v>
+      </c>
+      <c r="AC106">
+        <v>1.02</v>
+      </c>
+      <c r="AD106">
+        <v>10</v>
+      </c>
+      <c r="AE106">
+        <v>1.25</v>
+      </c>
+      <c r="AF106">
+        <v>3.6</v>
+      </c>
+      <c r="AG106">
+        <v>1.9</v>
+      </c>
+      <c r="AH106">
+        <v>1.9</v>
+      </c>
+      <c r="AI106">
+        <v>1.83</v>
+      </c>
+      <c r="AJ106">
+        <v>1.83</v>
+      </c>
+      <c r="AK106">
+        <v>2.3</v>
+      </c>
+      <c r="AL106">
+        <v>1.25</v>
+      </c>
+      <c r="AM106">
+        <v>1.15</v>
+      </c>
+      <c r="AN106">
+        <v>1.12</v>
+      </c>
+      <c r="AO106">
+        <v>2.06</v>
+      </c>
+      <c r="AP106">
+        <v>1.11</v>
+      </c>
+      <c r="AQ106">
+        <v>2</v>
+      </c>
+      <c r="AR106">
+        <v>1.2</v>
+      </c>
+      <c r="AS106">
+        <v>1.46</v>
+      </c>
+      <c r="AT106">
+        <v>2.66</v>
+      </c>
+      <c r="AU106">
+        <v>2</v>
+      </c>
+      <c r="AV106">
+        <v>0</v>
+      </c>
+      <c r="AW106">
+        <v>2</v>
+      </c>
+      <c r="AX106">
+        <v>11</v>
+      </c>
+      <c r="AY106">
+        <v>4</v>
+      </c>
+      <c r="AZ106">
+        <v>11</v>
+      </c>
+      <c r="BA106">
+        <v>6</v>
+      </c>
+      <c r="BB106">
+        <v>4</v>
+      </c>
+      <c r="BC106">
+        <v>10</v>
+      </c>
+      <c r="BD106">
+        <v>3.08</v>
+      </c>
+      <c r="BE106">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF106">
+        <v>1.51</v>
+      </c>
+      <c r="BG106">
+        <v>1.29</v>
+      </c>
+      <c r="BH106">
+        <v>3.29</v>
+      </c>
+      <c r="BI106">
+        <v>1.56</v>
+      </c>
+      <c r="BJ106">
+        <v>2.27</v>
+      </c>
+      <c r="BK106">
+        <v>1.99</v>
+      </c>
+      <c r="BL106">
+        <v>1.73</v>
+      </c>
+      <c r="BM106">
+        <v>2.62</v>
+      </c>
+      <c r="BN106">
+        <v>1.43</v>
+      </c>
+      <c r="BO106">
+        <v>3.21</v>
+      </c>
+      <c r="BP106">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="207">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -469,6 +469,9 @@
     <t>['58', '59']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -626,6 +629,12 @@
   </si>
   <si>
     <t>['38']</t>
+  </si>
+  <si>
+    <t>['28', '45+5', '90+3']</t>
+  </si>
+  <si>
+    <t>['30', '56']</t>
   </si>
 </sst>
 </file>
@@ -987,7 +996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP106"/>
+  <dimension ref="A1:BP108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1452,7 +1461,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1533,7 +1542,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1736,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ4">
         <v>1.41</v>
@@ -1942,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ5">
         <v>1.11</v>
@@ -2148,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ6">
         <v>0.78</v>
@@ -2276,7 +2285,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2482,7 +2491,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2563,7 +2572,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ8">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2688,7 +2697,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2894,7 +2903,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -2972,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ10">
         <v>1.39</v>
@@ -3100,7 +3109,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3181,7 +3190,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3512,7 +3521,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3593,7 +3602,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ13">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AR13">
         <v>1.34</v>
@@ -3796,10 +3805,10 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR14">
         <v>1.61</v>
@@ -3924,7 +3933,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4208,7 +4217,7 @@
         <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ16">
         <v>1.28</v>
@@ -4542,7 +4551,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4748,7 +4757,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4954,7 +4963,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5032,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ20">
         <v>0.78</v>
@@ -5160,7 +5169,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5241,7 +5250,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ21">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR21">
         <v>1.74</v>
@@ -5366,7 +5375,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5444,10 +5453,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ22">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AR22">
         <v>1.61</v>
@@ -5778,7 +5787,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6065,7 +6074,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR25">
         <v>1.13</v>
@@ -6190,7 +6199,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6602,7 +6611,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6683,7 +6692,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ28">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR28">
         <v>1.3</v>
@@ -6886,7 +6895,7 @@
         <v>2.5</v>
       </c>
       <c r="AP29">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ29">
         <v>2</v>
@@ -7092,7 +7101,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ30">
         <v>0.89</v>
@@ -7298,7 +7307,7 @@
         <v>1.8</v>
       </c>
       <c r="AP31">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ31">
         <v>1.39</v>
@@ -7426,7 +7435,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7507,7 +7516,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ32">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR32">
         <v>1.26</v>
@@ -7713,7 +7722,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ33">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AR33">
         <v>1.34</v>
@@ -7838,7 +7847,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -7916,7 +7925,7 @@
         <v>2.2</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ34">
         <v>2</v>
@@ -8044,7 +8053,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8250,7 +8259,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8456,7 +8465,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8534,10 +8543,10 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ37">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR37">
         <v>1.59</v>
@@ -8946,10 +8955,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR39">
         <v>1.98</v>
@@ -9074,7 +9083,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9280,7 +9289,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9486,7 +9495,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9692,7 +9701,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9773,7 +9782,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ43">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AR43">
         <v>1.28</v>
@@ -9898,7 +9907,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10185,7 +10194,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ45">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR45">
         <v>1.36</v>
@@ -10310,7 +10319,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10388,7 +10397,7 @@
         <v>0.43</v>
       </c>
       <c r="AP46">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ46">
         <v>0.78</v>
@@ -10516,7 +10525,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10597,7 +10606,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR47">
         <v>1.29</v>
@@ -10800,7 +10809,7 @@
         <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ48">
         <v>0.89</v>
@@ -11009,7 +11018,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ49">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR49">
         <v>1.08</v>
@@ -11134,7 +11143,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11212,7 +11221,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ50">
         <v>1.11</v>
@@ -11340,7 +11349,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11624,7 +11633,7 @@
         <v>1.38</v>
       </c>
       <c r="AP52">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ52">
         <v>1.39</v>
@@ -11958,7 +11967,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12036,10 +12045,10 @@
         <v>1.38</v>
       </c>
       <c r="AP54">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ54">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AR54">
         <v>1.55</v>
@@ -12164,7 +12173,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12370,7 +12379,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12448,7 +12457,7 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ56">
         <v>2</v>
@@ -12576,7 +12585,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12782,7 +12791,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13069,7 +13078,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR59">
         <v>1.22</v>
@@ -13194,7 +13203,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13481,7 +13490,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ61">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR61">
         <v>1.17</v>
@@ -13684,7 +13693,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP62">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ62">
         <v>0.89</v>
@@ -14096,10 +14105,10 @@
         <v>1.3</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ64">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR64">
         <v>1.39</v>
@@ -14430,7 +14439,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14511,7 +14520,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ66">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR66">
         <v>1.22</v>
@@ -14636,7 +14645,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14842,7 +14851,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14923,7 +14932,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ68">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AR68">
         <v>1.18</v>
@@ -15332,7 +15341,7 @@
         <v>1.64</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ70">
         <v>1.78</v>
@@ -15541,7 +15550,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ71">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR71">
         <v>1.26</v>
@@ -15747,7 +15756,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR72">
         <v>1.49</v>
@@ -15872,7 +15881,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16078,7 +16087,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16284,7 +16293,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16362,7 +16371,7 @@
         <v>0.55</v>
       </c>
       <c r="AP75">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ75">
         <v>0.89</v>
@@ -16490,7 +16499,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16568,7 +16577,7 @@
         <v>2.27</v>
       </c>
       <c r="AP76">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ76">
         <v>2</v>
@@ -16774,7 +16783,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ77">
         <v>1.28</v>
@@ -16902,7 +16911,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17108,7 +17117,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17186,10 +17195,10 @@
         <v>1.46</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ79">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR79">
         <v>1.38</v>
@@ -17314,7 +17323,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17395,7 +17404,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ80">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AR80">
         <v>1.36</v>
@@ -17601,7 +17610,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ81">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR81">
         <v>1.24</v>
@@ -17932,7 +17941,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18138,7 +18147,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18425,7 +18434,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR85">
         <v>1.17</v>
@@ -18550,7 +18559,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18628,7 +18637,7 @@
         <v>1.07</v>
       </c>
       <c r="AP86">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ86">
         <v>1.11</v>
@@ -19246,10 +19255,10 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ89">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR89">
         <v>1.9</v>
@@ -19580,7 +19589,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19786,7 +19795,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -19867,7 +19876,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ92">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR92">
         <v>1.54</v>
@@ -19992,7 +20001,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20073,7 +20082,7 @@
         <v>2</v>
       </c>
       <c r="AQ93">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AR93">
         <v>1.77</v>
@@ -20404,7 +20413,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20482,7 +20491,7 @@
         <v>1.67</v>
       </c>
       <c r="AP95">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ95">
         <v>1.78</v>
@@ -20688,7 +20697,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ96">
         <v>1.41</v>
@@ -20816,7 +20825,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21103,7 +21112,7 @@
         <v>2</v>
       </c>
       <c r="AQ98">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR98">
         <v>1.73</v>
@@ -21228,7 +21237,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21512,7 +21521,7 @@
         <v>1.38</v>
       </c>
       <c r="AP100">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ100">
         <v>1.28</v>
@@ -21640,7 +21649,7 @@
         <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -21718,7 +21727,7 @@
         <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ101">
         <v>1.78</v>
@@ -21927,7 +21936,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ102">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR102">
         <v>1.41</v>
@@ -22052,7 +22061,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22258,7 +22267,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22464,7 +22473,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22827,6 +22836,418 @@
       </c>
       <c r="BP106">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7330037</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45431.67708333334</v>
+      </c>
+      <c r="F107">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s">
+        <v>78</v>
+      </c>
+      <c r="H107" t="s">
+        <v>74</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>2</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>3</v>
+      </c>
+      <c r="N107">
+        <v>3</v>
+      </c>
+      <c r="O107" t="s">
+        <v>89</v>
+      </c>
+      <c r="P107" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q107">
+        <v>6.5</v>
+      </c>
+      <c r="R107">
+        <v>2.25</v>
+      </c>
+      <c r="S107">
+        <v>2.05</v>
+      </c>
+      <c r="T107">
+        <v>1.38</v>
+      </c>
+      <c r="U107">
+        <v>2.96</v>
+      </c>
+      <c r="V107">
+        <v>2.93</v>
+      </c>
+      <c r="W107">
+        <v>1.39</v>
+      </c>
+      <c r="X107">
+        <v>6.5</v>
+      </c>
+      <c r="Y107">
+        <v>1.08</v>
+      </c>
+      <c r="Z107">
+        <v>6.5</v>
+      </c>
+      <c r="AA107">
+        <v>3.9</v>
+      </c>
+      <c r="AB107">
+        <v>1.5</v>
+      </c>
+      <c r="AC107">
+        <v>1.03</v>
+      </c>
+      <c r="AD107">
+        <v>9</v>
+      </c>
+      <c r="AE107">
+        <v>1.29</v>
+      </c>
+      <c r="AF107">
+        <v>3.3</v>
+      </c>
+      <c r="AG107">
+        <v>1.9</v>
+      </c>
+      <c r="AH107">
+        <v>1.9</v>
+      </c>
+      <c r="AI107">
+        <v>2</v>
+      </c>
+      <c r="AJ107">
+        <v>1.73</v>
+      </c>
+      <c r="AK107">
+        <v>2.25</v>
+      </c>
+      <c r="AL107">
+        <v>1.25</v>
+      </c>
+      <c r="AM107">
+        <v>1.17</v>
+      </c>
+      <c r="AN107">
+        <v>1</v>
+      </c>
+      <c r="AO107">
+        <v>2.06</v>
+      </c>
+      <c r="AP107">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ107">
+        <v>2.12</v>
+      </c>
+      <c r="AR107">
+        <v>1.48</v>
+      </c>
+      <c r="AS107">
+        <v>1.75</v>
+      </c>
+      <c r="AT107">
+        <v>3.23</v>
+      </c>
+      <c r="AU107">
+        <v>3</v>
+      </c>
+      <c r="AV107">
+        <v>5</v>
+      </c>
+      <c r="AW107">
+        <v>4</v>
+      </c>
+      <c r="AX107">
+        <v>5</v>
+      </c>
+      <c r="AY107">
+        <v>7</v>
+      </c>
+      <c r="AZ107">
+        <v>10</v>
+      </c>
+      <c r="BA107">
+        <v>4</v>
+      </c>
+      <c r="BB107">
+        <v>5</v>
+      </c>
+      <c r="BC107">
+        <v>9</v>
+      </c>
+      <c r="BD107">
+        <v>3.04</v>
+      </c>
+      <c r="BE107">
+        <v>7.9</v>
+      </c>
+      <c r="BF107">
+        <v>1.6</v>
+      </c>
+      <c r="BG107">
+        <v>1.31</v>
+      </c>
+      <c r="BH107">
+        <v>3.14</v>
+      </c>
+      <c r="BI107">
+        <v>1.6</v>
+      </c>
+      <c r="BJ107">
+        <v>2.2</v>
+      </c>
+      <c r="BK107">
+        <v>2.38</v>
+      </c>
+      <c r="BL107">
+        <v>1.67</v>
+      </c>
+      <c r="BM107">
+        <v>2.77</v>
+      </c>
+      <c r="BN107">
+        <v>1.39</v>
+      </c>
+      <c r="BO107">
+        <v>3.07</v>
+      </c>
+      <c r="BP107">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7330041</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45431.77083333334</v>
+      </c>
+      <c r="F108">
+        <v>18</v>
+      </c>
+      <c r="G108" t="s">
+        <v>73</v>
+      </c>
+      <c r="H108" t="s">
+        <v>72</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+      <c r="N108">
+        <v>3</v>
+      </c>
+      <c r="O108" t="s">
+        <v>151</v>
+      </c>
+      <c r="P108" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q108">
+        <v>4.75</v>
+      </c>
+      <c r="R108">
+        <v>2.1</v>
+      </c>
+      <c r="S108">
+        <v>2.5</v>
+      </c>
+      <c r="T108">
+        <v>1.42</v>
+      </c>
+      <c r="U108">
+        <v>2.78</v>
+      </c>
+      <c r="V108">
+        <v>3.15</v>
+      </c>
+      <c r="W108">
+        <v>1.34</v>
+      </c>
+      <c r="X108">
+        <v>7.5</v>
+      </c>
+      <c r="Y108">
+        <v>1.06</v>
+      </c>
+      <c r="Z108">
+        <v>4.33</v>
+      </c>
+      <c r="AA108">
+        <v>3.4</v>
+      </c>
+      <c r="AB108">
+        <v>1.83</v>
+      </c>
+      <c r="AC108">
+        <v>1.05</v>
+      </c>
+      <c r="AD108">
+        <v>8</v>
+      </c>
+      <c r="AE108">
+        <v>1.33</v>
+      </c>
+      <c r="AF108">
+        <v>3</v>
+      </c>
+      <c r="AG108">
+        <v>2.08</v>
+      </c>
+      <c r="AH108">
+        <v>1.73</v>
+      </c>
+      <c r="AI108">
+        <v>1.91</v>
+      </c>
+      <c r="AJ108">
+        <v>1.8</v>
+      </c>
+      <c r="AK108">
+        <v>1.83</v>
+      </c>
+      <c r="AL108">
+        <v>1.33</v>
+      </c>
+      <c r="AM108">
+        <v>1.25</v>
+      </c>
+      <c r="AN108">
+        <v>0.88</v>
+      </c>
+      <c r="AO108">
+        <v>1.53</v>
+      </c>
+      <c r="AP108">
+        <v>0.83</v>
+      </c>
+      <c r="AQ108">
+        <v>1.61</v>
+      </c>
+      <c r="AR108">
+        <v>1.44</v>
+      </c>
+      <c r="AS108">
+        <v>1.44</v>
+      </c>
+      <c r="AT108">
+        <v>2.88</v>
+      </c>
+      <c r="AU108">
+        <v>3</v>
+      </c>
+      <c r="AV108">
+        <v>5</v>
+      </c>
+      <c r="AW108">
+        <v>5</v>
+      </c>
+      <c r="AX108">
+        <v>9</v>
+      </c>
+      <c r="AY108">
+        <v>8</v>
+      </c>
+      <c r="AZ108">
+        <v>14</v>
+      </c>
+      <c r="BA108">
+        <v>2</v>
+      </c>
+      <c r="BB108">
+        <v>7</v>
+      </c>
+      <c r="BC108">
+        <v>9</v>
+      </c>
+      <c r="BD108">
+        <v>2.8</v>
+      </c>
+      <c r="BE108">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF108">
+        <v>1.66</v>
+      </c>
+      <c r="BG108">
+        <v>1.25</v>
+      </c>
+      <c r="BH108">
+        <v>3.52</v>
+      </c>
+      <c r="BI108">
+        <v>1.53</v>
+      </c>
+      <c r="BJ108">
+        <v>2.33</v>
+      </c>
+      <c r="BK108">
+        <v>1.9</v>
+      </c>
+      <c r="BL108">
+        <v>1.8</v>
+      </c>
+      <c r="BM108">
+        <v>2.5</v>
+      </c>
+      <c r="BN108">
+        <v>1.47</v>
+      </c>
+      <c r="BO108">
+        <v>3.12</v>
+      </c>
+      <c r="BP108">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -472,6 +472,12 @@
     <t>['14']</t>
   </si>
   <si>
+    <t>['24', '27']</t>
+  </si>
+  <si>
+    <t>['16', '27', '65', '78', '84']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -635,6 +641,9 @@
   </si>
   <si>
     <t>['30', '56']</t>
+  </si>
+  <si>
+    <t>['39']</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP108"/>
+  <dimension ref="A1:BP110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1333,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ2">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1461,7 +1470,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1748,7 +1757,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ4">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2285,7 +2294,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2366,7 +2375,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2491,7 +2500,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2569,7 +2578,7 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AQ8">
         <v>0.83</v>
@@ -2697,7 +2706,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2903,7 +2912,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3109,7 +3118,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3187,7 +3196,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ11">
         <v>1.61</v>
@@ -3393,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
         <v>0.78</v>
@@ -3521,7 +3530,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3599,7 +3608,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ13">
         <v>2.12</v>
@@ -3933,7 +3942,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4014,7 +4023,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ15">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR15">
         <v>1.26</v>
@@ -4220,7 +4229,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ16">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR16">
         <v>1.67</v>
@@ -4551,7 +4560,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4632,7 +4641,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4757,7 +4766,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4835,7 +4844,7 @@
         <v>1.67</v>
       </c>
       <c r="AP19">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AQ19">
         <v>1.39</v>
@@ -4963,7 +4972,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5169,7 +5178,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5375,7 +5384,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5659,10 +5668,10 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ23">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -5787,7 +5796,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5865,7 +5874,7 @@
         <v>1.67</v>
       </c>
       <c r="AP24">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ24">
         <v>1.78</v>
@@ -6071,7 +6080,7 @@
         <v>0.75</v>
       </c>
       <c r="AP25">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
         <v>0.9399999999999999</v>
@@ -6199,7 +6208,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6486,7 +6495,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ27">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR27">
         <v>1.24</v>
@@ -6611,7 +6620,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6898,7 +6907,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR29">
         <v>2.35</v>
@@ -7104,7 +7113,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ30">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR30">
         <v>1.47</v>
@@ -7435,7 +7444,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7513,7 +7522,7 @@
         <v>1.6</v>
       </c>
       <c r="AP32">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ32">
         <v>1.61</v>
@@ -7847,7 +7856,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -7928,7 +7937,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR34">
         <v>1.7</v>
@@ -8053,7 +8062,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8131,7 +8140,7 @@
         <v>0.6</v>
       </c>
       <c r="AP35">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AQ35">
         <v>0.78</v>
@@ -8259,7 +8268,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8340,7 +8349,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ36">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR36">
         <v>1.44</v>
@@ -8465,7 +8474,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8749,10 +8758,10 @@
         <v>0.83</v>
       </c>
       <c r="AP38">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR38">
         <v>0.99</v>
@@ -9083,7 +9092,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9164,7 +9173,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ40">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR40">
         <v>1.42</v>
@@ -9289,7 +9298,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9495,7 +9504,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9573,7 +9582,7 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ42">
         <v>1.11</v>
@@ -9701,7 +9710,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9907,7 +9916,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9985,10 +9994,10 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ44">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
         <v>1.26</v>
@@ -10319,7 +10328,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10525,7 +10534,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10812,7 +10821,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ48">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -11015,7 +11024,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
         <v>0.83</v>
@@ -11143,7 +11152,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11349,7 +11358,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11839,10 +11848,10 @@
         <v>1.38</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ53">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR53">
         <v>1.71</v>
@@ -11967,7 +11976,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12173,7 +12182,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12254,7 +12263,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ55">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR55">
         <v>1.3</v>
@@ -12379,7 +12388,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12460,7 +12469,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ56">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -12585,7 +12594,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12663,7 +12672,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AQ57">
         <v>1.11</v>
@@ -12791,7 +12800,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13075,7 +13084,7 @@
         <v>1.11</v>
       </c>
       <c r="AP59">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ59">
         <v>0.9399999999999999</v>
@@ -13203,7 +13212,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13284,7 +13293,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ60">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR60">
         <v>1.2</v>
@@ -13696,7 +13705,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ62">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR62">
         <v>2</v>
@@ -13899,7 +13908,7 @@
         <v>1.7</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ63">
         <v>1.78</v>
@@ -14311,7 +14320,7 @@
         <v>1.1</v>
       </c>
       <c r="AP65">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
         <v>1.39</v>
@@ -14439,7 +14448,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14645,7 +14654,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14723,10 +14732,10 @@
         <v>1.36</v>
       </c>
       <c r="AP67">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AQ67">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -14851,7 +14860,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15135,7 +15144,7 @@
         <v>1.27</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ69">
         <v>1.39</v>
@@ -15547,7 +15556,7 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71">
         <v>1.61</v>
@@ -15881,7 +15890,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -15962,7 +15971,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ73">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR73">
         <v>1.16</v>
@@ -16087,7 +16096,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16293,7 +16302,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16374,7 +16383,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ75">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR75">
         <v>1.39</v>
@@ -16499,7 +16508,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16580,7 +16589,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ76">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR76">
         <v>1.47</v>
@@ -16786,7 +16795,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ77">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR77">
         <v>1.95</v>
@@ -16911,7 +16920,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -16989,10 +16998,10 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AQ78">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR78">
         <v>1.66</v>
@@ -17117,7 +17126,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17323,7 +17332,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17401,7 +17410,7 @@
         <v>1.92</v>
       </c>
       <c r="AP80">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ80">
         <v>2.12</v>
@@ -17607,7 +17616,7 @@
         <v>1.08</v>
       </c>
       <c r="AP81">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ81">
         <v>0.83</v>
@@ -17813,7 +17822,7 @@
         <v>0.54</v>
       </c>
       <c r="AP82">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ82">
         <v>0.78</v>
@@ -17941,7 +17950,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18147,7 +18156,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18225,7 +18234,7 @@
         <v>1.69</v>
       </c>
       <c r="AP84">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AQ84">
         <v>1.78</v>
@@ -18559,7 +18568,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18846,7 +18855,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ87">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -19049,10 +19058,10 @@
         <v>2.29</v>
       </c>
       <c r="AP88">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR88">
         <v>1.22</v>
@@ -19464,7 +19473,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ90">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR90">
         <v>1.32</v>
@@ -19589,7 +19598,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19667,7 +19676,7 @@
         <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ91">
         <v>1.39</v>
@@ -19795,7 +19804,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -19873,7 +19882,7 @@
         <v>1.47</v>
       </c>
       <c r="AP92">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AQ92">
         <v>1.61</v>
@@ -20001,7 +20010,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20079,7 +20088,7 @@
         <v>2.07</v>
       </c>
       <c r="AP93">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ93">
         <v>2.12</v>
@@ -20413,7 +20422,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20700,7 +20709,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ96">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR96">
         <v>1.4</v>
@@ -20825,7 +20834,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -20903,7 +20912,7 @@
         <v>1.19</v>
       </c>
       <c r="AP97">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97">
         <v>1.11</v>
@@ -21109,7 +21118,7 @@
         <v>1.06</v>
       </c>
       <c r="AP98">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ98">
         <v>0.9399999999999999</v>
@@ -21237,7 +21246,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21318,7 +21327,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ99">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR99">
         <v>1.18</v>
@@ -21524,7 +21533,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ100">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR100">
         <v>1.51</v>
@@ -21649,7 +21658,7 @@
         <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -22061,7 +22070,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22139,7 +22148,7 @@
         <v>0.65</v>
       </c>
       <c r="AP103">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ103">
         <v>0.78</v>
@@ -22267,7 +22276,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22345,10 +22354,10 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AQ104">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR104">
         <v>1.48</v>
@@ -22473,7 +22482,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22760,7 +22769,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ106">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR106">
         <v>1.2</v>
@@ -22885,7 +22894,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23091,7 +23100,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23248,6 +23257,418 @@
       </c>
       <c r="BP108">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7330046</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45433.77083333334</v>
+      </c>
+      <c r="F109">
+        <v>19</v>
+      </c>
+      <c r="G109" t="s">
+        <v>80</v>
+      </c>
+      <c r="H109" t="s">
+        <v>70</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>3</v>
+      </c>
+      <c r="L109">
+        <v>2</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>3</v>
+      </c>
+      <c r="O109" t="s">
+        <v>152</v>
+      </c>
+      <c r="P109" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q109">
+        <v>2.63</v>
+      </c>
+      <c r="R109">
+        <v>2.1</v>
+      </c>
+      <c r="S109">
+        <v>4.5</v>
+      </c>
+      <c r="T109">
+        <v>1.42</v>
+      </c>
+      <c r="U109">
+        <v>2.73</v>
+      </c>
+      <c r="V109">
+        <v>2.97</v>
+      </c>
+      <c r="W109">
+        <v>1.36</v>
+      </c>
+      <c r="X109">
+        <v>7.6</v>
+      </c>
+      <c r="Y109">
+        <v>1.06</v>
+      </c>
+      <c r="Z109">
+        <v>1.95</v>
+      </c>
+      <c r="AA109">
+        <v>3.2</v>
+      </c>
+      <c r="AB109">
+        <v>3.8</v>
+      </c>
+      <c r="AC109">
+        <v>1.03</v>
+      </c>
+      <c r="AD109">
+        <v>8.4</v>
+      </c>
+      <c r="AE109">
+        <v>1.31</v>
+      </c>
+      <c r="AF109">
+        <v>3.04</v>
+      </c>
+      <c r="AG109">
+        <v>2.15</v>
+      </c>
+      <c r="AH109">
+        <v>1.67</v>
+      </c>
+      <c r="AI109">
+        <v>1.91</v>
+      </c>
+      <c r="AJ109">
+        <v>1.8</v>
+      </c>
+      <c r="AK109">
+        <v>1.22</v>
+      </c>
+      <c r="AL109">
+        <v>1.26</v>
+      </c>
+      <c r="AM109">
+        <v>1.81</v>
+      </c>
+      <c r="AN109">
+        <v>1.41</v>
+      </c>
+      <c r="AO109">
+        <v>1.28</v>
+      </c>
+      <c r="AP109">
+        <v>1.5</v>
+      </c>
+      <c r="AQ109">
+        <v>1.21</v>
+      </c>
+      <c r="AR109">
+        <v>1.19</v>
+      </c>
+      <c r="AS109">
+        <v>1.22</v>
+      </c>
+      <c r="AT109">
+        <v>2.41</v>
+      </c>
+      <c r="AU109">
+        <v>5</v>
+      </c>
+      <c r="AV109">
+        <v>4</v>
+      </c>
+      <c r="AW109">
+        <v>5</v>
+      </c>
+      <c r="AX109">
+        <v>4</v>
+      </c>
+      <c r="AY109">
+        <v>10</v>
+      </c>
+      <c r="AZ109">
+        <v>8</v>
+      </c>
+      <c r="BA109">
+        <v>2</v>
+      </c>
+      <c r="BB109">
+        <v>4</v>
+      </c>
+      <c r="BC109">
+        <v>6</v>
+      </c>
+      <c r="BD109">
+        <v>1.53</v>
+      </c>
+      <c r="BE109">
+        <v>8.6</v>
+      </c>
+      <c r="BF109">
+        <v>2.86</v>
+      </c>
+      <c r="BG109">
+        <v>1.28</v>
+      </c>
+      <c r="BH109">
+        <v>3.2</v>
+      </c>
+      <c r="BI109">
+        <v>1.52</v>
+      </c>
+      <c r="BJ109">
+        <v>2.3</v>
+      </c>
+      <c r="BK109">
+        <v>1.89</v>
+      </c>
+      <c r="BL109">
+        <v>1.77</v>
+      </c>
+      <c r="BM109">
+        <v>2.5</v>
+      </c>
+      <c r="BN109">
+        <v>1.44</v>
+      </c>
+      <c r="BO109">
+        <v>3.42</v>
+      </c>
+      <c r="BP109">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7330047</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45433.875</v>
+      </c>
+      <c r="F110">
+        <v>19</v>
+      </c>
+      <c r="G110" t="s">
+        <v>79</v>
+      </c>
+      <c r="H110" t="s">
+        <v>76</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>5</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>5</v>
+      </c>
+      <c r="O110" t="s">
+        <v>153</v>
+      </c>
+      <c r="P110" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q110">
+        <v>2</v>
+      </c>
+      <c r="R110">
+        <v>2.3</v>
+      </c>
+      <c r="S110">
+        <v>6.5</v>
+      </c>
+      <c r="T110">
+        <v>1.39</v>
+      </c>
+      <c r="U110">
+        <v>2.85</v>
+      </c>
+      <c r="V110">
+        <v>2.81</v>
+      </c>
+      <c r="W110">
+        <v>1.4</v>
+      </c>
+      <c r="X110">
+        <v>7</v>
+      </c>
+      <c r="Y110">
+        <v>1.08</v>
+      </c>
+      <c r="Z110">
+        <v>1.45</v>
+      </c>
+      <c r="AA110">
+        <v>3.9</v>
+      </c>
+      <c r="AB110">
+        <v>6.5</v>
+      </c>
+      <c r="AC110">
+        <v>1.02</v>
+      </c>
+      <c r="AD110">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE110">
+        <v>1.29</v>
+      </c>
+      <c r="AF110">
+        <v>3.46</v>
+      </c>
+      <c r="AG110">
+        <v>1.85</v>
+      </c>
+      <c r="AH110">
+        <v>1.95</v>
+      </c>
+      <c r="AI110">
+        <v>2</v>
+      </c>
+      <c r="AJ110">
+        <v>1.73</v>
+      </c>
+      <c r="AK110">
+        <v>1.13</v>
+      </c>
+      <c r="AL110">
+        <v>1.21</v>
+      </c>
+      <c r="AM110">
+        <v>2.22</v>
+      </c>
+      <c r="AN110">
+        <v>2</v>
+      </c>
+      <c r="AO110">
+        <v>0.89</v>
+      </c>
+      <c r="AP110">
+        <v>2.05</v>
+      </c>
+      <c r="AQ110">
+        <v>0.84</v>
+      </c>
+      <c r="AR110">
+        <v>1.76</v>
+      </c>
+      <c r="AS110">
+        <v>1.14</v>
+      </c>
+      <c r="AT110">
+        <v>2.9</v>
+      </c>
+      <c r="AU110">
+        <v>8</v>
+      </c>
+      <c r="AV110">
+        <v>2</v>
+      </c>
+      <c r="AW110">
+        <v>4</v>
+      </c>
+      <c r="AX110">
+        <v>2</v>
+      </c>
+      <c r="AY110">
+        <v>12</v>
+      </c>
+      <c r="AZ110">
+        <v>4</v>
+      </c>
+      <c r="BA110">
+        <v>3</v>
+      </c>
+      <c r="BB110">
+        <v>4</v>
+      </c>
+      <c r="BC110">
+        <v>7</v>
+      </c>
+      <c r="BD110">
+        <v>1.32</v>
+      </c>
+      <c r="BE110">
+        <v>9.4</v>
+      </c>
+      <c r="BF110">
+        <v>3.94</v>
+      </c>
+      <c r="BG110">
+        <v>1.3</v>
+      </c>
+      <c r="BH110">
+        <v>3.2</v>
+      </c>
+      <c r="BI110">
+        <v>1.52</v>
+      </c>
+      <c r="BJ110">
+        <v>2.47</v>
+      </c>
+      <c r="BK110">
+        <v>1.88</v>
+      </c>
+      <c r="BL110">
+        <v>1.92</v>
+      </c>
+      <c r="BM110">
+        <v>2.38</v>
+      </c>
+      <c r="BN110">
+        <v>1.56</v>
+      </c>
+      <c r="BO110">
+        <v>3</v>
+      </c>
+      <c r="BP110">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="214">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,7 +475,13 @@
     <t>['24', '27']</t>
   </si>
   <si>
-    <t>['16', '27', '65', '78', '84']</t>
+    <t>['16', '27', '66', '79', '84']</t>
+  </si>
+  <si>
+    <t>['8', '25', '58', '71', '72', '80']</t>
+  </si>
+  <si>
+    <t>['55', '90']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -644,6 +650,12 @@
   </si>
   <si>
     <t>['39']</t>
+  </si>
+  <si>
+    <t>['29', '44', '65']</t>
+  </si>
+  <si>
+    <t>['81', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP110"/>
+  <dimension ref="A1:BP113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1470,7 +1482,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1548,10 +1560,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ3">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1754,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -1963,7 +1975,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ5">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2166,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ6">
         <v>0.78</v>
@@ -2294,7 +2306,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2372,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ7">
         <v>2.05</v>
@@ -2500,7 +2512,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2706,7 +2718,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2784,10 +2796,10 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ9">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2912,7 +2924,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -2990,10 +3002,10 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AQ10">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3118,7 +3130,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3199,7 +3211,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ11">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3530,7 +3542,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3611,7 +3623,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ13">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AR13">
         <v>1.34</v>
@@ -3814,10 +3826,10 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ14">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR14">
         <v>1.61</v>
@@ -3942,7 +3954,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4020,7 +4032,7 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ15">
         <v>0.84</v>
@@ -4432,10 +4444,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ17">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR17">
         <v>1.03</v>
@@ -4560,7 +4572,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4766,7 +4778,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4847,7 +4859,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ19">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR19">
         <v>1.77</v>
@@ -4972,7 +4984,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5050,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AQ20">
         <v>0.78</v>
@@ -5178,7 +5190,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5256,10 +5268,10 @@
         <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ21">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AR21">
         <v>1.74</v>
@@ -5384,7 +5396,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5465,7 +5477,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ22">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AR22">
         <v>1.61</v>
@@ -5796,7 +5808,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5877,7 +5889,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ24">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AR24">
         <v>1.32</v>
@@ -6083,7 +6095,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR25">
         <v>1.13</v>
@@ -6208,7 +6220,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6289,7 +6301,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ26">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR26">
         <v>1.5</v>
@@ -6492,7 +6504,7 @@
         <v>1.75</v>
       </c>
       <c r="AP27">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ27">
         <v>1.21</v>
@@ -6620,7 +6632,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6698,7 +6710,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ28">
         <v>0.83</v>
@@ -6904,7 +6916,7 @@
         <v>2.5</v>
       </c>
       <c r="AP29">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ29">
         <v>2.05</v>
@@ -7110,7 +7122,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ30">
         <v>0.84</v>
@@ -7319,7 +7331,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ31">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR31">
         <v>1.29</v>
@@ -7444,7 +7456,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7525,7 +7537,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ32">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AR32">
         <v>1.26</v>
@@ -7728,10 +7740,10 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ33">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AR33">
         <v>1.34</v>
@@ -7856,7 +7868,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -7934,7 +7946,7 @@
         <v>2.2</v>
       </c>
       <c r="AP34">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AQ34">
         <v>2.05</v>
@@ -8062,7 +8074,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8268,7 +8280,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8346,7 +8358,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ36">
         <v>1.5</v>
@@ -8474,7 +8486,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8552,7 +8564,7 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ37">
         <v>0.83</v>
@@ -8964,10 +8976,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ39">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR39">
         <v>1.98</v>
@@ -9092,7 +9104,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9298,7 +9310,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9376,10 +9388,10 @@
         <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ41">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AR41">
         <v>1.18</v>
@@ -9504,7 +9516,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9585,7 +9597,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ42">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR42">
         <v>1.46</v>
@@ -9710,7 +9722,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9788,10 +9800,10 @@
         <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ43">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AR43">
         <v>1.28</v>
@@ -9916,7 +9928,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10200,10 +10212,10 @@
         <v>1.71</v>
       </c>
       <c r="AP45">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ45">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AR45">
         <v>1.36</v>
@@ -10328,7 +10340,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10534,7 +10546,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10612,10 +10624,10 @@
         <v>0.57</v>
       </c>
       <c r="AP47">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ47">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR47">
         <v>1.29</v>
@@ -10818,7 +10830,7 @@
         <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AQ48">
         <v>0.84</v>
@@ -11152,7 +11164,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11230,10 +11242,10 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ50">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR50">
         <v>1.99</v>
@@ -11358,7 +11370,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11439,7 +11451,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ51">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AR51">
         <v>1.3</v>
@@ -11642,10 +11654,10 @@
         <v>1.38</v>
       </c>
       <c r="AP52">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ52">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR52">
         <v>1.53</v>
@@ -11976,7 +11988,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12054,10 +12066,10 @@
         <v>1.38</v>
       </c>
       <c r="AP54">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ54">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AR54">
         <v>1.55</v>
@@ -12182,7 +12194,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12260,7 +12272,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ55">
         <v>1.5</v>
@@ -12388,7 +12400,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12594,7 +12606,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12675,7 +12687,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ57">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR57">
         <v>1.75</v>
@@ -12800,7 +12812,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -12878,7 +12890,7 @@
         <v>0.44</v>
       </c>
       <c r="AP58">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ58">
         <v>0.78</v>
@@ -13087,7 +13099,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ59">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR59">
         <v>1.22</v>
@@ -13212,7 +13224,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13290,7 +13302,7 @@
         <v>1.4</v>
       </c>
       <c r="AP60">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ60">
         <v>1.21</v>
@@ -13499,7 +13511,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ61">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AR61">
         <v>1.17</v>
@@ -13702,7 +13714,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP62">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ62">
         <v>0.84</v>
@@ -13911,7 +13923,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ63">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AR63">
         <v>1.64</v>
@@ -14114,7 +14126,7 @@
         <v>1.3</v>
       </c>
       <c r="AP64">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AQ64">
         <v>0.83</v>
@@ -14323,7 +14335,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR65">
         <v>1.26</v>
@@ -14448,7 +14460,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14526,7 +14538,7 @@
         <v>1.18</v>
       </c>
       <c r="AP66">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ66">
         <v>0.83</v>
@@ -14654,7 +14666,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14860,7 +14872,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14941,7 +14953,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ68">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AR68">
         <v>1.18</v>
@@ -15147,7 +15159,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ69">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR69">
         <v>1.74</v>
@@ -15350,10 +15362,10 @@
         <v>1.64</v>
       </c>
       <c r="AP70">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AQ70">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AR70">
         <v>1.37</v>
@@ -15559,7 +15571,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AR71">
         <v>1.26</v>
@@ -15762,10 +15774,10 @@
         <v>1.17</v>
       </c>
       <c r="AP72">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ72">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR72">
         <v>1.49</v>
@@ -15890,7 +15902,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16096,7 +16108,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16174,10 +16186,10 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ74">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR74">
         <v>1.3</v>
@@ -16302,7 +16314,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16508,7 +16520,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16586,7 +16598,7 @@
         <v>2.27</v>
       </c>
       <c r="AP76">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ76">
         <v>2.05</v>
@@ -16792,7 +16804,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ77">
         <v>1.21</v>
@@ -16920,7 +16932,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17126,7 +17138,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17204,10 +17216,10 @@
         <v>1.46</v>
       </c>
       <c r="AP79">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AQ79">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AR79">
         <v>1.38</v>
@@ -17332,7 +17344,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17413,7 +17425,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ80">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AR80">
         <v>1.36</v>
@@ -17950,7 +17962,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18028,10 +18040,10 @@
         <v>1.31</v>
       </c>
       <c r="AP83">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ83">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR83">
         <v>1.25</v>
@@ -18156,7 +18168,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18237,7 +18249,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ84">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AR84">
         <v>1.59</v>
@@ -18443,7 +18455,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ85">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR85">
         <v>1.17</v>
@@ -18568,7 +18580,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18646,10 +18658,10 @@
         <v>1.07</v>
       </c>
       <c r="AP86">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ86">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR86">
         <v>1.44</v>
@@ -18852,7 +18864,7 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ87">
         <v>0.84</v>
@@ -19264,7 +19276,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ89">
         <v>0.83</v>
@@ -19470,7 +19482,7 @@
         <v>1.36</v>
       </c>
       <c r="AP90">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ90">
         <v>1.21</v>
@@ -19598,7 +19610,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19679,7 +19691,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ91">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR91">
         <v>1.43</v>
@@ -19804,7 +19816,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -19885,7 +19897,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ92">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AR92">
         <v>1.54</v>
@@ -20010,7 +20022,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20091,7 +20103,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ93">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AR93">
         <v>1.77</v>
@@ -20294,7 +20306,7 @@
         <v>0.67</v>
       </c>
       <c r="AP94">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ94">
         <v>0.78</v>
@@ -20422,7 +20434,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20503,7 +20515,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ95">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AR95">
         <v>1.46</v>
@@ -20706,7 +20718,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AQ96">
         <v>1.5</v>
@@ -20834,7 +20846,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -20915,7 +20927,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ97">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR97">
         <v>1.17</v>
@@ -21121,7 +21133,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ98">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR98">
         <v>1.73</v>
@@ -21246,7 +21258,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21530,7 +21542,7 @@
         <v>1.38</v>
       </c>
       <c r="AP100">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ100">
         <v>1.21</v>
@@ -21658,7 +21670,7 @@
         <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -21736,10 +21748,10 @@
         <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ101">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AR101">
         <v>1.87</v>
@@ -21942,7 +21954,7 @@
         <v>0.88</v>
       </c>
       <c r="AP102">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ102">
         <v>0.83</v>
@@ -22070,7 +22082,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22276,7 +22288,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22482,7 +22494,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22560,10 +22572,10 @@
         <v>1.47</v>
       </c>
       <c r="AP105">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ105">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR105">
         <v>1.32</v>
@@ -22766,7 +22778,7 @@
         <v>2.06</v>
       </c>
       <c r="AP106">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ106">
         <v>2.05</v>
@@ -22894,7 +22906,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -22972,10 +22984,10 @@
         <v>2.06</v>
       </c>
       <c r="AP107">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AQ107">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AR107">
         <v>1.48</v>
@@ -23100,7 +23112,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23181,7 +23193,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ108">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AR108">
         <v>1.44</v>
@@ -23306,7 +23318,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q109">
         <v>2.63</v>
@@ -23669,6 +23681,624 @@
       </c>
       <c r="BP110">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7330048</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45434.64583333334</v>
+      </c>
+      <c r="F111">
+        <v>19</v>
+      </c>
+      <c r="G111" t="s">
+        <v>78</v>
+      </c>
+      <c r="H111" t="s">
+        <v>77</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111">
+        <v>2</v>
+      </c>
+      <c r="K111">
+        <v>4</v>
+      </c>
+      <c r="L111">
+        <v>6</v>
+      </c>
+      <c r="M111">
+        <v>3</v>
+      </c>
+      <c r="N111">
+        <v>9</v>
+      </c>
+      <c r="O111" t="s">
+        <v>154</v>
+      </c>
+      <c r="P111" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q111">
+        <v>3.25</v>
+      </c>
+      <c r="R111">
+        <v>2</v>
+      </c>
+      <c r="S111">
+        <v>3.6</v>
+      </c>
+      <c r="T111">
+        <v>1.44</v>
+      </c>
+      <c r="U111">
+        <v>2.66</v>
+      </c>
+      <c r="V111">
+        <v>3</v>
+      </c>
+      <c r="W111">
+        <v>1.34</v>
+      </c>
+      <c r="X111">
+        <v>7.9</v>
+      </c>
+      <c r="Y111">
+        <v>1.05</v>
+      </c>
+      <c r="Z111">
+        <v>2.3</v>
+      </c>
+      <c r="AA111">
+        <v>2.7</v>
+      </c>
+      <c r="AB111">
+        <v>3.3</v>
+      </c>
+      <c r="AC111">
+        <v>1.05</v>
+      </c>
+      <c r="AD111">
+        <v>9</v>
+      </c>
+      <c r="AE111">
+        <v>1.33</v>
+      </c>
+      <c r="AF111">
+        <v>3.1</v>
+      </c>
+      <c r="AG111">
+        <v>2.06</v>
+      </c>
+      <c r="AH111">
+        <v>1.71</v>
+      </c>
+      <c r="AI111">
+        <v>1.91</v>
+      </c>
+      <c r="AJ111">
+        <v>1.8</v>
+      </c>
+      <c r="AK111">
+        <v>1.3</v>
+      </c>
+      <c r="AL111">
+        <v>1.25</v>
+      </c>
+      <c r="AM111">
+        <v>1.68</v>
+      </c>
+      <c r="AN111">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO111">
+        <v>1.11</v>
+      </c>
+      <c r="AP111">
+        <v>1.05</v>
+      </c>
+      <c r="AQ111">
+        <v>1.05</v>
+      </c>
+      <c r="AR111">
+        <v>1.42</v>
+      </c>
+      <c r="AS111">
+        <v>1.21</v>
+      </c>
+      <c r="AT111">
+        <v>2.63</v>
+      </c>
+      <c r="AU111">
+        <v>14</v>
+      </c>
+      <c r="AV111">
+        <v>7</v>
+      </c>
+      <c r="AW111">
+        <v>10</v>
+      </c>
+      <c r="AX111">
+        <v>5</v>
+      </c>
+      <c r="AY111">
+        <v>24</v>
+      </c>
+      <c r="AZ111">
+        <v>12</v>
+      </c>
+      <c r="BA111">
+        <v>5</v>
+      </c>
+      <c r="BB111">
+        <v>4</v>
+      </c>
+      <c r="BC111">
+        <v>9</v>
+      </c>
+      <c r="BD111">
+        <v>1.65</v>
+      </c>
+      <c r="BE111">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF111">
+        <v>2.65</v>
+      </c>
+      <c r="BG111">
+        <v>1.21</v>
+      </c>
+      <c r="BH111">
+        <v>3.94</v>
+      </c>
+      <c r="BI111">
+        <v>1.39</v>
+      </c>
+      <c r="BJ111">
+        <v>2.67</v>
+      </c>
+      <c r="BK111">
+        <v>2.1</v>
+      </c>
+      <c r="BL111">
+        <v>1.85</v>
+      </c>
+      <c r="BM111">
+        <v>2.05</v>
+      </c>
+      <c r="BN111">
+        <v>1.7</v>
+      </c>
+      <c r="BO111">
+        <v>2.79</v>
+      </c>
+      <c r="BP111">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7330044</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45434.77083333334</v>
+      </c>
+      <c r="F112">
+        <v>19</v>
+      </c>
+      <c r="G112" t="s">
+        <v>72</v>
+      </c>
+      <c r="H112" t="s">
+        <v>71</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>2</v>
+      </c>
+      <c r="O112" t="s">
+        <v>89</v>
+      </c>
+      <c r="P112" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q112">
+        <v>3.25</v>
+      </c>
+      <c r="R112">
+        <v>2.05</v>
+      </c>
+      <c r="S112">
+        <v>3.5</v>
+      </c>
+      <c r="T112">
+        <v>1.48</v>
+      </c>
+      <c r="U112">
+        <v>2.5</v>
+      </c>
+      <c r="V112">
+        <v>3.25</v>
+      </c>
+      <c r="W112">
+        <v>1.29</v>
+      </c>
+      <c r="X112">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y112">
+        <v>1.04</v>
+      </c>
+      <c r="Z112">
+        <v>2.38</v>
+      </c>
+      <c r="AA112">
+        <v>3</v>
+      </c>
+      <c r="AB112">
+        <v>3</v>
+      </c>
+      <c r="AC112">
+        <v>1.07</v>
+      </c>
+      <c r="AD112">
+        <v>8</v>
+      </c>
+      <c r="AE112">
+        <v>1.38</v>
+      </c>
+      <c r="AF112">
+        <v>2.9</v>
+      </c>
+      <c r="AG112">
+        <v>2.2</v>
+      </c>
+      <c r="AH112">
+        <v>1.65</v>
+      </c>
+      <c r="AI112">
+        <v>1.83</v>
+      </c>
+      <c r="AJ112">
+        <v>1.83</v>
+      </c>
+      <c r="AK112">
+        <v>1.47</v>
+      </c>
+      <c r="AL112">
+        <v>1.3</v>
+      </c>
+      <c r="AM112">
+        <v>1.4</v>
+      </c>
+      <c r="AN112">
+        <v>1.61</v>
+      </c>
+      <c r="AO112">
+        <v>1.78</v>
+      </c>
+      <c r="AP112">
+        <v>1.53</v>
+      </c>
+      <c r="AQ112">
+        <v>1.84</v>
+      </c>
+      <c r="AR112">
+        <v>1.52</v>
+      </c>
+      <c r="AS112">
+        <v>1.56</v>
+      </c>
+      <c r="AT112">
+        <v>3.08</v>
+      </c>
+      <c r="AU112">
+        <v>3</v>
+      </c>
+      <c r="AV112">
+        <v>5</v>
+      </c>
+      <c r="AW112">
+        <v>3</v>
+      </c>
+      <c r="AX112">
+        <v>4</v>
+      </c>
+      <c r="AY112">
+        <v>6</v>
+      </c>
+      <c r="AZ112">
+        <v>9</v>
+      </c>
+      <c r="BA112">
+        <v>6</v>
+      </c>
+      <c r="BB112">
+        <v>5</v>
+      </c>
+      <c r="BC112">
+        <v>11</v>
+      </c>
+      <c r="BD112">
+        <v>1.65</v>
+      </c>
+      <c r="BE112">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF112">
+        <v>2.7</v>
+      </c>
+      <c r="BG112">
+        <v>1.23</v>
+      </c>
+      <c r="BH112">
+        <v>3.69</v>
+      </c>
+      <c r="BI112">
+        <v>1.42</v>
+      </c>
+      <c r="BJ112">
+        <v>2.57</v>
+      </c>
+      <c r="BK112">
+        <v>1.8</v>
+      </c>
+      <c r="BL112">
+        <v>1.9</v>
+      </c>
+      <c r="BM112">
+        <v>2.21</v>
+      </c>
+      <c r="BN112">
+        <v>1.56</v>
+      </c>
+      <c r="BO112">
+        <v>2.98</v>
+      </c>
+      <c r="BP112">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7330043</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45434.875</v>
+      </c>
+      <c r="F113">
+        <v>19</v>
+      </c>
+      <c r="G113" t="s">
+        <v>74</v>
+      </c>
+      <c r="H113" t="s">
+        <v>75</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>2</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+      <c r="O113" t="s">
+        <v>155</v>
+      </c>
+      <c r="P113" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q113">
+        <v>1.95</v>
+      </c>
+      <c r="R113">
+        <v>2.38</v>
+      </c>
+      <c r="S113">
+        <v>7</v>
+      </c>
+      <c r="T113">
+        <v>1.3</v>
+      </c>
+      <c r="U113">
+        <v>3.15</v>
+      </c>
+      <c r="V113">
+        <v>2.8</v>
+      </c>
+      <c r="W113">
+        <v>1.38</v>
+      </c>
+      <c r="X113">
+        <v>7</v>
+      </c>
+      <c r="Y113">
+        <v>1.08</v>
+      </c>
+      <c r="Z113">
+        <v>1.4</v>
+      </c>
+      <c r="AA113">
+        <v>4.33</v>
+      </c>
+      <c r="AB113">
+        <v>7</v>
+      </c>
+      <c r="AC113">
+        <v>1.03</v>
+      </c>
+      <c r="AD113">
+        <v>11.5</v>
+      </c>
+      <c r="AE113">
+        <v>1.26</v>
+      </c>
+      <c r="AF113">
+        <v>3.7</v>
+      </c>
+      <c r="AG113">
+        <v>1.8</v>
+      </c>
+      <c r="AH113">
+        <v>2</v>
+      </c>
+      <c r="AI113">
+        <v>2</v>
+      </c>
+      <c r="AJ113">
+        <v>1.73</v>
+      </c>
+      <c r="AK113">
+        <v>1.08</v>
+      </c>
+      <c r="AL113">
+        <v>1.18</v>
+      </c>
+      <c r="AM113">
+        <v>2.4</v>
+      </c>
+      <c r="AN113">
+        <v>2.12</v>
+      </c>
+      <c r="AO113">
+        <v>1.39</v>
+      </c>
+      <c r="AP113">
+        <v>2.17</v>
+      </c>
+      <c r="AQ113">
+        <v>1.32</v>
+      </c>
+      <c r="AR113">
+        <v>1.82</v>
+      </c>
+      <c r="AS113">
+        <v>1.52</v>
+      </c>
+      <c r="AT113">
+        <v>3.34</v>
+      </c>
+      <c r="AU113">
+        <v>6</v>
+      </c>
+      <c r="AV113">
+        <v>0</v>
+      </c>
+      <c r="AW113">
+        <v>4</v>
+      </c>
+      <c r="AX113">
+        <v>4</v>
+      </c>
+      <c r="AY113">
+        <v>10</v>
+      </c>
+      <c r="AZ113">
+        <v>4</v>
+      </c>
+      <c r="BA113">
+        <v>8</v>
+      </c>
+      <c r="BB113">
+        <v>6</v>
+      </c>
+      <c r="BC113">
+        <v>14</v>
+      </c>
+      <c r="BD113">
+        <v>1.34</v>
+      </c>
+      <c r="BE113">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF113">
+        <v>4.2</v>
+      </c>
+      <c r="BG113">
+        <v>1.22</v>
+      </c>
+      <c r="BH113">
+        <v>3.8</v>
+      </c>
+      <c r="BI113">
+        <v>1.33</v>
+      </c>
+      <c r="BJ113">
+        <v>2.91</v>
+      </c>
+      <c r="BK113">
+        <v>2.1</v>
+      </c>
+      <c r="BL113">
+        <v>2.05</v>
+      </c>
+      <c r="BM113">
+        <v>2.05</v>
+      </c>
+      <c r="BN113">
+        <v>1.7</v>
+      </c>
+      <c r="BO113">
+        <v>2.57</v>
+      </c>
+      <c r="BP113">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="215">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -484,6 +484,9 @@
     <t>['55', '90']</t>
   </si>
   <si>
+    <t>['45']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -634,9 +637,6 @@
     <t>['6']</t>
   </si>
   <si>
-    <t>['45']</t>
-  </si>
-  <si>
     <t>['31', '71']</t>
   </si>
   <si>
@@ -656,6 +656,9 @@
   </si>
   <si>
     <t>['81', '90+2']</t>
+  </si>
+  <si>
+    <t>['59']</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP113"/>
+  <dimension ref="A1:BP114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1482,7 +1485,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1972,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ5">
         <v>1.05</v>
@@ -2181,7 +2184,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ6">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2306,7 +2309,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2512,7 +2515,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2593,7 +2596,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ8">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2718,7 +2721,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2924,7 +2927,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3130,7 +3133,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3417,7 +3420,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3542,7 +3545,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3954,7 +3957,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4238,7 +4241,7 @@
         <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ16">
         <v>1.21</v>
@@ -4572,7 +4575,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4650,7 +4653,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AQ18">
         <v>2.05</v>
@@ -4778,7 +4781,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4984,7 +4987,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5065,7 +5068,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ20">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR20">
         <v>1.8</v>
@@ -5190,7 +5193,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5396,7 +5399,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5474,7 +5477,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ22">
         <v>2.17</v>
@@ -5808,7 +5811,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6220,7 +6223,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6298,7 +6301,7 @@
         <v>0.25</v>
       </c>
       <c r="AP26">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AQ26">
         <v>1.05</v>
@@ -6632,7 +6635,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6713,7 +6716,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ28">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR28">
         <v>1.3</v>
@@ -7328,7 +7331,7 @@
         <v>1.8</v>
       </c>
       <c r="AP31">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ31">
         <v>1.32</v>
@@ -7456,7 +7459,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7868,7 +7871,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8074,7 +8077,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8155,7 +8158,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ35">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR35">
         <v>2</v>
@@ -8280,7 +8283,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8486,7 +8489,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8567,7 +8570,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ37">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR37">
         <v>1.59</v>
@@ -9104,7 +9107,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9182,7 +9185,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AQ40">
         <v>1.21</v>
@@ -9310,7 +9313,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9516,7 +9519,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9722,7 +9725,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9928,7 +9931,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10340,7 +10343,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10418,10 +10421,10 @@
         <v>0.43</v>
       </c>
       <c r="AP46">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ46">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR46">
         <v>1.26</v>
@@ -10546,7 +10549,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -11039,7 +11042,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR49">
         <v>1.08</v>
@@ -11164,7 +11167,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11370,7 +11373,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11448,7 +11451,7 @@
         <v>1.63</v>
       </c>
       <c r="AP51">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AQ51">
         <v>1.84</v>
@@ -11988,7 +11991,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12194,7 +12197,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12400,7 +12403,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12478,7 +12481,7 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ56">
         <v>2.05</v>
@@ -12606,7 +12609,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12812,7 +12815,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -12893,7 +12896,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ58">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR58">
         <v>1.39</v>
@@ -13224,7 +13227,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13508,7 +13511,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AQ61">
         <v>1.53</v>
@@ -14129,7 +14132,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ64">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR64">
         <v>1.39</v>
@@ -14460,7 +14463,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14541,7 +14544,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ66">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR66">
         <v>1.22</v>
@@ -14666,7 +14669,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14872,7 +14875,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14950,7 +14953,7 @@
         <v>1.7</v>
       </c>
       <c r="AP68">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AQ68">
         <v>2.17</v>
@@ -15902,7 +15905,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -15980,7 +15983,7 @@
         <v>1.36</v>
       </c>
       <c r="AP73">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AQ73">
         <v>1.5</v>
@@ -16108,7 +16111,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16314,7 +16317,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16392,7 +16395,7 @@
         <v>0.55</v>
       </c>
       <c r="AP75">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ75">
         <v>0.84</v>
@@ -16520,7 +16523,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16932,7 +16935,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17138,7 +17141,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17344,7 +17347,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17631,7 +17634,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ81">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR81">
         <v>1.24</v>
@@ -17837,7 +17840,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ82">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR82">
         <v>1.7</v>
@@ -17962,7 +17965,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18168,7 +18171,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18452,7 +18455,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AQ85">
         <v>1.05</v>
@@ -18580,7 +18583,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -19279,7 +19282,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ89">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR89">
         <v>1.9</v>
@@ -19610,7 +19613,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19816,7 +19819,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -20022,7 +20025,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20309,7 +20312,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ94">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR94">
         <v>1.22</v>
@@ -20434,7 +20437,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20512,7 +20515,7 @@
         <v>1.67</v>
       </c>
       <c r="AP95">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ95">
         <v>1.84</v>
@@ -20846,7 +20849,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21258,7 +21261,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21336,7 +21339,7 @@
         <v>0.63</v>
       </c>
       <c r="AP99">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AQ99">
         <v>0.84</v>
@@ -21670,7 +21673,7 @@
         <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -21957,7 +21960,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ102">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR102">
         <v>1.41</v>
@@ -22163,7 +22166,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ103">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR103">
         <v>1.39</v>
@@ -22494,7 +22497,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -23190,7 +23193,7 @@
         <v>1.53</v>
       </c>
       <c r="AP108">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ108">
         <v>1.53</v>
@@ -24299,6 +24302,212 @@
       </c>
       <c r="BP113">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7330045</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45435.85416666666</v>
+      </c>
+      <c r="F114">
+        <v>19</v>
+      </c>
+      <c r="G114" t="s">
+        <v>81</v>
+      </c>
+      <c r="H114" t="s">
+        <v>73</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="O114" t="s">
+        <v>156</v>
+      </c>
+      <c r="P114" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q114">
+        <v>2.63</v>
+      </c>
+      <c r="R114">
+        <v>2.1</v>
+      </c>
+      <c r="S114">
+        <v>4.33</v>
+      </c>
+      <c r="T114">
+        <v>1.41</v>
+      </c>
+      <c r="U114">
+        <v>2.7</v>
+      </c>
+      <c r="V114">
+        <v>2.8</v>
+      </c>
+      <c r="W114">
+        <v>1.38</v>
+      </c>
+      <c r="X114">
+        <v>7.2</v>
+      </c>
+      <c r="Y114">
+        <v>1.08</v>
+      </c>
+      <c r="Z114">
+        <v>1.95</v>
+      </c>
+      <c r="AA114">
+        <v>3.2</v>
+      </c>
+      <c r="AB114">
+        <v>3.8</v>
+      </c>
+      <c r="AC114">
+        <v>1.05</v>
+      </c>
+      <c r="AD114">
+        <v>8.5</v>
+      </c>
+      <c r="AE114">
+        <v>1.3</v>
+      </c>
+      <c r="AF114">
+        <v>3.3</v>
+      </c>
+      <c r="AG114">
+        <v>2.08</v>
+      </c>
+      <c r="AH114">
+        <v>1.73</v>
+      </c>
+      <c r="AI114">
+        <v>1.83</v>
+      </c>
+      <c r="AJ114">
+        <v>1.83</v>
+      </c>
+      <c r="AK114">
+        <v>1.33</v>
+      </c>
+      <c r="AL114">
+        <v>1.25</v>
+      </c>
+      <c r="AM114">
+        <v>1.66</v>
+      </c>
+      <c r="AN114">
+        <v>0.78</v>
+      </c>
+      <c r="AO114">
+        <v>0.83</v>
+      </c>
+      <c r="AP114">
+        <v>0.79</v>
+      </c>
+      <c r="AQ114">
+        <v>0.84</v>
+      </c>
+      <c r="AR114">
+        <v>1.29</v>
+      </c>
+      <c r="AS114">
+        <v>1.2</v>
+      </c>
+      <c r="AT114">
+        <v>2.49</v>
+      </c>
+      <c r="AU114">
+        <v>0</v>
+      </c>
+      <c r="AV114">
+        <v>2</v>
+      </c>
+      <c r="AW114">
+        <v>0</v>
+      </c>
+      <c r="AX114">
+        <v>3</v>
+      </c>
+      <c r="AY114">
+        <v>0</v>
+      </c>
+      <c r="AZ114">
+        <v>5</v>
+      </c>
+      <c r="BA114">
+        <v>5</v>
+      </c>
+      <c r="BB114">
+        <v>3</v>
+      </c>
+      <c r="BC114">
+        <v>8</v>
+      </c>
+      <c r="BD114">
+        <v>1.6</v>
+      </c>
+      <c r="BE114">
+        <v>8.1</v>
+      </c>
+      <c r="BF114">
+        <v>2.85</v>
+      </c>
+      <c r="BG114">
+        <v>1.25</v>
+      </c>
+      <c r="BH114">
+        <v>3.42</v>
+      </c>
+      <c r="BI114">
+        <v>1.47</v>
+      </c>
+      <c r="BJ114">
+        <v>2.42</v>
+      </c>
+      <c r="BK114">
+        <v>1.9</v>
+      </c>
+      <c r="BL114">
+        <v>1.8</v>
+      </c>
+      <c r="BM114">
+        <v>2.32</v>
+      </c>
+      <c r="BN114">
+        <v>1.51</v>
+      </c>
+      <c r="BO114">
+        <v>3.14</v>
+      </c>
+      <c r="BP114">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="217">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -487,6 +487,9 @@
     <t>['45']</t>
   </si>
   <si>
+    <t>['19', '63', '86']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -659,6 +662,9 @@
   </si>
   <si>
     <t>['59']</t>
+  </si>
+  <si>
+    <t>['45+1', '69', '81']</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP114"/>
+  <dimension ref="A1:BP117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1360,7 +1366,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ2">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1485,7 +1491,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1566,7 +1572,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ3">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1769,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -1978,7 +1984,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ5">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2181,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ6">
         <v>0.79</v>
@@ -2309,7 +2315,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2387,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AQ7">
         <v>2.05</v>
@@ -2515,7 +2521,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2593,7 +2599,7 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AQ8">
         <v>0.84</v>
@@ -2721,7 +2727,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2799,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
         <v>1.84</v>
@@ -2927,7 +2933,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3005,10 +3011,10 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3133,7 +3139,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3214,7 +3220,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ11">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3545,7 +3551,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3626,7 +3632,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ13">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR13">
         <v>1.34</v>
@@ -3829,10 +3835,10 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ14">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>1.61</v>
@@ -3957,7 +3963,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4038,7 +4044,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ15">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR15">
         <v>1.26</v>
@@ -4447,10 +4453,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AQ17">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>1.03</v>
@@ -4575,7 +4581,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4781,7 +4787,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4859,10 +4865,10 @@
         <v>1.67</v>
       </c>
       <c r="AP19">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AQ19">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR19">
         <v>1.77</v>
@@ -4987,7 +4993,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5065,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
         <v>0.79</v>
@@ -5193,7 +5199,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5271,10 +5277,10 @@
         <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR21">
         <v>1.74</v>
@@ -5399,7 +5405,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5480,7 +5486,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ22">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR22">
         <v>1.61</v>
@@ -5811,7 +5817,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6098,7 +6104,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.13</v>
@@ -6223,7 +6229,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6304,7 +6310,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ26">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.5</v>
@@ -6507,7 +6513,7 @@
         <v>1.75</v>
       </c>
       <c r="AP27">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AQ27">
         <v>1.21</v>
@@ -6635,7 +6641,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6919,7 +6925,7 @@
         <v>2.5</v>
       </c>
       <c r="AP29">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ29">
         <v>2.05</v>
@@ -7125,10 +7131,10 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ30">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR30">
         <v>1.47</v>
@@ -7334,7 +7340,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ31">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR31">
         <v>1.29</v>
@@ -7459,7 +7465,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7540,7 +7546,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ32">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR32">
         <v>1.26</v>
@@ -7746,7 +7752,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ33">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR33">
         <v>1.34</v>
@@ -7871,7 +7877,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -7949,7 +7955,7 @@
         <v>2.2</v>
       </c>
       <c r="AP34">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
         <v>2.05</v>
@@ -8077,7 +8083,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8155,7 +8161,7 @@
         <v>0.6</v>
       </c>
       <c r="AP35">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AQ35">
         <v>0.79</v>
@@ -8283,7 +8289,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8361,7 +8367,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
         <v>1.5</v>
@@ -8489,7 +8495,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8567,7 +8573,7 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ37">
         <v>0.84</v>
@@ -8776,7 +8782,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR38">
         <v>0.99</v>
@@ -8979,10 +8985,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ39">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.98</v>
@@ -9107,7 +9113,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9313,7 +9319,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9391,7 +9397,7 @@
         <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AQ41">
         <v>1.84</v>
@@ -9519,7 +9525,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9600,7 +9606,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ42">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.46</v>
@@ -9725,7 +9731,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9803,10 +9809,10 @@
         <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AQ43">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR43">
         <v>1.28</v>
@@ -9931,7 +9937,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10218,7 +10224,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ45">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR45">
         <v>1.36</v>
@@ -10343,7 +10349,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10549,7 +10555,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10627,10 +10633,10 @@
         <v>0.57</v>
       </c>
       <c r="AP47">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.29</v>
@@ -10833,10 +10839,10 @@
         <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -11167,7 +11173,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11245,10 +11251,10 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ50">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.99</v>
@@ -11373,7 +11379,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11657,10 +11663,10 @@
         <v>1.38</v>
       </c>
       <c r="AP52">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ52">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR52">
         <v>1.53</v>
@@ -11991,7 +11997,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12069,10 +12075,10 @@
         <v>1.38</v>
       </c>
       <c r="AP54">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ54">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR54">
         <v>1.55</v>
@@ -12197,7 +12203,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12403,7 +12409,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12609,7 +12615,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12687,10 +12693,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AQ57">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.75</v>
@@ -12815,7 +12821,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -12893,7 +12899,7 @@
         <v>0.44</v>
       </c>
       <c r="AP58">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AQ58">
         <v>0.79</v>
@@ -13102,7 +13108,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ59">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>1.22</v>
@@ -13227,7 +13233,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13305,7 +13311,7 @@
         <v>1.4</v>
       </c>
       <c r="AP60">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
         <v>1.21</v>
@@ -13514,7 +13520,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ61">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR61">
         <v>1.17</v>
@@ -13717,10 +13723,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP62">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ62">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR62">
         <v>2</v>
@@ -14129,7 +14135,7 @@
         <v>1.3</v>
       </c>
       <c r="AP64">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
         <v>0.84</v>
@@ -14338,7 +14344,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR65">
         <v>1.26</v>
@@ -14463,7 +14469,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14541,7 +14547,7 @@
         <v>1.18</v>
       </c>
       <c r="AP66">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ66">
         <v>0.84</v>
@@ -14669,7 +14675,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14747,7 +14753,7 @@
         <v>1.36</v>
       </c>
       <c r="AP67">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AQ67">
         <v>1.21</v>
@@ -14875,7 +14881,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14956,7 +14962,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ68">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR68">
         <v>1.18</v>
@@ -15162,7 +15168,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ69">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR69">
         <v>1.74</v>
@@ -15365,7 +15371,7 @@
         <v>1.64</v>
       </c>
       <c r="AP70">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
         <v>1.84</v>
@@ -15574,7 +15580,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR71">
         <v>1.26</v>
@@ -15777,10 +15783,10 @@
         <v>1.17</v>
       </c>
       <c r="AP72">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AQ72">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>1.49</v>
@@ -15905,7 +15911,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16111,7 +16117,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16192,7 +16198,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ74">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR74">
         <v>1.3</v>
@@ -16317,7 +16323,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16398,7 +16404,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ75">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR75">
         <v>1.39</v>
@@ -16523,7 +16529,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16601,7 +16607,7 @@
         <v>2.27</v>
       </c>
       <c r="AP76">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ76">
         <v>2.05</v>
@@ -16807,7 +16813,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ77">
         <v>1.21</v>
@@ -16935,7 +16941,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17013,7 +17019,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AQ78">
         <v>2.05</v>
@@ -17141,7 +17147,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17219,10 +17225,10 @@
         <v>1.46</v>
       </c>
       <c r="AP79">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ79">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR79">
         <v>1.38</v>
@@ -17347,7 +17353,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17428,7 +17434,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ80">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR80">
         <v>1.36</v>
@@ -17965,7 +17971,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18043,10 +18049,10 @@
         <v>1.31</v>
       </c>
       <c r="AP83">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR83">
         <v>1.25</v>
@@ -18171,7 +18177,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18249,7 +18255,7 @@
         <v>1.69</v>
       </c>
       <c r="AP84">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AQ84">
         <v>1.84</v>
@@ -18458,7 +18464,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ85">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.17</v>
@@ -18583,7 +18589,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18661,10 +18667,10 @@
         <v>1.07</v>
       </c>
       <c r="AP86">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ86">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR86">
         <v>1.44</v>
@@ -18867,10 +18873,10 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AQ87">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -19279,7 +19285,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ89">
         <v>0.84</v>
@@ -19613,7 +19619,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19694,7 +19700,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ91">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR91">
         <v>1.43</v>
@@ -19819,7 +19825,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -19897,10 +19903,10 @@
         <v>1.47</v>
       </c>
       <c r="AP92">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AQ92">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR92">
         <v>1.54</v>
@@ -20025,7 +20031,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20106,7 +20112,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ93">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR93">
         <v>1.77</v>
@@ -20309,7 +20315,7 @@
         <v>0.67</v>
       </c>
       <c r="AP94">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ94">
         <v>0.79</v>
@@ -20437,7 +20443,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20721,7 +20727,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ96">
         <v>1.5</v>
@@ -20849,7 +20855,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -20930,7 +20936,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ97">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR97">
         <v>1.17</v>
@@ -21136,7 +21142,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ98">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR98">
         <v>1.73</v>
@@ -21261,7 +21267,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21342,7 +21348,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ99">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR99">
         <v>1.18</v>
@@ -21545,7 +21551,7 @@
         <v>1.38</v>
       </c>
       <c r="AP100">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ100">
         <v>1.21</v>
@@ -21751,7 +21757,7 @@
         <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ101">
         <v>1.84</v>
@@ -21957,7 +21963,7 @@
         <v>0.88</v>
       </c>
       <c r="AP102">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AQ102">
         <v>0.84</v>
@@ -22085,7 +22091,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22291,7 +22297,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22369,7 +22375,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AQ104">
         <v>1.5</v>
@@ -22497,7 +22503,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22578,7 +22584,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ105">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR105">
         <v>1.32</v>
@@ -22781,7 +22787,7 @@
         <v>2.06</v>
       </c>
       <c r="AP106">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ106">
         <v>2.05</v>
@@ -22909,7 +22915,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -22987,10 +22993,10 @@
         <v>2.06</v>
       </c>
       <c r="AP107">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ107">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR107">
         <v>1.48</v>
@@ -23115,7 +23121,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23196,7 +23202,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ108">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR108">
         <v>1.44</v>
@@ -23321,7 +23327,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q109">
         <v>2.63</v>
@@ -23608,7 +23614,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ110">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR110">
         <v>1.76</v>
@@ -23733,7 +23739,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -23811,10 +23817,10 @@
         <v>1.11</v>
       </c>
       <c r="AP111">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ111">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR111">
         <v>1.42</v>
@@ -23939,7 +23945,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24017,7 +24023,7 @@
         <v>1.78</v>
       </c>
       <c r="AP112">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AQ112">
         <v>1.84</v>
@@ -24223,10 +24229,10 @@
         <v>1.39</v>
       </c>
       <c r="AP113">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ113">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR113">
         <v>1.82</v>
@@ -24351,7 +24357,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -24508,6 +24514,624 @@
       </c>
       <c r="BP114">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7330050</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45437.75</v>
+      </c>
+      <c r="F115">
+        <v>20</v>
+      </c>
+      <c r="G115" t="s">
+        <v>76</v>
+      </c>
+      <c r="H115" t="s">
+        <v>78</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>3</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>3</v>
+      </c>
+      <c r="O115" t="s">
+        <v>157</v>
+      </c>
+      <c r="P115" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q115">
+        <v>3.1</v>
+      </c>
+      <c r="R115">
+        <v>2.05</v>
+      </c>
+      <c r="S115">
+        <v>3.75</v>
+      </c>
+      <c r="T115">
+        <v>1.38</v>
+      </c>
+      <c r="U115">
+        <v>2.8</v>
+      </c>
+      <c r="V115">
+        <v>3.1</v>
+      </c>
+      <c r="W115">
+        <v>1.3</v>
+      </c>
+      <c r="X115">
+        <v>6.5</v>
+      </c>
+      <c r="Y115">
+        <v>1.07</v>
+      </c>
+      <c r="Z115">
+        <v>2.25</v>
+      </c>
+      <c r="AA115">
+        <v>3.1</v>
+      </c>
+      <c r="AB115">
+        <v>2.9</v>
+      </c>
+      <c r="AC115">
+        <v>1.06</v>
+      </c>
+      <c r="AD115">
+        <v>8</v>
+      </c>
+      <c r="AE115">
+        <v>1.36</v>
+      </c>
+      <c r="AF115">
+        <v>3</v>
+      </c>
+      <c r="AG115">
+        <v>2.1</v>
+      </c>
+      <c r="AH115">
+        <v>1.7</v>
+      </c>
+      <c r="AI115">
+        <v>1.83</v>
+      </c>
+      <c r="AJ115">
+        <v>1.83</v>
+      </c>
+      <c r="AK115">
+        <v>1.28</v>
+      </c>
+      <c r="AL115">
+        <v>1.28</v>
+      </c>
+      <c r="AM115">
+        <v>1.68</v>
+      </c>
+      <c r="AN115">
+        <v>0.84</v>
+      </c>
+      <c r="AO115">
+        <v>1.05</v>
+      </c>
+      <c r="AP115">
+        <v>0.95</v>
+      </c>
+      <c r="AQ115">
+        <v>1</v>
+      </c>
+      <c r="AR115">
+        <v>1.5</v>
+      </c>
+      <c r="AS115">
+        <v>1.54</v>
+      </c>
+      <c r="AT115">
+        <v>3.04</v>
+      </c>
+      <c r="AU115">
+        <v>12</v>
+      </c>
+      <c r="AV115">
+        <v>8</v>
+      </c>
+      <c r="AW115">
+        <v>12</v>
+      </c>
+      <c r="AX115">
+        <v>12</v>
+      </c>
+      <c r="AY115">
+        <v>24</v>
+      </c>
+      <c r="AZ115">
+        <v>20</v>
+      </c>
+      <c r="BA115">
+        <v>4</v>
+      </c>
+      <c r="BB115">
+        <v>7</v>
+      </c>
+      <c r="BC115">
+        <v>11</v>
+      </c>
+      <c r="BD115">
+        <v>1.85</v>
+      </c>
+      <c r="BE115">
+        <v>7.3</v>
+      </c>
+      <c r="BF115">
+        <v>2.37</v>
+      </c>
+      <c r="BG115">
+        <v>1.26</v>
+      </c>
+      <c r="BH115">
+        <v>3.34</v>
+      </c>
+      <c r="BI115">
+        <v>1.49</v>
+      </c>
+      <c r="BJ115">
+        <v>2.38</v>
+      </c>
+      <c r="BK115">
+        <v>2.38</v>
+      </c>
+      <c r="BL115">
+        <v>1.88</v>
+      </c>
+      <c r="BM115">
+        <v>2.4</v>
+      </c>
+      <c r="BN115">
+        <v>1.48</v>
+      </c>
+      <c r="BO115">
+        <v>3.28</v>
+      </c>
+      <c r="BP115">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7330049</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45437.75</v>
+      </c>
+      <c r="F116">
+        <v>20</v>
+      </c>
+      <c r="G116" t="s">
+        <v>77</v>
+      </c>
+      <c r="H116" t="s">
+        <v>74</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>3</v>
+      </c>
+      <c r="N116">
+        <v>4</v>
+      </c>
+      <c r="O116" t="s">
+        <v>148</v>
+      </c>
+      <c r="P116" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q116">
+        <v>8</v>
+      </c>
+      <c r="R116">
+        <v>2.38</v>
+      </c>
+      <c r="S116">
+        <v>1.83</v>
+      </c>
+      <c r="T116">
+        <v>1.3</v>
+      </c>
+      <c r="U116">
+        <v>3.15</v>
+      </c>
+      <c r="V116">
+        <v>2.7</v>
+      </c>
+      <c r="W116">
+        <v>1.4</v>
+      </c>
+      <c r="X116">
+        <v>5.8</v>
+      </c>
+      <c r="Y116">
+        <v>1.09</v>
+      </c>
+      <c r="Z116">
+        <v>7.5</v>
+      </c>
+      <c r="AA116">
+        <v>4.33</v>
+      </c>
+      <c r="AB116">
+        <v>1.36</v>
+      </c>
+      <c r="AC116">
+        <v>1.04</v>
+      </c>
+      <c r="AD116">
+        <v>9</v>
+      </c>
+      <c r="AE116">
+        <v>1.25</v>
+      </c>
+      <c r="AF116">
+        <v>3.7</v>
+      </c>
+      <c r="AG116">
+        <v>1.85</v>
+      </c>
+      <c r="AH116">
+        <v>1.95</v>
+      </c>
+      <c r="AI116">
+        <v>2.1</v>
+      </c>
+      <c r="AJ116">
+        <v>1.67</v>
+      </c>
+      <c r="AK116">
+        <v>2.37</v>
+      </c>
+      <c r="AL116">
+        <v>1.15</v>
+      </c>
+      <c r="AM116">
+        <v>1.08</v>
+      </c>
+      <c r="AN116">
+        <v>1.05</v>
+      </c>
+      <c r="AO116">
+        <v>2.17</v>
+      </c>
+      <c r="AP116">
+        <v>1</v>
+      </c>
+      <c r="AQ116">
+        <v>2.21</v>
+      </c>
+      <c r="AR116">
+        <v>1.15</v>
+      </c>
+      <c r="AS116">
+        <v>1.74</v>
+      </c>
+      <c r="AT116">
+        <v>2.89</v>
+      </c>
+      <c r="AU116">
+        <v>2</v>
+      </c>
+      <c r="AV116">
+        <v>10</v>
+      </c>
+      <c r="AW116">
+        <v>2</v>
+      </c>
+      <c r="AX116">
+        <v>5</v>
+      </c>
+      <c r="AY116">
+        <v>4</v>
+      </c>
+      <c r="AZ116">
+        <v>15</v>
+      </c>
+      <c r="BA116">
+        <v>1</v>
+      </c>
+      <c r="BB116">
+        <v>7</v>
+      </c>
+      <c r="BC116">
+        <v>8</v>
+      </c>
+      <c r="BD116">
+        <v>3.62</v>
+      </c>
+      <c r="BE116">
+        <v>9.9</v>
+      </c>
+      <c r="BF116">
+        <v>1.35</v>
+      </c>
+      <c r="BG116">
+        <v>1.22</v>
+      </c>
+      <c r="BH116">
+        <v>3.8</v>
+      </c>
+      <c r="BI116">
+        <v>1.35</v>
+      </c>
+      <c r="BJ116">
+        <v>2.84</v>
+      </c>
+      <c r="BK116">
+        <v>2.1</v>
+      </c>
+      <c r="BL116">
+        <v>2.14</v>
+      </c>
+      <c r="BM116">
+        <v>2.05</v>
+      </c>
+      <c r="BN116">
+        <v>1.73</v>
+      </c>
+      <c r="BO116">
+        <v>2.64</v>
+      </c>
+      <c r="BP116">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7330054</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45437.85416666666</v>
+      </c>
+      <c r="F117">
+        <v>20</v>
+      </c>
+      <c r="G117" t="s">
+        <v>75</v>
+      </c>
+      <c r="H117" t="s">
+        <v>72</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+      <c r="O117" t="s">
+        <v>89</v>
+      </c>
+      <c r="P117" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q117">
+        <v>3.25</v>
+      </c>
+      <c r="R117">
+        <v>2.1</v>
+      </c>
+      <c r="S117">
+        <v>3.25</v>
+      </c>
+      <c r="T117">
+        <v>1.4</v>
+      </c>
+      <c r="U117">
+        <v>2.75</v>
+      </c>
+      <c r="V117">
+        <v>3.15</v>
+      </c>
+      <c r="W117">
+        <v>1.3</v>
+      </c>
+      <c r="X117">
+        <v>7.7</v>
+      </c>
+      <c r="Y117">
+        <v>1.06</v>
+      </c>
+      <c r="Z117">
+        <v>2.63</v>
+      </c>
+      <c r="AA117">
+        <v>3.1</v>
+      </c>
+      <c r="AB117">
+        <v>2.5</v>
+      </c>
+      <c r="AC117">
+        <v>1.07</v>
+      </c>
+      <c r="AD117">
+        <v>7.5</v>
+      </c>
+      <c r="AE117">
+        <v>1.35</v>
+      </c>
+      <c r="AF117">
+        <v>3</v>
+      </c>
+      <c r="AG117">
+        <v>2</v>
+      </c>
+      <c r="AH117">
+        <v>1.8</v>
+      </c>
+      <c r="AI117">
+        <v>1.73</v>
+      </c>
+      <c r="AJ117">
+        <v>2</v>
+      </c>
+      <c r="AK117">
+        <v>1.35</v>
+      </c>
+      <c r="AL117">
+        <v>1.29</v>
+      </c>
+      <c r="AM117">
+        <v>1.42</v>
+      </c>
+      <c r="AN117">
+        <v>1.32</v>
+      </c>
+      <c r="AO117">
+        <v>1.53</v>
+      </c>
+      <c r="AP117">
+        <v>1.25</v>
+      </c>
+      <c r="AQ117">
+        <v>1.6</v>
+      </c>
+      <c r="AR117">
+        <v>1.41</v>
+      </c>
+      <c r="AS117">
+        <v>1.48</v>
+      </c>
+      <c r="AT117">
+        <v>2.89</v>
+      </c>
+      <c r="AU117">
+        <v>2</v>
+      </c>
+      <c r="AV117">
+        <v>2</v>
+      </c>
+      <c r="AW117">
+        <v>1</v>
+      </c>
+      <c r="AX117">
+        <v>1</v>
+      </c>
+      <c r="AY117">
+        <v>3</v>
+      </c>
+      <c r="AZ117">
+        <v>3</v>
+      </c>
+      <c r="BA117">
+        <v>3</v>
+      </c>
+      <c r="BB117">
+        <v>6</v>
+      </c>
+      <c r="BC117">
+        <v>9</v>
+      </c>
+      <c r="BD117">
+        <v>2.1</v>
+      </c>
+      <c r="BE117">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF117">
+        <v>1.9</v>
+      </c>
+      <c r="BG117">
+        <v>1.29</v>
+      </c>
+      <c r="BH117">
+        <v>3.4</v>
+      </c>
+      <c r="BI117">
+        <v>1.42</v>
+      </c>
+      <c r="BJ117">
+        <v>2.57</v>
+      </c>
+      <c r="BK117">
+        <v>1.69</v>
+      </c>
+      <c r="BL117">
+        <v>2.11</v>
+      </c>
+      <c r="BM117">
+        <v>2.11</v>
+      </c>
+      <c r="BN117">
+        <v>1.69</v>
+      </c>
+      <c r="BO117">
+        <v>2.98</v>
+      </c>
+      <c r="BP117">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="218">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,6 +490,9 @@
     <t>['19', '63', '86']</t>
   </si>
   <si>
+    <t>['7']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -551,9 +554,6 @@
   </si>
   <si>
     <t>['25']</t>
-  </si>
-  <si>
-    <t>['7']</t>
   </si>
   <si>
     <t>['52', '72']</t>
@@ -665,6 +665,9 @@
   </si>
   <si>
     <t>['45+1', '69', '81']</t>
+  </si>
+  <si>
+    <t>['59', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP117"/>
+  <dimension ref="A1:BP119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1363,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AQ2">
         <v>0.95</v>
@@ -1491,7 +1494,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1569,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -2190,7 +2193,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ6">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2315,7 +2318,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2396,7 +2399,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ7">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2521,7 +2524,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2727,7 +2730,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2808,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2933,7 +2936,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3139,7 +3142,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3217,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ11">
         <v>1.6</v>
@@ -3426,7 +3429,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3551,7 +3554,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3629,7 +3632,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AQ13">
         <v>2.21</v>
@@ -3963,7 +3966,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4041,7 +4044,7 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AQ15">
         <v>0.95</v>
@@ -4250,7 +4253,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ16">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR16">
         <v>1.67</v>
@@ -4581,7 +4584,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4659,10 +4662,10 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AQ18">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4787,7 +4790,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4993,7 +4996,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5074,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR20">
         <v>1.8</v>
@@ -5199,7 +5202,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5405,7 +5408,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5689,7 +5692,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ23">
         <v>1.5</v>
@@ -5817,7 +5820,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5895,10 +5898,10 @@
         <v>1.67</v>
       </c>
       <c r="AP24">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AQ24">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR24">
         <v>1.32</v>
@@ -6229,7 +6232,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6307,7 +6310,7 @@
         <v>0.25</v>
       </c>
       <c r="AP26">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6516,7 +6519,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ27">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR27">
         <v>1.24</v>
@@ -6641,7 +6644,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6719,7 +6722,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AQ28">
         <v>0.84</v>
@@ -6928,7 +6931,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ29">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR29">
         <v>2.35</v>
@@ -7465,7 +7468,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7543,7 +7546,7 @@
         <v>1.6</v>
       </c>
       <c r="AP32">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AQ32">
         <v>1.6</v>
@@ -7749,7 +7752,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AQ33">
         <v>2.21</v>
@@ -7877,7 +7880,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -7958,7 +7961,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR34">
         <v>1.7</v>
@@ -8083,7 +8086,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8164,7 +8167,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ35">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR35">
         <v>2</v>
@@ -8289,7 +8292,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8495,7 +8498,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -9113,7 +9116,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9191,10 +9194,10 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AQ40">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR40">
         <v>1.42</v>
@@ -9319,7 +9322,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9400,7 +9403,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ41">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR41">
         <v>1.18</v>
@@ -9525,7 +9528,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9603,7 +9606,7 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9731,7 +9734,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -10015,7 +10018,7 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AQ44">
         <v>1.5</v>
@@ -10221,7 +10224,7 @@
         <v>1.71</v>
       </c>
       <c r="AP45">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AQ45">
         <v>1.6</v>
@@ -10430,7 +10433,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ46">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR46">
         <v>1.26</v>
@@ -11457,10 +11460,10 @@
         <v>1.63</v>
       </c>
       <c r="AP51">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AQ51">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR51">
         <v>1.3</v>
@@ -11869,10 +11872,10 @@
         <v>1.38</v>
       </c>
       <c r="AP53">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ53">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR53">
         <v>1.71</v>
@@ -12281,7 +12284,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AQ55">
         <v>1.5</v>
@@ -12490,7 +12493,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ56">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -12902,7 +12905,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ58">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR58">
         <v>1.39</v>
@@ -13105,7 +13108,7 @@
         <v>1.11</v>
       </c>
       <c r="AP59">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13314,7 +13317,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR60">
         <v>1.2</v>
@@ -13517,7 +13520,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AQ61">
         <v>1.6</v>
@@ -13929,10 +13932,10 @@
         <v>1.7</v>
       </c>
       <c r="AP63">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ63">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR63">
         <v>1.64</v>
@@ -14756,7 +14759,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ67">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -14959,7 +14962,7 @@
         <v>1.7</v>
       </c>
       <c r="AP68">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AQ68">
         <v>2.21</v>
@@ -15165,7 +15168,7 @@
         <v>1.27</v>
       </c>
       <c r="AP69">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ69">
         <v>1.25</v>
@@ -15374,7 +15377,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR70">
         <v>1.37</v>
@@ -15989,7 +15992,7 @@
         <v>1.36</v>
       </c>
       <c r="AP73">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AQ73">
         <v>1.5</v>
@@ -16195,7 +16198,7 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AQ74">
         <v>1</v>
@@ -16610,7 +16613,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ76">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR76">
         <v>1.47</v>
@@ -16816,7 +16819,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ77">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR77">
         <v>1.95</v>
@@ -17022,7 +17025,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ78">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR78">
         <v>1.66</v>
@@ -17637,7 +17640,7 @@
         <v>1.08</v>
       </c>
       <c r="AP81">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AQ81">
         <v>0.84</v>
@@ -17843,10 +17846,10 @@
         <v>0.54</v>
       </c>
       <c r="AP82">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ82">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR82">
         <v>1.7</v>
@@ -18258,7 +18261,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ84">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR84">
         <v>1.59</v>
@@ -18461,7 +18464,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AQ85">
         <v>1</v>
@@ -19082,7 +19085,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR88">
         <v>1.22</v>
@@ -19491,10 +19494,10 @@
         <v>1.36</v>
       </c>
       <c r="AP90">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AQ90">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR90">
         <v>1.32</v>
@@ -19697,7 +19700,7 @@
         <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AQ91">
         <v>1.25</v>
@@ -20109,7 +20112,7 @@
         <v>2.07</v>
       </c>
       <c r="AP93">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ93">
         <v>2.21</v>
@@ -20318,7 +20321,7 @@
         <v>1</v>
       </c>
       <c r="AQ94">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR94">
         <v>1.22</v>
@@ -20524,7 +20527,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ95">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR95">
         <v>1.46</v>
@@ -21139,7 +21142,7 @@
         <v>1.06</v>
       </c>
       <c r="AP98">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ98">
         <v>1</v>
@@ -21345,7 +21348,7 @@
         <v>0.63</v>
       </c>
       <c r="AP99">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AQ99">
         <v>0.95</v>
@@ -21554,7 +21557,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ100">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR100">
         <v>1.51</v>
@@ -21760,7 +21763,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ101">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR101">
         <v>1.87</v>
@@ -22169,10 +22172,10 @@
         <v>0.65</v>
       </c>
       <c r="AP103">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AQ103">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR103">
         <v>1.39</v>
@@ -22503,7 +22506,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22581,7 +22584,7 @@
         <v>1.47</v>
       </c>
       <c r="AP105">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AQ105">
         <v>1.25</v>
@@ -22790,7 +22793,7 @@
         <v>1</v>
       </c>
       <c r="AQ106">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR106">
         <v>1.2</v>
@@ -23408,7 +23411,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ109">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR109">
         <v>1.19</v>
@@ -23611,7 +23614,7 @@
         <v>0.89</v>
       </c>
       <c r="AP110">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ110">
         <v>0.95</v>
@@ -24026,7 +24029,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ112">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AR112">
         <v>1.52</v>
@@ -24435,7 +24438,7 @@
         <v>0.83</v>
       </c>
       <c r="AP114">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AQ114">
         <v>0.84</v>
@@ -25132,6 +25135,418 @@
       </c>
       <c r="BP117">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7330051</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45438.64583333334</v>
+      </c>
+      <c r="F118">
+        <v>20</v>
+      </c>
+      <c r="G118" t="s">
+        <v>70</v>
+      </c>
+      <c r="H118" t="s">
+        <v>79</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118" t="s">
+        <v>89</v>
+      </c>
+      <c r="P118" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q118">
+        <v>6</v>
+      </c>
+      <c r="R118">
+        <v>2.2</v>
+      </c>
+      <c r="S118">
+        <v>2.2</v>
+      </c>
+      <c r="T118">
+        <v>1.37</v>
+      </c>
+      <c r="U118">
+        <v>2.94</v>
+      </c>
+      <c r="V118">
+        <v>2.7</v>
+      </c>
+      <c r="W118">
+        <v>1.43</v>
+      </c>
+      <c r="X118">
+        <v>6.7</v>
+      </c>
+      <c r="Y118">
+        <v>1.09</v>
+      </c>
+      <c r="Z118">
+        <v>5.58</v>
+      </c>
+      <c r="AA118">
+        <v>4.06</v>
+      </c>
+      <c r="AB118">
+        <v>1.55</v>
+      </c>
+      <c r="AC118">
+        <v>1.01</v>
+      </c>
+      <c r="AD118">
+        <v>9.6</v>
+      </c>
+      <c r="AE118">
+        <v>1.25</v>
+      </c>
+      <c r="AF118">
+        <v>3.42</v>
+      </c>
+      <c r="AG118">
+        <v>1.83</v>
+      </c>
+      <c r="AH118">
+        <v>1.9</v>
+      </c>
+      <c r="AI118">
+        <v>2</v>
+      </c>
+      <c r="AJ118">
+        <v>1.73</v>
+      </c>
+      <c r="AK118">
+        <v>2.26</v>
+      </c>
+      <c r="AL118">
+        <v>1.21</v>
+      </c>
+      <c r="AM118">
+        <v>1.12</v>
+      </c>
+      <c r="AN118">
+        <v>1.21</v>
+      </c>
+      <c r="AO118">
+        <v>2.05</v>
+      </c>
+      <c r="AP118">
+        <v>1.15</v>
+      </c>
+      <c r="AQ118">
+        <v>2.1</v>
+      </c>
+      <c r="AR118">
+        <v>1.43</v>
+      </c>
+      <c r="AS118">
+        <v>1.44</v>
+      </c>
+      <c r="AT118">
+        <v>2.87</v>
+      </c>
+      <c r="AU118">
+        <v>2</v>
+      </c>
+      <c r="AV118">
+        <v>4</v>
+      </c>
+      <c r="AW118">
+        <v>3</v>
+      </c>
+      <c r="AX118">
+        <v>7</v>
+      </c>
+      <c r="AY118">
+        <v>5</v>
+      </c>
+      <c r="AZ118">
+        <v>11</v>
+      </c>
+      <c r="BA118">
+        <v>4</v>
+      </c>
+      <c r="BB118">
+        <v>9</v>
+      </c>
+      <c r="BC118">
+        <v>13</v>
+      </c>
+      <c r="BD118">
+        <v>2.61</v>
+      </c>
+      <c r="BE118">
+        <v>8.5</v>
+      </c>
+      <c r="BF118">
+        <v>1.62</v>
+      </c>
+      <c r="BG118">
+        <v>1.38</v>
+      </c>
+      <c r="BH118">
+        <v>2.8</v>
+      </c>
+      <c r="BI118">
+        <v>1.67</v>
+      </c>
+      <c r="BJ118">
+        <v>2.1</v>
+      </c>
+      <c r="BK118">
+        <v>2.11</v>
+      </c>
+      <c r="BL118">
+        <v>1.71</v>
+      </c>
+      <c r="BM118">
+        <v>2.62</v>
+      </c>
+      <c r="BN118">
+        <v>1.42</v>
+      </c>
+      <c r="BO118">
+        <v>3.6</v>
+      </c>
+      <c r="BP118">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7330053</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45438.75</v>
+      </c>
+      <c r="F119">
+        <v>20</v>
+      </c>
+      <c r="G119" t="s">
+        <v>71</v>
+      </c>
+      <c r="H119" t="s">
+        <v>81</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>2</v>
+      </c>
+      <c r="N119">
+        <v>3</v>
+      </c>
+      <c r="O119" t="s">
+        <v>158</v>
+      </c>
+      <c r="P119" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q119">
+        <v>2.38</v>
+      </c>
+      <c r="R119">
+        <v>2.2</v>
+      </c>
+      <c r="S119">
+        <v>5</v>
+      </c>
+      <c r="T119">
+        <v>1.4</v>
+      </c>
+      <c r="U119">
+        <v>2.75</v>
+      </c>
+      <c r="V119">
+        <v>2.75</v>
+      </c>
+      <c r="W119">
+        <v>1.4</v>
+      </c>
+      <c r="X119">
+        <v>7.3</v>
+      </c>
+      <c r="Y119">
+        <v>1.07</v>
+      </c>
+      <c r="Z119">
+        <v>1.7</v>
+      </c>
+      <c r="AA119">
+        <v>3.5</v>
+      </c>
+      <c r="AB119">
+        <v>4.5</v>
+      </c>
+      <c r="AC119">
+        <v>1.02</v>
+      </c>
+      <c r="AD119">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE119">
+        <v>1.28</v>
+      </c>
+      <c r="AF119">
+        <v>3.2</v>
+      </c>
+      <c r="AG119">
+        <v>1.95</v>
+      </c>
+      <c r="AH119">
+        <v>1.85</v>
+      </c>
+      <c r="AI119">
+        <v>1.83</v>
+      </c>
+      <c r="AJ119">
+        <v>1.83</v>
+      </c>
+      <c r="AK119">
+        <v>1.13</v>
+      </c>
+      <c r="AL119">
+        <v>1.22</v>
+      </c>
+      <c r="AM119">
+        <v>2.1</v>
+      </c>
+      <c r="AN119">
+        <v>1.84</v>
+      </c>
+      <c r="AO119">
+        <v>0.79</v>
+      </c>
+      <c r="AP119">
+        <v>1.75</v>
+      </c>
+      <c r="AQ119">
+        <v>0.9</v>
+      </c>
+      <c r="AR119">
+        <v>1.4</v>
+      </c>
+      <c r="AS119">
+        <v>1.23</v>
+      </c>
+      <c r="AT119">
+        <v>2.63</v>
+      </c>
+      <c r="AU119">
+        <v>7</v>
+      </c>
+      <c r="AV119">
+        <v>4</v>
+      </c>
+      <c r="AW119">
+        <v>8</v>
+      </c>
+      <c r="AX119">
+        <v>2</v>
+      </c>
+      <c r="AY119">
+        <v>15</v>
+      </c>
+      <c r="AZ119">
+        <v>6</v>
+      </c>
+      <c r="BA119">
+        <v>3</v>
+      </c>
+      <c r="BB119">
+        <v>5</v>
+      </c>
+      <c r="BC119">
+        <v>8</v>
+      </c>
+      <c r="BD119">
+        <v>1.57</v>
+      </c>
+      <c r="BE119">
+        <v>7.8</v>
+      </c>
+      <c r="BF119">
+        <v>3</v>
+      </c>
+      <c r="BG119">
+        <v>1.29</v>
+      </c>
+      <c r="BH119">
+        <v>3.4</v>
+      </c>
+      <c r="BI119">
+        <v>1.48</v>
+      </c>
+      <c r="BJ119">
+        <v>2.5</v>
+      </c>
+      <c r="BK119">
+        <v>2.2</v>
+      </c>
+      <c r="BL119">
+        <v>2</v>
+      </c>
+      <c r="BM119">
+        <v>2.1</v>
+      </c>
+      <c r="BN119">
+        <v>1.65</v>
+      </c>
+      <c r="BO119">
+        <v>2.7</v>
+      </c>
+      <c r="BP119">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="218">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1029,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP119"/>
+  <dimension ref="A1:BP120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1781,7 +1781,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2605,7 +2605,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ8">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ12">
         <v>0.9</v>
@@ -4250,7 +4250,7 @@
         <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AQ16">
         <v>1.15</v>
@@ -5486,7 +5486,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AQ22">
         <v>2.21</v>
@@ -5695,7 +5695,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -6104,7 +6104,7 @@
         <v>0.75</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6725,7 +6725,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ28">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR28">
         <v>1.3</v>
@@ -7340,7 +7340,7 @@
         <v>1.8</v>
       </c>
       <c r="AP31">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AQ31">
         <v>1.25</v>
@@ -8373,7 +8373,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR36">
         <v>1.44</v>
@@ -8579,7 +8579,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ37">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR37">
         <v>1.59</v>
@@ -8782,7 +8782,7 @@
         <v>0.83</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ38">
         <v>0.95</v>
@@ -10021,7 +10021,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR44">
         <v>1.26</v>
@@ -10430,7 +10430,7 @@
         <v>0.43</v>
       </c>
       <c r="AP46">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AQ46">
         <v>0.9</v>
@@ -11048,10 +11048,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ49">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR49">
         <v>1.08</v>
@@ -12287,7 +12287,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR55">
         <v>1.3</v>
@@ -12490,7 +12490,7 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AQ56">
         <v>2.1</v>
@@ -14141,7 +14141,7 @@
         <v>1</v>
       </c>
       <c r="AQ64">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR64">
         <v>1.39</v>
@@ -14344,7 +14344,7 @@
         <v>1.1</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ65">
         <v>1.25</v>
@@ -14553,7 +14553,7 @@
         <v>1</v>
       </c>
       <c r="AQ66">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR66">
         <v>1.22</v>
@@ -15580,7 +15580,7 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ71">
         <v>1.6</v>
@@ -15995,7 +15995,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ73">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR73">
         <v>1.16</v>
@@ -16404,7 +16404,7 @@
         <v>0.55</v>
       </c>
       <c r="AP75">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AQ75">
         <v>0.95</v>
@@ -17434,7 +17434,7 @@
         <v>1.92</v>
       </c>
       <c r="AP80">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ80">
         <v>2.21</v>
@@ -17643,7 +17643,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ81">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR81">
         <v>1.24</v>
@@ -19082,7 +19082,7 @@
         <v>2.29</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ88">
         <v>2.1</v>
@@ -19291,7 +19291,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ89">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR89">
         <v>1.9</v>
@@ -20524,7 +20524,7 @@
         <v>1.67</v>
       </c>
       <c r="AP95">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AQ95">
         <v>1.75</v>
@@ -20733,7 +20733,7 @@
         <v>1</v>
       </c>
       <c r="AQ96">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR96">
         <v>1.4</v>
@@ -20936,7 +20936,7 @@
         <v>1.19</v>
       </c>
       <c r="AP97">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ97">
         <v>1</v>
@@ -21969,7 +21969,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ102">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR102">
         <v>1.41</v>
@@ -22381,7 +22381,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ104">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR104">
         <v>1.48</v>
@@ -23202,7 +23202,7 @@
         <v>1.53</v>
       </c>
       <c r="AP108">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AQ108">
         <v>1.6</v>
@@ -23408,7 +23408,7 @@
         <v>1.28</v>
       </c>
       <c r="AP109">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ109">
         <v>1.15</v>
@@ -24441,7 +24441,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ114">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR114">
         <v>1.29</v>
@@ -25547,6 +25547,212 @@
       </c>
       <c r="BP119">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7330052</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45439.85416666666</v>
+      </c>
+      <c r="F120">
+        <v>20</v>
+      </c>
+      <c r="G120" t="s">
+        <v>73</v>
+      </c>
+      <c r="H120" t="s">
+        <v>80</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120" t="s">
+        <v>133</v>
+      </c>
+      <c r="P120" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q120">
+        <v>3.75</v>
+      </c>
+      <c r="R120">
+        <v>2.05</v>
+      </c>
+      <c r="S120">
+        <v>3</v>
+      </c>
+      <c r="T120">
+        <v>1.42</v>
+      </c>
+      <c r="U120">
+        <v>2.81</v>
+      </c>
+      <c r="V120">
+        <v>3.11</v>
+      </c>
+      <c r="W120">
+        <v>1.35</v>
+      </c>
+      <c r="X120">
+        <v>8.1</v>
+      </c>
+      <c r="Y120">
+        <v>1.06</v>
+      </c>
+      <c r="Z120">
+        <v>3.1</v>
+      </c>
+      <c r="AA120">
+        <v>3.1</v>
+      </c>
+      <c r="AB120">
+        <v>2.25</v>
+      </c>
+      <c r="AC120">
+        <v>1.03</v>
+      </c>
+      <c r="AD120">
+        <v>8</v>
+      </c>
+      <c r="AE120">
+        <v>1.33</v>
+      </c>
+      <c r="AF120">
+        <v>3</v>
+      </c>
+      <c r="AG120">
+        <v>2.25</v>
+      </c>
+      <c r="AH120">
+        <v>1.62</v>
+      </c>
+      <c r="AI120">
+        <v>1.83</v>
+      </c>
+      <c r="AJ120">
+        <v>1.83</v>
+      </c>
+      <c r="AK120">
+        <v>1.53</v>
+      </c>
+      <c r="AL120">
+        <v>1.3</v>
+      </c>
+      <c r="AM120">
+        <v>1.4</v>
+      </c>
+      <c r="AN120">
+        <v>0.84</v>
+      </c>
+      <c r="AO120">
+        <v>1.5</v>
+      </c>
+      <c r="AP120">
+        <v>0.95</v>
+      </c>
+      <c r="AQ120">
+        <v>1.42</v>
+      </c>
+      <c r="AR120">
+        <v>1.4</v>
+      </c>
+      <c r="AS120">
+        <v>1.23</v>
+      </c>
+      <c r="AT120">
+        <v>2.63</v>
+      </c>
+      <c r="AU120">
+        <v>2</v>
+      </c>
+      <c r="AV120">
+        <v>2</v>
+      </c>
+      <c r="AW120">
+        <v>2</v>
+      </c>
+      <c r="AX120">
+        <v>1</v>
+      </c>
+      <c r="AY120">
+        <v>4</v>
+      </c>
+      <c r="AZ120">
+        <v>3</v>
+      </c>
+      <c r="BA120">
+        <v>3</v>
+      </c>
+      <c r="BB120">
+        <v>6</v>
+      </c>
+      <c r="BC120">
+        <v>9</v>
+      </c>
+      <c r="BD120">
+        <v>2.32</v>
+      </c>
+      <c r="BE120">
+        <v>7.5</v>
+      </c>
+      <c r="BF120">
+        <v>1.87</v>
+      </c>
+      <c r="BG120">
+        <v>1.29</v>
+      </c>
+      <c r="BH120">
+        <v>3.3</v>
+      </c>
+      <c r="BI120">
+        <v>1.5</v>
+      </c>
+      <c r="BJ120">
+        <v>2.4</v>
+      </c>
+      <c r="BK120">
+        <v>1.8</v>
+      </c>
+      <c r="BL120">
+        <v>1.91</v>
+      </c>
+      <c r="BM120">
+        <v>2.25</v>
+      </c>
+      <c r="BN120">
+        <v>1.57</v>
+      </c>
+      <c r="BO120">
+        <v>2.9</v>
+      </c>
+      <c r="BP120">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="221">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -493,6 +493,9 @@
     <t>['7']</t>
   </si>
   <si>
+    <t>['70', '81']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -668,6 +671,12 @@
   </si>
   <si>
     <t>['59', '90+3']</t>
+  </si>
+  <si>
+    <t>['20', '34', '51', '84', '90+6']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP120"/>
+  <dimension ref="A1:BP122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1369,7 +1378,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ2">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1494,7 +1503,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1987,7 +1996,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2193,7 +2202,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ6">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2318,7 +2327,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2396,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7">
         <v>2.1</v>
@@ -2524,7 +2533,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2602,7 +2611,7 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ8">
         <v>0.95</v>
@@ -2730,7 +2739,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2808,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ9">
         <v>1.75</v>
@@ -2936,7 +2945,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3017,7 +3026,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3142,7 +3151,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3429,7 +3438,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ12">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3554,7 +3563,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3966,7 +3975,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4047,7 +4056,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ15">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR15">
         <v>1.26</v>
@@ -4456,10 +4465,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR17">
         <v>1.03</v>
@@ -4584,7 +4593,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4662,7 +4671,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ18">
         <v>2.1</v>
@@ -4790,7 +4799,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4868,10 +4877,10 @@
         <v>1.67</v>
       </c>
       <c r="AP19">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ19">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>1.77</v>
@@ -4996,7 +5005,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5077,7 +5086,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR20">
         <v>1.8</v>
@@ -5202,7 +5211,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5280,7 +5289,7 @@
         <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ21">
         <v>1.6</v>
@@ -5408,7 +5417,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5820,7 +5829,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6232,7 +6241,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6310,10 +6319,10 @@
         <v>0.25</v>
       </c>
       <c r="AP26">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR26">
         <v>1.5</v>
@@ -6516,7 +6525,7 @@
         <v>1.75</v>
       </c>
       <c r="AP27">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
         <v>1.15</v>
@@ -6644,7 +6653,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -7137,7 +7146,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ30">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR30">
         <v>1.47</v>
@@ -7343,7 +7352,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ31">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AR31">
         <v>1.29</v>
@@ -7468,7 +7477,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7880,7 +7889,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8086,7 +8095,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8164,10 +8173,10 @@
         <v>0.6</v>
       </c>
       <c r="AP35">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ35">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR35">
         <v>2</v>
@@ -8292,7 +8301,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8370,7 +8379,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ36">
         <v>1.42</v>
@@ -8498,7 +8507,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8785,7 +8794,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ38">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR38">
         <v>0.99</v>
@@ -9116,7 +9125,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9194,7 +9203,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ40">
         <v>1.15</v>
@@ -9322,7 +9331,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9400,7 +9409,7 @@
         <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AQ41">
         <v>1.75</v>
@@ -9528,7 +9537,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9609,7 +9618,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR42">
         <v>1.46</v>
@@ -9812,7 +9821,7 @@
         <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AQ43">
         <v>2.21</v>
@@ -9940,7 +9949,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10352,7 +10361,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10433,7 +10442,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ46">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR46">
         <v>1.26</v>
@@ -10558,7 +10567,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10636,7 +10645,7 @@
         <v>0.57</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -10845,7 +10854,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -11176,7 +11185,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11257,7 +11266,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR50">
         <v>1.99</v>
@@ -11382,7 +11391,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11460,7 +11469,7 @@
         <v>1.63</v>
       </c>
       <c r="AP51">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ51">
         <v>1.75</v>
@@ -11669,7 +11678,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ52">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AR52">
         <v>1.53</v>
@@ -12000,7 +12009,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12206,7 +12215,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12412,7 +12421,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12618,7 +12627,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12696,10 +12705,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
+        <v>1.05</v>
+      </c>
+      <c r="AQ57">
         <v>0.95</v>
-      </c>
-      <c r="AQ57">
-        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.75</v>
@@ -12824,7 +12833,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -12902,10 +12911,10 @@
         <v>0.44</v>
       </c>
       <c r="AP58">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AQ58">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR58">
         <v>1.39</v>
@@ -13236,7 +13245,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13314,7 +13323,7 @@
         <v>1.4</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ60">
         <v>1.15</v>
@@ -13520,7 +13529,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ61">
         <v>1.6</v>
@@ -13729,7 +13738,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ62">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR62">
         <v>2</v>
@@ -14347,7 +14356,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ65">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AR65">
         <v>1.26</v>
@@ -14472,7 +14481,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14550,7 +14559,7 @@
         <v>1.18</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ66">
         <v>0.95</v>
@@ -14678,7 +14687,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14756,7 +14765,7 @@
         <v>1.36</v>
       </c>
       <c r="AP67">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ67">
         <v>1.15</v>
@@ -14884,7 +14893,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14962,7 +14971,7 @@
         <v>1.7</v>
       </c>
       <c r="AP68">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ68">
         <v>2.21</v>
@@ -15171,7 +15180,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ69">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AR69">
         <v>1.74</v>
@@ -15786,7 +15795,7 @@
         <v>1.17</v>
       </c>
       <c r="AP72">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -15914,7 +15923,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -15992,7 +16001,7 @@
         <v>1.36</v>
       </c>
       <c r="AP73">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ73">
         <v>1.42</v>
@@ -16120,7 +16129,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16201,7 +16210,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR74">
         <v>1.3</v>
@@ -16326,7 +16335,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16407,7 +16416,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ75">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR75">
         <v>1.39</v>
@@ -16532,7 +16541,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16944,7 +16953,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17022,7 +17031,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ78">
         <v>2.1</v>
@@ -17150,7 +17159,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17356,7 +17365,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17849,7 +17858,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ82">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR82">
         <v>1.7</v>
@@ -17974,7 +17983,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18052,10 +18061,10 @@
         <v>1.31</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ83">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AR83">
         <v>1.25</v>
@@ -18180,7 +18189,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18258,7 +18267,7 @@
         <v>1.69</v>
       </c>
       <c r="AP84">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ84">
         <v>1.75</v>
@@ -18464,7 +18473,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ85">
         <v>1</v>
@@ -18592,7 +18601,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18673,7 +18682,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR86">
         <v>1.44</v>
@@ -18876,10 +18885,10 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AQ87">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -19622,7 +19631,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19703,7 +19712,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ91">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AR91">
         <v>1.43</v>
@@ -19828,7 +19837,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -19906,7 +19915,7 @@
         <v>1.47</v>
       </c>
       <c r="AP92">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ92">
         <v>1.6</v>
@@ -20034,7 +20043,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20318,10 +20327,10 @@
         <v>0.67</v>
       </c>
       <c r="AP94">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ94">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR94">
         <v>1.22</v>
@@ -20446,7 +20455,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20858,7 +20867,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -20939,7 +20948,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR97">
         <v>1.17</v>
@@ -21270,7 +21279,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21348,10 +21357,10 @@
         <v>0.63</v>
       </c>
       <c r="AP99">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ99">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR99">
         <v>1.18</v>
@@ -21966,7 +21975,7 @@
         <v>0.88</v>
       </c>
       <c r="AP102">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AQ102">
         <v>0.95</v>
@@ -22094,7 +22103,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22175,7 +22184,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ103">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR103">
         <v>1.39</v>
@@ -22300,7 +22309,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22378,7 +22387,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ104">
         <v>1.42</v>
@@ -22506,7 +22515,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22587,7 +22596,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ105">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AR105">
         <v>1.32</v>
@@ -22790,7 +22799,7 @@
         <v>2.06</v>
       </c>
       <c r="AP106">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ106">
         <v>2.1</v>
@@ -22918,7 +22927,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23124,7 +23133,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23330,7 +23339,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q109">
         <v>2.63</v>
@@ -23617,7 +23626,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ110">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR110">
         <v>1.76</v>
@@ -23742,7 +23751,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -23823,7 +23832,7 @@
         <v>1</v>
       </c>
       <c r="AQ111">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR111">
         <v>1.42</v>
@@ -23948,7 +23957,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24235,7 +24244,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ113">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AR113">
         <v>1.82</v>
@@ -24360,7 +24369,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -24438,7 +24447,7 @@
         <v>0.83</v>
       </c>
       <c r="AP114">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ114">
         <v>0.95</v>
@@ -24644,7 +24653,7 @@
         <v>1.05</v>
       </c>
       <c r="AP115">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ115">
         <v>1</v>
@@ -24772,7 +24781,7 @@
         <v>148</v>
       </c>
       <c r="P116" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -24850,7 +24859,7 @@
         <v>2.17</v>
       </c>
       <c r="AP116">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ116">
         <v>2.21</v>
@@ -24978,7 +24987,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25056,7 +25065,7 @@
         <v>1.53</v>
       </c>
       <c r="AP117">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AQ117">
         <v>1.6</v>
@@ -25184,7 +25193,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25390,7 +25399,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25471,7 +25480,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ119">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR119">
         <v>1.4</v>
@@ -25752,6 +25761,418 @@
         <v>2.9</v>
       </c>
       <c r="BP120">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7330060</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45444.66666666666</v>
+      </c>
+      <c r="F121">
+        <v>21</v>
+      </c>
+      <c r="G121" t="s">
+        <v>77</v>
+      </c>
+      <c r="H121" t="s">
+        <v>76</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>2</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>2</v>
+      </c>
+      <c r="M121">
+        <v>5</v>
+      </c>
+      <c r="N121">
+        <v>7</v>
+      </c>
+      <c r="O121" t="s">
+        <v>159</v>
+      </c>
+      <c r="P121" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q121">
+        <v>3.4</v>
+      </c>
+      <c r="R121">
+        <v>2.05</v>
+      </c>
+      <c r="S121">
+        <v>3.25</v>
+      </c>
+      <c r="T121">
+        <v>1.45</v>
+      </c>
+      <c r="U121">
+        <v>2.55</v>
+      </c>
+      <c r="V121">
+        <v>3</v>
+      </c>
+      <c r="W121">
+        <v>1.33</v>
+      </c>
+      <c r="X121">
+        <v>8</v>
+      </c>
+      <c r="Y121">
+        <v>1.06</v>
+      </c>
+      <c r="Z121">
+        <v>2.64</v>
+      </c>
+      <c r="AA121">
+        <v>3.24</v>
+      </c>
+      <c r="AB121">
+        <v>2.52</v>
+      </c>
+      <c r="AC121">
+        <v>1.07</v>
+      </c>
+      <c r="AD121">
+        <v>7.5</v>
+      </c>
+      <c r="AE121">
+        <v>1.38</v>
+      </c>
+      <c r="AF121">
+        <v>2.9</v>
+      </c>
+      <c r="AG121">
+        <v>2.09</v>
+      </c>
+      <c r="AH121">
+        <v>1.69</v>
+      </c>
+      <c r="AI121">
+        <v>1.83</v>
+      </c>
+      <c r="AJ121">
+        <v>1.83</v>
+      </c>
+      <c r="AK121">
+        <v>1.45</v>
+      </c>
+      <c r="AL121">
+        <v>1.27</v>
+      </c>
+      <c r="AM121">
+        <v>1.37</v>
+      </c>
+      <c r="AN121">
+        <v>1</v>
+      </c>
+      <c r="AO121">
+        <v>0.95</v>
+      </c>
+      <c r="AP121">
+        <v>0.95</v>
+      </c>
+      <c r="AQ121">
+        <v>1.05</v>
+      </c>
+      <c r="AR121">
+        <v>1.1</v>
+      </c>
+      <c r="AS121">
+        <v>1.12</v>
+      </c>
+      <c r="AT121">
+        <v>2.22</v>
+      </c>
+      <c r="AU121">
+        <v>6</v>
+      </c>
+      <c r="AV121">
+        <v>9</v>
+      </c>
+      <c r="AW121">
+        <v>6</v>
+      </c>
+      <c r="AX121">
+        <v>6</v>
+      </c>
+      <c r="AY121">
+        <v>12</v>
+      </c>
+      <c r="AZ121">
+        <v>15</v>
+      </c>
+      <c r="BA121">
+        <v>5</v>
+      </c>
+      <c r="BB121">
+        <v>3</v>
+      </c>
+      <c r="BC121">
+        <v>8</v>
+      </c>
+      <c r="BD121">
+        <v>1.93</v>
+      </c>
+      <c r="BE121">
+        <v>7.3</v>
+      </c>
+      <c r="BF121">
+        <v>2.25</v>
+      </c>
+      <c r="BG121">
+        <v>1.29</v>
+      </c>
+      <c r="BH121">
+        <v>3.3</v>
+      </c>
+      <c r="BI121">
+        <v>1.48</v>
+      </c>
+      <c r="BJ121">
+        <v>2.56</v>
+      </c>
+      <c r="BK121">
+        <v>1.81</v>
+      </c>
+      <c r="BL121">
+        <v>1.98</v>
+      </c>
+      <c r="BM121">
+        <v>2.27</v>
+      </c>
+      <c r="BN121">
+        <v>1.61</v>
+      </c>
+      <c r="BO121">
+        <v>2.8</v>
+      </c>
+      <c r="BP121">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7330056</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45444.66666666666</v>
+      </c>
+      <c r="F122">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>81</v>
+      </c>
+      <c r="H122" t="s">
+        <v>75</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122" t="s">
+        <v>89</v>
+      </c>
+      <c r="P122" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q122">
+        <v>3.4</v>
+      </c>
+      <c r="R122">
+        <v>2.2</v>
+      </c>
+      <c r="S122">
+        <v>3.1</v>
+      </c>
+      <c r="T122">
+        <v>1.39</v>
+      </c>
+      <c r="U122">
+        <v>2.85</v>
+      </c>
+      <c r="V122">
+        <v>2.73</v>
+      </c>
+      <c r="W122">
+        <v>1.42</v>
+      </c>
+      <c r="X122">
+        <v>6.85</v>
+      </c>
+      <c r="Y122">
+        <v>1.08</v>
+      </c>
+      <c r="Z122">
+        <v>2.71</v>
+      </c>
+      <c r="AA122">
+        <v>3.22</v>
+      </c>
+      <c r="AB122">
+        <v>2.47</v>
+      </c>
+      <c r="AC122">
+        <v>1.02</v>
+      </c>
+      <c r="AD122">
+        <v>9</v>
+      </c>
+      <c r="AE122">
+        <v>1.26</v>
+      </c>
+      <c r="AF122">
+        <v>3.34</v>
+      </c>
+      <c r="AG122">
+        <v>1.86</v>
+      </c>
+      <c r="AH122">
+        <v>1.87</v>
+      </c>
+      <c r="AI122">
+        <v>1.73</v>
+      </c>
+      <c r="AJ122">
+        <v>2</v>
+      </c>
+      <c r="AK122">
+        <v>1.5</v>
+      </c>
+      <c r="AL122">
+        <v>1.28</v>
+      </c>
+      <c r="AM122">
+        <v>1.42</v>
+      </c>
+      <c r="AN122">
+        <v>0.9</v>
+      </c>
+      <c r="AO122">
+        <v>1.25</v>
+      </c>
+      <c r="AP122">
+        <v>0.86</v>
+      </c>
+      <c r="AQ122">
+        <v>1.33</v>
+      </c>
+      <c r="AR122">
+        <v>1.22</v>
+      </c>
+      <c r="AS122">
+        <v>1.43</v>
+      </c>
+      <c r="AT122">
+        <v>2.65</v>
+      </c>
+      <c r="AU122">
+        <v>4</v>
+      </c>
+      <c r="AV122">
+        <v>4</v>
+      </c>
+      <c r="AW122">
+        <v>3</v>
+      </c>
+      <c r="AX122">
+        <v>7</v>
+      </c>
+      <c r="AY122">
+        <v>7</v>
+      </c>
+      <c r="AZ122">
+        <v>11</v>
+      </c>
+      <c r="BA122">
+        <v>9</v>
+      </c>
+      <c r="BB122">
+        <v>4</v>
+      </c>
+      <c r="BC122">
+        <v>13</v>
+      </c>
+      <c r="BD122">
+        <v>1.74</v>
+      </c>
+      <c r="BE122">
+        <v>8.6</v>
+      </c>
+      <c r="BF122">
+        <v>2.34</v>
+      </c>
+      <c r="BG122">
+        <v>1.29</v>
+      </c>
+      <c r="BH122">
+        <v>3.3</v>
+      </c>
+      <c r="BI122">
+        <v>1.47</v>
+      </c>
+      <c r="BJ122">
+        <v>2.57</v>
+      </c>
+      <c r="BK122">
+        <v>1.72</v>
+      </c>
+      <c r="BL122">
+        <v>2.09</v>
+      </c>
+      <c r="BM122">
+        <v>2.14</v>
+      </c>
+      <c r="BN122">
+        <v>1.69</v>
+      </c>
+      <c r="BO122">
+        <v>2.88</v>
+      </c>
+      <c r="BP122">
         <v>1.36</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="222">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -496,6 +496,9 @@
     <t>['70', '81']</t>
   </si>
   <si>
+    <t>['68']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -628,9 +631,6 @@
     <t>['70', '72', '90+3']</t>
   </si>
   <si>
-    <t>['68']</t>
-  </si>
-  <si>
     <t>['26', '53', '62']</t>
   </si>
   <si>
@@ -677,6 +677,9 @@
   </si>
   <si>
     <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['77']</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1041,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP122"/>
+  <dimension ref="A1:BP123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1503,7 +1506,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1581,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1790,7 +1793,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ4">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2327,7 +2330,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2533,7 +2536,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2739,7 +2742,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2820,7 +2823,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ9">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2945,7 +2948,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3151,7 +3154,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3435,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ12">
         <v>0.86</v>
@@ -3563,7 +3566,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3975,7 +3978,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4053,7 +4056,7 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ15">
         <v>1.05</v>
@@ -4593,7 +4596,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4799,7 +4802,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5005,7 +5008,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5211,7 +5214,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5417,7 +5420,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5704,7 +5707,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ23">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -5829,7 +5832,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5910,7 +5913,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ24">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR24">
         <v>1.32</v>
@@ -6113,7 +6116,7 @@
         <v>0.75</v>
       </c>
       <c r="AP25">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6241,7 +6244,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6653,7 +6656,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6731,7 +6734,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ28">
         <v>0.95</v>
@@ -7477,7 +7480,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7761,7 +7764,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ33">
         <v>2.21</v>
@@ -7889,7 +7892,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8095,7 +8098,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8301,7 +8304,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8382,7 +8385,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ36">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR36">
         <v>1.44</v>
@@ -8507,7 +8510,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8791,7 +8794,7 @@
         <v>0.83</v>
       </c>
       <c r="AP38">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ38">
         <v>1.05</v>
@@ -9125,7 +9128,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9331,7 +9334,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9412,7 +9415,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ41">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR41">
         <v>1.18</v>
@@ -9537,7 +9540,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9949,7 +9952,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10030,7 +10033,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ44">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR44">
         <v>1.26</v>
@@ -10233,7 +10236,7 @@
         <v>1.71</v>
       </c>
       <c r="AP45">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ45">
         <v>1.6</v>
@@ -10361,7 +10364,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10567,7 +10570,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -11057,7 +11060,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ49">
         <v>0.95</v>
@@ -11185,7 +11188,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11391,7 +11394,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11472,7 +11475,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ51">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR51">
         <v>1.3</v>
@@ -12009,7 +12012,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12215,7 +12218,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12293,10 +12296,10 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ55">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR55">
         <v>1.3</v>
@@ -12421,7 +12424,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12627,7 +12630,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12833,7 +12836,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13245,7 +13248,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13944,7 +13947,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ63">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR63">
         <v>1.64</v>
@@ -14353,7 +14356,7 @@
         <v>1.1</v>
       </c>
       <c r="AP65">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ65">
         <v>1.33</v>
@@ -14481,7 +14484,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14687,7 +14690,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14893,7 +14896,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15386,7 +15389,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR70">
         <v>1.37</v>
@@ -15589,7 +15592,7 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ71">
         <v>1.6</v>
@@ -15923,7 +15926,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16004,7 +16007,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ73">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR73">
         <v>1.16</v>
@@ -16129,7 +16132,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16207,7 +16210,7 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ74">
         <v>0.95</v>
@@ -16335,7 +16338,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16541,7 +16544,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16953,7 +16956,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17159,7 +17162,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17365,7 +17368,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17443,7 +17446,7 @@
         <v>1.92</v>
       </c>
       <c r="AP80">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ80">
         <v>2.21</v>
@@ -17983,7 +17986,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18189,7 +18192,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18270,7 +18273,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ84">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR84">
         <v>1.59</v>
@@ -18601,7 +18604,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -19091,7 +19094,7 @@
         <v>2.29</v>
       </c>
       <c r="AP88">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ88">
         <v>2.1</v>
@@ -19503,7 +19506,7 @@
         <v>1.36</v>
       </c>
       <c r="AP90">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ90">
         <v>1.15</v>
@@ -19631,7 +19634,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19837,7 +19840,7 @@
         <v>89</v>
       </c>
       <c r="P92" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -20536,7 +20539,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ95">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR95">
         <v>1.46</v>
@@ -20742,7 +20745,7 @@
         <v>1</v>
       </c>
       <c r="AQ96">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR96">
         <v>1.4</v>
@@ -20945,7 +20948,7 @@
         <v>1.19</v>
       </c>
       <c r="AP97">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ97">
         <v>0.95</v>
@@ -21772,7 +21775,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ101">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR101">
         <v>1.87</v>
@@ -22390,7 +22393,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ104">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR104">
         <v>1.48</v>
@@ -22515,7 +22518,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22593,7 +22596,7 @@
         <v>1.47</v>
       </c>
       <c r="AP105">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ105">
         <v>1.33</v>
@@ -23417,7 +23420,7 @@
         <v>1.28</v>
       </c>
       <c r="AP109">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ109">
         <v>1.15</v>
@@ -24038,7 +24041,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ112">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR112">
         <v>1.52</v>
@@ -24987,7 +24990,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25193,7 +25196,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25477,7 +25480,7 @@
         <v>0.79</v>
       </c>
       <c r="AP119">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ119">
         <v>0.86</v>
@@ -25686,7 +25689,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ120">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR120">
         <v>1.4</v>
@@ -26174,6 +26177,212 @@
       </c>
       <c r="BP122">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7330057</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45444.77083333334</v>
+      </c>
+      <c r="F123">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>80</v>
+      </c>
+      <c r="H123" t="s">
+        <v>71</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>160</v>
+      </c>
+      <c r="P123" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q123">
+        <v>3.75</v>
+      </c>
+      <c r="R123">
+        <v>2.1</v>
+      </c>
+      <c r="S123">
+        <v>3</v>
+      </c>
+      <c r="T123">
+        <v>1.48</v>
+      </c>
+      <c r="U123">
+        <v>2.5</v>
+      </c>
+      <c r="V123">
+        <v>3.1</v>
+      </c>
+      <c r="W123">
+        <v>1.33</v>
+      </c>
+      <c r="X123">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y123">
+        <v>1.05</v>
+      </c>
+      <c r="Z123">
+        <v>3.1</v>
+      </c>
+      <c r="AA123">
+        <v>3.3</v>
+      </c>
+      <c r="AB123">
+        <v>2.3</v>
+      </c>
+      <c r="AC123">
+        <v>1.07</v>
+      </c>
+      <c r="AD123">
+        <v>7.5</v>
+      </c>
+      <c r="AE123">
+        <v>1.4</v>
+      </c>
+      <c r="AF123">
+        <v>2.8</v>
+      </c>
+      <c r="AG123">
+        <v>2.08</v>
+      </c>
+      <c r="AH123">
+        <v>1.73</v>
+      </c>
+      <c r="AI123">
+        <v>1.8</v>
+      </c>
+      <c r="AJ123">
+        <v>1.91</v>
+      </c>
+      <c r="AK123">
+        <v>1.55</v>
+      </c>
+      <c r="AL123">
+        <v>1.3</v>
+      </c>
+      <c r="AM123">
+        <v>1.38</v>
+      </c>
+      <c r="AN123">
+        <v>1.42</v>
+      </c>
+      <c r="AO123">
+        <v>1.75</v>
+      </c>
+      <c r="AP123">
+        <v>1.4</v>
+      </c>
+      <c r="AQ123">
+        <v>1.71</v>
+      </c>
+      <c r="AR123">
+        <v>1.2</v>
+      </c>
+      <c r="AS123">
+        <v>1.55</v>
+      </c>
+      <c r="AT123">
+        <v>2.75</v>
+      </c>
+      <c r="AU123">
+        <v>3</v>
+      </c>
+      <c r="AV123">
+        <v>3</v>
+      </c>
+      <c r="AW123">
+        <v>6</v>
+      </c>
+      <c r="AX123">
+        <v>2</v>
+      </c>
+      <c r="AY123">
+        <v>9</v>
+      </c>
+      <c r="AZ123">
+        <v>5</v>
+      </c>
+      <c r="BA123">
+        <v>4</v>
+      </c>
+      <c r="BB123">
+        <v>2</v>
+      </c>
+      <c r="BC123">
+        <v>6</v>
+      </c>
+      <c r="BD123">
+        <v>1.96</v>
+      </c>
+      <c r="BE123">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF123">
+        <v>2.05</v>
+      </c>
+      <c r="BG123">
+        <v>1.33</v>
+      </c>
+      <c r="BH123">
+        <v>3</v>
+      </c>
+      <c r="BI123">
+        <v>1.58</v>
+      </c>
+      <c r="BJ123">
+        <v>2.33</v>
+      </c>
+      <c r="BK123">
+        <v>1.96</v>
+      </c>
+      <c r="BL123">
+        <v>1.83</v>
+      </c>
+      <c r="BM123">
+        <v>2.49</v>
+      </c>
+      <c r="BN123">
+        <v>1.51</v>
+      </c>
+      <c r="BO123">
+        <v>3.2</v>
+      </c>
+      <c r="BP123">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="226">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -499,6 +499,12 @@
     <t>['68']</t>
   </si>
   <si>
+    <t>['45+1', '55']</t>
+  </si>
+  <si>
+    <t>['39', '90+1']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -680,6 +686,12 @@
   </si>
   <si>
     <t>['77']</t>
+  </si>
+  <si>
+    <t>['18', '44']</t>
+  </si>
+  <si>
+    <t>['70']</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP123"/>
+  <dimension ref="A1:BP126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1378,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AQ2">
         <v>1.05</v>
@@ -1506,7 +1518,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1587,7 +1599,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1790,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AQ4">
         <v>1.4</v>
@@ -1996,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AQ5">
         <v>0.95</v>
@@ -2202,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="AQ6">
         <v>0.86</v>
@@ -2330,7 +2342,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2411,7 +2423,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ7">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2536,7 +2548,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2617,7 +2629,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ8">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2742,7 +2754,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2948,7 +2960,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3026,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AQ10">
         <v>1.33</v>
@@ -3154,7 +3166,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3232,10 +3244,10 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AQ11">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3566,7 +3578,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3644,10 +3656,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AQ13">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="AR13">
         <v>1.34</v>
@@ -3850,10 +3862,10 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR14">
         <v>1.61</v>
@@ -3978,7 +3990,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4262,10 +4274,10 @@
         <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AQ16">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR16">
         <v>1.67</v>
@@ -4596,7 +4608,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4677,7 +4689,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ18">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4802,7 +4814,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5008,7 +5020,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5086,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AQ20">
         <v>0.86</v>
@@ -5214,7 +5226,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5295,7 +5307,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ21">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR21">
         <v>1.74</v>
@@ -5420,7 +5432,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5498,10 +5510,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AQ22">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="AR22">
         <v>1.61</v>
@@ -5704,7 +5716,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AQ23">
         <v>1.4</v>
@@ -5832,7 +5844,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5910,7 +5922,7 @@
         <v>1.67</v>
       </c>
       <c r="AP24">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AQ24">
         <v>1.71</v>
@@ -6119,7 +6131,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR25">
         <v>1.13</v>
@@ -6244,7 +6256,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6531,7 +6543,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ27">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR27">
         <v>1.24</v>
@@ -6656,7 +6668,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6737,7 +6749,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ28">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR28">
         <v>1.3</v>
@@ -6940,10 +6952,10 @@
         <v>2.5</v>
       </c>
       <c r="AP29">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="AQ29">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AR29">
         <v>2.35</v>
@@ -7146,7 +7158,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AQ30">
         <v>1.05</v>
@@ -7352,7 +7364,7 @@
         <v>1.8</v>
       </c>
       <c r="AP31">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AQ31">
         <v>1.33</v>
@@ -7480,7 +7492,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7558,10 +7570,10 @@
         <v>1.6</v>
       </c>
       <c r="AP32">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AQ32">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR32">
         <v>1.26</v>
@@ -7767,7 +7779,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ33">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="AR33">
         <v>1.34</v>
@@ -7892,7 +7904,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -7970,10 +7982,10 @@
         <v>2.2</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AQ34">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AR34">
         <v>1.7</v>
@@ -8098,7 +8110,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8304,7 +8316,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8510,7 +8522,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8588,10 +8600,10 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AQ37">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR37">
         <v>1.59</v>
@@ -9000,10 +9012,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR39">
         <v>1.98</v>
@@ -9128,7 +9140,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9209,7 +9221,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ40">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR40">
         <v>1.42</v>
@@ -9334,7 +9346,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9540,7 +9552,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9618,7 +9630,7 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AQ42">
         <v>0.95</v>
@@ -9827,7 +9839,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ43">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="AR43">
         <v>1.28</v>
@@ -9952,7 +9964,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10030,7 +10042,7 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AQ44">
         <v>1.4</v>
@@ -10239,7 +10251,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ45">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR45">
         <v>1.36</v>
@@ -10364,7 +10376,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10442,7 +10454,7 @@
         <v>0.43</v>
       </c>
       <c r="AP46">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AQ46">
         <v>0.86</v>
@@ -10570,7 +10582,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10651,7 +10663,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR47">
         <v>1.29</v>
@@ -10854,7 +10866,7 @@
         <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AQ48">
         <v>1.05</v>
@@ -11063,7 +11075,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ49">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR49">
         <v>1.08</v>
@@ -11188,7 +11200,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11266,7 +11278,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="AQ50">
         <v>0.95</v>
@@ -11394,7 +11406,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11678,7 +11690,7 @@
         <v>1.38</v>
       </c>
       <c r="AP52">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AQ52">
         <v>1.33</v>
@@ -11884,10 +11896,10 @@
         <v>1.38</v>
       </c>
       <c r="AP53">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AQ53">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR53">
         <v>1.71</v>
@@ -12012,7 +12024,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12090,10 +12102,10 @@
         <v>1.38</v>
       </c>
       <c r="AP54">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AQ54">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="AR54">
         <v>1.55</v>
@@ -12218,7 +12230,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12424,7 +12436,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12502,10 +12514,10 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AQ56">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -12630,7 +12642,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12836,7 +12848,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13120,10 +13132,10 @@
         <v>1.11</v>
       </c>
       <c r="AP59">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR59">
         <v>1.22</v>
@@ -13248,7 +13260,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13329,7 +13341,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ60">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR60">
         <v>1.2</v>
@@ -13535,7 +13547,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ61">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR61">
         <v>1.17</v>
@@ -13738,7 +13750,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP62">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="AQ62">
         <v>1.05</v>
@@ -13944,7 +13956,7 @@
         <v>1.7</v>
       </c>
       <c r="AP63">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AQ63">
         <v>1.71</v>
@@ -14150,10 +14162,10 @@
         <v>1.3</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AQ64">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR64">
         <v>1.39</v>
@@ -14484,7 +14496,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14565,7 +14577,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ66">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR66">
         <v>1.22</v>
@@ -14690,7 +14702,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14771,7 +14783,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ67">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -14896,7 +14908,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14977,7 +14989,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ68">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="AR68">
         <v>1.18</v>
@@ -15180,7 +15192,7 @@
         <v>1.27</v>
       </c>
       <c r="AP69">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AQ69">
         <v>1.33</v>
@@ -15386,7 +15398,7 @@
         <v>1.64</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AQ70">
         <v>1.71</v>
@@ -15595,7 +15607,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ71">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR71">
         <v>1.26</v>
@@ -15801,7 +15813,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR72">
         <v>1.49</v>
@@ -15926,7 +15938,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16132,7 +16144,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16338,7 +16350,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16416,7 +16428,7 @@
         <v>0.55</v>
       </c>
       <c r="AP75">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AQ75">
         <v>1.05</v>
@@ -16544,7 +16556,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16622,10 +16634,10 @@
         <v>2.27</v>
       </c>
       <c r="AP76">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AQ76">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AR76">
         <v>1.47</v>
@@ -16828,10 +16840,10 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="AQ77">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR77">
         <v>1.95</v>
@@ -16956,7 +16968,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17037,7 +17049,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ78">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AR78">
         <v>1.66</v>
@@ -17162,7 +17174,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17240,10 +17252,10 @@
         <v>1.46</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AQ79">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR79">
         <v>1.38</v>
@@ -17368,7 +17380,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17449,7 +17461,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ80">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="AR80">
         <v>1.36</v>
@@ -17652,10 +17664,10 @@
         <v>1.08</v>
       </c>
       <c r="AP81">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AQ81">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR81">
         <v>1.24</v>
@@ -17858,7 +17870,7 @@
         <v>0.54</v>
       </c>
       <c r="AP82">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AQ82">
         <v>0.86</v>
@@ -17986,7 +17998,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18192,7 +18204,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18479,7 +18491,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR85">
         <v>1.17</v>
@@ -18604,7 +18616,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18682,7 +18694,7 @@
         <v>1.07</v>
       </c>
       <c r="AP86">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AQ86">
         <v>0.95</v>
@@ -19097,7 +19109,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ88">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AR88">
         <v>1.22</v>
@@ -19300,10 +19312,10 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="AQ89">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR89">
         <v>1.9</v>
@@ -19509,7 +19521,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ90">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR90">
         <v>1.32</v>
@@ -19634,7 +19646,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19712,7 +19724,7 @@
         <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AQ91">
         <v>1.33</v>
@@ -19921,7 +19933,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ92">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR92">
         <v>1.54</v>
@@ -20046,7 +20058,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20124,10 +20136,10 @@
         <v>2.07</v>
       </c>
       <c r="AP93">
+        <v>2.14</v>
+      </c>
+      <c r="AQ93">
         <v>2.1</v>
-      </c>
-      <c r="AQ93">
-        <v>2.21</v>
       </c>
       <c r="AR93">
         <v>1.77</v>
@@ -20458,7 +20470,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20536,7 +20548,7 @@
         <v>1.67</v>
       </c>
       <c r="AP95">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AQ95">
         <v>1.71</v>
@@ -20742,7 +20754,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AQ96">
         <v>1.4</v>
@@ -20870,7 +20882,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21154,10 +21166,10 @@
         <v>1.06</v>
       </c>
       <c r="AP98">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AQ98">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR98">
         <v>1.73</v>
@@ -21282,7 +21294,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21566,10 +21578,10 @@
         <v>1.38</v>
       </c>
       <c r="AP100">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AQ100">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR100">
         <v>1.51</v>
@@ -21772,7 +21784,7 @@
         <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="AQ101">
         <v>1.71</v>
@@ -21981,7 +21993,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ102">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR102">
         <v>1.41</v>
@@ -22106,7 +22118,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22184,7 +22196,7 @@
         <v>0.65</v>
       </c>
       <c r="AP103">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AQ103">
         <v>0.86</v>
@@ -22312,7 +22324,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22518,7 +22530,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22805,7 +22817,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ106">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AR106">
         <v>1.2</v>
@@ -22930,7 +22942,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23008,10 +23020,10 @@
         <v>2.06</v>
       </c>
       <c r="AP107">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AQ107">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="AR107">
         <v>1.48</v>
@@ -23136,7 +23148,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23214,10 +23226,10 @@
         <v>1.53</v>
       </c>
       <c r="AP108">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AQ108">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR108">
         <v>1.44</v>
@@ -23342,7 +23354,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q109">
         <v>2.63</v>
@@ -23423,7 +23435,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ109">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR109">
         <v>1.19</v>
@@ -23626,7 +23638,7 @@
         <v>0.89</v>
       </c>
       <c r="AP110">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AQ110">
         <v>1.05</v>
@@ -23754,7 +23766,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -23832,7 +23844,7 @@
         <v>1.11</v>
       </c>
       <c r="AP111">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AQ111">
         <v>0.95</v>
@@ -23960,7 +23972,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24038,7 +24050,7 @@
         <v>1.78</v>
       </c>
       <c r="AP112">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AQ112">
         <v>1.71</v>
@@ -24244,7 +24256,7 @@
         <v>1.39</v>
       </c>
       <c r="AP113">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="AQ113">
         <v>1.33</v>
@@ -24372,7 +24384,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -24453,7 +24465,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ114">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR114">
         <v>1.29</v>
@@ -24659,7 +24671,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ115">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR115">
         <v>1.5</v>
@@ -24784,7 +24796,7 @@
         <v>148</v>
       </c>
       <c r="P116" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -24865,7 +24877,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ116">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="AR116">
         <v>1.15</v>
@@ -24990,7 +25002,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25071,7 +25083,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ117">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR117">
         <v>1.41</v>
@@ -25196,7 +25208,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25274,10 +25286,10 @@
         <v>2.05</v>
       </c>
       <c r="AP118">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AQ118">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AR118">
         <v>1.43</v>
@@ -25402,7 +25414,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25686,7 +25698,7 @@
         <v>1.5</v>
       </c>
       <c r="AP120">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AQ120">
         <v>1.4</v>
@@ -25814,7 +25826,7 @@
         <v>159</v>
       </c>
       <c r="P121" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26020,7 +26032,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26226,7 +26238,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26383,6 +26395,624 @@
       </c>
       <c r="BP123">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7330055</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45445.72916666666</v>
+      </c>
+      <c r="F124">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>74</v>
+      </c>
+      <c r="H124" t="s">
+        <v>72</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>2</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>89</v>
+      </c>
+      <c r="P124" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q124">
+        <v>1.95</v>
+      </c>
+      <c r="R124">
+        <v>2.3</v>
+      </c>
+      <c r="S124">
+        <v>7.5</v>
+      </c>
+      <c r="T124">
+        <v>1.42</v>
+      </c>
+      <c r="U124">
+        <v>2.73</v>
+      </c>
+      <c r="V124">
+        <v>2.97</v>
+      </c>
+      <c r="W124">
+        <v>1.36</v>
+      </c>
+      <c r="X124">
+        <v>7.6</v>
+      </c>
+      <c r="Y124">
+        <v>1.06</v>
+      </c>
+      <c r="Z124">
+        <v>1.54</v>
+      </c>
+      <c r="AA124">
+        <v>3.8</v>
+      </c>
+      <c r="AB124">
+        <v>5.48</v>
+      </c>
+      <c r="AC124">
+        <v>1.03</v>
+      </c>
+      <c r="AD124">
+        <v>8.4</v>
+      </c>
+      <c r="AE124">
+        <v>1.31</v>
+      </c>
+      <c r="AF124">
+        <v>3.04</v>
+      </c>
+      <c r="AG124">
+        <v>1.99</v>
+      </c>
+      <c r="AH124">
+        <v>1.73</v>
+      </c>
+      <c r="AI124">
+        <v>2.2</v>
+      </c>
+      <c r="AJ124">
+        <v>1.62</v>
+      </c>
+      <c r="AK124">
+        <v>1.1</v>
+      </c>
+      <c r="AL124">
+        <v>1.22</v>
+      </c>
+      <c r="AM124">
+        <v>2.32</v>
+      </c>
+      <c r="AN124">
+        <v>2.21</v>
+      </c>
+      <c r="AO124">
+        <v>1.6</v>
+      </c>
+      <c r="AP124">
+        <v>2.1</v>
+      </c>
+      <c r="AQ124">
+        <v>1.67</v>
+      </c>
+      <c r="AR124">
+        <v>1.79</v>
+      </c>
+      <c r="AS124">
+        <v>1.4</v>
+      </c>
+      <c r="AT124">
+        <v>3.19</v>
+      </c>
+      <c r="AU124">
+        <v>4</v>
+      </c>
+      <c r="AV124">
+        <v>3</v>
+      </c>
+      <c r="AW124">
+        <v>8</v>
+      </c>
+      <c r="AX124">
+        <v>5</v>
+      </c>
+      <c r="AY124">
+        <v>12</v>
+      </c>
+      <c r="AZ124">
+        <v>8</v>
+      </c>
+      <c r="BA124">
+        <v>7</v>
+      </c>
+      <c r="BB124">
+        <v>5</v>
+      </c>
+      <c r="BC124">
+        <v>12</v>
+      </c>
+      <c r="BD124">
+        <v>1.44</v>
+      </c>
+      <c r="BE124">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF124">
+        <v>3.16</v>
+      </c>
+      <c r="BG124">
+        <v>1.25</v>
+      </c>
+      <c r="BH124">
+        <v>3.6</v>
+      </c>
+      <c r="BI124">
+        <v>1.42</v>
+      </c>
+      <c r="BJ124">
+        <v>2.62</v>
+      </c>
+      <c r="BK124">
+        <v>2.25</v>
+      </c>
+      <c r="BL124">
+        <v>2.1</v>
+      </c>
+      <c r="BM124">
+        <v>2.14</v>
+      </c>
+      <c r="BN124">
+        <v>1.68</v>
+      </c>
+      <c r="BO124">
+        <v>2.62</v>
+      </c>
+      <c r="BP124">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7330058</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45445.72916666666</v>
+      </c>
+      <c r="F125">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>79</v>
+      </c>
+      <c r="H125" t="s">
+        <v>73</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125" t="s">
+        <v>161</v>
+      </c>
+      <c r="P125" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q125">
+        <v>1.67</v>
+      </c>
+      <c r="R125">
+        <v>2.75</v>
+      </c>
+      <c r="S125">
+        <v>10</v>
+      </c>
+      <c r="T125">
+        <v>1.31</v>
+      </c>
+      <c r="U125">
+        <v>3.26</v>
+      </c>
+      <c r="V125">
+        <v>2.45</v>
+      </c>
+      <c r="W125">
+        <v>1.51</v>
+      </c>
+      <c r="X125">
+        <v>5.75</v>
+      </c>
+      <c r="Y125">
+        <v>1.12</v>
+      </c>
+      <c r="Z125">
+        <v>1.3</v>
+      </c>
+      <c r="AA125">
+        <v>5.15</v>
+      </c>
+      <c r="AB125">
+        <v>7.6</v>
+      </c>
+      <c r="AC125">
+        <v>1.01</v>
+      </c>
+      <c r="AD125">
+        <v>11</v>
+      </c>
+      <c r="AE125">
+        <v>1.18</v>
+      </c>
+      <c r="AF125">
+        <v>4.05</v>
+      </c>
+      <c r="AG125">
+        <v>1.62</v>
+      </c>
+      <c r="AH125">
+        <v>2.16</v>
+      </c>
+      <c r="AI125">
+        <v>2.25</v>
+      </c>
+      <c r="AJ125">
+        <v>1.57</v>
+      </c>
+      <c r="AK125">
+        <v>1.03</v>
+      </c>
+      <c r="AL125">
+        <v>1.13</v>
+      </c>
+      <c r="AM125">
+        <v>3.18</v>
+      </c>
+      <c r="AN125">
+        <v>2.1</v>
+      </c>
+      <c r="AO125">
+        <v>0.95</v>
+      </c>
+      <c r="AP125">
+        <v>2.14</v>
+      </c>
+      <c r="AQ125">
+        <v>0.9</v>
+      </c>
+      <c r="AR125">
+        <v>1.76</v>
+      </c>
+      <c r="AS125">
+        <v>1.18</v>
+      </c>
+      <c r="AT125">
+        <v>2.94</v>
+      </c>
+      <c r="AU125">
+        <v>4</v>
+      </c>
+      <c r="AV125">
+        <v>2</v>
+      </c>
+      <c r="AW125">
+        <v>4</v>
+      </c>
+      <c r="AX125">
+        <v>3</v>
+      </c>
+      <c r="AY125">
+        <v>8</v>
+      </c>
+      <c r="AZ125">
+        <v>5</v>
+      </c>
+      <c r="BA125">
+        <v>4</v>
+      </c>
+      <c r="BB125">
+        <v>2</v>
+      </c>
+      <c r="BC125">
+        <v>6</v>
+      </c>
+      <c r="BD125">
+        <v>1.18</v>
+      </c>
+      <c r="BE125">
+        <v>11.5</v>
+      </c>
+      <c r="BF125">
+        <v>5.55</v>
+      </c>
+      <c r="BG125">
+        <v>1.29</v>
+      </c>
+      <c r="BH125">
+        <v>3.3</v>
+      </c>
+      <c r="BI125">
+        <v>1.5</v>
+      </c>
+      <c r="BJ125">
+        <v>2.52</v>
+      </c>
+      <c r="BK125">
+        <v>2.38</v>
+      </c>
+      <c r="BL125">
+        <v>1.94</v>
+      </c>
+      <c r="BM125">
+        <v>2.35</v>
+      </c>
+      <c r="BN125">
+        <v>1.57</v>
+      </c>
+      <c r="BO125">
+        <v>2.9</v>
+      </c>
+      <c r="BP125">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7330059</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45446.79166666666</v>
+      </c>
+      <c r="F126">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>78</v>
+      </c>
+      <c r="H126" t="s">
+        <v>70</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126" t="s">
+        <v>162</v>
+      </c>
+      <c r="P126" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q126">
+        <v>3.25</v>
+      </c>
+      <c r="R126">
+        <v>2.1</v>
+      </c>
+      <c r="S126">
+        <v>3.25</v>
+      </c>
+      <c r="T126">
+        <v>1.36</v>
+      </c>
+      <c r="U126">
+        <v>2.88</v>
+      </c>
+      <c r="V126">
+        <v>2.62</v>
+      </c>
+      <c r="W126">
+        <v>1.42</v>
+      </c>
+      <c r="X126">
+        <v>6</v>
+      </c>
+      <c r="Y126">
+        <v>1.09</v>
+      </c>
+      <c r="Z126">
+        <v>2.6</v>
+      </c>
+      <c r="AA126">
+        <v>3.4</v>
+      </c>
+      <c r="AB126">
+        <v>2.6</v>
+      </c>
+      <c r="AC126">
+        <v>1.02</v>
+      </c>
+      <c r="AD126">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE126">
+        <v>1.27</v>
+      </c>
+      <c r="AF126">
+        <v>3.28</v>
+      </c>
+      <c r="AG126">
+        <v>2</v>
+      </c>
+      <c r="AH126">
+        <v>1.8</v>
+      </c>
+      <c r="AI126">
+        <v>1.73</v>
+      </c>
+      <c r="AJ126">
+        <v>2</v>
+      </c>
+      <c r="AK126">
+        <v>1.44</v>
+      </c>
+      <c r="AL126">
+        <v>1.3</v>
+      </c>
+      <c r="AM126">
+        <v>1.57</v>
+      </c>
+      <c r="AN126">
+        <v>1</v>
+      </c>
+      <c r="AO126">
+        <v>1.15</v>
+      </c>
+      <c r="AP126">
+        <v>1.1</v>
+      </c>
+      <c r="AQ126">
+        <v>1.1</v>
+      </c>
+      <c r="AR126">
+        <v>1.55</v>
+      </c>
+      <c r="AS126">
+        <v>1.21</v>
+      </c>
+      <c r="AT126">
+        <v>2.76</v>
+      </c>
+      <c r="AU126">
+        <v>7</v>
+      </c>
+      <c r="AV126">
+        <v>3</v>
+      </c>
+      <c r="AW126">
+        <v>2</v>
+      </c>
+      <c r="AX126">
+        <v>6</v>
+      </c>
+      <c r="AY126">
+        <v>9</v>
+      </c>
+      <c r="AZ126">
+        <v>9</v>
+      </c>
+      <c r="BA126">
+        <v>4</v>
+      </c>
+      <c r="BB126">
+        <v>8</v>
+      </c>
+      <c r="BC126">
+        <v>12</v>
+      </c>
+      <c r="BD126">
+        <v>2.1</v>
+      </c>
+      <c r="BE126">
+        <v>6.8</v>
+      </c>
+      <c r="BF126">
+        <v>2.1</v>
+      </c>
+      <c r="BG126">
+        <v>1.36</v>
+      </c>
+      <c r="BH126">
+        <v>2.9</v>
+      </c>
+      <c r="BI126">
+        <v>1.63</v>
+      </c>
+      <c r="BJ126">
+        <v>2.2</v>
+      </c>
+      <c r="BK126">
+        <v>2.04</v>
+      </c>
+      <c r="BL126">
+        <v>1.74</v>
+      </c>
+      <c r="BM126">
+        <v>2.5</v>
+      </c>
+      <c r="BN126">
+        <v>1.48</v>
+      </c>
+      <c r="BO126">
+        <v>3.3</v>
+      </c>
+      <c r="BP126">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="232">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -505,6 +505,12 @@
     <t>['39', '90+1']</t>
   </si>
   <si>
+    <t>['57', '85', '88']</t>
+  </si>
+  <si>
+    <t>['40', '50']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -692,6 +698,18 @@
   </si>
   <si>
     <t>['70']</t>
+  </si>
+  <si>
+    <t>['4', '68']</t>
+  </si>
+  <si>
+    <t>['6', '42', '45+4', '74', '81', '85']</t>
+  </si>
+  <si>
+    <t>['36', '73']</t>
+  </si>
+  <si>
+    <t>['11', '70', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP126"/>
+  <dimension ref="A1:BP130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1393,7 +1411,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ2">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1518,7 +1536,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1596,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AQ3">
         <v>1.1</v>
@@ -1802,10 +1820,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ4">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2214,10 +2232,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AQ6">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2342,7 +2360,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2420,10 +2438,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AQ7">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2548,7 +2566,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2626,7 +2644,7 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
         <v>0.9</v>
@@ -2754,7 +2772,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2835,7 +2853,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ9">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2960,7 +2978,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3041,7 +3059,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3166,7 +3184,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3244,10 +3262,10 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AQ11">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3450,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3578,7 +3596,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3659,7 +3677,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ13">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AR13">
         <v>1.34</v>
@@ -3862,7 +3880,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ14">
         <v>1.1</v>
@@ -3990,7 +4008,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4068,10 +4086,10 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AQ15">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>1.26</v>
@@ -4480,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AQ17">
         <v>0.95</v>
@@ -4608,7 +4626,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4686,10 +4704,10 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ18">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4814,7 +4832,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4892,10 +4910,10 @@
         <v>1.67</v>
       </c>
       <c r="AP19">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR19">
         <v>1.77</v>
@@ -5020,7 +5038,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5101,7 +5119,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ20">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AR20">
         <v>1.8</v>
@@ -5226,7 +5244,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5307,7 +5325,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ21">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AR21">
         <v>1.74</v>
@@ -5432,7 +5450,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5513,7 +5531,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ22">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AR22">
         <v>1.61</v>
@@ -5716,10 +5734,10 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AQ23">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -5844,7 +5862,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5925,7 +5943,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ24">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AR24">
         <v>1.32</v>
@@ -6128,7 +6146,7 @@
         <v>0.75</v>
       </c>
       <c r="AP25">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25">
         <v>1.1</v>
@@ -6256,7 +6274,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6334,7 +6352,7 @@
         <v>0.25</v>
       </c>
       <c r="AP26">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ26">
         <v>0.95</v>
@@ -6540,7 +6558,7 @@
         <v>1.75</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AQ27">
         <v>1.1</v>
@@ -6668,7 +6686,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6746,7 +6764,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AQ28">
         <v>0.9</v>
@@ -6952,10 +6970,10 @@
         <v>2.5</v>
       </c>
       <c r="AP29">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AQ29">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AR29">
         <v>2.35</v>
@@ -7158,10 +7176,10 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ30">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>1.47</v>
@@ -7367,7 +7385,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ31">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR31">
         <v>1.29</v>
@@ -7492,7 +7510,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7573,7 +7591,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ32">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AR32">
         <v>1.26</v>
@@ -7776,10 +7794,10 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AQ33">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AR33">
         <v>1.34</v>
@@ -7904,7 +7922,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -7985,7 +8003,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ34">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AR34">
         <v>1.7</v>
@@ -8110,7 +8128,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8188,10 +8206,10 @@
         <v>0.6</v>
       </c>
       <c r="AP35">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AR35">
         <v>2</v>
@@ -8316,7 +8334,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8397,7 +8415,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ36">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR36">
         <v>1.44</v>
@@ -8522,7 +8540,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8600,7 +8618,7 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ37">
         <v>0.9</v>
@@ -8806,10 +8824,10 @@
         <v>0.83</v>
       </c>
       <c r="AP38">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ38">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>0.99</v>
@@ -9012,7 +9030,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AQ39">
         <v>1.1</v>
@@ -9140,7 +9158,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9218,7 +9236,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ40">
         <v>1.1</v>
@@ -9346,7 +9364,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9424,10 +9442,10 @@
         <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AQ41">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AR41">
         <v>1.18</v>
@@ -9552,7 +9570,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9630,7 +9648,7 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AQ42">
         <v>0.95</v>
@@ -9836,10 +9854,10 @@
         <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AQ43">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AR43">
         <v>1.28</v>
@@ -9964,7 +9982,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10045,7 +10063,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ44">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR44">
         <v>1.26</v>
@@ -10248,10 +10266,10 @@
         <v>1.71</v>
       </c>
       <c r="AP45">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AQ45">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AR45">
         <v>1.36</v>
@@ -10376,7 +10394,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10457,7 +10475,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ46">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AR46">
         <v>1.26</v>
@@ -10582,7 +10600,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10869,7 +10887,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ48">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -11072,7 +11090,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ49">
         <v>0.9</v>
@@ -11200,7 +11218,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11278,7 +11296,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AQ50">
         <v>0.95</v>
@@ -11406,7 +11424,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11484,10 +11502,10 @@
         <v>1.63</v>
       </c>
       <c r="AP51">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ51">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AR51">
         <v>1.3</v>
@@ -11690,10 +11708,10 @@
         <v>1.38</v>
       </c>
       <c r="AP52">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ52">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR52">
         <v>1.53</v>
@@ -11896,7 +11914,7 @@
         <v>1.38</v>
       </c>
       <c r="AP53">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AQ53">
         <v>1.1</v>
@@ -12024,7 +12042,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12102,10 +12120,10 @@
         <v>1.38</v>
       </c>
       <c r="AP54">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ54">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AR54">
         <v>1.55</v>
@@ -12230,7 +12248,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12308,10 +12326,10 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AQ55">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR55">
         <v>1.3</v>
@@ -12436,7 +12454,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12517,7 +12535,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ56">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -12642,7 +12660,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12720,7 +12738,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ57">
         <v>0.95</v>
@@ -12848,7 +12866,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -12926,10 +12944,10 @@
         <v>0.44</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AQ58">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AR58">
         <v>1.39</v>
@@ -13260,7 +13278,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13544,10 +13562,10 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ61">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AR61">
         <v>1.17</v>
@@ -13750,10 +13768,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP62">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AQ62">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>2</v>
@@ -13956,10 +13974,10 @@
         <v>1.7</v>
       </c>
       <c r="AP63">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AQ63">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AR63">
         <v>1.64</v>
@@ -14368,10 +14386,10 @@
         <v>1.1</v>
       </c>
       <c r="AP65">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ65">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR65">
         <v>1.26</v>
@@ -14496,7 +14514,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14702,7 +14720,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14780,7 +14798,7 @@
         <v>1.36</v>
       </c>
       <c r="AP67">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
         <v>1.1</v>
@@ -14908,7 +14926,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14986,10 +15004,10 @@
         <v>1.7</v>
       </c>
       <c r="AP68">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ68">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AR68">
         <v>1.18</v>
@@ -15192,10 +15210,10 @@
         <v>1.27</v>
       </c>
       <c r="AP69">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AQ69">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR69">
         <v>1.74</v>
@@ -15401,7 +15419,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ70">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AR70">
         <v>1.37</v>
@@ -15604,10 +15622,10 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ71">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AR71">
         <v>1.26</v>
@@ -15810,7 +15828,7 @@
         <v>1.17</v>
       </c>
       <c r="AP72">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AQ72">
         <v>1.1</v>
@@ -15938,7 +15956,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16016,10 +16034,10 @@
         <v>1.36</v>
       </c>
       <c r="AP73">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ73">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR73">
         <v>1.16</v>
@@ -16144,7 +16162,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16222,7 +16240,7 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AQ74">
         <v>0.95</v>
@@ -16350,7 +16368,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16431,7 +16449,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ75">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR75">
         <v>1.39</v>
@@ -16556,7 +16574,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16634,10 +16652,10 @@
         <v>2.27</v>
       </c>
       <c r="AP76">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ76">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AR76">
         <v>1.47</v>
@@ -16840,7 +16858,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AQ77">
         <v>1.1</v>
@@ -16968,7 +16986,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17046,10 +17064,10 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ78">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AR78">
         <v>1.66</v>
@@ -17174,7 +17192,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17255,7 +17273,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ79">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AR79">
         <v>1.38</v>
@@ -17380,7 +17398,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17458,10 +17476,10 @@
         <v>1.92</v>
       </c>
       <c r="AP80">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ80">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AR80">
         <v>1.36</v>
@@ -17870,10 +17888,10 @@
         <v>0.54</v>
       </c>
       <c r="AP82">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AQ82">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AR82">
         <v>1.7</v>
@@ -17998,7 +18016,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18079,7 +18097,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ83">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR83">
         <v>1.25</v>
@@ -18204,7 +18222,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18282,10 +18300,10 @@
         <v>1.69</v>
       </c>
       <c r="AP84">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ84">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AR84">
         <v>1.59</v>
@@ -18488,7 +18506,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ85">
         <v>1.1</v>
@@ -18616,7 +18634,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18694,7 +18712,7 @@
         <v>1.07</v>
       </c>
       <c r="AP86">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ86">
         <v>0.95</v>
@@ -18900,10 +18918,10 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AQ87">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -19106,10 +19124,10 @@
         <v>2.29</v>
       </c>
       <c r="AP88">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ88">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AR88">
         <v>1.22</v>
@@ -19312,7 +19330,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AQ89">
         <v>0.9</v>
@@ -19518,7 +19536,7 @@
         <v>1.36</v>
       </c>
       <c r="AP90">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AQ90">
         <v>1.1</v>
@@ -19646,7 +19664,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19727,7 +19745,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ91">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR91">
         <v>1.43</v>
@@ -19930,10 +19948,10 @@
         <v>1.47</v>
       </c>
       <c r="AP92">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ92">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AR92">
         <v>1.54</v>
@@ -20058,7 +20076,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20136,10 +20154,10 @@
         <v>2.07</v>
       </c>
       <c r="AP93">
+        <v>2.18</v>
+      </c>
+      <c r="AQ93">
         <v>2.14</v>
-      </c>
-      <c r="AQ93">
-        <v>2.1</v>
       </c>
       <c r="AR93">
         <v>1.77</v>
@@ -20345,7 +20363,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ94">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AR94">
         <v>1.22</v>
@@ -20470,7 +20488,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20551,7 +20569,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ95">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AR95">
         <v>1.46</v>
@@ -20757,7 +20775,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ96">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR96">
         <v>1.4</v>
@@ -20882,7 +20900,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -20960,7 +20978,7 @@
         <v>1.19</v>
       </c>
       <c r="AP97">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ97">
         <v>0.95</v>
@@ -21166,7 +21184,7 @@
         <v>1.06</v>
       </c>
       <c r="AP98">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AQ98">
         <v>1.1</v>
@@ -21294,7 +21312,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21372,10 +21390,10 @@
         <v>0.63</v>
       </c>
       <c r="AP99">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ99">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR99">
         <v>1.18</v>
@@ -21578,7 +21596,7 @@
         <v>1.38</v>
       </c>
       <c r="AP100">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ100">
         <v>1.1</v>
@@ -21784,10 +21802,10 @@
         <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AQ101">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AR101">
         <v>1.87</v>
@@ -21990,7 +22008,7 @@
         <v>0.88</v>
       </c>
       <c r="AP102">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AQ102">
         <v>0.9</v>
@@ -22118,7 +22136,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22199,7 +22217,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ103">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AR103">
         <v>1.39</v>
@@ -22324,7 +22342,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22402,10 +22420,10 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ104">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR104">
         <v>1.48</v>
@@ -22530,7 +22548,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22608,10 +22626,10 @@
         <v>1.47</v>
       </c>
       <c r="AP105">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AQ105">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR105">
         <v>1.32</v>
@@ -22817,7 +22835,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ106">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AR106">
         <v>1.2</v>
@@ -22942,7 +22960,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23023,7 +23041,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ107">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AR107">
         <v>1.48</v>
@@ -23148,7 +23166,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23229,7 +23247,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ108">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AR108">
         <v>1.44</v>
@@ -23354,7 +23372,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q109">
         <v>2.63</v>
@@ -23432,7 +23450,7 @@
         <v>1.28</v>
       </c>
       <c r="AP109">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ109">
         <v>1.1</v>
@@ -23638,10 +23656,10 @@
         <v>0.89</v>
       </c>
       <c r="AP110">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AQ110">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR110">
         <v>1.76</v>
@@ -23766,7 +23784,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -23972,7 +23990,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24050,10 +24068,10 @@
         <v>1.78</v>
       </c>
       <c r="AP112">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ112">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AR112">
         <v>1.52</v>
@@ -24256,10 +24274,10 @@
         <v>1.39</v>
       </c>
       <c r="AP113">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AQ113">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR113">
         <v>1.82</v>
@@ -24384,7 +24402,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -24462,7 +24480,7 @@
         <v>0.83</v>
       </c>
       <c r="AP114">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ114">
         <v>0.9</v>
@@ -24668,7 +24686,7 @@
         <v>1.05</v>
       </c>
       <c r="AP115">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ115">
         <v>1.1</v>
@@ -24796,7 +24814,7 @@
         <v>148</v>
       </c>
       <c r="P116" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -24877,7 +24895,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ116">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AR116">
         <v>1.15</v>
@@ -25002,7 +25020,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25080,10 +25098,10 @@
         <v>1.53</v>
       </c>
       <c r="AP117">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AQ117">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AR117">
         <v>1.41</v>
@@ -25208,7 +25226,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25289,7 +25307,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ118">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AR118">
         <v>1.43</v>
@@ -25414,7 +25432,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25492,10 +25510,10 @@
         <v>0.79</v>
       </c>
       <c r="AP119">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AQ119">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AR119">
         <v>1.4</v>
@@ -25701,7 +25719,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ120">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR120">
         <v>1.4</v>
@@ -25826,7 +25844,7 @@
         <v>159</v>
       </c>
       <c r="P121" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -25907,7 +25925,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ121">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR121">
         <v>1.1</v>
@@ -26032,7 +26050,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26110,10 +26128,10 @@
         <v>1.25</v>
       </c>
       <c r="AP122">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="AQ122">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR122">
         <v>1.22</v>
@@ -26238,7 +26256,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26316,10 +26334,10 @@
         <v>1.75</v>
       </c>
       <c r="AP123">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ123">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AR123">
         <v>1.2</v>
@@ -26444,7 +26462,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -26522,10 +26540,10 @@
         <v>1.6</v>
       </c>
       <c r="AP124">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AQ124">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AR124">
         <v>1.79</v>
@@ -26728,7 +26746,7 @@
         <v>0.95</v>
       </c>
       <c r="AP125">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AQ125">
         <v>0.9</v>
@@ -26856,7 +26874,7 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27012,6 +27030,830 @@
         <v>3.3</v>
       </c>
       <c r="BP126">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7330065</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45447.79166666666</v>
+      </c>
+      <c r="F127">
+        <v>22</v>
+      </c>
+      <c r="G127" t="s">
+        <v>75</v>
+      </c>
+      <c r="H127" t="s">
+        <v>80</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>3</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>5</v>
+      </c>
+      <c r="O127" t="s">
+        <v>163</v>
+      </c>
+      <c r="P127" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q127">
+        <v>3</v>
+      </c>
+      <c r="R127">
+        <v>2</v>
+      </c>
+      <c r="S127">
+        <v>4.33</v>
+      </c>
+      <c r="T127">
+        <v>1.33</v>
+      </c>
+      <c r="U127">
+        <v>3.14</v>
+      </c>
+      <c r="V127">
+        <v>2.54</v>
+      </c>
+      <c r="W127">
+        <v>1.48</v>
+      </c>
+      <c r="X127">
+        <v>6.1</v>
+      </c>
+      <c r="Y127">
+        <v>1.1</v>
+      </c>
+      <c r="Z127">
+        <v>2.15</v>
+      </c>
+      <c r="AA127">
+        <v>3.1</v>
+      </c>
+      <c r="AB127">
+        <v>3.3</v>
+      </c>
+      <c r="AC127">
+        <v>1.01</v>
+      </c>
+      <c r="AD127">
+        <v>10.5</v>
+      </c>
+      <c r="AE127">
+        <v>1.22</v>
+      </c>
+      <c r="AF127">
+        <v>4.17</v>
+      </c>
+      <c r="AG127">
+        <v>2.35</v>
+      </c>
+      <c r="AH127">
+        <v>1.57</v>
+      </c>
+      <c r="AI127">
+        <v>2</v>
+      </c>
+      <c r="AJ127">
+        <v>1.73</v>
+      </c>
+      <c r="AK127">
+        <v>1.33</v>
+      </c>
+      <c r="AL127">
+        <v>1.25</v>
+      </c>
+      <c r="AM127">
+        <v>1.64</v>
+      </c>
+      <c r="AN127">
+        <v>1.33</v>
+      </c>
+      <c r="AO127">
+        <v>1.4</v>
+      </c>
+      <c r="AP127">
+        <v>1.41</v>
+      </c>
+      <c r="AQ127">
+        <v>1.33</v>
+      </c>
+      <c r="AR127">
+        <v>1.34</v>
+      </c>
+      <c r="AS127">
+        <v>1.16</v>
+      </c>
+      <c r="AT127">
+        <v>2.5</v>
+      </c>
+      <c r="AU127">
+        <v>6</v>
+      </c>
+      <c r="AV127">
+        <v>5</v>
+      </c>
+      <c r="AW127">
+        <v>1</v>
+      </c>
+      <c r="AX127">
+        <v>6</v>
+      </c>
+      <c r="AY127">
+        <v>7</v>
+      </c>
+      <c r="AZ127">
+        <v>11</v>
+      </c>
+      <c r="BA127">
+        <v>5</v>
+      </c>
+      <c r="BB127">
+        <v>4</v>
+      </c>
+      <c r="BC127">
+        <v>9</v>
+      </c>
+      <c r="BD127">
+        <v>1.91</v>
+      </c>
+      <c r="BE127">
+        <v>8.5</v>
+      </c>
+      <c r="BF127">
+        <v>2.1</v>
+      </c>
+      <c r="BG127">
+        <v>1.3</v>
+      </c>
+      <c r="BH127">
+        <v>3.2</v>
+      </c>
+      <c r="BI127">
+        <v>1.5</v>
+      </c>
+      <c r="BJ127">
+        <v>2.48</v>
+      </c>
+      <c r="BK127">
+        <v>2.1</v>
+      </c>
+      <c r="BL127">
+        <v>1.95</v>
+      </c>
+      <c r="BM127">
+        <v>2.31</v>
+      </c>
+      <c r="BN127">
+        <v>1.58</v>
+      </c>
+      <c r="BO127">
+        <v>3</v>
+      </c>
+      <c r="BP127">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7330066</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45448.6875</v>
+      </c>
+      <c r="F128">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
+        <v>72</v>
+      </c>
+      <c r="H128" t="s">
+        <v>81</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>3</v>
+      </c>
+      <c r="K128">
+        <v>4</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128">
+        <v>6</v>
+      </c>
+      <c r="N128">
+        <v>8</v>
+      </c>
+      <c r="O128" t="s">
+        <v>164</v>
+      </c>
+      <c r="P128" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q128">
+        <v>2.6</v>
+      </c>
+      <c r="R128">
+        <v>2.2</v>
+      </c>
+      <c r="S128">
+        <v>4.33</v>
+      </c>
+      <c r="T128">
+        <v>1.4</v>
+      </c>
+      <c r="U128">
+        <v>2.75</v>
+      </c>
+      <c r="V128">
+        <v>3</v>
+      </c>
+      <c r="W128">
+        <v>1.36</v>
+      </c>
+      <c r="X128">
+        <v>8</v>
+      </c>
+      <c r="Y128">
+        <v>1.08</v>
+      </c>
+      <c r="Z128">
+        <v>2.1</v>
+      </c>
+      <c r="AA128">
+        <v>3.3</v>
+      </c>
+      <c r="AB128">
+        <v>3.1</v>
+      </c>
+      <c r="AC128">
+        <v>1.02</v>
+      </c>
+      <c r="AD128">
+        <v>8.9</v>
+      </c>
+      <c r="AE128">
+        <v>1.28</v>
+      </c>
+      <c r="AF128">
+        <v>3.2</v>
+      </c>
+      <c r="AG128">
+        <v>1.91</v>
+      </c>
+      <c r="AH128">
+        <v>1.8</v>
+      </c>
+      <c r="AI128">
+        <v>1.8</v>
+      </c>
+      <c r="AJ128">
+        <v>1.91</v>
+      </c>
+      <c r="AK128">
+        <v>1.18</v>
+      </c>
+      <c r="AL128">
+        <v>1.22</v>
+      </c>
+      <c r="AM128">
+        <v>1.95</v>
+      </c>
+      <c r="AN128">
+        <v>1.67</v>
+      </c>
+      <c r="AO128">
+        <v>0.86</v>
+      </c>
+      <c r="AP128">
+        <v>1.59</v>
+      </c>
+      <c r="AQ128">
+        <v>0.95</v>
+      </c>
+      <c r="AR128">
+        <v>1.49</v>
+      </c>
+      <c r="AS128">
+        <v>1.21</v>
+      </c>
+      <c r="AT128">
+        <v>2.7</v>
+      </c>
+      <c r="AU128">
+        <v>6</v>
+      </c>
+      <c r="AV128">
+        <v>10</v>
+      </c>
+      <c r="AW128">
+        <v>3</v>
+      </c>
+      <c r="AX128">
+        <v>2</v>
+      </c>
+      <c r="AY128">
+        <v>9</v>
+      </c>
+      <c r="AZ128">
+        <v>12</v>
+      </c>
+      <c r="BA128">
+        <v>2</v>
+      </c>
+      <c r="BB128">
+        <v>3</v>
+      </c>
+      <c r="BC128">
+        <v>5</v>
+      </c>
+      <c r="BD128">
+        <v>1.6</v>
+      </c>
+      <c r="BE128">
+        <v>8.1</v>
+      </c>
+      <c r="BF128">
+        <v>2.85</v>
+      </c>
+      <c r="BG128">
+        <v>1.22</v>
+      </c>
+      <c r="BH128">
+        <v>3.8</v>
+      </c>
+      <c r="BI128">
+        <v>1.41</v>
+      </c>
+      <c r="BJ128">
+        <v>2.65</v>
+      </c>
+      <c r="BK128">
+        <v>2.25</v>
+      </c>
+      <c r="BL128">
+        <v>2</v>
+      </c>
+      <c r="BM128">
+        <v>2.1</v>
+      </c>
+      <c r="BN128">
+        <v>1.65</v>
+      </c>
+      <c r="BO128">
+        <v>2.65</v>
+      </c>
+      <c r="BP128">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7330061</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45448.79166666666</v>
+      </c>
+      <c r="F129">
+        <v>22</v>
+      </c>
+      <c r="G129" t="s">
+        <v>76</v>
+      </c>
+      <c r="H129" t="s">
+        <v>74</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>2</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>89</v>
+      </c>
+      <c r="P129" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q129">
+        <v>5.5</v>
+      </c>
+      <c r="R129">
+        <v>2.38</v>
+      </c>
+      <c r="S129">
+        <v>2.1</v>
+      </c>
+      <c r="T129">
+        <v>1.36</v>
+      </c>
+      <c r="U129">
+        <v>3</v>
+      </c>
+      <c r="V129">
+        <v>2.63</v>
+      </c>
+      <c r="W129">
+        <v>1.44</v>
+      </c>
+      <c r="X129">
+        <v>7</v>
+      </c>
+      <c r="Y129">
+        <v>1.1</v>
+      </c>
+      <c r="Z129">
+        <v>5.5</v>
+      </c>
+      <c r="AA129">
+        <v>3.9</v>
+      </c>
+      <c r="AB129">
+        <v>1.55</v>
+      </c>
+      <c r="AC129">
+        <v>1.04</v>
+      </c>
+      <c r="AD129">
+        <v>9.5</v>
+      </c>
+      <c r="AE129">
+        <v>1.2</v>
+      </c>
+      <c r="AF129">
+        <v>4.2</v>
+      </c>
+      <c r="AG129">
+        <v>1.7</v>
+      </c>
+      <c r="AH129">
+        <v>2.1</v>
+      </c>
+      <c r="AI129">
+        <v>1.73</v>
+      </c>
+      <c r="AJ129">
+        <v>2</v>
+      </c>
+      <c r="AK129">
+        <v>2.4</v>
+      </c>
+      <c r="AL129">
+        <v>1.18</v>
+      </c>
+      <c r="AM129">
+        <v>1.1</v>
+      </c>
+      <c r="AN129">
+        <v>1.05</v>
+      </c>
+      <c r="AO129">
+        <v>2.1</v>
+      </c>
+      <c r="AP129">
+        <v>1</v>
+      </c>
+      <c r="AQ129">
+        <v>2.14</v>
+      </c>
+      <c r="AR129">
+        <v>1.63</v>
+      </c>
+      <c r="AS129">
+        <v>1.76</v>
+      </c>
+      <c r="AT129">
+        <v>3.39</v>
+      </c>
+      <c r="AU129">
+        <v>0</v>
+      </c>
+      <c r="AV129">
+        <v>3</v>
+      </c>
+      <c r="AW129">
+        <v>5</v>
+      </c>
+      <c r="AX129">
+        <v>6</v>
+      </c>
+      <c r="AY129">
+        <v>5</v>
+      </c>
+      <c r="AZ129">
+        <v>9</v>
+      </c>
+      <c r="BA129">
+        <v>4</v>
+      </c>
+      <c r="BB129">
+        <v>4</v>
+      </c>
+      <c r="BC129">
+        <v>8</v>
+      </c>
+      <c r="BD129">
+        <v>3.3</v>
+      </c>
+      <c r="BE129">
+        <v>8</v>
+      </c>
+      <c r="BF129">
+        <v>1.49</v>
+      </c>
+      <c r="BG129">
+        <v>1.29</v>
+      </c>
+      <c r="BH129">
+        <v>3.3</v>
+      </c>
+      <c r="BI129">
+        <v>1.52</v>
+      </c>
+      <c r="BJ129">
+        <v>2.37</v>
+      </c>
+      <c r="BK129">
+        <v>2.38</v>
+      </c>
+      <c r="BL129">
+        <v>1.85</v>
+      </c>
+      <c r="BM129">
+        <v>2.35</v>
+      </c>
+      <c r="BN129">
+        <v>1.53</v>
+      </c>
+      <c r="BO129">
+        <v>3.1</v>
+      </c>
+      <c r="BP129">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7330064</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45448.79166666666</v>
+      </c>
+      <c r="F130">
+        <v>22</v>
+      </c>
+      <c r="G130" t="s">
+        <v>71</v>
+      </c>
+      <c r="H130" t="s">
+        <v>79</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>3</v>
+      </c>
+      <c r="N130">
+        <v>4</v>
+      </c>
+      <c r="O130" t="s">
+        <v>115</v>
+      </c>
+      <c r="P130" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q130">
+        <v>4</v>
+      </c>
+      <c r="R130">
+        <v>2.1</v>
+      </c>
+      <c r="S130">
+        <v>2.75</v>
+      </c>
+      <c r="T130">
+        <v>1.33</v>
+      </c>
+      <c r="U130">
+        <v>3.25</v>
+      </c>
+      <c r="V130">
+        <v>2.63</v>
+      </c>
+      <c r="W130">
+        <v>1.44</v>
+      </c>
+      <c r="X130">
+        <v>6.5</v>
+      </c>
+      <c r="Y130">
+        <v>1.11</v>
+      </c>
+      <c r="Z130">
+        <v>3.4</v>
+      </c>
+      <c r="AA130">
+        <v>3</v>
+      </c>
+      <c r="AB130">
+        <v>2.1</v>
+      </c>
+      <c r="AC130">
+        <v>1.06</v>
+      </c>
+      <c r="AD130">
+        <v>8</v>
+      </c>
+      <c r="AE130">
+        <v>1.25</v>
+      </c>
+      <c r="AF130">
+        <v>3.8</v>
+      </c>
+      <c r="AG130">
+        <v>2</v>
+      </c>
+      <c r="AH130">
+        <v>1.8</v>
+      </c>
+      <c r="AI130">
+        <v>1.73</v>
+      </c>
+      <c r="AJ130">
+        <v>2</v>
+      </c>
+      <c r="AK130">
+        <v>1.5</v>
+      </c>
+      <c r="AL130">
+        <v>1.35</v>
+      </c>
+      <c r="AM130">
+        <v>1.35</v>
+      </c>
+      <c r="AN130">
+        <v>1.71</v>
+      </c>
+      <c r="AO130">
+        <v>2.14</v>
+      </c>
+      <c r="AP130">
+        <v>1.64</v>
+      </c>
+      <c r="AQ130">
+        <v>2.18</v>
+      </c>
+      <c r="AR130">
+        <v>1.46</v>
+      </c>
+      <c r="AS130">
+        <v>1.46</v>
+      </c>
+      <c r="AT130">
+        <v>2.92</v>
+      </c>
+      <c r="AU130">
+        <v>4</v>
+      </c>
+      <c r="AV130">
+        <v>5</v>
+      </c>
+      <c r="AW130">
+        <v>1</v>
+      </c>
+      <c r="AX130">
+        <v>2</v>
+      </c>
+      <c r="AY130">
+        <v>5</v>
+      </c>
+      <c r="AZ130">
+        <v>7</v>
+      </c>
+      <c r="BA130">
+        <v>5</v>
+      </c>
+      <c r="BB130">
+        <v>3</v>
+      </c>
+      <c r="BC130">
+        <v>8</v>
+      </c>
+      <c r="BD130">
+        <v>2.85</v>
+      </c>
+      <c r="BE130">
+        <v>7.6</v>
+      </c>
+      <c r="BF130">
+        <v>1.62</v>
+      </c>
+      <c r="BG130">
+        <v>1.33</v>
+      </c>
+      <c r="BH130">
+        <v>3</v>
+      </c>
+      <c r="BI130">
+        <v>1.67</v>
+      </c>
+      <c r="BJ130">
+        <v>2.1</v>
+      </c>
+      <c r="BK130">
+        <v>1.95</v>
+      </c>
+      <c r="BL130">
+        <v>1.77</v>
+      </c>
+      <c r="BM130">
+        <v>2.47</v>
+      </c>
+      <c r="BN130">
+        <v>1.48</v>
+      </c>
+      <c r="BO130">
+        <v>3.3</v>
+      </c>
+      <c r="BP130">
         <v>1.29</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,9 @@
     <t>['40', '50']</t>
   </si>
   <si>
+    <t>['31', '81']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -710,6 +713,12 @@
   </si>
   <si>
     <t>['11', '70', '90+4']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['8', '32', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP130"/>
+  <dimension ref="A1:BP132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1408,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1536,7 +1545,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1617,7 +1626,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ3">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2026,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ5">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2360,7 +2369,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2566,7 +2575,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2647,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2772,7 +2781,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2850,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ9">
         <v>1.64</v>
@@ -2978,7 +2987,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3056,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ10">
         <v>1.41</v>
@@ -3184,7 +3193,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3596,7 +3605,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3674,7 +3683,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ13">
         <v>2.14</v>
@@ -3883,7 +3892,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ14">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AR14">
         <v>1.61</v>
@@ -4008,7 +4017,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4292,10 +4301,10 @@
         <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ16">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR16">
         <v>1.67</v>
@@ -4501,7 +4510,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ17">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR17">
         <v>1.03</v>
@@ -4626,7 +4635,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4832,7 +4841,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5038,7 +5047,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5116,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ20">
         <v>0.95</v>
@@ -5244,7 +5253,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5322,7 +5331,7 @@
         <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ21">
         <v>1.59</v>
@@ -5450,7 +5459,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5528,7 +5537,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ22">
         <v>2.14</v>
@@ -5862,7 +5871,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5940,7 +5949,7 @@
         <v>1.67</v>
       </c>
       <c r="AP24">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ24">
         <v>1.64</v>
@@ -6149,7 +6158,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ25">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AR25">
         <v>1.13</v>
@@ -6274,7 +6283,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6355,7 +6364,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ26">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR26">
         <v>1.5</v>
@@ -6561,7 +6570,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ27">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR27">
         <v>1.24</v>
@@ -6686,7 +6695,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6767,7 +6776,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ28">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR28">
         <v>1.3</v>
@@ -7382,7 +7391,7 @@
         <v>1.8</v>
       </c>
       <c r="AP31">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ31">
         <v>1.41</v>
@@ -7510,7 +7519,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7588,7 +7597,7 @@
         <v>1.6</v>
       </c>
       <c r="AP32">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ32">
         <v>1.59</v>
@@ -7922,7 +7931,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8000,7 +8009,7 @@
         <v>2.2</v>
       </c>
       <c r="AP34">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ34">
         <v>2.18</v>
@@ -8128,7 +8137,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8334,7 +8343,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8412,7 +8421,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ36">
         <v>1.33</v>
@@ -8540,7 +8549,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8621,7 +8630,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ37">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR37">
         <v>1.59</v>
@@ -9033,7 +9042,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ39">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AR39">
         <v>1.98</v>
@@ -9158,7 +9167,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9239,7 +9248,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ40">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR40">
         <v>1.42</v>
@@ -9364,7 +9373,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9570,7 +9579,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9651,7 +9660,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ42">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR42">
         <v>1.46</v>
@@ -9982,7 +9991,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10060,7 +10069,7 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ44">
         <v>1.33</v>
@@ -10394,7 +10403,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10472,7 +10481,7 @@
         <v>0.43</v>
       </c>
       <c r="AP46">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ46">
         <v>0.95</v>
@@ -10600,7 +10609,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10678,10 +10687,10 @@
         <v>0.57</v>
       </c>
       <c r="AP47">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ47">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AR47">
         <v>1.29</v>
@@ -10884,7 +10893,7 @@
         <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11093,7 +11102,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ49">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR49">
         <v>1.08</v>
@@ -11218,7 +11227,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11299,7 +11308,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ50">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR50">
         <v>1.99</v>
@@ -11424,7 +11433,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11917,7 +11926,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ53">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR53">
         <v>1.71</v>
@@ -12042,7 +12051,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12248,7 +12257,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12454,7 +12463,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12532,7 +12541,7 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ56">
         <v>2.18</v>
@@ -12660,7 +12669,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12741,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR57">
         <v>1.75</v>
@@ -12866,7 +12875,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13150,10 +13159,10 @@
         <v>1.11</v>
       </c>
       <c r="AP59">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ59">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AR59">
         <v>1.22</v>
@@ -13278,7 +13287,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13356,10 +13365,10 @@
         <v>1.4</v>
       </c>
       <c r="AP60">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ60">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR60">
         <v>1.2</v>
@@ -14180,10 +14189,10 @@
         <v>1.3</v>
       </c>
       <c r="AP64">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ64">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR64">
         <v>1.39</v>
@@ -14514,7 +14523,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14592,10 +14601,10 @@
         <v>1.18</v>
       </c>
       <c r="AP66">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ66">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR66">
         <v>1.22</v>
@@ -14720,7 +14729,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14801,7 +14810,7 @@
         <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -14926,7 +14935,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15416,7 +15425,7 @@
         <v>1.64</v>
       </c>
       <c r="AP70">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ70">
         <v>1.64</v>
@@ -15831,7 +15840,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ72">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AR72">
         <v>1.49</v>
@@ -15956,7 +15965,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16162,7 +16171,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16243,7 +16252,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ74">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR74">
         <v>1.3</v>
@@ -16368,7 +16377,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16446,7 +16455,7 @@
         <v>0.55</v>
       </c>
       <c r="AP75">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -16574,7 +16583,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16861,7 +16870,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ77">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR77">
         <v>1.95</v>
@@ -16986,7 +16995,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17192,7 +17201,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17270,7 +17279,7 @@
         <v>1.46</v>
       </c>
       <c r="AP79">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ79">
         <v>1.59</v>
@@ -17398,7 +17407,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17682,10 +17691,10 @@
         <v>1.08</v>
       </c>
       <c r="AP81">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ81">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR81">
         <v>1.24</v>
@@ -18016,7 +18025,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18094,7 +18103,7 @@
         <v>1.31</v>
       </c>
       <c r="AP83">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ83">
         <v>1.41</v>
@@ -18222,7 +18231,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18509,7 +18518,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ85">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AR85">
         <v>1.17</v>
@@ -18634,7 +18643,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18715,7 +18724,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ86">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR86">
         <v>1.44</v>
@@ -19333,7 +19342,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ89">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR89">
         <v>1.9</v>
@@ -19539,7 +19548,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ90">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR90">
         <v>1.32</v>
@@ -19664,7 +19673,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19742,7 +19751,7 @@
         <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ91">
         <v>1.41</v>
@@ -20076,7 +20085,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20360,7 +20369,7 @@
         <v>0.67</v>
       </c>
       <c r="AP94">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ94">
         <v>0.95</v>
@@ -20488,7 +20497,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20566,7 +20575,7 @@
         <v>1.67</v>
       </c>
       <c r="AP95">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ95">
         <v>1.64</v>
@@ -20772,7 +20781,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ96">
         <v>1.33</v>
@@ -20900,7 +20909,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -20981,7 +20990,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ97">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR97">
         <v>1.17</v>
@@ -21187,7 +21196,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ98">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AR98">
         <v>1.73</v>
@@ -21312,7 +21321,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21599,7 +21608,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ100">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR100">
         <v>1.51</v>
@@ -22011,7 +22020,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ102">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR102">
         <v>1.41</v>
@@ -22136,7 +22145,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22214,7 +22223,7 @@
         <v>0.65</v>
       </c>
       <c r="AP103">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ103">
         <v>0.95</v>
@@ -22342,7 +22351,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22548,7 +22557,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22832,7 +22841,7 @@
         <v>2.06</v>
       </c>
       <c r="AP106">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ106">
         <v>2.18</v>
@@ -22960,7 +22969,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23038,7 +23047,7 @@
         <v>2.06</v>
       </c>
       <c r="AP107">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ107">
         <v>2.14</v>
@@ -23166,7 +23175,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23244,7 +23253,7 @@
         <v>1.53</v>
       </c>
       <c r="AP108">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ108">
         <v>1.59</v>
@@ -23372,7 +23381,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q109">
         <v>2.63</v>
@@ -23453,7 +23462,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ109">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR109">
         <v>1.19</v>
@@ -23784,7 +23793,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -23862,10 +23871,10 @@
         <v>1.11</v>
       </c>
       <c r="AP111">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ111">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR111">
         <v>1.42</v>
@@ -23990,7 +23999,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24402,7 +24411,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -24483,7 +24492,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ114">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR114">
         <v>1.29</v>
@@ -24689,7 +24698,7 @@
         <v>1</v>
       </c>
       <c r="AQ115">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AR115">
         <v>1.5</v>
@@ -24814,7 +24823,7 @@
         <v>148</v>
       </c>
       <c r="P116" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -24892,7 +24901,7 @@
         <v>2.17</v>
       </c>
       <c r="AP116">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ116">
         <v>2.14</v>
@@ -25020,7 +25029,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25226,7 +25235,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25304,7 +25313,7 @@
         <v>2.05</v>
       </c>
       <c r="AP118">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ118">
         <v>2.18</v>
@@ -25432,7 +25441,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25716,7 +25725,7 @@
         <v>1.5</v>
       </c>
       <c r="AP120">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ120">
         <v>1.33</v>
@@ -25844,7 +25853,7 @@
         <v>159</v>
       </c>
       <c r="P121" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -25922,7 +25931,7 @@
         <v>0.95</v>
       </c>
       <c r="AP121">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ121">
         <v>1</v>
@@ -26050,7 +26059,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26256,7 +26265,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26462,7 +26471,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -26749,7 +26758,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ125">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR125">
         <v>1.76</v>
@@ -26874,7 +26883,7 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -26952,10 +26961,10 @@
         <v>1.15</v>
       </c>
       <c r="AP126">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ126">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR126">
         <v>1.55</v>
@@ -27080,7 +27089,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27286,7 +27295,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27492,7 +27501,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q129">
         <v>5.5</v>
@@ -27698,7 +27707,7 @@
         <v>115</v>
       </c>
       <c r="P130" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -27855,6 +27864,418 @@
       </c>
       <c r="BP130">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7330062</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45449.6875</v>
+      </c>
+      <c r="F131">
+        <v>22</v>
+      </c>
+      <c r="G131" t="s">
+        <v>70</v>
+      </c>
+      <c r="H131" t="s">
+        <v>77</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>89</v>
+      </c>
+      <c r="P131" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q131">
+        <v>3</v>
+      </c>
+      <c r="R131">
+        <v>2.1</v>
+      </c>
+      <c r="S131">
+        <v>3.6</v>
+      </c>
+      <c r="T131">
+        <v>1.38</v>
+      </c>
+      <c r="U131">
+        <v>2.9</v>
+      </c>
+      <c r="V131">
+        <v>2.7</v>
+      </c>
+      <c r="W131">
+        <v>1.43</v>
+      </c>
+      <c r="X131">
+        <v>6.7</v>
+      </c>
+      <c r="Y131">
+        <v>1.09</v>
+      </c>
+      <c r="Z131">
+        <v>2.05</v>
+      </c>
+      <c r="AA131">
+        <v>3.1</v>
+      </c>
+      <c r="AB131">
+        <v>3.3</v>
+      </c>
+      <c r="AC131">
+        <v>1.02</v>
+      </c>
+      <c r="AD131">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE131">
+        <v>1.24</v>
+      </c>
+      <c r="AF131">
+        <v>3.55</v>
+      </c>
+      <c r="AG131">
+        <v>1.95</v>
+      </c>
+      <c r="AH131">
+        <v>1.7</v>
+      </c>
+      <c r="AI131">
+        <v>1.73</v>
+      </c>
+      <c r="AJ131">
+        <v>2</v>
+      </c>
+      <c r="AK131">
+        <v>1.25</v>
+      </c>
+      <c r="AL131">
+        <v>1.27</v>
+      </c>
+      <c r="AM131">
+        <v>1.75</v>
+      </c>
+      <c r="AN131">
+        <v>1.1</v>
+      </c>
+      <c r="AO131">
+        <v>0.95</v>
+      </c>
+      <c r="AP131">
+        <v>1.05</v>
+      </c>
+      <c r="AQ131">
+        <v>1.05</v>
+      </c>
+      <c r="AR131">
+        <v>1.36</v>
+      </c>
+      <c r="AS131">
+        <v>1.24</v>
+      </c>
+      <c r="AT131">
+        <v>2.6</v>
+      </c>
+      <c r="AU131">
+        <v>12</v>
+      </c>
+      <c r="AV131">
+        <v>5</v>
+      </c>
+      <c r="AW131">
+        <v>21</v>
+      </c>
+      <c r="AX131">
+        <v>6</v>
+      </c>
+      <c r="AY131">
+        <v>33</v>
+      </c>
+      <c r="AZ131">
+        <v>11</v>
+      </c>
+      <c r="BA131">
+        <v>6</v>
+      </c>
+      <c r="BB131">
+        <v>3</v>
+      </c>
+      <c r="BC131">
+        <v>9</v>
+      </c>
+      <c r="BD131">
+        <v>1.55</v>
+      </c>
+      <c r="BE131">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF131">
+        <v>3</v>
+      </c>
+      <c r="BG131">
+        <v>1.24</v>
+      </c>
+      <c r="BH131">
+        <v>3.48</v>
+      </c>
+      <c r="BI131">
+        <v>1.45</v>
+      </c>
+      <c r="BJ131">
+        <v>2.48</v>
+      </c>
+      <c r="BK131">
+        <v>1.91</v>
+      </c>
+      <c r="BL131">
+        <v>1.8</v>
+      </c>
+      <c r="BM131">
+        <v>2.3</v>
+      </c>
+      <c r="BN131">
+        <v>1.52</v>
+      </c>
+      <c r="BO131">
+        <v>3.08</v>
+      </c>
+      <c r="BP131">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7330063</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45449.79166666666</v>
+      </c>
+      <c r="F132">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
+        <v>73</v>
+      </c>
+      <c r="H132" t="s">
+        <v>78</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>2</v>
+      </c>
+      <c r="K132">
+        <v>3</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>3</v>
+      </c>
+      <c r="N132">
+        <v>5</v>
+      </c>
+      <c r="O132" t="s">
+        <v>165</v>
+      </c>
+      <c r="P132" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q132">
+        <v>3.4</v>
+      </c>
+      <c r="R132">
+        <v>1.95</v>
+      </c>
+      <c r="S132">
+        <v>3.6</v>
+      </c>
+      <c r="T132">
+        <v>1.42</v>
+      </c>
+      <c r="U132">
+        <v>2.73</v>
+      </c>
+      <c r="V132">
+        <v>2.85</v>
+      </c>
+      <c r="W132">
+        <v>1.39</v>
+      </c>
+      <c r="X132">
+        <v>7.3</v>
+      </c>
+      <c r="Y132">
+        <v>1.07</v>
+      </c>
+      <c r="Z132">
+        <v>2.55</v>
+      </c>
+      <c r="AA132">
+        <v>2.75</v>
+      </c>
+      <c r="AB132">
+        <v>2.8</v>
+      </c>
+      <c r="AC132">
+        <v>1.03</v>
+      </c>
+      <c r="AD132">
+        <v>9</v>
+      </c>
+      <c r="AE132">
+        <v>1.29</v>
+      </c>
+      <c r="AF132">
+        <v>3.3</v>
+      </c>
+      <c r="AG132">
+        <v>2.4</v>
+      </c>
+      <c r="AH132">
+        <v>1.53</v>
+      </c>
+      <c r="AI132">
+        <v>2</v>
+      </c>
+      <c r="AJ132">
+        <v>1.73</v>
+      </c>
+      <c r="AK132">
+        <v>1.45</v>
+      </c>
+      <c r="AL132">
+        <v>1.35</v>
+      </c>
+      <c r="AM132">
+        <v>1.46</v>
+      </c>
+      <c r="AN132">
+        <v>0.9</v>
+      </c>
+      <c r="AO132">
+        <v>1.1</v>
+      </c>
+      <c r="AP132">
+        <v>0.86</v>
+      </c>
+      <c r="AQ132">
+        <v>1.18</v>
+      </c>
+      <c r="AR132">
+        <v>1.33</v>
+      </c>
+      <c r="AS132">
+        <v>1.61</v>
+      </c>
+      <c r="AT132">
+        <v>2.94</v>
+      </c>
+      <c r="AU132">
+        <v>5</v>
+      </c>
+      <c r="AV132">
+        <v>5</v>
+      </c>
+      <c r="AW132">
+        <v>10</v>
+      </c>
+      <c r="AX132">
+        <v>6</v>
+      </c>
+      <c r="AY132">
+        <v>15</v>
+      </c>
+      <c r="AZ132">
+        <v>11</v>
+      </c>
+      <c r="BA132">
+        <v>6</v>
+      </c>
+      <c r="BB132">
+        <v>3</v>
+      </c>
+      <c r="BC132">
+        <v>9</v>
+      </c>
+      <c r="BD132">
+        <v>2.1</v>
+      </c>
+      <c r="BE132">
+        <v>7.2</v>
+      </c>
+      <c r="BF132">
+        <v>2.07</v>
+      </c>
+      <c r="BG132">
+        <v>1.28</v>
+      </c>
+      <c r="BH132">
+        <v>3.2</v>
+      </c>
+      <c r="BI132">
+        <v>1.53</v>
+      </c>
+      <c r="BJ132">
+        <v>2.28</v>
+      </c>
+      <c r="BK132">
+        <v>1.95</v>
+      </c>
+      <c r="BL132">
+        <v>1.77</v>
+      </c>
+      <c r="BM132">
+        <v>2.51</v>
+      </c>
+      <c r="BN132">
+        <v>1.44</v>
+      </c>
+      <c r="BO132">
+        <v>3.42</v>
+      </c>
+      <c r="BP132">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -28230,13 +28230,13 @@
         <v>11</v>
       </c>
       <c r="BA132">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BB132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC132">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD132">
         <v>2.1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,9 @@
     <t>['40', '50']</t>
   </si>
   <si>
+    <t>['31', '81']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -710,6 +713,12 @@
   </si>
   <si>
     <t>['11', '70', '90+4']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['8', '32', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP130"/>
+  <dimension ref="A1:BP132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1408,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1536,7 +1545,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1617,7 +1626,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ3">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2026,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ5">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2360,7 +2369,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2566,7 +2575,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2647,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2772,7 +2781,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2850,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ9">
         <v>1.64</v>
@@ -2978,7 +2987,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3056,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ10">
         <v>1.41</v>
@@ -3184,7 +3193,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3596,7 +3605,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3674,7 +3683,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ13">
         <v>2.14</v>
@@ -3883,7 +3892,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ14">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AR14">
         <v>1.61</v>
@@ -4008,7 +4017,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4292,10 +4301,10 @@
         <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ16">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR16">
         <v>1.67</v>
@@ -4501,7 +4510,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ17">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR17">
         <v>1.03</v>
@@ -4626,7 +4635,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4832,7 +4841,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5038,7 +5047,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5116,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ20">
         <v>0.95</v>
@@ -5244,7 +5253,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5322,7 +5331,7 @@
         <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ21">
         <v>1.59</v>
@@ -5450,7 +5459,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5528,7 +5537,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ22">
         <v>2.14</v>
@@ -5862,7 +5871,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5940,7 +5949,7 @@
         <v>1.67</v>
       </c>
       <c r="AP24">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ24">
         <v>1.64</v>
@@ -6149,7 +6158,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ25">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AR25">
         <v>1.13</v>
@@ -6274,7 +6283,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6355,7 +6364,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ26">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR26">
         <v>1.5</v>
@@ -6561,7 +6570,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ27">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR27">
         <v>1.24</v>
@@ -6686,7 +6695,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6767,7 +6776,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ28">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR28">
         <v>1.3</v>
@@ -7382,7 +7391,7 @@
         <v>1.8</v>
       </c>
       <c r="AP31">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ31">
         <v>1.41</v>
@@ -7510,7 +7519,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7588,7 +7597,7 @@
         <v>1.6</v>
       </c>
       <c r="AP32">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ32">
         <v>1.59</v>
@@ -7922,7 +7931,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8000,7 +8009,7 @@
         <v>2.2</v>
       </c>
       <c r="AP34">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ34">
         <v>2.18</v>
@@ -8128,7 +8137,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8334,7 +8343,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8412,7 +8421,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ36">
         <v>1.33</v>
@@ -8540,7 +8549,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8621,7 +8630,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ37">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR37">
         <v>1.59</v>
@@ -9033,7 +9042,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ39">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AR39">
         <v>1.98</v>
@@ -9158,7 +9167,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9239,7 +9248,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ40">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR40">
         <v>1.42</v>
@@ -9364,7 +9373,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9570,7 +9579,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9651,7 +9660,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ42">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR42">
         <v>1.46</v>
@@ -9982,7 +9991,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10060,7 +10069,7 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ44">
         <v>1.33</v>
@@ -10394,7 +10403,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10472,7 +10481,7 @@
         <v>0.43</v>
       </c>
       <c r="AP46">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ46">
         <v>0.95</v>
@@ -10600,7 +10609,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10678,10 +10687,10 @@
         <v>0.57</v>
       </c>
       <c r="AP47">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ47">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AR47">
         <v>1.29</v>
@@ -10884,7 +10893,7 @@
         <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11093,7 +11102,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ49">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR49">
         <v>1.08</v>
@@ -11218,7 +11227,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11299,7 +11308,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ50">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR50">
         <v>1.99</v>
@@ -11424,7 +11433,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11917,7 +11926,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ53">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR53">
         <v>1.71</v>
@@ -12042,7 +12051,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12248,7 +12257,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12454,7 +12463,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12532,7 +12541,7 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ56">
         <v>2.18</v>
@@ -12660,7 +12669,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12741,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR57">
         <v>1.75</v>
@@ -12866,7 +12875,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13150,10 +13159,10 @@
         <v>1.11</v>
       </c>
       <c r="AP59">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ59">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AR59">
         <v>1.22</v>
@@ -13278,7 +13287,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13356,10 +13365,10 @@
         <v>1.4</v>
       </c>
       <c r="AP60">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ60">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR60">
         <v>1.2</v>
@@ -14180,10 +14189,10 @@
         <v>1.3</v>
       </c>
       <c r="AP64">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ64">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR64">
         <v>1.39</v>
@@ -14514,7 +14523,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14592,10 +14601,10 @@
         <v>1.18</v>
       </c>
       <c r="AP66">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ66">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR66">
         <v>1.22</v>
@@ -14720,7 +14729,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14801,7 +14810,7 @@
         <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -14926,7 +14935,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15416,7 +15425,7 @@
         <v>1.64</v>
       </c>
       <c r="AP70">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ70">
         <v>1.64</v>
@@ -15831,7 +15840,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ72">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AR72">
         <v>1.49</v>
@@ -15956,7 +15965,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16162,7 +16171,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16243,7 +16252,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ74">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR74">
         <v>1.3</v>
@@ -16368,7 +16377,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16446,7 +16455,7 @@
         <v>0.55</v>
       </c>
       <c r="AP75">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -16574,7 +16583,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16861,7 +16870,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ77">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR77">
         <v>1.95</v>
@@ -16986,7 +16995,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17192,7 +17201,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17270,7 +17279,7 @@
         <v>1.46</v>
       </c>
       <c r="AP79">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ79">
         <v>1.59</v>
@@ -17398,7 +17407,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17682,10 +17691,10 @@
         <v>1.08</v>
       </c>
       <c r="AP81">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ81">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR81">
         <v>1.24</v>
@@ -18016,7 +18025,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18094,7 +18103,7 @@
         <v>1.31</v>
       </c>
       <c r="AP83">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ83">
         <v>1.41</v>
@@ -18222,7 +18231,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18509,7 +18518,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ85">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AR85">
         <v>1.17</v>
@@ -18634,7 +18643,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18715,7 +18724,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ86">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR86">
         <v>1.44</v>
@@ -19333,7 +19342,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ89">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR89">
         <v>1.9</v>
@@ -19539,7 +19548,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ90">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR90">
         <v>1.32</v>
@@ -19664,7 +19673,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19742,7 +19751,7 @@
         <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ91">
         <v>1.41</v>
@@ -20076,7 +20085,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20360,7 +20369,7 @@
         <v>0.67</v>
       </c>
       <c r="AP94">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ94">
         <v>0.95</v>
@@ -20488,7 +20497,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20566,7 +20575,7 @@
         <v>1.67</v>
       </c>
       <c r="AP95">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ95">
         <v>1.64</v>
@@ -20772,7 +20781,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ96">
         <v>1.33</v>
@@ -20900,7 +20909,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -20981,7 +20990,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ97">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR97">
         <v>1.17</v>
@@ -21187,7 +21196,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ98">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AR98">
         <v>1.73</v>
@@ -21312,7 +21321,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21599,7 +21608,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ100">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR100">
         <v>1.51</v>
@@ -22011,7 +22020,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ102">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR102">
         <v>1.41</v>
@@ -22136,7 +22145,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22214,7 +22223,7 @@
         <v>0.65</v>
       </c>
       <c r="AP103">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ103">
         <v>0.95</v>
@@ -22342,7 +22351,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22548,7 +22557,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22832,7 +22841,7 @@
         <v>2.06</v>
       </c>
       <c r="AP106">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ106">
         <v>2.18</v>
@@ -22960,7 +22969,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23038,7 +23047,7 @@
         <v>2.06</v>
       </c>
       <c r="AP107">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ107">
         <v>2.14</v>
@@ -23166,7 +23175,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23244,7 +23253,7 @@
         <v>1.53</v>
       </c>
       <c r="AP108">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ108">
         <v>1.59</v>
@@ -23372,7 +23381,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q109">
         <v>2.63</v>
@@ -23453,7 +23462,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ109">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR109">
         <v>1.19</v>
@@ -23784,7 +23793,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -23862,10 +23871,10 @@
         <v>1.11</v>
       </c>
       <c r="AP111">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ111">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR111">
         <v>1.42</v>
@@ -23990,7 +23999,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24402,7 +24411,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -24483,7 +24492,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ114">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR114">
         <v>1.29</v>
@@ -24689,7 +24698,7 @@
         <v>1</v>
       </c>
       <c r="AQ115">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AR115">
         <v>1.5</v>
@@ -24814,7 +24823,7 @@
         <v>148</v>
       </c>
       <c r="P116" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -24892,7 +24901,7 @@
         <v>2.17</v>
       </c>
       <c r="AP116">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ116">
         <v>2.14</v>
@@ -25020,7 +25029,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25226,7 +25235,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25304,7 +25313,7 @@
         <v>2.05</v>
       </c>
       <c r="AP118">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ118">
         <v>2.18</v>
@@ -25432,7 +25441,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25716,7 +25725,7 @@
         <v>1.5</v>
       </c>
       <c r="AP120">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ120">
         <v>1.33</v>
@@ -25844,7 +25853,7 @@
         <v>159</v>
       </c>
       <c r="P121" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -25922,7 +25931,7 @@
         <v>0.95</v>
       </c>
       <c r="AP121">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AQ121">
         <v>1</v>
@@ -26050,7 +26059,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26256,7 +26265,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26462,7 +26471,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -26749,7 +26758,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ125">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR125">
         <v>1.76</v>
@@ -26874,7 +26883,7 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -26952,10 +26961,10 @@
         <v>1.15</v>
       </c>
       <c r="AP126">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ126">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR126">
         <v>1.55</v>
@@ -27080,7 +27089,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27286,7 +27295,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27492,7 +27501,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q129">
         <v>5.5</v>
@@ -27698,7 +27707,7 @@
         <v>115</v>
       </c>
       <c r="P130" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -27855,6 +27864,418 @@
       </c>
       <c r="BP130">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7330062</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45449.6875</v>
+      </c>
+      <c r="F131">
+        <v>22</v>
+      </c>
+      <c r="G131" t="s">
+        <v>70</v>
+      </c>
+      <c r="H131" t="s">
+        <v>77</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>89</v>
+      </c>
+      <c r="P131" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q131">
+        <v>3</v>
+      </c>
+      <c r="R131">
+        <v>2.1</v>
+      </c>
+      <c r="S131">
+        <v>3.6</v>
+      </c>
+      <c r="T131">
+        <v>1.38</v>
+      </c>
+      <c r="U131">
+        <v>2.9</v>
+      </c>
+      <c r="V131">
+        <v>2.7</v>
+      </c>
+      <c r="W131">
+        <v>1.43</v>
+      </c>
+      <c r="X131">
+        <v>6.7</v>
+      </c>
+      <c r="Y131">
+        <v>1.09</v>
+      </c>
+      <c r="Z131">
+        <v>2.05</v>
+      </c>
+      <c r="AA131">
+        <v>3.1</v>
+      </c>
+      <c r="AB131">
+        <v>3.3</v>
+      </c>
+      <c r="AC131">
+        <v>1.02</v>
+      </c>
+      <c r="AD131">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE131">
+        <v>1.24</v>
+      </c>
+      <c r="AF131">
+        <v>3.55</v>
+      </c>
+      <c r="AG131">
+        <v>1.95</v>
+      </c>
+      <c r="AH131">
+        <v>1.7</v>
+      </c>
+      <c r="AI131">
+        <v>1.73</v>
+      </c>
+      <c r="AJ131">
+        <v>2</v>
+      </c>
+      <c r="AK131">
+        <v>1.25</v>
+      </c>
+      <c r="AL131">
+        <v>1.27</v>
+      </c>
+      <c r="AM131">
+        <v>1.75</v>
+      </c>
+      <c r="AN131">
+        <v>1.1</v>
+      </c>
+      <c r="AO131">
+        <v>0.95</v>
+      </c>
+      <c r="AP131">
+        <v>1.05</v>
+      </c>
+      <c r="AQ131">
+        <v>1.05</v>
+      </c>
+      <c r="AR131">
+        <v>1.36</v>
+      </c>
+      <c r="AS131">
+        <v>1.24</v>
+      </c>
+      <c r="AT131">
+        <v>2.6</v>
+      </c>
+      <c r="AU131">
+        <v>12</v>
+      </c>
+      <c r="AV131">
+        <v>5</v>
+      </c>
+      <c r="AW131">
+        <v>21</v>
+      </c>
+      <c r="AX131">
+        <v>6</v>
+      </c>
+      <c r="AY131">
+        <v>33</v>
+      </c>
+      <c r="AZ131">
+        <v>11</v>
+      </c>
+      <c r="BA131">
+        <v>6</v>
+      </c>
+      <c r="BB131">
+        <v>3</v>
+      </c>
+      <c r="BC131">
+        <v>9</v>
+      </c>
+      <c r="BD131">
+        <v>1.55</v>
+      </c>
+      <c r="BE131">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF131">
+        <v>3</v>
+      </c>
+      <c r="BG131">
+        <v>1.24</v>
+      </c>
+      <c r="BH131">
+        <v>3.48</v>
+      </c>
+      <c r="BI131">
+        <v>1.45</v>
+      </c>
+      <c r="BJ131">
+        <v>2.48</v>
+      </c>
+      <c r="BK131">
+        <v>1.91</v>
+      </c>
+      <c r="BL131">
+        <v>1.8</v>
+      </c>
+      <c r="BM131">
+        <v>2.3</v>
+      </c>
+      <c r="BN131">
+        <v>1.52</v>
+      </c>
+      <c r="BO131">
+        <v>3.08</v>
+      </c>
+      <c r="BP131">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7330063</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45449.79166666666</v>
+      </c>
+      <c r="F132">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
+        <v>73</v>
+      </c>
+      <c r="H132" t="s">
+        <v>78</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>2</v>
+      </c>
+      <c r="K132">
+        <v>3</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>3</v>
+      </c>
+      <c r="N132">
+        <v>5</v>
+      </c>
+      <c r="O132" t="s">
+        <v>165</v>
+      </c>
+      <c r="P132" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q132">
+        <v>3.4</v>
+      </c>
+      <c r="R132">
+        <v>1.95</v>
+      </c>
+      <c r="S132">
+        <v>3.6</v>
+      </c>
+      <c r="T132">
+        <v>1.42</v>
+      </c>
+      <c r="U132">
+        <v>2.73</v>
+      </c>
+      <c r="V132">
+        <v>2.85</v>
+      </c>
+      <c r="W132">
+        <v>1.39</v>
+      </c>
+      <c r="X132">
+        <v>7.3</v>
+      </c>
+      <c r="Y132">
+        <v>1.07</v>
+      </c>
+      <c r="Z132">
+        <v>2.55</v>
+      </c>
+      <c r="AA132">
+        <v>2.75</v>
+      </c>
+      <c r="AB132">
+        <v>2.8</v>
+      </c>
+      <c r="AC132">
+        <v>1.03</v>
+      </c>
+      <c r="AD132">
+        <v>9</v>
+      </c>
+      <c r="AE132">
+        <v>1.29</v>
+      </c>
+      <c r="AF132">
+        <v>3.3</v>
+      </c>
+      <c r="AG132">
+        <v>2.4</v>
+      </c>
+      <c r="AH132">
+        <v>1.53</v>
+      </c>
+      <c r="AI132">
+        <v>2</v>
+      </c>
+      <c r="AJ132">
+        <v>1.73</v>
+      </c>
+      <c r="AK132">
+        <v>1.45</v>
+      </c>
+      <c r="AL132">
+        <v>1.35</v>
+      </c>
+      <c r="AM132">
+        <v>1.46</v>
+      </c>
+      <c r="AN132">
+        <v>0.9</v>
+      </c>
+      <c r="AO132">
+        <v>1.1</v>
+      </c>
+      <c r="AP132">
+        <v>0.86</v>
+      </c>
+      <c r="AQ132">
+        <v>1.18</v>
+      </c>
+      <c r="AR132">
+        <v>1.33</v>
+      </c>
+      <c r="AS132">
+        <v>1.61</v>
+      </c>
+      <c r="AT132">
+        <v>2.94</v>
+      </c>
+      <c r="AU132">
+        <v>5</v>
+      </c>
+      <c r="AV132">
+        <v>5</v>
+      </c>
+      <c r="AW132">
+        <v>10</v>
+      </c>
+      <c r="AX132">
+        <v>6</v>
+      </c>
+      <c r="AY132">
+        <v>15</v>
+      </c>
+      <c r="AZ132">
+        <v>11</v>
+      </c>
+      <c r="BA132">
+        <v>10</v>
+      </c>
+      <c r="BB132">
+        <v>2</v>
+      </c>
+      <c r="BC132">
+        <v>12</v>
+      </c>
+      <c r="BD132">
+        <v>2.1</v>
+      </c>
+      <c r="BE132">
+        <v>7.2</v>
+      </c>
+      <c r="BF132">
+        <v>2.07</v>
+      </c>
+      <c r="BG132">
+        <v>1.28</v>
+      </c>
+      <c r="BH132">
+        <v>3.2</v>
+      </c>
+      <c r="BI132">
+        <v>1.53</v>
+      </c>
+      <c r="BJ132">
+        <v>2.28</v>
+      </c>
+      <c r="BK132">
+        <v>1.95</v>
+      </c>
+      <c r="BL132">
+        <v>1.77</v>
+      </c>
+      <c r="BM132">
+        <v>2.51</v>
+      </c>
+      <c r="BN132">
+        <v>1.44</v>
+      </c>
+      <c r="BO132">
+        <v>3.42</v>
+      </c>
+      <c r="BP132">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -2659,13 +2659,13 @@
         <v>0.86</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AU8">
         <v>8</v>
@@ -2865,13 +2865,13 @@
         <v>1.64</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AU9">
         <v>8</v>
@@ -3071,13 +3071,13 @@
         <v>1.41</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AU10">
         <v>6</v>
@@ -3277,13 +3277,13 @@
         <v>1.59</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AU11">
         <v>7</v>
@@ -3483,13 +3483,13 @@
         <v>0.95</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AS12">
         <v>0.92</v>
       </c>
       <c r="AT12">
-        <v>0.92</v>
+        <v>2.22</v>
       </c>
       <c r="AU12">
         <v>5</v>
@@ -3692,10 +3692,10 @@
         <v>1.34</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AT13">
-        <v>1.34</v>
+        <v>3.69</v>
       </c>
       <c r="AU13">
         <v>7</v>
@@ -3895,13 +3895,13 @@
         <v>1.18</v>
       </c>
       <c r="AR14">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AS14">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="AT14">
-        <v>3.08</v>
+        <v>3.16</v>
       </c>
       <c r="AU14">
         <v>3</v>
@@ -4101,13 +4101,13 @@
         <v>1</v>
       </c>
       <c r="AR15">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AS15">
-        <v>0.87</v>
+        <v>1.32</v>
       </c>
       <c r="AT15">
-        <v>2.13</v>
+        <v>2.61</v>
       </c>
       <c r="AU15">
         <v>5</v>
@@ -4307,13 +4307,13 @@
         <v>1.05</v>
       </c>
       <c r="AR16">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AT16">
-        <v>1.67</v>
+        <v>2.86</v>
       </c>
       <c r="AU16">
         <v>4</v>
@@ -4513,13 +4513,13 @@
         <v>1.05</v>
       </c>
       <c r="AR17">
-        <v>1.03</v>
+        <v>1.4</v>
       </c>
       <c r="AS17">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="AT17">
-        <v>2.61</v>
+        <v>3.06</v>
       </c>
       <c r="AU17">
         <v>6</v>
@@ -4719,13 +4719,13 @@
         <v>2.18</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AS18">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="AT18">
-        <v>1.49</v>
+        <v>2.83</v>
       </c>
       <c r="AU18">
         <v>5</v>
@@ -4925,13 +4925,13 @@
         <v>1.41</v>
       </c>
       <c r="AR19">
-        <v>1.77</v>
+        <v>1.31</v>
       </c>
       <c r="AS19">
-        <v>1.77</v>
+        <v>1.42</v>
       </c>
       <c r="AT19">
-        <v>3.54</v>
+        <v>2.73</v>
       </c>
       <c r="AU19">
         <v>9</v>
@@ -5131,13 +5131,13 @@
         <v>0.95</v>
       </c>
       <c r="AR20">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AS20">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="AT20">
-        <v>3.06</v>
+        <v>3.03</v>
       </c>
       <c r="AU20">
         <v>4</v>
@@ -5337,13 +5337,13 @@
         <v>1.59</v>
       </c>
       <c r="AR21">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="AS21">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="AT21">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="AU21">
         <v>3</v>
@@ -5543,13 +5543,13 @@
         <v>2.14</v>
       </c>
       <c r="AR22">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AS22">
-        <v>1.52</v>
+        <v>1.94</v>
       </c>
       <c r="AT22">
-        <v>3.13</v>
+        <v>3.48</v>
       </c>
       <c r="AU22">
         <v>3</v>
@@ -5752,10 +5752,10 @@
         <v>1.65</v>
       </c>
       <c r="AS23">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AT23">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="AU23">
         <v>5</v>
@@ -5955,13 +5955,13 @@
         <v>1.64</v>
       </c>
       <c r="AR24">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AS24">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AT24">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="AU24">
         <v>5</v>
@@ -6161,13 +6161,13 @@
         <v>1.18</v>
       </c>
       <c r="AR25">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="AS25">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="AT25">
-        <v>2.76</v>
+        <v>2.67</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6367,13 +6367,13 @@
         <v>1.05</v>
       </c>
       <c r="AR26">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AS26">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="AT26">
-        <v>3.09</v>
+        <v>2.84</v>
       </c>
       <c r="AU26">
         <v>4</v>
@@ -6573,13 +6573,13 @@
         <v>1.05</v>
       </c>
       <c r="AR27">
-        <v>1.24</v>
+        <v>1.52</v>
       </c>
       <c r="AS27">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="AT27">
-        <v>2.37</v>
+        <v>2.75</v>
       </c>
       <c r="AU27">
         <v>2</v>
@@ -6779,13 +6779,13 @@
         <v>0.86</v>
       </c>
       <c r="AR28">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AS28">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="AT28">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU28">
         <v>4</v>
@@ -6985,13 +6985,13 @@
         <v>2.18</v>
       </c>
       <c r="AR29">
-        <v>2.35</v>
+        <v>2.13</v>
       </c>
       <c r="AS29">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AT29">
-        <v>4</v>
+        <v>3.68</v>
       </c>
       <c r="AU29">
         <v>7</v>
@@ -7191,13 +7191,13 @@
         <v>1</v>
       </c>
       <c r="AR30">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AS30">
-        <v>1.09</v>
+        <v>1.54</v>
       </c>
       <c r="AT30">
-        <v>2.56</v>
+        <v>3.03</v>
       </c>
       <c r="AU30">
         <v>7</v>
@@ -7397,13 +7397,13 @@
         <v>1.41</v>
       </c>
       <c r="AR31">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AS31">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="AT31">
-        <v>3.09</v>
+        <v>2.71</v>
       </c>
       <c r="AU31">
         <v>5</v>
@@ -7603,10 +7603,10 @@
         <v>1.59</v>
       </c>
       <c r="AR32">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="AS32">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AT32">
         <v>2.77</v>
@@ -7809,13 +7809,13 @@
         <v>2.14</v>
       </c>
       <c r="AR33">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="AS33">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="AT33">
-        <v>3.36</v>
+        <v>3.41</v>
       </c>
       <c r="AU33">
         <v>5</v>
@@ -8015,13 +8015,13 @@
         <v>2.18</v>
       </c>
       <c r="AR34">
-        <v>1.7</v>
+        <v>1.38</v>
       </c>
       <c r="AS34">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="AT34">
-        <v>3.13</v>
+        <v>2.82</v>
       </c>
       <c r="AU34">
         <v>2</v>
@@ -8221,13 +8221,13 @@
         <v>0.95</v>
       </c>
       <c r="AR35">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AS35">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AT35">
-        <v>3.27</v>
+        <v>2.83</v>
       </c>
       <c r="AU35">
         <v>3</v>
@@ -8427,13 +8427,13 @@
         <v>1.33</v>
       </c>
       <c r="AR36">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AS36">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="AT36">
-        <v>2.39</v>
+        <v>2.47</v>
       </c>
       <c r="AU36">
         <v>3</v>
@@ -8633,13 +8633,13 @@
         <v>0.86</v>
       </c>
       <c r="AR37">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AS37">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AT37">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="AU37">
         <v>3</v>
@@ -8839,13 +8839,13 @@
         <v>1</v>
       </c>
       <c r="AR38">
-        <v>0.99</v>
+        <v>1.06</v>
       </c>
       <c r="AS38">
-        <v>1.16</v>
+        <v>1.45</v>
       </c>
       <c r="AT38">
-        <v>2.15</v>
+        <v>2.51</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -9045,13 +9045,13 @@
         <v>1.18</v>
       </c>
       <c r="AR39">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AS39">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="AT39">
-        <v>3.15</v>
+        <v>3.31</v>
       </c>
       <c r="AU39">
         <v>7</v>
@@ -9251,13 +9251,13 @@
         <v>1.05</v>
       </c>
       <c r="AR40">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="AS40">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AT40">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="AU40">
         <v>4</v>
@@ -9457,13 +9457,13 @@
         <v>1.64</v>
       </c>
       <c r="AR41">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="AS41">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="AT41">
-        <v>2.69</v>
+        <v>2.83</v>
       </c>
       <c r="AU41">
         <v>5</v>
@@ -9663,13 +9663,13 @@
         <v>1.05</v>
       </c>
       <c r="AR42">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AS42">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="AT42">
-        <v>2.99</v>
+        <v>2.85</v>
       </c>
       <c r="AU42">
         <v>6</v>
@@ -9869,13 +9869,13 @@
         <v>2.14</v>
       </c>
       <c r="AR43">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="AS43">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="AT43">
-        <v>3.34</v>
+        <v>3.46</v>
       </c>
       <c r="AU43">
         <v>4</v>
@@ -10075,13 +10075,13 @@
         <v>1.33</v>
       </c>
       <c r="AR44">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AS44">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT44">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU44">
         <v>2</v>
@@ -10281,13 +10281,13 @@
         <v>1.59</v>
       </c>
       <c r="AR45">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AS45">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="AT45">
-        <v>2.87</v>
+        <v>2.89</v>
       </c>
       <c r="AU45">
         <v>3</v>
@@ -10487,13 +10487,13 @@
         <v>0.95</v>
       </c>
       <c r="AR46">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="AS46">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AT46">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="AU46">
         <v>7</v>
@@ -10693,13 +10693,13 @@
         <v>1.18</v>
       </c>
       <c r="AR47">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AS47">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="AT47">
-        <v>2.41</v>
+        <v>2.58</v>
       </c>
       <c r="AU47">
         <v>2</v>
@@ -10899,13 +10899,13 @@
         <v>1</v>
       </c>
       <c r="AR48">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AS48">
-        <v>1.1</v>
+        <v>1.38</v>
       </c>
       <c r="AT48">
-        <v>2.5</v>
+        <v>2.69</v>
       </c>
       <c r="AU48">
         <v>5</v>
@@ -11105,13 +11105,13 @@
         <v>0.86</v>
       </c>
       <c r="AR49">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AS49">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AT49">
-        <v>2.61</v>
+        <v>2.48</v>
       </c>
       <c r="AU49">
         <v>7</v>
@@ -11311,13 +11311,13 @@
         <v>1.05</v>
       </c>
       <c r="AR50">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="AS50">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT50">
-        <v>3.37</v>
+        <v>3.22</v>
       </c>
       <c r="AU50">
         <v>9</v>
@@ -11517,13 +11517,13 @@
         <v>1.64</v>
       </c>
       <c r="AR51">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AS51">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT51">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="AU51">
         <v>3</v>
@@ -11723,13 +11723,13 @@
         <v>1.41</v>
       </c>
       <c r="AR52">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="AS52">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="AT52">
-        <v>3.18</v>
+        <v>3</v>
       </c>
       <c r="AU52">
         <v>5</v>
@@ -11929,13 +11929,13 @@
         <v>1.05</v>
       </c>
       <c r="AR53">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="AS53">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AT53">
-        <v>3.11</v>
+        <v>2.85</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12135,13 +12135,13 @@
         <v>2.14</v>
       </c>
       <c r="AR54">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="AS54">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AT54">
-        <v>3.45</v>
+        <v>3.48</v>
       </c>
       <c r="AU54">
         <v>3</v>
@@ -12341,13 +12341,13 @@
         <v>1.33</v>
       </c>
       <c r="AR55">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="AS55">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="AT55">
-        <v>2.41</v>
+        <v>2.53</v>
       </c>
       <c r="AU55">
         <v>5</v>
@@ -12547,13 +12547,13 @@
         <v>2.18</v>
       </c>
       <c r="AR56">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AS56">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="AT56">
-        <v>2.73</v>
+        <v>2.86</v>
       </c>
       <c r="AU56">
         <v>6</v>
@@ -12753,13 +12753,13 @@
         <v>1.05</v>
       </c>
       <c r="AR57">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AS57">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AT57">
-        <v>3.05</v>
+        <v>2.59</v>
       </c>
       <c r="AU57">
         <v>4</v>
@@ -12959,13 +12959,13 @@
         <v>0.95</v>
       </c>
       <c r="AR58">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AS58">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AT58">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU58">
         <v>7</v>
@@ -13165,13 +13165,13 @@
         <v>1.18</v>
       </c>
       <c r="AR59">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AS59">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AT59">
-        <v>2.48</v>
+        <v>2.61</v>
       </c>
       <c r="AU59">
         <v>5</v>
@@ -13371,13 +13371,13 @@
         <v>1.05</v>
       </c>
       <c r="AR60">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AS60">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AT60">
-        <v>2.56</v>
+        <v>2.51</v>
       </c>
       <c r="AU60">
         <v>6</v>
@@ -13577,13 +13577,13 @@
         <v>1.59</v>
       </c>
       <c r="AR61">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AS61">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AT61">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="AU61">
         <v>3</v>
@@ -13783,13 +13783,13 @@
         <v>1</v>
       </c>
       <c r="AR62">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AS62">
-        <v>1.07</v>
+        <v>1.32</v>
       </c>
       <c r="AT62">
-        <v>3.07</v>
+        <v>3.25</v>
       </c>
       <c r="AU62">
         <v>6</v>
@@ -13989,13 +13989,13 @@
         <v>1.64</v>
       </c>
       <c r="AR63">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="AS63">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT63">
-        <v>3.02</v>
+        <v>2.88</v>
       </c>
       <c r="AU63">
         <v>9</v>
@@ -14195,10 +14195,10 @@
         <v>0.86</v>
       </c>
       <c r="AR64">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AS64">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="AT64">
         <v>2.73</v>
@@ -14401,13 +14401,13 @@
         <v>1.41</v>
       </c>
       <c r="AR65">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="AS65">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="AT65">
-        <v>2.9</v>
+        <v>2.76</v>
       </c>
       <c r="AU65">
         <v>3</v>
@@ -14607,13 +14607,13 @@
         <v>0.86</v>
       </c>
       <c r="AR66">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AS66">
         <v>1.39</v>
       </c>
       <c r="AT66">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="AU66">
         <v>4</v>
@@ -14813,13 +14813,13 @@
         <v>1.05</v>
       </c>
       <c r="AR67">
-        <v>1.64</v>
+        <v>1.34</v>
       </c>
       <c r="AS67">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AT67">
-        <v>3.06</v>
+        <v>2.67</v>
       </c>
       <c r="AU67">
         <v>6</v>
@@ -15019,13 +15019,13 @@
         <v>2.14</v>
       </c>
       <c r="AR68">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="AS68">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AT68">
-        <v>3.05</v>
+        <v>3.18</v>
       </c>
       <c r="AU68">
         <v>4</v>
@@ -15225,13 +15225,13 @@
         <v>1.41</v>
       </c>
       <c r="AR69">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="AS69">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AT69">
-        <v>3.21</v>
+        <v>3.1</v>
       </c>
       <c r="AU69">
         <v>7</v>
@@ -15431,13 +15431,13 @@
         <v>1.64</v>
       </c>
       <c r="AR70">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AS70">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AT70">
-        <v>2.69</v>
+        <v>2.66</v>
       </c>
       <c r="AU70">
         <v>3</v>
@@ -15637,13 +15637,13 @@
         <v>1.59</v>
       </c>
       <c r="AR71">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AS71">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AT71">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="AU71">
         <v>7</v>
@@ -15843,13 +15843,13 @@
         <v>1.18</v>
       </c>
       <c r="AR72">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="AS72">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AT72">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="AU72">
         <v>5</v>
@@ -16049,13 +16049,13 @@
         <v>1.33</v>
       </c>
       <c r="AR73">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AS73">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT73">
-        <v>2.34</v>
+        <v>2.53</v>
       </c>
       <c r="AU73">
         <v>4</v>
@@ -16255,13 +16255,13 @@
         <v>1.05</v>
       </c>
       <c r="AR74">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="AS74">
         <v>1.24</v>
       </c>
       <c r="AT74">
-        <v>2.54</v>
+        <v>2.63</v>
       </c>
       <c r="AU74">
         <v>6</v>
@@ -16461,13 +16461,13 @@
         <v>1</v>
       </c>
       <c r="AR75">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AS75">
-        <v>1.15</v>
+        <v>1.38</v>
       </c>
       <c r="AT75">
-        <v>2.54</v>
+        <v>2.74</v>
       </c>
       <c r="AU75">
         <v>5</v>
@@ -16667,13 +16667,13 @@
         <v>2.18</v>
       </c>
       <c r="AR76">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="AS76">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="AT76">
-        <v>2.96</v>
+        <v>3.01</v>
       </c>
       <c r="AU76">
         <v>3</v>
@@ -16873,13 +16873,13 @@
         <v>1.05</v>
       </c>
       <c r="AR77">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AS77">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT77">
-        <v>3.36</v>
+        <v>3.2</v>
       </c>
       <c r="AU77">
         <v>5</v>
@@ -17079,13 +17079,13 @@
         <v>2.18</v>
       </c>
       <c r="AR78">
-        <v>1.66</v>
+        <v>1.39</v>
       </c>
       <c r="AS78">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="AT78">
-        <v>3.17</v>
+        <v>2.99</v>
       </c>
       <c r="AU78">
         <v>5</v>
@@ -17285,13 +17285,13 @@
         <v>1.59</v>
       </c>
       <c r="AR79">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AS79">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AT79">
-        <v>2.71</v>
+        <v>2.81</v>
       </c>
       <c r="AU79">
         <v>4</v>
@@ -17491,13 +17491,13 @@
         <v>2.14</v>
       </c>
       <c r="AR80">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AS80">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="AT80">
-        <v>3.17</v>
+        <v>3.16</v>
       </c>
       <c r="AU80">
         <v>0</v>
@@ -17697,13 +17697,13 @@
         <v>0.86</v>
       </c>
       <c r="AR81">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AS81">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AT81">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
       <c r="AU81">
         <v>7</v>
@@ -17903,13 +17903,13 @@
         <v>0.95</v>
       </c>
       <c r="AR82">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AS82">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AT82">
-        <v>3.05</v>
+        <v>2.89</v>
       </c>
       <c r="AU82">
         <v>10</v>
@@ -18109,13 +18109,13 @@
         <v>1.41</v>
       </c>
       <c r="AR83">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AS83">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AT83">
-        <v>2.69</v>
+        <v>2.72</v>
       </c>
       <c r="AU83">
         <v>5</v>
@@ -18315,13 +18315,13 @@
         <v>1.64</v>
       </c>
       <c r="AR84">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AS84">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT84">
-        <v>3.06</v>
+        <v>2.77</v>
       </c>
       <c r="AU84">
         <v>4</v>
@@ -18521,13 +18521,13 @@
         <v>1.18</v>
       </c>
       <c r="AR85">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AS85">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="AT85">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="AU85">
         <v>6</v>
@@ -18727,10 +18727,10 @@
         <v>1.05</v>
       </c>
       <c r="AR86">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AS86">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AT86">
         <v>2.67</v>
@@ -18936,10 +18936,10 @@
         <v>1.51</v>
       </c>
       <c r="AS87">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="AT87">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="AU87">
         <v>5</v>
@@ -19139,13 +19139,13 @@
         <v>2.18</v>
       </c>
       <c r="AR88">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AS88">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="AT88">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="AU88">
         <v>3</v>
@@ -19345,13 +19345,13 @@
         <v>0.86</v>
       </c>
       <c r="AR89">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AS89">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="AT89">
-        <v>3.12</v>
+        <v>3.15</v>
       </c>
       <c r="AU89">
         <v>5</v>
@@ -19551,13 +19551,13 @@
         <v>1.05</v>
       </c>
       <c r="AR90">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="AS90">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AT90">
-        <v>2.61</v>
+        <v>2.78</v>
       </c>
       <c r="AU90">
         <v>4</v>
@@ -19757,13 +19757,13 @@
         <v>1.41</v>
       </c>
       <c r="AR91">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="AS91">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="AT91">
-        <v>2.94</v>
+        <v>2.79</v>
       </c>
       <c r="AU91">
         <v>4</v>
@@ -19963,13 +19963,13 @@
         <v>1.59</v>
       </c>
       <c r="AR92">
-        <v>1.54</v>
+        <v>1.3</v>
       </c>
       <c r="AS92">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AT92">
-        <v>2.99</v>
+        <v>2.78</v>
       </c>
       <c r="AU92">
         <v>4</v>
@@ -20169,13 +20169,13 @@
         <v>2.14</v>
       </c>
       <c r="AR93">
-        <v>1.77</v>
+        <v>1.6</v>
       </c>
       <c r="AS93">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AT93">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU93">
         <v>6</v>
@@ -20375,13 +20375,13 @@
         <v>0.95</v>
       </c>
       <c r="AR94">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AS94">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AT94">
-        <v>2.51</v>
+        <v>2.46</v>
       </c>
       <c r="AU94">
         <v>3</v>
@@ -20581,13 +20581,13 @@
         <v>1.64</v>
       </c>
       <c r="AR95">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AS95">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="AT95">
-        <v>2.97</v>
+        <v>2.73</v>
       </c>
       <c r="AU95">
         <v>4</v>
@@ -20787,13 +20787,13 @@
         <v>1.33</v>
       </c>
       <c r="AR96">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="AS96">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="AT96">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="AU96">
         <v>9</v>
@@ -20993,13 +20993,13 @@
         <v>1.05</v>
       </c>
       <c r="AR97">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AS97">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AT97">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AU97">
         <v>7</v>
@@ -21199,13 +21199,13 @@
         <v>1.18</v>
       </c>
       <c r="AR98">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="AS98">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AT98">
-        <v>3.34</v>
+        <v>3.14</v>
       </c>
       <c r="AU98">
         <v>8</v>
@@ -21405,13 +21405,13 @@
         <v>1</v>
       </c>
       <c r="AR99">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AS99">
-        <v>1.09</v>
+        <v>1.29</v>
       </c>
       <c r="AT99">
-        <v>2.27</v>
+        <v>2.49</v>
       </c>
       <c r="AU99">
         <v>5</v>
@@ -21611,13 +21611,13 @@
         <v>1.05</v>
       </c>
       <c r="AR100">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="AS100">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AT100">
-        <v>2.78</v>
+        <v>2.81</v>
       </c>
       <c r="AU100">
         <v>4</v>
@@ -21817,13 +21817,13 @@
         <v>1.64</v>
       </c>
       <c r="AR101">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="AS101">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AT101">
-        <v>3.44</v>
+        <v>3.24</v>
       </c>
       <c r="AU101">
         <v>2</v>
@@ -22023,13 +22023,13 @@
         <v>0.86</v>
       </c>
       <c r="AR102">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="AS102">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="AT102">
-        <v>2.61</v>
+        <v>2.77</v>
       </c>
       <c r="AU102">
         <v>-1</v>
@@ -22229,13 +22229,13 @@
         <v>0.95</v>
       </c>
       <c r="AR103">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AS103">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="AT103">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="AU103">
         <v>5</v>
@@ -22435,13 +22435,13 @@
         <v>1.33</v>
       </c>
       <c r="AR104">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="AS104">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT104">
-        <v>2.71</v>
+        <v>2.51</v>
       </c>
       <c r="AU104">
         <v>7</v>
@@ -22641,13 +22641,13 @@
         <v>1.41</v>
       </c>
       <c r="AR105">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="AS105">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="AT105">
-        <v>2.81</v>
+        <v>2.9</v>
       </c>
       <c r="AU105">
         <v>10</v>
@@ -22847,13 +22847,13 @@
         <v>2.18</v>
       </c>
       <c r="AR106">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AS106">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AT106">
-        <v>2.66</v>
+        <v>2.83</v>
       </c>
       <c r="AU106">
         <v>2</v>
@@ -23053,13 +23053,13 @@
         <v>2.14</v>
       </c>
       <c r="AR107">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AS107">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AT107">
-        <v>3.23</v>
+        <v>3.29</v>
       </c>
       <c r="AU107">
         <v>3</v>
@@ -23259,13 +23259,13 @@
         <v>1.59</v>
       </c>
       <c r="AR108">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="AS108">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AT108">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="AU108">
         <v>3</v>
@@ -23465,13 +23465,13 @@
         <v>1.05</v>
       </c>
       <c r="AR109">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="AS109">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT109">
-        <v>2.41</v>
+        <v>2.53</v>
       </c>
       <c r="AU109">
         <v>5</v>
@@ -23671,13 +23671,13 @@
         <v>1</v>
       </c>
       <c r="AR110">
-        <v>1.76</v>
+        <v>1.6</v>
       </c>
       <c r="AS110">
-        <v>1.14</v>
+        <v>1.32</v>
       </c>
       <c r="AT110">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="AU110">
         <v>8</v>
@@ -23877,13 +23877,13 @@
         <v>1.05</v>
       </c>
       <c r="AR111">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AS111">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AT111">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="AU111">
         <v>14</v>
@@ -24083,13 +24083,13 @@
         <v>1.64</v>
       </c>
       <c r="AR112">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AS112">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="AT112">
-        <v>3.08</v>
+        <v>2.98</v>
       </c>
       <c r="AU112">
         <v>3</v>
@@ -24289,13 +24289,13 @@
         <v>1.41</v>
       </c>
       <c r="AR113">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AS113">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AT113">
-        <v>3.34</v>
+        <v>3.25</v>
       </c>
       <c r="AU113">
         <v>6</v>
@@ -24495,13 +24495,13 @@
         <v>0.86</v>
       </c>
       <c r="AR114">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AS114">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AT114">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AU114">
         <v>0</v>
@@ -24701,13 +24701,13 @@
         <v>1.18</v>
       </c>
       <c r="AR115">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AS115">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="AT115">
-        <v>3.04</v>
+        <v>2.85</v>
       </c>
       <c r="AU115">
         <v>12</v>
@@ -24907,13 +24907,13 @@
         <v>2.14</v>
       </c>
       <c r="AR116">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AS116">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="AT116">
-        <v>2.89</v>
+        <v>2.96</v>
       </c>
       <c r="AU116">
         <v>2</v>
@@ -25113,13 +25113,13 @@
         <v>1.59</v>
       </c>
       <c r="AR117">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="AS117">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AT117">
-        <v>2.89</v>
+        <v>2.91</v>
       </c>
       <c r="AU117">
         <v>2</v>
@@ -25319,13 +25319,13 @@
         <v>2.18</v>
       </c>
       <c r="AR118">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="AS118">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="AT118">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="AU118">
         <v>2</v>
@@ -25525,13 +25525,13 @@
         <v>0.95</v>
       </c>
       <c r="AR119">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AS119">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AT119">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="AU119">
         <v>7</v>
@@ -25731,13 +25731,13 @@
         <v>1.33</v>
       </c>
       <c r="AR120">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="AS120">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT120">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU120">
         <v>2</v>
@@ -25937,13 +25937,13 @@
         <v>1</v>
       </c>
       <c r="AR121">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="AS121">
-        <v>1.12</v>
+        <v>1.37</v>
       </c>
       <c r="AT121">
-        <v>2.22</v>
+        <v>2.54</v>
       </c>
       <c r="AU121">
         <v>6</v>
@@ -26146,10 +26146,10 @@
         <v>1.22</v>
       </c>
       <c r="AS122">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AT122">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="AU122">
         <v>4</v>
@@ -26349,13 +26349,13 @@
         <v>1.64</v>
       </c>
       <c r="AR123">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AS123">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT123">
-        <v>2.75</v>
+        <v>2.68</v>
       </c>
       <c r="AU123">
         <v>3</v>
@@ -26555,13 +26555,13 @@
         <v>1.59</v>
       </c>
       <c r="AR124">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="AS124">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="AT124">
-        <v>3.19</v>
+        <v>3.22</v>
       </c>
       <c r="AU124">
         <v>4</v>
@@ -26761,13 +26761,13 @@
         <v>0.86</v>
       </c>
       <c r="AR125">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
       <c r="AS125">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AT125">
-        <v>2.94</v>
+        <v>2.87</v>
       </c>
       <c r="AU125">
         <v>4</v>
@@ -26967,13 +26967,13 @@
         <v>1.05</v>
       </c>
       <c r="AR126">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AS126">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AT126">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="AU126">
         <v>7</v>
@@ -27173,13 +27173,13 @@
         <v>1.33</v>
       </c>
       <c r="AR127">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="AS127">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="AT127">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="AU127">
         <v>6</v>
@@ -27379,13 +27379,13 @@
         <v>0.95</v>
       </c>
       <c r="AR128">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="AS128">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AT128">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="AU128">
         <v>6</v>
@@ -27585,13 +27585,13 @@
         <v>2.14</v>
       </c>
       <c r="AR129">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AS129">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="AT129">
-        <v>3.39</v>
+        <v>3.18</v>
       </c>
       <c r="AU129">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>2.18</v>
       </c>
       <c r="AR130">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="AS130">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="AT130">
-        <v>2.92</v>
+        <v>3.08</v>
       </c>
       <c r="AU130">
         <v>4</v>
@@ -27997,13 +27997,13 @@
         <v>1.05</v>
       </c>
       <c r="AR131">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AS131">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AT131">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="AU131">
         <v>12</v>
@@ -28203,13 +28203,13 @@
         <v>1.18</v>
       </c>
       <c r="AR132">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AS132">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT132">
-        <v>2.94</v>
+        <v>2.81</v>
       </c>
       <c r="AU132">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -439,10 +439,10 @@
     <t>['79']</t>
   </si>
   <si>
-    <t>['25', '32', '85']</t>
+    <t>['9', '89']</t>
   </si>
   <si>
-    <t>['9', '89']</t>
+    <t>['25', '32', '85']</t>
   </si>
   <si>
     <t>['15', '27', '50', '75']</t>
@@ -688,10 +688,10 @@
     <t>['59', '90+3']</t>
   </si>
   <si>
-    <t>['20', '34', '51', '84', '90+6']</t>
+    <t>['45+1']</t>
   </si>
   <si>
-    <t>['45+1']</t>
+    <t>['20', '34', '51', '84', '90+6']</t>
   </si>
   <si>
     <t>['77']</t>
@@ -709,10 +709,10 @@
     <t>['6', '42', '45+4', '74', '81', '85']</t>
   </si>
   <si>
-    <t>['36', '73']</t>
+    <t>['11', '70', '90+4']</t>
   </si>
   <si>
-    <t>['11', '70', '90+4']</t>
+    <t>['36', '73']</t>
   </si>
   <si>
     <t>['12']</t>
@@ -18807,7 +18807,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7330021</v>
+        <v>7330024</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18822,190 +18822,190 @@
         <v>15</v>
       </c>
       <c r="G87" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H87" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O87" t="s">
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="Q87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R87">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S87">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="T87">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="U87">
-        <v>2.69</v>
+        <v>3.02</v>
       </c>
       <c r="V87">
-        <v>3.28</v>
+        <v>2.86</v>
       </c>
       <c r="W87">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="X87">
-        <v>8.4</v>
+        <v>7.32</v>
       </c>
       <c r="Y87">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z87">
-        <v>2</v>
+        <v>3.65</v>
       </c>
       <c r="AA87">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AB87">
-        <v>3.5</v>
+        <v>1.83</v>
       </c>
       <c r="AC87">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AD87">
-        <v>7.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE87">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="AF87">
-        <v>2.79</v>
+        <v>3.34</v>
       </c>
       <c r="AG87">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="AH87">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="AI87">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AJ87">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AK87">
+        <v>1.84</v>
+      </c>
+      <c r="AL87">
+        <v>1.26</v>
+      </c>
+      <c r="AM87">
+        <v>1.22</v>
+      </c>
+      <c r="AN87">
+        <v>1.38</v>
+      </c>
+      <c r="AO87">
+        <v>2.29</v>
+      </c>
+      <c r="AP87">
+        <v>1.33</v>
+      </c>
+      <c r="AQ87">
+        <v>2.18</v>
+      </c>
+      <c r="AR87">
         <v>1.24</v>
       </c>
-      <c r="AL87">
-        <v>1.3</v>
-      </c>
-      <c r="AM87">
-        <v>1.7</v>
-      </c>
-      <c r="AN87">
-        <v>1.29</v>
-      </c>
-      <c r="AO87">
-        <v>0.71</v>
-      </c>
-      <c r="AP87">
-        <v>1.41</v>
-      </c>
-      <c r="AQ87">
-        <v>1</v>
-      </c>
-      <c r="AR87">
-        <v>1.51</v>
-      </c>
       <c r="AS87">
-        <v>1.37</v>
+        <v>1.68</v>
       </c>
       <c r="AT87">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="AU87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AY87">
         <v>5</v>
       </c>
       <c r="AZ87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB87">
+        <v>3</v>
+      </c>
+      <c r="BC87">
         <v>4</v>
       </c>
-      <c r="BC87">
-        <v>7</v>
-      </c>
       <c r="BD87">
-        <v>1.68</v>
+        <v>2.37</v>
       </c>
       <c r="BE87">
-        <v>7.8</v>
+        <v>7.41</v>
       </c>
       <c r="BF87">
-        <v>2.8</v>
+        <v>1.91</v>
       </c>
       <c r="BG87">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="BH87">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="BI87">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="BJ87">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="BK87">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="BL87">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="BM87">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="BN87">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="BO87">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="BP87">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="88" spans="1:68">
@@ -19013,7 +19013,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7330024</v>
+        <v>7330021</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -19028,190 +19028,190 @@
         <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H88" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O88" t="s">
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q88">
+        <v>3</v>
+      </c>
+      <c r="R88">
+        <v>2.05</v>
+      </c>
+      <c r="S88">
         <v>4</v>
       </c>
-      <c r="R88">
-        <v>2.1</v>
-      </c>
-      <c r="S88">
-        <v>2.75</v>
-      </c>
       <c r="T88">
+        <v>1.45</v>
+      </c>
+      <c r="U88">
+        <v>2.69</v>
+      </c>
+      <c r="V88">
+        <v>3.28</v>
+      </c>
+      <c r="W88">
+        <v>1.32</v>
+      </c>
+      <c r="X88">
+        <v>8.4</v>
+      </c>
+      <c r="Y88">
+        <v>1.05</v>
+      </c>
+      <c r="Z88">
+        <v>2</v>
+      </c>
+      <c r="AA88">
+        <v>3</v>
+      </c>
+      <c r="AB88">
+        <v>3.5</v>
+      </c>
+      <c r="AC88">
+        <v>1.05</v>
+      </c>
+      <c r="AD88">
+        <v>7.3</v>
+      </c>
+      <c r="AE88">
+        <v>1.36</v>
+      </c>
+      <c r="AF88">
+        <v>2.79</v>
+      </c>
+      <c r="AG88">
+        <v>2.15</v>
+      </c>
+      <c r="AH88">
+        <v>1.61</v>
+      </c>
+      <c r="AI88">
+        <v>1.91</v>
+      </c>
+      <c r="AJ88">
+        <v>1.8</v>
+      </c>
+      <c r="AK88">
+        <v>1.24</v>
+      </c>
+      <c r="AL88">
+        <v>1.3</v>
+      </c>
+      <c r="AM88">
+        <v>1.7</v>
+      </c>
+      <c r="AN88">
+        <v>1.29</v>
+      </c>
+      <c r="AO88">
+        <v>0.71</v>
+      </c>
+      <c r="AP88">
+        <v>1.41</v>
+      </c>
+      <c r="AQ88">
+        <v>1</v>
+      </c>
+      <c r="AR88">
+        <v>1.51</v>
+      </c>
+      <c r="AS88">
         <v>1.37</v>
       </c>
-      <c r="U88">
-        <v>3.02</v>
-      </c>
-      <c r="V88">
-        <v>2.86</v>
-      </c>
-      <c r="W88">
-        <v>1.4</v>
-      </c>
-      <c r="X88">
-        <v>7.32</v>
-      </c>
-      <c r="Y88">
-        <v>1.06</v>
-      </c>
-      <c r="Z88">
-        <v>3.65</v>
-      </c>
-      <c r="AA88">
-        <v>3.3</v>
-      </c>
-      <c r="AB88">
-        <v>1.83</v>
-      </c>
-      <c r="AC88">
-        <v>1.01</v>
-      </c>
-      <c r="AD88">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AE88">
-        <v>1.26</v>
-      </c>
-      <c r="AF88">
-        <v>3.34</v>
-      </c>
-      <c r="AG88">
-        <v>1.9</v>
-      </c>
-      <c r="AH88">
-        <v>1.8</v>
-      </c>
-      <c r="AI88">
-        <v>1.83</v>
-      </c>
-      <c r="AJ88">
-        <v>1.83</v>
-      </c>
-      <c r="AK88">
-        <v>1.84</v>
-      </c>
-      <c r="AL88">
-        <v>1.26</v>
-      </c>
-      <c r="AM88">
-        <v>1.22</v>
-      </c>
-      <c r="AN88">
-        <v>1.38</v>
-      </c>
-      <c r="AO88">
-        <v>2.29</v>
-      </c>
-      <c r="AP88">
-        <v>1.33</v>
-      </c>
-      <c r="AQ88">
-        <v>2.18</v>
-      </c>
-      <c r="AR88">
-        <v>1.24</v>
-      </c>
-      <c r="AS88">
-        <v>1.68</v>
-      </c>
       <c r="AT88">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="AU88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AY88">
         <v>5</v>
       </c>
       <c r="AZ88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC88">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BD88">
+        <v>1.68</v>
+      </c>
+      <c r="BE88">
+        <v>7.8</v>
+      </c>
+      <c r="BF88">
+        <v>2.8</v>
+      </c>
+      <c r="BG88">
+        <v>1.25</v>
+      </c>
+      <c r="BH88">
+        <v>3.6</v>
+      </c>
+      <c r="BI88">
+        <v>1.46</v>
+      </c>
+      <c r="BJ88">
+        <v>2.52</v>
+      </c>
+      <c r="BK88">
+        <v>2.38</v>
+      </c>
+      <c r="BL88">
+        <v>1.85</v>
+      </c>
+      <c r="BM88">
         <v>2.37</v>
       </c>
-      <c r="BE88">
-        <v>7.41</v>
-      </c>
-      <c r="BF88">
-        <v>1.91</v>
-      </c>
-      <c r="BG88">
-        <v>1.36</v>
-      </c>
-      <c r="BH88">
-        <v>2.9</v>
-      </c>
-      <c r="BI88">
-        <v>1.48</v>
-      </c>
-      <c r="BJ88">
-        <v>2.47</v>
-      </c>
-      <c r="BK88">
-        <v>2</v>
-      </c>
-      <c r="BL88">
-        <v>1.8</v>
-      </c>
-      <c r="BM88">
-        <v>2.47</v>
-      </c>
       <c r="BN88">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="BO88">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="BP88">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="89" spans="1:68">
@@ -24575,7 +24575,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7330050</v>
+        <v>7330049</v>
       </c>
       <c r="C115" t="s">
         <v>68</v>
@@ -24590,190 +24590,190 @@
         <v>20</v>
       </c>
       <c r="G115" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H115" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115">
         <v>1</v>
       </c>
       <c r="L115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N115">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O115" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="Q115">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="R115">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="S115">
-        <v>3.75</v>
+        <v>1.83</v>
       </c>
       <c r="T115">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="U115">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="V115">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="W115">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="X115">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="Y115">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="Z115">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="AA115">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="AB115">
-        <v>2.9</v>
+        <v>1.36</v>
       </c>
       <c r="AC115">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AD115">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE115">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AF115">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="AG115">
+        <v>1.85</v>
+      </c>
+      <c r="AH115">
+        <v>1.95</v>
+      </c>
+      <c r="AI115">
         <v>2.1</v>
       </c>
-      <c r="AH115">
-        <v>1.7</v>
-      </c>
-      <c r="AI115">
-        <v>1.83</v>
-      </c>
       <c r="AJ115">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AK115">
-        <v>1.28</v>
+        <v>2.37</v>
       </c>
       <c r="AL115">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="AM115">
-        <v>1.68</v>
+        <v>1.08</v>
       </c>
       <c r="AN115">
-        <v>0.84</v>
+        <v>1.05</v>
       </c>
       <c r="AO115">
+        <v>2.17</v>
+      </c>
+      <c r="AP115">
         <v>1.05</v>
       </c>
-      <c r="AP115">
-        <v>1</v>
-      </c>
       <c r="AQ115">
-        <v>1.18</v>
+        <v>2.14</v>
       </c>
       <c r="AR115">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AS115">
-        <v>1.55</v>
+        <v>1.76</v>
       </c>
       <c r="AT115">
-        <v>2.85</v>
+        <v>2.96</v>
       </c>
       <c r="AU115">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AV115">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AW115">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AX115">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AY115">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="AZ115">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BA115">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB115">
         <v>7</v>
       </c>
       <c r="BC115">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD115">
-        <v>1.85</v>
+        <v>3.62</v>
       </c>
       <c r="BE115">
-        <v>7.3</v>
+        <v>9.9</v>
       </c>
       <c r="BF115">
-        <v>2.37</v>
+        <v>1.35</v>
       </c>
       <c r="BG115">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="BH115">
-        <v>3.34</v>
+        <v>3.8</v>
       </c>
       <c r="BI115">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="BJ115">
-        <v>2.38</v>
+        <v>2.84</v>
       </c>
       <c r="BK115">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="BL115">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="BM115">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="BN115">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="BO115">
-        <v>3.28</v>
+        <v>2.64</v>
       </c>
       <c r="BP115">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="116" spans="1:68">
@@ -24781,7 +24781,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>7330049</v>
+        <v>7330050</v>
       </c>
       <c r="C116" t="s">
         <v>68</v>
@@ -24796,190 +24796,190 @@
         <v>20</v>
       </c>
       <c r="G116" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H116" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K116">
         <v>1</v>
       </c>
       <c r="L116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N116">
+        <v>3</v>
+      </c>
+      <c r="O116" t="s">
+        <v>157</v>
+      </c>
+      <c r="P116" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q116">
+        <v>3.1</v>
+      </c>
+      <c r="R116">
+        <v>2.05</v>
+      </c>
+      <c r="S116">
+        <v>3.75</v>
+      </c>
+      <c r="T116">
+        <v>1.38</v>
+      </c>
+      <c r="U116">
+        <v>2.8</v>
+      </c>
+      <c r="V116">
+        <v>3.1</v>
+      </c>
+      <c r="W116">
+        <v>1.3</v>
+      </c>
+      <c r="X116">
+        <v>6.5</v>
+      </c>
+      <c r="Y116">
+        <v>1.07</v>
+      </c>
+      <c r="Z116">
+        <v>2.25</v>
+      </c>
+      <c r="AA116">
+        <v>3.1</v>
+      </c>
+      <c r="AB116">
+        <v>2.9</v>
+      </c>
+      <c r="AC116">
+        <v>1.06</v>
+      </c>
+      <c r="AD116">
+        <v>8</v>
+      </c>
+      <c r="AE116">
+        <v>1.36</v>
+      </c>
+      <c r="AF116">
+        <v>3</v>
+      </c>
+      <c r="AG116">
+        <v>2.1</v>
+      </c>
+      <c r="AH116">
+        <v>1.7</v>
+      </c>
+      <c r="AI116">
+        <v>1.83</v>
+      </c>
+      <c r="AJ116">
+        <v>1.83</v>
+      </c>
+      <c r="AK116">
+        <v>1.28</v>
+      </c>
+      <c r="AL116">
+        <v>1.28</v>
+      </c>
+      <c r="AM116">
+        <v>1.68</v>
+      </c>
+      <c r="AN116">
+        <v>0.84</v>
+      </c>
+      <c r="AO116">
+        <v>1.05</v>
+      </c>
+      <c r="AP116">
+        <v>1</v>
+      </c>
+      <c r="AQ116">
+        <v>1.18</v>
+      </c>
+      <c r="AR116">
+        <v>1.3</v>
+      </c>
+      <c r="AS116">
+        <v>1.55</v>
+      </c>
+      <c r="AT116">
+        <v>2.85</v>
+      </c>
+      <c r="AU116">
+        <v>12</v>
+      </c>
+      <c r="AV116">
+        <v>8</v>
+      </c>
+      <c r="AW116">
+        <v>12</v>
+      </c>
+      <c r="AX116">
+        <v>12</v>
+      </c>
+      <c r="AY116">
+        <v>24</v>
+      </c>
+      <c r="AZ116">
+        <v>20</v>
+      </c>
+      <c r="BA116">
         <v>4</v>
-      </c>
-      <c r="O116" t="s">
-        <v>148</v>
-      </c>
-      <c r="P116" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q116">
-        <v>8</v>
-      </c>
-      <c r="R116">
-        <v>2.38</v>
-      </c>
-      <c r="S116">
-        <v>1.83</v>
-      </c>
-      <c r="T116">
-        <v>1.3</v>
-      </c>
-      <c r="U116">
-        <v>3.15</v>
-      </c>
-      <c r="V116">
-        <v>2.7</v>
-      </c>
-      <c r="W116">
-        <v>1.4</v>
-      </c>
-      <c r="X116">
-        <v>5.8</v>
-      </c>
-      <c r="Y116">
-        <v>1.09</v>
-      </c>
-      <c r="Z116">
-        <v>7.5</v>
-      </c>
-      <c r="AA116">
-        <v>4.33</v>
-      </c>
-      <c r="AB116">
-        <v>1.36</v>
-      </c>
-      <c r="AC116">
-        <v>1.04</v>
-      </c>
-      <c r="AD116">
-        <v>9</v>
-      </c>
-      <c r="AE116">
-        <v>1.25</v>
-      </c>
-      <c r="AF116">
-        <v>3.7</v>
-      </c>
-      <c r="AG116">
-        <v>1.85</v>
-      </c>
-      <c r="AH116">
-        <v>1.95</v>
-      </c>
-      <c r="AI116">
-        <v>2.1</v>
-      </c>
-      <c r="AJ116">
-        <v>1.67</v>
-      </c>
-      <c r="AK116">
-        <v>2.37</v>
-      </c>
-      <c r="AL116">
-        <v>1.15</v>
-      </c>
-      <c r="AM116">
-        <v>1.08</v>
-      </c>
-      <c r="AN116">
-        <v>1.05</v>
-      </c>
-      <c r="AO116">
-        <v>2.17</v>
-      </c>
-      <c r="AP116">
-        <v>1.05</v>
-      </c>
-      <c r="AQ116">
-        <v>2.14</v>
-      </c>
-      <c r="AR116">
-        <v>1.2</v>
-      </c>
-      <c r="AS116">
-        <v>1.76</v>
-      </c>
-      <c r="AT116">
-        <v>2.96</v>
-      </c>
-      <c r="AU116">
-        <v>2</v>
-      </c>
-      <c r="AV116">
-        <v>10</v>
-      </c>
-      <c r="AW116">
-        <v>2</v>
-      </c>
-      <c r="AX116">
-        <v>5</v>
-      </c>
-      <c r="AY116">
-        <v>4</v>
-      </c>
-      <c r="AZ116">
-        <v>15</v>
-      </c>
-      <c r="BA116">
-        <v>1</v>
       </c>
       <c r="BB116">
         <v>7</v>
       </c>
       <c r="BC116">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD116">
-        <v>3.62</v>
+        <v>1.85</v>
       </c>
       <c r="BE116">
-        <v>9.9</v>
+        <v>7.3</v>
       </c>
       <c r="BF116">
-        <v>1.35</v>
+        <v>2.37</v>
       </c>
       <c r="BG116">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="BH116">
-        <v>3.8</v>
+        <v>3.34</v>
       </c>
       <c r="BI116">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="BJ116">
-        <v>2.84</v>
+        <v>2.38</v>
       </c>
       <c r="BK116">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="BL116">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="BM116">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="BN116">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="BO116">
-        <v>2.64</v>
+        <v>3.28</v>
       </c>
       <c r="BP116">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="117" spans="1:68">
@@ -25811,7 +25811,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>7330060</v>
+        <v>7330056</v>
       </c>
       <c r="C121" t="s">
         <v>68</v>
@@ -25826,31 +25826,31 @@
         <v>21</v>
       </c>
       <c r="G121" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M121">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N121">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O121" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="P121" t="s">
         <v>224</v>
@@ -25859,127 +25859,127 @@
         <v>3.4</v>
       </c>
       <c r="R121">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S121">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="T121">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="U121">
-        <v>2.55</v>
+        <v>2.85</v>
       </c>
       <c r="V121">
-        <v>3</v>
+        <v>2.73</v>
       </c>
       <c r="W121">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="X121">
-        <v>8</v>
+        <v>6.85</v>
       </c>
       <c r="Y121">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z121">
-        <v>2.64</v>
+        <v>2.71</v>
       </c>
       <c r="AA121">
-        <v>3.24</v>
+        <v>3.22</v>
       </c>
       <c r="AB121">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="AC121">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="AD121">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AE121">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="AF121">
-        <v>2.9</v>
+        <v>3.34</v>
       </c>
       <c r="AG121">
-        <v>2.09</v>
+        <v>1.86</v>
       </c>
       <c r="AH121">
-        <v>1.69</v>
+        <v>1.87</v>
       </c>
       <c r="AI121">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AJ121">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AK121">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AL121">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AM121">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="AN121">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AO121">
+        <v>1.25</v>
+      </c>
+      <c r="AP121">
         <v>0.95</v>
       </c>
-      <c r="AP121">
-        <v>1.05</v>
-      </c>
       <c r="AQ121">
-        <v>1</v>
+        <v>1.41</v>
       </c>
       <c r="AR121">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AS121">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AT121">
-        <v>2.54</v>
+        <v>2.61</v>
       </c>
       <c r="AU121">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV121">
+        <v>4</v>
+      </c>
+      <c r="AW121">
+        <v>3</v>
+      </c>
+      <c r="AX121">
+        <v>7</v>
+      </c>
+      <c r="AY121">
+        <v>7</v>
+      </c>
+      <c r="AZ121">
+        <v>11</v>
+      </c>
+      <c r="BA121">
         <v>9</v>
       </c>
-      <c r="AW121">
-        <v>6</v>
-      </c>
-      <c r="AX121">
-        <v>6</v>
-      </c>
-      <c r="AY121">
-        <v>12</v>
-      </c>
-      <c r="AZ121">
-        <v>15</v>
-      </c>
-      <c r="BA121">
-        <v>5</v>
-      </c>
       <c r="BB121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC121">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD121">
-        <v>1.93</v>
+        <v>1.74</v>
       </c>
       <c r="BE121">
-        <v>7.3</v>
+        <v>8.6</v>
       </c>
       <c r="BF121">
-        <v>2.25</v>
+        <v>2.34</v>
       </c>
       <c r="BG121">
         <v>1.29</v>
@@ -25988,28 +25988,28 @@
         <v>3.3</v>
       </c>
       <c r="BI121">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="BJ121">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="BK121">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="BL121">
-        <v>1.98</v>
+        <v>2.09</v>
       </c>
       <c r="BM121">
-        <v>2.27</v>
+        <v>2.14</v>
       </c>
       <c r="BN121">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="BO121">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="BP121">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="122" spans="1:68">
@@ -26017,7 +26017,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>7330056</v>
+        <v>7330060</v>
       </c>
       <c r="C122" t="s">
         <v>68</v>
@@ -26032,31 +26032,31 @@
         <v>21</v>
       </c>
       <c r="G122" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H122" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M122">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N122">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O122" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="P122" t="s">
         <v>225</v>
@@ -26065,127 +26065,127 @@
         <v>3.4</v>
       </c>
       <c r="R122">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S122">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="T122">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="U122">
-        <v>2.85</v>
+        <v>2.55</v>
       </c>
       <c r="V122">
-        <v>2.73</v>
+        <v>3</v>
       </c>
       <c r="W122">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="X122">
-        <v>6.85</v>
+        <v>8</v>
       </c>
       <c r="Y122">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z122">
-        <v>2.71</v>
+        <v>2.64</v>
       </c>
       <c r="AA122">
-        <v>3.22</v>
+        <v>3.24</v>
       </c>
       <c r="AB122">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="AC122">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AD122">
+        <v>7.5</v>
+      </c>
+      <c r="AE122">
+        <v>1.38</v>
+      </c>
+      <c r="AF122">
+        <v>2.9</v>
+      </c>
+      <c r="AG122">
+        <v>2.09</v>
+      </c>
+      <c r="AH122">
+        <v>1.69</v>
+      </c>
+      <c r="AI122">
+        <v>1.83</v>
+      </c>
+      <c r="AJ122">
+        <v>1.83</v>
+      </c>
+      <c r="AK122">
+        <v>1.45</v>
+      </c>
+      <c r="AL122">
+        <v>1.27</v>
+      </c>
+      <c r="AM122">
+        <v>1.37</v>
+      </c>
+      <c r="AN122">
+        <v>1</v>
+      </c>
+      <c r="AO122">
+        <v>0.95</v>
+      </c>
+      <c r="AP122">
+        <v>1.05</v>
+      </c>
+      <c r="AQ122">
+        <v>1</v>
+      </c>
+      <c r="AR122">
+        <v>1.17</v>
+      </c>
+      <c r="AS122">
+        <v>1.37</v>
+      </c>
+      <c r="AT122">
+        <v>2.54</v>
+      </c>
+      <c r="AU122">
+        <v>6</v>
+      </c>
+      <c r="AV122">
         <v>9</v>
       </c>
-      <c r="AE122">
-        <v>1.26</v>
-      </c>
-      <c r="AF122">
-        <v>3.34</v>
-      </c>
-      <c r="AG122">
-        <v>1.86</v>
-      </c>
-      <c r="AH122">
-        <v>1.87</v>
-      </c>
-      <c r="AI122">
-        <v>1.73</v>
-      </c>
-      <c r="AJ122">
-        <v>2</v>
-      </c>
-      <c r="AK122">
-        <v>1.5</v>
-      </c>
-      <c r="AL122">
-        <v>1.28</v>
-      </c>
-      <c r="AM122">
-        <v>1.42</v>
-      </c>
-      <c r="AN122">
-        <v>0.9</v>
-      </c>
-      <c r="AO122">
-        <v>1.25</v>
-      </c>
-      <c r="AP122">
-        <v>0.95</v>
-      </c>
-      <c r="AQ122">
-        <v>1.41</v>
-      </c>
-      <c r="AR122">
-        <v>1.22</v>
-      </c>
-      <c r="AS122">
-        <v>1.39</v>
-      </c>
-      <c r="AT122">
-        <v>2.61</v>
-      </c>
-      <c r="AU122">
-        <v>4</v>
-      </c>
-      <c r="AV122">
-        <v>4</v>
-      </c>
       <c r="AW122">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX122">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY122">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ122">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA122">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BB122">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC122">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BD122">
-        <v>1.74</v>
+        <v>1.93</v>
       </c>
       <c r="BE122">
-        <v>8.6</v>
+        <v>7.3</v>
       </c>
       <c r="BF122">
-        <v>2.34</v>
+        <v>2.25</v>
       </c>
       <c r="BG122">
         <v>1.29</v>
@@ -26194,28 +26194,28 @@
         <v>3.3</v>
       </c>
       <c r="BI122">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="BJ122">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="BK122">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="BL122">
-        <v>2.09</v>
+        <v>1.98</v>
       </c>
       <c r="BM122">
-        <v>2.14</v>
+        <v>2.27</v>
       </c>
       <c r="BN122">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="BO122">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="BP122">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="123" spans="1:68">
@@ -27459,7 +27459,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>7330061</v>
+        <v>7330064</v>
       </c>
       <c r="C129" t="s">
         <v>68</v>
@@ -27474,10 +27474,10 @@
         <v>22</v>
       </c>
       <c r="G129" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H129" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -27489,34 +27489,34 @@
         <v>1</v>
       </c>
       <c r="L129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N129">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O129" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="P129" t="s">
         <v>231</v>
       </c>
       <c r="Q129">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="R129">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="S129">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="T129">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U129">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V129">
         <v>2.63</v>
@@ -27525,37 +27525,37 @@
         <v>1.44</v>
       </c>
       <c r="X129">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y129">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z129">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="AA129">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="AB129">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="AC129">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AD129">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AE129">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AF129">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="AG129">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AH129">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="AI129">
         <v>1.73</v>
@@ -27564,100 +27564,100 @@
         <v>2</v>
       </c>
       <c r="AK129">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="AL129">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="AM129">
-        <v>1.1</v>
+        <v>1.35</v>
       </c>
       <c r="AN129">
-        <v>1.05</v>
+        <v>1.71</v>
       </c>
       <c r="AO129">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AP129">
-        <v>1</v>
+        <v>1.64</v>
       </c>
       <c r="AQ129">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AR129">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="AS129">
-        <v>1.77</v>
+        <v>1.6</v>
       </c>
       <c r="AT129">
-        <v>3.18</v>
+        <v>3.08</v>
       </c>
       <c r="AU129">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV129">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW129">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX129">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AY129">
         <v>5</v>
       </c>
       <c r="AZ129">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA129">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB129">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC129">
         <v>8</v>
       </c>
       <c r="BD129">
+        <v>2.85</v>
+      </c>
+      <c r="BE129">
+        <v>7.6</v>
+      </c>
+      <c r="BF129">
+        <v>1.62</v>
+      </c>
+      <c r="BG129">
+        <v>1.33</v>
+      </c>
+      <c r="BH129">
+        <v>3</v>
+      </c>
+      <c r="BI129">
+        <v>1.67</v>
+      </c>
+      <c r="BJ129">
+        <v>2.1</v>
+      </c>
+      <c r="BK129">
+        <v>1.95</v>
+      </c>
+      <c r="BL129">
+        <v>1.77</v>
+      </c>
+      <c r="BM129">
+        <v>2.47</v>
+      </c>
+      <c r="BN129">
+        <v>1.48</v>
+      </c>
+      <c r="BO129">
         <v>3.3</v>
       </c>
-      <c r="BE129">
-        <v>8</v>
-      </c>
-      <c r="BF129">
-        <v>1.49</v>
-      </c>
-      <c r="BG129">
+      <c r="BP129">
         <v>1.29</v>
-      </c>
-      <c r="BH129">
-        <v>3.3</v>
-      </c>
-      <c r="BI129">
-        <v>1.52</v>
-      </c>
-      <c r="BJ129">
-        <v>2.37</v>
-      </c>
-      <c r="BK129">
-        <v>2.38</v>
-      </c>
-      <c r="BL129">
-        <v>1.85</v>
-      </c>
-      <c r="BM129">
-        <v>2.35</v>
-      </c>
-      <c r="BN129">
-        <v>1.53</v>
-      </c>
-      <c r="BO129">
-        <v>3.1</v>
-      </c>
-      <c r="BP129">
-        <v>1.33</v>
       </c>
     </row>
     <row r="130" spans="1:68">
@@ -27665,7 +27665,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>7330064</v>
+        <v>7330061</v>
       </c>
       <c r="C130" t="s">
         <v>68</v>
@@ -27680,10 +27680,10 @@
         <v>22</v>
       </c>
       <c r="G130" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H130" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -27695,34 +27695,34 @@
         <v>1</v>
       </c>
       <c r="L130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O130" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="P130" t="s">
         <v>232</v>
       </c>
       <c r="Q130">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="R130">
+        <v>2.38</v>
+      </c>
+      <c r="S130">
         <v>2.1</v>
       </c>
-      <c r="S130">
-        <v>2.75</v>
-      </c>
       <c r="T130">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U130">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V130">
         <v>2.63</v>
@@ -27731,37 +27731,37 @@
         <v>1.44</v>
       </c>
       <c r="X130">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y130">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z130">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="AA130">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="AB130">
+        <v>1.55</v>
+      </c>
+      <c r="AC130">
+        <v>1.04</v>
+      </c>
+      <c r="AD130">
+        <v>9.5</v>
+      </c>
+      <c r="AE130">
+        <v>1.2</v>
+      </c>
+      <c r="AF130">
+        <v>4.2</v>
+      </c>
+      <c r="AG130">
+        <v>1.7</v>
+      </c>
+      <c r="AH130">
         <v>2.1</v>
-      </c>
-      <c r="AC130">
-        <v>1.06</v>
-      </c>
-      <c r="AD130">
-        <v>8</v>
-      </c>
-      <c r="AE130">
-        <v>1.25</v>
-      </c>
-      <c r="AF130">
-        <v>3.8</v>
-      </c>
-      <c r="AG130">
-        <v>2</v>
-      </c>
-      <c r="AH130">
-        <v>1.8</v>
       </c>
       <c r="AI130">
         <v>1.73</v>
@@ -27770,100 +27770,100 @@
         <v>2</v>
       </c>
       <c r="AK130">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="AL130">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="AM130">
-        <v>1.35</v>
+        <v>1.1</v>
       </c>
       <c r="AN130">
-        <v>1.71</v>
+        <v>1.05</v>
       </c>
       <c r="AO130">
+        <v>2.1</v>
+      </c>
+      <c r="AP130">
+        <v>1</v>
+      </c>
+      <c r="AQ130">
         <v>2.14</v>
       </c>
-      <c r="AP130">
-        <v>1.64</v>
-      </c>
-      <c r="AQ130">
-        <v>2.18</v>
-      </c>
       <c r="AR130">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AS130">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="AT130">
-        <v>3.08</v>
+        <v>3.18</v>
       </c>
       <c r="AU130">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AV130">
+        <v>3</v>
+      </c>
+      <c r="AW130">
         <v>5</v>
       </c>
-      <c r="AW130">
-        <v>1</v>
-      </c>
       <c r="AX130">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY130">
         <v>5</v>
       </c>
       <c r="AZ130">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA130">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC130">
         <v>8</v>
       </c>
       <c r="BD130">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="BE130">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="BF130">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="BG130">
+        <v>1.29</v>
+      </c>
+      <c r="BH130">
+        <v>3.3</v>
+      </c>
+      <c r="BI130">
+        <v>1.52</v>
+      </c>
+      <c r="BJ130">
+        <v>2.37</v>
+      </c>
+      <c r="BK130">
+        <v>2.38</v>
+      </c>
+      <c r="BL130">
+        <v>1.85</v>
+      </c>
+      <c r="BM130">
+        <v>2.35</v>
+      </c>
+      <c r="BN130">
+        <v>1.53</v>
+      </c>
+      <c r="BO130">
+        <v>3.1</v>
+      </c>
+      <c r="BP130">
         <v>1.33</v>
-      </c>
-      <c r="BH130">
-        <v>3</v>
-      </c>
-      <c r="BI130">
-        <v>1.67</v>
-      </c>
-      <c r="BJ130">
-        <v>2.1</v>
-      </c>
-      <c r="BK130">
-        <v>1.95</v>
-      </c>
-      <c r="BL130">
-        <v>1.77</v>
-      </c>
-      <c r="BM130">
-        <v>2.47</v>
-      </c>
-      <c r="BN130">
-        <v>1.48</v>
-      </c>
-      <c r="BO130">
-        <v>3.3</v>
-      </c>
-      <c r="BP130">
-        <v>1.29</v>
       </c>
     </row>
     <row r="131" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -439,10 +439,10 @@
     <t>['79']</t>
   </si>
   <si>
-    <t>['9', '89']</t>
+    <t>['25', '32', '85']</t>
   </si>
   <si>
-    <t>['25', '32', '85']</t>
+    <t>['9', '89']</t>
   </si>
   <si>
     <t>['15', '27', '50', '75']</t>
@@ -18807,7 +18807,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7330024</v>
+        <v>7330021</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18822,190 +18822,190 @@
         <v>15</v>
       </c>
       <c r="G87" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H87" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O87" t="s">
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q87">
+        <v>3</v>
+      </c>
+      <c r="R87">
+        <v>2.05</v>
+      </c>
+      <c r="S87">
         <v>4</v>
       </c>
-      <c r="R87">
-        <v>2.1</v>
-      </c>
-      <c r="S87">
-        <v>2.75</v>
-      </c>
       <c r="T87">
+        <v>1.45</v>
+      </c>
+      <c r="U87">
+        <v>2.69</v>
+      </c>
+      <c r="V87">
+        <v>3.28</v>
+      </c>
+      <c r="W87">
+        <v>1.32</v>
+      </c>
+      <c r="X87">
+        <v>8.4</v>
+      </c>
+      <c r="Y87">
+        <v>1.05</v>
+      </c>
+      <c r="Z87">
+        <v>2</v>
+      </c>
+      <c r="AA87">
+        <v>3</v>
+      </c>
+      <c r="AB87">
+        <v>3.5</v>
+      </c>
+      <c r="AC87">
+        <v>1.05</v>
+      </c>
+      <c r="AD87">
+        <v>7.3</v>
+      </c>
+      <c r="AE87">
+        <v>1.36</v>
+      </c>
+      <c r="AF87">
+        <v>2.79</v>
+      </c>
+      <c r="AG87">
+        <v>2.15</v>
+      </c>
+      <c r="AH87">
+        <v>1.61</v>
+      </c>
+      <c r="AI87">
+        <v>1.91</v>
+      </c>
+      <c r="AJ87">
+        <v>1.8</v>
+      </c>
+      <c r="AK87">
+        <v>1.24</v>
+      </c>
+      <c r="AL87">
+        <v>1.3</v>
+      </c>
+      <c r="AM87">
+        <v>1.7</v>
+      </c>
+      <c r="AN87">
+        <v>1.29</v>
+      </c>
+      <c r="AO87">
+        <v>0.71</v>
+      </c>
+      <c r="AP87">
+        <v>1.41</v>
+      </c>
+      <c r="AQ87">
+        <v>1</v>
+      </c>
+      <c r="AR87">
+        <v>1.51</v>
+      </c>
+      <c r="AS87">
         <v>1.37</v>
       </c>
-      <c r="U87">
-        <v>3.02</v>
-      </c>
-      <c r="V87">
-        <v>2.86</v>
-      </c>
-      <c r="W87">
-        <v>1.4</v>
-      </c>
-      <c r="X87">
-        <v>7.32</v>
-      </c>
-      <c r="Y87">
-        <v>1.06</v>
-      </c>
-      <c r="Z87">
-        <v>3.65</v>
-      </c>
-      <c r="AA87">
-        <v>3.3</v>
-      </c>
-      <c r="AB87">
-        <v>1.83</v>
-      </c>
-      <c r="AC87">
-        <v>1.01</v>
-      </c>
-      <c r="AD87">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AE87">
-        <v>1.26</v>
-      </c>
-      <c r="AF87">
-        <v>3.34</v>
-      </c>
-      <c r="AG87">
-        <v>1.9</v>
-      </c>
-      <c r="AH87">
-        <v>1.8</v>
-      </c>
-      <c r="AI87">
-        <v>1.83</v>
-      </c>
-      <c r="AJ87">
-        <v>1.83</v>
-      </c>
-      <c r="AK87">
-        <v>1.84</v>
-      </c>
-      <c r="AL87">
-        <v>1.26</v>
-      </c>
-      <c r="AM87">
-        <v>1.22</v>
-      </c>
-      <c r="AN87">
-        <v>1.38</v>
-      </c>
-      <c r="AO87">
-        <v>2.29</v>
-      </c>
-      <c r="AP87">
-        <v>1.33</v>
-      </c>
-      <c r="AQ87">
-        <v>2.18</v>
-      </c>
-      <c r="AR87">
-        <v>1.24</v>
-      </c>
-      <c r="AS87">
-        <v>1.68</v>
-      </c>
       <c r="AT87">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="AU87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AY87">
         <v>5</v>
       </c>
       <c r="AZ87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC87">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BD87">
+        <v>1.68</v>
+      </c>
+      <c r="BE87">
+        <v>7.8</v>
+      </c>
+      <c r="BF87">
+        <v>2.8</v>
+      </c>
+      <c r="BG87">
+        <v>1.25</v>
+      </c>
+      <c r="BH87">
+        <v>3.6</v>
+      </c>
+      <c r="BI87">
+        <v>1.46</v>
+      </c>
+      <c r="BJ87">
+        <v>2.52</v>
+      </c>
+      <c r="BK87">
+        <v>2.38</v>
+      </c>
+      <c r="BL87">
+        <v>1.85</v>
+      </c>
+      <c r="BM87">
         <v>2.37</v>
       </c>
-      <c r="BE87">
-        <v>7.41</v>
-      </c>
-      <c r="BF87">
-        <v>1.91</v>
-      </c>
-      <c r="BG87">
-        <v>1.36</v>
-      </c>
-      <c r="BH87">
-        <v>2.9</v>
-      </c>
-      <c r="BI87">
-        <v>1.48</v>
-      </c>
-      <c r="BJ87">
-        <v>2.47</v>
-      </c>
-      <c r="BK87">
-        <v>2</v>
-      </c>
-      <c r="BL87">
-        <v>1.8</v>
-      </c>
-      <c r="BM87">
-        <v>2.47</v>
-      </c>
       <c r="BN87">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="BO87">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="BP87">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="88" spans="1:68">
@@ -19013,7 +19013,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7330021</v>
+        <v>7330024</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -19028,190 +19028,190 @@
         <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H88" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O88" t="s">
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="Q88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R88">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S88">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="T88">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="U88">
-        <v>2.69</v>
+        <v>3.02</v>
       </c>
       <c r="V88">
-        <v>3.28</v>
+        <v>2.86</v>
       </c>
       <c r="W88">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="X88">
-        <v>8.4</v>
+        <v>7.32</v>
       </c>
       <c r="Y88">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z88">
-        <v>2</v>
+        <v>3.65</v>
       </c>
       <c r="AA88">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AB88">
-        <v>3.5</v>
+        <v>1.83</v>
       </c>
       <c r="AC88">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AD88">
-        <v>7.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE88">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="AF88">
-        <v>2.79</v>
+        <v>3.34</v>
       </c>
       <c r="AG88">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="AH88">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="AI88">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AJ88">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AK88">
+        <v>1.84</v>
+      </c>
+      <c r="AL88">
+        <v>1.26</v>
+      </c>
+      <c r="AM88">
+        <v>1.22</v>
+      </c>
+      <c r="AN88">
+        <v>1.38</v>
+      </c>
+      <c r="AO88">
+        <v>2.29</v>
+      </c>
+      <c r="AP88">
+        <v>1.33</v>
+      </c>
+      <c r="AQ88">
+        <v>2.18</v>
+      </c>
+      <c r="AR88">
         <v>1.24</v>
       </c>
-      <c r="AL88">
-        <v>1.3</v>
-      </c>
-      <c r="AM88">
-        <v>1.7</v>
-      </c>
-      <c r="AN88">
-        <v>1.29</v>
-      </c>
-      <c r="AO88">
-        <v>0.71</v>
-      </c>
-      <c r="AP88">
-        <v>1.41</v>
-      </c>
-      <c r="AQ88">
-        <v>1</v>
-      </c>
-      <c r="AR88">
-        <v>1.51</v>
-      </c>
       <c r="AS88">
-        <v>1.37</v>
+        <v>1.68</v>
       </c>
       <c r="AT88">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="AU88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AY88">
         <v>5</v>
       </c>
       <c r="AZ88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB88">
+        <v>3</v>
+      </c>
+      <c r="BC88">
         <v>4</v>
       </c>
-      <c r="BC88">
-        <v>7</v>
-      </c>
       <c r="BD88">
-        <v>1.68</v>
+        <v>2.37</v>
       </c>
       <c r="BE88">
-        <v>7.8</v>
+        <v>7.41</v>
       </c>
       <c r="BF88">
-        <v>2.8</v>
+        <v>1.91</v>
       </c>
       <c r="BG88">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="BH88">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="BI88">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="BJ88">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="BK88">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="BL88">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="BM88">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="BN88">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="BO88">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="BP88">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="89" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1080,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP132"/>
+  <dimension ref="A1:BP133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2244,7 +2244,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ6">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AR12">
         <v>1.3</v>
@@ -4713,7 +4713,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AQ18">
         <v>2.18</v>
@@ -5128,7 +5128,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ20">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AR20">
         <v>1.69</v>
@@ -6361,7 +6361,7 @@
         <v>0.25</v>
       </c>
       <c r="AP26">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AQ26">
         <v>1.05</v>
@@ -8218,7 +8218,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AR35">
         <v>1.5</v>
@@ -9245,7 +9245,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AQ40">
         <v>1.05</v>
@@ -10484,7 +10484,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ46">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AR46">
         <v>1.37</v>
@@ -11511,7 +11511,7 @@
         <v>1.63</v>
       </c>
       <c r="AP51">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AQ51">
         <v>1.64</v>
@@ -12956,7 +12956,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ58">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AR58">
         <v>1.5</v>
@@ -13571,7 +13571,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AQ61">
         <v>1.59</v>
@@ -15013,7 +15013,7 @@
         <v>1.7</v>
       </c>
       <c r="AP68">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AQ68">
         <v>2.14</v>
@@ -16043,7 +16043,7 @@
         <v>1.36</v>
       </c>
       <c r="AP73">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AQ73">
         <v>1.33</v>
@@ -17900,7 +17900,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ82">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AR82">
         <v>1.64</v>
@@ -18515,7 +18515,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AQ85">
         <v>1.18</v>
@@ -20372,7 +20372,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ94">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AR94">
         <v>1.23</v>
@@ -21399,7 +21399,7 @@
         <v>0.63</v>
       </c>
       <c r="AP99">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -22226,7 +22226,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ103">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AR103">
         <v>1.29</v>
@@ -24489,7 +24489,7 @@
         <v>0.83</v>
       </c>
       <c r="AP114">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AQ114">
         <v>0.86</v>
@@ -25522,7 +25522,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ119">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AR119">
         <v>1.48</v>
@@ -25931,7 +25931,7 @@
         <v>1.25</v>
       </c>
       <c r="AP121">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AQ121">
         <v>1.41</v>
@@ -27376,7 +27376,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ128">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AR128">
         <v>1.44</v>
@@ -28276,6 +28276,212 @@
       </c>
       <c r="BP132">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7329930</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45492.8125</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133" t="s">
+        <v>76</v>
+      </c>
+      <c r="H133" t="s">
+        <v>81</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133" t="s">
+        <v>89</v>
+      </c>
+      <c r="P133" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q133">
+        <v>2.88</v>
+      </c>
+      <c r="R133">
+        <v>2.25</v>
+      </c>
+      <c r="S133">
+        <v>3.6</v>
+      </c>
+      <c r="T133">
+        <v>1.36</v>
+      </c>
+      <c r="U133">
+        <v>3.02</v>
+      </c>
+      <c r="V133">
+        <v>2.59</v>
+      </c>
+      <c r="W133">
+        <v>1.47</v>
+      </c>
+      <c r="X133">
+        <v>6.2</v>
+      </c>
+      <c r="Y133">
+        <v>1.1</v>
+      </c>
+      <c r="Z133">
+        <v>2.15</v>
+      </c>
+      <c r="AA133">
+        <v>3.4</v>
+      </c>
+      <c r="AB133">
+        <v>3</v>
+      </c>
+      <c r="AC133">
+        <v>1.04</v>
+      </c>
+      <c r="AD133">
+        <v>9</v>
+      </c>
+      <c r="AE133">
+        <v>1.22</v>
+      </c>
+      <c r="AF133">
+        <v>4</v>
+      </c>
+      <c r="AG133">
+        <v>1.8</v>
+      </c>
+      <c r="AH133">
+        <v>2</v>
+      </c>
+      <c r="AI133">
+        <v>1.62</v>
+      </c>
+      <c r="AJ133">
+        <v>2.2</v>
+      </c>
+      <c r="AK133">
+        <v>1.36</v>
+      </c>
+      <c r="AL133">
+        <v>1.26</v>
+      </c>
+      <c r="AM133">
+        <v>1.59</v>
+      </c>
+      <c r="AN133">
+        <v>1</v>
+      </c>
+      <c r="AO133">
+        <v>0.95</v>
+      </c>
+      <c r="AP133">
+        <v>1</v>
+      </c>
+      <c r="AQ133">
+        <v>0.96</v>
+      </c>
+      <c r="AR133">
+        <v>1.36</v>
+      </c>
+      <c r="AS133">
+        <v>1.25</v>
+      </c>
+      <c r="AT133">
+        <v>2.61</v>
+      </c>
+      <c r="AU133">
+        <v>6</v>
+      </c>
+      <c r="AV133">
+        <v>0</v>
+      </c>
+      <c r="AW133">
+        <v>9</v>
+      </c>
+      <c r="AX133">
+        <v>2</v>
+      </c>
+      <c r="AY133">
+        <v>15</v>
+      </c>
+      <c r="AZ133">
+        <v>2</v>
+      </c>
+      <c r="BA133">
+        <v>5</v>
+      </c>
+      <c r="BB133">
+        <v>1</v>
+      </c>
+      <c r="BC133">
+        <v>6</v>
+      </c>
+      <c r="BD133">
+        <v>1.9</v>
+      </c>
+      <c r="BE133">
+        <v>7.5</v>
+      </c>
+      <c r="BF133">
+        <v>2.28</v>
+      </c>
+      <c r="BG133">
+        <v>1.25</v>
+      </c>
+      <c r="BH133">
+        <v>3.42</v>
+      </c>
+      <c r="BI133">
+        <v>1.47</v>
+      </c>
+      <c r="BJ133">
+        <v>2.42</v>
+      </c>
+      <c r="BK133">
+        <v>1.85</v>
+      </c>
+      <c r="BL133">
+        <v>1.85</v>
+      </c>
+      <c r="BM133">
+        <v>2.34</v>
+      </c>
+      <c r="BN133">
+        <v>1.5</v>
+      </c>
+      <c r="BO133">
+        <v>3.18</v>
+      </c>
+      <c r="BP133">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="238">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,6 +514,9 @@
     <t>['31', '81']</t>
   </si>
   <si>
+    <t>['45', '88']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -719,6 +722,12 @@
   </si>
   <si>
     <t>['8', '32', '90+3']</t>
+  </si>
+  <si>
+    <t>['32', '41', '45+5', '63']</t>
+  </si>
+  <si>
+    <t>['17', '63']</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP133"/>
+  <dimension ref="A1:BP137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1545,7 +1554,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1623,10 +1632,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AQ3">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1829,10 +1838,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AQ4">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2035,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ5">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2369,7 +2378,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2447,10 +2456,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ7">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2575,7 +2584,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2656,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AR8">
         <v>0.87</v>
@@ -2781,7 +2790,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2859,10 +2868,10 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AR9">
         <v>1.58</v>
@@ -2987,7 +2996,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3065,10 +3074,10 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AQ10">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR10">
         <v>1.47</v>
@@ -3193,7 +3202,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3271,10 +3280,10 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ11">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AR11">
         <v>1.49</v>
@@ -3477,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AQ12">
         <v>0.96</v>
@@ -3605,7 +3614,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3889,10 +3898,10 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AQ14">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AR14">
         <v>1.53</v>
@@ -4017,7 +4026,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4095,7 +4104,7 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4301,7 +4310,7 @@
         <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ16">
         <v>1.05</v>
@@ -4507,10 +4516,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ17">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>1.4</v>
@@ -4635,7 +4644,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4716,7 +4725,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ18">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -4841,7 +4850,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4922,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR19">
         <v>1.31</v>
@@ -5047,7 +5056,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5125,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AQ20">
         <v>0.96</v>
@@ -5253,7 +5262,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5331,10 +5340,10 @@
         <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AR21">
         <v>1.64</v>
@@ -5459,7 +5468,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5537,7 +5546,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ22">
         <v>2.14</v>
@@ -5743,10 +5752,10 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ23">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -5871,7 +5880,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5952,7 +5961,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ24">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AR24">
         <v>1.25</v>
@@ -6155,10 +6164,10 @@
         <v>0.75</v>
       </c>
       <c r="AP25">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AQ25">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AR25">
         <v>1.01</v>
@@ -6283,7 +6292,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6364,7 +6373,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ26">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6567,7 +6576,7 @@
         <v>1.75</v>
       </c>
       <c r="AP27">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ27">
         <v>1.05</v>
@@ -6695,7 +6704,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6773,10 +6782,10 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AQ28">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AR28">
         <v>1.41</v>
@@ -6982,7 +6991,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ29">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AR29">
         <v>2.13</v>
@@ -7185,7 +7194,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7391,10 +7400,10 @@
         <v>1.8</v>
       </c>
       <c r="AP31">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ31">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR31">
         <v>1.28</v>
@@ -7519,7 +7528,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7600,7 +7609,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ32">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AR32">
         <v>1.21</v>
@@ -7803,7 +7812,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AQ33">
         <v>2.14</v>
@@ -7931,7 +7940,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8009,10 +8018,10 @@
         <v>2.2</v>
       </c>
       <c r="AP34">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AQ34">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AR34">
         <v>1.38</v>
@@ -8137,7 +8146,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8343,7 +8352,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8421,10 +8430,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR36">
         <v>1.5</v>
@@ -8549,7 +8558,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8627,10 +8636,10 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AQ37">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AR37">
         <v>1.56</v>
@@ -8833,7 +8842,7 @@
         <v>0.83</v>
       </c>
       <c r="AP38">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -9042,7 +9051,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ39">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AR39">
         <v>2.03</v>
@@ -9167,7 +9176,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9373,7 +9382,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9451,10 +9460,10 @@
         <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ41">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AR41">
         <v>1.42</v>
@@ -9579,7 +9588,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9657,10 +9666,10 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ42">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.44</v>
@@ -9863,7 +9872,7 @@
         <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ43">
         <v>2.14</v>
@@ -9991,7 +10000,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10072,7 +10081,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ44">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR44">
         <v>1.33</v>
@@ -10275,10 +10284,10 @@
         <v>1.71</v>
       </c>
       <c r="AP45">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AQ45">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AR45">
         <v>1.37</v>
@@ -10403,7 +10412,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10481,7 +10490,7 @@
         <v>0.43</v>
       </c>
       <c r="AP46">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ46">
         <v>0.96</v>
@@ -10609,7 +10618,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10687,10 +10696,10 @@
         <v>0.57</v>
       </c>
       <c r="AP47">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AR47">
         <v>1.34</v>
@@ -10893,7 +10902,7 @@
         <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11099,10 +11108,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AQ49">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AR49">
         <v>1.1</v>
@@ -11227,7 +11236,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11308,7 +11317,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ50">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.93</v>
@@ -11433,7 +11442,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11514,7 +11523,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ51">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -11717,10 +11726,10 @@
         <v>1.38</v>
       </c>
       <c r="AP52">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AQ52">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR52">
         <v>1.52</v>
@@ -11923,7 +11932,7 @@
         <v>1.38</v>
       </c>
       <c r="AP53">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ53">
         <v>1.05</v>
@@ -12051,7 +12060,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12129,7 +12138,7 @@
         <v>1.38</v>
       </c>
       <c r="AP54">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AQ54">
         <v>2.14</v>
@@ -12257,7 +12266,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12335,10 +12344,10 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AQ55">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR55">
         <v>1.34</v>
@@ -12463,7 +12472,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12541,10 +12550,10 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ56">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AR56">
         <v>1.32</v>
@@ -12669,7 +12678,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12750,7 +12759,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.33</v>
@@ -12875,7 +12884,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -12953,7 +12962,7 @@
         <v>0.44</v>
       </c>
       <c r="AP58">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ58">
         <v>0.96</v>
@@ -13162,7 +13171,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ59">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AR59">
         <v>1.29</v>
@@ -13287,7 +13296,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13365,7 +13374,7 @@
         <v>1.4</v>
       </c>
       <c r="AP60">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
         <v>1.05</v>
@@ -13574,7 +13583,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ61">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AR61">
         <v>1.27</v>
@@ -13983,10 +13992,10 @@
         <v>1.7</v>
       </c>
       <c r="AP63">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ63">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AR63">
         <v>1.55</v>
@@ -14189,10 +14198,10 @@
         <v>1.3</v>
       </c>
       <c r="AP64">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AQ64">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14395,10 +14404,10 @@
         <v>1.1</v>
       </c>
       <c r="AP65">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AQ65">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR65">
         <v>1.21</v>
@@ -14523,7 +14532,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14601,10 +14610,10 @@
         <v>1.18</v>
       </c>
       <c r="AP66">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ66">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AR66">
         <v>1.23</v>
@@ -14729,7 +14738,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14935,7 +14944,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15219,10 +15228,10 @@
         <v>1.27</v>
       </c>
       <c r="AP69">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ69">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR69">
         <v>1.62</v>
@@ -15425,10 +15434,10 @@
         <v>1.64</v>
       </c>
       <c r="AP70">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AQ70">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AR70">
         <v>1.35</v>
@@ -15631,10 +15640,10 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AQ71">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AR71">
         <v>1.22</v>
@@ -15837,10 +15846,10 @@
         <v>1.17</v>
       </c>
       <c r="AP72">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ72">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AR72">
         <v>1.46</v>
@@ -15965,7 +15974,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16046,7 +16055,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ73">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR73">
         <v>1.25</v>
@@ -16171,7 +16180,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16249,10 +16258,10 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AQ74">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR74">
         <v>1.39</v>
@@ -16377,7 +16386,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16455,7 +16464,7 @@
         <v>0.55</v>
       </c>
       <c r="AP75">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -16583,7 +16592,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16661,10 +16670,10 @@
         <v>2.27</v>
       </c>
       <c r="AP76">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AQ76">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AR76">
         <v>1.41</v>
@@ -16995,7 +17004,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17076,7 +17085,7 @@
         <v>1</v>
       </c>
       <c r="AQ78">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AR78">
         <v>1.39</v>
@@ -17201,7 +17210,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17279,10 +17288,10 @@
         <v>1.46</v>
       </c>
       <c r="AP79">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AQ79">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AR79">
         <v>1.41</v>
@@ -17407,7 +17416,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17485,7 +17494,7 @@
         <v>1.92</v>
       </c>
       <c r="AP80">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AQ80">
         <v>2.14</v>
@@ -17694,7 +17703,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ81">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AR81">
         <v>1.27</v>
@@ -17897,7 +17906,7 @@
         <v>0.54</v>
       </c>
       <c r="AP82">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ82">
         <v>0.96</v>
@@ -18025,7 +18034,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18103,10 +18112,10 @@
         <v>1.31</v>
       </c>
       <c r="AP83">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR83">
         <v>1.24</v>
@@ -18231,7 +18240,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18312,7 +18321,7 @@
         <v>1</v>
       </c>
       <c r="AQ84">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AR84">
         <v>1.38</v>
@@ -18518,7 +18527,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ85">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AR85">
         <v>1.23</v>
@@ -18643,7 +18652,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18721,10 +18730,10 @@
         <v>1.07</v>
       </c>
       <c r="AP86">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AQ86">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR86">
         <v>1.45</v>
@@ -18927,7 +18936,7 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -19133,10 +19142,10 @@
         <v>2.29</v>
       </c>
       <c r="AP88">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AQ88">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AR88">
         <v>1.24</v>
@@ -19342,7 +19351,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ89">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AR89">
         <v>1.81</v>
@@ -19545,7 +19554,7 @@
         <v>1.36</v>
       </c>
       <c r="AP90">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AQ90">
         <v>1.05</v>
@@ -19673,7 +19682,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19754,7 +19763,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ91">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR91">
         <v>1.34</v>
@@ -19960,7 +19969,7 @@
         <v>1</v>
       </c>
       <c r="AQ92">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AR92">
         <v>1.3</v>
@@ -20085,7 +20094,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20163,7 +20172,7 @@
         <v>2.07</v>
       </c>
       <c r="AP93">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ93">
         <v>2.14</v>
@@ -20369,7 +20378,7 @@
         <v>0.67</v>
       </c>
       <c r="AP94">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ94">
         <v>0.96</v>
@@ -20497,7 +20506,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20575,10 +20584,10 @@
         <v>1.67</v>
       </c>
       <c r="AP95">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ95">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AR95">
         <v>1.32</v>
@@ -20781,10 +20790,10 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AQ96">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR96">
         <v>1.51</v>
@@ -20909,7 +20918,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -20987,10 +20996,10 @@
         <v>1.19</v>
       </c>
       <c r="AP97">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AQ97">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR97">
         <v>1.2</v>
@@ -21193,10 +21202,10 @@
         <v>1.06</v>
       </c>
       <c r="AP98">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ98">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AR98">
         <v>1.6</v>
@@ -21321,7 +21330,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21605,7 +21614,7 @@
         <v>1.38</v>
       </c>
       <c r="AP100">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AQ100">
         <v>1.05</v>
@@ -21814,7 +21823,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ101">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AR101">
         <v>1.8</v>
@@ -22017,10 +22026,10 @@
         <v>0.88</v>
       </c>
       <c r="AP102">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ102">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AR102">
         <v>1.45</v>
@@ -22145,7 +22154,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22351,7 +22360,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22432,7 +22441,7 @@
         <v>1</v>
       </c>
       <c r="AQ104">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR104">
         <v>1.3</v>
@@ -22557,7 +22566,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22635,10 +22644,10 @@
         <v>1.47</v>
       </c>
       <c r="AP105">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AQ105">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR105">
         <v>1.45</v>
@@ -22841,10 +22850,10 @@
         <v>2.06</v>
       </c>
       <c r="AP106">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ106">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AR106">
         <v>1.21</v>
@@ -22969,7 +22978,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23047,7 +23056,7 @@
         <v>2.06</v>
       </c>
       <c r="AP107">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AQ107">
         <v>2.14</v>
@@ -23175,7 +23184,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23253,10 +23262,10 @@
         <v>1.53</v>
       </c>
       <c r="AP108">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ108">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AR108">
         <v>1.32</v>
@@ -23381,7 +23390,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q109">
         <v>2.63</v>
@@ -23459,7 +23468,7 @@
         <v>1.28</v>
       </c>
       <c r="AP109">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AQ109">
         <v>1.05</v>
@@ -23665,7 +23674,7 @@
         <v>0.89</v>
       </c>
       <c r="AP110">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ110">
         <v>1</v>
@@ -23793,7 +23802,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -23871,10 +23880,10 @@
         <v>1.11</v>
       </c>
       <c r="AP111">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AQ111">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR111">
         <v>1.48</v>
@@ -23999,7 +24008,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24077,10 +24086,10 @@
         <v>1.78</v>
       </c>
       <c r="AP112">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AQ112">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AR112">
         <v>1.5</v>
@@ -24286,7 +24295,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ113">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR113">
         <v>1.78</v>
@@ -24411,7 +24420,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -24492,7 +24501,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ114">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AR114">
         <v>1.26</v>
@@ -24617,7 +24626,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -24695,7 +24704,7 @@
         <v>2.17</v>
       </c>
       <c r="AP115">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ115">
         <v>2.14</v>
@@ -24904,7 +24913,7 @@
         <v>1</v>
       </c>
       <c r="AQ116">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AR116">
         <v>1.3</v>
@@ -25029,7 +25038,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25107,10 +25116,10 @@
         <v>1.53</v>
       </c>
       <c r="AP117">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ117">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AR117">
         <v>1.42</v>
@@ -25235,7 +25244,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25316,7 +25325,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ118">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AR118">
         <v>1.31</v>
@@ -25441,7 +25450,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25519,7 +25528,7 @@
         <v>0.79</v>
       </c>
       <c r="AP119">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AQ119">
         <v>0.96</v>
@@ -25725,10 +25734,10 @@
         <v>1.5</v>
       </c>
       <c r="AP120">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ120">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR120">
         <v>1.29</v>
@@ -25853,7 +25862,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -25934,7 +25943,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ121">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR121">
         <v>1.22</v>
@@ -26059,7 +26068,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26137,7 +26146,7 @@
         <v>0.95</v>
       </c>
       <c r="AP122">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ122">
         <v>1</v>
@@ -26265,7 +26274,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26343,10 +26352,10 @@
         <v>1.75</v>
       </c>
       <c r="AP123">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AQ123">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AR123">
         <v>1.18</v>
@@ -26471,7 +26480,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -26552,7 +26561,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ124">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AR124">
         <v>1.77</v>
@@ -26755,10 +26764,10 @@
         <v>0.95</v>
       </c>
       <c r="AP125">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ125">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AR125">
         <v>1.61</v>
@@ -26883,7 +26892,7 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -26961,7 +26970,7 @@
         <v>1.15</v>
       </c>
       <c r="AP126">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AQ126">
         <v>1.05</v>
@@ -27089,7 +27098,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27167,10 +27176,10 @@
         <v>1.4</v>
       </c>
       <c r="AP127">
+        <v>1.39</v>
+      </c>
+      <c r="AQ127">
         <v>1.41</v>
-      </c>
-      <c r="AQ127">
-        <v>1.33</v>
       </c>
       <c r="AR127">
         <v>1.39</v>
@@ -27295,7 +27304,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27373,7 +27382,7 @@
         <v>0.86</v>
       </c>
       <c r="AP128">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AQ128">
         <v>0.96</v>
@@ -27501,7 +27510,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27579,10 +27588,10 @@
         <v>2.14</v>
       </c>
       <c r="AP129">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AQ129">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AR129">
         <v>1.48</v>
@@ -27707,7 +27716,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -27913,7 +27922,7 @@
         <v>89</v>
       </c>
       <c r="P131" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -27994,7 +28003,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ131">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR131">
         <v>1.28</v>
@@ -28119,7 +28128,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28197,10 +28206,10 @@
         <v>1.1</v>
       </c>
       <c r="AP132">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AQ132">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AR132">
         <v>1.23</v>
@@ -28482,6 +28491,830 @@
       </c>
       <c r="BP133">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7329931</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45493.70833333334</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134" t="s">
+        <v>77</v>
+      </c>
+      <c r="H134" t="s">
+        <v>79</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>3</v>
+      </c>
+      <c r="K134">
+        <v>4</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="M134">
+        <v>4</v>
+      </c>
+      <c r="N134">
+        <v>6</v>
+      </c>
+      <c r="O134" t="s">
+        <v>166</v>
+      </c>
+      <c r="P134" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q134">
+        <v>6</v>
+      </c>
+      <c r="R134">
+        <v>2.3</v>
+      </c>
+      <c r="S134">
+        <v>2.05</v>
+      </c>
+      <c r="T134">
+        <v>1.33</v>
+      </c>
+      <c r="U134">
+        <v>3.14</v>
+      </c>
+      <c r="V134">
+        <v>2.58</v>
+      </c>
+      <c r="W134">
+        <v>1.47</v>
+      </c>
+      <c r="X134">
+        <v>6.05</v>
+      </c>
+      <c r="Y134">
+        <v>1.1</v>
+      </c>
+      <c r="Z134">
+        <v>6.75</v>
+      </c>
+      <c r="AA134">
+        <v>4.2</v>
+      </c>
+      <c r="AB134">
+        <v>1.36</v>
+      </c>
+      <c r="AC134">
+        <v>1.02</v>
+      </c>
+      <c r="AD134">
+        <v>10</v>
+      </c>
+      <c r="AE134">
+        <v>1.22</v>
+      </c>
+      <c r="AF134">
+        <v>3.8</v>
+      </c>
+      <c r="AG134">
+        <v>1.7</v>
+      </c>
+      <c r="AH134">
+        <v>2</v>
+      </c>
+      <c r="AI134">
+        <v>1.91</v>
+      </c>
+      <c r="AJ134">
+        <v>1.8</v>
+      </c>
+      <c r="AK134">
+        <v>2.8</v>
+      </c>
+      <c r="AL134">
+        <v>1.2</v>
+      </c>
+      <c r="AM134">
+        <v>1.07</v>
+      </c>
+      <c r="AN134">
+        <v>1.05</v>
+      </c>
+      <c r="AO134">
+        <v>2.18</v>
+      </c>
+      <c r="AP134">
+        <v>1</v>
+      </c>
+      <c r="AQ134">
+        <v>2.22</v>
+      </c>
+      <c r="AR134">
+        <v>1.2</v>
+      </c>
+      <c r="AS134">
+        <v>1.58</v>
+      </c>
+      <c r="AT134">
+        <v>2.78</v>
+      </c>
+      <c r="AU134">
+        <v>7</v>
+      </c>
+      <c r="AV134">
+        <v>5</v>
+      </c>
+      <c r="AW134">
+        <v>4</v>
+      </c>
+      <c r="AX134">
+        <v>4</v>
+      </c>
+      <c r="AY134">
+        <v>11</v>
+      </c>
+      <c r="AZ134">
+        <v>9</v>
+      </c>
+      <c r="BA134">
+        <v>3</v>
+      </c>
+      <c r="BB134">
+        <v>3</v>
+      </c>
+      <c r="BC134">
+        <v>6</v>
+      </c>
+      <c r="BD134">
+        <v>3.3</v>
+      </c>
+      <c r="BE134">
+        <v>9</v>
+      </c>
+      <c r="BF134">
+        <v>1.46</v>
+      </c>
+      <c r="BG134">
+        <v>1.26</v>
+      </c>
+      <c r="BH134">
+        <v>3.34</v>
+      </c>
+      <c r="BI134">
+        <v>1.49</v>
+      </c>
+      <c r="BJ134">
+        <v>2.38</v>
+      </c>
+      <c r="BK134">
+        <v>1.95</v>
+      </c>
+      <c r="BL134">
+        <v>1.77</v>
+      </c>
+      <c r="BM134">
+        <v>2.4</v>
+      </c>
+      <c r="BN134">
+        <v>1.48</v>
+      </c>
+      <c r="BO134">
+        <v>3.28</v>
+      </c>
+      <c r="BP134">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7329929</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45493.8125</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135" t="s">
+        <v>71</v>
+      </c>
+      <c r="H135" t="s">
+        <v>75</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
+        <v>2</v>
+      </c>
+      <c r="O135" t="s">
+        <v>144</v>
+      </c>
+      <c r="P135" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q135">
+        <v>2.75</v>
+      </c>
+      <c r="R135">
+        <v>2.1</v>
+      </c>
+      <c r="S135">
+        <v>4.33</v>
+      </c>
+      <c r="T135">
+        <v>1.43</v>
+      </c>
+      <c r="U135">
+        <v>2.65</v>
+      </c>
+      <c r="V135">
+        <v>3.03</v>
+      </c>
+      <c r="W135">
+        <v>1.36</v>
+      </c>
+      <c r="X135">
+        <v>7.6</v>
+      </c>
+      <c r="Y135">
+        <v>1.06</v>
+      </c>
+      <c r="Z135">
+        <v>2.05</v>
+      </c>
+      <c r="AA135">
+        <v>3.25</v>
+      </c>
+      <c r="AB135">
+        <v>3.4</v>
+      </c>
+      <c r="AC135">
+        <v>1.03</v>
+      </c>
+      <c r="AD135">
+        <v>8.4</v>
+      </c>
+      <c r="AE135">
+        <v>1.33</v>
+      </c>
+      <c r="AF135">
+        <v>3.1</v>
+      </c>
+      <c r="AG135">
+        <v>2.1</v>
+      </c>
+      <c r="AH135">
+        <v>1.7</v>
+      </c>
+      <c r="AI135">
+        <v>1.83</v>
+      </c>
+      <c r="AJ135">
+        <v>1.83</v>
+      </c>
+      <c r="AK135">
+        <v>1.25</v>
+      </c>
+      <c r="AL135">
+        <v>1.25</v>
+      </c>
+      <c r="AM135">
+        <v>1.78</v>
+      </c>
+      <c r="AN135">
+        <v>1.64</v>
+      </c>
+      <c r="AO135">
+        <v>1.41</v>
+      </c>
+      <c r="AP135">
+        <v>1.61</v>
+      </c>
+      <c r="AQ135">
+        <v>1.39</v>
+      </c>
+      <c r="AR135">
+        <v>1.47</v>
+      </c>
+      <c r="AS135">
+        <v>1.39</v>
+      </c>
+      <c r="AT135">
+        <v>2.86</v>
+      </c>
+      <c r="AU135">
+        <v>5</v>
+      </c>
+      <c r="AV135">
+        <v>0</v>
+      </c>
+      <c r="AW135">
+        <v>4</v>
+      </c>
+      <c r="AX135">
+        <v>2</v>
+      </c>
+      <c r="AY135">
+        <v>9</v>
+      </c>
+      <c r="AZ135">
+        <v>2</v>
+      </c>
+      <c r="BA135">
+        <v>7</v>
+      </c>
+      <c r="BB135">
+        <v>2</v>
+      </c>
+      <c r="BC135">
+        <v>9</v>
+      </c>
+      <c r="BD135">
+        <v>1.6</v>
+      </c>
+      <c r="BE135">
+        <v>7.7</v>
+      </c>
+      <c r="BF135">
+        <v>2.9</v>
+      </c>
+      <c r="BG135">
+        <v>1.21</v>
+      </c>
+      <c r="BH135">
+        <v>3.74</v>
+      </c>
+      <c r="BI135">
+        <v>1.41</v>
+      </c>
+      <c r="BJ135">
+        <v>2.6</v>
+      </c>
+      <c r="BK135">
+        <v>2.38</v>
+      </c>
+      <c r="BL135">
+        <v>1.85</v>
+      </c>
+      <c r="BM135">
+        <v>2.19</v>
+      </c>
+      <c r="BN135">
+        <v>1.57</v>
+      </c>
+      <c r="BO135">
+        <v>2.93</v>
+      </c>
+      <c r="BP135">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7329934</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45494.70833333334</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136" t="s">
+        <v>73</v>
+      </c>
+      <c r="H136" t="s">
+        <v>72</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136" t="s">
+        <v>89</v>
+      </c>
+      <c r="P136" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q136">
+        <v>4.33</v>
+      </c>
+      <c r="R136">
+        <v>2.05</v>
+      </c>
+      <c r="S136">
+        <v>2.75</v>
+      </c>
+      <c r="T136">
+        <v>1.46</v>
+      </c>
+      <c r="U136">
+        <v>2.55</v>
+      </c>
+      <c r="V136">
+        <v>3.12</v>
+      </c>
+      <c r="W136">
+        <v>1.33</v>
+      </c>
+      <c r="X136">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y136">
+        <v>1.06</v>
+      </c>
+      <c r="Z136">
+        <v>3.7</v>
+      </c>
+      <c r="AA136">
+        <v>3.2</v>
+      </c>
+      <c r="AB136">
+        <v>2.05</v>
+      </c>
+      <c r="AC136">
+        <v>1.04</v>
+      </c>
+      <c r="AD136">
+        <v>7.8</v>
+      </c>
+      <c r="AE136">
+        <v>1.36</v>
+      </c>
+      <c r="AF136">
+        <v>2.95</v>
+      </c>
+      <c r="AG136">
+        <v>2.14</v>
+      </c>
+      <c r="AH136">
+        <v>1.66</v>
+      </c>
+      <c r="AI136">
+        <v>1.83</v>
+      </c>
+      <c r="AJ136">
+        <v>1.83</v>
+      </c>
+      <c r="AK136">
+        <v>1.75</v>
+      </c>
+      <c r="AL136">
+        <v>1.25</v>
+      </c>
+      <c r="AM136">
+        <v>1.25</v>
+      </c>
+      <c r="AN136">
+        <v>0.86</v>
+      </c>
+      <c r="AO136">
+        <v>1.59</v>
+      </c>
+      <c r="AP136">
+        <v>0.87</v>
+      </c>
+      <c r="AQ136">
+        <v>1.57</v>
+      </c>
+      <c r="AR136">
+        <v>1.27</v>
+      </c>
+      <c r="AS136">
+        <v>1.44</v>
+      </c>
+      <c r="AT136">
+        <v>2.71</v>
+      </c>
+      <c r="AU136">
+        <v>6</v>
+      </c>
+      <c r="AV136">
+        <v>2</v>
+      </c>
+      <c r="AW136">
+        <v>7</v>
+      </c>
+      <c r="AX136">
+        <v>3</v>
+      </c>
+      <c r="AY136">
+        <v>13</v>
+      </c>
+      <c r="AZ136">
+        <v>5</v>
+      </c>
+      <c r="BA136">
+        <v>2</v>
+      </c>
+      <c r="BB136">
+        <v>2</v>
+      </c>
+      <c r="BC136">
+        <v>4</v>
+      </c>
+      <c r="BD136">
+        <v>3</v>
+      </c>
+      <c r="BE136">
+        <v>7.5</v>
+      </c>
+      <c r="BF136">
+        <v>1.58</v>
+      </c>
+      <c r="BG136">
+        <v>1.24</v>
+      </c>
+      <c r="BH136">
+        <v>3.48</v>
+      </c>
+      <c r="BI136">
+        <v>1.46</v>
+      </c>
+      <c r="BJ136">
+        <v>2.45</v>
+      </c>
+      <c r="BK136">
+        <v>2</v>
+      </c>
+      <c r="BL136">
+        <v>1.8</v>
+      </c>
+      <c r="BM136">
+        <v>2.32</v>
+      </c>
+      <c r="BN136">
+        <v>1.51</v>
+      </c>
+      <c r="BO136">
+        <v>3.14</v>
+      </c>
+      <c r="BP136">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7329933</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45494.8125</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137" t="s">
+        <v>78</v>
+      </c>
+      <c r="H137" t="s">
+        <v>80</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>2</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>89</v>
+      </c>
+      <c r="P137" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q137">
+        <v>3.4</v>
+      </c>
+      <c r="R137">
+        <v>2.1</v>
+      </c>
+      <c r="S137">
+        <v>3.25</v>
+      </c>
+      <c r="T137">
+        <v>1.46</v>
+      </c>
+      <c r="U137">
+        <v>2.55</v>
+      </c>
+      <c r="V137">
+        <v>2.94</v>
+      </c>
+      <c r="W137">
+        <v>1.37</v>
+      </c>
+      <c r="X137">
+        <v>7.6</v>
+      </c>
+      <c r="Y137">
+        <v>1.07</v>
+      </c>
+      <c r="Z137">
+        <v>2.7</v>
+      </c>
+      <c r="AA137">
+        <v>3</v>
+      </c>
+      <c r="AB137">
+        <v>2.5</v>
+      </c>
+      <c r="AC137">
+        <v>1.02</v>
+      </c>
+      <c r="AD137">
+        <v>8.5</v>
+      </c>
+      <c r="AE137">
+        <v>1.33</v>
+      </c>
+      <c r="AF137">
+        <v>3.1</v>
+      </c>
+      <c r="AG137">
+        <v>2.08</v>
+      </c>
+      <c r="AH137">
+        <v>1.73</v>
+      </c>
+      <c r="AI137">
+        <v>1.8</v>
+      </c>
+      <c r="AJ137">
+        <v>1.91</v>
+      </c>
+      <c r="AK137">
+        <v>1.47</v>
+      </c>
+      <c r="AL137">
+        <v>1.28</v>
+      </c>
+      <c r="AM137">
+        <v>1.45</v>
+      </c>
+      <c r="AN137">
+        <v>1.18</v>
+      </c>
+      <c r="AO137">
+        <v>1.33</v>
+      </c>
+      <c r="AP137">
+        <v>1.13</v>
+      </c>
+      <c r="AQ137">
+        <v>1.41</v>
+      </c>
+      <c r="AR137">
+        <v>1.57</v>
+      </c>
+      <c r="AS137">
+        <v>1.2</v>
+      </c>
+      <c r="AT137">
+        <v>2.77</v>
+      </c>
+      <c r="AU137">
+        <v>2</v>
+      </c>
+      <c r="AV137">
+        <v>3</v>
+      </c>
+      <c r="AW137">
+        <v>5</v>
+      </c>
+      <c r="AX137">
+        <v>4</v>
+      </c>
+      <c r="AY137">
+        <v>7</v>
+      </c>
+      <c r="AZ137">
+        <v>7</v>
+      </c>
+      <c r="BA137">
+        <v>4</v>
+      </c>
+      <c r="BB137">
+        <v>1</v>
+      </c>
+      <c r="BC137">
+        <v>5</v>
+      </c>
+      <c r="BD137">
+        <v>2.15</v>
+      </c>
+      <c r="BE137">
+        <v>7.1</v>
+      </c>
+      <c r="BF137">
+        <v>2.03</v>
+      </c>
+      <c r="BG137">
+        <v>1.28</v>
+      </c>
+      <c r="BH137">
+        <v>3.18</v>
+      </c>
+      <c r="BI137">
+        <v>1.53</v>
+      </c>
+      <c r="BJ137">
+        <v>2.27</v>
+      </c>
+      <c r="BK137">
+        <v>2.05</v>
+      </c>
+      <c r="BL137">
+        <v>1.7</v>
+      </c>
+      <c r="BM137">
+        <v>2.51</v>
+      </c>
+      <c r="BN137">
+        <v>1.44</v>
+      </c>
+      <c r="BO137">
+        <v>3.48</v>
+      </c>
+      <c r="BP137">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -517,6 +517,9 @@
     <t>['45', '88']</t>
   </si>
   <si>
+    <t>['39']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -673,9 +676,6 @@
     <t>['30', '56']</t>
   </si>
   <si>
-    <t>['39']</t>
-  </si>
-  <si>
     <t>['29', '44', '65']</t>
   </si>
   <si>
@@ -728,6 +728,9 @@
   </si>
   <si>
     <t>['17', '63']</t>
+  </si>
+  <si>
+    <t>['83', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP137"/>
+  <dimension ref="A1:BP138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1554,7 +1557,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -2253,7 +2256,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ6">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2378,7 +2381,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2456,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AQ7">
         <v>2.22</v>
@@ -2584,7 +2587,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2790,7 +2793,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2996,7 +2999,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3077,7 +3080,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ10">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AR10">
         <v>1.47</v>
@@ -3202,7 +3205,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3489,7 +3492,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ12">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AR12">
         <v>1.3</v>
@@ -3614,7 +3617,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4026,7 +4029,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4516,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4644,7 +4647,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4722,7 +4725,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AQ18">
         <v>2.22</v>
@@ -4850,7 +4853,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4931,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AR19">
         <v>1.31</v>
@@ -5056,7 +5059,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5137,7 +5140,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ20">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AR20">
         <v>1.69</v>
@@ -5262,7 +5265,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5468,7 +5471,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5880,7 +5883,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6292,7 +6295,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6370,7 +6373,7 @@
         <v>0.25</v>
       </c>
       <c r="AP26">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6576,7 +6579,7 @@
         <v>1.75</v>
       </c>
       <c r="AP27">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AQ27">
         <v>1.05</v>
@@ -6704,7 +6707,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -7403,7 +7406,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ31">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AR31">
         <v>1.28</v>
@@ -7528,7 +7531,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7940,7 +7943,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8146,7 +8149,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8227,7 +8230,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AR35">
         <v>1.5</v>
@@ -8352,7 +8355,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8558,7 +8561,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -9176,7 +9179,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9254,7 +9257,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AQ40">
         <v>1.05</v>
@@ -9382,7 +9385,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9460,7 +9463,7 @@
         <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AQ41">
         <v>1.61</v>
@@ -9588,7 +9591,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9872,7 +9875,7 @@
         <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AQ43">
         <v>2.14</v>
@@ -10000,7 +10003,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10412,7 +10415,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10493,7 +10496,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ46">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AR46">
         <v>1.37</v>
@@ -10618,7 +10621,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -11236,7 +11239,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11442,7 +11445,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11520,7 +11523,7 @@
         <v>1.63</v>
       </c>
       <c r="AP51">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AQ51">
         <v>1.61</v>
@@ -11729,7 +11732,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ52">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AR52">
         <v>1.52</v>
@@ -12060,7 +12063,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12266,7 +12269,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12472,7 +12475,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12678,7 +12681,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12884,7 +12887,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -12962,10 +12965,10 @@
         <v>0.44</v>
       </c>
       <c r="AP58">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AQ58">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AR58">
         <v>1.5</v>
@@ -13296,7 +13299,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13580,7 +13583,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AQ61">
         <v>1.57</v>
@@ -14407,7 +14410,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ65">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AR65">
         <v>1.21</v>
@@ -14532,7 +14535,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14738,7 +14741,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14944,7 +14947,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15022,7 +15025,7 @@
         <v>1.7</v>
       </c>
       <c r="AP68">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AQ68">
         <v>2.14</v>
@@ -15231,7 +15234,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ69">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AR69">
         <v>1.62</v>
@@ -15846,7 +15849,7 @@
         <v>1.17</v>
       </c>
       <c r="AP72">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AQ72">
         <v>1.13</v>
@@ -15974,7 +15977,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16052,7 +16055,7 @@
         <v>1.36</v>
       </c>
       <c r="AP73">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AQ73">
         <v>1.41</v>
@@ -16180,7 +16183,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16386,7 +16389,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16592,7 +16595,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17004,7 +17007,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17210,7 +17213,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17416,7 +17419,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17909,7 +17912,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ82">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AR82">
         <v>1.64</v>
@@ -18034,7 +18037,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18115,7 +18118,7 @@
         <v>1</v>
       </c>
       <c r="AQ83">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AR83">
         <v>1.24</v>
@@ -18240,7 +18243,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18524,7 +18527,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AQ85">
         <v>1.13</v>
@@ -18652,7 +18655,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18936,7 +18939,7 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -19682,7 +19685,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19763,7 +19766,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ91">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AR91">
         <v>1.34</v>
@@ -20094,7 +20097,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20381,7 +20384,7 @@
         <v>1</v>
       </c>
       <c r="AQ94">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AR94">
         <v>1.23</v>
@@ -20506,7 +20509,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20918,7 +20921,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21330,7 +21333,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21408,7 +21411,7 @@
         <v>0.63</v>
       </c>
       <c r="AP99">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -22026,7 +22029,7 @@
         <v>0.88</v>
       </c>
       <c r="AP102">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AQ102">
         <v>0.87</v>
@@ -22154,7 +22157,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22235,7 +22238,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ103">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AR103">
         <v>1.29</v>
@@ -22360,7 +22363,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22566,7 +22569,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22647,7 +22650,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ105">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AR105">
         <v>1.45</v>
@@ -22978,7 +22981,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23184,7 +23187,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23390,7 +23393,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="Q109">
         <v>2.63</v>
@@ -24295,7 +24298,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ113">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AR113">
         <v>1.78</v>
@@ -24498,7 +24501,7 @@
         <v>0.83</v>
       </c>
       <c r="AP114">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AQ114">
         <v>0.87</v>
@@ -25038,7 +25041,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25116,7 +25119,7 @@
         <v>1.53</v>
       </c>
       <c r="AP117">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AQ117">
         <v>1.57</v>
@@ -25244,7 +25247,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25531,7 +25534,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ119">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AR119">
         <v>1.48</v>
@@ -25940,10 +25943,10 @@
         <v>1.25</v>
       </c>
       <c r="AP121">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AQ121">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AR121">
         <v>1.22</v>
@@ -27176,7 +27179,7 @@
         <v>1.4</v>
       </c>
       <c r="AP127">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AQ127">
         <v>1.41</v>
@@ -27385,7 +27388,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ128">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AR128">
         <v>1.44</v>
@@ -28415,7 +28418,7 @@
         <v>1</v>
       </c>
       <c r="AQ133">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AR133">
         <v>1.36</v>
@@ -28827,7 +28830,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ135">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AR135">
         <v>1.47</v>
@@ -29315,6 +29318,212 @@
       </c>
       <c r="BP137">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7487255</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45499.8125</v>
+      </c>
+      <c r="F138">
+        <v>2</v>
+      </c>
+      <c r="G138" t="s">
+        <v>81</v>
+      </c>
+      <c r="H138" t="s">
+        <v>75</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>2</v>
+      </c>
+      <c r="N138">
+        <v>3</v>
+      </c>
+      <c r="O138" t="s">
+        <v>167</v>
+      </c>
+      <c r="P138" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q138">
+        <v>3.75</v>
+      </c>
+      <c r="R138">
+        <v>2.2</v>
+      </c>
+      <c r="S138">
+        <v>2.88</v>
+      </c>
+      <c r="T138">
+        <v>1.36</v>
+      </c>
+      <c r="U138">
+        <v>3.01</v>
+      </c>
+      <c r="V138">
+        <v>2.84</v>
+      </c>
+      <c r="W138">
+        <v>1.4</v>
+      </c>
+      <c r="X138">
+        <v>7.1</v>
+      </c>
+      <c r="Y138">
+        <v>1.08</v>
+      </c>
+      <c r="Z138">
+        <v>3.25</v>
+      </c>
+      <c r="AA138">
+        <v>3.3</v>
+      </c>
+      <c r="AB138">
+        <v>2.2</v>
+      </c>
+      <c r="AC138">
+        <v>1.02</v>
+      </c>
+      <c r="AD138">
+        <v>9.1</v>
+      </c>
+      <c r="AE138">
+        <v>1.27</v>
+      </c>
+      <c r="AF138">
+        <v>3.28</v>
+      </c>
+      <c r="AG138">
+        <v>2</v>
+      </c>
+      <c r="AH138">
+        <v>1.8</v>
+      </c>
+      <c r="AI138">
+        <v>1.73</v>
+      </c>
+      <c r="AJ138">
+        <v>2</v>
+      </c>
+      <c r="AK138">
+        <v>1.5</v>
+      </c>
+      <c r="AL138">
+        <v>1.28</v>
+      </c>
+      <c r="AM138">
+        <v>1.41</v>
+      </c>
+      <c r="AN138">
+        <v>0.96</v>
+      </c>
+      <c r="AO138">
+        <v>1.39</v>
+      </c>
+      <c r="AP138">
+        <v>0.92</v>
+      </c>
+      <c r="AQ138">
+        <v>1.46</v>
+      </c>
+      <c r="AR138">
+        <v>1.21</v>
+      </c>
+      <c r="AS138">
+        <v>1.34</v>
+      </c>
+      <c r="AT138">
+        <v>2.55</v>
+      </c>
+      <c r="AU138">
+        <v>3</v>
+      </c>
+      <c r="AV138">
+        <v>6</v>
+      </c>
+      <c r="AW138">
+        <v>7</v>
+      </c>
+      <c r="AX138">
+        <v>5</v>
+      </c>
+      <c r="AY138">
+        <v>10</v>
+      </c>
+      <c r="AZ138">
+        <v>11</v>
+      </c>
+      <c r="BA138">
+        <v>6</v>
+      </c>
+      <c r="BB138">
+        <v>2</v>
+      </c>
+      <c r="BC138">
+        <v>8</v>
+      </c>
+      <c r="BD138">
+        <v>1.87</v>
+      </c>
+      <c r="BE138">
+        <v>7.5</v>
+      </c>
+      <c r="BF138">
+        <v>2.32</v>
+      </c>
+      <c r="BG138">
+        <v>1.19</v>
+      </c>
+      <c r="BH138">
+        <v>3.95</v>
+      </c>
+      <c r="BI138">
+        <v>1.38</v>
+      </c>
+      <c r="BJ138">
+        <v>2.71</v>
+      </c>
+      <c r="BK138">
+        <v>2.38</v>
+      </c>
+      <c r="BL138">
+        <v>1.95</v>
+      </c>
+      <c r="BM138">
+        <v>2.11</v>
+      </c>
+      <c r="BN138">
+        <v>1.62</v>
+      </c>
+      <c r="BO138">
+        <v>2.79</v>
+      </c>
+      <c r="BP138">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="240">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>['39']</t>
+  </si>
+  <si>
+    <t>['45+4', '83']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -1092,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP138"/>
+  <dimension ref="A1:BP140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1429,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1557,7 +1560,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1638,7 +1641,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ3">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1841,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AQ4">
         <v>1.41</v>
@@ -2381,7 +2384,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2587,7 +2590,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2793,7 +2796,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2999,7 +3002,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3077,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AQ10">
         <v>1.46</v>
@@ -3205,7 +3208,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3286,7 +3289,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ11">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AR11">
         <v>1.49</v>
@@ -3617,7 +3620,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3695,7 +3698,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AQ13">
         <v>2.14</v>
@@ -3901,10 +3904,10 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AQ14">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AR14">
         <v>1.53</v>
@@ -4029,7 +4032,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4316,7 +4319,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ16">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AR16">
         <v>1.54</v>
@@ -4647,7 +4650,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4853,7 +4856,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5059,7 +5062,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5137,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AQ20">
         <v>0.92</v>
@@ -5265,7 +5268,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5346,7 +5349,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AR21">
         <v>1.64</v>
@@ -5471,7 +5474,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5883,7 +5886,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5961,7 +5964,7 @@
         <v>1.67</v>
       </c>
       <c r="AP24">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AQ24">
         <v>1.61</v>
@@ -6170,7 +6173,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ25">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AR25">
         <v>1.01</v>
@@ -6295,7 +6298,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6582,7 +6585,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ27">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AR27">
         <v>1.52</v>
@@ -6707,7 +6710,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -7197,7 +7200,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7531,7 +7534,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7609,10 +7612,10 @@
         <v>1.6</v>
       </c>
       <c r="AP32">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AQ32">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AR32">
         <v>1.21</v>
@@ -7943,7 +7946,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8021,7 +8024,7 @@
         <v>2.2</v>
       </c>
       <c r="AP34">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AQ34">
         <v>2.22</v>
@@ -8149,7 +8152,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8355,7 +8358,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8561,7 +8564,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8639,7 +8642,7 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AQ37">
         <v>0.87</v>
@@ -9054,7 +9057,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ39">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AR39">
         <v>2.03</v>
@@ -9179,7 +9182,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9260,7 +9263,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ40">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AR40">
         <v>1.34</v>
@@ -9385,7 +9388,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9591,7 +9594,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -10003,7 +10006,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10081,7 +10084,7 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AQ44">
         <v>1.41</v>
@@ -10290,7 +10293,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ45">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AR45">
         <v>1.37</v>
@@ -10415,7 +10418,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10621,7 +10624,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10702,7 +10705,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AR47">
         <v>1.34</v>
@@ -10905,7 +10908,7 @@
         <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11239,7 +11242,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11445,7 +11448,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11729,7 +11732,7 @@
         <v>1.38</v>
       </c>
       <c r="AP52">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AQ52">
         <v>1.46</v>
@@ -11938,7 +11941,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ53">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AR53">
         <v>1.55</v>
@@ -12063,7 +12066,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12141,7 +12144,7 @@
         <v>1.38</v>
       </c>
       <c r="AP54">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AQ54">
         <v>2.14</v>
@@ -12269,7 +12272,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12475,7 +12478,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12681,7 +12684,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12887,7 +12890,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13171,10 +13174,10 @@
         <v>1.11</v>
       </c>
       <c r="AP59">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AQ59">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AR59">
         <v>1.29</v>
@@ -13299,7 +13302,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13380,7 +13383,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AR60">
         <v>1.22</v>
@@ -13586,7 +13589,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ61">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AR61">
         <v>1.27</v>
@@ -14201,7 +14204,7 @@
         <v>1.3</v>
       </c>
       <c r="AP64">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AQ64">
         <v>0.87</v>
@@ -14535,7 +14538,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14741,7 +14744,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14822,7 +14825,7 @@
         <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AR67">
         <v>1.34</v>
@@ -14947,7 +14950,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15437,7 +15440,7 @@
         <v>1.64</v>
       </c>
       <c r="AP70">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AQ70">
         <v>1.61</v>
@@ -15646,7 +15649,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ71">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AR71">
         <v>1.22</v>
@@ -15852,7 +15855,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ72">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AR72">
         <v>1.46</v>
@@ -15977,7 +15980,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16183,7 +16186,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16389,7 +16392,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16595,7 +16598,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16673,7 +16676,7 @@
         <v>2.27</v>
       </c>
       <c r="AP76">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AQ76">
         <v>2.22</v>
@@ -16882,7 +16885,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ77">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AR77">
         <v>1.87</v>
@@ -17007,7 +17010,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17213,7 +17216,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17291,10 +17294,10 @@
         <v>1.46</v>
       </c>
       <c r="AP79">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AQ79">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AR79">
         <v>1.41</v>
@@ -17419,7 +17422,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17703,7 +17706,7 @@
         <v>1.08</v>
       </c>
       <c r="AP81">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AQ81">
         <v>0.87</v>
@@ -18037,7 +18040,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18243,7 +18246,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18530,7 +18533,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ85">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AR85">
         <v>1.23</v>
@@ -18655,7 +18658,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18733,7 +18736,7 @@
         <v>1.07</v>
       </c>
       <c r="AP86">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AQ86">
         <v>1</v>
@@ -19560,7 +19563,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ90">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AR90">
         <v>1.42</v>
@@ -19685,7 +19688,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19763,7 +19766,7 @@
         <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AQ91">
         <v>1.46</v>
@@ -19972,7 +19975,7 @@
         <v>1</v>
       </c>
       <c r="AQ92">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AR92">
         <v>1.3</v>
@@ -20097,7 +20100,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20509,7 +20512,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20793,7 +20796,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AQ96">
         <v>1.41</v>
@@ -20921,7 +20924,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21208,7 +21211,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ98">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AR98">
         <v>1.6</v>
@@ -21333,7 +21336,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21617,10 +21620,10 @@
         <v>1.38</v>
       </c>
       <c r="AP100">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AQ100">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AR100">
         <v>1.48</v>
@@ -22157,7 +22160,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22235,7 +22238,7 @@
         <v>0.65</v>
       </c>
       <c r="AP103">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AQ103">
         <v>0.92</v>
@@ -22363,7 +22366,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22569,7 +22572,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22981,7 +22984,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23059,7 +23062,7 @@
         <v>2.06</v>
       </c>
       <c r="AP107">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AQ107">
         <v>2.14</v>
@@ -23187,7 +23190,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23268,7 +23271,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ108">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AR108">
         <v>1.32</v>
@@ -23474,7 +23477,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ109">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AR109">
         <v>1.21</v>
@@ -23805,7 +23808,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -23883,7 +23886,7 @@
         <v>1.11</v>
       </c>
       <c r="AP111">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AQ111">
         <v>1</v>
@@ -24011,7 +24014,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24089,7 +24092,7 @@
         <v>1.78</v>
       </c>
       <c r="AP112">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AQ112">
         <v>1.61</v>
@@ -24423,7 +24426,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -24629,7 +24632,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -24916,7 +24919,7 @@
         <v>1</v>
       </c>
       <c r="AQ116">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AR116">
         <v>1.3</v>
@@ -25041,7 +25044,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25122,7 +25125,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ117">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AR117">
         <v>1.42</v>
@@ -25247,7 +25250,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25325,7 +25328,7 @@
         <v>2.05</v>
       </c>
       <c r="AP118">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AQ118">
         <v>2.22</v>
@@ -25453,7 +25456,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25865,7 +25868,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26071,7 +26074,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26277,7 +26280,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26483,7 +26486,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -26564,7 +26567,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ124">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AR124">
         <v>1.77</v>
@@ -26895,7 +26898,7 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -26973,10 +26976,10 @@
         <v>1.15</v>
       </c>
       <c r="AP126">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AQ126">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AR126">
         <v>1.58</v>
@@ -27101,7 +27104,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27307,7 +27310,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27385,7 +27388,7 @@
         <v>0.86</v>
       </c>
       <c r="AP128">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AQ128">
         <v>0.92</v>
@@ -27513,7 +27516,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27719,7 +27722,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -27925,7 +27928,7 @@
         <v>89</v>
       </c>
       <c r="P131" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28003,7 +28006,7 @@
         <v>0.95</v>
       </c>
       <c r="AP131">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AQ131">
         <v>1</v>
@@ -28131,7 +28134,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28212,7 +28215,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ132">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AR132">
         <v>1.23</v>
@@ -28543,7 +28546,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29036,7 +29039,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ136">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AR136">
         <v>1.27</v>
@@ -29161,7 +29164,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29239,7 +29242,7 @@
         <v>1.33</v>
       </c>
       <c r="AP137">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AQ137">
         <v>1.41</v>
@@ -29367,7 +29370,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29524,6 +29527,418 @@
       </c>
       <c r="BP138">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7487253</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45500.70833333334</v>
+      </c>
+      <c r="F139">
+        <v>2</v>
+      </c>
+      <c r="G139" t="s">
+        <v>70</v>
+      </c>
+      <c r="H139" t="s">
+        <v>77</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139" t="s">
+        <v>89</v>
+      </c>
+      <c r="P139" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q139">
+        <v>3</v>
+      </c>
+      <c r="R139">
+        <v>2</v>
+      </c>
+      <c r="S139">
+        <v>4</v>
+      </c>
+      <c r="T139">
+        <v>1.42</v>
+      </c>
+      <c r="U139">
+        <v>2.86</v>
+      </c>
+      <c r="V139">
+        <v>3.11</v>
+      </c>
+      <c r="W139">
+        <v>1.37</v>
+      </c>
+      <c r="X139">
+        <v>7.8</v>
+      </c>
+      <c r="Y139">
+        <v>1.06</v>
+      </c>
+      <c r="Z139">
+        <v>2.2</v>
+      </c>
+      <c r="AA139">
+        <v>3.25</v>
+      </c>
+      <c r="AB139">
+        <v>3.3</v>
+      </c>
+      <c r="AC139">
+        <v>1.04</v>
+      </c>
+      <c r="AD139">
+        <v>8.5</v>
+      </c>
+      <c r="AE139">
+        <v>1.33</v>
+      </c>
+      <c r="AF139">
+        <v>3</v>
+      </c>
+      <c r="AG139">
+        <v>2.25</v>
+      </c>
+      <c r="AH139">
+        <v>1.62</v>
+      </c>
+      <c r="AI139">
+        <v>2</v>
+      </c>
+      <c r="AJ139">
+        <v>1.73</v>
+      </c>
+      <c r="AK139">
+        <v>1.33</v>
+      </c>
+      <c r="AL139">
+        <v>1.3</v>
+      </c>
+      <c r="AM139">
+        <v>1.73</v>
+      </c>
+      <c r="AN139">
+        <v>1.05</v>
+      </c>
+      <c r="AO139">
+        <v>1</v>
+      </c>
+      <c r="AP139">
+        <v>1.04</v>
+      </c>
+      <c r="AQ139">
+        <v>1</v>
+      </c>
+      <c r="AR139">
+        <v>1.38</v>
+      </c>
+      <c r="AS139">
+        <v>1.21</v>
+      </c>
+      <c r="AT139">
+        <v>2.59</v>
+      </c>
+      <c r="AU139">
+        <v>0</v>
+      </c>
+      <c r="AV139">
+        <v>2</v>
+      </c>
+      <c r="AW139">
+        <v>7</v>
+      </c>
+      <c r="AX139">
+        <v>4</v>
+      </c>
+      <c r="AY139">
+        <v>7</v>
+      </c>
+      <c r="AZ139">
+        <v>6</v>
+      </c>
+      <c r="BA139">
+        <v>3</v>
+      </c>
+      <c r="BB139">
+        <v>8</v>
+      </c>
+      <c r="BC139">
+        <v>11</v>
+      </c>
+      <c r="BD139">
+        <v>1.6</v>
+      </c>
+      <c r="BE139">
+        <v>8.1</v>
+      </c>
+      <c r="BF139">
+        <v>2.85</v>
+      </c>
+      <c r="BG139">
+        <v>1.25</v>
+      </c>
+      <c r="BH139">
+        <v>3.42</v>
+      </c>
+      <c r="BI139">
+        <v>1.47</v>
+      </c>
+      <c r="BJ139">
+        <v>2.42</v>
+      </c>
+      <c r="BK139">
+        <v>2.38</v>
+      </c>
+      <c r="BL139">
+        <v>1.9</v>
+      </c>
+      <c r="BM139">
+        <v>2.34</v>
+      </c>
+      <c r="BN139">
+        <v>1.5</v>
+      </c>
+      <c r="BO139">
+        <v>3.18</v>
+      </c>
+      <c r="BP139">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7487251</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45500.8125</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140" t="s">
+        <v>72</v>
+      </c>
+      <c r="H140" t="s">
+        <v>78</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>2</v>
+      </c>
+      <c r="L140">
+        <v>2</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>3</v>
+      </c>
+      <c r="O140" t="s">
+        <v>168</v>
+      </c>
+      <c r="P140" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q140">
+        <v>2.6</v>
+      </c>
+      <c r="R140">
+        <v>2.05</v>
+      </c>
+      <c r="S140">
+        <v>5</v>
+      </c>
+      <c r="T140">
+        <v>1.4</v>
+      </c>
+      <c r="U140">
+        <v>2.76</v>
+      </c>
+      <c r="V140">
+        <v>3.09</v>
+      </c>
+      <c r="W140">
+        <v>1.33</v>
+      </c>
+      <c r="X140">
+        <v>8</v>
+      </c>
+      <c r="Y140">
+        <v>1.06</v>
+      </c>
+      <c r="Z140">
+        <v>1.85</v>
+      </c>
+      <c r="AA140">
+        <v>3.25</v>
+      </c>
+      <c r="AB140">
+        <v>4.5</v>
+      </c>
+      <c r="AC140">
+        <v>1.04</v>
+      </c>
+      <c r="AD140">
+        <v>8.5</v>
+      </c>
+      <c r="AE140">
+        <v>1.33</v>
+      </c>
+      <c r="AF140">
+        <v>3</v>
+      </c>
+      <c r="AG140">
+        <v>2.25</v>
+      </c>
+      <c r="AH140">
+        <v>1.62</v>
+      </c>
+      <c r="AI140">
+        <v>2</v>
+      </c>
+      <c r="AJ140">
+        <v>1.73</v>
+      </c>
+      <c r="AK140">
+        <v>1.19</v>
+      </c>
+      <c r="AL140">
+        <v>1.27</v>
+      </c>
+      <c r="AM140">
+        <v>1.89</v>
+      </c>
+      <c r="AN140">
+        <v>1.57</v>
+      </c>
+      <c r="AO140">
+        <v>1.13</v>
+      </c>
+      <c r="AP140">
+        <v>1.63</v>
+      </c>
+      <c r="AQ140">
+        <v>1.08</v>
+      </c>
+      <c r="AR140">
+        <v>1.41</v>
+      </c>
+      <c r="AS140">
+        <v>1.55</v>
+      </c>
+      <c r="AT140">
+        <v>2.96</v>
+      </c>
+      <c r="AU140">
+        <v>2</v>
+      </c>
+      <c r="AV140">
+        <v>2</v>
+      </c>
+      <c r="AW140">
+        <v>3</v>
+      </c>
+      <c r="AX140">
+        <v>2</v>
+      </c>
+      <c r="AY140">
+        <v>5</v>
+      </c>
+      <c r="AZ140">
+        <v>4</v>
+      </c>
+      <c r="BA140">
+        <v>3</v>
+      </c>
+      <c r="BB140">
+        <v>3</v>
+      </c>
+      <c r="BC140">
+        <v>6</v>
+      </c>
+      <c r="BD140">
+        <v>1.48</v>
+      </c>
+      <c r="BE140">
+        <v>7.7</v>
+      </c>
+      <c r="BF140">
+        <v>3.4</v>
+      </c>
+      <c r="BG140">
+        <v>1.23</v>
+      </c>
+      <c r="BH140">
+        <v>3.56</v>
+      </c>
+      <c r="BI140">
+        <v>1.44</v>
+      </c>
+      <c r="BJ140">
+        <v>2.51</v>
+      </c>
+      <c r="BK140">
+        <v>2.38</v>
+      </c>
+      <c r="BL140">
+        <v>1.9</v>
+      </c>
+      <c r="BM140">
+        <v>2.28</v>
+      </c>
+      <c r="BN140">
+        <v>1.53</v>
+      </c>
+      <c r="BO140">
+        <v>3.04</v>
+      </c>
+      <c r="BP140">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="241">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -735,6 +735,9 @@
   <si>
     <t>['83', '90+5']</t>
   </si>
+  <si>
+    <t>['33', '85']</t>
+  </si>
 </sst>
 </file>
 
@@ -1095,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP140"/>
+  <dimension ref="A1:BP142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1435,7 +1438,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1638,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ3">
         <v>1.08</v>
@@ -2050,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2465,7 +2468,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ7">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2668,10 +2671,10 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AQ8">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR8">
         <v>0.87</v>
@@ -2877,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AR9">
         <v>1.58</v>
@@ -3286,7 +3289,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="AQ11">
         <v>1.63</v>
@@ -4110,10 +4113,10 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AR15">
         <v>1.29</v>
@@ -4316,7 +4319,7 @@
         <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ16">
         <v>1.04</v>
@@ -4731,7 +4734,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ18">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -4934,7 +4937,7 @@
         <v>1.67</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AQ19">
         <v>1.46</v>
@@ -5552,7 +5555,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ22">
         <v>2.14</v>
@@ -5758,7 +5761,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="AQ23">
         <v>1.41</v>
@@ -5967,7 +5970,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ24">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AR24">
         <v>1.25</v>
@@ -6788,10 +6791,10 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ28">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR28">
         <v>1.41</v>
@@ -6997,7 +7000,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ29">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="AR29">
         <v>2.13</v>
@@ -7203,7 +7206,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AR30">
         <v>1.49</v>
@@ -7406,7 +7409,7 @@
         <v>1.8</v>
       </c>
       <c r="AP31">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ31">
         <v>1.46</v>
@@ -7818,7 +7821,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ33">
         <v>2.14</v>
@@ -8027,7 +8030,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ34">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="AR34">
         <v>1.38</v>
@@ -8230,7 +8233,7 @@
         <v>0.6</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AQ35">
         <v>0.92</v>
@@ -8645,7 +8648,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ37">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR37">
         <v>1.56</v>
@@ -8851,7 +8854,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AR38">
         <v>1.06</v>
@@ -9469,7 +9472,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ41">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AR41">
         <v>1.42</v>
@@ -9672,7 +9675,7 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -10290,7 +10293,7 @@
         <v>1.71</v>
       </c>
       <c r="AP45">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ45">
         <v>1.63</v>
@@ -10496,7 +10499,7 @@
         <v>0.43</v>
       </c>
       <c r="AP46">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ46">
         <v>0.92</v>
@@ -10911,7 +10914,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AR48">
         <v>1.31</v>
@@ -11117,7 +11120,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ49">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR49">
         <v>1.1</v>
@@ -11529,7 +11532,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ51">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -11938,7 +11941,7 @@
         <v>1.38</v>
       </c>
       <c r="AP53">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="AQ53">
         <v>1.04</v>
@@ -12350,7 +12353,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ55">
         <v>1.41</v>
@@ -12556,10 +12559,10 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ56">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="AR56">
         <v>1.32</v>
@@ -12762,7 +12765,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -13795,7 +13798,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AR62">
         <v>1.93</v>
@@ -13998,10 +14001,10 @@
         <v>1.7</v>
       </c>
       <c r="AP63">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="AQ63">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AR63">
         <v>1.55</v>
@@ -14207,7 +14210,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ64">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14619,7 +14622,7 @@
         <v>1</v>
       </c>
       <c r="AQ66">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR66">
         <v>1.23</v>
@@ -14822,7 +14825,7 @@
         <v>1.36</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AQ67">
         <v>1.04</v>
@@ -15234,7 +15237,7 @@
         <v>1.27</v>
       </c>
       <c r="AP69">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="AQ69">
         <v>1.46</v>
@@ -15443,7 +15446,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ70">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AR70">
         <v>1.35</v>
@@ -16264,7 +16267,7 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ74">
         <v>1</v>
@@ -16470,10 +16473,10 @@
         <v>0.55</v>
       </c>
       <c r="AP75">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AR75">
         <v>1.36</v>
@@ -16679,7 +16682,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ76">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="AR76">
         <v>1.41</v>
@@ -17088,10 +17091,10 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AQ78">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="AR78">
         <v>1.39</v>
@@ -17709,7 +17712,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ81">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR81">
         <v>1.27</v>
@@ -17912,7 +17915,7 @@
         <v>0.54</v>
       </c>
       <c r="AP82">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="AQ82">
         <v>0.92</v>
@@ -18324,10 +18327,10 @@
         <v>1.69</v>
       </c>
       <c r="AP84">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AQ84">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AR84">
         <v>1.38</v>
@@ -18945,7 +18948,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -19151,7 +19154,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ88">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="AR88">
         <v>1.24</v>
@@ -19357,7 +19360,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ89">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR89">
         <v>1.81</v>
@@ -19560,7 +19563,7 @@
         <v>1.36</v>
       </c>
       <c r="AP90">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ90">
         <v>1.04</v>
@@ -19972,7 +19975,7 @@
         <v>1.47</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AQ92">
         <v>1.63</v>
@@ -20178,7 +20181,7 @@
         <v>2.07</v>
       </c>
       <c r="AP93">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="AQ93">
         <v>2.14</v>
@@ -20590,10 +20593,10 @@
         <v>1.67</v>
       </c>
       <c r="AP95">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ95">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AR95">
         <v>1.32</v>
@@ -21208,7 +21211,7 @@
         <v>1.06</v>
       </c>
       <c r="AP98">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="AQ98">
         <v>1.08</v>
@@ -21417,7 +21420,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AR99">
         <v>1.2</v>
@@ -21829,7 +21832,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ101">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AR101">
         <v>1.8</v>
@@ -22035,7 +22038,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ102">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR102">
         <v>1.45</v>
@@ -22444,7 +22447,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AQ104">
         <v>1.41</v>
@@ -22650,7 +22653,7 @@
         <v>1.47</v>
       </c>
       <c r="AP105">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ105">
         <v>1.46</v>
@@ -22859,7 +22862,7 @@
         <v>1</v>
       </c>
       <c r="AQ106">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="AR106">
         <v>1.21</v>
@@ -23268,7 +23271,7 @@
         <v>1.53</v>
       </c>
       <c r="AP108">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ108">
         <v>1.63</v>
@@ -23680,10 +23683,10 @@
         <v>0.89</v>
       </c>
       <c r="AP110">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="AQ110">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AR110">
         <v>1.6</v>
@@ -24095,7 +24098,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ112">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AR112">
         <v>1.5</v>
@@ -24507,7 +24510,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ114">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR114">
         <v>1.26</v>
@@ -24916,7 +24919,7 @@
         <v>1.05</v>
       </c>
       <c r="AP116">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AQ116">
         <v>1.08</v>
@@ -25331,7 +25334,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ118">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="AR118">
         <v>1.31</v>
@@ -25534,7 +25537,7 @@
         <v>0.79</v>
       </c>
       <c r="AP119">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ119">
         <v>0.92</v>
@@ -25740,7 +25743,7 @@
         <v>1.5</v>
       </c>
       <c r="AP120">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ120">
         <v>1.41</v>
@@ -26155,7 +26158,7 @@
         <v>1</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AR122">
         <v>1.17</v>
@@ -26361,7 +26364,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ123">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AR123">
         <v>1.18</v>
@@ -26770,10 +26773,10 @@
         <v>0.95</v>
       </c>
       <c r="AP125">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="AQ125">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR125">
         <v>1.61</v>
@@ -27594,10 +27597,10 @@
         <v>2.14</v>
       </c>
       <c r="AP129">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ129">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="AR129">
         <v>1.48</v>
@@ -27800,7 +27803,7 @@
         <v>2.1</v>
       </c>
       <c r="AP130">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AQ130">
         <v>2.14</v>
@@ -28212,7 +28215,7 @@
         <v>1.1</v>
       </c>
       <c r="AP132">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ132">
         <v>1.08</v>
@@ -28418,7 +28421,7 @@
         <v>0.95</v>
       </c>
       <c r="AP133">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AQ133">
         <v>0.92</v>
@@ -28627,7 +28630,7 @@
         <v>1</v>
       </c>
       <c r="AQ134">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="AR134">
         <v>1.2</v>
@@ -28830,7 +28833,7 @@
         <v>1.41</v>
       </c>
       <c r="AP135">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ135">
         <v>1.46</v>
@@ -29036,7 +29039,7 @@
         <v>1.59</v>
       </c>
       <c r="AP136">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ136">
         <v>1.63</v>
@@ -29939,6 +29942,418 @@
       </c>
       <c r="BP140">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7487250</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45501.70833333334</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141" t="s">
+        <v>73</v>
+      </c>
+      <c r="H141" t="s">
+        <v>71</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141" t="s">
+        <v>89</v>
+      </c>
+      <c r="P141" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q141">
+        <v>5.5</v>
+      </c>
+      <c r="R141">
+        <v>1.95</v>
+      </c>
+      <c r="S141">
+        <v>2.63</v>
+      </c>
+      <c r="T141">
+        <v>1.42</v>
+      </c>
+      <c r="U141">
+        <v>2.78</v>
+      </c>
+      <c r="V141">
+        <v>3.12</v>
+      </c>
+      <c r="W141">
+        <v>1.34</v>
+      </c>
+      <c r="X141">
+        <v>7.9</v>
+      </c>
+      <c r="Y141">
+        <v>1.06</v>
+      </c>
+      <c r="Z141">
+        <v>3.64</v>
+      </c>
+      <c r="AA141">
+        <v>3</v>
+      </c>
+      <c r="AB141">
+        <v>1.79</v>
+      </c>
+      <c r="AC141">
+        <v>1.04</v>
+      </c>
+      <c r="AD141">
+        <v>8.5</v>
+      </c>
+      <c r="AE141">
+        <v>1.33</v>
+      </c>
+      <c r="AF141">
+        <v>3</v>
+      </c>
+      <c r="AG141">
+        <v>1.95</v>
+      </c>
+      <c r="AH141">
+        <v>1.76</v>
+      </c>
+      <c r="AI141">
+        <v>2.25</v>
+      </c>
+      <c r="AJ141">
+        <v>1.57</v>
+      </c>
+      <c r="AK141">
+        <v>1.93</v>
+      </c>
+      <c r="AL141">
+        <v>1.26</v>
+      </c>
+      <c r="AM141">
+        <v>1.18</v>
+      </c>
+      <c r="AN141">
+        <v>0.87</v>
+      </c>
+      <c r="AO141">
+        <v>1.61</v>
+      </c>
+      <c r="AP141">
+        <v>0.88</v>
+      </c>
+      <c r="AQ141">
+        <v>1.58</v>
+      </c>
+      <c r="AR141">
+        <v>1.28</v>
+      </c>
+      <c r="AS141">
+        <v>1.45</v>
+      </c>
+      <c r="AT141">
+        <v>2.73</v>
+      </c>
+      <c r="AU141">
+        <v>9</v>
+      </c>
+      <c r="AV141">
+        <v>10</v>
+      </c>
+      <c r="AW141">
+        <v>14</v>
+      </c>
+      <c r="AX141">
+        <v>12</v>
+      </c>
+      <c r="AY141">
+        <v>23</v>
+      </c>
+      <c r="AZ141">
+        <v>22</v>
+      </c>
+      <c r="BA141">
+        <v>5</v>
+      </c>
+      <c r="BB141">
+        <v>5</v>
+      </c>
+      <c r="BC141">
+        <v>10</v>
+      </c>
+      <c r="BD141">
+        <v>2.83</v>
+      </c>
+      <c r="BE141">
+        <v>6.45</v>
+      </c>
+      <c r="BF141">
+        <v>1.64</v>
+      </c>
+      <c r="BG141">
+        <v>1.28</v>
+      </c>
+      <c r="BH141">
+        <v>3.2</v>
+      </c>
+      <c r="BI141">
+        <v>1.52</v>
+      </c>
+      <c r="BJ141">
+        <v>2.3</v>
+      </c>
+      <c r="BK141">
+        <v>1.98</v>
+      </c>
+      <c r="BL141">
+        <v>1.82</v>
+      </c>
+      <c r="BM141">
+        <v>2.48</v>
+      </c>
+      <c r="BN141">
+        <v>1.45</v>
+      </c>
+      <c r="BO141">
+        <v>3.42</v>
+      </c>
+      <c r="BP141">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7487254</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45501.8125</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="G142" t="s">
+        <v>79</v>
+      </c>
+      <c r="H142" t="s">
+        <v>76</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>2</v>
+      </c>
+      <c r="N142">
+        <v>3</v>
+      </c>
+      <c r="O142" t="s">
+        <v>133</v>
+      </c>
+      <c r="P142" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q142">
+        <v>2.25</v>
+      </c>
+      <c r="R142">
+        <v>2.25</v>
+      </c>
+      <c r="S142">
+        <v>5.5</v>
+      </c>
+      <c r="T142">
+        <v>1.32</v>
+      </c>
+      <c r="U142">
+        <v>3.17</v>
+      </c>
+      <c r="V142">
+        <v>2.65</v>
+      </c>
+      <c r="W142">
+        <v>1.44</v>
+      </c>
+      <c r="X142">
+        <v>6.3</v>
+      </c>
+      <c r="Y142">
+        <v>1.1</v>
+      </c>
+      <c r="Z142">
+        <v>1.65</v>
+      </c>
+      <c r="AA142">
+        <v>4</v>
+      </c>
+      <c r="AB142">
+        <v>5</v>
+      </c>
+      <c r="AC142">
+        <v>1.02</v>
+      </c>
+      <c r="AD142">
+        <v>10</v>
+      </c>
+      <c r="AE142">
+        <v>1.25</v>
+      </c>
+      <c r="AF142">
+        <v>3.6</v>
+      </c>
+      <c r="AG142">
+        <v>1.85</v>
+      </c>
+      <c r="AH142">
+        <v>1.95</v>
+      </c>
+      <c r="AI142">
+        <v>1.83</v>
+      </c>
+      <c r="AJ142">
+        <v>1.83</v>
+      </c>
+      <c r="AK142">
+        <v>1.1</v>
+      </c>
+      <c r="AL142">
+        <v>1.19</v>
+      </c>
+      <c r="AM142">
+        <v>2.44</v>
+      </c>
+      <c r="AN142">
+        <v>2.22</v>
+      </c>
+      <c r="AO142">
+        <v>1</v>
+      </c>
+      <c r="AP142">
+        <v>2.13</v>
+      </c>
+      <c r="AQ142">
+        <v>1.08</v>
+      </c>
+      <c r="AR142">
+        <v>1.56</v>
+      </c>
+      <c r="AS142">
+        <v>1.37</v>
+      </c>
+      <c r="AT142">
+        <v>2.93</v>
+      </c>
+      <c r="AU142">
+        <v>5</v>
+      </c>
+      <c r="AV142">
+        <v>3</v>
+      </c>
+      <c r="AW142">
+        <v>1</v>
+      </c>
+      <c r="AX142">
+        <v>6</v>
+      </c>
+      <c r="AY142">
+        <v>6</v>
+      </c>
+      <c r="AZ142">
+        <v>9</v>
+      </c>
+      <c r="BA142">
+        <v>7</v>
+      </c>
+      <c r="BB142">
+        <v>7</v>
+      </c>
+      <c r="BC142">
+        <v>14</v>
+      </c>
+      <c r="BD142">
+        <v>1.29</v>
+      </c>
+      <c r="BE142">
+        <v>7.7</v>
+      </c>
+      <c r="BF142">
+        <v>4.7</v>
+      </c>
+      <c r="BG142">
+        <v>1.28</v>
+      </c>
+      <c r="BH142">
+        <v>3.2</v>
+      </c>
+      <c r="BI142">
+        <v>1.53</v>
+      </c>
+      <c r="BJ142">
+        <v>2.28</v>
+      </c>
+      <c r="BK142">
+        <v>1.89</v>
+      </c>
+      <c r="BL142">
+        <v>1.77</v>
+      </c>
+      <c r="BM142">
+        <v>2.5</v>
+      </c>
+      <c r="BN142">
+        <v>1.44</v>
+      </c>
+      <c r="BO142">
+        <v>3.42</v>
+      </c>
+      <c r="BP142">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="242">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>['45+4', '83']</t>
+  </si>
+  <si>
+    <t>['88']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -1098,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP142"/>
+  <dimension ref="A1:BP143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1563,7 +1566,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1850,7 +1853,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ4">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2259,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AQ6">
         <v>0.92</v>
@@ -2387,7 +2390,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2593,7 +2596,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2799,7 +2802,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3005,7 +3008,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3211,7 +3214,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3495,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ12">
         <v>0.92</v>
@@ -3623,7 +3626,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3704,7 +3707,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ13">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AR13">
         <v>1.34</v>
@@ -4035,7 +4038,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4653,7 +4656,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4859,7 +4862,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5065,7 +5068,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5271,7 +5274,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5477,7 +5480,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5558,7 +5561,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ22">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AR22">
         <v>1.54</v>
@@ -5764,7 +5767,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ23">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -5889,7 +5892,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6173,7 +6176,7 @@
         <v>0.75</v>
       </c>
       <c r="AP25">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ25">
         <v>1.08</v>
@@ -6301,7 +6304,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6713,7 +6716,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6997,7 +7000,7 @@
         <v>2.5</v>
       </c>
       <c r="AP29">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AQ29">
         <v>2.13</v>
@@ -7537,7 +7540,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7824,7 +7827,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ33">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AR33">
         <v>1.41</v>
@@ -7949,7 +7952,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8155,7 +8158,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8361,7 +8364,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8442,7 +8445,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR36">
         <v>1.5</v>
@@ -8567,7 +8570,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8851,7 +8854,7 @@
         <v>0.83</v>
       </c>
       <c r="AP38">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ38">
         <v>1.08</v>
@@ -9057,7 +9060,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AQ39">
         <v>1.08</v>
@@ -9185,7 +9188,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9391,7 +9394,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9597,7 +9600,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9884,7 +9887,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ43">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AR43">
         <v>1.44</v>
@@ -10009,7 +10012,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10090,7 +10093,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ44">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR44">
         <v>1.33</v>
@@ -10421,7 +10424,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10627,7 +10630,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -11117,7 +11120,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ49">
         <v>0.88</v>
@@ -11245,7 +11248,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11323,7 +11326,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11451,7 +11454,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -12069,7 +12072,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12150,7 +12153,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ54">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AR54">
         <v>1.53</v>
@@ -12275,7 +12278,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12356,7 +12359,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ55">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR55">
         <v>1.34</v>
@@ -12481,7 +12484,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12687,7 +12690,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12893,7 +12896,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13305,7 +13308,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13795,7 +13798,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP62">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AQ62">
         <v>1.08</v>
@@ -14413,7 +14416,7 @@
         <v>1.1</v>
       </c>
       <c r="AP65">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ65">
         <v>1.46</v>
@@ -14541,7 +14544,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14747,7 +14750,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14953,7 +14956,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15034,7 +15037,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ68">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AR68">
         <v>1.27</v>
@@ -15649,7 +15652,7 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ71">
         <v>1.63</v>
@@ -15983,7 +15986,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16064,7 +16067,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ73">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR73">
         <v>1.25</v>
@@ -16189,7 +16192,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16395,7 +16398,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16601,7 +16604,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16885,7 +16888,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AQ77">
         <v>1.04</v>
@@ -17013,7 +17016,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17219,7 +17222,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17425,7 +17428,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17503,10 +17506,10 @@
         <v>1.92</v>
       </c>
       <c r="AP80">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ80">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AR80">
         <v>1.31</v>
@@ -18043,7 +18046,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18249,7 +18252,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18661,7 +18664,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -19151,7 +19154,7 @@
         <v>2.29</v>
       </c>
       <c r="AP88">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ88">
         <v>2.13</v>
@@ -19357,7 +19360,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AQ89">
         <v>0.88</v>
@@ -19691,7 +19694,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -20103,7 +20106,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20184,7 +20187,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ93">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AR93">
         <v>1.6</v>
@@ -20515,7 +20518,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20802,7 +20805,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ96">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR96">
         <v>1.51</v>
@@ -20927,7 +20930,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21005,7 +21008,7 @@
         <v>1.19</v>
       </c>
       <c r="AP97">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ97">
         <v>1</v>
@@ -21339,7 +21342,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21829,7 +21832,7 @@
         <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AQ101">
         <v>1.58</v>
@@ -22163,7 +22166,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22369,7 +22372,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22450,7 +22453,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ104">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR104">
         <v>1.3</v>
@@ -22575,7 +22578,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22987,7 +22990,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23068,7 +23071,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ107">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AR107">
         <v>1.51</v>
@@ -23193,7 +23196,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23477,7 +23480,7 @@
         <v>1.28</v>
       </c>
       <c r="AP109">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ109">
         <v>1.04</v>
@@ -23811,7 +23814,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24017,7 +24020,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24301,7 +24304,7 @@
         <v>1.39</v>
       </c>
       <c r="AP113">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AQ113">
         <v>1.46</v>
@@ -24429,7 +24432,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -24635,7 +24638,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -24716,7 +24719,7 @@
         <v>1</v>
       </c>
       <c r="AQ115">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AR115">
         <v>1.2</v>
@@ -25047,7 +25050,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25253,7 +25256,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25459,7 +25462,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25746,7 +25749,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ120">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR120">
         <v>1.29</v>
@@ -25871,7 +25874,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26077,7 +26080,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26283,7 +26286,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26361,7 +26364,7 @@
         <v>1.75</v>
       </c>
       <c r="AP123">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ123">
         <v>1.58</v>
@@ -26489,7 +26492,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -26567,7 +26570,7 @@
         <v>1.6</v>
       </c>
       <c r="AP124">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AQ124">
         <v>1.63</v>
@@ -26901,7 +26904,7 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27107,7 +27110,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27188,7 +27191,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ127">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR127">
         <v>1.39</v>
@@ -27313,7 +27316,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27519,7 +27522,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27725,7 +27728,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -27806,7 +27809,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ130">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AR130">
         <v>1.41</v>
@@ -27931,7 +27934,7 @@
         <v>89</v>
       </c>
       <c r="P131" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28137,7 +28140,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28549,7 +28552,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29167,7 +29170,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29248,7 +29251,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ137">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR137">
         <v>1.57</v>
@@ -29373,7 +29376,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29785,7 +29788,7 @@
         <v>168</v>
       </c>
       <c r="P140" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
@@ -30197,7 +30200,7 @@
         <v>133</v>
       </c>
       <c r="P142" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q142">
         <v>2.25</v>
@@ -30354,6 +30357,212 @@
       </c>
       <c r="BP142">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7487252</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45502.83333333334</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+      <c r="G143" t="s">
+        <v>80</v>
+      </c>
+      <c r="H143" t="s">
+        <v>74</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>2</v>
+      </c>
+      <c r="O143" t="s">
+        <v>169</v>
+      </c>
+      <c r="P143" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q143">
+        <v>6</v>
+      </c>
+      <c r="R143">
+        <v>2.1</v>
+      </c>
+      <c r="S143">
+        <v>2.25</v>
+      </c>
+      <c r="T143">
+        <v>1.4</v>
+      </c>
+      <c r="U143">
+        <v>2.75</v>
+      </c>
+      <c r="V143">
+        <v>2.75</v>
+      </c>
+      <c r="W143">
+        <v>1.4</v>
+      </c>
+      <c r="X143">
+        <v>8</v>
+      </c>
+      <c r="Y143">
+        <v>1.08</v>
+      </c>
+      <c r="Z143">
+        <v>5</v>
+      </c>
+      <c r="AA143">
+        <v>3.7</v>
+      </c>
+      <c r="AB143">
+        <v>1.6</v>
+      </c>
+      <c r="AC143">
+        <v>1.02</v>
+      </c>
+      <c r="AD143">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE143">
+        <v>1.28</v>
+      </c>
+      <c r="AF143">
+        <v>3.18</v>
+      </c>
+      <c r="AG143">
+        <v>2.1</v>
+      </c>
+      <c r="AH143">
+        <v>1.7</v>
+      </c>
+      <c r="AI143">
+        <v>2.2</v>
+      </c>
+      <c r="AJ143">
+        <v>1.62</v>
+      </c>
+      <c r="AK143">
+        <v>2.15</v>
+      </c>
+      <c r="AL143">
+        <v>1.23</v>
+      </c>
+      <c r="AM143">
+        <v>1.13</v>
+      </c>
+      <c r="AN143">
+        <v>1.41</v>
+      </c>
+      <c r="AO143">
+        <v>2.14</v>
+      </c>
+      <c r="AP143">
+        <v>1.39</v>
+      </c>
+      <c r="AQ143">
+        <v>2.09</v>
+      </c>
+      <c r="AR143">
+        <v>1.19</v>
+      </c>
+      <c r="AS143">
+        <v>1.73</v>
+      </c>
+      <c r="AT143">
+        <v>2.92</v>
+      </c>
+      <c r="AU143">
+        <v>0</v>
+      </c>
+      <c r="AV143">
+        <v>4</v>
+      </c>
+      <c r="AW143">
+        <v>2</v>
+      </c>
+      <c r="AX143">
+        <v>1</v>
+      </c>
+      <c r="AY143">
+        <v>2</v>
+      </c>
+      <c r="AZ143">
+        <v>5</v>
+      </c>
+      <c r="BA143">
+        <v>4</v>
+      </c>
+      <c r="BB143">
+        <v>10</v>
+      </c>
+      <c r="BC143">
+        <v>14</v>
+      </c>
+      <c r="BD143">
+        <v>2.71</v>
+      </c>
+      <c r="BE143">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF143">
+        <v>1.59</v>
+      </c>
+      <c r="BG143">
+        <v>1.24</v>
+      </c>
+      <c r="BH143">
+        <v>3.48</v>
+      </c>
+      <c r="BI143">
+        <v>1.46</v>
+      </c>
+      <c r="BJ143">
+        <v>2.45</v>
+      </c>
+      <c r="BK143">
+        <v>2.38</v>
+      </c>
+      <c r="BL143">
+        <v>1.87</v>
+      </c>
+      <c r="BM143">
+        <v>2.3</v>
+      </c>
+      <c r="BN143">
+        <v>1.52</v>
+      </c>
+      <c r="BO143">
+        <v>3.08</v>
+      </c>
+      <c r="BP143">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="242">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1101,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP143"/>
+  <dimension ref="A1:BP144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>1.08</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ6">
         <v>0.92</v>
@@ -3704,10 +3704,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AR13">
         <v>1.34</v>
@@ -4325,7 +4325,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ16">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>1.54</v>
@@ -5561,7 +5561,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ22">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AR22">
         <v>1.54</v>
@@ -5970,7 +5970,7 @@
         <v>1.67</v>
       </c>
       <c r="AP24">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>1.58</v>
@@ -6591,7 +6591,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ27">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.52</v>
@@ -7000,7 +7000,7 @@
         <v>2.5</v>
       </c>
       <c r="AP29">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ29">
         <v>2.13</v>
@@ -7618,7 +7618,7 @@
         <v>1.6</v>
       </c>
       <c r="AP32">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
         <v>1.63</v>
@@ -7827,7 +7827,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ33">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AR33">
         <v>1.41</v>
@@ -9060,7 +9060,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ39">
         <v>1.08</v>
@@ -9269,7 +9269,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ40">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.34</v>
@@ -9887,7 +9887,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ43">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AR43">
         <v>1.44</v>
@@ -10090,7 +10090,7 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>1.39</v>
@@ -11326,7 +11326,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11947,7 +11947,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ53">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.55</v>
@@ -12153,7 +12153,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ54">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AR54">
         <v>1.53</v>
@@ -13180,7 +13180,7 @@
         <v>1.11</v>
       </c>
       <c r="AP59">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
         <v>1.08</v>
@@ -13389,7 +13389,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>1.22</v>
@@ -13798,7 +13798,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP62">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ62">
         <v>1.08</v>
@@ -14831,7 +14831,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ67">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.34</v>
@@ -15037,7 +15037,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ68">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AR68">
         <v>1.27</v>
@@ -16888,10 +16888,10 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ77">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.87</v>
@@ -17509,7 +17509,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ80">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AR80">
         <v>1.31</v>
@@ -17712,7 +17712,7 @@
         <v>1.08</v>
       </c>
       <c r="AP81">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ81">
         <v>0.88</v>
@@ -19360,7 +19360,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ89">
         <v>0.88</v>
@@ -19569,7 +19569,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ90">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.42</v>
@@ -19772,7 +19772,7 @@
         <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ91">
         <v>1.46</v>
@@ -20187,7 +20187,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ93">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AR93">
         <v>1.6</v>
@@ -21629,7 +21629,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ100">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AR100">
         <v>1.48</v>
@@ -21832,7 +21832,7 @@
         <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ101">
         <v>1.58</v>
@@ -22244,7 +22244,7 @@
         <v>0.65</v>
       </c>
       <c r="AP103">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ103">
         <v>0.92</v>
@@ -23071,7 +23071,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ107">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AR107">
         <v>1.51</v>
@@ -23483,7 +23483,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ109">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AR109">
         <v>1.21</v>
@@ -24304,7 +24304,7 @@
         <v>1.39</v>
       </c>
       <c r="AP113">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ113">
         <v>1.46</v>
@@ -24719,7 +24719,7 @@
         <v>1</v>
       </c>
       <c r="AQ115">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AR115">
         <v>1.2</v>
@@ -25334,7 +25334,7 @@
         <v>2.05</v>
       </c>
       <c r="AP118">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ118">
         <v>2.13</v>
@@ -26570,7 +26570,7 @@
         <v>1.6</v>
       </c>
       <c r="AP124">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AQ124">
         <v>1.63</v>
@@ -26985,7 +26985,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ126">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AR126">
         <v>1.58</v>
@@ -27809,7 +27809,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ130">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AR130">
         <v>1.41</v>
@@ -28012,7 +28012,7 @@
         <v>0.95</v>
       </c>
       <c r="AP131">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ131">
         <v>1</v>
@@ -29660,7 +29660,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ139">
         <v>1</v>
@@ -30487,7 +30487,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ143">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AR143">
         <v>1.19</v>
@@ -30563,6 +30563,212 @@
       </c>
       <c r="BP143">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7329932</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45505.8125</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144" t="s">
+        <v>74</v>
+      </c>
+      <c r="H144" t="s">
+        <v>70</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144" t="s">
+        <v>83</v>
+      </c>
+      <c r="P144" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q144">
+        <v>1.95</v>
+      </c>
+      <c r="R144">
+        <v>2.2</v>
+      </c>
+      <c r="S144">
+        <v>8.5</v>
+      </c>
+      <c r="T144">
+        <v>1.33</v>
+      </c>
+      <c r="U144">
+        <v>3.1</v>
+      </c>
+      <c r="V144">
+        <v>2.5</v>
+      </c>
+      <c r="W144">
+        <v>1.48</v>
+      </c>
+      <c r="X144">
+        <v>5.5</v>
+      </c>
+      <c r="Y144">
+        <v>1.11</v>
+      </c>
+      <c r="Z144">
+        <v>1.36</v>
+      </c>
+      <c r="AA144">
+        <v>4.2</v>
+      </c>
+      <c r="AB144">
+        <v>8.5</v>
+      </c>
+      <c r="AC144">
+        <v>1.04</v>
+      </c>
+      <c r="AD144">
+        <v>9.5</v>
+      </c>
+      <c r="AE144">
+        <v>1.22</v>
+      </c>
+      <c r="AF144">
+        <v>4</v>
+      </c>
+      <c r="AG144">
+        <v>2.1</v>
+      </c>
+      <c r="AH144">
+        <v>1.7</v>
+      </c>
+      <c r="AI144">
+        <v>2.5</v>
+      </c>
+      <c r="AJ144">
+        <v>1.5</v>
+      </c>
+      <c r="AK144">
+        <v>1.03</v>
+      </c>
+      <c r="AL144">
+        <v>1.12</v>
+      </c>
+      <c r="AM144">
+        <v>3.2</v>
+      </c>
+      <c r="AN144">
+        <v>2.09</v>
+      </c>
+      <c r="AO144">
+        <v>1.04</v>
+      </c>
+      <c r="AP144">
+        <v>2.13</v>
+      </c>
+      <c r="AQ144">
+        <v>1</v>
+      </c>
+      <c r="AR144">
+        <v>1.69</v>
+      </c>
+      <c r="AS144">
+        <v>1.35</v>
+      </c>
+      <c r="AT144">
+        <v>3.04</v>
+      </c>
+      <c r="AU144">
+        <v>2</v>
+      </c>
+      <c r="AV144">
+        <v>0</v>
+      </c>
+      <c r="AW144">
+        <v>0</v>
+      </c>
+      <c r="AX144">
+        <v>0</v>
+      </c>
+      <c r="AY144">
+        <v>2</v>
+      </c>
+      <c r="AZ144">
+        <v>0</v>
+      </c>
+      <c r="BA144">
+        <v>4</v>
+      </c>
+      <c r="BB144">
+        <v>2</v>
+      </c>
+      <c r="BC144">
+        <v>6</v>
+      </c>
+      <c r="BD144">
+        <v>1.36</v>
+      </c>
+      <c r="BE144">
+        <v>10</v>
+      </c>
+      <c r="BF144">
+        <v>3.8</v>
+      </c>
+      <c r="BG144">
+        <v>1.25</v>
+      </c>
+      <c r="BH144">
+        <v>3.6</v>
+      </c>
+      <c r="BI144">
+        <v>1.42</v>
+      </c>
+      <c r="BJ144">
+        <v>2.62</v>
+      </c>
+      <c r="BK144">
+        <v>1.72</v>
+      </c>
+      <c r="BL144">
+        <v>2.07</v>
+      </c>
+      <c r="BM144">
+        <v>2.16</v>
+      </c>
+      <c r="BN144">
+        <v>1.66</v>
+      </c>
+      <c r="BO144">
+        <v>2.62</v>
+      </c>
+      <c r="BP144">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="244">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -526,6 +526,9 @@
     <t>['88']</t>
   </si>
   <si>
+    <t>['29', '89', '90+3']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -740,6 +743,9 @@
   </si>
   <si>
     <t>['33', '85']</t>
+  </si>
+  <si>
+    <t>['35', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP144"/>
+  <dimension ref="A1:BP146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1566,7 +1572,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1647,7 +1653,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ3">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1853,7 +1859,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ4">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2056,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2390,7 +2396,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2596,7 +2602,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2677,7 +2683,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ8">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AR8">
         <v>0.87</v>
@@ -2802,7 +2808,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2880,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ9">
         <v>1.58</v>
@@ -3008,7 +3014,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3086,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AQ10">
         <v>1.46</v>
@@ -3214,7 +3220,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3498,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AQ12">
         <v>0.92</v>
@@ -3626,7 +3632,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3913,7 +3919,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ14">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AR14">
         <v>1.53</v>
@@ -4038,7 +4044,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4322,7 +4328,7 @@
         <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4531,7 +4537,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR17">
         <v>1.4</v>
@@ -4656,7 +4662,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4862,7 +4868,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5068,7 +5074,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5146,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AQ20">
         <v>0.92</v>
@@ -5274,7 +5280,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5352,7 +5358,7 @@
         <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ21">
         <v>1.63</v>
@@ -5480,7 +5486,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5558,7 +5564,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AQ22">
         <v>2.13</v>
@@ -5767,7 +5773,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ23">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -5892,7 +5898,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6176,10 +6182,10 @@
         <v>0.75</v>
       </c>
       <c r="AP25">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AQ25">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AR25">
         <v>1.01</v>
@@ -6304,7 +6310,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6385,7 +6391,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6716,7 +6722,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6797,7 +6803,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ28">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AR28">
         <v>1.41</v>
@@ -7412,7 +7418,7 @@
         <v>1.8</v>
       </c>
       <c r="AP31">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AQ31">
         <v>1.46</v>
@@ -7540,7 +7546,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7952,7 +7958,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8030,7 +8036,7 @@
         <v>2.2</v>
       </c>
       <c r="AP34">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AQ34">
         <v>2.13</v>
@@ -8158,7 +8164,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8364,7 +8370,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8442,10 +8448,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ36">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AR36">
         <v>1.5</v>
@@ -8570,7 +8576,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8651,7 +8657,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ37">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AR37">
         <v>1.56</v>
@@ -8854,7 +8860,7 @@
         <v>0.83</v>
       </c>
       <c r="AP38">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AQ38">
         <v>1.08</v>
@@ -9063,7 +9069,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ39">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AR39">
         <v>2.03</v>
@@ -9188,7 +9194,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9394,7 +9400,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9600,7 +9606,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9681,7 +9687,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR42">
         <v>1.44</v>
@@ -10012,7 +10018,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10093,7 +10099,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AR44">
         <v>1.33</v>
@@ -10424,7 +10430,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10502,7 +10508,7 @@
         <v>0.43</v>
       </c>
       <c r="AP46">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AQ46">
         <v>0.92</v>
@@ -10630,7 +10636,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10708,10 +10714,10 @@
         <v>0.57</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ47">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AR47">
         <v>1.34</v>
@@ -10914,7 +10920,7 @@
         <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AQ48">
         <v>1.08</v>
@@ -11120,10 +11126,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AQ49">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AR49">
         <v>1.1</v>
@@ -11248,7 +11254,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11329,7 +11335,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR50">
         <v>1.93</v>
@@ -11454,7 +11460,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -12072,7 +12078,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12278,7 +12284,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12359,7 +12365,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ55">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AR55">
         <v>1.34</v>
@@ -12484,7 +12490,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12562,7 +12568,7 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AQ56">
         <v>2.13</v>
@@ -12690,7 +12696,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12771,7 +12777,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR57">
         <v>1.33</v>
@@ -12896,7 +12902,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13183,7 +13189,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AR59">
         <v>1.29</v>
@@ -13308,7 +13314,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13386,7 +13392,7 @@
         <v>1.4</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -14210,10 +14216,10 @@
         <v>1.3</v>
       </c>
       <c r="AP64">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AQ64">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14416,7 +14422,7 @@
         <v>1.1</v>
       </c>
       <c r="AP65">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AQ65">
         <v>1.46</v>
@@ -14544,7 +14550,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14622,10 +14628,10 @@
         <v>1.18</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ66">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AR66">
         <v>1.23</v>
@@ -14750,7 +14756,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14956,7 +14962,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15446,7 +15452,7 @@
         <v>1.64</v>
       </c>
       <c r="AP70">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AQ70">
         <v>1.58</v>
@@ -15652,7 +15658,7 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AQ71">
         <v>1.63</v>
@@ -15861,7 +15867,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ72">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AR72">
         <v>1.46</v>
@@ -15986,7 +15992,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16067,7 +16073,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ73">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AR73">
         <v>1.25</v>
@@ -16192,7 +16198,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16273,7 +16279,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR74">
         <v>1.39</v>
@@ -16398,7 +16404,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16476,7 +16482,7 @@
         <v>0.55</v>
       </c>
       <c r="AP75">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AQ75">
         <v>1.08</v>
@@ -16604,7 +16610,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17016,7 +17022,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17222,7 +17228,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17300,7 +17306,7 @@
         <v>1.46</v>
       </c>
       <c r="AP79">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AQ79">
         <v>1.63</v>
@@ -17428,7 +17434,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17506,7 +17512,7 @@
         <v>1.92</v>
       </c>
       <c r="AP80">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AQ80">
         <v>2.13</v>
@@ -17715,7 +17721,7 @@
         <v>1</v>
       </c>
       <c r="AQ81">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AR81">
         <v>1.27</v>
@@ -18046,7 +18052,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18124,7 +18130,7 @@
         <v>1.31</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ83">
         <v>1.46</v>
@@ -18252,7 +18258,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18539,7 +18545,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ85">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AR85">
         <v>1.23</v>
@@ -18664,7 +18670,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18745,7 +18751,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR86">
         <v>1.45</v>
@@ -19154,7 +19160,7 @@
         <v>2.29</v>
       </c>
       <c r="AP88">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AQ88">
         <v>2.13</v>
@@ -19363,7 +19369,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ89">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AR89">
         <v>1.81</v>
@@ -19694,7 +19700,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -20106,7 +20112,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20390,7 +20396,7 @@
         <v>0.67</v>
       </c>
       <c r="AP94">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ94">
         <v>0.92</v>
@@ -20518,7 +20524,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20596,7 +20602,7 @@
         <v>1.67</v>
       </c>
       <c r="AP95">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AQ95">
         <v>1.58</v>
@@ -20802,10 +20808,10 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AQ96">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AR96">
         <v>1.51</v>
@@ -20930,7 +20936,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21008,10 +21014,10 @@
         <v>1.19</v>
       </c>
       <c r="AP97">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR97">
         <v>1.2</v>
@@ -21217,7 +21223,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ98">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AR98">
         <v>1.6</v>
@@ -21342,7 +21348,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -22041,7 +22047,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ102">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AR102">
         <v>1.45</v>
@@ -22166,7 +22172,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22372,7 +22378,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22453,7 +22459,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ104">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AR104">
         <v>1.3</v>
@@ -22578,7 +22584,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22862,7 +22868,7 @@
         <v>2.06</v>
       </c>
       <c r="AP106">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ106">
         <v>2.13</v>
@@ -22990,7 +22996,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23068,7 +23074,7 @@
         <v>2.06</v>
       </c>
       <c r="AP107">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AQ107">
         <v>2.13</v>
@@ -23196,7 +23202,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23274,7 +23280,7 @@
         <v>1.53</v>
       </c>
       <c r="AP108">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AQ108">
         <v>1.63</v>
@@ -23480,7 +23486,7 @@
         <v>1.28</v>
       </c>
       <c r="AP109">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AQ109">
         <v>1</v>
@@ -23814,7 +23820,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -23892,10 +23898,10 @@
         <v>1.11</v>
       </c>
       <c r="AP111">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AQ111">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR111">
         <v>1.48</v>
@@ -24020,7 +24026,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24432,7 +24438,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -24513,7 +24519,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ114">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AR114">
         <v>1.26</v>
@@ -24638,7 +24644,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -24716,7 +24722,7 @@
         <v>2.17</v>
       </c>
       <c r="AP115">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ115">
         <v>2.13</v>
@@ -24925,7 +24931,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ116">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AR116">
         <v>1.3</v>
@@ -25050,7 +25056,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25256,7 +25262,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25462,7 +25468,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25746,10 +25752,10 @@
         <v>1.5</v>
       </c>
       <c r="AP120">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AQ120">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AR120">
         <v>1.29</v>
@@ -25874,7 +25880,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26080,7 +26086,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26158,7 +26164,7 @@
         <v>0.95</v>
       </c>
       <c r="AP122">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ122">
         <v>1.08</v>
@@ -26286,7 +26292,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26364,7 +26370,7 @@
         <v>1.75</v>
       </c>
       <c r="AP123">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AQ123">
         <v>1.58</v>
@@ -26492,7 +26498,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -26779,7 +26785,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ125">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AR125">
         <v>1.61</v>
@@ -26904,7 +26910,7 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -26982,7 +26988,7 @@
         <v>1.15</v>
       </c>
       <c r="AP126">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AQ126">
         <v>1</v>
@@ -27110,7 +27116,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27191,7 +27197,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ127">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AR127">
         <v>1.39</v>
@@ -27316,7 +27322,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27522,7 +27528,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27728,7 +27734,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -27934,7 +27940,7 @@
         <v>89</v>
       </c>
       <c r="P131" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28015,7 +28021,7 @@
         <v>1</v>
       </c>
       <c r="AQ131">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR131">
         <v>1.28</v>
@@ -28140,7 +28146,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28218,10 +28224,10 @@
         <v>1.1</v>
       </c>
       <c r="AP132">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AQ132">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AR132">
         <v>1.23</v>
@@ -28552,7 +28558,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -28630,7 +28636,7 @@
         <v>2.18</v>
       </c>
       <c r="AP134">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ134">
         <v>2.13</v>
@@ -29042,7 +29048,7 @@
         <v>1.59</v>
       </c>
       <c r="AP136">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AQ136">
         <v>1.63</v>
@@ -29170,7 +29176,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29248,10 +29254,10 @@
         <v>1.33</v>
       </c>
       <c r="AP137">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AQ137">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AR137">
         <v>1.57</v>
@@ -29376,7 +29382,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29663,7 +29669,7 @@
         <v>1</v>
       </c>
       <c r="AQ139">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR139">
         <v>1.38</v>
@@ -29788,7 +29794,7 @@
         <v>168</v>
       </c>
       <c r="P140" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
@@ -29869,7 +29875,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ140">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AR140">
         <v>1.41</v>
@@ -30072,7 +30078,7 @@
         <v>1.61</v>
       </c>
       <c r="AP141">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="AQ141">
         <v>1.58</v>
@@ -30200,7 +30206,7 @@
         <v>133</v>
       </c>
       <c r="P142" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q142">
         <v>2.25</v>
@@ -30484,7 +30490,7 @@
         <v>2.14</v>
       </c>
       <c r="AP143">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AQ143">
         <v>2.13</v>
@@ -30769,6 +30775,418 @@
       </c>
       <c r="BP144">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7487259</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45506.77083333334</v>
+      </c>
+      <c r="F145">
+        <v>3</v>
+      </c>
+      <c r="G145" t="s">
+        <v>77</v>
+      </c>
+      <c r="H145" t="s">
+        <v>80</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145" t="s">
+        <v>89</v>
+      </c>
+      <c r="P145" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q145">
+        <v>4.33</v>
+      </c>
+      <c r="R145">
+        <v>1.91</v>
+      </c>
+      <c r="S145">
+        <v>3.2</v>
+      </c>
+      <c r="T145">
+        <v>1.45</v>
+      </c>
+      <c r="U145">
+        <v>2.55</v>
+      </c>
+      <c r="V145">
+        <v>3</v>
+      </c>
+      <c r="W145">
+        <v>1.33</v>
+      </c>
+      <c r="X145">
+        <v>7.5</v>
+      </c>
+      <c r="Y145">
+        <v>1.06</v>
+      </c>
+      <c r="Z145">
+        <v>2.97</v>
+      </c>
+      <c r="AA145">
+        <v>3.25</v>
+      </c>
+      <c r="AB145">
+        <v>2.08</v>
+      </c>
+      <c r="AC145">
+        <v>1.06</v>
+      </c>
+      <c r="AD145">
+        <v>8</v>
+      </c>
+      <c r="AE145">
+        <v>1.36</v>
+      </c>
+      <c r="AF145">
+        <v>3</v>
+      </c>
+      <c r="AG145">
+        <v>2.45</v>
+      </c>
+      <c r="AH145">
+        <v>1.45</v>
+      </c>
+      <c r="AI145">
+        <v>2.2</v>
+      </c>
+      <c r="AJ145">
+        <v>1.62</v>
+      </c>
+      <c r="AK145">
+        <v>1.62</v>
+      </c>
+      <c r="AL145">
+        <v>1.28</v>
+      </c>
+      <c r="AM145">
+        <v>1.33</v>
+      </c>
+      <c r="AN145">
+        <v>1</v>
+      </c>
+      <c r="AO145">
+        <v>1.39</v>
+      </c>
+      <c r="AP145">
+        <v>0.96</v>
+      </c>
+      <c r="AQ145">
+        <v>1.46</v>
+      </c>
+      <c r="AR145">
+        <v>1.2</v>
+      </c>
+      <c r="AS145">
+        <v>1.15</v>
+      </c>
+      <c r="AT145">
+        <v>2.35</v>
+      </c>
+      <c r="AU145">
+        <v>2</v>
+      </c>
+      <c r="AV145">
+        <v>9</v>
+      </c>
+      <c r="AW145">
+        <v>4</v>
+      </c>
+      <c r="AX145">
+        <v>3</v>
+      </c>
+      <c r="AY145">
+        <v>6</v>
+      </c>
+      <c r="AZ145">
+        <v>12</v>
+      </c>
+      <c r="BA145">
+        <v>4</v>
+      </c>
+      <c r="BB145">
+        <v>3</v>
+      </c>
+      <c r="BC145">
+        <v>7</v>
+      </c>
+      <c r="BD145">
+        <v>2.23</v>
+      </c>
+      <c r="BE145">
+        <v>7.3</v>
+      </c>
+      <c r="BF145">
+        <v>1.95</v>
+      </c>
+      <c r="BG145">
+        <v>1.3</v>
+      </c>
+      <c r="BH145">
+        <v>3.2</v>
+      </c>
+      <c r="BI145">
+        <v>1.46</v>
+      </c>
+      <c r="BJ145">
+        <v>2.52</v>
+      </c>
+      <c r="BK145">
+        <v>1.95</v>
+      </c>
+      <c r="BL145">
+        <v>1.77</v>
+      </c>
+      <c r="BM145">
+        <v>2.37</v>
+      </c>
+      <c r="BN145">
+        <v>1.51</v>
+      </c>
+      <c r="BO145">
+        <v>3.2</v>
+      </c>
+      <c r="BP145">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7487261</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45506.875</v>
+      </c>
+      <c r="F146">
+        <v>3</v>
+      </c>
+      <c r="G146" t="s">
+        <v>78</v>
+      </c>
+      <c r="H146" t="s">
+        <v>73</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>3</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>3</v>
+      </c>
+      <c r="O146" t="s">
+        <v>170</v>
+      </c>
+      <c r="P146" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q146">
+        <v>3.1</v>
+      </c>
+      <c r="R146">
+        <v>1.95</v>
+      </c>
+      <c r="S146">
+        <v>4</v>
+      </c>
+      <c r="T146">
+        <v>1.48</v>
+      </c>
+      <c r="U146">
+        <v>2.5</v>
+      </c>
+      <c r="V146">
+        <v>3</v>
+      </c>
+      <c r="W146">
+        <v>1.33</v>
+      </c>
+      <c r="X146">
+        <v>8</v>
+      </c>
+      <c r="Y146">
+        <v>1.05</v>
+      </c>
+      <c r="Z146">
+        <v>2.12</v>
+      </c>
+      <c r="AA146">
+        <v>3.15</v>
+      </c>
+      <c r="AB146">
+        <v>2.94</v>
+      </c>
+      <c r="AC146">
+        <v>1.05</v>
+      </c>
+      <c r="AD146">
+        <v>8</v>
+      </c>
+      <c r="AE146">
+        <v>1.36</v>
+      </c>
+      <c r="AF146">
+        <v>2.88</v>
+      </c>
+      <c r="AG146">
+        <v>2.35</v>
+      </c>
+      <c r="AH146">
+        <v>1.48</v>
+      </c>
+      <c r="AI146">
+        <v>2.1</v>
+      </c>
+      <c r="AJ146">
+        <v>1.67</v>
+      </c>
+      <c r="AK146">
+        <v>1.35</v>
+      </c>
+      <c r="AL146">
+        <v>1.35</v>
+      </c>
+      <c r="AM146">
+        <v>1.62</v>
+      </c>
+      <c r="AN146">
+        <v>1.08</v>
+      </c>
+      <c r="AO146">
+        <v>0.88</v>
+      </c>
+      <c r="AP146">
+        <v>1.16</v>
+      </c>
+      <c r="AQ146">
+        <v>0.84</v>
+      </c>
+      <c r="AR146">
+        <v>1.51</v>
+      </c>
+      <c r="AS146">
+        <v>1.34</v>
+      </c>
+      <c r="AT146">
+        <v>2.85</v>
+      </c>
+      <c r="AU146">
+        <v>7</v>
+      </c>
+      <c r="AV146">
+        <v>2</v>
+      </c>
+      <c r="AW146">
+        <v>4</v>
+      </c>
+      <c r="AX146">
+        <v>6</v>
+      </c>
+      <c r="AY146">
+        <v>11</v>
+      </c>
+      <c r="AZ146">
+        <v>8</v>
+      </c>
+      <c r="BA146">
+        <v>6</v>
+      </c>
+      <c r="BB146">
+        <v>1</v>
+      </c>
+      <c r="BC146">
+        <v>7</v>
+      </c>
+      <c r="BD146">
+        <v>1.9</v>
+      </c>
+      <c r="BE146">
+        <v>7.5</v>
+      </c>
+      <c r="BF146">
+        <v>2.28</v>
+      </c>
+      <c r="BG146">
+        <v>1.36</v>
+      </c>
+      <c r="BH146">
+        <v>2.9</v>
+      </c>
+      <c r="BI146">
+        <v>1.51</v>
+      </c>
+      <c r="BJ146">
+        <v>2.37</v>
+      </c>
+      <c r="BK146">
+        <v>1.96</v>
+      </c>
+      <c r="BL146">
+        <v>1.75</v>
+      </c>
+      <c r="BM146">
+        <v>2.55</v>
+      </c>
+      <c r="BN146">
+        <v>1.45</v>
+      </c>
+      <c r="BO146">
+        <v>3.3</v>
+      </c>
+      <c r="BP146">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="245">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -527,6 +527,9 @@
   </si>
   <si>
     <t>['29', '89', '90+3']</t>
+  </si>
+  <si>
+    <t>['19', '88']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -1107,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP146"/>
+  <dimension ref="A1:BP148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1572,7 +1575,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1650,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AQ3">
         <v>1.16</v>
@@ -2271,7 +2274,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ6">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2396,7 +2399,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2474,10 +2477,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AQ7">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2602,7 +2605,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2808,7 +2811,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2889,7 +2892,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ9">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR9">
         <v>1.58</v>
@@ -3014,7 +3017,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3095,7 +3098,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ10">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AR10">
         <v>1.47</v>
@@ -3220,7 +3223,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3298,7 +3301,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AQ11">
         <v>1.63</v>
@@ -3507,7 +3510,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ12">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AR12">
         <v>1.3</v>
@@ -3632,7 +3635,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4044,7 +4047,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4122,7 +4125,7 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AQ15">
         <v>1.08</v>
@@ -4534,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AQ17">
         <v>0.96</v>
@@ -4662,7 +4665,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4740,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AQ18">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -4868,7 +4871,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4949,7 +4952,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ19">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AR19">
         <v>1.31</v>
@@ -5074,7 +5077,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5155,7 +5158,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ20">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AR20">
         <v>1.69</v>
@@ -5280,7 +5283,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5486,7 +5489,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5770,7 +5773,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AQ23">
         <v>1.46</v>
@@ -5898,7 +5901,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5979,7 +5982,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR24">
         <v>1.25</v>
@@ -6310,7 +6313,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6388,7 +6391,7 @@
         <v>0.25</v>
       </c>
       <c r="AP26">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AQ26">
         <v>0.96</v>
@@ -6594,7 +6597,7 @@
         <v>1.75</v>
       </c>
       <c r="AP27">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6722,7 +6725,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6800,7 +6803,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AQ28">
         <v>0.84</v>
@@ -7009,7 +7012,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ29">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AR29">
         <v>2.13</v>
@@ -7421,7 +7424,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ31">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AR31">
         <v>1.28</v>
@@ -7546,7 +7549,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7830,7 +7833,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AQ33">
         <v>2.13</v>
@@ -7958,7 +7961,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8039,7 +8042,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ34">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AR34">
         <v>1.38</v>
@@ -8164,7 +8167,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8245,7 +8248,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ35">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AR35">
         <v>1.5</v>
@@ -8370,7 +8373,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8576,7 +8579,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -9194,7 +9197,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9272,7 +9275,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9400,7 +9403,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9478,10 +9481,10 @@
         <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AQ41">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR41">
         <v>1.42</v>
@@ -9606,7 +9609,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9684,7 +9687,7 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AQ42">
         <v>0.96</v>
@@ -9890,7 +9893,7 @@
         <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AQ43">
         <v>2.13</v>
@@ -10018,7 +10021,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10302,7 +10305,7 @@
         <v>1.71</v>
       </c>
       <c r="AP45">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AQ45">
         <v>1.63</v>
@@ -10430,7 +10433,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10511,7 +10514,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ46">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AR46">
         <v>1.37</v>
@@ -10636,7 +10639,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -11254,7 +11257,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11460,7 +11463,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11538,10 +11541,10 @@
         <v>1.63</v>
       </c>
       <c r="AP51">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AQ51">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -11747,7 +11750,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ52">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AR52">
         <v>1.52</v>
@@ -11950,7 +11953,7 @@
         <v>1.38</v>
       </c>
       <c r="AP53">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12078,7 +12081,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12284,7 +12287,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12362,7 +12365,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AQ55">
         <v>1.46</v>
@@ -12490,7 +12493,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12571,7 +12574,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ56">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AR56">
         <v>1.32</v>
@@ -12696,7 +12699,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12902,7 +12905,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -12980,10 +12983,10 @@
         <v>0.44</v>
       </c>
       <c r="AP58">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AQ58">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AR58">
         <v>1.5</v>
@@ -13314,7 +13317,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13598,7 +13601,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AQ61">
         <v>1.63</v>
@@ -14010,10 +14013,10 @@
         <v>1.7</v>
       </c>
       <c r="AP63">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AQ63">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR63">
         <v>1.55</v>
@@ -14425,7 +14428,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ65">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AR65">
         <v>1.21</v>
@@ -14550,7 +14553,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14756,7 +14759,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14962,7 +14965,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15040,7 +15043,7 @@
         <v>1.7</v>
       </c>
       <c r="AP68">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AQ68">
         <v>2.13</v>
@@ -15246,10 +15249,10 @@
         <v>1.27</v>
       </c>
       <c r="AP69">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AQ69">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AR69">
         <v>1.62</v>
@@ -15455,7 +15458,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ70">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR70">
         <v>1.35</v>
@@ -15864,7 +15867,7 @@
         <v>1.17</v>
       </c>
       <c r="AP72">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AQ72">
         <v>1.16</v>
@@ -15992,7 +15995,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16070,7 +16073,7 @@
         <v>1.36</v>
       </c>
       <c r="AP73">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AQ73">
         <v>1.46</v>
@@ -16198,7 +16201,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16276,7 +16279,7 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AQ74">
         <v>0.96</v>
@@ -16404,7 +16407,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16610,7 +16613,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16691,7 +16694,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ76">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AR76">
         <v>1.41</v>
@@ -17022,7 +17025,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17103,7 +17106,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ78">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AR78">
         <v>1.39</v>
@@ -17228,7 +17231,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17434,7 +17437,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17924,10 +17927,10 @@
         <v>0.54</v>
       </c>
       <c r="AP82">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AQ82">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AR82">
         <v>1.64</v>
@@ -18052,7 +18055,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18133,7 +18136,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ83">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AR83">
         <v>1.24</v>
@@ -18258,7 +18261,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18339,7 +18342,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ84">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR84">
         <v>1.38</v>
@@ -18542,7 +18545,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AQ85">
         <v>1.16</v>
@@ -18670,7 +18673,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18954,7 +18957,7 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AQ87">
         <v>1.08</v>
@@ -19163,7 +19166,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ88">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AR88">
         <v>1.24</v>
@@ -19572,7 +19575,7 @@
         <v>1.36</v>
       </c>
       <c r="AP90">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -19700,7 +19703,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19781,7 +19784,7 @@
         <v>1</v>
       </c>
       <c r="AQ91">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AR91">
         <v>1.34</v>
@@ -20112,7 +20115,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20190,7 +20193,7 @@
         <v>2.07</v>
       </c>
       <c r="AP93">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AQ93">
         <v>2.13</v>
@@ -20399,7 +20402,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ94">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AR94">
         <v>1.23</v>
@@ -20524,7 +20527,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20605,7 +20608,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ95">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR95">
         <v>1.32</v>
@@ -20936,7 +20939,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21220,7 +21223,7 @@
         <v>1.06</v>
       </c>
       <c r="AP98">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AQ98">
         <v>1.16</v>
@@ -21348,7 +21351,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21426,7 +21429,7 @@
         <v>0.63</v>
       </c>
       <c r="AP99">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AQ99">
         <v>1.08</v>
@@ -21841,7 +21844,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ101">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR101">
         <v>1.8</v>
@@ -22044,7 +22047,7 @@
         <v>0.88</v>
       </c>
       <c r="AP102">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AQ102">
         <v>0.84</v>
@@ -22172,7 +22175,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22253,7 +22256,7 @@
         <v>1</v>
       </c>
       <c r="AQ103">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AR103">
         <v>1.29</v>
@@ -22378,7 +22381,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22584,7 +22587,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22662,10 +22665,10 @@
         <v>1.47</v>
       </c>
       <c r="AP105">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AQ105">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AR105">
         <v>1.45</v>
@@ -22871,7 +22874,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ106">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AR106">
         <v>1.21</v>
@@ -22996,7 +22999,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23202,7 +23205,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23692,7 +23695,7 @@
         <v>0.89</v>
       </c>
       <c r="AP110">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AQ110">
         <v>1.08</v>
@@ -23820,7 +23823,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24026,7 +24029,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24107,7 +24110,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ112">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR112">
         <v>1.5</v>
@@ -24313,7 +24316,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ113">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AR113">
         <v>1.78</v>
@@ -24438,7 +24441,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -24516,7 +24519,7 @@
         <v>0.83</v>
       </c>
       <c r="AP114">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AQ114">
         <v>0.84</v>
@@ -24644,7 +24647,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -25056,7 +25059,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25134,7 +25137,7 @@
         <v>1.53</v>
       </c>
       <c r="AP117">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AQ117">
         <v>1.63</v>
@@ -25262,7 +25265,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25343,7 +25346,7 @@
         <v>1</v>
       </c>
       <c r="AQ118">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AR118">
         <v>1.31</v>
@@ -25468,7 +25471,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25546,10 +25549,10 @@
         <v>0.79</v>
       </c>
       <c r="AP119">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AQ119">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AR119">
         <v>1.48</v>
@@ -25880,7 +25883,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -25958,10 +25961,10 @@
         <v>1.25</v>
       </c>
       <c r="AP121">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AQ121">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AR121">
         <v>1.22</v>
@@ -26086,7 +26089,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26292,7 +26295,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26373,7 +26376,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ123">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR123">
         <v>1.18</v>
@@ -26498,7 +26501,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -26782,7 +26785,7 @@
         <v>0.95</v>
       </c>
       <c r="AP125">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AQ125">
         <v>0.84</v>
@@ -26910,7 +26913,7 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27116,7 +27119,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27194,7 +27197,7 @@
         <v>1.4</v>
       </c>
       <c r="AP127">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AQ127">
         <v>1.46</v>
@@ -27322,7 +27325,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27403,7 +27406,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ128">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AR128">
         <v>1.44</v>
@@ -27528,7 +27531,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27606,10 +27609,10 @@
         <v>2.14</v>
       </c>
       <c r="AP129">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AQ129">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AR129">
         <v>1.48</v>
@@ -27734,7 +27737,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -27940,7 +27943,7 @@
         <v>89</v>
       </c>
       <c r="P131" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28146,7 +28149,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28433,7 +28436,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ133">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AR133">
         <v>1.36</v>
@@ -28558,7 +28561,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -28639,7 +28642,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ134">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AR134">
         <v>1.2</v>
@@ -28842,10 +28845,10 @@
         <v>1.41</v>
       </c>
       <c r="AP135">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AQ135">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AR135">
         <v>1.47</v>
@@ -29176,7 +29179,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29382,7 +29385,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29460,10 +29463,10 @@
         <v>1.39</v>
       </c>
       <c r="AP138">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AQ138">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AR138">
         <v>1.21</v>
@@ -29794,7 +29797,7 @@
         <v>168</v>
       </c>
       <c r="P140" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
@@ -30081,7 +30084,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ141">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AR141">
         <v>1.28</v>
@@ -30206,7 +30209,7 @@
         <v>133</v>
       </c>
       <c r="P142" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q142">
         <v>2.25</v>
@@ -30284,7 +30287,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AQ142">
         <v>1.08</v>
@@ -30824,7 +30827,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31187,6 +31190,418 @@
       </c>
       <c r="BP146">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7487257</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45507.72916666666</v>
+      </c>
+      <c r="F147">
+        <v>3</v>
+      </c>
+      <c r="G147" t="s">
+        <v>75</v>
+      </c>
+      <c r="H147" t="s">
+        <v>79</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147" t="s">
+        <v>89</v>
+      </c>
+      <c r="P147" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q147">
+        <v>4</v>
+      </c>
+      <c r="R147">
+        <v>2.25</v>
+      </c>
+      <c r="S147">
+        <v>2.63</v>
+      </c>
+      <c r="T147">
+        <v>1.4</v>
+      </c>
+      <c r="U147">
+        <v>2.75</v>
+      </c>
+      <c r="V147">
+        <v>2.8</v>
+      </c>
+      <c r="W147">
+        <v>1.38</v>
+      </c>
+      <c r="X147">
+        <v>6.5</v>
+      </c>
+      <c r="Y147">
+        <v>1.08</v>
+      </c>
+      <c r="Z147">
+        <v>3.4</v>
+      </c>
+      <c r="AA147">
+        <v>3.4</v>
+      </c>
+      <c r="AB147">
+        <v>1.95</v>
+      </c>
+      <c r="AC147">
+        <v>1.05</v>
+      </c>
+      <c r="AD147">
+        <v>8.5</v>
+      </c>
+      <c r="AE147">
+        <v>1.29</v>
+      </c>
+      <c r="AF147">
+        <v>3.42</v>
+      </c>
+      <c r="AG147">
+        <v>1.85</v>
+      </c>
+      <c r="AH147">
+        <v>1.95</v>
+      </c>
+      <c r="AI147">
+        <v>1.67</v>
+      </c>
+      <c r="AJ147">
+        <v>2.1</v>
+      </c>
+      <c r="AK147">
+        <v>1.83</v>
+      </c>
+      <c r="AL147">
+        <v>1.25</v>
+      </c>
+      <c r="AM147">
+        <v>1.2</v>
+      </c>
+      <c r="AN147">
+        <v>1.46</v>
+      </c>
+      <c r="AO147">
+        <v>2.13</v>
+      </c>
+      <c r="AP147">
+        <v>1.44</v>
+      </c>
+      <c r="AQ147">
+        <v>2.08</v>
+      </c>
+      <c r="AR147">
+        <v>1.35</v>
+      </c>
+      <c r="AS147">
+        <v>1.53</v>
+      </c>
+      <c r="AT147">
+        <v>2.88</v>
+      </c>
+      <c r="AU147">
+        <v>2</v>
+      </c>
+      <c r="AV147">
+        <v>6</v>
+      </c>
+      <c r="AW147">
+        <v>4</v>
+      </c>
+      <c r="AX147">
+        <v>3</v>
+      </c>
+      <c r="AY147">
+        <v>6</v>
+      </c>
+      <c r="AZ147">
+        <v>9</v>
+      </c>
+      <c r="BA147">
+        <v>5</v>
+      </c>
+      <c r="BB147">
+        <v>2</v>
+      </c>
+      <c r="BC147">
+        <v>7</v>
+      </c>
+      <c r="BD147">
+        <v>2.9</v>
+      </c>
+      <c r="BE147">
+        <v>7.7</v>
+      </c>
+      <c r="BF147">
+        <v>1.6</v>
+      </c>
+      <c r="BG147">
+        <v>1.25</v>
+      </c>
+      <c r="BH147">
+        <v>3.42</v>
+      </c>
+      <c r="BI147">
+        <v>1.47</v>
+      </c>
+      <c r="BJ147">
+        <v>2.42</v>
+      </c>
+      <c r="BK147">
+        <v>1.91</v>
+      </c>
+      <c r="BL147">
+        <v>1.8</v>
+      </c>
+      <c r="BM147">
+        <v>2.34</v>
+      </c>
+      <c r="BN147">
+        <v>1.5</v>
+      </c>
+      <c r="BO147">
+        <v>3.2</v>
+      </c>
+      <c r="BP147">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7487256</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45507.83333333334</v>
+      </c>
+      <c r="F148">
+        <v>3</v>
+      </c>
+      <c r="G148" t="s">
+        <v>71</v>
+      </c>
+      <c r="H148" t="s">
+        <v>81</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>171</v>
+      </c>
+      <c r="P148" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q148">
+        <v>2.63</v>
+      </c>
+      <c r="R148">
+        <v>2</v>
+      </c>
+      <c r="S148">
+        <v>4.75</v>
+      </c>
+      <c r="T148">
+        <v>1.44</v>
+      </c>
+      <c r="U148">
+        <v>2.63</v>
+      </c>
+      <c r="V148">
+        <v>3</v>
+      </c>
+      <c r="W148">
+        <v>1.36</v>
+      </c>
+      <c r="X148">
+        <v>9</v>
+      </c>
+      <c r="Y148">
+        <v>1.07</v>
+      </c>
+      <c r="Z148">
+        <v>1.81</v>
+      </c>
+      <c r="AA148">
+        <v>3.4</v>
+      </c>
+      <c r="AB148">
+        <v>3.65</v>
+      </c>
+      <c r="AC148">
+        <v>1.06</v>
+      </c>
+      <c r="AD148">
+        <v>8</v>
+      </c>
+      <c r="AE148">
+        <v>1.33</v>
+      </c>
+      <c r="AF148">
+        <v>3.1</v>
+      </c>
+      <c r="AG148">
+        <v>2.3</v>
+      </c>
+      <c r="AH148">
+        <v>1.57</v>
+      </c>
+      <c r="AI148">
+        <v>2</v>
+      </c>
+      <c r="AJ148">
+        <v>1.73</v>
+      </c>
+      <c r="AK148">
+        <v>1.18</v>
+      </c>
+      <c r="AL148">
+        <v>1.25</v>
+      </c>
+      <c r="AM148">
+        <v>1.91</v>
+      </c>
+      <c r="AN148">
+        <v>1.58</v>
+      </c>
+      <c r="AO148">
+        <v>0.92</v>
+      </c>
+      <c r="AP148">
+        <v>1.64</v>
+      </c>
+      <c r="AQ148">
+        <v>0.88</v>
+      </c>
+      <c r="AR148">
+        <v>1.5</v>
+      </c>
+      <c r="AS148">
+        <v>1.21</v>
+      </c>
+      <c r="AT148">
+        <v>2.71</v>
+      </c>
+      <c r="AU148">
+        <v>5</v>
+      </c>
+      <c r="AV148">
+        <v>2</v>
+      </c>
+      <c r="AW148">
+        <v>3</v>
+      </c>
+      <c r="AX148">
+        <v>2</v>
+      </c>
+      <c r="AY148">
+        <v>8</v>
+      </c>
+      <c r="AZ148">
+        <v>4</v>
+      </c>
+      <c r="BA148">
+        <v>2</v>
+      </c>
+      <c r="BB148">
+        <v>3</v>
+      </c>
+      <c r="BC148">
+        <v>5</v>
+      </c>
+      <c r="BD148">
+        <v>1.63</v>
+      </c>
+      <c r="BE148">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF148">
+        <v>2.75</v>
+      </c>
+      <c r="BG148">
+        <v>1.23</v>
+      </c>
+      <c r="BH148">
+        <v>3.56</v>
+      </c>
+      <c r="BI148">
+        <v>1.44</v>
+      </c>
+      <c r="BJ148">
+        <v>2.5</v>
+      </c>
+      <c r="BK148">
+        <v>1.95</v>
+      </c>
+      <c r="BL148">
+        <v>1.77</v>
+      </c>
+      <c r="BM148">
+        <v>2.28</v>
+      </c>
+      <c r="BN148">
+        <v>1.53</v>
+      </c>
+      <c r="BO148">
+        <v>3.08</v>
+      </c>
+      <c r="BP148">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="246">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t>['19', '88']</t>
+  </si>
+  <si>
+    <t>['23', '26', '41', '64']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -1110,7 +1113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP148"/>
+  <dimension ref="A1:BP150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1575,7 +1578,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1859,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ4">
         <v>1.46</v>
@@ -2271,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AQ6">
         <v>0.88</v>
@@ -2399,7 +2402,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2605,7 +2608,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2811,7 +2814,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3017,7 +3020,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3223,7 +3226,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3304,7 +3307,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ11">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR11">
         <v>1.49</v>
@@ -3635,7 +3638,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3716,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AR13">
         <v>1.34</v>
@@ -3919,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ14">
         <v>1.16</v>
@@ -4047,7 +4050,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4665,7 +4668,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4871,7 +4874,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5077,7 +5080,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5283,7 +5286,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5364,7 +5367,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ21">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR21">
         <v>1.64</v>
@@ -5489,7 +5492,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5570,7 +5573,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ22">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AR22">
         <v>1.54</v>
@@ -5901,7 +5904,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6313,7 +6316,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6725,7 +6728,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -7009,7 +7012,7 @@
         <v>2.5</v>
       </c>
       <c r="AP29">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AQ29">
         <v>2.08</v>
@@ -7215,7 +7218,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ30">
         <v>1.08</v>
@@ -7549,7 +7552,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7630,7 +7633,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR32">
         <v>1.21</v>
@@ -7836,7 +7839,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ33">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AR33">
         <v>1.41</v>
@@ -7961,7 +7964,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8167,7 +8170,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8373,7 +8376,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8579,7 +8582,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8657,7 +8660,7 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ37">
         <v>0.84</v>
@@ -9069,7 +9072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AQ39">
         <v>1.16</v>
@@ -9197,7 +9200,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9403,7 +9406,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9609,7 +9612,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9896,7 +9899,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ43">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AR43">
         <v>1.44</v>
@@ -10021,7 +10024,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10308,7 +10311,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ45">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR45">
         <v>1.37</v>
@@ -10433,7 +10436,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10639,7 +10642,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -11257,7 +11260,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11335,7 +11338,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AQ50">
         <v>0.96</v>
@@ -11463,7 +11466,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11747,7 +11750,7 @@
         <v>1.38</v>
       </c>
       <c r="AP52">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ52">
         <v>1.44</v>
@@ -12081,7 +12084,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12159,10 +12162,10 @@
         <v>1.38</v>
       </c>
       <c r="AP54">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ54">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AR54">
         <v>1.53</v>
@@ -12287,7 +12290,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12493,7 +12496,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12699,7 +12702,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12905,7 +12908,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13317,7 +13320,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13604,7 +13607,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ61">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR61">
         <v>1.27</v>
@@ -13807,7 +13810,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP62">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AQ62">
         <v>1.08</v>
@@ -14553,7 +14556,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14759,7 +14762,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14965,7 +14968,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15046,7 +15049,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ68">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AR68">
         <v>1.27</v>
@@ -15664,7 +15667,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ71">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR71">
         <v>1.22</v>
@@ -15995,7 +15998,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16201,7 +16204,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16407,7 +16410,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16613,7 +16616,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16691,7 +16694,7 @@
         <v>2.27</v>
       </c>
       <c r="AP76">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ76">
         <v>2.08</v>
@@ -16897,7 +16900,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -17025,7 +17028,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17231,7 +17234,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17312,7 +17315,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ79">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR79">
         <v>1.41</v>
@@ -17437,7 +17440,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17518,7 +17521,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ80">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AR80">
         <v>1.31</v>
@@ -18055,7 +18058,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18261,7 +18264,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18673,7 +18676,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18751,7 +18754,7 @@
         <v>1.07</v>
       </c>
       <c r="AP86">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ86">
         <v>0.96</v>
@@ -19369,7 +19372,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AQ89">
         <v>0.84</v>
@@ -19703,7 +19706,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19990,7 +19993,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ92">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR92">
         <v>1.3</v>
@@ -20115,7 +20118,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20196,7 +20199,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ93">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AR93">
         <v>1.6</v>
@@ -20527,7 +20530,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20939,7 +20942,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21351,7 +21354,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21635,7 +21638,7 @@
         <v>1.38</v>
       </c>
       <c r="AP100">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ100">
         <v>1</v>
@@ -21841,7 +21844,7 @@
         <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AQ101">
         <v>1.64</v>
@@ -22175,7 +22178,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22381,7 +22384,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22587,7 +22590,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22999,7 +23002,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23080,7 +23083,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ107">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AR107">
         <v>1.51</v>
@@ -23205,7 +23208,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23286,7 +23289,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ108">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR108">
         <v>1.32</v>
@@ -23823,7 +23826,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24029,7 +24032,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24107,7 +24110,7 @@
         <v>1.78</v>
       </c>
       <c r="AP112">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ112">
         <v>1.64</v>
@@ -24313,7 +24316,7 @@
         <v>1.39</v>
       </c>
       <c r="AP113">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AQ113">
         <v>1.44</v>
@@ -24441,7 +24444,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -24647,7 +24650,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -24728,7 +24731,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ115">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AR115">
         <v>1.2</v>
@@ -25059,7 +25062,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25140,7 +25143,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ117">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR117">
         <v>1.42</v>
@@ -25265,7 +25268,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25471,7 +25474,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25883,7 +25886,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26089,7 +26092,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26295,7 +26298,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26501,7 +26504,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -26579,10 +26582,10 @@
         <v>1.6</v>
       </c>
       <c r="AP124">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AQ124">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR124">
         <v>1.77</v>
@@ -26913,7 +26916,7 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27119,7 +27122,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27325,7 +27328,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27403,7 +27406,7 @@
         <v>0.86</v>
       </c>
       <c r="AP128">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ128">
         <v>0.88</v>
@@ -27531,7 +27534,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27737,7 +27740,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -27818,7 +27821,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ130">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AR130">
         <v>1.41</v>
@@ -27943,7 +27946,7 @@
         <v>89</v>
       </c>
       <c r="P131" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28149,7 +28152,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28561,7 +28564,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29054,7 +29057,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ136">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR136">
         <v>1.27</v>
@@ -29179,7 +29182,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29385,7 +29388,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29797,7 +29800,7 @@
         <v>168</v>
       </c>
       <c r="P140" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
@@ -29875,7 +29878,7 @@
         <v>1.13</v>
       </c>
       <c r="AP140">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ140">
         <v>1.16</v>
@@ -30209,7 +30212,7 @@
         <v>133</v>
       </c>
       <c r="P142" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q142">
         <v>2.25</v>
@@ -30496,7 +30499,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ143">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AR143">
         <v>1.19</v>
@@ -30699,7 +30702,7 @@
         <v>1.04</v>
       </c>
       <c r="AP144">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AQ144">
         <v>1</v>
@@ -30827,7 +30830,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31602,6 +31605,418 @@
       </c>
       <c r="BP148">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7487258</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45508.70833333334</v>
+      </c>
+      <c r="F149">
+        <v>3</v>
+      </c>
+      <c r="G149" t="s">
+        <v>76</v>
+      </c>
+      <c r="H149" t="s">
+        <v>70</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149" t="s">
+        <v>89</v>
+      </c>
+      <c r="P149" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q149">
+        <v>2.75</v>
+      </c>
+      <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
+        <v>4.5</v>
+      </c>
+      <c r="T149">
+        <v>1.44</v>
+      </c>
+      <c r="U149">
+        <v>2.63</v>
+      </c>
+      <c r="V149">
+        <v>3.25</v>
+      </c>
+      <c r="W149">
+        <v>1.33</v>
+      </c>
+      <c r="X149">
+        <v>10</v>
+      </c>
+      <c r="Y149">
+        <v>1.06</v>
+      </c>
+      <c r="Z149">
+        <v>2</v>
+      </c>
+      <c r="AA149">
+        <v>3.2</v>
+      </c>
+      <c r="AB149">
+        <v>3.5</v>
+      </c>
+      <c r="AC149">
+        <v>1.06</v>
+      </c>
+      <c r="AD149">
+        <v>8</v>
+      </c>
+      <c r="AE149">
+        <v>1.36</v>
+      </c>
+      <c r="AF149">
+        <v>2.95</v>
+      </c>
+      <c r="AG149">
+        <v>2.4</v>
+      </c>
+      <c r="AH149">
+        <v>1.53</v>
+      </c>
+      <c r="AI149">
+        <v>2.1</v>
+      </c>
+      <c r="AJ149">
+        <v>1.67</v>
+      </c>
+      <c r="AK149">
+        <v>1.3</v>
+      </c>
+      <c r="AL149">
+        <v>1.25</v>
+      </c>
+      <c r="AM149">
+        <v>1.7</v>
+      </c>
+      <c r="AN149">
+        <v>1.08</v>
+      </c>
+      <c r="AO149">
+        <v>1</v>
+      </c>
+      <c r="AP149">
+        <v>1.08</v>
+      </c>
+      <c r="AQ149">
+        <v>1</v>
+      </c>
+      <c r="AR149">
+        <v>1.36</v>
+      </c>
+      <c r="AS149">
+        <v>1.35</v>
+      </c>
+      <c r="AT149">
+        <v>2.71</v>
+      </c>
+      <c r="AU149">
+        <v>4</v>
+      </c>
+      <c r="AV149">
+        <v>10</v>
+      </c>
+      <c r="AW149">
+        <v>9</v>
+      </c>
+      <c r="AX149">
+        <v>13</v>
+      </c>
+      <c r="AY149">
+        <v>13</v>
+      </c>
+      <c r="AZ149">
+        <v>23</v>
+      </c>
+      <c r="BA149">
+        <v>2</v>
+      </c>
+      <c r="BB149">
+        <v>8</v>
+      </c>
+      <c r="BC149">
+        <v>10</v>
+      </c>
+      <c r="BD149">
+        <v>1.9</v>
+      </c>
+      <c r="BE149">
+        <v>7.5</v>
+      </c>
+      <c r="BF149">
+        <v>2.28</v>
+      </c>
+      <c r="BG149">
+        <v>1.33</v>
+      </c>
+      <c r="BH149">
+        <v>3</v>
+      </c>
+      <c r="BI149">
+        <v>1.48</v>
+      </c>
+      <c r="BJ149">
+        <v>2.47</v>
+      </c>
+      <c r="BK149">
+        <v>1.95</v>
+      </c>
+      <c r="BL149">
+        <v>1.77</v>
+      </c>
+      <c r="BM149">
+        <v>2.47</v>
+      </c>
+      <c r="BN149">
+        <v>1.48</v>
+      </c>
+      <c r="BO149">
+        <v>3.2</v>
+      </c>
+      <c r="BP149">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7487260</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45508.8125</v>
+      </c>
+      <c r="F150">
+        <v>3</v>
+      </c>
+      <c r="G150" t="s">
+        <v>74</v>
+      </c>
+      <c r="H150" t="s">
+        <v>72</v>
+      </c>
+      <c r="I150">
+        <v>3</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>3</v>
+      </c>
+      <c r="L150">
+        <v>4</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>4</v>
+      </c>
+      <c r="O150" t="s">
+        <v>172</v>
+      </c>
+      <c r="P150" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q150">
+        <v>2.3</v>
+      </c>
+      <c r="R150">
+        <v>2.1</v>
+      </c>
+      <c r="S150">
+        <v>5.5</v>
+      </c>
+      <c r="T150">
+        <v>1.44</v>
+      </c>
+      <c r="U150">
+        <v>2.63</v>
+      </c>
+      <c r="V150">
+        <v>3.25</v>
+      </c>
+      <c r="W150">
+        <v>1.33</v>
+      </c>
+      <c r="X150">
+        <v>9</v>
+      </c>
+      <c r="Y150">
+        <v>1.07</v>
+      </c>
+      <c r="Z150">
+        <v>1.63</v>
+      </c>
+      <c r="AA150">
+        <v>3.75</v>
+      </c>
+      <c r="AB150">
+        <v>5</v>
+      </c>
+      <c r="AC150">
+        <v>1.05</v>
+      </c>
+      <c r="AD150">
+        <v>8.5</v>
+      </c>
+      <c r="AE150">
+        <v>1.33</v>
+      </c>
+      <c r="AF150">
+        <v>3.1</v>
+      </c>
+      <c r="AG150">
+        <v>2</v>
+      </c>
+      <c r="AH150">
+        <v>1.75</v>
+      </c>
+      <c r="AI150">
+        <v>2</v>
+      </c>
+      <c r="AJ150">
+        <v>1.73</v>
+      </c>
+      <c r="AK150">
+        <v>1.1</v>
+      </c>
+      <c r="AL150">
+        <v>1.2</v>
+      </c>
+      <c r="AM150">
+        <v>2.3</v>
+      </c>
+      <c r="AN150">
+        <v>2.13</v>
+      </c>
+      <c r="AO150">
+        <v>1.63</v>
+      </c>
+      <c r="AP150">
+        <v>2.17</v>
+      </c>
+      <c r="AQ150">
+        <v>1.56</v>
+      </c>
+      <c r="AR150">
+        <v>1.69</v>
+      </c>
+      <c r="AS150">
+        <v>1.38</v>
+      </c>
+      <c r="AT150">
+        <v>3.07</v>
+      </c>
+      <c r="AU150">
+        <v>8</v>
+      </c>
+      <c r="AV150">
+        <v>2</v>
+      </c>
+      <c r="AW150">
+        <v>3</v>
+      </c>
+      <c r="AX150">
+        <v>4</v>
+      </c>
+      <c r="AY150">
+        <v>11</v>
+      </c>
+      <c r="AZ150">
+        <v>6</v>
+      </c>
+      <c r="BA150">
+        <v>3</v>
+      </c>
+      <c r="BB150">
+        <v>4</v>
+      </c>
+      <c r="BC150">
+        <v>7</v>
+      </c>
+      <c r="BD150">
+        <v>1.5</v>
+      </c>
+      <c r="BE150">
+        <v>7.7</v>
+      </c>
+      <c r="BF150">
+        <v>3.3</v>
+      </c>
+      <c r="BG150">
+        <v>1.25</v>
+      </c>
+      <c r="BH150">
+        <v>3.6</v>
+      </c>
+      <c r="BI150">
+        <v>1.34</v>
+      </c>
+      <c r="BJ150">
+        <v>3</v>
+      </c>
+      <c r="BK150">
+        <v>2.2</v>
+      </c>
+      <c r="BL150">
+        <v>1.95</v>
+      </c>
+      <c r="BM150">
+        <v>2.03</v>
+      </c>
+      <c r="BN150">
+        <v>1.7</v>
+      </c>
+      <c r="BO150">
+        <v>2.7</v>
+      </c>
+      <c r="BP150">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="248">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -535,6 +535,9 @@
     <t>['23', '26', '41', '64']</t>
   </si>
   <si>
+    <t>['41', '90+9']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -752,6 +755,9 @@
   </si>
   <si>
     <t>['35', '90+1']</t>
+  </si>
+  <si>
+    <t>['23', '59']</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP150"/>
+  <dimension ref="A1:BP152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1578,7 +1584,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1656,10 +1662,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AQ3">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2402,7 +2408,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2483,7 +2489,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ7">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2608,7 +2614,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2814,7 +2820,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2895,7 +2901,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ9">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR9">
         <v>1.58</v>
@@ -3020,7 +3026,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3098,7 +3104,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ10">
         <v>1.44</v>
@@ -3226,7 +3232,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3304,7 +3310,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AQ11">
         <v>1.56</v>
@@ -3638,7 +3644,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3925,7 +3931,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ14">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR14">
         <v>1.53</v>
@@ -4050,7 +4056,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4128,7 +4134,7 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AQ15">
         <v>1.08</v>
@@ -4668,7 +4674,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4749,7 +4755,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ18">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -4874,7 +4880,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5080,7 +5086,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5158,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ20">
         <v>0.88</v>
@@ -5286,7 +5292,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5492,7 +5498,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5776,7 +5782,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AQ23">
         <v>1.46</v>
@@ -5904,7 +5910,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5985,7 +5991,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR24">
         <v>1.25</v>
@@ -6191,7 +6197,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ25">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR25">
         <v>1.01</v>
@@ -6316,7 +6322,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6728,7 +6734,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6806,7 +6812,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AQ28">
         <v>0.84</v>
@@ -7015,7 +7021,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ29">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AR29">
         <v>2.13</v>
@@ -7552,7 +7558,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7836,7 +7842,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AQ33">
         <v>2.17</v>
@@ -7964,7 +7970,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8042,10 +8048,10 @@
         <v>2.2</v>
       </c>
       <c r="AP34">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ34">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AR34">
         <v>1.38</v>
@@ -8170,7 +8176,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8376,7 +8382,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8582,7 +8588,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -9075,7 +9081,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ39">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR39">
         <v>2.03</v>
@@ -9200,7 +9206,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9406,7 +9412,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9487,7 +9493,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ41">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR41">
         <v>1.42</v>
@@ -9612,7 +9618,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9690,7 +9696,7 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AQ42">
         <v>0.96</v>
@@ -10024,7 +10030,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10308,7 +10314,7 @@
         <v>1.71</v>
       </c>
       <c r="AP45">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AQ45">
         <v>1.56</v>
@@ -10436,7 +10442,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10642,7 +10648,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10723,7 +10729,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ47">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR47">
         <v>1.34</v>
@@ -10926,7 +10932,7 @@
         <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ48">
         <v>1.08</v>
@@ -11260,7 +11266,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11466,7 +11472,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11547,7 +11553,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ51">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -11956,7 +11962,7 @@
         <v>1.38</v>
       </c>
       <c r="AP53">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12084,7 +12090,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12290,7 +12296,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12368,7 +12374,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AQ55">
         <v>1.46</v>
@@ -12496,7 +12502,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12577,7 +12583,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ56">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AR56">
         <v>1.32</v>
@@ -12702,7 +12708,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12908,7 +12914,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13195,7 +13201,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR59">
         <v>1.29</v>
@@ -13320,7 +13326,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -14016,10 +14022,10 @@
         <v>1.7</v>
       </c>
       <c r="AP63">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AQ63">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR63">
         <v>1.55</v>
@@ -14222,7 +14228,7 @@
         <v>1.3</v>
       </c>
       <c r="AP64">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ64">
         <v>0.84</v>
@@ -14556,7 +14562,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14762,7 +14768,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14968,7 +14974,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15252,7 +15258,7 @@
         <v>1.27</v>
       </c>
       <c r="AP69">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AQ69">
         <v>1.44</v>
@@ -15458,10 +15464,10 @@
         <v>1.64</v>
       </c>
       <c r="AP70">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ70">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR70">
         <v>1.35</v>
@@ -15873,7 +15879,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ72">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR72">
         <v>1.46</v>
@@ -15998,7 +16004,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16204,7 +16210,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16282,7 +16288,7 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AQ74">
         <v>0.96</v>
@@ -16410,7 +16416,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16616,7 +16622,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16697,7 +16703,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ76">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AR76">
         <v>1.41</v>
@@ -17028,7 +17034,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17109,7 +17115,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ78">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AR78">
         <v>1.39</v>
@@ -17234,7 +17240,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17312,7 +17318,7 @@
         <v>1.46</v>
       </c>
       <c r="AP79">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ79">
         <v>1.56</v>
@@ -17440,7 +17446,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17930,7 +17936,7 @@
         <v>0.54</v>
       </c>
       <c r="AP82">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AQ82">
         <v>0.88</v>
@@ -18058,7 +18064,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18264,7 +18270,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18345,7 +18351,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ84">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR84">
         <v>1.38</v>
@@ -18551,7 +18557,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ85">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR85">
         <v>1.23</v>
@@ -18676,7 +18682,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -19169,7 +19175,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ88">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AR88">
         <v>1.24</v>
@@ -19578,7 +19584,7 @@
         <v>1.36</v>
       </c>
       <c r="AP90">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -19706,7 +19712,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -20118,7 +20124,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20196,7 +20202,7 @@
         <v>2.07</v>
       </c>
       <c r="AP93">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AQ93">
         <v>2.17</v>
@@ -20530,7 +20536,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20611,7 +20617,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ95">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR95">
         <v>1.32</v>
@@ -20814,7 +20820,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ96">
         <v>1.46</v>
@@ -20942,7 +20948,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21226,10 +21232,10 @@
         <v>1.06</v>
       </c>
       <c r="AP98">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AQ98">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR98">
         <v>1.6</v>
@@ -21354,7 +21360,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21847,7 +21853,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ101">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR101">
         <v>1.8</v>
@@ -22178,7 +22184,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22384,7 +22390,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22590,7 +22596,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22668,7 +22674,7 @@
         <v>1.47</v>
       </c>
       <c r="AP105">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AQ105">
         <v>1.44</v>
@@ -22877,7 +22883,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ106">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AR106">
         <v>1.21</v>
@@ -23002,7 +23008,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23080,7 +23086,7 @@
         <v>2.06</v>
       </c>
       <c r="AP107">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ107">
         <v>2.17</v>
@@ -23208,7 +23214,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23698,7 +23704,7 @@
         <v>0.89</v>
       </c>
       <c r="AP110">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AQ110">
         <v>1.08</v>
@@ -23826,7 +23832,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -23904,7 +23910,7 @@
         <v>1.11</v>
       </c>
       <c r="AP111">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ111">
         <v>0.96</v>
@@ -24032,7 +24038,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24113,7 +24119,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ112">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR112">
         <v>1.5</v>
@@ -24444,7 +24450,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -24650,7 +24656,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -24937,7 +24943,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ116">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR116">
         <v>1.3</v>
@@ -25062,7 +25068,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25268,7 +25274,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25349,7 +25355,7 @@
         <v>1</v>
       </c>
       <c r="AQ118">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AR118">
         <v>1.31</v>
@@ -25474,7 +25480,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25552,7 +25558,7 @@
         <v>0.79</v>
       </c>
       <c r="AP119">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AQ119">
         <v>0.88</v>
@@ -25886,7 +25892,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26092,7 +26098,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26298,7 +26304,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26379,7 +26385,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ123">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR123">
         <v>1.18</v>
@@ -26504,7 +26510,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -26788,7 +26794,7 @@
         <v>0.95</v>
       </c>
       <c r="AP125">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AQ125">
         <v>0.84</v>
@@ -26916,7 +26922,7 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -26994,7 +27000,7 @@
         <v>1.15</v>
       </c>
       <c r="AP126">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ126">
         <v>1</v>
@@ -27122,7 +27128,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27328,7 +27334,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27534,7 +27540,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27612,10 +27618,10 @@
         <v>2.14</v>
       </c>
       <c r="AP129">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AQ129">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AR129">
         <v>1.48</v>
@@ -27740,7 +27746,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -27946,7 +27952,7 @@
         <v>89</v>
       </c>
       <c r="P131" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28152,7 +28158,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28233,7 +28239,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ132">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR132">
         <v>1.23</v>
@@ -28564,7 +28570,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -28645,7 +28651,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ134">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AR134">
         <v>1.2</v>
@@ -28848,7 +28854,7 @@
         <v>1.41</v>
       </c>
       <c r="AP135">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AQ135">
         <v>1.44</v>
@@ -29182,7 +29188,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29260,7 +29266,7 @@
         <v>1.33</v>
       </c>
       <c r="AP137">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ137">
         <v>1.46</v>
@@ -29388,7 +29394,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29800,7 +29806,7 @@
         <v>168</v>
       </c>
       <c r="P140" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
@@ -29881,7 +29887,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ140">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR140">
         <v>1.41</v>
@@ -30087,7 +30093,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ141">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR141">
         <v>1.28</v>
@@ -30212,7 +30218,7 @@
         <v>133</v>
       </c>
       <c r="P142" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q142">
         <v>2.25</v>
@@ -30290,7 +30296,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AQ142">
         <v>1.08</v>
@@ -30830,7 +30836,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31114,7 +31120,7 @@
         <v>0.88</v>
       </c>
       <c r="AP146">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ146">
         <v>0.84</v>
@@ -31323,7 +31329,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ147">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AR147">
         <v>1.35</v>
@@ -31526,7 +31532,7 @@
         <v>0.92</v>
       </c>
       <c r="AP148">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AQ148">
         <v>0.88</v>
@@ -32017,6 +32023,418 @@
       </c>
       <c r="BP150">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7487267</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45510.77083333334</v>
+      </c>
+      <c r="F151">
+        <v>4</v>
+      </c>
+      <c r="G151" t="s">
+        <v>79</v>
+      </c>
+      <c r="H151" t="s">
+        <v>81</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>2</v>
+      </c>
+      <c r="L151">
+        <v>2</v>
+      </c>
+      <c r="M151">
+        <v>2</v>
+      </c>
+      <c r="N151">
+        <v>4</v>
+      </c>
+      <c r="O151" t="s">
+        <v>173</v>
+      </c>
+      <c r="P151" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q151">
+        <v>2.1</v>
+      </c>
+      <c r="R151">
+        <v>2.25</v>
+      </c>
+      <c r="S151">
+        <v>6</v>
+      </c>
+      <c r="T151">
+        <v>1.33</v>
+      </c>
+      <c r="U151">
+        <v>3</v>
+      </c>
+      <c r="V151">
+        <v>2.5</v>
+      </c>
+      <c r="W151">
+        <v>1.48</v>
+      </c>
+      <c r="X151">
+        <v>5.7</v>
+      </c>
+      <c r="Y151">
+        <v>1.1</v>
+      </c>
+      <c r="Z151">
+        <v>1.53</v>
+      </c>
+      <c r="AA151">
+        <v>3.9</v>
+      </c>
+      <c r="AB151">
+        <v>5.25</v>
+      </c>
+      <c r="AC151">
+        <v>1.01</v>
+      </c>
+      <c r="AD151">
+        <v>11.5</v>
+      </c>
+      <c r="AE151">
+        <v>1.24</v>
+      </c>
+      <c r="AF151">
+        <v>4.05</v>
+      </c>
+      <c r="AG151">
+        <v>1.9</v>
+      </c>
+      <c r="AH151">
+        <v>1.9</v>
+      </c>
+      <c r="AI151">
+        <v>1.91</v>
+      </c>
+      <c r="AJ151">
+        <v>1.8</v>
+      </c>
+      <c r="AK151">
+        <v>1.06</v>
+      </c>
+      <c r="AL151">
+        <v>1.15</v>
+      </c>
+      <c r="AM151">
+        <v>2.7</v>
+      </c>
+      <c r="AN151">
+        <v>2.08</v>
+      </c>
+      <c r="AO151">
+        <v>0.88</v>
+      </c>
+      <c r="AP151">
+        <v>2.04</v>
+      </c>
+      <c r="AQ151">
+        <v>0.88</v>
+      </c>
+      <c r="AR151">
+        <v>1.54</v>
+      </c>
+      <c r="AS151">
+        <v>1.19</v>
+      </c>
+      <c r="AT151">
+        <v>2.73</v>
+      </c>
+      <c r="AU151">
+        <v>6</v>
+      </c>
+      <c r="AV151">
+        <v>7</v>
+      </c>
+      <c r="AW151">
+        <v>6</v>
+      </c>
+      <c r="AX151">
+        <v>8</v>
+      </c>
+      <c r="AY151">
+        <v>12</v>
+      </c>
+      <c r="AZ151">
+        <v>15</v>
+      </c>
+      <c r="BA151">
+        <v>5</v>
+      </c>
+      <c r="BB151">
+        <v>4</v>
+      </c>
+      <c r="BC151">
+        <v>9</v>
+      </c>
+      <c r="BD151">
+        <v>1.34</v>
+      </c>
+      <c r="BE151">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF151">
+        <v>4.2</v>
+      </c>
+      <c r="BG151">
+        <v>1.3</v>
+      </c>
+      <c r="BH151">
+        <v>3.2</v>
+      </c>
+      <c r="BI151">
+        <v>1.5</v>
+      </c>
+      <c r="BJ151">
+        <v>2.4</v>
+      </c>
+      <c r="BK151">
+        <v>1.95</v>
+      </c>
+      <c r="BL151">
+        <v>1.77</v>
+      </c>
+      <c r="BM151">
+        <v>2.45</v>
+      </c>
+      <c r="BN151">
+        <v>1.49</v>
+      </c>
+      <c r="BO151">
+        <v>3.3</v>
+      </c>
+      <c r="BP151">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7487262</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45510.875</v>
+      </c>
+      <c r="F152">
+        <v>4</v>
+      </c>
+      <c r="G152" t="s">
+        <v>78</v>
+      </c>
+      <c r="H152" t="s">
+        <v>71</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152" t="s">
+        <v>89</v>
+      </c>
+      <c r="P152" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q152">
+        <v>4.33</v>
+      </c>
+      <c r="R152">
+        <v>2.05</v>
+      </c>
+      <c r="S152">
+        <v>2.75</v>
+      </c>
+      <c r="T152">
+        <v>1.48</v>
+      </c>
+      <c r="U152">
+        <v>2.5</v>
+      </c>
+      <c r="V152">
+        <v>3.2</v>
+      </c>
+      <c r="W152">
+        <v>1.3</v>
+      </c>
+      <c r="X152">
+        <v>8</v>
+      </c>
+      <c r="Y152">
+        <v>1.05</v>
+      </c>
+      <c r="Z152">
+        <v>3.5</v>
+      </c>
+      <c r="AA152">
+        <v>3.2</v>
+      </c>
+      <c r="AB152">
+        <v>2.05</v>
+      </c>
+      <c r="AC152">
+        <v>1.07</v>
+      </c>
+      <c r="AD152">
+        <v>7.5</v>
+      </c>
+      <c r="AE152">
+        <v>1.38</v>
+      </c>
+      <c r="AF152">
+        <v>2.9</v>
+      </c>
+      <c r="AG152">
+        <v>2.3</v>
+      </c>
+      <c r="AH152">
+        <v>1.6</v>
+      </c>
+      <c r="AI152">
+        <v>1.91</v>
+      </c>
+      <c r="AJ152">
+        <v>1.8</v>
+      </c>
+      <c r="AK152">
+        <v>1.72</v>
+      </c>
+      <c r="AL152">
+        <v>1.28</v>
+      </c>
+      <c r="AM152">
+        <v>1.25</v>
+      </c>
+      <c r="AN152">
+        <v>1.16</v>
+      </c>
+      <c r="AO152">
+        <v>1.64</v>
+      </c>
+      <c r="AP152">
+        <v>1.12</v>
+      </c>
+      <c r="AQ152">
+        <v>1.69</v>
+      </c>
+      <c r="AR152">
+        <v>1.52</v>
+      </c>
+      <c r="AS152">
+        <v>1.48</v>
+      </c>
+      <c r="AT152">
+        <v>3</v>
+      </c>
+      <c r="AU152">
+        <v>4</v>
+      </c>
+      <c r="AV152">
+        <v>10</v>
+      </c>
+      <c r="AW152">
+        <v>7</v>
+      </c>
+      <c r="AX152">
+        <v>4</v>
+      </c>
+      <c r="AY152">
+        <v>11</v>
+      </c>
+      <c r="AZ152">
+        <v>14</v>
+      </c>
+      <c r="BA152">
+        <v>7</v>
+      </c>
+      <c r="BB152">
+        <v>4</v>
+      </c>
+      <c r="BC152">
+        <v>11</v>
+      </c>
+      <c r="BD152">
+        <v>2.36</v>
+      </c>
+      <c r="BE152">
+        <v>7.4</v>
+      </c>
+      <c r="BF152">
+        <v>1.85</v>
+      </c>
+      <c r="BG152">
+        <v>1.36</v>
+      </c>
+      <c r="BH152">
+        <v>2.9</v>
+      </c>
+      <c r="BI152">
+        <v>1.51</v>
+      </c>
+      <c r="BJ152">
+        <v>2.37</v>
+      </c>
+      <c r="BK152">
+        <v>1.95</v>
+      </c>
+      <c r="BL152">
+        <v>1.77</v>
+      </c>
+      <c r="BM152">
+        <v>2.55</v>
+      </c>
+      <c r="BN152">
+        <v>1.45</v>
+      </c>
+      <c r="BO152">
+        <v>3.3</v>
+      </c>
+      <c r="BP152">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="251">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -538,6 +538,12 @@
     <t>['41', '90+9']</t>
   </si>
   <si>
+    <t>['75', '85']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -758,6 +764,9 @@
   </si>
   <si>
     <t>['23', '59']</t>
+  </si>
+  <si>
+    <t>['54', '67']</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP152"/>
+  <dimension ref="A1:BP154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1459,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1584,7 +1593,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1871,7 +1880,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ4">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2408,7 +2417,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2486,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ7">
         <v>2.04</v>
@@ -2614,7 +2623,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2692,7 +2701,7 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ8">
         <v>0.84</v>
@@ -2820,7 +2829,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3026,7 +3035,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3107,7 +3116,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ10">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR10">
         <v>1.47</v>
@@ -3232,7 +3241,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3516,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AQ12">
         <v>0.88</v>
@@ -3644,7 +3653,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4056,7 +4065,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4137,7 +4146,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ15">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AR15">
         <v>1.29</v>
@@ -4546,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ17">
         <v>0.96</v>
@@ -4674,7 +4683,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4880,7 +4889,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4958,10 +4967,10 @@
         <v>1.67</v>
       </c>
       <c r="AP19">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ19">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR19">
         <v>1.31</v>
@@ -5086,7 +5095,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5292,7 +5301,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5498,7 +5507,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5785,7 +5794,7 @@
         <v>2.04</v>
       </c>
       <c r="AQ23">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -5910,7 +5919,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6194,7 +6203,7 @@
         <v>0.75</v>
       </c>
       <c r="AP25">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AQ25">
         <v>1.12</v>
@@ -6322,7 +6331,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6606,7 +6615,7 @@
         <v>1.75</v>
       </c>
       <c r="AP27">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6734,7 +6743,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -7227,7 +7236,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ30">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AR30">
         <v>1.49</v>
@@ -7433,7 +7442,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ31">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR31">
         <v>1.28</v>
@@ -7558,7 +7567,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7970,7 +7979,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8176,7 +8185,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8254,7 +8263,7 @@
         <v>0.6</v>
       </c>
       <c r="AP35">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ35">
         <v>0.88</v>
@@ -8382,7 +8391,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8463,7 +8472,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ36">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AR36">
         <v>1.5</v>
@@ -8588,7 +8597,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8872,10 +8881,10 @@
         <v>0.83</v>
       </c>
       <c r="AP38">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AQ38">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AR38">
         <v>1.06</v>
@@ -9206,7 +9215,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9412,7 +9421,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9490,7 +9499,7 @@
         <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ41">
         <v>1.69</v>
@@ -9618,7 +9627,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9902,7 +9911,7 @@
         <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ43">
         <v>2.17</v>
@@ -10030,7 +10039,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10111,7 +10120,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AR44">
         <v>1.33</v>
@@ -10442,7 +10451,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10648,7 +10657,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10935,7 +10944,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ48">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AR48">
         <v>1.31</v>
@@ -11138,7 +11147,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AQ49">
         <v>0.84</v>
@@ -11266,7 +11275,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11472,7 +11481,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11759,7 +11768,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ52">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR52">
         <v>1.52</v>
@@ -12090,7 +12099,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12296,7 +12305,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12377,7 +12386,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ55">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AR55">
         <v>1.34</v>
@@ -12502,7 +12511,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12708,7 +12717,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12786,7 +12795,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ57">
         <v>0.96</v>
@@ -12914,7 +12923,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -12992,7 +13001,7 @@
         <v>0.44</v>
       </c>
       <c r="AP58">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ58">
         <v>0.88</v>
@@ -13326,7 +13335,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13819,7 +13828,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ62">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AR62">
         <v>1.93</v>
@@ -14434,10 +14443,10 @@
         <v>1.1</v>
       </c>
       <c r="AP65">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AQ65">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR65">
         <v>1.21</v>
@@ -14562,7 +14571,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14768,7 +14777,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14846,7 +14855,7 @@
         <v>1.36</v>
       </c>
       <c r="AP67">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -14974,7 +14983,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15261,7 +15270,7 @@
         <v>2.04</v>
       </c>
       <c r="AQ69">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR69">
         <v>1.62</v>
@@ -15670,7 +15679,7 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AQ71">
         <v>1.56</v>
@@ -15876,7 +15885,7 @@
         <v>1.17</v>
       </c>
       <c r="AP72">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ72">
         <v>1.12</v>
@@ -16004,7 +16013,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16085,7 +16094,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ73">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AR73">
         <v>1.25</v>
@@ -16210,7 +16219,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16416,7 +16425,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16497,7 +16506,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ75">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AR75">
         <v>1.36</v>
@@ -16622,7 +16631,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17034,7 +17043,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17112,7 +17121,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ78">
         <v>2.04</v>
@@ -17240,7 +17249,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17446,7 +17455,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17524,7 +17533,7 @@
         <v>1.92</v>
       </c>
       <c r="AP80">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AQ80">
         <v>2.17</v>
@@ -18064,7 +18073,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18145,7 +18154,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ83">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR83">
         <v>1.24</v>
@@ -18270,7 +18279,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18348,7 +18357,7 @@
         <v>1.69</v>
       </c>
       <c r="AP84">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ84">
         <v>1.69</v>
@@ -18682,7 +18691,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18966,10 +18975,10 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ87">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -19172,7 +19181,7 @@
         <v>2.29</v>
       </c>
       <c r="AP88">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AQ88">
         <v>2.04</v>
@@ -19712,7 +19721,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19793,7 +19802,7 @@
         <v>1</v>
       </c>
       <c r="AQ91">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR91">
         <v>1.34</v>
@@ -19996,7 +20005,7 @@
         <v>1.47</v>
       </c>
       <c r="AP92">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ92">
         <v>1.56</v>
@@ -20124,7 +20133,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20536,7 +20545,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20823,7 +20832,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ96">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AR96">
         <v>1.51</v>
@@ -20948,7 +20957,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21026,7 +21035,7 @@
         <v>1.19</v>
       </c>
       <c r="AP97">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AQ97">
         <v>0.96</v>
@@ -21360,7 +21369,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21441,7 +21450,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ99">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AR99">
         <v>1.2</v>
@@ -22056,7 +22065,7 @@
         <v>0.88</v>
       </c>
       <c r="AP102">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ102">
         <v>0.84</v>
@@ -22184,7 +22193,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22390,7 +22399,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22468,10 +22477,10 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ104">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AR104">
         <v>1.3</v>
@@ -22596,7 +22605,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22677,7 +22686,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ105">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR105">
         <v>1.45</v>
@@ -23008,7 +23017,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23214,7 +23223,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23498,7 +23507,7 @@
         <v>1.28</v>
       </c>
       <c r="AP109">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AQ109">
         <v>1</v>
@@ -23707,7 +23716,7 @@
         <v>2.04</v>
       </c>
       <c r="AQ110">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AR110">
         <v>1.6</v>
@@ -23832,7 +23841,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24038,7 +24047,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24325,7 +24334,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ113">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR113">
         <v>1.78</v>
@@ -24450,7 +24459,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -24656,7 +24665,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -24940,7 +24949,7 @@
         <v>1.05</v>
       </c>
       <c r="AP116">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ116">
         <v>1.12</v>
@@ -25068,7 +25077,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25146,7 +25155,7 @@
         <v>1.53</v>
       </c>
       <c r="AP117">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ117">
         <v>1.56</v>
@@ -25274,7 +25283,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25480,7 +25489,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25767,7 +25776,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ120">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AR120">
         <v>1.29</v>
@@ -25892,7 +25901,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -25973,7 +25982,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ121">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR121">
         <v>1.22</v>
@@ -26098,7 +26107,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26179,7 +26188,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ122">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AR122">
         <v>1.17</v>
@@ -26304,7 +26313,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26382,7 +26391,7 @@
         <v>1.75</v>
       </c>
       <c r="AP123">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AQ123">
         <v>1.69</v>
@@ -26510,7 +26519,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -26922,7 +26931,7 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27128,7 +27137,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27206,10 +27215,10 @@
         <v>1.4</v>
       </c>
       <c r="AP127">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ127">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AR127">
         <v>1.39</v>
@@ -27334,7 +27343,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27540,7 +27549,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27746,7 +27755,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -27824,7 +27833,7 @@
         <v>2.1</v>
       </c>
       <c r="AP130">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ130">
         <v>2.17</v>
@@ -27952,7 +27961,7 @@
         <v>89</v>
       </c>
       <c r="P131" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28158,7 +28167,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28442,7 +28451,7 @@
         <v>0.95</v>
       </c>
       <c r="AP133">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ133">
         <v>0.88</v>
@@ -28570,7 +28579,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -28857,7 +28866,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ135">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR135">
         <v>1.47</v>
@@ -29188,7 +29197,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29269,7 +29278,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ137">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AR137">
         <v>1.57</v>
@@ -29394,7 +29403,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29475,7 +29484,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ138">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR138">
         <v>1.21</v>
@@ -29806,7 +29815,7 @@
         <v>168</v>
       </c>
       <c r="P140" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
@@ -30218,7 +30227,7 @@
         <v>133</v>
       </c>
       <c r="P142" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q142">
         <v>2.25</v>
@@ -30299,7 +30308,7 @@
         <v>2.04</v>
       </c>
       <c r="AQ142">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AR142">
         <v>1.56</v>
@@ -30502,7 +30511,7 @@
         <v>2.14</v>
       </c>
       <c r="AP143">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AQ143">
         <v>2.17</v>
@@ -30836,7 +30845,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -30917,7 +30926,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ145">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AR145">
         <v>1.2</v>
@@ -31326,7 +31335,7 @@
         <v>2.13</v>
       </c>
       <c r="AP147">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ147">
         <v>2.04</v>
@@ -31738,7 +31747,7 @@
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ149">
         <v>1</v>
@@ -32072,7 +32081,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q151">
         <v>2.1</v>
@@ -32434,6 +32443,418 @@
         <v>3.3</v>
       </c>
       <c r="BP152">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7487266</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45511.77083333334</v>
+      </c>
+      <c r="F153">
+        <v>4</v>
+      </c>
+      <c r="G153" t="s">
+        <v>70</v>
+      </c>
+      <c r="H153" t="s">
+        <v>75</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>2</v>
+      </c>
+      <c r="N153">
+        <v>4</v>
+      </c>
+      <c r="O153" t="s">
+        <v>174</v>
+      </c>
+      <c r="P153" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q153">
+        <v>3.75</v>
+      </c>
+      <c r="R153">
+        <v>2</v>
+      </c>
+      <c r="S153">
+        <v>3.1</v>
+      </c>
+      <c r="T153">
+        <v>1.4</v>
+      </c>
+      <c r="U153">
+        <v>2.75</v>
+      </c>
+      <c r="V153">
+        <v>2.75</v>
+      </c>
+      <c r="W153">
+        <v>1.4</v>
+      </c>
+      <c r="X153">
+        <v>6.95</v>
+      </c>
+      <c r="Y153">
+        <v>1.08</v>
+      </c>
+      <c r="Z153">
+        <v>3.1</v>
+      </c>
+      <c r="AA153">
+        <v>3.1</v>
+      </c>
+      <c r="AB153">
+        <v>2.3</v>
+      </c>
+      <c r="AC153">
+        <v>1.05</v>
+      </c>
+      <c r="AD153">
+        <v>8.5</v>
+      </c>
+      <c r="AE153">
+        <v>1.3</v>
+      </c>
+      <c r="AF153">
+        <v>3.38</v>
+      </c>
+      <c r="AG153">
+        <v>2.3</v>
+      </c>
+      <c r="AH153">
+        <v>1.6</v>
+      </c>
+      <c r="AI153">
+        <v>2</v>
+      </c>
+      <c r="AJ153">
+        <v>1.73</v>
+      </c>
+      <c r="AK153">
+        <v>1.57</v>
+      </c>
+      <c r="AL153">
+        <v>1.28</v>
+      </c>
+      <c r="AM153">
+        <v>1.38</v>
+      </c>
+      <c r="AN153">
+        <v>1</v>
+      </c>
+      <c r="AO153">
+        <v>1.44</v>
+      </c>
+      <c r="AP153">
+        <v>1</v>
+      </c>
+      <c r="AQ153">
+        <v>1.42</v>
+      </c>
+      <c r="AR153">
+        <v>1.41</v>
+      </c>
+      <c r="AS153">
+        <v>1.34</v>
+      </c>
+      <c r="AT153">
+        <v>2.75</v>
+      </c>
+      <c r="AU153">
+        <v>4</v>
+      </c>
+      <c r="AV153">
+        <v>4</v>
+      </c>
+      <c r="AW153">
+        <v>7</v>
+      </c>
+      <c r="AX153">
+        <v>5</v>
+      </c>
+      <c r="AY153">
+        <v>11</v>
+      </c>
+      <c r="AZ153">
+        <v>9</v>
+      </c>
+      <c r="BA153">
+        <v>2</v>
+      </c>
+      <c r="BB153">
+        <v>0</v>
+      </c>
+      <c r="BC153">
+        <v>2</v>
+      </c>
+      <c r="BD153">
+        <v>1.95</v>
+      </c>
+      <c r="BE153">
+        <v>7.3</v>
+      </c>
+      <c r="BF153">
+        <v>2.23</v>
+      </c>
+      <c r="BG153">
+        <v>1.29</v>
+      </c>
+      <c r="BH153">
+        <v>3.3</v>
+      </c>
+      <c r="BI153">
+        <v>1.5</v>
+      </c>
+      <c r="BJ153">
+        <v>2.52</v>
+      </c>
+      <c r="BK153">
+        <v>2.38</v>
+      </c>
+      <c r="BL153">
+        <v>1.95</v>
+      </c>
+      <c r="BM153">
+        <v>2.3</v>
+      </c>
+      <c r="BN153">
+        <v>1.59</v>
+      </c>
+      <c r="BO153">
+        <v>2.9</v>
+      </c>
+      <c r="BP153">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7487265</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45511.875</v>
+      </c>
+      <c r="F154">
+        <v>4</v>
+      </c>
+      <c r="G154" t="s">
+        <v>80</v>
+      </c>
+      <c r="H154" t="s">
+        <v>76</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154" t="s">
+        <v>175</v>
+      </c>
+      <c r="P154" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q154">
+        <v>3.4</v>
+      </c>
+      <c r="R154">
+        <v>2</v>
+      </c>
+      <c r="S154">
+        <v>3.4</v>
+      </c>
+      <c r="T154">
+        <v>1.48</v>
+      </c>
+      <c r="U154">
+        <v>2.5</v>
+      </c>
+      <c r="V154">
+        <v>3.1</v>
+      </c>
+      <c r="W154">
+        <v>1.33</v>
+      </c>
+      <c r="X154">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y154">
+        <v>1.05</v>
+      </c>
+      <c r="Z154">
+        <v>2.6</v>
+      </c>
+      <c r="AA154">
+        <v>3.1</v>
+      </c>
+      <c r="AB154">
+        <v>2.63</v>
+      </c>
+      <c r="AC154">
+        <v>1.07</v>
+      </c>
+      <c r="AD154">
+        <v>7.5</v>
+      </c>
+      <c r="AE154">
+        <v>1.4</v>
+      </c>
+      <c r="AF154">
+        <v>2.85</v>
+      </c>
+      <c r="AG154">
+        <v>2.25</v>
+      </c>
+      <c r="AH154">
+        <v>1.62</v>
+      </c>
+      <c r="AI154">
+        <v>1.91</v>
+      </c>
+      <c r="AJ154">
+        <v>1.8</v>
+      </c>
+      <c r="AK154">
+        <v>1.33</v>
+      </c>
+      <c r="AL154">
+        <v>1.3</v>
+      </c>
+      <c r="AM154">
+        <v>1.6</v>
+      </c>
+      <c r="AN154">
+        <v>1.46</v>
+      </c>
+      <c r="AO154">
+        <v>1.08</v>
+      </c>
+      <c r="AP154">
+        <v>1.52</v>
+      </c>
+      <c r="AQ154">
+        <v>1.04</v>
+      </c>
+      <c r="AR154">
+        <v>1.17</v>
+      </c>
+      <c r="AS154">
+        <v>1.36</v>
+      </c>
+      <c r="AT154">
+        <v>2.53</v>
+      </c>
+      <c r="AU154">
+        <v>5</v>
+      </c>
+      <c r="AV154">
+        <v>2</v>
+      </c>
+      <c r="AW154">
+        <v>7</v>
+      </c>
+      <c r="AX154">
+        <v>2</v>
+      </c>
+      <c r="AY154">
+        <v>12</v>
+      </c>
+      <c r="AZ154">
+        <v>4</v>
+      </c>
+      <c r="BA154">
+        <v>3</v>
+      </c>
+      <c r="BB154">
+        <v>3</v>
+      </c>
+      <c r="BC154">
+        <v>6</v>
+      </c>
+      <c r="BD154">
+        <v>1.8</v>
+      </c>
+      <c r="BE154">
+        <v>7.4</v>
+      </c>
+      <c r="BF154">
+        <v>2.45</v>
+      </c>
+      <c r="BG154">
+        <v>1.29</v>
+      </c>
+      <c r="BH154">
+        <v>3.3</v>
+      </c>
+      <c r="BI154">
+        <v>1.62</v>
+      </c>
+      <c r="BJ154">
+        <v>2.22</v>
+      </c>
+      <c r="BK154">
+        <v>2.02</v>
+      </c>
+      <c r="BL154">
+        <v>1.76</v>
+      </c>
+      <c r="BM154">
+        <v>2.62</v>
+      </c>
+      <c r="BN154">
+        <v>1.43</v>
+      </c>
+      <c r="BO154">
+        <v>3.3</v>
+      </c>
+      <c r="BP154">
         <v>1.29</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -544,6 +544,9 @@
     <t>['37']</t>
   </si>
   <si>
+    <t>['51', '54']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -767,6 +770,12 @@
   </si>
   <si>
     <t>['54', '67']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['4']</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP154"/>
+  <dimension ref="A1:BP156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1593,7 +1602,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1877,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AQ4">
         <v>1.52</v>
@@ -2083,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AQ5">
         <v>0.96</v>
@@ -2289,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ6">
         <v>0.88</v>
@@ -2417,7 +2426,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2623,7 +2632,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2704,7 +2713,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ8">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR8">
         <v>0.87</v>
@@ -2829,7 +2838,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3035,7 +3044,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3241,7 +3250,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3322,7 +3331,7 @@
         <v>2.04</v>
       </c>
       <c r="AQ11">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AR11">
         <v>1.49</v>
@@ -3653,7 +3662,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3734,7 +3743,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AR13">
         <v>1.34</v>
@@ -3937,7 +3946,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AQ14">
         <v>1.12</v>
@@ -4065,7 +4074,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4349,7 +4358,7 @@
         <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4683,7 +4692,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4889,7 +4898,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5095,7 +5104,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5301,7 +5310,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5382,7 +5391,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ21">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AR21">
         <v>1.64</v>
@@ -5507,7 +5516,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5585,10 +5594,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AQ22">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AR22">
         <v>1.54</v>
@@ -5919,7 +5928,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6331,7 +6340,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6743,7 +6752,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6824,7 +6833,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ28">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR28">
         <v>1.41</v>
@@ -7027,7 +7036,7 @@
         <v>2.5</v>
       </c>
       <c r="AP29">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ29">
         <v>2.04</v>
@@ -7233,7 +7242,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AQ30">
         <v>1.04</v>
@@ -7439,7 +7448,7 @@
         <v>1.8</v>
       </c>
       <c r="AP31">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AQ31">
         <v>1.42</v>
@@ -7567,7 +7576,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7648,7 +7657,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AR32">
         <v>1.21</v>
@@ -7854,7 +7863,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ33">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AR33">
         <v>1.41</v>
@@ -7979,7 +7988,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8185,7 +8194,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8391,7 +8400,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8597,7 +8606,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8675,10 +8684,10 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AQ37">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR37">
         <v>1.56</v>
@@ -9087,7 +9096,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ39">
         <v>1.12</v>
@@ -9215,7 +9224,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9421,7 +9430,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9627,7 +9636,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9914,7 +9923,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ43">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AR43">
         <v>1.44</v>
@@ -10039,7 +10048,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10326,7 +10335,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ45">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AR45">
         <v>1.37</v>
@@ -10451,7 +10460,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10529,7 +10538,7 @@
         <v>0.43</v>
       </c>
       <c r="AP46">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AQ46">
         <v>0.88</v>
@@ -10657,7 +10666,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -11150,7 +11159,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ49">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR49">
         <v>1.1</v>
@@ -11275,7 +11284,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11353,7 +11362,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ50">
         <v>0.96</v>
@@ -11481,7 +11490,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11765,7 +11774,7 @@
         <v>1.38</v>
       </c>
       <c r="AP52">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AQ52">
         <v>1.42</v>
@@ -12099,7 +12108,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12177,10 +12186,10 @@
         <v>1.38</v>
       </c>
       <c r="AP54">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AQ54">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AR54">
         <v>1.53</v>
@@ -12305,7 +12314,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12511,7 +12520,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12589,7 +12598,7 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AQ56">
         <v>2.04</v>
@@ -12717,7 +12726,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12923,7 +12932,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13335,7 +13344,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13622,7 +13631,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ61">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AR61">
         <v>1.27</v>
@@ -13825,7 +13834,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP62">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ62">
         <v>1.04</v>
@@ -14240,7 +14249,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ64">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14571,7 +14580,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14652,7 +14661,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ66">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR66">
         <v>1.23</v>
@@ -14777,7 +14786,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14983,7 +14992,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15064,7 +15073,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ68">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AR68">
         <v>1.27</v>
@@ -15682,7 +15691,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ71">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AR71">
         <v>1.22</v>
@@ -16013,7 +16022,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16219,7 +16228,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16425,7 +16434,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16503,7 +16512,7 @@
         <v>0.55</v>
       </c>
       <c r="AP75">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AQ75">
         <v>1.04</v>
@@ -16631,7 +16640,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16709,7 +16718,7 @@
         <v>2.27</v>
       </c>
       <c r="AP76">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AQ76">
         <v>2.04</v>
@@ -16915,7 +16924,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -17043,7 +17052,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17249,7 +17258,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17330,7 +17339,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ79">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AR79">
         <v>1.41</v>
@@ -17455,7 +17464,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17536,7 +17545,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ80">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AR80">
         <v>1.31</v>
@@ -17742,7 +17751,7 @@
         <v>1</v>
       </c>
       <c r="AQ81">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR81">
         <v>1.27</v>
@@ -18073,7 +18082,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18279,7 +18288,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18691,7 +18700,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18769,7 +18778,7 @@
         <v>1.07</v>
       </c>
       <c r="AP86">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AQ86">
         <v>0.96</v>
@@ -19387,10 +19396,10 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ89">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR89">
         <v>1.81</v>
@@ -19721,7 +19730,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -20008,7 +20017,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ92">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AR92">
         <v>1.3</v>
@@ -20133,7 +20142,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20214,7 +20223,7 @@
         <v>2.04</v>
       </c>
       <c r="AQ93">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AR93">
         <v>1.6</v>
@@ -20545,7 +20554,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20623,7 +20632,7 @@
         <v>1.67</v>
       </c>
       <c r="AP95">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AQ95">
         <v>1.69</v>
@@ -20957,7 +20966,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21369,7 +21378,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21653,7 +21662,7 @@
         <v>1.38</v>
       </c>
       <c r="AP100">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AQ100">
         <v>1</v>
@@ -21859,7 +21868,7 @@
         <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ101">
         <v>1.69</v>
@@ -22068,7 +22077,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ102">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR102">
         <v>1.45</v>
@@ -22193,7 +22202,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22399,7 +22408,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22605,7 +22614,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -23017,7 +23026,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23098,7 +23107,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ107">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AR107">
         <v>1.51</v>
@@ -23223,7 +23232,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23301,10 +23310,10 @@
         <v>1.53</v>
       </c>
       <c r="AP108">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AQ108">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AR108">
         <v>1.32</v>
@@ -23841,7 +23850,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24047,7 +24056,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24125,7 +24134,7 @@
         <v>1.78</v>
       </c>
       <c r="AP112">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AQ112">
         <v>1.69</v>
@@ -24331,7 +24340,7 @@
         <v>1.39</v>
       </c>
       <c r="AP113">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ113">
         <v>1.42</v>
@@ -24459,7 +24468,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -24540,7 +24549,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ114">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR114">
         <v>1.26</v>
@@ -24665,7 +24674,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -24746,7 +24755,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ115">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AR115">
         <v>1.2</v>
@@ -25077,7 +25086,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25158,7 +25167,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ117">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AR117">
         <v>1.42</v>
@@ -25283,7 +25292,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25489,7 +25498,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25773,7 +25782,7 @@
         <v>1.5</v>
       </c>
       <c r="AP120">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AQ120">
         <v>1.52</v>
@@ -25901,7 +25910,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26107,7 +26116,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26313,7 +26322,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26519,7 +26528,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -26597,10 +26606,10 @@
         <v>1.6</v>
       </c>
       <c r="AP124">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ124">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AR124">
         <v>1.77</v>
@@ -26806,7 +26815,7 @@
         <v>2.04</v>
       </c>
       <c r="AQ125">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR125">
         <v>1.61</v>
@@ -26931,7 +26940,7 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27137,7 +27146,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27343,7 +27352,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27421,7 +27430,7 @@
         <v>0.86</v>
       </c>
       <c r="AP128">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AQ128">
         <v>0.88</v>
@@ -27549,7 +27558,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27755,7 +27764,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -27836,7 +27845,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ130">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AR130">
         <v>1.41</v>
@@ -27961,7 +27970,7 @@
         <v>89</v>
       </c>
       <c r="P131" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28167,7 +28176,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28245,7 +28254,7 @@
         <v>1.1</v>
       </c>
       <c r="AP132">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AQ132">
         <v>1.12</v>
@@ -28579,7 +28588,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29069,10 +29078,10 @@
         <v>1.59</v>
       </c>
       <c r="AP136">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AQ136">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AR136">
         <v>1.27</v>
@@ -29197,7 +29206,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29403,7 +29412,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29815,7 +29824,7 @@
         <v>168</v>
       </c>
       <c r="P140" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
@@ -29893,7 +29902,7 @@
         <v>1.13</v>
       </c>
       <c r="AP140">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AQ140">
         <v>1.12</v>
@@ -30099,7 +30108,7 @@
         <v>1.61</v>
       </c>
       <c r="AP141">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AQ141">
         <v>1.69</v>
@@ -30227,7 +30236,7 @@
         <v>133</v>
       </c>
       <c r="P142" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q142">
         <v>2.25</v>
@@ -30514,7 +30523,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ143">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AR143">
         <v>1.19</v>
@@ -30717,7 +30726,7 @@
         <v>1.04</v>
       </c>
       <c r="AP144">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ144">
         <v>1</v>
@@ -30845,7 +30854,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31132,7 +31141,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ146">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AR146">
         <v>1.51</v>
@@ -31953,10 +31962,10 @@
         <v>1.63</v>
       </c>
       <c r="AP150">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ150">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AR150">
         <v>1.69</v>
@@ -32081,7 +32090,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q151">
         <v>2.1</v>
@@ -32493,7 +32502,7 @@
         <v>174</v>
       </c>
       <c r="P153" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q153">
         <v>3.75</v>
@@ -32856,6 +32865,418 @@
       </c>
       <c r="BP154">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7487264</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45512.77083333334</v>
+      </c>
+      <c r="F155">
+        <v>4</v>
+      </c>
+      <c r="G155" t="s">
+        <v>72</v>
+      </c>
+      <c r="H155" t="s">
+        <v>77</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>2</v>
+      </c>
+      <c r="O155" t="s">
+        <v>113</v>
+      </c>
+      <c r="P155" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q155">
+        <v>2.6</v>
+      </c>
+      <c r="R155">
+        <v>1.95</v>
+      </c>
+      <c r="S155">
+        <v>5.5</v>
+      </c>
+      <c r="T155">
+        <v>1.4</v>
+      </c>
+      <c r="U155">
+        <v>2.83</v>
+      </c>
+      <c r="V155">
+        <v>3.06</v>
+      </c>
+      <c r="W155">
+        <v>1.35</v>
+      </c>
+      <c r="X155">
+        <v>6.5</v>
+      </c>
+      <c r="Y155">
+        <v>1.08</v>
+      </c>
+      <c r="Z155">
+        <v>1.68</v>
+      </c>
+      <c r="AA155">
+        <v>3.54</v>
+      </c>
+      <c r="AB155">
+        <v>4.84</v>
+      </c>
+      <c r="AC155">
+        <v>1.06</v>
+      </c>
+      <c r="AD155">
+        <v>8</v>
+      </c>
+      <c r="AE155">
+        <v>1.5</v>
+      </c>
+      <c r="AF155">
+        <v>2.47</v>
+      </c>
+      <c r="AG155">
+        <v>2</v>
+      </c>
+      <c r="AH155">
+        <v>1.72</v>
+      </c>
+      <c r="AI155">
+        <v>2.38</v>
+      </c>
+      <c r="AJ155">
+        <v>1.53</v>
+      </c>
+      <c r="AK155">
+        <v>1.17</v>
+      </c>
+      <c r="AL155">
+        <v>1.25</v>
+      </c>
+      <c r="AM155">
+        <v>1.93</v>
+      </c>
+      <c r="AN155">
+        <v>1.56</v>
+      </c>
+      <c r="AO155">
+        <v>0.96</v>
+      </c>
+      <c r="AP155">
+        <v>1.54</v>
+      </c>
+      <c r="AQ155">
+        <v>0.96</v>
+      </c>
+      <c r="AR155">
+        <v>1.36</v>
+      </c>
+      <c r="AS155">
+        <v>1.19</v>
+      </c>
+      <c r="AT155">
+        <v>2.55</v>
+      </c>
+      <c r="AU155">
+        <v>3</v>
+      </c>
+      <c r="AV155">
+        <v>6</v>
+      </c>
+      <c r="AW155">
+        <v>4</v>
+      </c>
+      <c r="AX155">
+        <v>3</v>
+      </c>
+      <c r="AY155">
+        <v>7</v>
+      </c>
+      <c r="AZ155">
+        <v>9</v>
+      </c>
+      <c r="BA155">
+        <v>0</v>
+      </c>
+      <c r="BB155">
+        <v>5</v>
+      </c>
+      <c r="BC155">
+        <v>5</v>
+      </c>
+      <c r="BD155">
+        <v>1.5</v>
+      </c>
+      <c r="BE155">
+        <v>8.4</v>
+      </c>
+      <c r="BF155">
+        <v>3.2</v>
+      </c>
+      <c r="BG155">
+        <v>1.25</v>
+      </c>
+      <c r="BH155">
+        <v>3.6</v>
+      </c>
+      <c r="BI155">
+        <v>1.41</v>
+      </c>
+      <c r="BJ155">
+        <v>2.7</v>
+      </c>
+      <c r="BK155">
+        <v>2.2</v>
+      </c>
+      <c r="BL155">
+        <v>1.95</v>
+      </c>
+      <c r="BM155">
+        <v>2.2</v>
+      </c>
+      <c r="BN155">
+        <v>1.6</v>
+      </c>
+      <c r="BO155">
+        <v>2.9</v>
+      </c>
+      <c r="BP155">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7487263</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45512.875</v>
+      </c>
+      <c r="F156">
+        <v>4</v>
+      </c>
+      <c r="G156" t="s">
+        <v>73</v>
+      </c>
+      <c r="H156" t="s">
+        <v>74</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>2</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>3</v>
+      </c>
+      <c r="O156" t="s">
+        <v>176</v>
+      </c>
+      <c r="P156" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q156">
+        <v>6.5</v>
+      </c>
+      <c r="R156">
+        <v>2.1</v>
+      </c>
+      <c r="S156">
+        <v>2.2</v>
+      </c>
+      <c r="T156">
+        <v>1.36</v>
+      </c>
+      <c r="U156">
+        <v>2.85</v>
+      </c>
+      <c r="V156">
+        <v>2.8</v>
+      </c>
+      <c r="W156">
+        <v>1.38</v>
+      </c>
+      <c r="X156">
+        <v>6.4</v>
+      </c>
+      <c r="Y156">
+        <v>1.08</v>
+      </c>
+      <c r="Z156">
+        <v>6.76</v>
+      </c>
+      <c r="AA156">
+        <v>4.3</v>
+      </c>
+      <c r="AB156">
+        <v>1.41</v>
+      </c>
+      <c r="AC156">
+        <v>1.04</v>
+      </c>
+      <c r="AD156">
+        <v>9</v>
+      </c>
+      <c r="AE156">
+        <v>1.28</v>
+      </c>
+      <c r="AF156">
+        <v>3.5</v>
+      </c>
+      <c r="AG156">
+        <v>1.9</v>
+      </c>
+      <c r="AH156">
+        <v>1.85</v>
+      </c>
+      <c r="AI156">
+        <v>2.38</v>
+      </c>
+      <c r="AJ156">
+        <v>1.53</v>
+      </c>
+      <c r="AK156">
+        <v>2.95</v>
+      </c>
+      <c r="AL156">
+        <v>1.14</v>
+      </c>
+      <c r="AM156">
+        <v>1.04</v>
+      </c>
+      <c r="AN156">
+        <v>0.84</v>
+      </c>
+      <c r="AO156">
+        <v>2.17</v>
+      </c>
+      <c r="AP156">
+        <v>0.92</v>
+      </c>
+      <c r="AQ156">
+        <v>2.08</v>
+      </c>
+      <c r="AR156">
+        <v>1.33</v>
+      </c>
+      <c r="AS156">
+        <v>1.69</v>
+      </c>
+      <c r="AT156">
+        <v>3.02</v>
+      </c>
+      <c r="AU156">
+        <v>5</v>
+      </c>
+      <c r="AV156">
+        <v>6</v>
+      </c>
+      <c r="AW156">
+        <v>5</v>
+      </c>
+      <c r="AX156">
+        <v>4</v>
+      </c>
+      <c r="AY156">
+        <v>10</v>
+      </c>
+      <c r="AZ156">
+        <v>10</v>
+      </c>
+      <c r="BA156">
+        <v>3</v>
+      </c>
+      <c r="BB156">
+        <v>7</v>
+      </c>
+      <c r="BC156">
+        <v>10</v>
+      </c>
+      <c r="BD156">
+        <v>4.2</v>
+      </c>
+      <c r="BE156">
+        <v>8</v>
+      </c>
+      <c r="BF156">
+        <v>1.36</v>
+      </c>
+      <c r="BG156">
+        <v>1.29</v>
+      </c>
+      <c r="BH156">
+        <v>3.3</v>
+      </c>
+      <c r="BI156">
+        <v>1.43</v>
+      </c>
+      <c r="BJ156">
+        <v>2.62</v>
+      </c>
+      <c r="BK156">
+        <v>1.95</v>
+      </c>
+      <c r="BL156">
+        <v>1.77</v>
+      </c>
+      <c r="BM156">
+        <v>2.32</v>
+      </c>
+      <c r="BN156">
+        <v>1.54</v>
+      </c>
+      <c r="BO156">
+        <v>3.1</v>
+      </c>
+      <c r="BP156">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -545,6 +545,9 @@
   </si>
   <si>
     <t>['51', '54']</t>
+  </si>
+  <si>
+    <t>['5', '76', '78']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -1137,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP156"/>
+  <dimension ref="A1:BP158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1474,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ2">
         <v>1.04</v>
@@ -1602,7 +1605,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1889,7 +1892,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ4">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2301,7 +2304,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ6">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2426,7 +2429,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2504,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AQ7">
         <v>2.04</v>
@@ -2632,7 +2635,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2838,7 +2841,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3044,7 +3047,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3125,7 +3128,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ10">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AR10">
         <v>1.47</v>
@@ -3250,7 +3253,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3534,10 +3537,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AR12">
         <v>1.3</v>
@@ -3662,7 +3665,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3740,7 +3743,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ13">
         <v>2.08</v>
@@ -4074,7 +4077,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4361,7 +4364,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR16">
         <v>1.54</v>
@@ -4564,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AQ17">
         <v>0.96</v>
@@ -4692,7 +4695,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4770,7 +4773,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AQ18">
         <v>2.04</v>
@@ -4898,7 +4901,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4979,7 +4982,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ19">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AR19">
         <v>1.31</v>
@@ -5104,7 +5107,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5185,7 +5188,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ20">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AR20">
         <v>1.69</v>
@@ -5310,7 +5313,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5516,7 +5519,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5803,7 +5806,7 @@
         <v>2.04</v>
       </c>
       <c r="AQ23">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -5928,7 +5931,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6006,7 +6009,7 @@
         <v>1.67</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ24">
         <v>1.69</v>
@@ -6212,7 +6215,7 @@
         <v>0.75</v>
       </c>
       <c r="AP25">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
         <v>1.12</v>
@@ -6340,7 +6343,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6418,7 +6421,7 @@
         <v>0.25</v>
       </c>
       <c r="AP26">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AQ26">
         <v>0.96</v>
@@ -6624,10 +6627,10 @@
         <v>1.75</v>
       </c>
       <c r="AP27">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR27">
         <v>1.52</v>
@@ -6752,7 +6755,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -7451,7 +7454,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ31">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AR31">
         <v>1.28</v>
@@ -7576,7 +7579,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7654,7 +7657,7 @@
         <v>1.6</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ32">
         <v>1.54</v>
@@ -7988,7 +7991,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8194,7 +8197,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8275,7 +8278,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ35">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AR35">
         <v>1.5</v>
@@ -8400,7 +8403,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8481,7 +8484,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ36">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR36">
         <v>1.5</v>
@@ -8606,7 +8609,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8890,7 +8893,7 @@
         <v>0.83</v>
       </c>
       <c r="AP38">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38">
         <v>1.04</v>
@@ -9224,7 +9227,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9302,10 +9305,10 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR40">
         <v>1.34</v>
@@ -9430,7 +9433,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9508,7 +9511,7 @@
         <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AQ41">
         <v>1.69</v>
@@ -9636,7 +9639,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9920,7 +9923,7 @@
         <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AQ43">
         <v>2.08</v>
@@ -10048,7 +10051,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10126,10 +10129,10 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ44">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
         <v>1.33</v>
@@ -10460,7 +10463,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10541,7 +10544,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ46">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AR46">
         <v>1.37</v>
@@ -10666,7 +10669,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -11156,7 +11159,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
         <v>0.92</v>
@@ -11284,7 +11287,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11490,7 +11493,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11568,7 +11571,7 @@
         <v>1.63</v>
       </c>
       <c r="AP51">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AQ51">
         <v>1.69</v>
@@ -11777,7 +11780,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ52">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AR52">
         <v>1.52</v>
@@ -11983,7 +11986,7 @@
         <v>2.04</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR53">
         <v>1.55</v>
@@ -12108,7 +12111,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12314,7 +12317,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12395,7 +12398,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ55">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR55">
         <v>1.34</v>
@@ -12520,7 +12523,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12726,7 +12729,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12932,7 +12935,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13010,10 +13013,10 @@
         <v>0.44</v>
       </c>
       <c r="AP58">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AQ58">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AR58">
         <v>1.5</v>
@@ -13216,7 +13219,7 @@
         <v>1.11</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ59">
         <v>1.12</v>
@@ -13344,7 +13347,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13425,7 +13428,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR60">
         <v>1.22</v>
@@ -13628,7 +13631,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AQ61">
         <v>1.54</v>
@@ -14452,10 +14455,10 @@
         <v>1.1</v>
       </c>
       <c r="AP65">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AR65">
         <v>1.21</v>
@@ -14580,7 +14583,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14786,7 +14789,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14867,7 +14870,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR67">
         <v>1.34</v>
@@ -14992,7 +14995,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15070,7 +15073,7 @@
         <v>1.7</v>
       </c>
       <c r="AP68">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AQ68">
         <v>2.08</v>
@@ -15279,7 +15282,7 @@
         <v>2.04</v>
       </c>
       <c r="AQ69">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AR69">
         <v>1.62</v>
@@ -15688,7 +15691,7 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71">
         <v>1.54</v>
@@ -15894,7 +15897,7 @@
         <v>1.17</v>
       </c>
       <c r="AP72">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AQ72">
         <v>1.12</v>
@@ -16022,7 +16025,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16100,10 +16103,10 @@
         <v>1.36</v>
       </c>
       <c r="AP73">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AQ73">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR73">
         <v>1.25</v>
@@ -16228,7 +16231,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16434,7 +16437,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16640,7 +16643,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16927,7 +16930,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR77">
         <v>1.87</v>
@@ -17052,7 +17055,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17258,7 +17261,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17464,7 +17467,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17542,7 +17545,7 @@
         <v>1.92</v>
       </c>
       <c r="AP80">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AQ80">
         <v>2.08</v>
@@ -17748,7 +17751,7 @@
         <v>1.08</v>
       </c>
       <c r="AP81">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ81">
         <v>0.92</v>
@@ -17957,7 +17960,7 @@
         <v>2.04</v>
       </c>
       <c r="AQ82">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AR82">
         <v>1.64</v>
@@ -18082,7 +18085,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18163,7 +18166,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ83">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AR83">
         <v>1.24</v>
@@ -18288,7 +18291,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18572,7 +18575,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AQ85">
         <v>1.12</v>
@@ -18700,7 +18703,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18984,7 +18987,7 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AQ87">
         <v>1.04</v>
@@ -19190,7 +19193,7 @@
         <v>2.29</v>
       </c>
       <c r="AP88">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
         <v>2.04</v>
@@ -19605,7 +19608,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR90">
         <v>1.42</v>
@@ -19730,7 +19733,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19808,10 +19811,10 @@
         <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ91">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AR91">
         <v>1.34</v>
@@ -20142,7 +20145,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20429,7 +20432,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ94">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AR94">
         <v>1.23</v>
@@ -20554,7 +20557,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20841,7 +20844,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ96">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR96">
         <v>1.51</v>
@@ -20966,7 +20969,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21044,7 +21047,7 @@
         <v>1.19</v>
       </c>
       <c r="AP97">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97">
         <v>0.96</v>
@@ -21378,7 +21381,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21456,7 +21459,7 @@
         <v>0.63</v>
       </c>
       <c r="AP99">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AQ99">
         <v>1.04</v>
@@ -21665,7 +21668,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ100">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR100">
         <v>1.48</v>
@@ -22074,7 +22077,7 @@
         <v>0.88</v>
       </c>
       <c r="AP102">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AQ102">
         <v>0.92</v>
@@ -22202,7 +22205,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22280,10 +22283,10 @@
         <v>0.65</v>
       </c>
       <c r="AP103">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ103">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AR103">
         <v>1.29</v>
@@ -22408,7 +22411,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22489,7 +22492,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ104">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR104">
         <v>1.3</v>
@@ -22614,7 +22617,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22695,7 +22698,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ105">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AR105">
         <v>1.45</v>
@@ -23026,7 +23029,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23232,7 +23235,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23516,10 +23519,10 @@
         <v>1.28</v>
       </c>
       <c r="AP109">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR109">
         <v>1.21</v>
@@ -23850,7 +23853,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24056,7 +24059,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24343,7 +24346,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ113">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AR113">
         <v>1.78</v>
@@ -24468,7 +24471,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -24546,7 +24549,7 @@
         <v>0.83</v>
       </c>
       <c r="AP114">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AQ114">
         <v>0.92</v>
@@ -24674,7 +24677,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -25086,7 +25089,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25164,7 +25167,7 @@
         <v>1.53</v>
       </c>
       <c r="AP117">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AQ117">
         <v>1.54</v>
@@ -25292,7 +25295,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25370,7 +25373,7 @@
         <v>2.05</v>
       </c>
       <c r="AP118">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ118">
         <v>2.04</v>
@@ -25498,7 +25501,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25579,7 +25582,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ119">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AR119">
         <v>1.48</v>
@@ -25785,7 +25788,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ120">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR120">
         <v>1.29</v>
@@ -25910,7 +25913,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -25988,10 +25991,10 @@
         <v>1.25</v>
       </c>
       <c r="AP121">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AQ121">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AR121">
         <v>1.22</v>
@@ -26116,7 +26119,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26322,7 +26325,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26400,7 +26403,7 @@
         <v>1.75</v>
       </c>
       <c r="AP123">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AQ123">
         <v>1.69</v>
@@ -26528,7 +26531,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -26940,7 +26943,7 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27021,7 +27024,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ126">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR126">
         <v>1.58</v>
@@ -27146,7 +27149,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27224,10 +27227,10 @@
         <v>1.4</v>
       </c>
       <c r="AP127">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AQ127">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR127">
         <v>1.39</v>
@@ -27352,7 +27355,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27433,7 +27436,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ128">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AR128">
         <v>1.44</v>
@@ -27558,7 +27561,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27764,7 +27767,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -27970,7 +27973,7 @@
         <v>89</v>
       </c>
       <c r="P131" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28048,7 +28051,7 @@
         <v>0.95</v>
       </c>
       <c r="AP131">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ131">
         <v>0.96</v>
@@ -28176,7 +28179,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28463,7 +28466,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ133">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AR133">
         <v>1.36</v>
@@ -28588,7 +28591,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -28875,7 +28878,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ135">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AR135">
         <v>1.47</v>
@@ -29206,7 +29209,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29287,7 +29290,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ137">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR137">
         <v>1.57</v>
@@ -29412,7 +29415,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29490,10 +29493,10 @@
         <v>1.39</v>
       </c>
       <c r="AP138">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AQ138">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AR138">
         <v>1.21</v>
@@ -29696,7 +29699,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ139">
         <v>0.96</v>
@@ -29824,7 +29827,7 @@
         <v>168</v>
       </c>
       <c r="P140" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
@@ -30236,7 +30239,7 @@
         <v>133</v>
       </c>
       <c r="P142" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q142">
         <v>2.25</v>
@@ -30520,7 +30523,7 @@
         <v>2.14</v>
       </c>
       <c r="AP143">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AQ143">
         <v>2.08</v>
@@ -30729,7 +30732,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ144">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR144">
         <v>1.69</v>
@@ -30854,7 +30857,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -30935,7 +30938,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ145">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR145">
         <v>1.2</v>
@@ -31344,7 +31347,7 @@
         <v>2.13</v>
       </c>
       <c r="AP147">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AQ147">
         <v>2.04</v>
@@ -31553,7 +31556,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ148">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AR148">
         <v>1.5</v>
@@ -31759,7 +31762,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ149">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR149">
         <v>1.36</v>
@@ -32090,7 +32093,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q151">
         <v>2.1</v>
@@ -32171,7 +32174,7 @@
         <v>2.04</v>
       </c>
       <c r="AQ151">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AR151">
         <v>1.54</v>
@@ -32502,7 +32505,7 @@
         <v>174</v>
       </c>
       <c r="P153" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q153">
         <v>3.75</v>
@@ -32580,10 +32583,10 @@
         <v>1.44</v>
       </c>
       <c r="AP153">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ153">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AR153">
         <v>1.41</v>
@@ -32786,7 +32789,7 @@
         <v>1.08</v>
       </c>
       <c r="AP154">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AQ154">
         <v>1.04</v>
@@ -32914,7 +32917,7 @@
         <v>113</v>
       </c>
       <c r="P155" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33120,7 +33123,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q156">
         <v>6.5</v>
@@ -33277,6 +33280,418 @@
       </c>
       <c r="BP156">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7487269</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45514.72916666666</v>
+      </c>
+      <c r="F157">
+        <v>5</v>
+      </c>
+      <c r="G157" t="s">
+        <v>81</v>
+      </c>
+      <c r="H157" t="s">
+        <v>70</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>3</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>3</v>
+      </c>
+      <c r="O157" t="s">
+        <v>177</v>
+      </c>
+      <c r="P157" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q157">
+        <v>3.2</v>
+      </c>
+      <c r="R157">
+        <v>2.05</v>
+      </c>
+      <c r="S157">
+        <v>3.6</v>
+      </c>
+      <c r="T157">
+        <v>1.4</v>
+      </c>
+      <c r="U157">
+        <v>2.75</v>
+      </c>
+      <c r="V157">
+        <v>3</v>
+      </c>
+      <c r="W157">
+        <v>1.36</v>
+      </c>
+      <c r="X157">
+        <v>8</v>
+      </c>
+      <c r="Y157">
+        <v>1.08</v>
+      </c>
+      <c r="Z157">
+        <v>2.3</v>
+      </c>
+      <c r="AA157">
+        <v>3.1</v>
+      </c>
+      <c r="AB157">
+        <v>2.88</v>
+      </c>
+      <c r="AC157">
+        <v>1.03</v>
+      </c>
+      <c r="AD157">
+        <v>9</v>
+      </c>
+      <c r="AE157">
+        <v>1.29</v>
+      </c>
+      <c r="AF157">
+        <v>3.3</v>
+      </c>
+      <c r="AG157">
+        <v>2.1</v>
+      </c>
+      <c r="AH157">
+        <v>1.7</v>
+      </c>
+      <c r="AI157">
+        <v>1.83</v>
+      </c>
+      <c r="AJ157">
+        <v>1.83</v>
+      </c>
+      <c r="AK157">
+        <v>1.36</v>
+      </c>
+      <c r="AL157">
+        <v>1.35</v>
+      </c>
+      <c r="AM157">
+        <v>1.55</v>
+      </c>
+      <c r="AN157">
+        <v>0.88</v>
+      </c>
+      <c r="AO157">
+        <v>1</v>
+      </c>
+      <c r="AP157">
+        <v>0.96</v>
+      </c>
+      <c r="AQ157">
+        <v>0.96</v>
+      </c>
+      <c r="AR157">
+        <v>1.22</v>
+      </c>
+      <c r="AS157">
+        <v>1.41</v>
+      </c>
+      <c r="AT157">
+        <v>2.63</v>
+      </c>
+      <c r="AU157">
+        <v>7</v>
+      </c>
+      <c r="AV157">
+        <v>3</v>
+      </c>
+      <c r="AW157">
+        <v>5</v>
+      </c>
+      <c r="AX157">
+        <v>14</v>
+      </c>
+      <c r="AY157">
+        <v>12</v>
+      </c>
+      <c r="AZ157">
+        <v>17</v>
+      </c>
+      <c r="BA157">
+        <v>5</v>
+      </c>
+      <c r="BB157">
+        <v>4</v>
+      </c>
+      <c r="BC157">
+        <v>9</v>
+      </c>
+      <c r="BD157">
+        <v>1.8</v>
+      </c>
+      <c r="BE157">
+        <v>7.4</v>
+      </c>
+      <c r="BF157">
+        <v>2.45</v>
+      </c>
+      <c r="BG157">
+        <v>1.33</v>
+      </c>
+      <c r="BH157">
+        <v>3</v>
+      </c>
+      <c r="BI157">
+        <v>1.57</v>
+      </c>
+      <c r="BJ157">
+        <v>2.32</v>
+      </c>
+      <c r="BK157">
+        <v>1.96</v>
+      </c>
+      <c r="BL157">
+        <v>1.84</v>
+      </c>
+      <c r="BM157">
+        <v>2.48</v>
+      </c>
+      <c r="BN157">
+        <v>1.5</v>
+      </c>
+      <c r="BO157">
+        <v>3.2</v>
+      </c>
+      <c r="BP157">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7487270</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45514.83333333334</v>
+      </c>
+      <c r="F158">
+        <v>5</v>
+      </c>
+      <c r="G158" t="s">
+        <v>75</v>
+      </c>
+      <c r="H158" t="s">
+        <v>80</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158" t="s">
+        <v>89</v>
+      </c>
+      <c r="P158" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q158">
+        <v>2.75</v>
+      </c>
+      <c r="R158">
+        <v>2.05</v>
+      </c>
+      <c r="S158">
+        <v>4.33</v>
+      </c>
+      <c r="T158">
+        <v>1.5</v>
+      </c>
+      <c r="U158">
+        <v>2.5</v>
+      </c>
+      <c r="V158">
+        <v>3.5</v>
+      </c>
+      <c r="W158">
+        <v>1.29</v>
+      </c>
+      <c r="X158">
+        <v>10</v>
+      </c>
+      <c r="Y158">
+        <v>1.06</v>
+      </c>
+      <c r="Z158">
+        <v>2</v>
+      </c>
+      <c r="AA158">
+        <v>3.2</v>
+      </c>
+      <c r="AB158">
+        <v>3.6</v>
+      </c>
+      <c r="AC158">
+        <v>1.05</v>
+      </c>
+      <c r="AD158">
+        <v>8</v>
+      </c>
+      <c r="AE158">
+        <v>1.36</v>
+      </c>
+      <c r="AF158">
+        <v>2.9</v>
+      </c>
+      <c r="AG158">
+        <v>2.25</v>
+      </c>
+      <c r="AH158">
+        <v>1.62</v>
+      </c>
+      <c r="AI158">
+        <v>2</v>
+      </c>
+      <c r="AJ158">
+        <v>1.73</v>
+      </c>
+      <c r="AK158">
+        <v>1.3</v>
+      </c>
+      <c r="AL158">
+        <v>1.35</v>
+      </c>
+      <c r="AM158">
+        <v>1.7</v>
+      </c>
+      <c r="AN158">
+        <v>1.42</v>
+      </c>
+      <c r="AO158">
+        <v>1.52</v>
+      </c>
+      <c r="AP158">
+        <v>1.41</v>
+      </c>
+      <c r="AQ158">
+        <v>1.5</v>
+      </c>
+      <c r="AR158">
+        <v>1.33</v>
+      </c>
+      <c r="AS158">
+        <v>1.18</v>
+      </c>
+      <c r="AT158">
+        <v>2.51</v>
+      </c>
+      <c r="AU158">
+        <v>2</v>
+      </c>
+      <c r="AV158">
+        <v>3</v>
+      </c>
+      <c r="AW158">
+        <v>2</v>
+      </c>
+      <c r="AX158">
+        <v>1</v>
+      </c>
+      <c r="AY158">
+        <v>4</v>
+      </c>
+      <c r="AZ158">
+        <v>4</v>
+      </c>
+      <c r="BA158">
+        <v>4</v>
+      </c>
+      <c r="BB158">
+        <v>2</v>
+      </c>
+      <c r="BC158">
+        <v>6</v>
+      </c>
+      <c r="BD158">
+        <v>1.87</v>
+      </c>
+      <c r="BE158">
+        <v>7.4</v>
+      </c>
+      <c r="BF158">
+        <v>2.33</v>
+      </c>
+      <c r="BG158">
+        <v>1.3</v>
+      </c>
+      <c r="BH158">
+        <v>3.2</v>
+      </c>
+      <c r="BI158">
+        <v>1.56</v>
+      </c>
+      <c r="BJ158">
+        <v>2.38</v>
+      </c>
+      <c r="BK158">
+        <v>1.92</v>
+      </c>
+      <c r="BL158">
+        <v>1.87</v>
+      </c>
+      <c r="BM158">
+        <v>2.44</v>
+      </c>
+      <c r="BN158">
+        <v>1.53</v>
+      </c>
+      <c r="BO158">
+        <v>3</v>
+      </c>
+      <c r="BP158">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="257">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -548,6 +548,12 @@
   </si>
   <si>
     <t>['5', '76', '78']</t>
+  </si>
+  <si>
+    <t>['6', '12', '45', '76']</t>
+  </si>
+  <si>
+    <t>['86']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -1140,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP158"/>
+  <dimension ref="A1:BP160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1605,7 +1611,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1683,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AQ3">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2301,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AQ6">
         <v>0.96</v>
@@ -2429,7 +2435,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2510,7 +2516,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ7">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2635,7 +2641,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2841,7 +2847,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2922,7 +2928,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ9">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AR9">
         <v>1.58</v>
@@ -3047,7 +3053,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3125,7 +3131,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AQ10">
         <v>1.41</v>
@@ -3253,7 +3259,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3331,7 +3337,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ11">
         <v>1.54</v>
@@ -3665,7 +3671,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3746,7 +3752,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ13">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AR13">
         <v>1.34</v>
@@ -3952,7 +3958,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ14">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AR14">
         <v>1.53</v>
@@ -4077,7 +4083,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4155,7 +4161,7 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AQ15">
         <v>1.04</v>
@@ -4695,7 +4701,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4776,7 +4782,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ18">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -4901,7 +4907,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5107,7 +5113,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5185,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AQ20">
         <v>0.96</v>
@@ -5313,7 +5319,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5519,7 +5525,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5600,7 +5606,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ22">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AR22">
         <v>1.54</v>
@@ -5803,7 +5809,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ23">
         <v>1.5</v>
@@ -5931,7 +5937,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6012,7 +6018,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ24">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AR24">
         <v>1.25</v>
@@ -6218,7 +6224,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AR25">
         <v>1.01</v>
@@ -6343,7 +6349,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6755,7 +6761,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6833,7 +6839,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AQ28">
         <v>0.92</v>
@@ -7039,10 +7045,10 @@
         <v>2.5</v>
       </c>
       <c r="AP29">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AQ29">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AR29">
         <v>2.13</v>
@@ -7579,7 +7585,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7863,10 +7869,10 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AQ33">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AR33">
         <v>1.41</v>
@@ -7991,7 +7997,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8069,10 +8075,10 @@
         <v>2.2</v>
       </c>
       <c r="AP34">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AQ34">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AR34">
         <v>1.38</v>
@@ -8197,7 +8203,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8403,7 +8409,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8609,7 +8615,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -9099,10 +9105,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AQ39">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AR39">
         <v>2.03</v>
@@ -9227,7 +9233,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9433,7 +9439,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9514,7 +9520,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ41">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AR41">
         <v>1.42</v>
@@ -9639,7 +9645,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9717,7 +9723,7 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ42">
         <v>0.96</v>
@@ -9926,7 +9932,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ43">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AR43">
         <v>1.44</v>
@@ -10051,7 +10057,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10335,7 +10341,7 @@
         <v>1.71</v>
       </c>
       <c r="AP45">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AQ45">
         <v>1.54</v>
@@ -10463,7 +10469,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10669,7 +10675,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10750,7 +10756,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ47">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AR47">
         <v>1.34</v>
@@ -10953,7 +10959,7 @@
         <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AQ48">
         <v>1.04</v>
@@ -11287,7 +11293,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11365,7 +11371,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AQ50">
         <v>0.96</v>
@@ -11493,7 +11499,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11574,7 +11580,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ51">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -11983,7 +11989,7 @@
         <v>1.38</v>
       </c>
       <c r="AP53">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ53">
         <v>0.96</v>
@@ -12111,7 +12117,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12192,7 +12198,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ54">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AR54">
         <v>1.53</v>
@@ -12317,7 +12323,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12395,7 +12401,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AQ55">
         <v>1.5</v>
@@ -12523,7 +12529,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12604,7 +12610,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ56">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AR56">
         <v>1.32</v>
@@ -12729,7 +12735,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12935,7 +12941,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13222,7 +13228,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ59">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AR59">
         <v>1.29</v>
@@ -13347,7 +13353,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13837,7 +13843,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP62">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AQ62">
         <v>1.04</v>
@@ -14043,10 +14049,10 @@
         <v>1.7</v>
       </c>
       <c r="AP63">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ63">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AR63">
         <v>1.55</v>
@@ -14249,7 +14255,7 @@
         <v>1.3</v>
       </c>
       <c r="AP64">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AQ64">
         <v>0.92</v>
@@ -14583,7 +14589,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14789,7 +14795,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14995,7 +15001,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15076,7 +15082,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ68">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AR68">
         <v>1.27</v>
@@ -15279,7 +15285,7 @@
         <v>1.27</v>
       </c>
       <c r="AP69">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ69">
         <v>1.41</v>
@@ -15485,10 +15491,10 @@
         <v>1.64</v>
       </c>
       <c r="AP70">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AQ70">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AR70">
         <v>1.35</v>
@@ -15900,7 +15906,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ72">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AR72">
         <v>1.46</v>
@@ -16025,7 +16031,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16231,7 +16237,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16309,7 +16315,7 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AQ74">
         <v>0.96</v>
@@ -16437,7 +16443,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16643,7 +16649,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16724,7 +16730,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ76">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AR76">
         <v>1.41</v>
@@ -16927,7 +16933,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AQ77">
         <v>0.96</v>
@@ -17055,7 +17061,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17136,7 +17142,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ78">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AR78">
         <v>1.39</v>
@@ -17261,7 +17267,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17339,7 +17345,7 @@
         <v>1.46</v>
       </c>
       <c r="AP79">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AQ79">
         <v>1.54</v>
@@ -17467,7 +17473,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17548,7 +17554,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ80">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AR80">
         <v>1.31</v>
@@ -17957,7 +17963,7 @@
         <v>0.54</v>
       </c>
       <c r="AP82">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ82">
         <v>0.96</v>
@@ -18085,7 +18091,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18291,7 +18297,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18372,7 +18378,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ84">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AR84">
         <v>1.38</v>
@@ -18578,7 +18584,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ85">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AR85">
         <v>1.23</v>
@@ -18703,7 +18709,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -19196,7 +19202,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AR88">
         <v>1.24</v>
@@ -19399,7 +19405,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AQ89">
         <v>0.92</v>
@@ -19605,7 +19611,7 @@
         <v>1.36</v>
       </c>
       <c r="AP90">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AQ90">
         <v>0.96</v>
@@ -19733,7 +19739,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -20145,7 +20151,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20223,10 +20229,10 @@
         <v>2.07</v>
       </c>
       <c r="AP93">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ93">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AR93">
         <v>1.6</v>
@@ -20557,7 +20563,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20638,7 +20644,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ95">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AR95">
         <v>1.32</v>
@@ -20841,7 +20847,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AQ96">
         <v>1.5</v>
@@ -20969,7 +20975,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21253,10 +21259,10 @@
         <v>1.06</v>
       </c>
       <c r="AP98">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ98">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AR98">
         <v>1.6</v>
@@ -21381,7 +21387,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21871,10 +21877,10 @@
         <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AQ101">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AR101">
         <v>1.8</v>
@@ -22205,7 +22211,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22411,7 +22417,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22617,7 +22623,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22695,7 +22701,7 @@
         <v>1.47</v>
       </c>
       <c r="AP105">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AQ105">
         <v>1.41</v>
@@ -22904,7 +22910,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ106">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AR106">
         <v>1.21</v>
@@ -23029,7 +23035,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23107,10 +23113,10 @@
         <v>2.06</v>
       </c>
       <c r="AP107">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AQ107">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AR107">
         <v>1.51</v>
@@ -23235,7 +23241,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23725,7 +23731,7 @@
         <v>0.89</v>
       </c>
       <c r="AP110">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ110">
         <v>1.04</v>
@@ -23853,7 +23859,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -23931,7 +23937,7 @@
         <v>1.11</v>
       </c>
       <c r="AP111">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AQ111">
         <v>0.96</v>
@@ -24059,7 +24065,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24140,7 +24146,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ112">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AR112">
         <v>1.5</v>
@@ -24343,7 +24349,7 @@
         <v>1.39</v>
       </c>
       <c r="AP113">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AQ113">
         <v>1.41</v>
@@ -24471,7 +24477,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -24677,7 +24683,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -24758,7 +24764,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ115">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AR115">
         <v>1.2</v>
@@ -24964,7 +24970,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ116">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AR116">
         <v>1.3</v>
@@ -25089,7 +25095,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25295,7 +25301,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25376,7 +25382,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ118">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AR118">
         <v>1.31</v>
@@ -25501,7 +25507,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25579,7 +25585,7 @@
         <v>0.79</v>
       </c>
       <c r="AP119">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AQ119">
         <v>0.96</v>
@@ -25913,7 +25919,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26119,7 +26125,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26325,7 +26331,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26406,7 +26412,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ123">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AR123">
         <v>1.18</v>
@@ -26531,7 +26537,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -26609,7 +26615,7 @@
         <v>1.6</v>
       </c>
       <c r="AP124">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AQ124">
         <v>1.54</v>
@@ -26815,7 +26821,7 @@
         <v>0.95</v>
       </c>
       <c r="AP125">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ125">
         <v>0.92</v>
@@ -26943,7 +26949,7 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27021,7 +27027,7 @@
         <v>1.15</v>
       </c>
       <c r="AP126">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AQ126">
         <v>0.96</v>
@@ -27149,7 +27155,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27355,7 +27361,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27561,7 +27567,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27639,10 +27645,10 @@
         <v>2.14</v>
       </c>
       <c r="AP129">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AQ129">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AR129">
         <v>1.48</v>
@@ -27767,7 +27773,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -27848,7 +27854,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ130">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AR130">
         <v>1.41</v>
@@ -27973,7 +27979,7 @@
         <v>89</v>
       </c>
       <c r="P131" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28179,7 +28185,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28260,7 +28266,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ132">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AR132">
         <v>1.23</v>
@@ -28591,7 +28597,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -28672,7 +28678,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ134">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AR134">
         <v>1.2</v>
@@ -28875,7 +28881,7 @@
         <v>1.41</v>
       </c>
       <c r="AP135">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AQ135">
         <v>1.41</v>
@@ -29209,7 +29215,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29287,7 +29293,7 @@
         <v>1.33</v>
       </c>
       <c r="AP137">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AQ137">
         <v>1.5</v>
@@ -29415,7 +29421,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29827,7 +29833,7 @@
         <v>168</v>
       </c>
       <c r="P140" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
@@ -29908,7 +29914,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ140">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AR140">
         <v>1.41</v>
@@ -30114,7 +30120,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ141">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AR141">
         <v>1.28</v>
@@ -30239,7 +30245,7 @@
         <v>133</v>
       </c>
       <c r="P142" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q142">
         <v>2.25</v>
@@ -30317,7 +30323,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ142">
         <v>1.04</v>
@@ -30526,7 +30532,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ143">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AR143">
         <v>1.19</v>
@@ -30729,7 +30735,7 @@
         <v>1.04</v>
       </c>
       <c r="AP144">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AQ144">
         <v>0.96</v>
@@ -30857,7 +30863,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31141,7 +31147,7 @@
         <v>0.88</v>
       </c>
       <c r="AP146">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AQ146">
         <v>0.92</v>
@@ -31350,7 +31356,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ147">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AR147">
         <v>1.35</v>
@@ -31553,7 +31559,7 @@
         <v>0.92</v>
       </c>
       <c r="AP148">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AQ148">
         <v>0.96</v>
@@ -31965,7 +31971,7 @@
         <v>1.63</v>
       </c>
       <c r="AP150">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AQ150">
         <v>1.54</v>
@@ -32093,7 +32099,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q151">
         <v>2.1</v>
@@ -32171,7 +32177,7 @@
         <v>0.88</v>
       </c>
       <c r="AP151">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ151">
         <v>0.96</v>
@@ -32377,10 +32383,10 @@
         <v>1.64</v>
       </c>
       <c r="AP152">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AQ152">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AR152">
         <v>1.52</v>
@@ -32505,7 +32511,7 @@
         <v>174</v>
       </c>
       <c r="P153" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q153">
         <v>3.75</v>
@@ -32917,7 +32923,7 @@
         <v>113</v>
       </c>
       <c r="P155" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33123,7 +33129,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q156">
         <v>6.5</v>
@@ -33204,7 +33210,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ156">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AR156">
         <v>1.33</v>
@@ -33692,6 +33698,418 @@
       </c>
       <c r="BP158">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7487268</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45515.70833333334</v>
+      </c>
+      <c r="F159">
+        <v>5</v>
+      </c>
+      <c r="G159" t="s">
+        <v>71</v>
+      </c>
+      <c r="H159" t="s">
+        <v>79</v>
+      </c>
+      <c r="I159">
+        <v>3</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>3</v>
+      </c>
+      <c r="L159">
+        <v>4</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>4</v>
+      </c>
+      <c r="O159" t="s">
+        <v>178</v>
+      </c>
+      <c r="P159" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q159">
+        <v>3.75</v>
+      </c>
+      <c r="R159">
+        <v>2.05</v>
+      </c>
+      <c r="S159">
+        <v>3.1</v>
+      </c>
+      <c r="T159">
+        <v>1.45</v>
+      </c>
+      <c r="U159">
+        <v>2.55</v>
+      </c>
+      <c r="V159">
+        <v>3</v>
+      </c>
+      <c r="W159">
+        <v>1.33</v>
+      </c>
+      <c r="X159">
+        <v>9</v>
+      </c>
+      <c r="Y159">
+        <v>1.07</v>
+      </c>
+      <c r="Z159">
+        <v>2.9</v>
+      </c>
+      <c r="AA159">
+        <v>3.1</v>
+      </c>
+      <c r="AB159">
+        <v>2.25</v>
+      </c>
+      <c r="AC159">
+        <v>1.07</v>
+      </c>
+      <c r="AD159">
+        <v>7.5</v>
+      </c>
+      <c r="AE159">
+        <v>1.36</v>
+      </c>
+      <c r="AF159">
+        <v>2.95</v>
+      </c>
+      <c r="AG159">
+        <v>2.25</v>
+      </c>
+      <c r="AH159">
+        <v>1.62</v>
+      </c>
+      <c r="AI159">
+        <v>1.91</v>
+      </c>
+      <c r="AJ159">
+        <v>1.8</v>
+      </c>
+      <c r="AK159">
+        <v>1.5</v>
+      </c>
+      <c r="AL159">
+        <v>1.3</v>
+      </c>
+      <c r="AM159">
+        <v>1.4</v>
+      </c>
+      <c r="AN159">
+        <v>1.69</v>
+      </c>
+      <c r="AO159">
+        <v>2.04</v>
+      </c>
+      <c r="AP159">
+        <v>1.74</v>
+      </c>
+      <c r="AQ159">
+        <v>1.96</v>
+      </c>
+      <c r="AR159">
+        <v>1.5</v>
+      </c>
+      <c r="AS159">
+        <v>1.54</v>
+      </c>
+      <c r="AT159">
+        <v>3.04</v>
+      </c>
+      <c r="AU159">
+        <v>7</v>
+      </c>
+      <c r="AV159">
+        <v>2</v>
+      </c>
+      <c r="AW159">
+        <v>6</v>
+      </c>
+      <c r="AX159">
+        <v>3</v>
+      </c>
+      <c r="AY159">
+        <v>13</v>
+      </c>
+      <c r="AZ159">
+        <v>5</v>
+      </c>
+      <c r="BA159">
+        <v>4</v>
+      </c>
+      <c r="BB159">
+        <v>1</v>
+      </c>
+      <c r="BC159">
+        <v>5</v>
+      </c>
+      <c r="BD159">
+        <v>2.45</v>
+      </c>
+      <c r="BE159">
+        <v>7.4</v>
+      </c>
+      <c r="BF159">
+        <v>1.8</v>
+      </c>
+      <c r="BG159">
+        <v>1.36</v>
+      </c>
+      <c r="BH159">
+        <v>2.9</v>
+      </c>
+      <c r="BI159">
+        <v>1.62</v>
+      </c>
+      <c r="BJ159">
+        <v>2.25</v>
+      </c>
+      <c r="BK159">
+        <v>2.01</v>
+      </c>
+      <c r="BL159">
+        <v>1.79</v>
+      </c>
+      <c r="BM159">
+        <v>2.5</v>
+      </c>
+      <c r="BN159">
+        <v>1.48</v>
+      </c>
+      <c r="BO159">
+        <v>3.3</v>
+      </c>
+      <c r="BP159">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7487273</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45515.8125</v>
+      </c>
+      <c r="F160">
+        <v>5</v>
+      </c>
+      <c r="G160" t="s">
+        <v>74</v>
+      </c>
+      <c r="H160" t="s">
+        <v>78</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>1</v>
+      </c>
+      <c r="O160" t="s">
+        <v>179</v>
+      </c>
+      <c r="P160" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q160">
+        <v>1.91</v>
+      </c>
+      <c r="R160">
+        <v>2.3</v>
+      </c>
+      <c r="S160">
+        <v>8</v>
+      </c>
+      <c r="T160">
+        <v>1.36</v>
+      </c>
+      <c r="U160">
+        <v>3</v>
+      </c>
+      <c r="V160">
+        <v>2.63</v>
+      </c>
+      <c r="W160">
+        <v>1.44</v>
+      </c>
+      <c r="X160">
+        <v>7</v>
+      </c>
+      <c r="Y160">
+        <v>1.1</v>
+      </c>
+      <c r="Z160">
+        <v>1.36</v>
+      </c>
+      <c r="AA160">
+        <v>4.2</v>
+      </c>
+      <c r="AB160">
+        <v>7.5</v>
+      </c>
+      <c r="AC160">
+        <v>1.06</v>
+      </c>
+      <c r="AD160">
+        <v>10</v>
+      </c>
+      <c r="AE160">
+        <v>1.25</v>
+      </c>
+      <c r="AF160">
+        <v>3.75</v>
+      </c>
+      <c r="AG160">
+        <v>1.95</v>
+      </c>
+      <c r="AH160">
+        <v>1.85</v>
+      </c>
+      <c r="AI160">
+        <v>2.25</v>
+      </c>
+      <c r="AJ160">
+        <v>1.57</v>
+      </c>
+      <c r="AK160">
+        <v>1.03</v>
+      </c>
+      <c r="AL160">
+        <v>1.15</v>
+      </c>
+      <c r="AM160">
+        <v>3.3</v>
+      </c>
+      <c r="AN160">
+        <v>2.08</v>
+      </c>
+      <c r="AO160">
+        <v>1.12</v>
+      </c>
+      <c r="AP160">
+        <v>2.12</v>
+      </c>
+      <c r="AQ160">
+        <v>1.07</v>
+      </c>
+      <c r="AR160">
+        <v>1.68</v>
+      </c>
+      <c r="AS160">
+        <v>1.52</v>
+      </c>
+      <c r="AT160">
+        <v>3.2</v>
+      </c>
+      <c r="AU160">
+        <v>9</v>
+      </c>
+      <c r="AV160">
+        <v>2</v>
+      </c>
+      <c r="AW160">
+        <v>8</v>
+      </c>
+      <c r="AX160">
+        <v>1</v>
+      </c>
+      <c r="AY160">
+        <v>17</v>
+      </c>
+      <c r="AZ160">
+        <v>3</v>
+      </c>
+      <c r="BA160">
+        <v>12</v>
+      </c>
+      <c r="BB160">
+        <v>0</v>
+      </c>
+      <c r="BC160">
+        <v>12</v>
+      </c>
+      <c r="BD160">
+        <v>1.29</v>
+      </c>
+      <c r="BE160">
+        <v>12</v>
+      </c>
+      <c r="BF160">
+        <v>4.2</v>
+      </c>
+      <c r="BG160">
+        <v>1.25</v>
+      </c>
+      <c r="BH160">
+        <v>3.6</v>
+      </c>
+      <c r="BI160">
+        <v>1.42</v>
+      </c>
+      <c r="BJ160">
+        <v>2.62</v>
+      </c>
+      <c r="BK160">
+        <v>2.2</v>
+      </c>
+      <c r="BL160">
+        <v>1.92</v>
+      </c>
+      <c r="BM160">
+        <v>2.1</v>
+      </c>
+      <c r="BN160">
+        <v>1.65</v>
+      </c>
+      <c r="BO160">
+        <v>2.62</v>
+      </c>
+      <c r="BP160">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="259">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,9 @@
     <t>['86']</t>
   </si>
   <si>
+    <t>['9', '47']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -785,6 +788,9 @@
   </si>
   <si>
     <t>['4']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP160"/>
+  <dimension ref="A1:BP162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1486,7 +1492,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ2">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1611,7 +1617,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1895,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -2101,10 +2107,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AQ5">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2435,7 +2441,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2641,7 +2647,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2719,10 +2725,10 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AQ8">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AR8">
         <v>0.87</v>
@@ -2847,7 +2853,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2925,7 +2931,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AQ9">
         <v>1.74</v>
@@ -3053,7 +3059,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3259,7 +3265,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3340,7 +3346,7 @@
         <v>1.96</v>
       </c>
       <c r="AQ11">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR11">
         <v>1.49</v>
@@ -3671,7 +3677,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3955,7 +3961,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ14">
         <v>1.07</v>
@@ -4083,7 +4089,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4164,7 +4170,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ15">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AR15">
         <v>1.29</v>
@@ -4367,7 +4373,7 @@
         <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AQ16">
         <v>0.96</v>
@@ -4576,7 +4582,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ17">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AR17">
         <v>1.4</v>
@@ -4701,7 +4707,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4907,7 +4913,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4985,7 +4991,7 @@
         <v>1.67</v>
       </c>
       <c r="AP19">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AQ19">
         <v>1.41</v>
@@ -5113,7 +5119,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5319,7 +5325,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5397,10 +5403,10 @@
         <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AQ21">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR21">
         <v>1.64</v>
@@ -5525,7 +5531,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5603,7 +5609,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AQ22">
         <v>2.12</v>
@@ -5937,7 +5943,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6349,7 +6355,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6430,7 +6436,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ26">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6761,7 +6767,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6842,7 +6848,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ28">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AR28">
         <v>1.41</v>
@@ -7251,10 +7257,10 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ30">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AR30">
         <v>1.49</v>
@@ -7457,7 +7463,7 @@
         <v>1.8</v>
       </c>
       <c r="AP31">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AQ31">
         <v>1.41</v>
@@ -7585,7 +7591,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7666,7 +7672,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ32">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR32">
         <v>1.21</v>
@@ -7997,7 +8003,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8203,7 +8209,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8281,7 +8287,7 @@
         <v>0.6</v>
       </c>
       <c r="AP35">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AQ35">
         <v>0.96</v>
@@ -8409,7 +8415,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8487,7 +8493,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AQ36">
         <v>1.5</v>
@@ -8615,7 +8621,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8693,10 +8699,10 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ37">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AR37">
         <v>1.56</v>
@@ -8902,7 +8908,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AR38">
         <v>1.06</v>
@@ -9233,7 +9239,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9439,7 +9445,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9645,7 +9651,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9726,7 +9732,7 @@
         <v>1.96</v>
       </c>
       <c r="AQ42">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AR42">
         <v>1.44</v>
@@ -10057,7 +10063,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10344,7 +10350,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ45">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR45">
         <v>1.37</v>
@@ -10469,7 +10475,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10547,7 +10553,7 @@
         <v>0.43</v>
       </c>
       <c r="AP46">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AQ46">
         <v>0.96</v>
@@ -10675,7 +10681,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10753,7 +10759,7 @@
         <v>0.57</v>
       </c>
       <c r="AP47">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AQ47">
         <v>1.07</v>
@@ -10962,7 +10968,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ48">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AR48">
         <v>1.31</v>
@@ -11168,7 +11174,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AR49">
         <v>1.1</v>
@@ -11293,7 +11299,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11374,7 +11380,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ50">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AR50">
         <v>1.93</v>
@@ -11499,7 +11505,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11783,7 +11789,7 @@
         <v>1.38</v>
       </c>
       <c r="AP52">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ52">
         <v>1.41</v>
@@ -12117,7 +12123,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12195,7 +12201,7 @@
         <v>1.38</v>
       </c>
       <c r="AP54">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ54">
         <v>2.12</v>
@@ -12323,7 +12329,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12529,7 +12535,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12607,7 +12613,7 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AQ56">
         <v>1.96</v>
@@ -12735,7 +12741,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12813,10 +12819,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
+        <v>1.11</v>
+      </c>
+      <c r="AQ57">
         <v>1.04</v>
-      </c>
-      <c r="AQ57">
-        <v>0.96</v>
       </c>
       <c r="AR57">
         <v>1.33</v>
@@ -12941,7 +12947,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13353,7 +13359,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13431,7 +13437,7 @@
         <v>1.4</v>
       </c>
       <c r="AP60">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AQ60">
         <v>0.96</v>
@@ -13640,7 +13646,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ61">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR61">
         <v>1.27</v>
@@ -13846,7 +13852,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ62">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AR62">
         <v>1.93</v>
@@ -14258,7 +14264,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ64">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14589,7 +14595,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14667,10 +14673,10 @@
         <v>1.18</v>
       </c>
       <c r="AP66">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AQ66">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AR66">
         <v>1.23</v>
@@ -14795,7 +14801,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14873,7 +14879,7 @@
         <v>1.36</v>
       </c>
       <c r="AP67">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AQ67">
         <v>0.96</v>
@@ -15001,7 +15007,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15700,7 +15706,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR71">
         <v>1.22</v>
@@ -16031,7 +16037,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16237,7 +16243,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16318,7 +16324,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ74">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AR74">
         <v>1.39</v>
@@ -16443,7 +16449,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16521,10 +16527,10 @@
         <v>0.55</v>
       </c>
       <c r="AP75">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AQ75">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AR75">
         <v>1.36</v>
@@ -16649,7 +16655,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16727,7 +16733,7 @@
         <v>2.27</v>
       </c>
       <c r="AP76">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ76">
         <v>1.96</v>
@@ -17061,7 +17067,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17139,7 +17145,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AQ78">
         <v>1.96</v>
@@ -17267,7 +17273,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17348,7 +17354,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ79">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR79">
         <v>1.41</v>
@@ -17473,7 +17479,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17760,7 +17766,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ81">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AR81">
         <v>1.27</v>
@@ -18091,7 +18097,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18169,7 +18175,7 @@
         <v>1.31</v>
       </c>
       <c r="AP83">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AQ83">
         <v>1.41</v>
@@ -18297,7 +18303,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18375,7 +18381,7 @@
         <v>1.69</v>
       </c>
       <c r="AP84">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AQ84">
         <v>1.74</v>
@@ -18709,7 +18715,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18787,10 +18793,10 @@
         <v>1.07</v>
       </c>
       <c r="AP86">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ86">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AR86">
         <v>1.45</v>
@@ -18996,7 +19002,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ87">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -19408,7 +19414,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ89">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AR89">
         <v>1.81</v>
@@ -19739,7 +19745,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -20023,10 +20029,10 @@
         <v>1.47</v>
       </c>
       <c r="AP92">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AQ92">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR92">
         <v>1.3</v>
@@ -20151,7 +20157,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20435,7 +20441,7 @@
         <v>0.67</v>
       </c>
       <c r="AP94">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AQ94">
         <v>0.96</v>
@@ -20563,7 +20569,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20641,7 +20647,7 @@
         <v>1.67</v>
       </c>
       <c r="AP95">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AQ95">
         <v>1.74</v>
@@ -20975,7 +20981,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21056,7 +21062,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ97">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AR97">
         <v>1.2</v>
@@ -21387,7 +21393,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21468,7 +21474,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ99">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AR99">
         <v>1.2</v>
@@ -21671,7 +21677,7 @@
         <v>1.38</v>
       </c>
       <c r="AP100">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ100">
         <v>0.96</v>
@@ -22086,7 +22092,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ102">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AR102">
         <v>1.45</v>
@@ -22211,7 +22217,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22417,7 +22423,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22495,7 +22501,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AQ104">
         <v>1.5</v>
@@ -22623,7 +22629,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22907,7 +22913,7 @@
         <v>2.06</v>
       </c>
       <c r="AP106">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AQ106">
         <v>1.96</v>
@@ -23035,7 +23041,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23241,7 +23247,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23319,10 +23325,10 @@
         <v>1.53</v>
       </c>
       <c r="AP108">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AQ108">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR108">
         <v>1.32</v>
@@ -23734,7 +23740,7 @@
         <v>1.96</v>
       </c>
       <c r="AQ110">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AR110">
         <v>1.6</v>
@@ -23859,7 +23865,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -23940,7 +23946,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ111">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AR111">
         <v>1.48</v>
@@ -24065,7 +24071,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24143,7 +24149,7 @@
         <v>1.78</v>
       </c>
       <c r="AP112">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ112">
         <v>1.74</v>
@@ -24477,7 +24483,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -24558,7 +24564,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ114">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AR114">
         <v>1.26</v>
@@ -24683,7 +24689,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -24761,7 +24767,7 @@
         <v>2.17</v>
       </c>
       <c r="AP115">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AQ115">
         <v>2.12</v>
@@ -24967,7 +24973,7 @@
         <v>1.05</v>
       </c>
       <c r="AP116">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AQ116">
         <v>1.07</v>
@@ -25095,7 +25101,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25176,7 +25182,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ117">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR117">
         <v>1.42</v>
@@ -25301,7 +25307,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25507,7 +25513,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25791,7 +25797,7 @@
         <v>1.5</v>
       </c>
       <c r="AP120">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AQ120">
         <v>1.5</v>
@@ -25919,7 +25925,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26125,7 +26131,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26203,10 +26209,10 @@
         <v>0.95</v>
       </c>
       <c r="AP122">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AQ122">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AR122">
         <v>1.17</v>
@@ -26331,7 +26337,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26537,7 +26543,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -26618,7 +26624,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ124">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR124">
         <v>1.77</v>
@@ -26824,7 +26830,7 @@
         <v>1.96</v>
       </c>
       <c r="AQ125">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AR125">
         <v>1.61</v>
@@ -26949,7 +26955,7 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27155,7 +27161,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27361,7 +27367,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27439,7 +27445,7 @@
         <v>0.86</v>
       </c>
       <c r="AP128">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ128">
         <v>0.96</v>
@@ -27567,7 +27573,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27773,7 +27779,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -27851,7 +27857,7 @@
         <v>2.1</v>
       </c>
       <c r="AP130">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AQ130">
         <v>2.12</v>
@@ -27979,7 +27985,7 @@
         <v>89</v>
       </c>
       <c r="P131" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28060,7 +28066,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ131">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AR131">
         <v>1.28</v>
@@ -28185,7 +28191,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28263,7 +28269,7 @@
         <v>1.1</v>
       </c>
       <c r="AP132">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AQ132">
         <v>1.07</v>
@@ -28469,7 +28475,7 @@
         <v>0.95</v>
       </c>
       <c r="AP133">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AQ133">
         <v>0.96</v>
@@ -28597,7 +28603,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -28675,7 +28681,7 @@
         <v>2.18</v>
       </c>
       <c r="AP134">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AQ134">
         <v>1.96</v>
@@ -29087,10 +29093,10 @@
         <v>1.59</v>
       </c>
       <c r="AP136">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AQ136">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR136">
         <v>1.27</v>
@@ -29215,7 +29221,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29421,7 +29427,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29708,7 +29714,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ139">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AR139">
         <v>1.38</v>
@@ -29833,7 +29839,7 @@
         <v>168</v>
       </c>
       <c r="P140" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
@@ -29911,7 +29917,7 @@
         <v>1.13</v>
       </c>
       <c r="AP140">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ140">
         <v>1.07</v>
@@ -30117,7 +30123,7 @@
         <v>1.61</v>
       </c>
       <c r="AP141">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AQ141">
         <v>1.74</v>
@@ -30245,7 +30251,7 @@
         <v>133</v>
       </c>
       <c r="P142" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q142">
         <v>2.25</v>
@@ -30326,7 +30332,7 @@
         <v>1.96</v>
       </c>
       <c r="AQ142">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AR142">
         <v>1.56</v>
@@ -30863,7 +30869,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -30941,7 +30947,7 @@
         <v>1.39</v>
       </c>
       <c r="AP145">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AQ145">
         <v>1.5</v>
@@ -31150,7 +31156,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ146">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AR146">
         <v>1.51</v>
@@ -31765,7 +31771,7 @@
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AQ149">
         <v>0.96</v>
@@ -31974,7 +31980,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ150">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR150">
         <v>1.69</v>
@@ -32099,7 +32105,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q151">
         <v>2.1</v>
@@ -32511,7 +32517,7 @@
         <v>174</v>
       </c>
       <c r="P153" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q153">
         <v>3.75</v>
@@ -32798,7 +32804,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ154">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AR154">
         <v>1.17</v>
@@ -32923,7 +32929,7 @@
         <v>113</v>
       </c>
       <c r="P155" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33001,10 +33007,10 @@
         <v>0.96</v>
       </c>
       <c r="AP155">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ155">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AR155">
         <v>1.36</v>
@@ -33129,7 +33135,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q156">
         <v>6.5</v>
@@ -33207,7 +33213,7 @@
         <v>2.17</v>
       </c>
       <c r="AP156">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AQ156">
         <v>2.12</v>
@@ -34110,6 +34116,418 @@
       </c>
       <c r="BP160">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7487272</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45516.77083333334</v>
+      </c>
+      <c r="F161">
+        <v>5</v>
+      </c>
+      <c r="G161" t="s">
+        <v>77</v>
+      </c>
+      <c r="H161" t="s">
+        <v>73</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>2</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <v>3</v>
+      </c>
+      <c r="O161" t="s">
+        <v>180</v>
+      </c>
+      <c r="P161" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q161">
+        <v>3.25</v>
+      </c>
+      <c r="R161">
+        <v>2</v>
+      </c>
+      <c r="S161">
+        <v>3.75</v>
+      </c>
+      <c r="T161">
+        <v>1.44</v>
+      </c>
+      <c r="U161">
+        <v>2.63</v>
+      </c>
+      <c r="V161">
+        <v>3.25</v>
+      </c>
+      <c r="W161">
+        <v>1.33</v>
+      </c>
+      <c r="X161">
+        <v>10</v>
+      </c>
+      <c r="Y161">
+        <v>1.06</v>
+      </c>
+      <c r="Z161">
+        <v>2.4</v>
+      </c>
+      <c r="AA161">
+        <v>3</v>
+      </c>
+      <c r="AB161">
+        <v>2.8</v>
+      </c>
+      <c r="AC161">
+        <v>1.06</v>
+      </c>
+      <c r="AD161">
+        <v>8</v>
+      </c>
+      <c r="AE161">
+        <v>1.33</v>
+      </c>
+      <c r="AF161">
+        <v>3.1</v>
+      </c>
+      <c r="AG161">
+        <v>2.4</v>
+      </c>
+      <c r="AH161">
+        <v>1.53</v>
+      </c>
+      <c r="AI161">
+        <v>2</v>
+      </c>
+      <c r="AJ161">
+        <v>1.73</v>
+      </c>
+      <c r="AK161">
+        <v>1.28</v>
+      </c>
+      <c r="AL161">
+        <v>1.28</v>
+      </c>
+      <c r="AM161">
+        <v>1.52</v>
+      </c>
+      <c r="AN161">
+        <v>0.96</v>
+      </c>
+      <c r="AO161">
+        <v>0.92</v>
+      </c>
+      <c r="AP161">
+        <v>1.04</v>
+      </c>
+      <c r="AQ161">
+        <v>0.89</v>
+      </c>
+      <c r="AR161">
+        <v>1.19</v>
+      </c>
+      <c r="AS161">
+        <v>1.33</v>
+      </c>
+      <c r="AT161">
+        <v>2.52</v>
+      </c>
+      <c r="AU161">
+        <v>7</v>
+      </c>
+      <c r="AV161">
+        <v>4</v>
+      </c>
+      <c r="AW161">
+        <v>5</v>
+      </c>
+      <c r="AX161">
+        <v>8</v>
+      </c>
+      <c r="AY161">
+        <v>12</v>
+      </c>
+      <c r="AZ161">
+        <v>12</v>
+      </c>
+      <c r="BA161">
+        <v>2</v>
+      </c>
+      <c r="BB161">
+        <v>5</v>
+      </c>
+      <c r="BC161">
+        <v>7</v>
+      </c>
+      <c r="BD161">
+        <v>1.85</v>
+      </c>
+      <c r="BE161">
+        <v>7.4</v>
+      </c>
+      <c r="BF161">
+        <v>2.36</v>
+      </c>
+      <c r="BG161">
+        <v>1.3</v>
+      </c>
+      <c r="BH161">
+        <v>3.2</v>
+      </c>
+      <c r="BI161">
+        <v>1.53</v>
+      </c>
+      <c r="BJ161">
+        <v>2.38</v>
+      </c>
+      <c r="BK161">
+        <v>1.98</v>
+      </c>
+      <c r="BL161">
+        <v>1.82</v>
+      </c>
+      <c r="BM161">
+        <v>2.3</v>
+      </c>
+      <c r="BN161">
+        <v>1.55</v>
+      </c>
+      <c r="BO161">
+        <v>3</v>
+      </c>
+      <c r="BP161">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7487271</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45516.875</v>
+      </c>
+      <c r="F162">
+        <v>5</v>
+      </c>
+      <c r="G162" t="s">
+        <v>76</v>
+      </c>
+      <c r="H162" t="s">
+        <v>72</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>1</v>
+      </c>
+      <c r="O162" t="s">
+        <v>113</v>
+      </c>
+      <c r="P162" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q162">
+        <v>3.4</v>
+      </c>
+      <c r="R162">
+        <v>2</v>
+      </c>
+      <c r="S162">
+        <v>3.6</v>
+      </c>
+      <c r="T162">
+        <v>1.5</v>
+      </c>
+      <c r="U162">
+        <v>2.5</v>
+      </c>
+      <c r="V162">
+        <v>3.4</v>
+      </c>
+      <c r="W162">
+        <v>1.3</v>
+      </c>
+      <c r="X162">
+        <v>10</v>
+      </c>
+      <c r="Y162">
+        <v>1.06</v>
+      </c>
+      <c r="Z162">
+        <v>2.5</v>
+      </c>
+      <c r="AA162">
+        <v>3.1</v>
+      </c>
+      <c r="AB162">
+        <v>2.63</v>
+      </c>
+      <c r="AC162">
+        <v>1.06</v>
+      </c>
+      <c r="AD162">
+        <v>8</v>
+      </c>
+      <c r="AE162">
+        <v>1.38</v>
+      </c>
+      <c r="AF162">
+        <v>2.88</v>
+      </c>
+      <c r="AG162">
+        <v>2.35</v>
+      </c>
+      <c r="AH162">
+        <v>1.57</v>
+      </c>
+      <c r="AI162">
+        <v>2</v>
+      </c>
+      <c r="AJ162">
+        <v>1.73</v>
+      </c>
+      <c r="AK162">
+        <v>1.45</v>
+      </c>
+      <c r="AL162">
+        <v>1.28</v>
+      </c>
+      <c r="AM162">
+        <v>1.48</v>
+      </c>
+      <c r="AN162">
+        <v>1.04</v>
+      </c>
+      <c r="AO162">
+        <v>1.54</v>
+      </c>
+      <c r="AP162">
+        <v>1.11</v>
+      </c>
+      <c r="AQ162">
+        <v>1.48</v>
+      </c>
+      <c r="AR162">
+        <v>1.34</v>
+      </c>
+      <c r="AS162">
+        <v>1.34</v>
+      </c>
+      <c r="AT162">
+        <v>2.68</v>
+      </c>
+      <c r="AU162">
+        <v>7</v>
+      </c>
+      <c r="AV162">
+        <v>4</v>
+      </c>
+      <c r="AW162">
+        <v>11</v>
+      </c>
+      <c r="AX162">
+        <v>6</v>
+      </c>
+      <c r="AY162">
+        <v>18</v>
+      </c>
+      <c r="AZ162">
+        <v>10</v>
+      </c>
+      <c r="BA162">
+        <v>6</v>
+      </c>
+      <c r="BB162">
+        <v>5</v>
+      </c>
+      <c r="BC162">
+        <v>11</v>
+      </c>
+      <c r="BD162">
+        <v>2.03</v>
+      </c>
+      <c r="BE162">
+        <v>7.1</v>
+      </c>
+      <c r="BF162">
+        <v>2.15</v>
+      </c>
+      <c r="BG162">
+        <v>1.3</v>
+      </c>
+      <c r="BH162">
+        <v>3.2</v>
+      </c>
+      <c r="BI162">
+        <v>1.5</v>
+      </c>
+      <c r="BJ162">
+        <v>2.4</v>
+      </c>
+      <c r="BK162">
+        <v>1.85</v>
+      </c>
+      <c r="BL162">
+        <v>1.85</v>
+      </c>
+      <c r="BM162">
+        <v>2.4</v>
+      </c>
+      <c r="BN162">
+        <v>1.5</v>
+      </c>
+      <c r="BO162">
+        <v>3.2</v>
+      </c>
+      <c r="BP162">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="261">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -557,6 +557,12 @@
   </si>
   <si>
     <t>['9', '47']</t>
+  </si>
+  <si>
+    <t>['63', '79']</t>
+  </si>
+  <si>
+    <t>['71']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -1152,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP162"/>
+  <dimension ref="A1:BP164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1617,7 +1623,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1901,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2316,7 +2322,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ6">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2441,7 +2447,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2519,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AQ7">
         <v>1.96</v>
@@ -2647,7 +2653,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2853,7 +2859,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3059,7 +3065,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3140,7 +3146,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ10">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AR10">
         <v>1.47</v>
@@ -3265,7 +3271,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3346,7 +3352,7 @@
         <v>1.96</v>
       </c>
       <c r="AQ11">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR11">
         <v>1.49</v>
@@ -3549,10 +3555,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AQ12">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AR12">
         <v>1.3</v>
@@ -3677,7 +3683,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3961,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AQ14">
         <v>1.07</v>
@@ -4089,7 +4095,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4579,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AQ17">
         <v>1.04</v>
@@ -4707,7 +4713,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4785,7 +4791,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AQ18">
         <v>1.96</v>
@@ -4913,7 +4919,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4994,7 +5000,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ19">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AR19">
         <v>1.31</v>
@@ -5119,7 +5125,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5200,7 +5206,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ20">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AR20">
         <v>1.69</v>
@@ -5325,7 +5331,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5406,7 +5412,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ21">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR21">
         <v>1.64</v>
@@ -5531,7 +5537,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5818,7 +5824,7 @@
         <v>1.96</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -5943,7 +5949,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6227,7 +6233,7 @@
         <v>0.75</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AQ25">
         <v>1.07</v>
@@ -6355,7 +6361,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6433,7 +6439,7 @@
         <v>0.25</v>
       </c>
       <c r="AP26">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AQ26">
         <v>1.04</v>
@@ -6639,7 +6645,7 @@
         <v>1.75</v>
       </c>
       <c r="AP27">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AQ27">
         <v>0.96</v>
@@ -6767,7 +6773,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -7257,7 +7263,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AQ30">
         <v>1.11</v>
@@ -7466,7 +7472,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ31">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AR31">
         <v>1.28</v>
@@ -7591,7 +7597,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7672,7 +7678,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ32">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR32">
         <v>1.21</v>
@@ -8003,7 +8009,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8209,7 +8215,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8290,7 +8296,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ35">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AR35">
         <v>1.5</v>
@@ -8415,7 +8421,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8496,7 +8502,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR36">
         <v>1.5</v>
@@ -8621,7 +8627,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8699,7 +8705,7 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AQ37">
         <v>0.89</v>
@@ -8905,7 +8911,7 @@
         <v>0.83</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AQ38">
         <v>1.11</v>
@@ -9239,7 +9245,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9317,7 +9323,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AQ40">
         <v>0.96</v>
@@ -9445,7 +9451,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9523,7 +9529,7 @@
         <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AQ41">
         <v>1.74</v>
@@ -9651,7 +9657,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9935,7 +9941,7 @@
         <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AQ43">
         <v>2.12</v>
@@ -10063,7 +10069,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10144,7 +10150,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR44">
         <v>1.33</v>
@@ -10350,7 +10356,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ45">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR45">
         <v>1.37</v>
@@ -10475,7 +10481,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10556,7 +10562,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ46">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AR46">
         <v>1.37</v>
@@ -10681,7 +10687,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -11171,7 +11177,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AQ49">
         <v>0.89</v>
@@ -11299,7 +11305,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11505,7 +11511,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11583,7 +11589,7 @@
         <v>1.63</v>
       </c>
       <c r="AP51">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AQ51">
         <v>1.74</v>
@@ -11789,10 +11795,10 @@
         <v>1.38</v>
       </c>
       <c r="AP52">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AQ52">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AR52">
         <v>1.52</v>
@@ -12123,7 +12129,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12201,7 +12207,7 @@
         <v>1.38</v>
       </c>
       <c r="AP54">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AQ54">
         <v>2.12</v>
@@ -12329,7 +12335,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12410,7 +12416,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR55">
         <v>1.34</v>
@@ -12535,7 +12541,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12741,7 +12747,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12947,7 +12953,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13025,10 +13031,10 @@
         <v>0.44</v>
       </c>
       <c r="AP58">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AQ58">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AR58">
         <v>1.5</v>
@@ -13359,7 +13365,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13643,10 +13649,10 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AQ61">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR61">
         <v>1.27</v>
@@ -14467,10 +14473,10 @@
         <v>1.1</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AQ65">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AR65">
         <v>1.21</v>
@@ -14595,7 +14601,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14801,7 +14807,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15007,7 +15013,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15085,7 +15091,7 @@
         <v>1.7</v>
       </c>
       <c r="AP68">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AQ68">
         <v>2.12</v>
@@ -15294,7 +15300,7 @@
         <v>1.96</v>
       </c>
       <c r="AQ69">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AR69">
         <v>1.62</v>
@@ -15703,10 +15709,10 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AQ71">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR71">
         <v>1.22</v>
@@ -15909,7 +15915,7 @@
         <v>1.17</v>
       </c>
       <c r="AP72">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AQ72">
         <v>1.07</v>
@@ -16037,7 +16043,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16115,10 +16121,10 @@
         <v>1.36</v>
       </c>
       <c r="AP73">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AQ73">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR73">
         <v>1.25</v>
@@ -16243,7 +16249,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16449,7 +16455,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16655,7 +16661,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16733,7 +16739,7 @@
         <v>2.27</v>
       </c>
       <c r="AP76">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AQ76">
         <v>1.96</v>
@@ -17067,7 +17073,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17273,7 +17279,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17354,7 +17360,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ79">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR79">
         <v>1.41</v>
@@ -17479,7 +17485,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17557,7 +17563,7 @@
         <v>1.92</v>
       </c>
       <c r="AP80">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AQ80">
         <v>2.12</v>
@@ -17972,7 +17978,7 @@
         <v>1.96</v>
       </c>
       <c r="AQ82">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AR82">
         <v>1.64</v>
@@ -18097,7 +18103,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18178,7 +18184,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ83">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AR83">
         <v>1.24</v>
@@ -18303,7 +18309,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18587,7 +18593,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AQ85">
         <v>1.07</v>
@@ -18715,7 +18721,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18793,7 +18799,7 @@
         <v>1.07</v>
       </c>
       <c r="AP86">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AQ86">
         <v>1.04</v>
@@ -18999,7 +19005,7 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AQ87">
         <v>1.11</v>
@@ -19205,7 +19211,7 @@
         <v>2.29</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AQ88">
         <v>1.96</v>
@@ -19745,7 +19751,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19826,7 +19832,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ91">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AR91">
         <v>1.34</v>
@@ -20032,7 +20038,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ92">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR92">
         <v>1.3</v>
@@ -20157,7 +20163,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20444,7 +20450,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ94">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AR94">
         <v>1.23</v>
@@ -20569,7 +20575,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20856,7 +20862,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ96">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR96">
         <v>1.51</v>
@@ -20981,7 +20987,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21059,7 +21065,7 @@
         <v>1.19</v>
       </c>
       <c r="AP97">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AQ97">
         <v>1.04</v>
@@ -21393,7 +21399,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21471,7 +21477,7 @@
         <v>0.63</v>
       </c>
       <c r="AP99">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AQ99">
         <v>1.11</v>
@@ -21677,7 +21683,7 @@
         <v>1.38</v>
       </c>
       <c r="AP100">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AQ100">
         <v>0.96</v>
@@ -22089,7 +22095,7 @@
         <v>0.88</v>
       </c>
       <c r="AP102">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AQ102">
         <v>0.89</v>
@@ -22217,7 +22223,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22298,7 +22304,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ103">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AR103">
         <v>1.29</v>
@@ -22423,7 +22429,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22504,7 +22510,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ104">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR104">
         <v>1.3</v>
@@ -22629,7 +22635,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22710,7 +22716,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ105">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AR105">
         <v>1.45</v>
@@ -23041,7 +23047,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23247,7 +23253,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23328,7 +23334,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ108">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR108">
         <v>1.32</v>
@@ -23531,7 +23537,7 @@
         <v>1.28</v>
       </c>
       <c r="AP109">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AQ109">
         <v>0.96</v>
@@ -23865,7 +23871,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24071,7 +24077,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24149,7 +24155,7 @@
         <v>1.78</v>
       </c>
       <c r="AP112">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AQ112">
         <v>1.74</v>
@@ -24358,7 +24364,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ113">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AR113">
         <v>1.78</v>
@@ -24483,7 +24489,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -24561,7 +24567,7 @@
         <v>0.83</v>
       </c>
       <c r="AP114">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AQ114">
         <v>0.89</v>
@@ -24689,7 +24695,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -25101,7 +25107,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25179,10 +25185,10 @@
         <v>1.53</v>
       </c>
       <c r="AP117">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AQ117">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR117">
         <v>1.42</v>
@@ -25307,7 +25313,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25513,7 +25519,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25594,7 +25600,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ119">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AR119">
         <v>1.48</v>
@@ -25800,7 +25806,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ120">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR120">
         <v>1.29</v>
@@ -25925,7 +25931,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26003,10 +26009,10 @@
         <v>1.25</v>
       </c>
       <c r="AP121">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AQ121">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AR121">
         <v>1.22</v>
@@ -26131,7 +26137,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26337,7 +26343,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26415,7 +26421,7 @@
         <v>1.75</v>
       </c>
       <c r="AP123">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AQ123">
         <v>1.74</v>
@@ -26543,7 +26549,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -26624,7 +26630,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ124">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR124">
         <v>1.77</v>
@@ -26955,7 +26961,7 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27161,7 +27167,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27239,10 +27245,10 @@
         <v>1.4</v>
       </c>
       <c r="AP127">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AQ127">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR127">
         <v>1.39</v>
@@ -27367,7 +27373,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27445,10 +27451,10 @@
         <v>0.86</v>
       </c>
       <c r="AP128">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AQ128">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AR128">
         <v>1.44</v>
@@ -27573,7 +27579,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27779,7 +27785,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -27985,7 +27991,7 @@
         <v>89</v>
       </c>
       <c r="P131" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28191,7 +28197,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28478,7 +28484,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ133">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AR133">
         <v>1.36</v>
@@ -28603,7 +28609,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -28890,7 +28896,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ135">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AR135">
         <v>1.47</v>
@@ -29096,7 +29102,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ136">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR136">
         <v>1.27</v>
@@ -29221,7 +29227,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29302,7 +29308,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ137">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR137">
         <v>1.57</v>
@@ -29427,7 +29433,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29505,10 +29511,10 @@
         <v>1.39</v>
       </c>
       <c r="AP138">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AQ138">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AR138">
         <v>1.21</v>
@@ -29839,7 +29845,7 @@
         <v>168</v>
       </c>
       <c r="P140" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
@@ -29917,7 +29923,7 @@
         <v>1.13</v>
       </c>
       <c r="AP140">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AQ140">
         <v>1.07</v>
@@ -30251,7 +30257,7 @@
         <v>133</v>
       </c>
       <c r="P142" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q142">
         <v>2.25</v>
@@ -30535,7 +30541,7 @@
         <v>2.14</v>
       </c>
       <c r="AP143">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AQ143">
         <v>2.12</v>
@@ -30869,7 +30875,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -30950,7 +30956,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ145">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR145">
         <v>1.2</v>
@@ -31359,7 +31365,7 @@
         <v>2.13</v>
       </c>
       <c r="AP147">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AQ147">
         <v>1.96</v>
@@ -31568,7 +31574,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ148">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AR148">
         <v>1.5</v>
@@ -31980,7 +31986,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ150">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR150">
         <v>1.69</v>
@@ -32105,7 +32111,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q151">
         <v>2.1</v>
@@ -32186,7 +32192,7 @@
         <v>1.96</v>
       </c>
       <c r="AQ151">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AR151">
         <v>1.54</v>
@@ -32517,7 +32523,7 @@
         <v>174</v>
       </c>
       <c r="P153" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q153">
         <v>3.75</v>
@@ -32598,7 +32604,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ153">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AR153">
         <v>1.41</v>
@@ -32801,7 +32807,7 @@
         <v>1.08</v>
       </c>
       <c r="AP154">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AQ154">
         <v>1.11</v>
@@ -32929,7 +32935,7 @@
         <v>113</v>
       </c>
       <c r="P155" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33007,7 +33013,7 @@
         <v>0.96</v>
       </c>
       <c r="AP155">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AQ155">
         <v>1.04</v>
@@ -33135,7 +33141,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q156">
         <v>6.5</v>
@@ -33419,7 +33425,7 @@
         <v>1</v>
       </c>
       <c r="AP157">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AQ157">
         <v>0.96</v>
@@ -33625,10 +33631,10 @@
         <v>1.52</v>
       </c>
       <c r="AP158">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AQ158">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR158">
         <v>1.33</v>
@@ -34165,7 +34171,7 @@
         <v>180</v>
       </c>
       <c r="P161" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q161">
         <v>3.25</v>
@@ -34452,7 +34458,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ162">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR162">
         <v>1.34</v>
@@ -34528,6 +34534,418 @@
       </c>
       <c r="BP162">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7487277</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45520.77083333334</v>
+      </c>
+      <c r="F163">
+        <v>6</v>
+      </c>
+      <c r="G163" t="s">
+        <v>72</v>
+      </c>
+      <c r="H163" t="s">
+        <v>75</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>2</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>3</v>
+      </c>
+      <c r="O163" t="s">
+        <v>181</v>
+      </c>
+      <c r="P163" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q163">
+        <v>3.5</v>
+      </c>
+      <c r="R163">
+        <v>1.91</v>
+      </c>
+      <c r="S163">
+        <v>3.75</v>
+      </c>
+      <c r="T163">
+        <v>1.42</v>
+      </c>
+      <c r="U163">
+        <v>2.62</v>
+      </c>
+      <c r="V163">
+        <v>2.88</v>
+      </c>
+      <c r="W163">
+        <v>1.36</v>
+      </c>
+      <c r="X163">
+        <v>7</v>
+      </c>
+      <c r="Y163">
+        <v>1.07</v>
+      </c>
+      <c r="Z163">
+        <v>2.6</v>
+      </c>
+      <c r="AA163">
+        <v>2.9</v>
+      </c>
+      <c r="AB163">
+        <v>2.88</v>
+      </c>
+      <c r="AC163">
+        <v>1.06</v>
+      </c>
+      <c r="AD163">
+        <v>8</v>
+      </c>
+      <c r="AE163">
+        <v>1.36</v>
+      </c>
+      <c r="AF163">
+        <v>3</v>
+      </c>
+      <c r="AG163">
+        <v>2.7</v>
+      </c>
+      <c r="AH163">
+        <v>1.44</v>
+      </c>
+      <c r="AI163">
+        <v>2.1</v>
+      </c>
+      <c r="AJ163">
+        <v>1.67</v>
+      </c>
+      <c r="AK163">
+        <v>1.44</v>
+      </c>
+      <c r="AL163">
+        <v>1.35</v>
+      </c>
+      <c r="AM163">
+        <v>1.5</v>
+      </c>
+      <c r="AN163">
+        <v>1.48</v>
+      </c>
+      <c r="AO163">
+        <v>1.41</v>
+      </c>
+      <c r="AP163">
+        <v>1.54</v>
+      </c>
+      <c r="AQ163">
+        <v>1.36</v>
+      </c>
+      <c r="AR163">
+        <v>1.34</v>
+      </c>
+      <c r="AS163">
+        <v>1.31</v>
+      </c>
+      <c r="AT163">
+        <v>2.65</v>
+      </c>
+      <c r="AU163">
+        <v>8</v>
+      </c>
+      <c r="AV163">
+        <v>3</v>
+      </c>
+      <c r="AW163">
+        <v>6</v>
+      </c>
+      <c r="AX163">
+        <v>3</v>
+      </c>
+      <c r="AY163">
+        <v>14</v>
+      </c>
+      <c r="AZ163">
+        <v>6</v>
+      </c>
+      <c r="BA163">
+        <v>4</v>
+      </c>
+      <c r="BB163">
+        <v>5</v>
+      </c>
+      <c r="BC163">
+        <v>9</v>
+      </c>
+      <c r="BD163">
+        <v>1.83</v>
+      </c>
+      <c r="BE163">
+        <v>7.4</v>
+      </c>
+      <c r="BF163">
+        <v>2.4</v>
+      </c>
+      <c r="BG163">
+        <v>1.3</v>
+      </c>
+      <c r="BH163">
+        <v>3.2</v>
+      </c>
+      <c r="BI163">
+        <v>1.46</v>
+      </c>
+      <c r="BJ163">
+        <v>2.52</v>
+      </c>
+      <c r="BK163">
+        <v>2.25</v>
+      </c>
+      <c r="BL163">
+        <v>2</v>
+      </c>
+      <c r="BM163">
+        <v>2.37</v>
+      </c>
+      <c r="BN163">
+        <v>1.51</v>
+      </c>
+      <c r="BO163">
+        <v>3.2</v>
+      </c>
+      <c r="BP163">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7487278</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45520.875</v>
+      </c>
+      <c r="F164">
+        <v>6</v>
+      </c>
+      <c r="G164" t="s">
+        <v>80</v>
+      </c>
+      <c r="H164" t="s">
+        <v>81</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>1</v>
+      </c>
+      <c r="O164" t="s">
+        <v>182</v>
+      </c>
+      <c r="P164" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q164">
+        <v>2.88</v>
+      </c>
+      <c r="R164">
+        <v>2</v>
+      </c>
+      <c r="S164">
+        <v>4.33</v>
+      </c>
+      <c r="T164">
+        <v>1.44</v>
+      </c>
+      <c r="U164">
+        <v>2.6</v>
+      </c>
+      <c r="V164">
+        <v>2.95</v>
+      </c>
+      <c r="W164">
+        <v>1.35</v>
+      </c>
+      <c r="X164">
+        <v>7.6</v>
+      </c>
+      <c r="Y164">
+        <v>1.05</v>
+      </c>
+      <c r="Z164">
+        <v>2.14</v>
+      </c>
+      <c r="AA164">
+        <v>3.05</v>
+      </c>
+      <c r="AB164">
+        <v>3.65</v>
+      </c>
+      <c r="AC164">
+        <v>1.04</v>
+      </c>
+      <c r="AD164">
+        <v>8.1</v>
+      </c>
+      <c r="AE164">
+        <v>1.34</v>
+      </c>
+      <c r="AF164">
+        <v>3</v>
+      </c>
+      <c r="AG164">
+        <v>2.28</v>
+      </c>
+      <c r="AH164">
+        <v>1.58</v>
+      </c>
+      <c r="AI164">
+        <v>2</v>
+      </c>
+      <c r="AJ164">
+        <v>1.73</v>
+      </c>
+      <c r="AK164">
+        <v>1.33</v>
+      </c>
+      <c r="AL164">
+        <v>1.28</v>
+      </c>
+      <c r="AM164">
+        <v>1.65</v>
+      </c>
+      <c r="AN164">
+        <v>1.5</v>
+      </c>
+      <c r="AO164">
+        <v>0.96</v>
+      </c>
+      <c r="AP164">
+        <v>1.56</v>
+      </c>
+      <c r="AQ164">
+        <v>0.93</v>
+      </c>
+      <c r="AR164">
+        <v>1.17</v>
+      </c>
+      <c r="AS164">
+        <v>1.23</v>
+      </c>
+      <c r="AT164">
+        <v>2.4</v>
+      </c>
+      <c r="AU164">
+        <v>3</v>
+      </c>
+      <c r="AV164">
+        <v>2</v>
+      </c>
+      <c r="AW164">
+        <v>9</v>
+      </c>
+      <c r="AX164">
+        <v>4</v>
+      </c>
+      <c r="AY164">
+        <v>12</v>
+      </c>
+      <c r="AZ164">
+        <v>6</v>
+      </c>
+      <c r="BA164">
+        <v>8</v>
+      </c>
+      <c r="BB164">
+        <v>3</v>
+      </c>
+      <c r="BC164">
+        <v>11</v>
+      </c>
+      <c r="BD164">
+        <v>1.63</v>
+      </c>
+      <c r="BE164">
+        <v>7.8</v>
+      </c>
+      <c r="BF164">
+        <v>2.8</v>
+      </c>
+      <c r="BG164">
+        <v>1.3</v>
+      </c>
+      <c r="BH164">
+        <v>3.2</v>
+      </c>
+      <c r="BI164">
+        <v>1.58</v>
+      </c>
+      <c r="BJ164">
+        <v>2.23</v>
+      </c>
+      <c r="BK164">
+        <v>2.03</v>
+      </c>
+      <c r="BL164">
+        <v>1.7</v>
+      </c>
+      <c r="BM164">
+        <v>2.7</v>
+      </c>
+      <c r="BN164">
+        <v>1.41</v>
+      </c>
+      <c r="BO164">
+        <v>3.6</v>
+      </c>
+      <c r="BP164">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="262">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -798,6 +798,9 @@
   <si>
     <t>['45+2']</t>
   </si>
+  <si>
+    <t>['49', '88']</t>
+  </si>
 </sst>
 </file>
 
@@ -1158,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP164"/>
+  <dimension ref="A1:BP166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1704,7 +1707,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ3">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2116,7 +2119,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ5">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2937,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AQ9">
         <v>1.74</v>
@@ -3143,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AQ10">
         <v>1.36</v>
@@ -3970,7 +3973,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ14">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AR14">
         <v>1.53</v>
@@ -4588,7 +4591,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ17">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AR17">
         <v>1.4</v>
@@ -5203,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AQ20">
         <v>0.93</v>
@@ -5409,7 +5412,7 @@
         <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AQ21">
         <v>1.54</v>
@@ -6236,7 +6239,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ25">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AR25">
         <v>1.01</v>
@@ -6442,7 +6445,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ26">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -8087,7 +8090,7 @@
         <v>2.2</v>
       </c>
       <c r="AP34">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AQ34">
         <v>1.96</v>
@@ -8499,7 +8502,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AQ36">
         <v>1.56</v>
@@ -9120,7 +9123,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ39">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AR39">
         <v>2.03</v>
@@ -9738,7 +9741,7 @@
         <v>1.96</v>
       </c>
       <c r="AQ42">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AR42">
         <v>1.44</v>
@@ -10765,10 +10768,10 @@
         <v>0.57</v>
       </c>
       <c r="AP47">
+        <v>1.11</v>
+      </c>
+      <c r="AQ47">
         <v>1.04</v>
-      </c>
-      <c r="AQ47">
-        <v>1.07</v>
       </c>
       <c r="AR47">
         <v>1.34</v>
@@ -10971,7 +10974,7 @@
         <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AQ48">
         <v>1.11</v>
@@ -11386,7 +11389,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ50">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AR50">
         <v>1.93</v>
@@ -12828,7 +12831,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ57">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AR57">
         <v>1.33</v>
@@ -13240,7 +13243,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ59">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AR59">
         <v>1.29</v>
@@ -13443,7 +13446,7 @@
         <v>1.4</v>
       </c>
       <c r="AP60">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AQ60">
         <v>0.96</v>
@@ -14267,7 +14270,7 @@
         <v>1.3</v>
       </c>
       <c r="AP64">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AQ64">
         <v>0.89</v>
@@ -14679,7 +14682,7 @@
         <v>1.18</v>
       </c>
       <c r="AP66">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AQ66">
         <v>0.89</v>
@@ -15503,7 +15506,7 @@
         <v>1.64</v>
       </c>
       <c r="AP70">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AQ70">
         <v>1.74</v>
@@ -15918,7 +15921,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ72">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AR72">
         <v>1.46</v>
@@ -16330,7 +16333,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ74">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AR74">
         <v>1.39</v>
@@ -17357,7 +17360,7 @@
         <v>1.46</v>
       </c>
       <c r="AP79">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AQ79">
         <v>1.54</v>
@@ -18181,7 +18184,7 @@
         <v>1.31</v>
       </c>
       <c r="AP83">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AQ83">
         <v>1.36</v>
@@ -18596,7 +18599,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ85">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AR85">
         <v>1.23</v>
@@ -18802,7 +18805,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ86">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AR86">
         <v>1.45</v>
@@ -20447,7 +20450,7 @@
         <v>0.67</v>
       </c>
       <c r="AP94">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AQ94">
         <v>0.93</v>
@@ -20859,7 +20862,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AQ96">
         <v>1.56</v>
@@ -21068,7 +21071,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ97">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AR97">
         <v>1.2</v>
@@ -21274,7 +21277,7 @@
         <v>1.96</v>
       </c>
       <c r="AQ98">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AR98">
         <v>1.6</v>
@@ -22919,7 +22922,7 @@
         <v>2.06</v>
       </c>
       <c r="AP106">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AQ106">
         <v>1.96</v>
@@ -23125,7 +23128,7 @@
         <v>2.06</v>
       </c>
       <c r="AP107">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AQ107">
         <v>2.12</v>
@@ -23949,10 +23952,10 @@
         <v>1.11</v>
       </c>
       <c r="AP111">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AQ111">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AR111">
         <v>1.48</v>
@@ -24773,7 +24776,7 @@
         <v>2.17</v>
       </c>
       <c r="AP115">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AQ115">
         <v>2.12</v>
@@ -24982,7 +24985,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ116">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AR116">
         <v>1.3</v>
@@ -26215,7 +26218,7 @@
         <v>0.95</v>
       </c>
       <c r="AP122">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AQ122">
         <v>1.11</v>
@@ -27039,7 +27042,7 @@
         <v>1.15</v>
       </c>
       <c r="AP126">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AQ126">
         <v>0.96</v>
@@ -28072,7 +28075,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ131">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AR131">
         <v>1.28</v>
@@ -28278,7 +28281,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ132">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AR132">
         <v>1.23</v>
@@ -28687,7 +28690,7 @@
         <v>2.18</v>
       </c>
       <c r="AP134">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AQ134">
         <v>1.96</v>
@@ -29305,7 +29308,7 @@
         <v>1.33</v>
       </c>
       <c r="AP137">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AQ137">
         <v>1.56</v>
@@ -29720,7 +29723,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ139">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AR139">
         <v>1.38</v>
@@ -29926,7 +29929,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ140">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AR140">
         <v>1.41</v>
@@ -30953,7 +30956,7 @@
         <v>1.39</v>
       </c>
       <c r="AP145">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AQ145">
         <v>1.56</v>
@@ -31159,7 +31162,7 @@
         <v>0.88</v>
       </c>
       <c r="AP146">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AQ146">
         <v>0.89</v>
@@ -32395,7 +32398,7 @@
         <v>1.64</v>
       </c>
       <c r="AP152">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AQ152">
         <v>1.74</v>
@@ -33016,7 +33019,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ155">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AR155">
         <v>1.36</v>
@@ -34046,7 +34049,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ160">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AR160">
         <v>1.68</v>
@@ -34249,7 +34252,7 @@
         <v>0.92</v>
       </c>
       <c r="AP161">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AQ161">
         <v>0.89</v>
@@ -34946,6 +34949,418 @@
       </c>
       <c r="BP164">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7487276</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45521.72916666666</v>
+      </c>
+      <c r="F165">
+        <v>6</v>
+      </c>
+      <c r="G165" t="s">
+        <v>73</v>
+      </c>
+      <c r="H165" t="s">
+        <v>76</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165" t="s">
+        <v>89</v>
+      </c>
+      <c r="P165" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q165">
+        <v>3.75</v>
+      </c>
+      <c r="R165">
+        <v>2</v>
+      </c>
+      <c r="S165">
+        <v>3.2</v>
+      </c>
+      <c r="T165">
+        <v>1.44</v>
+      </c>
+      <c r="U165">
+        <v>2.6</v>
+      </c>
+      <c r="V165">
+        <v>3</v>
+      </c>
+      <c r="W165">
+        <v>1.33</v>
+      </c>
+      <c r="X165">
+        <v>7.5</v>
+      </c>
+      <c r="Y165">
+        <v>1.06</v>
+      </c>
+      <c r="Z165">
+        <v>3</v>
+      </c>
+      <c r="AA165">
+        <v>3.2</v>
+      </c>
+      <c r="AB165">
+        <v>2.35</v>
+      </c>
+      <c r="AC165">
+        <v>1.05</v>
+      </c>
+      <c r="AD165">
+        <v>8</v>
+      </c>
+      <c r="AE165">
+        <v>1.36</v>
+      </c>
+      <c r="AF165">
+        <v>2.9</v>
+      </c>
+      <c r="AG165">
+        <v>2.3</v>
+      </c>
+      <c r="AH165">
+        <v>1.6</v>
+      </c>
+      <c r="AI165">
+        <v>2</v>
+      </c>
+      <c r="AJ165">
+        <v>1.73</v>
+      </c>
+      <c r="AK165">
+        <v>1.55</v>
+      </c>
+      <c r="AL165">
+        <v>1.35</v>
+      </c>
+      <c r="AM165">
+        <v>1.4</v>
+      </c>
+      <c r="AN165">
+        <v>0.89</v>
+      </c>
+      <c r="AO165">
+        <v>1.11</v>
+      </c>
+      <c r="AP165">
+        <v>0.89</v>
+      </c>
+      <c r="AQ165">
+        <v>1.11</v>
+      </c>
+      <c r="AR165">
+        <v>1.34</v>
+      </c>
+      <c r="AS165">
+        <v>1.36</v>
+      </c>
+      <c r="AT165">
+        <v>2.7</v>
+      </c>
+      <c r="AU165">
+        <v>3</v>
+      </c>
+      <c r="AV165">
+        <v>4</v>
+      </c>
+      <c r="AW165">
+        <v>14</v>
+      </c>
+      <c r="AX165">
+        <v>15</v>
+      </c>
+      <c r="AY165">
+        <v>17</v>
+      </c>
+      <c r="AZ165">
+        <v>19</v>
+      </c>
+      <c r="BA165">
+        <v>6</v>
+      </c>
+      <c r="BB165">
+        <v>6</v>
+      </c>
+      <c r="BC165">
+        <v>12</v>
+      </c>
+      <c r="BD165">
+        <v>2.12</v>
+      </c>
+      <c r="BE165">
+        <v>7.2</v>
+      </c>
+      <c r="BF165">
+        <v>2.05</v>
+      </c>
+      <c r="BG165">
+        <v>1.38</v>
+      </c>
+      <c r="BH165">
+        <v>2.8</v>
+      </c>
+      <c r="BI165">
+        <v>1.65</v>
+      </c>
+      <c r="BJ165">
+        <v>2.2</v>
+      </c>
+      <c r="BK165">
+        <v>2.06</v>
+      </c>
+      <c r="BL165">
+        <v>1.74</v>
+      </c>
+      <c r="BM165">
+        <v>2.6</v>
+      </c>
+      <c r="BN165">
+        <v>1.44</v>
+      </c>
+      <c r="BO165">
+        <v>3.4</v>
+      </c>
+      <c r="BP165">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7487275</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45521.83333333334</v>
+      </c>
+      <c r="F166">
+        <v>6</v>
+      </c>
+      <c r="G166" t="s">
+        <v>78</v>
+      </c>
+      <c r="H166" t="s">
+        <v>77</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>2</v>
+      </c>
+      <c r="N166">
+        <v>3</v>
+      </c>
+      <c r="O166" t="s">
+        <v>182</v>
+      </c>
+      <c r="P166" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q166">
+        <v>3.25</v>
+      </c>
+      <c r="R166">
+        <v>1.95</v>
+      </c>
+      <c r="S166">
+        <v>3.75</v>
+      </c>
+      <c r="T166">
+        <v>1.5</v>
+      </c>
+      <c r="U166">
+        <v>2.4</v>
+      </c>
+      <c r="V166">
+        <v>3.3</v>
+      </c>
+      <c r="W166">
+        <v>1.28</v>
+      </c>
+      <c r="X166">
+        <v>8.5</v>
+      </c>
+      <c r="Y166">
+        <v>1.04</v>
+      </c>
+      <c r="Z166">
+        <v>2.45</v>
+      </c>
+      <c r="AA166">
+        <v>3.1</v>
+      </c>
+      <c r="AB166">
+        <v>2.88</v>
+      </c>
+      <c r="AC166">
+        <v>1.07</v>
+      </c>
+      <c r="AD166">
+        <v>7</v>
+      </c>
+      <c r="AE166">
+        <v>1.4</v>
+      </c>
+      <c r="AF166">
+        <v>2.7</v>
+      </c>
+      <c r="AG166">
+        <v>2.35</v>
+      </c>
+      <c r="AH166">
+        <v>1.57</v>
+      </c>
+      <c r="AI166">
+        <v>2</v>
+      </c>
+      <c r="AJ166">
+        <v>1.73</v>
+      </c>
+      <c r="AK166">
+        <v>1.36</v>
+      </c>
+      <c r="AL166">
+        <v>1.35</v>
+      </c>
+      <c r="AM166">
+        <v>1.6</v>
+      </c>
+      <c r="AN166">
+        <v>1.07</v>
+      </c>
+      <c r="AO166">
+        <v>1.04</v>
+      </c>
+      <c r="AP166">
+        <v>1.04</v>
+      </c>
+      <c r="AQ166">
+        <v>1.11</v>
+      </c>
+      <c r="AR166">
+        <v>1.48</v>
+      </c>
+      <c r="AS166">
+        <v>1.21</v>
+      </c>
+      <c r="AT166">
+        <v>2.69</v>
+      </c>
+      <c r="AU166">
+        <v>0</v>
+      </c>
+      <c r="AV166">
+        <v>2</v>
+      </c>
+      <c r="AW166">
+        <v>5</v>
+      </c>
+      <c r="AX166">
+        <v>4</v>
+      </c>
+      <c r="AY166">
+        <v>5</v>
+      </c>
+      <c r="AZ166">
+        <v>6</v>
+      </c>
+      <c r="BA166">
+        <v>12</v>
+      </c>
+      <c r="BB166">
+        <v>6</v>
+      </c>
+      <c r="BC166">
+        <v>18</v>
+      </c>
+      <c r="BD166">
+        <v>1.97</v>
+      </c>
+      <c r="BE166">
+        <v>7.3</v>
+      </c>
+      <c r="BF166">
+        <v>2.2</v>
+      </c>
+      <c r="BG166">
+        <v>1.33</v>
+      </c>
+      <c r="BH166">
+        <v>3</v>
+      </c>
+      <c r="BI166">
+        <v>1.53</v>
+      </c>
+      <c r="BJ166">
+        <v>2.33</v>
+      </c>
+      <c r="BK166">
+        <v>1.95</v>
+      </c>
+      <c r="BL166">
+        <v>1.85</v>
+      </c>
+      <c r="BM166">
+        <v>2.5</v>
+      </c>
+      <c r="BN166">
+        <v>1.49</v>
+      </c>
+      <c r="BO166">
+        <v>3.2</v>
+      </c>
+      <c r="BP166">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>['71']</t>
+  </si>
+  <si>
+    <t>['84']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -1161,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP166"/>
+  <dimension ref="A1:BP167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1626,7 +1629,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1704,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ3">
         <v>1.04</v>
@@ -2322,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AQ6">
         <v>0.93</v>
@@ -2450,7 +2453,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2656,7 +2659,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2862,7 +2865,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2943,7 +2946,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ9">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AR9">
         <v>1.58</v>
@@ -3068,7 +3071,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3274,7 +3277,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3686,7 +3689,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3767,7 +3770,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ13">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AR13">
         <v>1.34</v>
@@ -4098,7 +4101,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4176,7 +4179,7 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ15">
         <v>1.11</v>
@@ -4716,7 +4719,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4922,7 +4925,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5128,7 +5131,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5334,7 +5337,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5540,7 +5543,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5621,7 +5624,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ22">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AR22">
         <v>1.54</v>
@@ -5952,7 +5955,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6033,7 +6036,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ24">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AR24">
         <v>1.25</v>
@@ -6364,7 +6367,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6776,7 +6779,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6854,7 +6857,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ28">
         <v>0.89</v>
@@ -7060,7 +7063,7 @@
         <v>2.5</v>
       </c>
       <c r="AP29">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AQ29">
         <v>1.96</v>
@@ -7600,7 +7603,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7884,10 +7887,10 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ33">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AR33">
         <v>1.41</v>
@@ -8012,7 +8015,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8218,7 +8221,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8424,7 +8427,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8630,7 +8633,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -9120,7 +9123,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AQ39">
         <v>1.04</v>
@@ -9248,7 +9251,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9454,7 +9457,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9535,7 +9538,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ41">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AR41">
         <v>1.42</v>
@@ -9660,7 +9663,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9947,7 +9950,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ43">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AR43">
         <v>1.44</v>
@@ -10072,7 +10075,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10356,7 +10359,7 @@
         <v>1.71</v>
       </c>
       <c r="AP45">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ45">
         <v>1.54</v>
@@ -10484,7 +10487,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10690,7 +10693,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -11308,7 +11311,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11386,7 +11389,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AQ50">
         <v>1.11</v>
@@ -11514,7 +11517,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11595,7 +11598,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ51">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -12132,7 +12135,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12213,7 +12216,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ54">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AR54">
         <v>1.53</v>
@@ -12338,7 +12341,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12416,7 +12419,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ55">
         <v>1.56</v>
@@ -12544,7 +12547,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12750,7 +12753,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12956,7 +12959,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13368,7 +13371,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13858,7 +13861,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP62">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AQ62">
         <v>1.11</v>
@@ -14067,7 +14070,7 @@
         <v>1.96</v>
       </c>
       <c r="AQ63">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AR63">
         <v>1.55</v>
@@ -14604,7 +14607,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14810,7 +14813,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15016,7 +15019,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15097,7 +15100,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ68">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AR68">
         <v>1.27</v>
@@ -15509,7 +15512,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ70">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AR70">
         <v>1.35</v>
@@ -16046,7 +16049,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16252,7 +16255,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16330,7 +16333,7 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ74">
         <v>1.11</v>
@@ -16458,7 +16461,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16664,7 +16667,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16948,7 +16951,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AQ77">
         <v>0.96</v>
@@ -17076,7 +17079,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17282,7 +17285,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17488,7 +17491,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17569,7 +17572,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ80">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AR80">
         <v>1.31</v>
@@ -18106,7 +18109,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18312,7 +18315,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18393,7 +18396,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ84">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AR84">
         <v>1.38</v>
@@ -18724,7 +18727,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -19420,7 +19423,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AQ89">
         <v>0.89</v>
@@ -19626,7 +19629,7 @@
         <v>1.36</v>
       </c>
       <c r="AP90">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ90">
         <v>0.96</v>
@@ -19754,7 +19757,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -20166,7 +20169,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20247,7 +20250,7 @@
         <v>1.96</v>
       </c>
       <c r="AQ93">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AR93">
         <v>1.6</v>
@@ -20578,7 +20581,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20659,7 +20662,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ95">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AR95">
         <v>1.32</v>
@@ -20990,7 +20993,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21402,7 +21405,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21892,10 +21895,10 @@
         <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AQ101">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AR101">
         <v>1.8</v>
@@ -22226,7 +22229,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22432,7 +22435,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22638,7 +22641,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22716,7 +22719,7 @@
         <v>1.47</v>
       </c>
       <c r="AP105">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ105">
         <v>1.36</v>
@@ -23050,7 +23053,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23131,7 +23134,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ107">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AR107">
         <v>1.51</v>
@@ -23256,7 +23259,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23874,7 +23877,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24080,7 +24083,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24161,7 +24164,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ112">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AR112">
         <v>1.5</v>
@@ -24364,7 +24367,7 @@
         <v>1.39</v>
       </c>
       <c r="AP113">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AQ113">
         <v>1.36</v>
@@ -24492,7 +24495,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -24698,7 +24701,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -24779,7 +24782,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ115">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AR115">
         <v>1.2</v>
@@ -25110,7 +25113,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25316,7 +25319,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25522,7 +25525,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25600,7 +25603,7 @@
         <v>0.79</v>
       </c>
       <c r="AP119">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ119">
         <v>0.93</v>
@@ -25934,7 +25937,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26140,7 +26143,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26346,7 +26349,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26427,7 +26430,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ123">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AR123">
         <v>1.18</v>
@@ -26552,7 +26555,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -26630,7 +26633,7 @@
         <v>1.6</v>
       </c>
       <c r="AP124">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AQ124">
         <v>1.54</v>
@@ -26964,7 +26967,7 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27170,7 +27173,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27376,7 +27379,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27582,7 +27585,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27660,7 +27663,7 @@
         <v>2.14</v>
       </c>
       <c r="AP129">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ129">
         <v>1.96</v>
@@ -27788,7 +27791,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -27869,7 +27872,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ130">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AR130">
         <v>1.41</v>
@@ -27994,7 +27997,7 @@
         <v>89</v>
       </c>
       <c r="P131" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28200,7 +28203,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28612,7 +28615,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -28896,7 +28899,7 @@
         <v>1.41</v>
       </c>
       <c r="AP135">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ135">
         <v>1.36</v>
@@ -29230,7 +29233,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29436,7 +29439,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29848,7 +29851,7 @@
         <v>168</v>
       </c>
       <c r="P140" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
@@ -30135,7 +30138,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ141">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AR141">
         <v>1.28</v>
@@ -30260,7 +30263,7 @@
         <v>133</v>
       </c>
       <c r="P142" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q142">
         <v>2.25</v>
@@ -30547,7 +30550,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ143">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AR143">
         <v>1.19</v>
@@ -30750,7 +30753,7 @@
         <v>1.04</v>
       </c>
       <c r="AP144">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AQ144">
         <v>0.96</v>
@@ -30878,7 +30881,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31574,7 +31577,7 @@
         <v>0.92</v>
       </c>
       <c r="AP148">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ148">
         <v>0.93</v>
@@ -31986,7 +31989,7 @@
         <v>1.63</v>
       </c>
       <c r="AP150">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AQ150">
         <v>1.54</v>
@@ -32114,7 +32117,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q151">
         <v>2.1</v>
@@ -32401,7 +32404,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ152">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AR152">
         <v>1.52</v>
@@ -32526,7 +32529,7 @@
         <v>174</v>
       </c>
       <c r="P153" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q153">
         <v>3.75</v>
@@ -32938,7 +32941,7 @@
         <v>113</v>
       </c>
       <c r="P155" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33144,7 +33147,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q156">
         <v>6.5</v>
@@ -33225,7 +33228,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ156">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AR156">
         <v>1.33</v>
@@ -33840,7 +33843,7 @@
         <v>2.04</v>
       </c>
       <c r="AP159">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ159">
         <v>1.96</v>
@@ -34046,7 +34049,7 @@
         <v>1.12</v>
       </c>
       <c r="AP160">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AQ160">
         <v>1.04</v>
@@ -34174,7 +34177,7 @@
         <v>180</v>
       </c>
       <c r="P161" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q161">
         <v>3.25</v>
@@ -34586,7 +34589,7 @@
         <v>181</v>
       </c>
       <c r="P163" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q163">
         <v>3.5</v>
@@ -35204,7 +35207,7 @@
         <v>182</v>
       </c>
       <c r="P166" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35361,6 +35364,212 @@
       </c>
       <c r="BP166">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7487274</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45522.72916666666</v>
+      </c>
+      <c r="F167">
+        <v>6</v>
+      </c>
+      <c r="G167" t="s">
+        <v>74</v>
+      </c>
+      <c r="H167" t="s">
+        <v>71</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>2</v>
+      </c>
+      <c r="O167" t="s">
+        <v>183</v>
+      </c>
+      <c r="P167" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q167">
+        <v>2.63</v>
+      </c>
+      <c r="R167">
+        <v>2</v>
+      </c>
+      <c r="S167">
+        <v>4.75</v>
+      </c>
+      <c r="T167">
+        <v>1.46</v>
+      </c>
+      <c r="U167">
+        <v>2.63</v>
+      </c>
+      <c r="V167">
+        <v>3.34</v>
+      </c>
+      <c r="W167">
+        <v>1.3</v>
+      </c>
+      <c r="X167">
+        <v>8.5</v>
+      </c>
+      <c r="Y167">
+        <v>1.04</v>
+      </c>
+      <c r="Z167">
+        <v>1.9</v>
+      </c>
+      <c r="AA167">
+        <v>3.3</v>
+      </c>
+      <c r="AB167">
+        <v>4.1</v>
+      </c>
+      <c r="AC167">
+        <v>1.07</v>
+      </c>
+      <c r="AD167">
+        <v>7.5</v>
+      </c>
+      <c r="AE167">
+        <v>1.42</v>
+      </c>
+      <c r="AF167">
+        <v>2.75</v>
+      </c>
+      <c r="AG167">
+        <v>2.3</v>
+      </c>
+      <c r="AH167">
+        <v>1.6</v>
+      </c>
+      <c r="AI167">
+        <v>2.1</v>
+      </c>
+      <c r="AJ167">
+        <v>1.67</v>
+      </c>
+      <c r="AK167">
+        <v>1.18</v>
+      </c>
+      <c r="AL167">
+        <v>1.31</v>
+      </c>
+      <c r="AM167">
+        <v>1.85</v>
+      </c>
+      <c r="AN167">
+        <v>2.12</v>
+      </c>
+      <c r="AO167">
+        <v>1.74</v>
+      </c>
+      <c r="AP167">
+        <v>2.07</v>
+      </c>
+      <c r="AQ167">
+        <v>1.71</v>
+      </c>
+      <c r="AR167">
+        <v>1.7</v>
+      </c>
+      <c r="AS167">
+        <v>1.51</v>
+      </c>
+      <c r="AT167">
+        <v>3.21</v>
+      </c>
+      <c r="AU167">
+        <v>6</v>
+      </c>
+      <c r="AV167">
+        <v>5</v>
+      </c>
+      <c r="AW167">
+        <v>8</v>
+      </c>
+      <c r="AX167">
+        <v>2</v>
+      </c>
+      <c r="AY167">
+        <v>14</v>
+      </c>
+      <c r="AZ167">
+        <v>7</v>
+      </c>
+      <c r="BA167">
+        <v>7</v>
+      </c>
+      <c r="BB167">
+        <v>1</v>
+      </c>
+      <c r="BC167">
+        <v>8</v>
+      </c>
+      <c r="BD167">
+        <v>1.48</v>
+      </c>
+      <c r="BE167">
+        <v>7.7</v>
+      </c>
+      <c r="BF167">
+        <v>3.4</v>
+      </c>
+      <c r="BG167">
+        <v>1.29</v>
+      </c>
+      <c r="BH167">
+        <v>3.3</v>
+      </c>
+      <c r="BI167">
+        <v>1.47</v>
+      </c>
+      <c r="BJ167">
+        <v>2.55</v>
+      </c>
+      <c r="BK167">
+        <v>2.38</v>
+      </c>
+      <c r="BL167">
+        <v>1.92</v>
+      </c>
+      <c r="BM167">
+        <v>2.28</v>
+      </c>
+      <c r="BN167">
+        <v>1.59</v>
+      </c>
+      <c r="BO167">
+        <v>2.88</v>
+      </c>
+      <c r="BP167">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1164,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP167"/>
+  <dimension ref="A1:BP168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2534,7 +2534,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ7">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3355,7 +3355,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AQ11">
         <v>1.54</v>
@@ -4800,7 +4800,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ18">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -5827,7 +5827,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AQ23">
         <v>1.56</v>
@@ -7066,7 +7066,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ29">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AR29">
         <v>2.13</v>
@@ -8096,7 +8096,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ34">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AR34">
         <v>1.38</v>
@@ -9741,7 +9741,7 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AQ42">
         <v>1.11</v>
@@ -12007,7 +12007,7 @@
         <v>1.38</v>
       </c>
       <c r="AP53">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AQ53">
         <v>0.96</v>
@@ -12628,7 +12628,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ56">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AR56">
         <v>1.32</v>
@@ -14067,7 +14067,7 @@
         <v>1.7</v>
       </c>
       <c r="AP63">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AQ63">
         <v>1.71</v>
@@ -15303,7 +15303,7 @@
         <v>1.27</v>
       </c>
       <c r="AP69">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AQ69">
         <v>1.36</v>
@@ -16748,7 +16748,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ76">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AR76">
         <v>1.41</v>
@@ -17160,7 +17160,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ78">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AR78">
         <v>1.39</v>
@@ -17981,7 +17981,7 @@
         <v>0.54</v>
       </c>
       <c r="AP82">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AQ82">
         <v>0.93</v>
@@ -19220,7 +19220,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ88">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AR88">
         <v>1.24</v>
@@ -20247,7 +20247,7 @@
         <v>2.07</v>
       </c>
       <c r="AP93">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AQ93">
         <v>2.07</v>
@@ -21277,7 +21277,7 @@
         <v>1.06</v>
       </c>
       <c r="AP98">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AQ98">
         <v>1.04</v>
@@ -22928,7 +22928,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ106">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AR106">
         <v>1.21</v>
@@ -23749,7 +23749,7 @@
         <v>0.89</v>
       </c>
       <c r="AP110">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AQ110">
         <v>1.11</v>
@@ -25400,7 +25400,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ118">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AR118">
         <v>1.31</v>
@@ -26839,7 +26839,7 @@
         <v>0.95</v>
       </c>
       <c r="AP125">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AQ125">
         <v>0.89</v>
@@ -27666,7 +27666,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ129">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AR129">
         <v>1.48</v>
@@ -28696,7 +28696,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ134">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AR134">
         <v>1.2</v>
@@ -30341,7 +30341,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AQ142">
         <v>1.11</v>
@@ -31374,7 +31374,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ147">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AR147">
         <v>1.35</v>
@@ -32195,7 +32195,7 @@
         <v>0.88</v>
       </c>
       <c r="AP151">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AQ151">
         <v>0.93</v>
@@ -33846,7 +33846,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ159">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AR159">
         <v>1.5</v>
@@ -35570,6 +35570,212 @@
       </c>
       <c r="BP167">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7487279</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45523.8125</v>
+      </c>
+      <c r="F168">
+        <v>6</v>
+      </c>
+      <c r="G168" t="s">
+        <v>70</v>
+      </c>
+      <c r="H168" t="s">
+        <v>79</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168" t="s">
+        <v>89</v>
+      </c>
+      <c r="P168" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q168">
+        <v>5</v>
+      </c>
+      <c r="R168">
+        <v>2.05</v>
+      </c>
+      <c r="S168">
+        <v>2.6</v>
+      </c>
+      <c r="T168">
+        <v>1.4</v>
+      </c>
+      <c r="U168">
+        <v>2.83</v>
+      </c>
+      <c r="V168">
+        <v>3.05</v>
+      </c>
+      <c r="W168">
+        <v>1.36</v>
+      </c>
+      <c r="X168">
+        <v>9</v>
+      </c>
+      <c r="Y168">
+        <v>1.07</v>
+      </c>
+      <c r="Z168">
+        <v>3.86</v>
+      </c>
+      <c r="AA168">
+        <v>3.12</v>
+      </c>
+      <c r="AB168">
+        <v>1.7</v>
+      </c>
+      <c r="AC168">
+        <v>1.06</v>
+      </c>
+      <c r="AD168">
+        <v>7.2</v>
+      </c>
+      <c r="AE168">
+        <v>1.28</v>
+      </c>
+      <c r="AF168">
+        <v>3.3</v>
+      </c>
+      <c r="AG168">
+        <v>1.96</v>
+      </c>
+      <c r="AH168">
+        <v>1.75</v>
+      </c>
+      <c r="AI168">
+        <v>2.1</v>
+      </c>
+      <c r="AJ168">
+        <v>1.67</v>
+      </c>
+      <c r="AK168">
+        <v>1.97</v>
+      </c>
+      <c r="AL168">
+        <v>1.26</v>
+      </c>
+      <c r="AM168">
+        <v>1.17</v>
+      </c>
+      <c r="AN168">
+        <v>0.96</v>
+      </c>
+      <c r="AO168">
+        <v>1.96</v>
+      </c>
+      <c r="AP168">
+        <v>0.96</v>
+      </c>
+      <c r="AQ168">
+        <v>1.93</v>
+      </c>
+      <c r="AR168">
+        <v>1.43</v>
+      </c>
+      <c r="AS168">
+        <v>1.51</v>
+      </c>
+      <c r="AT168">
+        <v>2.94</v>
+      </c>
+      <c r="AU168">
+        <v>2</v>
+      </c>
+      <c r="AV168">
+        <v>2</v>
+      </c>
+      <c r="AW168">
+        <v>3</v>
+      </c>
+      <c r="AX168">
+        <v>3</v>
+      </c>
+      <c r="AY168">
+        <v>5</v>
+      </c>
+      <c r="AZ168">
+        <v>5</v>
+      </c>
+      <c r="BA168">
+        <v>3</v>
+      </c>
+      <c r="BB168">
+        <v>5</v>
+      </c>
+      <c r="BC168">
+        <v>8</v>
+      </c>
+      <c r="BD168">
+        <v>2.85</v>
+      </c>
+      <c r="BE168">
+        <v>7.6</v>
+      </c>
+      <c r="BF168">
+        <v>1.62</v>
+      </c>
+      <c r="BG168">
+        <v>1.36</v>
+      </c>
+      <c r="BH168">
+        <v>2.9</v>
+      </c>
+      <c r="BI168">
+        <v>1.7</v>
+      </c>
+      <c r="BJ168">
+        <v>2.03</v>
+      </c>
+      <c r="BK168">
+        <v>2.2</v>
+      </c>
+      <c r="BL168">
+        <v>1.6</v>
+      </c>
+      <c r="BM168">
+        <v>3</v>
+      </c>
+      <c r="BN168">
+        <v>1.34</v>
+      </c>
+      <c r="BO168">
+        <v>3.6</v>
+      </c>
+      <c r="BP168">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -35712,19 +35712,19 @@
         <v>2.94</v>
       </c>
       <c r="AU168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW168">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY168">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ168">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="266">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -568,6 +568,12 @@
     <t>['84']</t>
   </si>
   <si>
+    <t>['43', '61', '73']</t>
+  </si>
+  <si>
+    <t>['49', '60', '77']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -803,6 +809,9 @@
   </si>
   <si>
     <t>['49', '88']</t>
+  </si>
+  <si>
+    <t>['22', '89']</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP168"/>
+  <dimension ref="A1:BP170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1504,7 +1513,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ2">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1629,7 +1638,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1710,7 +1719,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ3">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1913,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ4">
         <v>1.56</v>
@@ -2328,7 +2337,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ6">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2453,7 +2462,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2659,7 +2668,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2737,7 +2746,7 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ8">
         <v>0.89</v>
@@ -2865,7 +2874,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3071,7 +3080,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3149,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>1.36</v>
@@ -3277,7 +3286,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3358,7 +3367,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ11">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR11">
         <v>1.49</v>
@@ -3564,7 +3573,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ12">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>1.3</v>
@@ -3689,7 +3698,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3973,10 +3982,10 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ14">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>1.53</v>
@@ -4101,7 +4110,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4182,7 +4191,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ15">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AR15">
         <v>1.29</v>
@@ -4719,7 +4728,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4797,7 +4806,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
         <v>1.93</v>
@@ -4925,7 +4934,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5003,7 +5012,7 @@
         <v>1.67</v>
       </c>
       <c r="AP19">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ19">
         <v>1.36</v>
@@ -5131,7 +5140,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5209,10 +5218,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.69</v>
@@ -5337,7 +5346,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5418,7 +5427,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ21">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR21">
         <v>1.64</v>
@@ -5543,7 +5552,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5955,7 +5964,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6242,7 +6251,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ25">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.01</v>
@@ -6367,7 +6376,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6445,7 +6454,7 @@
         <v>0.25</v>
       </c>
       <c r="AP26">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>1.11</v>
@@ -6779,7 +6788,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -7269,10 +7278,10 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ30">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AR30">
         <v>1.49</v>
@@ -7603,7 +7612,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7684,7 +7693,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ32">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR32">
         <v>1.21</v>
@@ -8015,7 +8024,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8093,7 +8102,7 @@
         <v>2.2</v>
       </c>
       <c r="AP34">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
         <v>1.93</v>
@@ -8221,7 +8230,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8299,10 +8308,10 @@
         <v>0.6</v>
       </c>
       <c r="AP35">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ35">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.5</v>
@@ -8427,7 +8436,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8633,7 +8642,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8711,7 +8720,7 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ37">
         <v>0.89</v>
@@ -8920,7 +8929,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ38">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AR38">
         <v>1.06</v>
@@ -9126,7 +9135,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ39">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>2.03</v>
@@ -9251,7 +9260,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9329,7 +9338,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
         <v>0.96</v>
@@ -9457,7 +9466,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9663,7 +9672,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -10075,7 +10084,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10362,7 +10371,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ45">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR45">
         <v>1.37</v>
@@ -10487,7 +10496,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10568,7 +10577,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ46">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.37</v>
@@ -10693,7 +10702,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10774,7 +10783,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ47">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.34</v>
@@ -10977,10 +10986,10 @@
         <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AR48">
         <v>1.31</v>
@@ -11311,7 +11320,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11517,7 +11526,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11595,7 +11604,7 @@
         <v>1.63</v>
       </c>
       <c r="AP51">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AQ51">
         <v>1.71</v>
@@ -11801,7 +11810,7 @@
         <v>1.38</v>
       </c>
       <c r="AP52">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ52">
         <v>1.36</v>
@@ -12135,7 +12144,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12213,7 +12222,7 @@
         <v>1.38</v>
       </c>
       <c r="AP54">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ54">
         <v>2.07</v>
@@ -12341,7 +12350,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12547,7 +12556,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12753,7 +12762,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12831,7 +12840,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ57">
         <v>1.11</v>
@@ -12959,7 +12968,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13040,7 +13049,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ58">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.5</v>
@@ -13246,7 +13255,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ59">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>1.29</v>
@@ -13371,7 +13380,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13655,10 +13664,10 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AQ61">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR61">
         <v>1.27</v>
@@ -13864,7 +13873,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ62">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AR62">
         <v>1.93</v>
@@ -14273,7 +14282,7 @@
         <v>1.3</v>
       </c>
       <c r="AP64">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
         <v>0.89</v>
@@ -14607,7 +14616,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14813,7 +14822,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14891,7 +14900,7 @@
         <v>1.36</v>
       </c>
       <c r="AP67">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ67">
         <v>0.96</v>
@@ -15019,7 +15028,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15097,7 +15106,7 @@
         <v>1.7</v>
       </c>
       <c r="AP68">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AQ68">
         <v>2.07</v>
@@ -15509,7 +15518,7 @@
         <v>1.64</v>
       </c>
       <c r="AP70">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
         <v>1.71</v>
@@ -15718,7 +15727,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ71">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR71">
         <v>1.22</v>
@@ -15924,7 +15933,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ72">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>1.46</v>
@@ -16049,7 +16058,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16127,7 +16136,7 @@
         <v>1.36</v>
       </c>
       <c r="AP73">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
         <v>1.56</v>
@@ -16255,7 +16264,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16461,7 +16470,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16542,7 +16551,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ75">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AR75">
         <v>1.36</v>
@@ -16667,7 +16676,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16745,7 +16754,7 @@
         <v>2.27</v>
       </c>
       <c r="AP76">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ76">
         <v>1.93</v>
@@ -17079,7 +17088,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17157,7 +17166,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ78">
         <v>1.93</v>
@@ -17285,7 +17294,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17363,10 +17372,10 @@
         <v>1.46</v>
       </c>
       <c r="AP79">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ79">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR79">
         <v>1.41</v>
@@ -17491,7 +17500,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17984,7 +17993,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ82">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.64</v>
@@ -18109,7 +18118,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18315,7 +18324,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18393,7 +18402,7 @@
         <v>1.69</v>
       </c>
       <c r="AP84">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ84">
         <v>1.71</v>
@@ -18599,10 +18608,10 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.23</v>
@@ -18727,7 +18736,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18805,7 +18814,7 @@
         <v>1.07</v>
       </c>
       <c r="AP86">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ86">
         <v>1.11</v>
@@ -19014,7 +19023,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ87">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -19757,7 +19766,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -20041,10 +20050,10 @@
         <v>1.47</v>
       </c>
       <c r="AP92">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ92">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR92">
         <v>1.3</v>
@@ -20169,7 +20178,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20456,7 +20465,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ94">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR94">
         <v>1.23</v>
@@ -20581,7 +20590,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20865,7 +20874,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ96">
         <v>1.56</v>
@@ -20993,7 +21002,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21280,7 +21289,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ98">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AR98">
         <v>1.6</v>
@@ -21405,7 +21414,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21483,10 +21492,10 @@
         <v>0.63</v>
       </c>
       <c r="AP99">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AQ99">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AR99">
         <v>1.2</v>
@@ -21689,7 +21698,7 @@
         <v>1.38</v>
       </c>
       <c r="AP100">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ100">
         <v>0.96</v>
@@ -22229,7 +22238,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22310,7 +22319,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ103">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR103">
         <v>1.29</v>
@@ -22435,7 +22444,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22513,7 +22522,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ104">
         <v>1.56</v>
@@ -22641,7 +22650,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -23053,7 +23062,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23131,7 +23140,7 @@
         <v>2.06</v>
       </c>
       <c r="AP107">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ107">
         <v>2.07</v>
@@ -23259,7 +23268,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23340,7 +23349,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ108">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR108">
         <v>1.32</v>
@@ -23752,7 +23761,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ110">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AR110">
         <v>1.6</v>
@@ -23877,7 +23886,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -23955,7 +23964,7 @@
         <v>1.11</v>
       </c>
       <c r="AP111">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ111">
         <v>1.11</v>
@@ -24083,7 +24092,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24161,7 +24170,7 @@
         <v>1.78</v>
       </c>
       <c r="AP112">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ112">
         <v>1.71</v>
@@ -24495,7 +24504,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -24573,7 +24582,7 @@
         <v>0.83</v>
       </c>
       <c r="AP114">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AQ114">
         <v>0.89</v>
@@ -24701,7 +24710,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -24985,10 +24994,10 @@
         <v>1.05</v>
       </c>
       <c r="AP116">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ116">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AR116">
         <v>1.3</v>
@@ -25113,7 +25122,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25194,7 +25203,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ117">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR117">
         <v>1.42</v>
@@ -25319,7 +25328,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25525,7 +25534,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25606,7 +25615,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ119">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR119">
         <v>1.48</v>
@@ -25937,7 +25946,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26015,7 +26024,7 @@
         <v>1.25</v>
       </c>
       <c r="AP121">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AQ121">
         <v>1.36</v>
@@ -26143,7 +26152,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26224,7 +26233,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ122">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AR122">
         <v>1.17</v>
@@ -26349,7 +26358,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26555,7 +26564,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -26636,7 +26645,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ124">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR124">
         <v>1.77</v>
@@ -26967,7 +26976,7 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27045,7 +27054,7 @@
         <v>1.15</v>
       </c>
       <c r="AP126">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ126">
         <v>0.96</v>
@@ -27173,7 +27182,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27379,7 +27388,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27457,10 +27466,10 @@
         <v>0.86</v>
       </c>
       <c r="AP128">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ128">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR128">
         <v>1.44</v>
@@ -27585,7 +27594,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27791,7 +27800,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -27869,7 +27878,7 @@
         <v>2.1</v>
       </c>
       <c r="AP130">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ130">
         <v>2.07</v>
@@ -27997,7 +28006,7 @@
         <v>89</v>
       </c>
       <c r="P131" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28203,7 +28212,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28284,7 +28293,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ132">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AR132">
         <v>1.23</v>
@@ -28487,10 +28496,10 @@
         <v>0.95</v>
       </c>
       <c r="AP133">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ133">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR133">
         <v>1.36</v>
@@ -28615,7 +28624,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29108,7 +29117,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ136">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR136">
         <v>1.27</v>
@@ -29233,7 +29242,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29311,7 +29320,7 @@
         <v>1.33</v>
       </c>
       <c r="AP137">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ137">
         <v>1.56</v>
@@ -29439,7 +29448,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29517,7 +29526,7 @@
         <v>1.39</v>
       </c>
       <c r="AP138">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AQ138">
         <v>1.36</v>
@@ -29851,7 +29860,7 @@
         <v>168</v>
       </c>
       <c r="P140" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
@@ -29929,10 +29938,10 @@
         <v>1.13</v>
       </c>
       <c r="AP140">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ140">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AR140">
         <v>1.41</v>
@@ -30263,7 +30272,7 @@
         <v>133</v>
       </c>
       <c r="P142" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q142">
         <v>2.25</v>
@@ -30344,7 +30353,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ142">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AR142">
         <v>1.56</v>
@@ -30881,7 +30890,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31165,7 +31174,7 @@
         <v>0.88</v>
       </c>
       <c r="AP146">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ146">
         <v>0.89</v>
@@ -31580,7 +31589,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ148">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR148">
         <v>1.5</v>
@@ -31783,7 +31792,7 @@
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ149">
         <v>0.96</v>
@@ -31992,7 +32001,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ150">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR150">
         <v>1.69</v>
@@ -32117,7 +32126,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q151">
         <v>2.1</v>
@@ -32198,7 +32207,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ151">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR151">
         <v>1.54</v>
@@ -32401,7 +32410,7 @@
         <v>1.64</v>
       </c>
       <c r="AP152">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ152">
         <v>1.71</v>
@@ -32529,7 +32538,7 @@
         <v>174</v>
       </c>
       <c r="P153" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q153">
         <v>3.75</v>
@@ -32816,7 +32825,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ154">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AR154">
         <v>1.17</v>
@@ -32941,7 +32950,7 @@
         <v>113</v>
       </c>
       <c r="P155" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33019,7 +33028,7 @@
         <v>0.96</v>
       </c>
       <c r="AP155">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ155">
         <v>1.11</v>
@@ -33147,7 +33156,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q156">
         <v>6.5</v>
@@ -33431,7 +33440,7 @@
         <v>1</v>
       </c>
       <c r="AP157">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AQ157">
         <v>0.96</v>
@@ -34052,7 +34061,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ160">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AR160">
         <v>1.68</v>
@@ -34177,7 +34186,7 @@
         <v>180</v>
       </c>
       <c r="P161" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q161">
         <v>3.25</v>
@@ -34461,10 +34470,10 @@
         <v>1.54</v>
       </c>
       <c r="AP162">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ162">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR162">
         <v>1.34</v>
@@ -34589,7 +34598,7 @@
         <v>181</v>
       </c>
       <c r="P163" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q163">
         <v>3.5</v>
@@ -34667,7 +34676,7 @@
         <v>1.41</v>
       </c>
       <c r="AP163">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ163">
         <v>1.36</v>
@@ -34876,7 +34885,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ164">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR164">
         <v>1.17</v>
@@ -35082,7 +35091,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ165">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AR165">
         <v>1.34</v>
@@ -35207,7 +35216,7 @@
         <v>182</v>
       </c>
       <c r="P166" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35285,7 +35294,7 @@
         <v>1.04</v>
       </c>
       <c r="AP166">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ166">
         <v>1.11</v>
@@ -35776,6 +35785,418 @@
       </c>
       <c r="BP168">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7487282</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45527.77083333334</v>
+      </c>
+      <c r="F169">
+        <v>7</v>
+      </c>
+      <c r="G169" t="s">
+        <v>81</v>
+      </c>
+      <c r="H169" t="s">
+        <v>72</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
+      <c r="L169">
+        <v>3</v>
+      </c>
+      <c r="M169">
+        <v>2</v>
+      </c>
+      <c r="N169">
+        <v>5</v>
+      </c>
+      <c r="O169" t="s">
+        <v>184</v>
+      </c>
+      <c r="P169" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q169">
+        <v>3.4</v>
+      </c>
+      <c r="R169">
+        <v>1.95</v>
+      </c>
+      <c r="S169">
+        <v>3.5</v>
+      </c>
+      <c r="T169">
+        <v>1.44</v>
+      </c>
+      <c r="U169">
+        <v>2.68</v>
+      </c>
+      <c r="V169">
+        <v>3.26</v>
+      </c>
+      <c r="W169">
+        <v>1.32</v>
+      </c>
+      <c r="X169">
+        <v>8.4</v>
+      </c>
+      <c r="Y169">
+        <v>1.05</v>
+      </c>
+      <c r="Z169">
+        <v>2.63</v>
+      </c>
+      <c r="AA169">
+        <v>3</v>
+      </c>
+      <c r="AB169">
+        <v>2.75</v>
+      </c>
+      <c r="AC169">
+        <v>1.06</v>
+      </c>
+      <c r="AD169">
+        <v>7.5</v>
+      </c>
+      <c r="AE169">
+        <v>1.38</v>
+      </c>
+      <c r="AF169">
+        <v>2.8</v>
+      </c>
+      <c r="AG169">
+        <v>2.35</v>
+      </c>
+      <c r="AH169">
+        <v>1.57</v>
+      </c>
+      <c r="AI169">
+        <v>2</v>
+      </c>
+      <c r="AJ169">
+        <v>1.73</v>
+      </c>
+      <c r="AK169">
+        <v>1.49</v>
+      </c>
+      <c r="AL169">
+        <v>1.31</v>
+      </c>
+      <c r="AM169">
+        <v>1.38</v>
+      </c>
+      <c r="AN169">
+        <v>0.93</v>
+      </c>
+      <c r="AO169">
+        <v>1.54</v>
+      </c>
+      <c r="AP169">
+        <v>1</v>
+      </c>
+      <c r="AQ169">
+        <v>1.48</v>
+      </c>
+      <c r="AR169">
+        <v>1.23</v>
+      </c>
+      <c r="AS169">
+        <v>1.36</v>
+      </c>
+      <c r="AT169">
+        <v>2.59</v>
+      </c>
+      <c r="AU169">
+        <v>5</v>
+      </c>
+      <c r="AV169">
+        <v>4</v>
+      </c>
+      <c r="AW169">
+        <v>13</v>
+      </c>
+      <c r="AX169">
+        <v>10</v>
+      </c>
+      <c r="AY169">
+        <v>18</v>
+      </c>
+      <c r="AZ169">
+        <v>14</v>
+      </c>
+      <c r="BA169">
+        <v>7</v>
+      </c>
+      <c r="BB169">
+        <v>3</v>
+      </c>
+      <c r="BC169">
+        <v>10</v>
+      </c>
+      <c r="BD169">
+        <v>2</v>
+      </c>
+      <c r="BE169">
+        <v>6.9</v>
+      </c>
+      <c r="BF169">
+        <v>2.2</v>
+      </c>
+      <c r="BG169">
+        <v>1.36</v>
+      </c>
+      <c r="BH169">
+        <v>2.9</v>
+      </c>
+      <c r="BI169">
+        <v>1.57</v>
+      </c>
+      <c r="BJ169">
+        <v>2.25</v>
+      </c>
+      <c r="BK169">
+        <v>2.05</v>
+      </c>
+      <c r="BL169">
+        <v>1.7</v>
+      </c>
+      <c r="BM169">
+        <v>2.4</v>
+      </c>
+      <c r="BN169">
+        <v>1.5</v>
+      </c>
+      <c r="BO169">
+        <v>3.3</v>
+      </c>
+      <c r="BP169">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7487284</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45527.875</v>
+      </c>
+      <c r="F170">
+        <v>7</v>
+      </c>
+      <c r="G170" t="s">
+        <v>76</v>
+      </c>
+      <c r="H170" t="s">
+        <v>78</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>3</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>4</v>
+      </c>
+      <c r="O170" t="s">
+        <v>185</v>
+      </c>
+      <c r="P170" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q170">
+        <v>2.75</v>
+      </c>
+      <c r="R170">
+        <v>2.05</v>
+      </c>
+      <c r="S170">
+        <v>4.5</v>
+      </c>
+      <c r="T170">
+        <v>1.41</v>
+      </c>
+      <c r="U170">
+        <v>2.73</v>
+      </c>
+      <c r="V170">
+        <v>3.13</v>
+      </c>
+      <c r="W170">
+        <v>1.32</v>
+      </c>
+      <c r="X170">
+        <v>8.1</v>
+      </c>
+      <c r="Y170">
+        <v>1.06</v>
+      </c>
+      <c r="Z170">
+        <v>2.1</v>
+      </c>
+      <c r="AA170">
+        <v>3</v>
+      </c>
+      <c r="AB170">
+        <v>3.45</v>
+      </c>
+      <c r="AC170">
+        <v>1.05</v>
+      </c>
+      <c r="AD170">
+        <v>8</v>
+      </c>
+      <c r="AE170">
+        <v>1.36</v>
+      </c>
+      <c r="AF170">
+        <v>2.9</v>
+      </c>
+      <c r="AG170">
+        <v>2.05</v>
+      </c>
+      <c r="AH170">
+        <v>1.63</v>
+      </c>
+      <c r="AI170">
+        <v>2</v>
+      </c>
+      <c r="AJ170">
+        <v>1.73</v>
+      </c>
+      <c r="AK170">
+        <v>1.21</v>
+      </c>
+      <c r="AL170">
+        <v>1.27</v>
+      </c>
+      <c r="AM170">
+        <v>1.67</v>
+      </c>
+      <c r="AN170">
+        <v>1.11</v>
+      </c>
+      <c r="AO170">
+        <v>1.04</v>
+      </c>
+      <c r="AP170">
+        <v>1.17</v>
+      </c>
+      <c r="AQ170">
+        <v>1</v>
+      </c>
+      <c r="AR170">
+        <v>1.38</v>
+      </c>
+      <c r="AS170">
+        <v>1.47</v>
+      </c>
+      <c r="AT170">
+        <v>2.85</v>
+      </c>
+      <c r="AU170">
+        <v>4</v>
+      </c>
+      <c r="AV170">
+        <v>5</v>
+      </c>
+      <c r="AW170">
+        <v>9</v>
+      </c>
+      <c r="AX170">
+        <v>9</v>
+      </c>
+      <c r="AY170">
+        <v>13</v>
+      </c>
+      <c r="AZ170">
+        <v>14</v>
+      </c>
+      <c r="BA170">
+        <v>3</v>
+      </c>
+      <c r="BB170">
+        <v>2</v>
+      </c>
+      <c r="BC170">
+        <v>5</v>
+      </c>
+      <c r="BD170">
+        <v>1.57</v>
+      </c>
+      <c r="BE170">
+        <v>7.8</v>
+      </c>
+      <c r="BF170">
+        <v>3</v>
+      </c>
+      <c r="BG170">
+        <v>1.33</v>
+      </c>
+      <c r="BH170">
+        <v>3</v>
+      </c>
+      <c r="BI170">
+        <v>1.57</v>
+      </c>
+      <c r="BJ170">
+        <v>2.35</v>
+      </c>
+      <c r="BK170">
+        <v>1.95</v>
+      </c>
+      <c r="BL170">
+        <v>1.77</v>
+      </c>
+      <c r="BM170">
+        <v>2.48</v>
+      </c>
+      <c r="BN170">
+        <v>1.52</v>
+      </c>
+      <c r="BO170">
+        <v>3.2</v>
+      </c>
+      <c r="BP170">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,9 @@
     <t>['49', '60', '77']</t>
   </si>
   <si>
+    <t>['82']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -644,9 +647,6 @@
   </si>
   <si>
     <t>['70', '73']</t>
-  </si>
-  <si>
-    <t>['82']</t>
   </si>
   <si>
     <t>['87']</t>
@@ -812,6 +812,9 @@
   </si>
   <si>
     <t>['22', '89']</t>
+  </si>
+  <si>
+    <t>['67']</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP170"/>
+  <dimension ref="A1:BP172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1638,7 +1641,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -2128,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ5">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2334,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2462,7 +2465,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2540,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AQ7">
         <v>1.93</v>
@@ -2668,7 +2671,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2749,7 +2752,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ8">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR8">
         <v>0.87</v>
@@ -2874,7 +2877,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2952,7 +2955,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AQ9">
         <v>1.71</v>
@@ -3080,7 +3083,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3161,7 +3164,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AR10">
         <v>1.47</v>
@@ -3286,7 +3289,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3698,7 +3701,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3779,7 +3782,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ13">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AR13">
         <v>1.34</v>
@@ -4110,7 +4113,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4394,7 +4397,7 @@
         <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ16">
         <v>0.96</v>
@@ -4600,10 +4603,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AQ17">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AR17">
         <v>1.4</v>
@@ -4728,7 +4731,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4934,7 +4937,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5015,7 +5018,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ19">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AR19">
         <v>1.31</v>
@@ -5140,7 +5143,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5346,7 +5349,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5424,7 +5427,7 @@
         <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AQ21">
         <v>1.48</v>
@@ -5552,7 +5555,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5630,10 +5633,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ22">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AR22">
         <v>1.54</v>
@@ -5964,7 +5967,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6376,7 +6379,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6457,7 +6460,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6660,7 +6663,7 @@
         <v>1.75</v>
       </c>
       <c r="AP27">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AQ27">
         <v>0.96</v>
@@ -6788,7 +6791,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6869,7 +6872,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ28">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR28">
         <v>1.41</v>
@@ -7072,7 +7075,7 @@
         <v>2.5</v>
       </c>
       <c r="AP29">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AQ29">
         <v>1.93</v>
@@ -7484,10 +7487,10 @@
         <v>1.8</v>
       </c>
       <c r="AP31">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ31">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AR31">
         <v>1.28</v>
@@ -7612,7 +7615,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7899,7 +7902,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ33">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AR33">
         <v>1.41</v>
@@ -8024,7 +8027,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8230,7 +8233,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8436,7 +8439,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8514,7 +8517,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AQ36">
         <v>1.56</v>
@@ -8642,7 +8645,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8723,7 +8726,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ37">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR37">
         <v>1.56</v>
@@ -9132,7 +9135,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9260,7 +9263,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9466,7 +9469,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9544,7 +9547,7 @@
         <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AQ41">
         <v>1.71</v>
@@ -9672,7 +9675,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9753,7 +9756,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ42">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AR42">
         <v>1.44</v>
@@ -9956,10 +9959,10 @@
         <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AQ43">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AR43">
         <v>1.44</v>
@@ -10084,7 +10087,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10496,7 +10499,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10574,7 +10577,7 @@
         <v>0.43</v>
       </c>
       <c r="AP46">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10702,7 +10705,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10780,7 +10783,7 @@
         <v>0.57</v>
       </c>
       <c r="AP47">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -11195,7 +11198,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ49">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR49">
         <v>1.1</v>
@@ -11320,7 +11323,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11398,10 +11401,10 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AQ50">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AR50">
         <v>1.93</v>
@@ -11813,7 +11816,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ52">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AR52">
         <v>1.52</v>
@@ -12225,7 +12228,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ54">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AR54">
         <v>1.53</v>
@@ -12634,7 +12637,7 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ56">
         <v>1.93</v>
@@ -12843,7 +12846,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ57">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AR57">
         <v>1.33</v>
@@ -13046,7 +13049,7 @@
         <v>0.44</v>
       </c>
       <c r="AP58">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13458,7 +13461,7 @@
         <v>1.4</v>
       </c>
       <c r="AP60">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AQ60">
         <v>0.96</v>
@@ -13870,7 +13873,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP62">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AQ62">
         <v>1.17</v>
@@ -14285,7 +14288,7 @@
         <v>1</v>
       </c>
       <c r="AQ64">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14491,7 +14494,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ65">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AR65">
         <v>1.21</v>
@@ -14694,10 +14697,10 @@
         <v>1.18</v>
       </c>
       <c r="AP66">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AQ66">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR66">
         <v>1.23</v>
@@ -15109,7 +15112,7 @@
         <v>1</v>
       </c>
       <c r="AQ68">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AR68">
         <v>1.27</v>
@@ -15315,7 +15318,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ69">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AR69">
         <v>1.62</v>
@@ -15930,7 +15933,7 @@
         <v>1.17</v>
       </c>
       <c r="AP72">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -16345,7 +16348,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ74">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AR74">
         <v>1.39</v>
@@ -16548,7 +16551,7 @@
         <v>0.55</v>
       </c>
       <c r="AP75">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ75">
         <v>1.17</v>
@@ -16960,7 +16963,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AQ77">
         <v>0.96</v>
@@ -17581,7 +17584,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ80">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AR80">
         <v>1.31</v>
@@ -17787,7 +17790,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ81">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR81">
         <v>1.27</v>
@@ -18196,10 +18199,10 @@
         <v>1.31</v>
       </c>
       <c r="AP83">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AQ83">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AR83">
         <v>1.24</v>
@@ -18817,7 +18820,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ86">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AR86">
         <v>1.45</v>
@@ -19020,7 +19023,7 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AQ87">
         <v>1.17</v>
@@ -19432,10 +19435,10 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AQ89">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR89">
         <v>1.81</v>
@@ -19847,7 +19850,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ91">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AR91">
         <v>1.34</v>
@@ -20259,7 +20262,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ93">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AR93">
         <v>1.6</v>
@@ -20462,7 +20465,7 @@
         <v>0.67</v>
       </c>
       <c r="AP94">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AQ94">
         <v>1</v>
@@ -20668,7 +20671,7 @@
         <v>1.67</v>
       </c>
       <c r="AP95">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ95">
         <v>1.71</v>
@@ -21083,7 +21086,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ97">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AR97">
         <v>1.2</v>
@@ -21904,7 +21907,7 @@
         <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AQ101">
         <v>1.71</v>
@@ -22110,10 +22113,10 @@
         <v>0.88</v>
       </c>
       <c r="AP102">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AQ102">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR102">
         <v>1.45</v>
@@ -22650,7 +22653,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22731,7 +22734,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ105">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AR105">
         <v>1.45</v>
@@ -22934,7 +22937,7 @@
         <v>2.06</v>
       </c>
       <c r="AP106">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AQ106">
         <v>1.93</v>
@@ -23143,7 +23146,7 @@
         <v>1</v>
       </c>
       <c r="AQ107">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AR107">
         <v>1.51</v>
@@ -23346,7 +23349,7 @@
         <v>1.53</v>
       </c>
       <c r="AP108">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ108">
         <v>1.48</v>
@@ -23967,7 +23970,7 @@
         <v>1</v>
       </c>
       <c r="AQ111">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AR111">
         <v>1.48</v>
@@ -24376,10 +24379,10 @@
         <v>1.39</v>
       </c>
       <c r="AP113">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AQ113">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AR113">
         <v>1.78</v>
@@ -24585,7 +24588,7 @@
         <v>1</v>
       </c>
       <c r="AQ114">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR114">
         <v>1.26</v>
@@ -24788,10 +24791,10 @@
         <v>2.17</v>
       </c>
       <c r="AP115">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AQ115">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AR115">
         <v>1.2</v>
@@ -25200,7 +25203,7 @@
         <v>1.53</v>
       </c>
       <c r="AP117">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AQ117">
         <v>1.48</v>
@@ -25328,7 +25331,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25818,7 +25821,7 @@
         <v>1.5</v>
       </c>
       <c r="AP120">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ120">
         <v>1.56</v>
@@ -26027,7 +26030,7 @@
         <v>1</v>
       </c>
       <c r="AQ121">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AR121">
         <v>1.22</v>
@@ -26230,7 +26233,7 @@
         <v>0.95</v>
       </c>
       <c r="AP122">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AQ122">
         <v>1.17</v>
@@ -26642,7 +26645,7 @@
         <v>1.6</v>
       </c>
       <c r="AP124">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AQ124">
         <v>1.48</v>
@@ -26851,7 +26854,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ125">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR125">
         <v>1.61</v>
@@ -27260,7 +27263,7 @@
         <v>1.4</v>
       </c>
       <c r="AP127">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AQ127">
         <v>1.56</v>
@@ -27881,7 +27884,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ130">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AR130">
         <v>1.41</v>
@@ -28087,7 +28090,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ131">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AR131">
         <v>1.28</v>
@@ -28290,7 +28293,7 @@
         <v>1.1</v>
       </c>
       <c r="AP132">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ132">
         <v>1</v>
@@ -28702,7 +28705,7 @@
         <v>2.18</v>
       </c>
       <c r="AP134">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AQ134">
         <v>1.93</v>
@@ -28911,7 +28914,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ135">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AR135">
         <v>1.47</v>
@@ -29114,7 +29117,7 @@
         <v>1.59</v>
       </c>
       <c r="AP136">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ136">
         <v>1.48</v>
@@ -29529,7 +29532,7 @@
         <v>1</v>
       </c>
       <c r="AQ138">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AR138">
         <v>1.21</v>
@@ -29735,7 +29738,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ139">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AR139">
         <v>1.38</v>
@@ -30144,7 +30147,7 @@
         <v>1.61</v>
       </c>
       <c r="AP141">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ141">
         <v>1.71</v>
@@ -30559,7 +30562,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ143">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AR143">
         <v>1.19</v>
@@ -30762,7 +30765,7 @@
         <v>1.04</v>
       </c>
       <c r="AP144">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AQ144">
         <v>0.96</v>
@@ -30968,7 +30971,7 @@
         <v>1.39</v>
       </c>
       <c r="AP145">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AQ145">
         <v>1.56</v>
@@ -31177,7 +31180,7 @@
         <v>1</v>
       </c>
       <c r="AQ146">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR146">
         <v>1.51</v>
@@ -31380,7 +31383,7 @@
         <v>2.13</v>
       </c>
       <c r="AP147">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AQ147">
         <v>1.93</v>
@@ -31998,7 +32001,7 @@
         <v>1.63</v>
       </c>
       <c r="AP150">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AQ150">
         <v>1.48</v>
@@ -32619,7 +32622,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ153">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AR153">
         <v>1.41</v>
@@ -33031,7 +33034,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ155">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AR155">
         <v>1.36</v>
@@ -33234,10 +33237,10 @@
         <v>2.17</v>
       </c>
       <c r="AP156">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ156">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AR156">
         <v>1.33</v>
@@ -33646,7 +33649,7 @@
         <v>1.52</v>
       </c>
       <c r="AP158">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AQ158">
         <v>1.56</v>
@@ -34058,7 +34061,7 @@
         <v>1.12</v>
       </c>
       <c r="AP160">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AQ160">
         <v>1</v>
@@ -34264,10 +34267,10 @@
         <v>0.92</v>
       </c>
       <c r="AP161">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AQ161">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR161">
         <v>1.19</v>
@@ -34679,7 +34682,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ163">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AR163">
         <v>1.34</v>
@@ -35088,7 +35091,7 @@
         <v>1.11</v>
       </c>
       <c r="AP165">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ165">
         <v>1.17</v>
@@ -35297,7 +35300,7 @@
         <v>1</v>
       </c>
       <c r="AQ166">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AR166">
         <v>1.48</v>
@@ -35500,7 +35503,7 @@
         <v>1.74</v>
       </c>
       <c r="AP167">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AQ167">
         <v>1.71</v>
@@ -36197,6 +36200,418 @@
       </c>
       <c r="BP170">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7487283</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45528.72916666666</v>
+      </c>
+      <c r="F171">
+        <v>7</v>
+      </c>
+      <c r="G171" t="s">
+        <v>75</v>
+      </c>
+      <c r="H171" t="s">
+        <v>73</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <v>2</v>
+      </c>
+      <c r="O171" t="s">
+        <v>186</v>
+      </c>
+      <c r="P171" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q171">
+        <v>2.5</v>
+      </c>
+      <c r="R171">
+        <v>2.1</v>
+      </c>
+      <c r="S171">
+        <v>4.75</v>
+      </c>
+      <c r="T171">
+        <v>1.43</v>
+      </c>
+      <c r="U171">
+        <v>2.65</v>
+      </c>
+      <c r="V171">
+        <v>3.24</v>
+      </c>
+      <c r="W171">
+        <v>1.3</v>
+      </c>
+      <c r="X171">
+        <v>8.5</v>
+      </c>
+      <c r="Y171">
+        <v>1.05</v>
+      </c>
+      <c r="Z171">
+        <v>1.8</v>
+      </c>
+      <c r="AA171">
+        <v>3.4</v>
+      </c>
+      <c r="AB171">
+        <v>4.33</v>
+      </c>
+      <c r="AC171">
+        <v>1.06</v>
+      </c>
+      <c r="AD171">
+        <v>7.5</v>
+      </c>
+      <c r="AE171">
+        <v>1.38</v>
+      </c>
+      <c r="AF171">
+        <v>2.8</v>
+      </c>
+      <c r="AG171">
+        <v>2.05</v>
+      </c>
+      <c r="AH171">
+        <v>1.75</v>
+      </c>
+      <c r="AI171">
+        <v>1.83</v>
+      </c>
+      <c r="AJ171">
+        <v>1.83</v>
+      </c>
+      <c r="AK171">
+        <v>1.18</v>
+      </c>
+      <c r="AL171">
+        <v>1.26</v>
+      </c>
+      <c r="AM171">
+        <v>1.73</v>
+      </c>
+      <c r="AN171">
+        <v>1.36</v>
+      </c>
+      <c r="AO171">
+        <v>0.89</v>
+      </c>
+      <c r="AP171">
+        <v>1.34</v>
+      </c>
+      <c r="AQ171">
+        <v>0.9</v>
+      </c>
+      <c r="AR171">
+        <v>1.31</v>
+      </c>
+      <c r="AS171">
+        <v>1.35</v>
+      </c>
+      <c r="AT171">
+        <v>2.66</v>
+      </c>
+      <c r="AU171">
+        <v>6</v>
+      </c>
+      <c r="AV171">
+        <v>7</v>
+      </c>
+      <c r="AW171">
+        <v>13</v>
+      </c>
+      <c r="AX171">
+        <v>2</v>
+      </c>
+      <c r="AY171">
+        <v>19</v>
+      </c>
+      <c r="AZ171">
+        <v>9</v>
+      </c>
+      <c r="BA171">
+        <v>11</v>
+      </c>
+      <c r="BB171">
+        <v>3</v>
+      </c>
+      <c r="BC171">
+        <v>14</v>
+      </c>
+      <c r="BD171">
+        <v>1.6</v>
+      </c>
+      <c r="BE171">
+        <v>8.1</v>
+      </c>
+      <c r="BF171">
+        <v>2.85</v>
+      </c>
+      <c r="BG171">
+        <v>1.33</v>
+      </c>
+      <c r="BH171">
+        <v>3</v>
+      </c>
+      <c r="BI171">
+        <v>1.57</v>
+      </c>
+      <c r="BJ171">
+        <v>2.25</v>
+      </c>
+      <c r="BK171">
+        <v>1.95</v>
+      </c>
+      <c r="BL171">
+        <v>1.77</v>
+      </c>
+      <c r="BM171">
+        <v>2.4</v>
+      </c>
+      <c r="BN171">
+        <v>1.5</v>
+      </c>
+      <c r="BO171">
+        <v>3.2</v>
+      </c>
+      <c r="BP171">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7487285</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45528.83333333334</v>
+      </c>
+      <c r="F172">
+        <v>7</v>
+      </c>
+      <c r="G172" t="s">
+        <v>77</v>
+      </c>
+      <c r="H172" t="s">
+        <v>74</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172">
+        <v>1</v>
+      </c>
+      <c r="O172" t="s">
+        <v>89</v>
+      </c>
+      <c r="P172" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q172">
+        <v>6.5</v>
+      </c>
+      <c r="R172">
+        <v>2.25</v>
+      </c>
+      <c r="S172">
+        <v>2.05</v>
+      </c>
+      <c r="T172">
+        <v>1.38</v>
+      </c>
+      <c r="U172">
+        <v>2.9</v>
+      </c>
+      <c r="V172">
+        <v>2.77</v>
+      </c>
+      <c r="W172">
+        <v>1.41</v>
+      </c>
+      <c r="X172">
+        <v>6.85</v>
+      </c>
+      <c r="Y172">
+        <v>1.08</v>
+      </c>
+      <c r="Z172">
+        <v>6</v>
+      </c>
+      <c r="AA172">
+        <v>4.1</v>
+      </c>
+      <c r="AB172">
+        <v>1.48</v>
+      </c>
+      <c r="AC172">
+        <v>1.01</v>
+      </c>
+      <c r="AD172">
+        <v>9.4</v>
+      </c>
+      <c r="AE172">
+        <v>1.26</v>
+      </c>
+      <c r="AF172">
+        <v>3.34</v>
+      </c>
+      <c r="AG172">
+        <v>1.95</v>
+      </c>
+      <c r="AH172">
+        <v>1.85</v>
+      </c>
+      <c r="AI172">
+        <v>2.1</v>
+      </c>
+      <c r="AJ172">
+        <v>1.67</v>
+      </c>
+      <c r="AK172">
+        <v>2.78</v>
+      </c>
+      <c r="AL172">
+        <v>1.17</v>
+      </c>
+      <c r="AM172">
+        <v>1.05</v>
+      </c>
+      <c r="AN172">
+        <v>1.11</v>
+      </c>
+      <c r="AO172">
+        <v>2.07</v>
+      </c>
+      <c r="AP172">
+        <v>1.07</v>
+      </c>
+      <c r="AQ172">
+        <v>2.11</v>
+      </c>
+      <c r="AR172">
+        <v>1.2</v>
+      </c>
+      <c r="AS172">
+        <v>1.71</v>
+      </c>
+      <c r="AT172">
+        <v>2.91</v>
+      </c>
+      <c r="AU172">
+        <v>2</v>
+      </c>
+      <c r="AV172">
+        <v>2</v>
+      </c>
+      <c r="AW172">
+        <v>4</v>
+      </c>
+      <c r="AX172">
+        <v>5</v>
+      </c>
+      <c r="AY172">
+        <v>6</v>
+      </c>
+      <c r="AZ172">
+        <v>7</v>
+      </c>
+      <c r="BA172">
+        <v>7</v>
+      </c>
+      <c r="BB172">
+        <v>6</v>
+      </c>
+      <c r="BC172">
+        <v>13</v>
+      </c>
+      <c r="BD172">
+        <v>3.2</v>
+      </c>
+      <c r="BE172">
+        <v>9</v>
+      </c>
+      <c r="BF172">
+        <v>1.48</v>
+      </c>
+      <c r="BG172">
+        <v>1.25</v>
+      </c>
+      <c r="BH172">
+        <v>3.6</v>
+      </c>
+      <c r="BI172">
+        <v>1.42</v>
+      </c>
+      <c r="BJ172">
+        <v>2.62</v>
+      </c>
+      <c r="BK172">
+        <v>2.1</v>
+      </c>
+      <c r="BL172">
+        <v>1.77</v>
+      </c>
+      <c r="BM172">
+        <v>2.1</v>
+      </c>
+      <c r="BN172">
+        <v>1.67</v>
+      </c>
+      <c r="BO172">
+        <v>2.62</v>
+      </c>
+      <c r="BP172">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="268">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,10 +577,13 @@
     <t>['82']</t>
   </si>
   <si>
-    <t>['62']</t>
+    <t>['85']</t>
   </si>
   <si>
-    <t>['85']</t>
+    <t>['-1']</t>
+  </si>
+  <si>
+    <t>['62']</t>
   </si>
   <si>
     <t>['44', '85']</t>
@@ -1176,7 +1179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP172"/>
+  <dimension ref="A1:BP174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1513,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AQ2">
         <v>1.17</v>
@@ -1641,7 +1644,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1719,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1928,7 +1931,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ4">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2465,7 +2468,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2546,7 +2549,7 @@
         <v>1.34</v>
       </c>
       <c r="AQ7">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2671,7 +2674,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2877,7 +2880,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2958,7 +2961,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ9">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AR9">
         <v>1.58</v>
@@ -3083,7 +3086,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3289,7 +3292,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3367,7 +3370,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AQ11">
         <v>1.48</v>
@@ -3573,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3701,7 +3704,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3779,7 +3782,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AQ13">
         <v>2.11</v>
@@ -4113,7 +4116,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4191,7 +4194,7 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AQ15">
         <v>1.17</v>
@@ -4400,7 +4403,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ16">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AR16">
         <v>1.54</v>
@@ -4731,7 +4734,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4812,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -4937,7 +4940,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5143,7 +5146,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5349,7 +5352,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5555,7 +5558,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5839,10 +5842,10 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AQ23">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -5967,7 +5970,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6045,10 +6048,10 @@
         <v>1.67</v>
       </c>
       <c r="AP24">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AQ24">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AR24">
         <v>1.25</v>
@@ -6251,7 +6254,7 @@
         <v>0.75</v>
       </c>
       <c r="AP25">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6379,7 +6382,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6666,7 +6669,7 @@
         <v>1.34</v>
       </c>
       <c r="AQ27">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AR27">
         <v>1.52</v>
@@ -6791,7 +6794,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6869,7 +6872,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AQ28">
         <v>0.9</v>
@@ -7078,7 +7081,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ29">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AR29">
         <v>2.13</v>
@@ -7615,7 +7618,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7693,7 +7696,7 @@
         <v>1.6</v>
       </c>
       <c r="AP32">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AQ32">
         <v>1.48</v>
@@ -7899,7 +7902,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AQ33">
         <v>2.11</v>
@@ -8027,7 +8030,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8108,7 +8111,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AR34">
         <v>1.38</v>
@@ -8233,7 +8236,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8439,7 +8442,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8520,7 +8523,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ36">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR36">
         <v>1.5</v>
@@ -8645,7 +8648,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8929,7 +8932,7 @@
         <v>0.83</v>
       </c>
       <c r="AP38">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38">
         <v>1.17</v>
@@ -9263,7 +9266,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9344,7 +9347,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AR40">
         <v>1.34</v>
@@ -9469,7 +9472,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9550,7 +9553,7 @@
         <v>1.34</v>
       </c>
       <c r="AQ41">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AR41">
         <v>1.42</v>
@@ -9675,7 +9678,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9753,7 +9756,7 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AQ42">
         <v>1.07</v>
@@ -10087,7 +10090,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10165,10 +10168,10 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AQ44">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
         <v>1.33</v>
@@ -10371,7 +10374,7 @@
         <v>1.71</v>
       </c>
       <c r="AP45">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AQ45">
         <v>1.48</v>
@@ -10499,7 +10502,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10705,7 +10708,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -11195,7 +11198,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
         <v>0.9</v>
@@ -11529,7 +11532,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11610,7 +11613,7 @@
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -12019,10 +12022,10 @@
         <v>1.38</v>
       </c>
       <c r="AP53">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AQ53">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AR53">
         <v>1.55</v>
@@ -12147,7 +12150,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12353,7 +12356,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12431,10 +12434,10 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AQ55">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR55">
         <v>1.34</v>
@@ -12559,7 +12562,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12640,7 +12643,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ56">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AR56">
         <v>1.32</v>
@@ -12765,7 +12768,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12971,7 +12974,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13255,7 +13258,7 @@
         <v>1.11</v>
       </c>
       <c r="AP59">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13383,7 +13386,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13464,7 +13467,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ60">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AR60">
         <v>1.22</v>
@@ -14079,10 +14082,10 @@
         <v>1.7</v>
       </c>
       <c r="AP63">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AQ63">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AR63">
         <v>1.55</v>
@@ -14491,7 +14494,7 @@
         <v>1.1</v>
       </c>
       <c r="AP65">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
         <v>1.34</v>
@@ -14619,7 +14622,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14825,7 +14828,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14906,7 +14909,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ67">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AR67">
         <v>1.34</v>
@@ -15031,7 +15034,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15315,7 +15318,7 @@
         <v>1.27</v>
       </c>
       <c r="AP69">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AQ69">
         <v>1.34</v>
@@ -15524,7 +15527,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AR70">
         <v>1.35</v>
@@ -15727,7 +15730,7 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71">
         <v>1.48</v>
@@ -16061,7 +16064,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16142,7 +16145,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR73">
         <v>1.25</v>
@@ -16267,7 +16270,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16345,7 +16348,7 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AQ74">
         <v>1.07</v>
@@ -16473,7 +16476,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16679,7 +16682,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16760,7 +16763,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ76">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AR76">
         <v>1.41</v>
@@ -16966,7 +16969,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ77">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AR77">
         <v>1.87</v>
@@ -17091,7 +17094,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17172,7 +17175,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ78">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AR78">
         <v>1.39</v>
@@ -17297,7 +17300,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17503,7 +17506,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17581,7 +17584,7 @@
         <v>1.92</v>
       </c>
       <c r="AP80">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ80">
         <v>2.11</v>
@@ -17787,7 +17790,7 @@
         <v>1.08</v>
       </c>
       <c r="AP81">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AQ81">
         <v>0.9</v>
@@ -17993,7 +17996,7 @@
         <v>0.54</v>
       </c>
       <c r="AP82">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -18121,7 +18124,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18327,7 +18330,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18408,7 +18411,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ84">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AR84">
         <v>1.38</v>
@@ -18739,7 +18742,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -19229,10 +19232,10 @@
         <v>2.29</v>
       </c>
       <c r="AP88">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AR88">
         <v>1.24</v>
@@ -19641,10 +19644,10 @@
         <v>1.36</v>
       </c>
       <c r="AP90">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AQ90">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AR90">
         <v>1.42</v>
@@ -19769,7 +19772,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19847,7 +19850,7 @@
         <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AQ91">
         <v>1.34</v>
@@ -20181,7 +20184,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20259,7 +20262,7 @@
         <v>2.07</v>
       </c>
       <c r="AP93">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AQ93">
         <v>2.11</v>
@@ -20593,7 +20596,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20674,7 +20677,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ95">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AR95">
         <v>1.32</v>
@@ -20880,7 +20883,7 @@
         <v>1</v>
       </c>
       <c r="AQ96">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR96">
         <v>1.51</v>
@@ -21005,7 +21008,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21083,7 +21086,7 @@
         <v>1.19</v>
       </c>
       <c r="AP97">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97">
         <v>1.07</v>
@@ -21289,7 +21292,7 @@
         <v>1.06</v>
       </c>
       <c r="AP98">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AQ98">
         <v>1</v>
@@ -21417,7 +21420,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21704,7 +21707,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ100">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AR100">
         <v>1.48</v>
@@ -21910,7 +21913,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ101">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AR101">
         <v>1.8</v>
@@ -22241,7 +22244,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22319,7 +22322,7 @@
         <v>0.65</v>
       </c>
       <c r="AP103">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AQ103">
         <v>1</v>
@@ -22447,7 +22450,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22528,7 +22531,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ104">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR104">
         <v>1.3</v>
@@ -22653,7 +22656,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22731,7 +22734,7 @@
         <v>1.47</v>
       </c>
       <c r="AP105">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AQ105">
         <v>1.34</v>
@@ -22940,7 +22943,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ106">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AR106">
         <v>1.21</v>
@@ -23065,7 +23068,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23271,7 +23274,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23555,10 +23558,10 @@
         <v>1.28</v>
       </c>
       <c r="AP109">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ109">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AR109">
         <v>1.21</v>
@@ -23761,7 +23764,7 @@
         <v>0.89</v>
       </c>
       <c r="AP110">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AQ110">
         <v>1.17</v>
@@ -23889,7 +23892,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24095,7 +24098,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24176,7 +24179,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ112">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AR112">
         <v>1.5</v>
@@ -24507,7 +24510,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -24713,7 +24716,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -25125,7 +25128,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25331,7 +25334,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25409,10 +25412,10 @@
         <v>2.05</v>
       </c>
       <c r="AP118">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AQ118">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AR118">
         <v>1.31</v>
@@ -25537,7 +25540,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25615,7 +25618,7 @@
         <v>0.79</v>
       </c>
       <c r="AP119">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AQ119">
         <v>1</v>
@@ -25824,7 +25827,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ120">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR120">
         <v>1.29</v>
@@ -25949,7 +25952,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26155,7 +26158,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26361,7 +26364,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26439,10 +26442,10 @@
         <v>1.75</v>
       </c>
       <c r="AP123">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ123">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AR123">
         <v>1.18</v>
@@ -26567,7 +26570,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -26851,7 +26854,7 @@
         <v>0.95</v>
       </c>
       <c r="AP125">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AQ125">
         <v>0.9</v>
@@ -26979,7 +26982,7 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27060,7 +27063,7 @@
         <v>1</v>
       </c>
       <c r="AQ126">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AR126">
         <v>1.58</v>
@@ -27185,7 +27188,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27266,7 +27269,7 @@
         <v>1.34</v>
       </c>
       <c r="AQ127">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR127">
         <v>1.39</v>
@@ -27391,7 +27394,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27597,7 +27600,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27675,10 +27678,10 @@
         <v>2.14</v>
       </c>
       <c r="AP129">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AQ129">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AR129">
         <v>1.48</v>
@@ -27803,7 +27806,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -28009,7 +28012,7 @@
         <v>89</v>
       </c>
       <c r="P131" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28087,7 +28090,7 @@
         <v>0.95</v>
       </c>
       <c r="AP131">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AQ131">
         <v>1.07</v>
@@ -28215,7 +28218,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28627,7 +28630,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -28708,7 +28711,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ134">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AR134">
         <v>1.2</v>
@@ -28911,7 +28914,7 @@
         <v>1.41</v>
       </c>
       <c r="AP135">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AQ135">
         <v>1.34</v>
@@ -29245,7 +29248,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29326,7 +29329,7 @@
         <v>1</v>
       </c>
       <c r="AQ137">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR137">
         <v>1.57</v>
@@ -29451,7 +29454,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29735,7 +29738,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AQ139">
         <v>1.07</v>
@@ -29863,7 +29866,7 @@
         <v>168</v>
       </c>
       <c r="P140" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
@@ -30150,7 +30153,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ141">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AR141">
         <v>1.28</v>
@@ -30275,7 +30278,7 @@
         <v>133</v>
       </c>
       <c r="P142" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q142">
         <v>2.25</v>
@@ -30353,7 +30356,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AQ142">
         <v>1.17</v>
@@ -30559,7 +30562,7 @@
         <v>2.14</v>
       </c>
       <c r="AP143">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ143">
         <v>2.11</v>
@@ -30768,7 +30771,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ144">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AR144">
         <v>1.69</v>
@@ -30893,7 +30896,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -30974,7 +30977,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ145">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR145">
         <v>1.2</v>
@@ -31386,7 +31389,7 @@
         <v>1.34</v>
       </c>
       <c r="AQ147">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AR147">
         <v>1.35</v>
@@ -31589,7 +31592,7 @@
         <v>0.92</v>
       </c>
       <c r="AP148">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AQ148">
         <v>1</v>
@@ -31798,7 +31801,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ149">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AR149">
         <v>1.36</v>
@@ -32129,7 +32132,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q151">
         <v>2.1</v>
@@ -32207,7 +32210,7 @@
         <v>0.88</v>
       </c>
       <c r="AP151">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AQ151">
         <v>1</v>
@@ -32416,7 +32419,7 @@
         <v>1</v>
       </c>
       <c r="AQ152">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AR152">
         <v>1.52</v>
@@ -32541,7 +32544,7 @@
         <v>174</v>
       </c>
       <c r="P153" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q153">
         <v>3.75</v>
@@ -32619,7 +32622,7 @@
         <v>1.44</v>
       </c>
       <c r="AP153">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AQ153">
         <v>1.34</v>
@@ -32825,7 +32828,7 @@
         <v>1.08</v>
       </c>
       <c r="AP154">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ154">
         <v>1.17</v>
@@ -32953,7 +32956,7 @@
         <v>113</v>
       </c>
       <c r="P155" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33159,7 +33162,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q156">
         <v>6.5</v>
@@ -33446,7 +33449,7 @@
         <v>1</v>
       </c>
       <c r="AQ157">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AR157">
         <v>1.22</v>
@@ -33652,7 +33655,7 @@
         <v>1.34</v>
       </c>
       <c r="AQ158">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR158">
         <v>1.33</v>
@@ -33855,10 +33858,10 @@
         <v>2.04</v>
       </c>
       <c r="AP159">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AQ159">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AR159">
         <v>1.5</v>
@@ -34189,7 +34192,7 @@
         <v>180</v>
       </c>
       <c r="P161" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q161">
         <v>3.25</v>
@@ -34601,7 +34604,7 @@
         <v>181</v>
       </c>
       <c r="P163" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q163">
         <v>3.5</v>
@@ -34885,7 +34888,7 @@
         <v>0.96</v>
       </c>
       <c r="AP164">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ164">
         <v>1</v>
@@ -35219,7 +35222,7 @@
         <v>182</v>
       </c>
       <c r="P166" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35506,7 +35509,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ167">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AR167">
         <v>1.7</v>
@@ -35709,10 +35712,10 @@
         <v>1.96</v>
       </c>
       <c r="AP168">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AQ168">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AR168">
         <v>1.43</v>
@@ -35837,7 +35840,7 @@
         <v>184</v>
       </c>
       <c r="P169" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q169">
         <v>3.4</v>
@@ -36043,7 +36046,7 @@
         <v>185</v>
       </c>
       <c r="P170" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36455,7 +36458,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q172">
         <v>6.5</v>
@@ -36612,6 +36615,418 @@
       </c>
       <c r="BP172">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7487280</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45529.70833333334</v>
+      </c>
+      <c r="F173">
+        <v>7</v>
+      </c>
+      <c r="G173" t="s">
+        <v>71</v>
+      </c>
+      <c r="H173" t="s">
+        <v>70</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>1</v>
+      </c>
+      <c r="O173" t="s">
+        <v>187</v>
+      </c>
+      <c r="P173" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q173">
+        <v>2.75</v>
+      </c>
+      <c r="R173">
+        <v>2</v>
+      </c>
+      <c r="S173">
+        <v>4.75</v>
+      </c>
+      <c r="T173">
+        <v>1.46</v>
+      </c>
+      <c r="U173">
+        <v>2.55</v>
+      </c>
+      <c r="V173">
+        <v>3.5</v>
+      </c>
+      <c r="W173">
+        <v>1.26</v>
+      </c>
+      <c r="X173">
+        <v>8.5</v>
+      </c>
+      <c r="Y173">
+        <v>1.04</v>
+      </c>
+      <c r="Z173">
+        <v>1.91</v>
+      </c>
+      <c r="AA173">
+        <v>3.1</v>
+      </c>
+      <c r="AB173">
+        <v>4</v>
+      </c>
+      <c r="AC173">
+        <v>1.08</v>
+      </c>
+      <c r="AD173">
+        <v>6.5</v>
+      </c>
+      <c r="AE173">
+        <v>1.44</v>
+      </c>
+      <c r="AF173">
+        <v>2.6</v>
+      </c>
+      <c r="AG173">
+        <v>2.4</v>
+      </c>
+      <c r="AH173">
+        <v>1.53</v>
+      </c>
+      <c r="AI173">
+        <v>2.1</v>
+      </c>
+      <c r="AJ173">
+        <v>1.67</v>
+      </c>
+      <c r="AK173">
+        <v>1.22</v>
+      </c>
+      <c r="AL173">
+        <v>1.3</v>
+      </c>
+      <c r="AM173">
+        <v>1.95</v>
+      </c>
+      <c r="AN173">
+        <v>1.71</v>
+      </c>
+      <c r="AO173">
+        <v>0.96</v>
+      </c>
+      <c r="AP173">
+        <v>1.76</v>
+      </c>
+      <c r="AQ173">
+        <v>0.93</v>
+      </c>
+      <c r="AR173">
+        <v>1.49</v>
+      </c>
+      <c r="AS173">
+        <v>1.4</v>
+      </c>
+      <c r="AT173">
+        <v>2.89</v>
+      </c>
+      <c r="AU173">
+        <v>6</v>
+      </c>
+      <c r="AV173">
+        <v>3</v>
+      </c>
+      <c r="AW173">
+        <v>6</v>
+      </c>
+      <c r="AX173">
+        <v>5</v>
+      </c>
+      <c r="AY173">
+        <v>12</v>
+      </c>
+      <c r="AZ173">
+        <v>8</v>
+      </c>
+      <c r="BA173">
+        <v>5</v>
+      </c>
+      <c r="BB173">
+        <v>7</v>
+      </c>
+      <c r="BC173">
+        <v>12</v>
+      </c>
+      <c r="BD173">
+        <v>1.58</v>
+      </c>
+      <c r="BE173">
+        <v>7.5</v>
+      </c>
+      <c r="BF173">
+        <v>3</v>
+      </c>
+      <c r="BG173">
+        <v>1.36</v>
+      </c>
+      <c r="BH173">
+        <v>2.88</v>
+      </c>
+      <c r="BI173">
+        <v>1.7</v>
+      </c>
+      <c r="BJ173">
+        <v>2.05</v>
+      </c>
+      <c r="BK173">
+        <v>2.05</v>
+      </c>
+      <c r="BL173">
+        <v>1.75</v>
+      </c>
+      <c r="BM173">
+        <v>2.6</v>
+      </c>
+      <c r="BN173">
+        <v>1.44</v>
+      </c>
+      <c r="BO173">
+        <v>3.3</v>
+      </c>
+      <c r="BP173">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7487281</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45529.8125</v>
+      </c>
+      <c r="F174">
+        <v>7</v>
+      </c>
+      <c r="G174" t="s">
+        <v>79</v>
+      </c>
+      <c r="H174" t="s">
+        <v>80</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>1</v>
+      </c>
+      <c r="O174" t="s">
+        <v>188</v>
+      </c>
+      <c r="P174" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q174">
+        <v>2.63</v>
+      </c>
+      <c r="R174">
+        <v>2.05</v>
+      </c>
+      <c r="S174">
+        <v>4.75</v>
+      </c>
+      <c r="T174">
+        <v>1.42</v>
+      </c>
+      <c r="U174">
+        <v>2.62</v>
+      </c>
+      <c r="V174">
+        <v>2.9</v>
+      </c>
+      <c r="W174">
+        <v>1.36</v>
+      </c>
+      <c r="X174">
+        <v>7</v>
+      </c>
+      <c r="Y174">
+        <v>1.07</v>
+      </c>
+      <c r="Z174">
+        <v>1.9</v>
+      </c>
+      <c r="AA174">
+        <v>3.2</v>
+      </c>
+      <c r="AB174">
+        <v>4.1</v>
+      </c>
+      <c r="AC174">
+        <v>1.04</v>
+      </c>
+      <c r="AD174">
+        <v>8.5</v>
+      </c>
+      <c r="AE174">
+        <v>1.33</v>
+      </c>
+      <c r="AF174">
+        <v>3</v>
+      </c>
+      <c r="AG174">
+        <v>2.25</v>
+      </c>
+      <c r="AH174">
+        <v>1.62</v>
+      </c>
+      <c r="AI174">
+        <v>2</v>
+      </c>
+      <c r="AJ174">
+        <v>1.73</v>
+      </c>
+      <c r="AK174">
+        <v>1.17</v>
+      </c>
+      <c r="AL174">
+        <v>1.29</v>
+      </c>
+      <c r="AM174">
+        <v>2.15</v>
+      </c>
+      <c r="AN174">
+        <v>1.93</v>
+      </c>
+      <c r="AO174">
+        <v>1.56</v>
+      </c>
+      <c r="AP174">
+        <v>1.97</v>
+      </c>
+      <c r="AQ174">
+        <v>1.5</v>
+      </c>
+      <c r="AR174">
+        <v>1.5</v>
+      </c>
+      <c r="AS174">
+        <v>1.18</v>
+      </c>
+      <c r="AT174">
+        <v>2.68</v>
+      </c>
+      <c r="AU174">
+        <v>3</v>
+      </c>
+      <c r="AV174">
+        <v>2</v>
+      </c>
+      <c r="AW174">
+        <v>1</v>
+      </c>
+      <c r="AX174">
+        <v>0</v>
+      </c>
+      <c r="AY174">
+        <v>4</v>
+      </c>
+      <c r="AZ174">
+        <v>2</v>
+      </c>
+      <c r="BA174">
+        <v>7</v>
+      </c>
+      <c r="BB174">
+        <v>8</v>
+      </c>
+      <c r="BC174">
+        <v>15</v>
+      </c>
+      <c r="BD174">
+        <v>1.57</v>
+      </c>
+      <c r="BE174">
+        <v>7.8</v>
+      </c>
+      <c r="BF174">
+        <v>3</v>
+      </c>
+      <c r="BG174">
+        <v>1.42</v>
+      </c>
+      <c r="BH174">
+        <v>2.62</v>
+      </c>
+      <c r="BI174">
+        <v>1.67</v>
+      </c>
+      <c r="BJ174">
+        <v>2.1</v>
+      </c>
+      <c r="BK174">
+        <v>2.1</v>
+      </c>
+      <c r="BL174">
+        <v>1.65</v>
+      </c>
+      <c r="BM174">
+        <v>2.7</v>
+      </c>
+      <c r="BN174">
+        <v>1.4</v>
+      </c>
+      <c r="BO174">
+        <v>3.6</v>
+      </c>
+      <c r="BP174">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -580,7 +580,7 @@
     <t>['85']</t>
   </si>
   <si>
-    <t>['-1']</t>
+    <t>['14', '59']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -36849,22 +36849,22 @@
         <v>80</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174">
         <v>0</v>
       </c>
       <c r="K174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M174">
         <v>0</v>
       </c>
       <c r="N174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O174" t="s">
         <v>188</v>
@@ -36963,22 +36963,22 @@
         <v>2.68</v>
       </c>
       <c r="AU174">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW174">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX174">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY174">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AZ174">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BA174">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="271">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -583,6 +583,12 @@
     <t>['14', '59']</t>
   </si>
   <si>
+    <t>['59', '70']</t>
+  </si>
+  <si>
+    <t>['24', '43']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -818,6 +824,9 @@
   </si>
   <si>
     <t>['67']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP174"/>
+  <dimension ref="A1:BP176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1519,7 +1528,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ2">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1644,7 +1653,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -2134,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AQ5">
         <v>1.07</v>
@@ -2340,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2674,7 +2683,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2752,10 +2761,10 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AQ8">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AR8">
         <v>0.87</v>
@@ -2880,7 +2889,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3086,7 +3095,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3292,7 +3301,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3579,7 +3588,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR12">
         <v>1.3</v>
@@ -3704,7 +3713,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3785,7 +3794,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ13">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AR13">
         <v>1.34</v>
@@ -4116,7 +4125,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4197,7 +4206,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ15">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AR15">
         <v>1.29</v>
@@ -4400,7 +4409,7 @@
         <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AQ16">
         <v>0.93</v>
@@ -4734,7 +4743,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4812,7 +4821,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ18">
         <v>1.97</v>
@@ -4940,7 +4949,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5018,7 +5027,7 @@
         <v>1.67</v>
       </c>
       <c r="AP19">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AQ19">
         <v>1.34</v>
@@ -5146,7 +5155,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5227,7 +5236,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR20">
         <v>1.69</v>
@@ -5352,7 +5361,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5558,7 +5567,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5636,10 +5645,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AQ22">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AR22">
         <v>1.54</v>
@@ -5970,7 +5979,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6382,7 +6391,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6460,7 +6469,7 @@
         <v>0.25</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ26">
         <v>1.07</v>
@@ -6794,7 +6803,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6875,7 +6884,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ28">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AR28">
         <v>1.41</v>
@@ -7078,7 +7087,7 @@
         <v>2.5</v>
       </c>
       <c r="AP29">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AQ29">
         <v>1.97</v>
@@ -7287,7 +7296,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ30">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AR30">
         <v>1.49</v>
@@ -7490,7 +7499,7 @@
         <v>1.8</v>
       </c>
       <c r="AP31">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AQ31">
         <v>1.34</v>
@@ -7618,7 +7627,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7905,7 +7914,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ33">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AR33">
         <v>1.41</v>
@@ -8030,7 +8039,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8236,7 +8245,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8314,10 +8323,10 @@
         <v>0.6</v>
       </c>
       <c r="AP35">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR35">
         <v>1.5</v>
@@ -8442,7 +8451,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8648,7 +8657,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8729,7 +8738,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ37">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AR37">
         <v>1.56</v>
@@ -8935,7 +8944,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AR38">
         <v>1.06</v>
@@ -9138,7 +9147,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9266,7 +9275,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9344,7 +9353,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ40">
         <v>0.93</v>
@@ -9472,7 +9481,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9678,7 +9687,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9965,7 +9974,7 @@
         <v>1.34</v>
       </c>
       <c r="AQ43">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AR43">
         <v>1.44</v>
@@ -10090,7 +10099,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10502,7 +10511,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10580,10 +10589,10 @@
         <v>0.43</v>
       </c>
       <c r="AP46">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR46">
         <v>1.37</v>
@@ -10708,7 +10717,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10995,7 +11004,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AR48">
         <v>1.31</v>
@@ -11201,7 +11210,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AR49">
         <v>1.1</v>
@@ -11404,7 +11413,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AQ50">
         <v>1.07</v>
@@ -11532,7 +11541,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11610,7 +11619,7 @@
         <v>1.63</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ51">
         <v>1.76</v>
@@ -12150,7 +12159,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12231,7 +12240,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ54">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AR54">
         <v>1.53</v>
@@ -12356,7 +12365,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12562,7 +12571,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12640,7 +12649,7 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AQ56">
         <v>1.97</v>
@@ -12768,7 +12777,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12846,7 +12855,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AQ57">
         <v>1.07</v>
@@ -12974,7 +12983,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13055,7 +13064,7 @@
         <v>1.34</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR58">
         <v>1.5</v>
@@ -13386,7 +13395,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13670,7 +13679,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ61">
         <v>1.48</v>
@@ -13876,10 +13885,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP62">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AQ62">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AR62">
         <v>1.93</v>
@@ -14291,7 +14300,7 @@
         <v>1</v>
       </c>
       <c r="AQ64">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14622,7 +14631,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14703,7 +14712,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ66">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AR66">
         <v>1.23</v>
@@ -14828,7 +14837,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14906,7 +14915,7 @@
         <v>1.36</v>
       </c>
       <c r="AP67">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AQ67">
         <v>0.93</v>
@@ -15034,7 +15043,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15112,10 +15121,10 @@
         <v>1.7</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ68">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AR68">
         <v>1.27</v>
@@ -16064,7 +16073,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16142,7 +16151,7 @@
         <v>1.36</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ73">
         <v>1.5</v>
@@ -16270,7 +16279,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16476,7 +16485,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16554,10 +16563,10 @@
         <v>0.55</v>
       </c>
       <c r="AP75">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AQ75">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AR75">
         <v>1.36</v>
@@ -16682,7 +16691,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16966,7 +16975,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AQ77">
         <v>0.93</v>
@@ -17094,7 +17103,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17172,7 +17181,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AQ78">
         <v>1.97</v>
@@ -17300,7 +17309,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17506,7 +17515,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17587,7 +17596,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ80">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AR80">
         <v>1.31</v>
@@ -17793,7 +17802,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ81">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AR81">
         <v>1.27</v>
@@ -17999,7 +18008,7 @@
         <v>1.97</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR82">
         <v>1.64</v>
@@ -18124,7 +18133,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18330,7 +18339,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18408,7 +18417,7 @@
         <v>1.69</v>
       </c>
       <c r="AP84">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AQ84">
         <v>1.76</v>
@@ -18614,7 +18623,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ85">
         <v>1</v>
@@ -18742,7 +18751,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -19029,7 +19038,7 @@
         <v>1.34</v>
       </c>
       <c r="AQ87">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -19438,10 +19447,10 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AQ89">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AR89">
         <v>1.81</v>
@@ -19772,7 +19781,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -20056,7 +20065,7 @@
         <v>1.47</v>
       </c>
       <c r="AP92">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AQ92">
         <v>1.48</v>
@@ -20184,7 +20193,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20265,7 +20274,7 @@
         <v>1.97</v>
       </c>
       <c r="AQ93">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AR93">
         <v>1.6</v>
@@ -20471,7 +20480,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ94">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR94">
         <v>1.23</v>
@@ -20596,7 +20605,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20674,7 +20683,7 @@
         <v>1.67</v>
       </c>
       <c r="AP95">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AQ95">
         <v>1.76</v>
@@ -21008,7 +21017,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21420,7 +21429,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21498,10 +21507,10 @@
         <v>0.63</v>
       </c>
       <c r="AP99">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ99">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AR99">
         <v>1.2</v>
@@ -21910,7 +21919,7 @@
         <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AQ101">
         <v>1.76</v>
@@ -22119,7 +22128,7 @@
         <v>1.34</v>
       </c>
       <c r="AQ102">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AR102">
         <v>1.45</v>
@@ -22244,7 +22253,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22325,7 +22334,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ103">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR103">
         <v>1.29</v>
@@ -22450,7 +22459,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22528,7 +22537,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AQ104">
         <v>1.5</v>
@@ -22656,7 +22665,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -23068,7 +23077,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23149,7 +23158,7 @@
         <v>1</v>
       </c>
       <c r="AQ107">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AR107">
         <v>1.51</v>
@@ -23274,7 +23283,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23352,7 +23361,7 @@
         <v>1.53</v>
       </c>
       <c r="AP108">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AQ108">
         <v>1.48</v>
@@ -23767,7 +23776,7 @@
         <v>1.97</v>
       </c>
       <c r="AQ110">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AR110">
         <v>1.6</v>
@@ -23892,7 +23901,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24098,7 +24107,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24382,7 +24391,7 @@
         <v>1.39</v>
       </c>
       <c r="AP113">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AQ113">
         <v>1.34</v>
@@ -24510,7 +24519,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -24588,10 +24597,10 @@
         <v>0.83</v>
       </c>
       <c r="AP114">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ114">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AR114">
         <v>1.26</v>
@@ -24716,7 +24725,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -24797,7 +24806,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ115">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AR115">
         <v>1.2</v>
@@ -25000,7 +25009,7 @@
         <v>1.05</v>
       </c>
       <c r="AP116">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AQ116">
         <v>1</v>
@@ -25128,7 +25137,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25334,7 +25343,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25540,7 +25549,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25621,7 +25630,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR119">
         <v>1.48</v>
@@ -25824,7 +25833,7 @@
         <v>1.5</v>
       </c>
       <c r="AP120">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AQ120">
         <v>1.5</v>
@@ -25952,7 +25961,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26030,7 +26039,7 @@
         <v>1.25</v>
       </c>
       <c r="AP121">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ121">
         <v>1.34</v>
@@ -26158,7 +26167,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26239,7 +26248,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ122">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AR122">
         <v>1.17</v>
@@ -26364,7 +26373,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26570,7 +26579,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -26648,7 +26657,7 @@
         <v>1.6</v>
       </c>
       <c r="AP124">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AQ124">
         <v>1.48</v>
@@ -26857,7 +26866,7 @@
         <v>1.97</v>
       </c>
       <c r="AQ125">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AR125">
         <v>1.61</v>
@@ -26982,7 +26991,7 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27188,7 +27197,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27394,7 +27403,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27475,7 +27484,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ128">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR128">
         <v>1.44</v>
@@ -27600,7 +27609,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27806,7 +27815,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -27884,10 +27893,10 @@
         <v>2.1</v>
       </c>
       <c r="AP130">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AQ130">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AR130">
         <v>1.41</v>
@@ -28012,7 +28021,7 @@
         <v>89</v>
       </c>
       <c r="P131" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28218,7 +28227,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28296,7 +28305,7 @@
         <v>1.1</v>
       </c>
       <c r="AP132">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AQ132">
         <v>1</v>
@@ -28502,10 +28511,10 @@
         <v>0.95</v>
       </c>
       <c r="AP133">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AQ133">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR133">
         <v>1.36</v>
@@ -28630,7 +28639,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29120,7 +29129,7 @@
         <v>1.59</v>
       </c>
       <c r="AP136">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AQ136">
         <v>1.48</v>
@@ -29248,7 +29257,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29454,7 +29463,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29532,7 +29541,7 @@
         <v>1.39</v>
       </c>
       <c r="AP138">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ138">
         <v>1.34</v>
@@ -29866,7 +29875,7 @@
         <v>168</v>
       </c>
       <c r="P140" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
@@ -30150,7 +30159,7 @@
         <v>1.61</v>
       </c>
       <c r="AP141">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AQ141">
         <v>1.76</v>
@@ -30278,7 +30287,7 @@
         <v>133</v>
       </c>
       <c r="P142" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q142">
         <v>2.25</v>
@@ -30359,7 +30368,7 @@
         <v>1.97</v>
       </c>
       <c r="AQ142">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AR142">
         <v>1.56</v>
@@ -30565,7 +30574,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ143">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AR143">
         <v>1.19</v>
@@ -30768,7 +30777,7 @@
         <v>1.04</v>
       </c>
       <c r="AP144">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AQ144">
         <v>0.93</v>
@@ -30896,7 +30905,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31183,7 +31192,7 @@
         <v>1</v>
       </c>
       <c r="AQ146">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AR146">
         <v>1.51</v>
@@ -31595,7 +31604,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ148">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR148">
         <v>1.5</v>
@@ -31798,7 +31807,7 @@
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AQ149">
         <v>0.93</v>
@@ -32004,7 +32013,7 @@
         <v>1.63</v>
       </c>
       <c r="AP150">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AQ150">
         <v>1.48</v>
@@ -32132,7 +32141,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q151">
         <v>2.1</v>
@@ -32213,7 +32222,7 @@
         <v>1.97</v>
       </c>
       <c r="AQ151">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR151">
         <v>1.54</v>
@@ -32544,7 +32553,7 @@
         <v>174</v>
       </c>
       <c r="P153" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q153">
         <v>3.75</v>
@@ -32831,7 +32840,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ154">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AR154">
         <v>1.17</v>
@@ -32956,7 +32965,7 @@
         <v>113</v>
       </c>
       <c r="P155" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33162,7 +33171,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q156">
         <v>6.5</v>
@@ -33240,10 +33249,10 @@
         <v>2.17</v>
       </c>
       <c r="AP156">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AQ156">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AR156">
         <v>1.33</v>
@@ -33446,7 +33455,7 @@
         <v>1</v>
       </c>
       <c r="AP157">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ157">
         <v>0.93</v>
@@ -34064,7 +34073,7 @@
         <v>1.12</v>
       </c>
       <c r="AP160">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AQ160">
         <v>1</v>
@@ -34192,7 +34201,7 @@
         <v>180</v>
       </c>
       <c r="P161" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q161">
         <v>3.25</v>
@@ -34273,7 +34282,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ161">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AR161">
         <v>1.19</v>
@@ -34476,7 +34485,7 @@
         <v>1.54</v>
       </c>
       <c r="AP162">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AQ162">
         <v>1.48</v>
@@ -34604,7 +34613,7 @@
         <v>181</v>
       </c>
       <c r="P163" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q163">
         <v>3.5</v>
@@ -34891,7 +34900,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ164">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR164">
         <v>1.17</v>
@@ -35094,10 +35103,10 @@
         <v>1.11</v>
       </c>
       <c r="AP165">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AQ165">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AR165">
         <v>1.34</v>
@@ -35222,7 +35231,7 @@
         <v>182</v>
       </c>
       <c r="P166" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35506,7 +35515,7 @@
         <v>1.74</v>
       </c>
       <c r="AP167">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AQ167">
         <v>1.76</v>
@@ -35840,7 +35849,7 @@
         <v>184</v>
       </c>
       <c r="P169" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q169">
         <v>3.4</v>
@@ -35918,7 +35927,7 @@
         <v>1.54</v>
       </c>
       <c r="AP169">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ169">
         <v>1.48</v>
@@ -36046,7 +36055,7 @@
         <v>185</v>
       </c>
       <c r="P170" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36124,7 +36133,7 @@
         <v>1.04</v>
       </c>
       <c r="AP170">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AQ170">
         <v>1</v>
@@ -36333,7 +36342,7 @@
         <v>1.34</v>
       </c>
       <c r="AQ171">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="AR171">
         <v>1.31</v>
@@ -36458,7 +36467,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q172">
         <v>6.5</v>
@@ -36539,7 +36548,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ172">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AR172">
         <v>1.2</v>
@@ -37027,6 +37036,418 @@
       </c>
       <c r="BP174">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7487289</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45531.77083333334</v>
+      </c>
+      <c r="F175">
+        <v>8</v>
+      </c>
+      <c r="G175" t="s">
+        <v>73</v>
+      </c>
+      <c r="H175" t="s">
+        <v>81</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>3</v>
+      </c>
+      <c r="O175" t="s">
+        <v>189</v>
+      </c>
+      <c r="P175" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q175">
+        <v>3.4</v>
+      </c>
+      <c r="R175">
+        <v>2.05</v>
+      </c>
+      <c r="S175">
+        <v>3.4</v>
+      </c>
+      <c r="T175">
+        <v>1.48</v>
+      </c>
+      <c r="U175">
+        <v>2.5</v>
+      </c>
+      <c r="V175">
+        <v>3.1</v>
+      </c>
+      <c r="W175">
+        <v>1.33</v>
+      </c>
+      <c r="X175">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y175">
+        <v>1.05</v>
+      </c>
+      <c r="Z175">
+        <v>2.6</v>
+      </c>
+      <c r="AA175">
+        <v>3</v>
+      </c>
+      <c r="AB175">
+        <v>2.5</v>
+      </c>
+      <c r="AC175">
+        <v>1.07</v>
+      </c>
+      <c r="AD175">
+        <v>7.5</v>
+      </c>
+      <c r="AE175">
+        <v>1.4</v>
+      </c>
+      <c r="AF175">
+        <v>2.85</v>
+      </c>
+      <c r="AG175">
+        <v>2.3</v>
+      </c>
+      <c r="AH175">
+        <v>1.6</v>
+      </c>
+      <c r="AI175">
+        <v>1.83</v>
+      </c>
+      <c r="AJ175">
+        <v>1.83</v>
+      </c>
+      <c r="AK175">
+        <v>1.48</v>
+      </c>
+      <c r="AL175">
+        <v>1.3</v>
+      </c>
+      <c r="AM175">
+        <v>1.42</v>
+      </c>
+      <c r="AN175">
+        <v>0.9</v>
+      </c>
+      <c r="AO175">
+        <v>1</v>
+      </c>
+      <c r="AP175">
+        <v>0.97</v>
+      </c>
+      <c r="AQ175">
+        <v>0.97</v>
+      </c>
+      <c r="AR175">
+        <v>1.36</v>
+      </c>
+      <c r="AS175">
+        <v>1.25</v>
+      </c>
+      <c r="AT175">
+        <v>2.61</v>
+      </c>
+      <c r="AU175">
+        <v>6</v>
+      </c>
+      <c r="AV175">
+        <v>3</v>
+      </c>
+      <c r="AW175">
+        <v>8</v>
+      </c>
+      <c r="AX175">
+        <v>11</v>
+      </c>
+      <c r="AY175">
+        <v>14</v>
+      </c>
+      <c r="AZ175">
+        <v>14</v>
+      </c>
+      <c r="BA175">
+        <v>2</v>
+      </c>
+      <c r="BB175">
+        <v>2</v>
+      </c>
+      <c r="BC175">
+        <v>4</v>
+      </c>
+      <c r="BD175">
+        <v>2.08</v>
+      </c>
+      <c r="BE175">
+        <v>7.9</v>
+      </c>
+      <c r="BF175">
+        <v>1.96</v>
+      </c>
+      <c r="BG175">
+        <v>1.38</v>
+      </c>
+      <c r="BH175">
+        <v>2.8</v>
+      </c>
+      <c r="BI175">
+        <v>1.65</v>
+      </c>
+      <c r="BJ175">
+        <v>2.19</v>
+      </c>
+      <c r="BK175">
+        <v>2.06</v>
+      </c>
+      <c r="BL175">
+        <v>1.74</v>
+      </c>
+      <c r="BM175">
+        <v>2.6</v>
+      </c>
+      <c r="BN175">
+        <v>1.44</v>
+      </c>
+      <c r="BO175">
+        <v>3.4</v>
+      </c>
+      <c r="BP175">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7487287</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45531.875</v>
+      </c>
+      <c r="F176">
+        <v>8</v>
+      </c>
+      <c r="G176" t="s">
+        <v>74</v>
+      </c>
+      <c r="H176" t="s">
+        <v>76</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>2</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>3</v>
+      </c>
+      <c r="O176" t="s">
+        <v>190</v>
+      </c>
+      <c r="P176" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q176">
+        <v>2.3</v>
+      </c>
+      <c r="R176">
+        <v>2.1</v>
+      </c>
+      <c r="S176">
+        <v>5.5</v>
+      </c>
+      <c r="T176">
+        <v>1.4</v>
+      </c>
+      <c r="U176">
+        <v>2.75</v>
+      </c>
+      <c r="V176">
+        <v>2.88</v>
+      </c>
+      <c r="W176">
+        <v>1.36</v>
+      </c>
+      <c r="X176">
+        <v>7.3</v>
+      </c>
+      <c r="Y176">
+        <v>1.07</v>
+      </c>
+      <c r="Z176">
+        <v>1.55</v>
+      </c>
+      <c r="AA176">
+        <v>3.8</v>
+      </c>
+      <c r="AB176">
+        <v>5.75</v>
+      </c>
+      <c r="AC176">
+        <v>1.05</v>
+      </c>
+      <c r="AD176">
+        <v>8.5</v>
+      </c>
+      <c r="AE176">
+        <v>1.3</v>
+      </c>
+      <c r="AF176">
+        <v>3.3</v>
+      </c>
+      <c r="AG176">
+        <v>1.95</v>
+      </c>
+      <c r="AH176">
+        <v>1.8</v>
+      </c>
+      <c r="AI176">
+        <v>2.1</v>
+      </c>
+      <c r="AJ176">
+        <v>1.67</v>
+      </c>
+      <c r="AK176">
+        <v>1.09</v>
+      </c>
+      <c r="AL176">
+        <v>1.18</v>
+      </c>
+      <c r="AM176">
+        <v>2.45</v>
+      </c>
+      <c r="AN176">
+        <v>2.11</v>
+      </c>
+      <c r="AO176">
+        <v>1.17</v>
+      </c>
+      <c r="AP176">
+        <v>2.14</v>
+      </c>
+      <c r="AQ176">
+        <v>1.13</v>
+      </c>
+      <c r="AR176">
+        <v>1.69</v>
+      </c>
+      <c r="AS176">
+        <v>1.39</v>
+      </c>
+      <c r="AT176">
+        <v>3.08</v>
+      </c>
+      <c r="AU176">
+        <v>3</v>
+      </c>
+      <c r="AV176">
+        <v>6</v>
+      </c>
+      <c r="AW176">
+        <v>7</v>
+      </c>
+      <c r="AX176">
+        <v>4</v>
+      </c>
+      <c r="AY176">
+        <v>10</v>
+      </c>
+      <c r="AZ176">
+        <v>10</v>
+      </c>
+      <c r="BA176">
+        <v>6</v>
+      </c>
+      <c r="BB176">
+        <v>4</v>
+      </c>
+      <c r="BC176">
+        <v>10</v>
+      </c>
+      <c r="BD176">
+        <v>1.32</v>
+      </c>
+      <c r="BE176">
+        <v>9.5</v>
+      </c>
+      <c r="BF176">
+        <v>3.92</v>
+      </c>
+      <c r="BG176">
+        <v>1.25</v>
+      </c>
+      <c r="BH176">
+        <v>3.6</v>
+      </c>
+      <c r="BI176">
+        <v>1.44</v>
+      </c>
+      <c r="BJ176">
+        <v>2.6</v>
+      </c>
+      <c r="BK176">
+        <v>2.2</v>
+      </c>
+      <c r="BL176">
+        <v>2.03</v>
+      </c>
+      <c r="BM176">
+        <v>2.21</v>
+      </c>
+      <c r="BN176">
+        <v>1.63</v>
+      </c>
+      <c r="BO176">
+        <v>2.7</v>
+      </c>
+      <c r="BP176">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="272">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -589,6 +589,9 @@
     <t>['24', '43']</t>
   </si>
   <si>
+    <t>['59']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -745,9 +748,6 @@
     <t>['81', '90+2']</t>
   </si>
   <si>
-    <t>['59']</t>
-  </si>
-  <si>
     <t>['45+1', '69', '81']</t>
   </si>
   <si>
@@ -827,6 +827,9 @@
   </si>
   <si>
     <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['56']</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP176"/>
+  <dimension ref="A1:BP178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1653,7 +1656,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1937,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -2555,10 +2558,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2683,7 +2686,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2889,7 +2892,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3095,7 +3098,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3176,7 +3179,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>1.47</v>
@@ -3301,7 +3304,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3379,10 +3382,10 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AQ11">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AR11">
         <v>1.49</v>
@@ -3713,7 +3716,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3997,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4125,7 +4128,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4615,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17">
         <v>1.07</v>
@@ -4743,7 +4746,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4824,7 +4827,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ18">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -4949,7 +4952,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5030,7 +5033,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ19">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>1.31</v>
@@ -5155,7 +5158,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5361,7 +5364,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5442,7 +5445,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ21">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AR21">
         <v>1.64</v>
@@ -5567,7 +5570,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5851,7 +5854,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AQ23">
         <v>1.5</v>
@@ -5979,7 +5982,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6391,7 +6394,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6675,7 +6678,7 @@
         <v>1.75</v>
       </c>
       <c r="AP27">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
         <v>0.93</v>
@@ -6803,7 +6806,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -7090,7 +7093,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ29">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AR29">
         <v>2.13</v>
@@ -7293,7 +7296,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AQ30">
         <v>1.13</v>
@@ -7502,7 +7505,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ31">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR31">
         <v>1.28</v>
@@ -7627,7 +7630,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7708,7 +7711,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ32">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AR32">
         <v>1.21</v>
@@ -8039,7 +8042,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8120,7 +8123,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AR34">
         <v>1.38</v>
@@ -8245,7 +8248,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8451,7 +8454,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8657,7 +8660,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8735,7 +8738,7 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AQ37">
         <v>0.97</v>
@@ -9275,7 +9278,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9481,7 +9484,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9559,7 +9562,7 @@
         <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ41">
         <v>1.76</v>
@@ -9687,7 +9690,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9765,7 +9768,7 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AQ42">
         <v>1.07</v>
@@ -9971,7 +9974,7 @@
         <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ43">
         <v>2.14</v>
@@ -10099,7 +10102,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10386,7 +10389,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ45">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AR45">
         <v>1.37</v>
@@ -10511,7 +10514,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10717,7 +10720,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -11541,7 +11544,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11825,10 +11828,10 @@
         <v>1.38</v>
       </c>
       <c r="AP52">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AQ52">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR52">
         <v>1.52</v>
@@ -12031,7 +12034,7 @@
         <v>1.38</v>
       </c>
       <c r="AP53">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AQ53">
         <v>0.93</v>
@@ -12159,7 +12162,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12237,7 +12240,7 @@
         <v>1.38</v>
       </c>
       <c r="AP54">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AQ54">
         <v>2.14</v>
@@ -12365,7 +12368,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12571,7 +12574,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12652,7 +12655,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ56">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AR56">
         <v>1.32</v>
@@ -12777,7 +12780,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12983,7 +12986,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13061,7 +13064,7 @@
         <v>0.44</v>
       </c>
       <c r="AP58">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ58">
         <v>0.97</v>
@@ -13395,7 +13398,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13682,7 +13685,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ61">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AR61">
         <v>1.27</v>
@@ -14091,7 +14094,7 @@
         <v>1.7</v>
       </c>
       <c r="AP63">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AQ63">
         <v>1.76</v>
@@ -14506,7 +14509,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR65">
         <v>1.21</v>
@@ -14631,7 +14634,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14837,7 +14840,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15043,7 +15046,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15327,10 +15330,10 @@
         <v>1.27</v>
       </c>
       <c r="AP69">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AQ69">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR69">
         <v>1.62</v>
@@ -15742,7 +15745,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AR71">
         <v>1.22</v>
@@ -15945,7 +15948,7 @@
         <v>1.17</v>
       </c>
       <c r="AP72">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -16073,7 +16076,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16279,7 +16282,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16485,7 +16488,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16691,7 +16694,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16769,10 +16772,10 @@
         <v>2.27</v>
       </c>
       <c r="AP76">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AQ76">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AR76">
         <v>1.41</v>
@@ -17103,7 +17106,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17184,7 +17187,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ78">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AR78">
         <v>1.39</v>
@@ -17309,7 +17312,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17390,7 +17393,7 @@
         <v>1</v>
       </c>
       <c r="AQ79">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AR79">
         <v>1.41</v>
@@ -17515,7 +17518,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -18005,7 +18008,7 @@
         <v>0.54</v>
       </c>
       <c r="AP82">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AQ82">
         <v>0.97</v>
@@ -18133,7 +18136,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18214,7 +18217,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ83">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR83">
         <v>1.24</v>
@@ -18339,7 +18342,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18751,7 +18754,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18829,7 +18832,7 @@
         <v>1.07</v>
       </c>
       <c r="AP86">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AQ86">
         <v>1.07</v>
@@ -19035,7 +19038,7 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ87">
         <v>1.13</v>
@@ -19244,7 +19247,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AR88">
         <v>1.24</v>
@@ -19781,7 +19784,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19862,7 +19865,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ91">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR91">
         <v>1.34</v>
@@ -20068,7 +20071,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ92">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AR92">
         <v>1.3</v>
@@ -20193,7 +20196,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20271,7 +20274,7 @@
         <v>2.07</v>
       </c>
       <c r="AP93">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AQ93">
         <v>2.14</v>
@@ -20605,7 +20608,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -21017,7 +21020,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21301,7 +21304,7 @@
         <v>1.06</v>
       </c>
       <c r="AP98">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AQ98">
         <v>1</v>
@@ -21429,7 +21432,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21713,7 +21716,7 @@
         <v>1.38</v>
       </c>
       <c r="AP100">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AQ100">
         <v>0.93</v>
@@ -22125,7 +22128,7 @@
         <v>0.88</v>
       </c>
       <c r="AP102">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ102">
         <v>0.97</v>
@@ -22253,7 +22256,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22459,7 +22462,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22665,7 +22668,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22746,7 +22749,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ105">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR105">
         <v>1.45</v>
@@ -22952,7 +22955,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ106">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AR106">
         <v>1.21</v>
@@ -23077,7 +23080,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23283,7 +23286,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23364,7 +23367,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ108">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AR108">
         <v>1.32</v>
@@ -23773,7 +23776,7 @@
         <v>0.89</v>
       </c>
       <c r="AP110">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AQ110">
         <v>1.13</v>
@@ -23901,7 +23904,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24107,7 +24110,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24185,7 +24188,7 @@
         <v>1.78</v>
       </c>
       <c r="AP112">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AQ112">
         <v>1.76</v>
@@ -24394,7 +24397,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ113">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR113">
         <v>1.78</v>
@@ -24519,7 +24522,7 @@
         <v>156</v>
       </c>
       <c r="P114" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -25137,7 +25140,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25215,10 +25218,10 @@
         <v>1.53</v>
       </c>
       <c r="AP117">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ117">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AR117">
         <v>1.42</v>
@@ -25343,7 +25346,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25424,7 +25427,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ118">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AR118">
         <v>1.31</v>
@@ -26042,7 +26045,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ121">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR121">
         <v>1.22</v>
@@ -26660,7 +26663,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ124">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AR124">
         <v>1.77</v>
@@ -26863,7 +26866,7 @@
         <v>0.95</v>
       </c>
       <c r="AP125">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AQ125">
         <v>0.97</v>
@@ -27275,7 +27278,7 @@
         <v>1.4</v>
       </c>
       <c r="AP127">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ127">
         <v>1.5</v>
@@ -27481,7 +27484,7 @@
         <v>0.86</v>
       </c>
       <c r="AP128">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AQ128">
         <v>0.97</v>
@@ -27690,7 +27693,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ129">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AR129">
         <v>1.48</v>
@@ -28720,7 +28723,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ134">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AR134">
         <v>1.2</v>
@@ -28926,7 +28929,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ135">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR135">
         <v>1.47</v>
@@ -29132,7 +29135,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ136">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AR136">
         <v>1.27</v>
@@ -29544,7 +29547,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ138">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR138">
         <v>1.21</v>
@@ -29875,7 +29878,7 @@
         <v>168</v>
       </c>
       <c r="P140" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
@@ -29953,7 +29956,7 @@
         <v>1.13</v>
       </c>
       <c r="AP140">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AQ140">
         <v>1</v>
@@ -30365,7 +30368,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AQ142">
         <v>1.13</v>
@@ -31395,10 +31398,10 @@
         <v>2.13</v>
       </c>
       <c r="AP147">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ147">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AR147">
         <v>1.35</v>
@@ -32016,7 +32019,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ150">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AR150">
         <v>1.69</v>
@@ -32219,7 +32222,7 @@
         <v>0.88</v>
       </c>
       <c r="AP151">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AQ151">
         <v>0.97</v>
@@ -32634,7 +32637,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ153">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR153">
         <v>1.41</v>
@@ -33043,7 +33046,7 @@
         <v>0.96</v>
       </c>
       <c r="AP155">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AQ155">
         <v>1.07</v>
@@ -33661,7 +33664,7 @@
         <v>1.52</v>
       </c>
       <c r="AP158">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ158">
         <v>1.5</v>
@@ -33870,7 +33873,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ159">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AR159">
         <v>1.5</v>
@@ -34488,7 +34491,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ162">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AR162">
         <v>1.34</v>
@@ -34613,7 +34616,7 @@
         <v>181</v>
       </c>
       <c r="P163" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q163">
         <v>3.5</v>
@@ -34691,10 +34694,10 @@
         <v>1.41</v>
       </c>
       <c r="AP163">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AQ163">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR163">
         <v>1.34</v>
@@ -35724,7 +35727,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ168">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AR168">
         <v>1.43</v>
@@ -35930,7 +35933,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ169">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AR169">
         <v>1.23</v>
@@ -36055,7 +36058,7 @@
         <v>185</v>
       </c>
       <c r="P170" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36339,7 +36342,7 @@
         <v>0.89</v>
       </c>
       <c r="AP171">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ171">
         <v>0.97</v>
@@ -36957,7 +36960,7 @@
         <v>1.56</v>
       </c>
       <c r="AP174">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AQ174">
         <v>1.5</v>
@@ -37448,6 +37451,418 @@
       </c>
       <c r="BP176">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7487288</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45532.77083333334</v>
+      </c>
+      <c r="F177">
+        <v>8</v>
+      </c>
+      <c r="G177" t="s">
+        <v>78</v>
+      </c>
+      <c r="H177" t="s">
+        <v>75</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177" t="s">
+        <v>89</v>
+      </c>
+      <c r="P177" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q177">
+        <v>4</v>
+      </c>
+      <c r="R177">
+        <v>2</v>
+      </c>
+      <c r="S177">
+        <v>3</v>
+      </c>
+      <c r="T177">
+        <v>1.45</v>
+      </c>
+      <c r="U177">
+        <v>2.55</v>
+      </c>
+      <c r="V177">
+        <v>3</v>
+      </c>
+      <c r="W177">
+        <v>1.33</v>
+      </c>
+      <c r="X177">
+        <v>7.4</v>
+      </c>
+      <c r="Y177">
+        <v>1.06</v>
+      </c>
+      <c r="Z177">
+        <v>3</v>
+      </c>
+      <c r="AA177">
+        <v>3.25</v>
+      </c>
+      <c r="AB177">
+        <v>2.1</v>
+      </c>
+      <c r="AC177">
+        <v>1.06</v>
+      </c>
+      <c r="AD177">
+        <v>8</v>
+      </c>
+      <c r="AE177">
+        <v>1.36</v>
+      </c>
+      <c r="AF177">
+        <v>3</v>
+      </c>
+      <c r="AG177">
+        <v>2.35</v>
+      </c>
+      <c r="AH177">
+        <v>1.57</v>
+      </c>
+      <c r="AI177">
+        <v>2.1</v>
+      </c>
+      <c r="AJ177">
+        <v>1.67</v>
+      </c>
+      <c r="AK177">
+        <v>1.65</v>
+      </c>
+      <c r="AL177">
+        <v>1.28</v>
+      </c>
+      <c r="AM177">
+        <v>1.3</v>
+      </c>
+      <c r="AN177">
+        <v>1</v>
+      </c>
+      <c r="AO177">
+        <v>1.34</v>
+      </c>
+      <c r="AP177">
+        <v>1</v>
+      </c>
+      <c r="AQ177">
+        <v>1.33</v>
+      </c>
+      <c r="AR177">
+        <v>1.47</v>
+      </c>
+      <c r="AS177">
+        <v>1.34</v>
+      </c>
+      <c r="AT177">
+        <v>2.81</v>
+      </c>
+      <c r="AU177">
+        <v>3</v>
+      </c>
+      <c r="AV177">
+        <v>3</v>
+      </c>
+      <c r="AW177">
+        <v>10</v>
+      </c>
+      <c r="AX177">
+        <v>8</v>
+      </c>
+      <c r="AY177">
+        <v>13</v>
+      </c>
+      <c r="AZ177">
+        <v>11</v>
+      </c>
+      <c r="BA177">
+        <v>8</v>
+      </c>
+      <c r="BB177">
+        <v>9</v>
+      </c>
+      <c r="BC177">
+        <v>17</v>
+      </c>
+      <c r="BD177">
+        <v>2.15</v>
+      </c>
+      <c r="BE177">
+        <v>7.1</v>
+      </c>
+      <c r="BF177">
+        <v>2.03</v>
+      </c>
+      <c r="BG177">
+        <v>1.33</v>
+      </c>
+      <c r="BH177">
+        <v>3</v>
+      </c>
+      <c r="BI177">
+        <v>1.59</v>
+      </c>
+      <c r="BJ177">
+        <v>2.31</v>
+      </c>
+      <c r="BK177">
+        <v>1.95</v>
+      </c>
+      <c r="BL177">
+        <v>1.77</v>
+      </c>
+      <c r="BM177">
+        <v>2.51</v>
+      </c>
+      <c r="BN177">
+        <v>1.5</v>
+      </c>
+      <c r="BO177">
+        <v>3.2</v>
+      </c>
+      <c r="BP177">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7487290</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45532.875</v>
+      </c>
+      <c r="F178">
+        <v>8</v>
+      </c>
+      <c r="G178" t="s">
+        <v>72</v>
+      </c>
+      <c r="H178" t="s">
+        <v>79</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>2</v>
+      </c>
+      <c r="O178" t="s">
+        <v>191</v>
+      </c>
+      <c r="P178" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q178">
+        <v>4.33</v>
+      </c>
+      <c r="R178">
+        <v>1.91</v>
+      </c>
+      <c r="S178">
+        <v>3.1</v>
+      </c>
+      <c r="T178">
+        <v>1.53</v>
+      </c>
+      <c r="U178">
+        <v>2.38</v>
+      </c>
+      <c r="V178">
+        <v>3.35</v>
+      </c>
+      <c r="W178">
+        <v>1.28</v>
+      </c>
+      <c r="X178">
+        <v>8</v>
+      </c>
+      <c r="Y178">
+        <v>1.05</v>
+      </c>
+      <c r="Z178">
+        <v>3.35</v>
+      </c>
+      <c r="AA178">
+        <v>2.95</v>
+      </c>
+      <c r="AB178">
+        <v>2.2</v>
+      </c>
+      <c r="AC178">
+        <v>1.08</v>
+      </c>
+      <c r="AD178">
+        <v>7</v>
+      </c>
+      <c r="AE178">
+        <v>1.51</v>
+      </c>
+      <c r="AF178">
+        <v>2.45</v>
+      </c>
+      <c r="AG178">
+        <v>2.33</v>
+      </c>
+      <c r="AH178">
+        <v>1.56</v>
+      </c>
+      <c r="AI178">
+        <v>2.2</v>
+      </c>
+      <c r="AJ178">
+        <v>1.62</v>
+      </c>
+      <c r="AK178">
+        <v>1.73</v>
+      </c>
+      <c r="AL178">
+        <v>1.3</v>
+      </c>
+      <c r="AM178">
+        <v>1.25</v>
+      </c>
+      <c r="AN178">
+        <v>1.48</v>
+      </c>
+      <c r="AO178">
+        <v>1.97</v>
+      </c>
+      <c r="AP178">
+        <v>1.47</v>
+      </c>
+      <c r="AQ178">
+        <v>1.93</v>
+      </c>
+      <c r="AR178">
+        <v>1.36</v>
+      </c>
+      <c r="AS178">
+        <v>1.5</v>
+      </c>
+      <c r="AT178">
+        <v>2.86</v>
+      </c>
+      <c r="AU178">
+        <v>6</v>
+      </c>
+      <c r="AV178">
+        <v>6</v>
+      </c>
+      <c r="AW178">
+        <v>3</v>
+      </c>
+      <c r="AX178">
+        <v>5</v>
+      </c>
+      <c r="AY178">
+        <v>9</v>
+      </c>
+      <c r="AZ178">
+        <v>11</v>
+      </c>
+      <c r="BA178">
+        <v>2</v>
+      </c>
+      <c r="BB178">
+        <v>5</v>
+      </c>
+      <c r="BC178">
+        <v>7</v>
+      </c>
+      <c r="BD178">
+        <v>2.28</v>
+      </c>
+      <c r="BE178">
+        <v>7.7</v>
+      </c>
+      <c r="BF178">
+        <v>1.82</v>
+      </c>
+      <c r="BG178">
+        <v>1.42</v>
+      </c>
+      <c r="BH178">
+        <v>2.62</v>
+      </c>
+      <c r="BI178">
+        <v>1.73</v>
+      </c>
+      <c r="BJ178">
+        <v>2.08</v>
+      </c>
+      <c r="BK178">
+        <v>2.17</v>
+      </c>
+      <c r="BL178">
+        <v>1.67</v>
+      </c>
+      <c r="BM178">
+        <v>2.7</v>
+      </c>
+      <c r="BN178">
+        <v>1.4</v>
+      </c>
+      <c r="BO178">
+        <v>3.6</v>
+      </c>
+      <c r="BP178">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="273">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,9 @@
     <t>['59']</t>
   </si>
   <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -814,9 +817,6 @@
     <t>['4']</t>
   </si>
   <si>
-    <t>['45+2']</t>
-  </si>
-  <si>
     <t>['49', '88']</t>
   </si>
   <si>
@@ -830,6 +830,9 @@
   </si>
   <si>
     <t>['56']</t>
+  </si>
+  <si>
+    <t>['2']</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP178"/>
+  <dimension ref="A1:BP180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1656,7 +1659,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1734,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1943,7 +1946,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2149,7 +2152,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ5">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2686,7 +2689,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2892,7 +2895,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2970,10 +2973,10 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AQ9">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AR9">
         <v>1.58</v>
@@ -3098,7 +3101,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3304,7 +3307,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3588,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ12">
         <v>0.97</v>
@@ -3716,7 +3719,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4128,7 +4131,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4206,7 +4209,7 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AQ15">
         <v>1.13</v>
@@ -4621,7 +4624,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ17">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AR17">
         <v>1.4</v>
@@ -4746,7 +4749,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4952,7 +4955,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5158,7 +5161,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5364,7 +5367,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5442,7 +5445,7 @@
         <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AQ21">
         <v>1.47</v>
@@ -5570,7 +5573,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5857,7 +5860,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -5982,7 +5985,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6063,7 +6066,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ24">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AR24">
         <v>1.25</v>
@@ -6266,7 +6269,7 @@
         <v>0.75</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6394,7 +6397,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6475,7 +6478,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ26">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6806,7 +6809,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6884,7 +6887,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AQ28">
         <v>0.97</v>
@@ -7630,7 +7633,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7914,7 +7917,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AQ33">
         <v>2.14</v>
@@ -8042,7 +8045,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8248,7 +8251,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8454,7 +8457,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8532,10 +8535,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR36">
         <v>1.5</v>
@@ -8660,7 +8663,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8944,7 +8947,7 @@
         <v>0.83</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ38">
         <v>1.13</v>
@@ -9278,7 +9281,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9484,7 +9487,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9565,7 +9568,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ41">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AR41">
         <v>1.42</v>
@@ -9690,7 +9693,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9771,7 +9774,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ42">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AR42">
         <v>1.44</v>
@@ -10102,7 +10105,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10183,7 +10186,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR44">
         <v>1.33</v>
@@ -10386,7 +10389,7 @@
         <v>1.71</v>
       </c>
       <c r="AP45">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AQ45">
         <v>1.47</v>
@@ -10514,7 +10517,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10720,7 +10723,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10798,7 +10801,7 @@
         <v>0.57</v>
       </c>
       <c r="AP47">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -11210,7 +11213,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ49">
         <v>0.97</v>
@@ -11419,7 +11422,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ50">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AR50">
         <v>1.93</v>
@@ -11544,7 +11547,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11625,7 +11628,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ51">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -12162,7 +12165,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12368,7 +12371,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12446,10 +12449,10 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR55">
         <v>1.34</v>
@@ -12574,7 +12577,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12780,7 +12783,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12861,7 +12864,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ57">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AR57">
         <v>1.33</v>
@@ -12986,7 +12989,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13398,7 +13401,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13476,7 +13479,7 @@
         <v>1.4</v>
       </c>
       <c r="AP60">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AQ60">
         <v>0.93</v>
@@ -14097,7 +14100,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ63">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AR63">
         <v>1.55</v>
@@ -14506,7 +14509,7 @@
         <v>1.1</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ65">
         <v>1.33</v>
@@ -14634,7 +14637,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14712,7 +14715,7 @@
         <v>1.18</v>
       </c>
       <c r="AP66">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AQ66">
         <v>0.97</v>
@@ -14840,7 +14843,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15046,7 +15049,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15539,7 +15542,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AR70">
         <v>1.35</v>
@@ -15742,7 +15745,7 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ71">
         <v>1.47</v>
@@ -16076,7 +16079,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16157,7 +16160,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ73">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR73">
         <v>1.25</v>
@@ -16282,7 +16285,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16360,10 +16363,10 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AQ74">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AR74">
         <v>1.39</v>
@@ -16488,7 +16491,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16694,7 +16697,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17106,7 +17109,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17312,7 +17315,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17518,7 +17521,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17596,7 +17599,7 @@
         <v>1.92</v>
       </c>
       <c r="AP80">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ80">
         <v>2.14</v>
@@ -18136,7 +18139,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18214,7 +18217,7 @@
         <v>1.31</v>
       </c>
       <c r="AP83">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AQ83">
         <v>1.33</v>
@@ -18342,7 +18345,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18423,7 +18426,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ84">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AR84">
         <v>1.38</v>
@@ -18754,7 +18757,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18835,7 +18838,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ86">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AR86">
         <v>1.45</v>
@@ -19244,7 +19247,7 @@
         <v>2.29</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ88">
         <v>1.93</v>
@@ -19656,7 +19659,7 @@
         <v>1.36</v>
       </c>
       <c r="AP90">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AQ90">
         <v>0.93</v>
@@ -19784,7 +19787,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -20196,7 +20199,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20480,7 +20483,7 @@
         <v>0.67</v>
       </c>
       <c r="AP94">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AQ94">
         <v>0.97</v>
@@ -20608,7 +20611,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20689,7 +20692,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ95">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AR95">
         <v>1.32</v>
@@ -20895,7 +20898,7 @@
         <v>1</v>
       </c>
       <c r="AQ96">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR96">
         <v>1.51</v>
@@ -21020,7 +21023,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21098,10 +21101,10 @@
         <v>1.19</v>
       </c>
       <c r="AP97">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ97">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AR97">
         <v>1.2</v>
@@ -21432,7 +21435,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21925,7 +21928,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ101">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AR101">
         <v>1.8</v>
@@ -22256,7 +22259,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22462,7 +22465,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22543,7 +22546,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ104">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR104">
         <v>1.3</v>
@@ -22668,7 +22671,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22746,7 +22749,7 @@
         <v>1.47</v>
       </c>
       <c r="AP105">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AQ105">
         <v>1.33</v>
@@ -22952,7 +22955,7 @@
         <v>2.06</v>
       </c>
       <c r="AP106">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AQ106">
         <v>1.93</v>
@@ -23080,7 +23083,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23286,7 +23289,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23570,7 +23573,7 @@
         <v>1.28</v>
       </c>
       <c r="AP109">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ109">
         <v>0.93</v>
@@ -23904,7 +23907,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -23985,7 +23988,7 @@
         <v>1</v>
       </c>
       <c r="AQ111">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AR111">
         <v>1.48</v>
@@ -24110,7 +24113,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24191,7 +24194,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ112">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AR112">
         <v>1.5</v>
@@ -24728,7 +24731,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -24806,7 +24809,7 @@
         <v>2.17</v>
       </c>
       <c r="AP115">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AQ115">
         <v>2.14</v>
@@ -25140,7 +25143,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25346,7 +25349,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25552,7 +25555,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25630,7 +25633,7 @@
         <v>0.79</v>
       </c>
       <c r="AP119">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AQ119">
         <v>0.97</v>
@@ -25839,7 +25842,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ120">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR120">
         <v>1.29</v>
@@ -25964,7 +25967,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26170,7 +26173,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26248,7 +26251,7 @@
         <v>0.95</v>
       </c>
       <c r="AP122">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AQ122">
         <v>1.13</v>
@@ -26376,7 +26379,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26454,10 +26457,10 @@
         <v>1.75</v>
       </c>
       <c r="AP123">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ123">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AR123">
         <v>1.18</v>
@@ -26582,7 +26585,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -26994,7 +26997,7 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27200,7 +27203,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27281,7 +27284,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ127">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR127">
         <v>1.39</v>
@@ -27406,7 +27409,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27612,7 +27615,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27690,7 +27693,7 @@
         <v>2.14</v>
       </c>
       <c r="AP129">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AQ129">
         <v>1.93</v>
@@ -27818,7 +27821,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -28024,7 +28027,7 @@
         <v>89</v>
       </c>
       <c r="P131" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28105,7 +28108,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ131">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AR131">
         <v>1.28</v>
@@ -28230,7 +28233,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28642,7 +28645,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -28720,7 +28723,7 @@
         <v>2.18</v>
       </c>
       <c r="AP134">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AQ134">
         <v>1.93</v>
@@ -28926,7 +28929,7 @@
         <v>1.41</v>
       </c>
       <c r="AP135">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AQ135">
         <v>1.33</v>
@@ -29260,7 +29263,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29341,7 +29344,7 @@
         <v>1</v>
       </c>
       <c r="AQ137">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR137">
         <v>1.57</v>
@@ -29466,7 +29469,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29753,7 +29756,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ139">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AR139">
         <v>1.38</v>
@@ -29878,7 +29881,7 @@
         <v>168</v>
       </c>
       <c r="P140" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
@@ -30165,7 +30168,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ141">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AR141">
         <v>1.28</v>
@@ -30290,7 +30293,7 @@
         <v>133</v>
       </c>
       <c r="P142" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q142">
         <v>2.25</v>
@@ -30574,7 +30577,7 @@
         <v>2.14</v>
       </c>
       <c r="AP143">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ143">
         <v>2.14</v>
@@ -30908,7 +30911,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -30986,10 +30989,10 @@
         <v>1.39</v>
       </c>
       <c r="AP145">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AQ145">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR145">
         <v>1.2</v>
@@ -31604,7 +31607,7 @@
         <v>0.92</v>
       </c>
       <c r="AP148">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AQ148">
         <v>0.97</v>
@@ -32144,7 +32147,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q151">
         <v>2.1</v>
@@ -32431,7 +32434,7 @@
         <v>1</v>
       </c>
       <c r="AQ152">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AR152">
         <v>1.52</v>
@@ -32556,7 +32559,7 @@
         <v>174</v>
       </c>
       <c r="P153" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q153">
         <v>3.75</v>
@@ -32840,7 +32843,7 @@
         <v>1.08</v>
       </c>
       <c r="AP154">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ154">
         <v>1.13</v>
@@ -32968,7 +32971,7 @@
         <v>113</v>
       </c>
       <c r="P155" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33049,7 +33052,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ155">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AR155">
         <v>1.36</v>
@@ -33174,7 +33177,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q156">
         <v>6.5</v>
@@ -33667,7 +33670,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ158">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR158">
         <v>1.33</v>
@@ -33870,7 +33873,7 @@
         <v>2.04</v>
       </c>
       <c r="AP159">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AQ159">
         <v>1.93</v>
@@ -34204,7 +34207,7 @@
         <v>180</v>
       </c>
       <c r="P161" t="s">
-        <v>266</v>
+        <v>192</v>
       </c>
       <c r="Q161">
         <v>3.25</v>
@@ -34282,7 +34285,7 @@
         <v>0.92</v>
       </c>
       <c r="AP161">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AQ161">
         <v>0.97</v>
@@ -34616,7 +34619,7 @@
         <v>181</v>
       </c>
       <c r="P163" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q163">
         <v>3.5</v>
@@ -34900,7 +34903,7 @@
         <v>0.96</v>
       </c>
       <c r="AP164">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ164">
         <v>0.97</v>
@@ -35315,7 +35318,7 @@
         <v>1</v>
       </c>
       <c r="AQ166">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AR166">
         <v>1.48</v>
@@ -35521,7 +35524,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ167">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AR167">
         <v>1.7</v>
@@ -36058,7 +36061,7 @@
         <v>185</v>
       </c>
       <c r="P170" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36548,7 +36551,7 @@
         <v>2.07</v>
       </c>
       <c r="AP172">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AQ172">
         <v>2.14</v>
@@ -36754,7 +36757,7 @@
         <v>0.96</v>
       </c>
       <c r="AP173">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AQ173">
         <v>0.93</v>
@@ -36963,7 +36966,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ174">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR174">
         <v>1.5</v>
@@ -37863,6 +37866,418 @@
       </c>
       <c r="BP178">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7487291</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45533.77083333334</v>
+      </c>
+      <c r="F179">
+        <v>8</v>
+      </c>
+      <c r="G179" t="s">
+        <v>80</v>
+      </c>
+      <c r="H179" t="s">
+        <v>70</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>2</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>2</v>
+      </c>
+      <c r="O179" t="s">
+        <v>192</v>
+      </c>
+      <c r="P179" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q179">
+        <v>3.1</v>
+      </c>
+      <c r="R179">
+        <v>1.83</v>
+      </c>
+      <c r="S179">
+        <v>4.5</v>
+      </c>
+      <c r="T179">
+        <v>1.48</v>
+      </c>
+      <c r="U179">
+        <v>2.45</v>
+      </c>
+      <c r="V179">
+        <v>3.2</v>
+      </c>
+      <c r="W179">
+        <v>1.3</v>
+      </c>
+      <c r="X179">
+        <v>9</v>
+      </c>
+      <c r="Y179">
+        <v>1.03</v>
+      </c>
+      <c r="Z179">
+        <v>2.15</v>
+      </c>
+      <c r="AA179">
+        <v>2.9</v>
+      </c>
+      <c r="AB179">
+        <v>3.5</v>
+      </c>
+      <c r="AC179">
+        <v>1.07</v>
+      </c>
+      <c r="AD179">
+        <v>7.5</v>
+      </c>
+      <c r="AE179">
+        <v>1.6</v>
+      </c>
+      <c r="AF179">
+        <v>2.26</v>
+      </c>
+      <c r="AG179">
+        <v>2.88</v>
+      </c>
+      <c r="AH179">
+        <v>1.4</v>
+      </c>
+      <c r="AI179">
+        <v>2.38</v>
+      </c>
+      <c r="AJ179">
+        <v>1.53</v>
+      </c>
+      <c r="AK179">
+        <v>1.22</v>
+      </c>
+      <c r="AL179">
+        <v>1.3</v>
+      </c>
+      <c r="AM179">
+        <v>1.77</v>
+      </c>
+      <c r="AN179">
+        <v>1.5</v>
+      </c>
+      <c r="AO179">
+        <v>0.93</v>
+      </c>
+      <c r="AP179">
+        <v>1.48</v>
+      </c>
+      <c r="AQ179">
+        <v>0.93</v>
+      </c>
+      <c r="AR179">
+        <v>1.18</v>
+      </c>
+      <c r="AS179">
+        <v>1.39</v>
+      </c>
+      <c r="AT179">
+        <v>2.57</v>
+      </c>
+      <c r="AU179">
+        <v>4</v>
+      </c>
+      <c r="AV179">
+        <v>5</v>
+      </c>
+      <c r="AW179">
+        <v>9</v>
+      </c>
+      <c r="AX179">
+        <v>3</v>
+      </c>
+      <c r="AY179">
+        <v>13</v>
+      </c>
+      <c r="AZ179">
+        <v>8</v>
+      </c>
+      <c r="BA179">
+        <v>2</v>
+      </c>
+      <c r="BB179">
+        <v>4</v>
+      </c>
+      <c r="BC179">
+        <v>6</v>
+      </c>
+      <c r="BD179">
+        <v>1.6</v>
+      </c>
+      <c r="BE179">
+        <v>7.7</v>
+      </c>
+      <c r="BF179">
+        <v>2.9</v>
+      </c>
+      <c r="BG179">
+        <v>1.37</v>
+      </c>
+      <c r="BH179">
+        <v>2.85</v>
+      </c>
+      <c r="BI179">
+        <v>1.7</v>
+      </c>
+      <c r="BJ179">
+        <v>2.03</v>
+      </c>
+      <c r="BK179">
+        <v>2.2</v>
+      </c>
+      <c r="BL179">
+        <v>1.6</v>
+      </c>
+      <c r="BM179">
+        <v>3</v>
+      </c>
+      <c r="BN179">
+        <v>1.34</v>
+      </c>
+      <c r="BO179">
+        <v>3.6</v>
+      </c>
+      <c r="BP179">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7487286</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45533.875</v>
+      </c>
+      <c r="F180">
+        <v>8</v>
+      </c>
+      <c r="G180" t="s">
+        <v>77</v>
+      </c>
+      <c r="H180" t="s">
+        <v>71</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180" t="s">
+        <v>89</v>
+      </c>
+      <c r="P180" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q180">
+        <v>5.5</v>
+      </c>
+      <c r="R180">
+        <v>2</v>
+      </c>
+      <c r="S180">
+        <v>2.5</v>
+      </c>
+      <c r="T180">
+        <v>1.48</v>
+      </c>
+      <c r="U180">
+        <v>2.45</v>
+      </c>
+      <c r="V180">
+        <v>3.2</v>
+      </c>
+      <c r="W180">
+        <v>1.3</v>
+      </c>
+      <c r="X180">
+        <v>8</v>
+      </c>
+      <c r="Y180">
+        <v>1.05</v>
+      </c>
+      <c r="Z180">
+        <v>3.92</v>
+      </c>
+      <c r="AA180">
+        <v>2.97</v>
+      </c>
+      <c r="AB180">
+        <v>1.74</v>
+      </c>
+      <c r="AC180">
+        <v>1.07</v>
+      </c>
+      <c r="AD180">
+        <v>7.5</v>
+      </c>
+      <c r="AE180">
+        <v>1.4</v>
+      </c>
+      <c r="AF180">
+        <v>2.8</v>
+      </c>
+      <c r="AG180">
+        <v>2.35</v>
+      </c>
+      <c r="AH180">
+        <v>1.48</v>
+      </c>
+      <c r="AI180">
+        <v>2.25</v>
+      </c>
+      <c r="AJ180">
+        <v>1.57</v>
+      </c>
+      <c r="AK180">
+        <v>1.95</v>
+      </c>
+      <c r="AL180">
+        <v>1.25</v>
+      </c>
+      <c r="AM180">
+        <v>1.18</v>
+      </c>
+      <c r="AN180">
+        <v>1.07</v>
+      </c>
+      <c r="AO180">
+        <v>1.76</v>
+      </c>
+      <c r="AP180">
+        <v>1.03</v>
+      </c>
+      <c r="AQ180">
+        <v>1.8</v>
+      </c>
+      <c r="AR180">
+        <v>1.19</v>
+      </c>
+      <c r="AS180">
+        <v>1.5</v>
+      </c>
+      <c r="AT180">
+        <v>2.69</v>
+      </c>
+      <c r="AU180">
+        <v>2</v>
+      </c>
+      <c r="AV180">
+        <v>8</v>
+      </c>
+      <c r="AW180">
+        <v>8</v>
+      </c>
+      <c r="AX180">
+        <v>9</v>
+      </c>
+      <c r="AY180">
+        <v>10</v>
+      </c>
+      <c r="AZ180">
+        <v>17</v>
+      </c>
+      <c r="BA180">
+        <v>6</v>
+      </c>
+      <c r="BB180">
+        <v>6</v>
+      </c>
+      <c r="BC180">
+        <v>12</v>
+      </c>
+      <c r="BD180">
+        <v>2.34</v>
+      </c>
+      <c r="BE180">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF180">
+        <v>1.76</v>
+      </c>
+      <c r="BG180">
+        <v>1.29</v>
+      </c>
+      <c r="BH180">
+        <v>3.3</v>
+      </c>
+      <c r="BI180">
+        <v>1.5</v>
+      </c>
+      <c r="BJ180">
+        <v>2.4</v>
+      </c>
+      <c r="BK180">
+        <v>2.38</v>
+      </c>
+      <c r="BL180">
+        <v>1.91</v>
+      </c>
+      <c r="BM180">
+        <v>2.25</v>
+      </c>
+      <c r="BN180">
+        <v>1.57</v>
+      </c>
+      <c r="BO180">
+        <v>2.9</v>
+      </c>
+      <c r="BP180">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="275">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,9 @@
     <t>['45+2']</t>
   </si>
   <si>
+    <t>['41']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -833,6 +836,9 @@
   </si>
   <si>
     <t>['2']</t>
+  </si>
+  <si>
+    <t>['32']</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP180"/>
+  <dimension ref="A1:BP182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1659,7 +1665,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -2149,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ5">
         <v>1.03</v>
@@ -2355,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ6">
         <v>0.97</v>
@@ -2561,10 +2567,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ7">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2689,7 +2695,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2770,7 +2776,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ8">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR8">
         <v>0.87</v>
@@ -2895,7 +2901,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3101,7 +3107,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3182,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR10">
         <v>1.47</v>
@@ -3307,7 +3313,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3385,7 +3391,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ11">
         <v>1.47</v>
@@ -3719,7 +3725,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3800,7 +3806,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ13">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AR13">
         <v>1.34</v>
@@ -4131,7 +4137,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4415,7 +4421,7 @@
         <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ16">
         <v>0.93</v>
@@ -4621,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ17">
         <v>1.03</v>
@@ -4749,7 +4755,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4830,7 +4836,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ18">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -4955,7 +4961,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5036,7 +5042,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR19">
         <v>1.31</v>
@@ -5161,7 +5167,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5367,7 +5373,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5573,7 +5579,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5651,10 +5657,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ22">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AR22">
         <v>1.54</v>
@@ -5857,7 +5863,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ23">
         <v>1.48</v>
@@ -5985,7 +5991,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6397,7 +6403,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6681,7 +6687,7 @@
         <v>1.75</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ27">
         <v>0.93</v>
@@ -6809,7 +6815,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6890,7 +6896,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ28">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR28">
         <v>1.41</v>
@@ -7093,10 +7099,10 @@
         <v>2.5</v>
       </c>
       <c r="AP29">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ29">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR29">
         <v>2.13</v>
@@ -7505,10 +7511,10 @@
         <v>1.8</v>
       </c>
       <c r="AP31">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ31">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR31">
         <v>1.28</v>
@@ -7633,7 +7639,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7920,7 +7926,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ33">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AR33">
         <v>1.41</v>
@@ -8045,7 +8051,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8126,7 +8132,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR34">
         <v>1.38</v>
@@ -8251,7 +8257,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8457,7 +8463,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8663,7 +8669,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8744,7 +8750,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ37">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR37">
         <v>1.56</v>
@@ -9153,7 +9159,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9281,7 +9287,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9487,7 +9493,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9565,7 +9571,7 @@
         <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ41">
         <v>1.8</v>
@@ -9693,7 +9699,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9771,7 +9777,7 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ42">
         <v>1.03</v>
@@ -9977,10 +9983,10 @@
         <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ43">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AR43">
         <v>1.44</v>
@@ -10105,7 +10111,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10517,7 +10523,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10595,7 +10601,7 @@
         <v>0.43</v>
       </c>
       <c r="AP46">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ46">
         <v>0.97</v>
@@ -10723,7 +10729,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -11216,7 +11222,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ49">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR49">
         <v>1.1</v>
@@ -11419,7 +11425,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ50">
         <v>1.03</v>
@@ -11547,7 +11553,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11834,7 +11840,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ52">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR52">
         <v>1.52</v>
@@ -12037,7 +12043,7 @@
         <v>1.38</v>
       </c>
       <c r="AP53">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ53">
         <v>0.93</v>
@@ -12165,7 +12171,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12246,7 +12252,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ54">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AR54">
         <v>1.53</v>
@@ -12371,7 +12377,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12577,7 +12583,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12655,10 +12661,10 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ56">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR56">
         <v>1.32</v>
@@ -12783,7 +12789,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12989,7 +12995,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13067,7 +13073,7 @@
         <v>0.44</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ58">
         <v>0.97</v>
@@ -13401,7 +13407,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13891,7 +13897,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP62">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ62">
         <v>1.13</v>
@@ -14097,7 +14103,7 @@
         <v>1.7</v>
       </c>
       <c r="AP63">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ63">
         <v>1.8</v>
@@ -14306,7 +14312,7 @@
         <v>1</v>
       </c>
       <c r="AQ64">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14512,7 +14518,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ65">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR65">
         <v>1.21</v>
@@ -14637,7 +14643,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14718,7 +14724,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ66">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR66">
         <v>1.23</v>
@@ -14843,7 +14849,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15049,7 +15055,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15130,7 +15136,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ68">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AR68">
         <v>1.27</v>
@@ -15333,10 +15339,10 @@
         <v>1.27</v>
       </c>
       <c r="AP69">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ69">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR69">
         <v>1.62</v>
@@ -15951,7 +15957,7 @@
         <v>1.17</v>
       </c>
       <c r="AP72">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -16079,7 +16085,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16285,7 +16291,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16491,7 +16497,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16569,7 +16575,7 @@
         <v>0.55</v>
       </c>
       <c r="AP75">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ75">
         <v>1.13</v>
@@ -16697,7 +16703,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16778,7 +16784,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ76">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR76">
         <v>1.41</v>
@@ -16981,7 +16987,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ77">
         <v>0.93</v>
@@ -17109,7 +17115,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17190,7 +17196,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ78">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR78">
         <v>1.39</v>
@@ -17315,7 +17321,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17521,7 +17527,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17602,7 +17608,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ80">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AR80">
         <v>1.31</v>
@@ -17808,7 +17814,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ81">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR81">
         <v>1.27</v>
@@ -18011,7 +18017,7 @@
         <v>0.54</v>
       </c>
       <c r="AP82">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ82">
         <v>0.97</v>
@@ -18139,7 +18145,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18220,7 +18226,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ83">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR83">
         <v>1.24</v>
@@ -18345,7 +18351,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18757,7 +18763,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -19041,7 +19047,7 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ87">
         <v>1.13</v>
@@ -19250,7 +19256,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ88">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR88">
         <v>1.24</v>
@@ -19453,10 +19459,10 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ89">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR89">
         <v>1.81</v>
@@ -19787,7 +19793,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19868,7 +19874,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ91">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR91">
         <v>1.34</v>
@@ -20199,7 +20205,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20277,10 +20283,10 @@
         <v>2.07</v>
       </c>
       <c r="AP93">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ93">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AR93">
         <v>1.6</v>
@@ -20611,7 +20617,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20689,7 +20695,7 @@
         <v>1.67</v>
       </c>
       <c r="AP95">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ95">
         <v>1.8</v>
@@ -21023,7 +21029,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21307,7 +21313,7 @@
         <v>1.06</v>
       </c>
       <c r="AP98">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ98">
         <v>1</v>
@@ -21435,7 +21441,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21925,7 +21931,7 @@
         <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ101">
         <v>1.8</v>
@@ -22131,10 +22137,10 @@
         <v>0.88</v>
       </c>
       <c r="AP102">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ102">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR102">
         <v>1.45</v>
@@ -22259,7 +22265,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22465,7 +22471,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22671,7 +22677,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22752,7 +22758,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ105">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR105">
         <v>1.45</v>
@@ -22958,7 +22964,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ106">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR106">
         <v>1.21</v>
@@ -23083,7 +23089,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23164,7 +23170,7 @@
         <v>1</v>
       </c>
       <c r="AQ107">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AR107">
         <v>1.51</v>
@@ -23289,7 +23295,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23367,7 +23373,7 @@
         <v>1.53</v>
       </c>
       <c r="AP108">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ108">
         <v>1.47</v>
@@ -23779,7 +23785,7 @@
         <v>0.89</v>
       </c>
       <c r="AP110">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ110">
         <v>1.13</v>
@@ -23907,7 +23913,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24113,7 +24119,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24397,10 +24403,10 @@
         <v>1.39</v>
       </c>
       <c r="AP113">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ113">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR113">
         <v>1.78</v>
@@ -24606,7 +24612,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ114">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR114">
         <v>1.26</v>
@@ -24731,7 +24737,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -24812,7 +24818,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ115">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AR115">
         <v>1.2</v>
@@ -25143,7 +25149,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25221,7 +25227,7 @@
         <v>1.53</v>
       </c>
       <c r="AP117">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ117">
         <v>1.47</v>
@@ -25349,7 +25355,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25430,7 +25436,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ118">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR118">
         <v>1.31</v>
@@ -25555,7 +25561,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25839,7 +25845,7 @@
         <v>1.5</v>
       </c>
       <c r="AP120">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ120">
         <v>1.48</v>
@@ -25967,7 +25973,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26048,7 +26054,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ121">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR121">
         <v>1.22</v>
@@ -26173,7 +26179,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26379,7 +26385,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26585,7 +26591,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -26663,7 +26669,7 @@
         <v>1.6</v>
       </c>
       <c r="AP124">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ124">
         <v>1.47</v>
@@ -26869,10 +26875,10 @@
         <v>0.95</v>
       </c>
       <c r="AP125">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ125">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR125">
         <v>1.61</v>
@@ -26997,7 +27003,7 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27203,7 +27209,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27281,7 +27287,7 @@
         <v>1.4</v>
       </c>
       <c r="AP127">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ127">
         <v>1.48</v>
@@ -27409,7 +27415,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27615,7 +27621,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27696,7 +27702,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ129">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR129">
         <v>1.48</v>
@@ -27821,7 +27827,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -27902,7 +27908,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ130">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AR130">
         <v>1.41</v>
@@ -28027,7 +28033,7 @@
         <v>89</v>
       </c>
       <c r="P131" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28233,7 +28239,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28311,7 +28317,7 @@
         <v>1.1</v>
       </c>
       <c r="AP132">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ132">
         <v>1</v>
@@ -28645,7 +28651,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -28726,7 +28732,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ134">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR134">
         <v>1.2</v>
@@ -28932,7 +28938,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ135">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR135">
         <v>1.47</v>
@@ -29135,7 +29141,7 @@
         <v>1.59</v>
       </c>
       <c r="AP136">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ136">
         <v>1.47</v>
@@ -29263,7 +29269,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29469,7 +29475,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29550,7 +29556,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ138">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR138">
         <v>1.21</v>
@@ -29881,7 +29887,7 @@
         <v>168</v>
       </c>
       <c r="P140" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
@@ -30165,7 +30171,7 @@
         <v>1.61</v>
       </c>
       <c r="AP141">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ141">
         <v>1.8</v>
@@ -30293,7 +30299,7 @@
         <v>133</v>
       </c>
       <c r="P142" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q142">
         <v>2.25</v>
@@ -30371,7 +30377,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ142">
         <v>1.13</v>
@@ -30580,7 +30586,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ143">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AR143">
         <v>1.19</v>
@@ -30783,7 +30789,7 @@
         <v>1.04</v>
       </c>
       <c r="AP144">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ144">
         <v>0.93</v>
@@ -30911,7 +30917,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31198,7 +31204,7 @@
         <v>1</v>
       </c>
       <c r="AQ146">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR146">
         <v>1.51</v>
@@ -31401,10 +31407,10 @@
         <v>2.13</v>
       </c>
       <c r="AP147">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ147">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR147">
         <v>1.35</v>
@@ -32019,7 +32025,7 @@
         <v>1.63</v>
       </c>
       <c r="AP150">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ150">
         <v>1.47</v>
@@ -32147,7 +32153,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q151">
         <v>2.1</v>
@@ -32225,7 +32231,7 @@
         <v>0.88</v>
       </c>
       <c r="AP151">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ151">
         <v>0.97</v>
@@ -32559,7 +32565,7 @@
         <v>174</v>
       </c>
       <c r="P153" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q153">
         <v>3.75</v>
@@ -32640,7 +32646,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ153">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR153">
         <v>1.41</v>
@@ -32971,7 +32977,7 @@
         <v>113</v>
       </c>
       <c r="P155" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33177,7 +33183,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q156">
         <v>6.5</v>
@@ -33255,10 +33261,10 @@
         <v>2.17</v>
       </c>
       <c r="AP156">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ156">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AR156">
         <v>1.33</v>
@@ -33667,7 +33673,7 @@
         <v>1.52</v>
       </c>
       <c r="AP158">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ158">
         <v>1.48</v>
@@ -33876,7 +33882,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ159">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR159">
         <v>1.5</v>
@@ -34079,7 +34085,7 @@
         <v>1.12</v>
       </c>
       <c r="AP160">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ160">
         <v>1</v>
@@ -34288,7 +34294,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ161">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR161">
         <v>1.19</v>
@@ -34619,7 +34625,7 @@
         <v>181</v>
       </c>
       <c r="P163" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q163">
         <v>3.5</v>
@@ -34700,7 +34706,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ163">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR163">
         <v>1.34</v>
@@ -35109,7 +35115,7 @@
         <v>1.11</v>
       </c>
       <c r="AP165">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ165">
         <v>1.13</v>
@@ -35237,7 +35243,7 @@
         <v>182</v>
       </c>
       <c r="P166" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35521,7 +35527,7 @@
         <v>1.74</v>
       </c>
       <c r="AP167">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ167">
         <v>1.8</v>
@@ -35730,7 +35736,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ168">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR168">
         <v>1.43</v>
@@ -35855,7 +35861,7 @@
         <v>184</v>
       </c>
       <c r="P169" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q169">
         <v>3.4</v>
@@ -36061,7 +36067,7 @@
         <v>185</v>
       </c>
       <c r="P170" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36345,10 +36351,10 @@
         <v>0.89</v>
       </c>
       <c r="AP171">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ171">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR171">
         <v>1.31</v>
@@ -36473,7 +36479,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q172">
         <v>6.5</v>
@@ -36554,7 +36560,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ172">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AR172">
         <v>1.2</v>
@@ -36963,7 +36969,7 @@
         <v>1.56</v>
       </c>
       <c r="AP174">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ174">
         <v>1.48</v>
@@ -37091,7 +37097,7 @@
         <v>189</v>
       </c>
       <c r="P175" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37169,7 +37175,7 @@
         <v>1</v>
       </c>
       <c r="AP175">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ175">
         <v>0.97</v>
@@ -37375,7 +37381,7 @@
         <v>1.17</v>
       </c>
       <c r="AP176">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ176">
         <v>1.13</v>
@@ -37584,7 +37590,7 @@
         <v>1</v>
       </c>
       <c r="AQ177">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR177">
         <v>1.47</v>
@@ -37709,7 +37715,7 @@
         <v>191</v>
       </c>
       <c r="P178" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q178">
         <v>4.33</v>
@@ -37790,7 +37796,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ178">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR178">
         <v>1.36</v>
@@ -37915,7 +37921,7 @@
         <v>192</v>
       </c>
       <c r="P179" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q179">
         <v>3.1</v>
@@ -38277,6 +38283,418 @@
         <v>2.9</v>
       </c>
       <c r="BP180">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7487294</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45535.72916666666</v>
+      </c>
+      <c r="F181">
+        <v>9</v>
+      </c>
+      <c r="G181" t="s">
+        <v>79</v>
+      </c>
+      <c r="H181" t="s">
+        <v>73</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>1</v>
+      </c>
+      <c r="O181" t="s">
+        <v>89</v>
+      </c>
+      <c r="P181" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q181">
+        <v>2.1</v>
+      </c>
+      <c r="R181">
+        <v>2.25</v>
+      </c>
+      <c r="S181">
+        <v>6.5</v>
+      </c>
+      <c r="T181">
+        <v>1.36</v>
+      </c>
+      <c r="U181">
+        <v>3</v>
+      </c>
+      <c r="V181">
+        <v>2.75</v>
+      </c>
+      <c r="W181">
+        <v>1.4</v>
+      </c>
+      <c r="X181">
+        <v>7</v>
+      </c>
+      <c r="Y181">
+        <v>1.1</v>
+      </c>
+      <c r="Z181">
+        <v>1.5</v>
+      </c>
+      <c r="AA181">
+        <v>4.2</v>
+      </c>
+      <c r="AB181">
+        <v>5.75</v>
+      </c>
+      <c r="AC181">
+        <v>1.04</v>
+      </c>
+      <c r="AD181">
+        <v>8.5</v>
+      </c>
+      <c r="AE181">
+        <v>1.25</v>
+      </c>
+      <c r="AF181">
+        <v>3.5</v>
+      </c>
+      <c r="AG181">
+        <v>1.95</v>
+      </c>
+      <c r="AH181">
+        <v>1.85</v>
+      </c>
+      <c r="AI181">
+        <v>2.1</v>
+      </c>
+      <c r="AJ181">
+        <v>1.67</v>
+      </c>
+      <c r="AK181">
+        <v>1.07</v>
+      </c>
+      <c r="AL181">
+        <v>1.16</v>
+      </c>
+      <c r="AM181">
+        <v>2.45</v>
+      </c>
+      <c r="AN181">
+        <v>1.93</v>
+      </c>
+      <c r="AO181">
+        <v>0.97</v>
+      </c>
+      <c r="AP181">
+        <v>1.87</v>
+      </c>
+      <c r="AQ181">
+        <v>1.03</v>
+      </c>
+      <c r="AR181">
+        <v>1.51</v>
+      </c>
+      <c r="AS181">
+        <v>1.37</v>
+      </c>
+      <c r="AT181">
+        <v>2.88</v>
+      </c>
+      <c r="AU181">
+        <v>6</v>
+      </c>
+      <c r="AV181">
+        <v>5</v>
+      </c>
+      <c r="AW181">
+        <v>12</v>
+      </c>
+      <c r="AX181">
+        <v>6</v>
+      </c>
+      <c r="AY181">
+        <v>18</v>
+      </c>
+      <c r="AZ181">
+        <v>11</v>
+      </c>
+      <c r="BA181">
+        <v>8</v>
+      </c>
+      <c r="BB181">
+        <v>3</v>
+      </c>
+      <c r="BC181">
+        <v>11</v>
+      </c>
+      <c r="BD181">
+        <v>1.22</v>
+      </c>
+      <c r="BE181">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF181">
+        <v>5.65</v>
+      </c>
+      <c r="BG181">
+        <v>1.3</v>
+      </c>
+      <c r="BH181">
+        <v>3.2</v>
+      </c>
+      <c r="BI181">
+        <v>1.61</v>
+      </c>
+      <c r="BJ181">
+        <v>2.26</v>
+      </c>
+      <c r="BK181">
+        <v>2.02</v>
+      </c>
+      <c r="BL181">
+        <v>1.78</v>
+      </c>
+      <c r="BM181">
+        <v>2.55</v>
+      </c>
+      <c r="BN181">
+        <v>1.45</v>
+      </c>
+      <c r="BO181">
+        <v>3.3</v>
+      </c>
+      <c r="BP181">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7487296</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="F182">
+        <v>9</v>
+      </c>
+      <c r="G182" t="s">
+        <v>75</v>
+      </c>
+      <c r="H182" t="s">
+        <v>74</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182" t="s">
+        <v>193</v>
+      </c>
+      <c r="P182" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q182">
+        <v>4.33</v>
+      </c>
+      <c r="R182">
+        <v>2.05</v>
+      </c>
+      <c r="S182">
+        <v>2.75</v>
+      </c>
+      <c r="T182">
+        <v>1.44</v>
+      </c>
+      <c r="U182">
+        <v>2.63</v>
+      </c>
+      <c r="V182">
+        <v>3.25</v>
+      </c>
+      <c r="W182">
+        <v>1.33</v>
+      </c>
+      <c r="X182">
+        <v>9</v>
+      </c>
+      <c r="Y182">
+        <v>1.07</v>
+      </c>
+      <c r="Z182">
+        <v>3.75</v>
+      </c>
+      <c r="AA182">
+        <v>3.2</v>
+      </c>
+      <c r="AB182">
+        <v>2</v>
+      </c>
+      <c r="AC182">
+        <v>1.03</v>
+      </c>
+      <c r="AD182">
+        <v>7.9</v>
+      </c>
+      <c r="AE182">
+        <v>1.34</v>
+      </c>
+      <c r="AF182">
+        <v>2.88</v>
+      </c>
+      <c r="AG182">
+        <v>2.25</v>
+      </c>
+      <c r="AH182">
+        <v>1.62</v>
+      </c>
+      <c r="AI182">
+        <v>2</v>
+      </c>
+      <c r="AJ182">
+        <v>1.73</v>
+      </c>
+      <c r="AK182">
+        <v>1.73</v>
+      </c>
+      <c r="AL182">
+        <v>1.28</v>
+      </c>
+      <c r="AM182">
+        <v>1.25</v>
+      </c>
+      <c r="AN182">
+        <v>1.33</v>
+      </c>
+      <c r="AO182">
+        <v>2.14</v>
+      </c>
+      <c r="AP182">
+        <v>1.39</v>
+      </c>
+      <c r="AQ182">
+        <v>2.07</v>
+      </c>
+      <c r="AR182">
+        <v>1.35</v>
+      </c>
+      <c r="AS182">
+        <v>1.67</v>
+      </c>
+      <c r="AT182">
+        <v>3.02</v>
+      </c>
+      <c r="AU182">
+        <v>3</v>
+      </c>
+      <c r="AV182">
+        <v>0</v>
+      </c>
+      <c r="AW182">
+        <v>2</v>
+      </c>
+      <c r="AX182">
+        <v>2</v>
+      </c>
+      <c r="AY182">
+        <v>5</v>
+      </c>
+      <c r="AZ182">
+        <v>2</v>
+      </c>
+      <c r="BA182">
+        <v>5</v>
+      </c>
+      <c r="BB182">
+        <v>7</v>
+      </c>
+      <c r="BC182">
+        <v>12</v>
+      </c>
+      <c r="BD182">
+        <v>2.68</v>
+      </c>
+      <c r="BE182">
+        <v>8.1</v>
+      </c>
+      <c r="BF182">
+        <v>1.61</v>
+      </c>
+      <c r="BG182">
+        <v>1.29</v>
+      </c>
+      <c r="BH182">
+        <v>3.3</v>
+      </c>
+      <c r="BI182">
+        <v>1.51</v>
+      </c>
+      <c r="BJ182">
+        <v>2.49</v>
+      </c>
+      <c r="BK182">
+        <v>2.2</v>
+      </c>
+      <c r="BL182">
+        <v>1.95</v>
+      </c>
+      <c r="BM182">
+        <v>2.3</v>
+      </c>
+      <c r="BN182">
+        <v>1.59</v>
+      </c>
+      <c r="BO182">
+        <v>2.9</v>
+      </c>
+      <c r="BP182">
         <v>1.36</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="277">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -598,6 +598,9 @@
     <t>['41']</t>
   </si>
   <si>
+    <t>['45+5', '63']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -839,6 +842,9 @@
   </si>
   <si>
     <t>['32']</t>
+  </si>
+  <si>
+    <t>['74']</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP182"/>
+  <dimension ref="A1:BP184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1540,7 +1546,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ2">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1665,7 +1671,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1743,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1952,7 +1958,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ4">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2158,7 +2164,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ5">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2695,7 +2701,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2773,7 +2779,7 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AQ8">
         <v>1.03</v>
@@ -2901,7 +2907,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2979,10 +2985,10 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AR9">
         <v>1.58</v>
@@ -3107,7 +3113,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3313,7 +3319,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3597,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AQ12">
         <v>0.97</v>
@@ -3725,7 +3731,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4137,7 +4143,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4215,10 +4221,10 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AQ15">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AR15">
         <v>1.29</v>
@@ -4630,7 +4636,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ17">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>1.4</v>
@@ -4755,7 +4761,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4961,7 +4967,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5039,7 +5045,7 @@
         <v>1.67</v>
       </c>
       <c r="AP19">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AQ19">
         <v>1.39</v>
@@ -5167,7 +5173,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5373,7 +5379,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5451,7 +5457,7 @@
         <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>1.47</v>
@@ -5579,7 +5585,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5866,7 +5872,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ23">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -5991,7 +5997,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6072,7 +6078,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ24">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AR24">
         <v>1.25</v>
@@ -6275,7 +6281,7 @@
         <v>0.75</v>
       </c>
       <c r="AP25">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6403,7 +6409,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6484,7 +6490,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ26">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6815,7 +6821,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6893,7 +6899,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AQ28">
         <v>1.03</v>
@@ -7308,7 +7314,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ30">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AR30">
         <v>1.49</v>
@@ -7639,7 +7645,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7923,7 +7929,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AQ33">
         <v>2.07</v>
@@ -8051,7 +8057,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8257,7 +8263,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8335,7 +8341,7 @@
         <v>0.6</v>
       </c>
       <c r="AP35">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AQ35">
         <v>0.97</v>
@@ -8463,7 +8469,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8541,10 +8547,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AR36">
         <v>1.5</v>
@@ -8669,7 +8675,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8953,10 +8959,10 @@
         <v>0.83</v>
       </c>
       <c r="AP38">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AQ38">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AR38">
         <v>1.06</v>
@@ -9287,7 +9293,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9493,7 +9499,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9574,7 +9580,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ41">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AR41">
         <v>1.42</v>
@@ -9699,7 +9705,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9780,7 +9786,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ42">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.44</v>
@@ -10111,7 +10117,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10192,7 +10198,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ44">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AR44">
         <v>1.33</v>
@@ -10395,7 +10401,7 @@
         <v>1.71</v>
       </c>
       <c r="AP45">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AQ45">
         <v>1.47</v>
@@ -10523,7 +10529,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10729,7 +10735,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10807,7 +10813,7 @@
         <v>0.57</v>
       </c>
       <c r="AP47">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -11016,7 +11022,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AR48">
         <v>1.31</v>
@@ -11219,7 +11225,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AQ49">
         <v>1.03</v>
@@ -11428,7 +11434,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ50">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.93</v>
@@ -11553,7 +11559,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11634,7 +11640,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ51">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -12171,7 +12177,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12377,7 +12383,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12455,10 +12461,10 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AQ55">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AR55">
         <v>1.34</v>
@@ -12583,7 +12589,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12789,7 +12795,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12867,10 +12873,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AQ57">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.33</v>
@@ -12995,7 +13001,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13407,7 +13413,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13485,7 +13491,7 @@
         <v>1.4</v>
       </c>
       <c r="AP60">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
         <v>0.93</v>
@@ -13900,7 +13906,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ62">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AR62">
         <v>1.93</v>
@@ -14106,7 +14112,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ63">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AR63">
         <v>1.55</v>
@@ -14515,7 +14521,7 @@
         <v>1.1</v>
       </c>
       <c r="AP65">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AQ65">
         <v>1.39</v>
@@ -14643,7 +14649,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14721,7 +14727,7 @@
         <v>1.18</v>
       </c>
       <c r="AP66">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ66">
         <v>1.03</v>
@@ -14849,7 +14855,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14927,7 +14933,7 @@
         <v>1.36</v>
       </c>
       <c r="AP67">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AQ67">
         <v>0.93</v>
@@ -15055,7 +15061,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15548,7 +15554,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AR70">
         <v>1.35</v>
@@ -15751,7 +15757,7 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AQ71">
         <v>1.47</v>
@@ -16085,7 +16091,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16166,7 +16172,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ73">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AR73">
         <v>1.25</v>
@@ -16291,7 +16297,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16369,10 +16375,10 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AQ74">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR74">
         <v>1.39</v>
@@ -16497,7 +16503,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16578,7 +16584,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ75">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AR75">
         <v>1.36</v>
@@ -16703,7 +16709,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17115,7 +17121,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17193,7 +17199,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AQ78">
         <v>1.87</v>
@@ -17321,7 +17327,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17527,7 +17533,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17605,7 +17611,7 @@
         <v>1.92</v>
       </c>
       <c r="AP80">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AQ80">
         <v>2.07</v>
@@ -18145,7 +18151,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18223,7 +18229,7 @@
         <v>1.31</v>
       </c>
       <c r="AP83">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
         <v>1.39</v>
@@ -18351,7 +18357,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18429,10 +18435,10 @@
         <v>1.69</v>
       </c>
       <c r="AP84">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AQ84">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AR84">
         <v>1.38</v>
@@ -18763,7 +18769,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18844,7 +18850,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ86">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR86">
         <v>1.45</v>
@@ -19050,7 +19056,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ87">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -19253,7 +19259,7 @@
         <v>2.29</v>
       </c>
       <c r="AP88">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AQ88">
         <v>1.87</v>
@@ -19665,7 +19671,7 @@
         <v>1.36</v>
       </c>
       <c r="AP90">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AQ90">
         <v>0.93</v>
@@ -19793,7 +19799,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -20077,7 +20083,7 @@
         <v>1.47</v>
       </c>
       <c r="AP92">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AQ92">
         <v>1.47</v>
@@ -20205,7 +20211,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20489,7 +20495,7 @@
         <v>0.67</v>
       </c>
       <c r="AP94">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ94">
         <v>0.97</v>
@@ -20617,7 +20623,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20698,7 +20704,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ95">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AR95">
         <v>1.32</v>
@@ -20904,7 +20910,7 @@
         <v>1</v>
       </c>
       <c r="AQ96">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AR96">
         <v>1.51</v>
@@ -21029,7 +21035,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21107,10 +21113,10 @@
         <v>1.19</v>
       </c>
       <c r="AP97">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AQ97">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR97">
         <v>1.2</v>
@@ -21441,7 +21447,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21522,7 +21528,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ99">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AR99">
         <v>1.2</v>
@@ -21934,7 +21940,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ101">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AR101">
         <v>1.8</v>
@@ -22265,7 +22271,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22471,7 +22477,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22549,10 +22555,10 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AQ104">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AR104">
         <v>1.3</v>
@@ -22677,7 +22683,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22755,7 +22761,7 @@
         <v>1.47</v>
       </c>
       <c r="AP105">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AQ105">
         <v>1.39</v>
@@ -22961,7 +22967,7 @@
         <v>2.06</v>
       </c>
       <c r="AP106">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ106">
         <v>1.87</v>
@@ -23089,7 +23095,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23295,7 +23301,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23579,7 +23585,7 @@
         <v>1.28</v>
       </c>
       <c r="AP109">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AQ109">
         <v>0.93</v>
@@ -23788,7 +23794,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ110">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AR110">
         <v>1.6</v>
@@ -23913,7 +23919,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -23994,7 +24000,7 @@
         <v>1</v>
       </c>
       <c r="AQ111">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR111">
         <v>1.48</v>
@@ -24119,7 +24125,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24200,7 +24206,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ112">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AR112">
         <v>1.5</v>
@@ -24737,7 +24743,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -24815,7 +24821,7 @@
         <v>2.17</v>
       </c>
       <c r="AP115">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ115">
         <v>2.07</v>
@@ -25021,7 +25027,7 @@
         <v>1.05</v>
       </c>
       <c r="AP116">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AQ116">
         <v>1</v>
@@ -25149,7 +25155,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25355,7 +25361,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25561,7 +25567,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25639,7 +25645,7 @@
         <v>0.79</v>
       </c>
       <c r="AP119">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AQ119">
         <v>0.97</v>
@@ -25848,7 +25854,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ120">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AR120">
         <v>1.29</v>
@@ -25973,7 +25979,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26179,7 +26185,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26257,10 +26263,10 @@
         <v>0.95</v>
       </c>
       <c r="AP122">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ122">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AR122">
         <v>1.17</v>
@@ -26385,7 +26391,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26463,10 +26469,10 @@
         <v>1.75</v>
       </c>
       <c r="AP123">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AQ123">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AR123">
         <v>1.18</v>
@@ -26591,7 +26597,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -27003,7 +27009,7 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27209,7 +27215,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27290,7 +27296,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ127">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AR127">
         <v>1.39</v>
@@ -27415,7 +27421,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27621,7 +27627,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27699,7 +27705,7 @@
         <v>2.14</v>
       </c>
       <c r="AP129">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AQ129">
         <v>1.87</v>
@@ -27827,7 +27833,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -27905,7 +27911,7 @@
         <v>2.1</v>
       </c>
       <c r="AP130">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AQ130">
         <v>2.07</v>
@@ -28033,7 +28039,7 @@
         <v>89</v>
       </c>
       <c r="P131" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28114,7 +28120,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ131">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR131">
         <v>1.28</v>
@@ -28239,7 +28245,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28523,7 +28529,7 @@
         <v>0.95</v>
       </c>
       <c r="AP133">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AQ133">
         <v>0.97</v>
@@ -28651,7 +28657,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -28729,7 +28735,7 @@
         <v>2.18</v>
       </c>
       <c r="AP134">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ134">
         <v>1.87</v>
@@ -28935,7 +28941,7 @@
         <v>1.41</v>
       </c>
       <c r="AP135">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AQ135">
         <v>1.39</v>
@@ -29269,7 +29275,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29350,7 +29356,7 @@
         <v>1</v>
       </c>
       <c r="AQ137">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AR137">
         <v>1.57</v>
@@ -29475,7 +29481,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29762,7 +29768,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ139">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR139">
         <v>1.38</v>
@@ -29887,7 +29893,7 @@
         <v>168</v>
       </c>
       <c r="P140" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
@@ -30174,7 +30180,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ141">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AR141">
         <v>1.28</v>
@@ -30299,7 +30305,7 @@
         <v>133</v>
       </c>
       <c r="P142" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q142">
         <v>2.25</v>
@@ -30380,7 +30386,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ142">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AR142">
         <v>1.56</v>
@@ -30583,7 +30589,7 @@
         <v>2.14</v>
       </c>
       <c r="AP143">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AQ143">
         <v>2.07</v>
@@ -30917,7 +30923,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -30995,10 +31001,10 @@
         <v>1.39</v>
       </c>
       <c r="AP145">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ145">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AR145">
         <v>1.2</v>
@@ -31613,7 +31619,7 @@
         <v>0.92</v>
       </c>
       <c r="AP148">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AQ148">
         <v>0.97</v>
@@ -31819,7 +31825,7 @@
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AQ149">
         <v>0.93</v>
@@ -32153,7 +32159,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q151">
         <v>2.1</v>
@@ -32440,7 +32446,7 @@
         <v>1</v>
       </c>
       <c r="AQ152">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AR152">
         <v>1.52</v>
@@ -32565,7 +32571,7 @@
         <v>174</v>
       </c>
       <c r="P153" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q153">
         <v>3.75</v>
@@ -32849,10 +32855,10 @@
         <v>1.08</v>
       </c>
       <c r="AP154">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AQ154">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AR154">
         <v>1.17</v>
@@ -32977,7 +32983,7 @@
         <v>113</v>
       </c>
       <c r="P155" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33058,7 +33064,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ155">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR155">
         <v>1.36</v>
@@ -33183,7 +33189,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q156">
         <v>6.5</v>
@@ -33676,7 +33682,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ158">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AR158">
         <v>1.33</v>
@@ -33879,7 +33885,7 @@
         <v>2.04</v>
       </c>
       <c r="AP159">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AQ159">
         <v>1.87</v>
@@ -34291,7 +34297,7 @@
         <v>0.92</v>
       </c>
       <c r="AP161">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ161">
         <v>1.03</v>
@@ -34497,7 +34503,7 @@
         <v>1.54</v>
       </c>
       <c r="AP162">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AQ162">
         <v>1.47</v>
@@ -34625,7 +34631,7 @@
         <v>181</v>
       </c>
       <c r="P163" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q163">
         <v>3.5</v>
@@ -34909,7 +34915,7 @@
         <v>0.96</v>
       </c>
       <c r="AP164">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AQ164">
         <v>0.97</v>
@@ -35118,7 +35124,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ165">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AR165">
         <v>1.34</v>
@@ -35243,7 +35249,7 @@
         <v>182</v>
       </c>
       <c r="P166" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35324,7 +35330,7 @@
         <v>1</v>
       </c>
       <c r="AQ166">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR166">
         <v>1.48</v>
@@ -35530,7 +35536,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ167">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AR167">
         <v>1.7</v>
@@ -35861,7 +35867,7 @@
         <v>184</v>
       </c>
       <c r="P169" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q169">
         <v>3.4</v>
@@ -36067,7 +36073,7 @@
         <v>185</v>
       </c>
       <c r="P170" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36145,7 +36151,7 @@
         <v>1.04</v>
       </c>
       <c r="AP170">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AQ170">
         <v>1</v>
@@ -36479,7 +36485,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q172">
         <v>6.5</v>
@@ -36557,7 +36563,7 @@
         <v>2.07</v>
       </c>
       <c r="AP172">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ172">
         <v>2.07</v>
@@ -36763,7 +36769,7 @@
         <v>0.96</v>
       </c>
       <c r="AP173">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AQ173">
         <v>0.93</v>
@@ -36972,7 +36978,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ174">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AR174">
         <v>1.5</v>
@@ -37097,7 +37103,7 @@
         <v>189</v>
       </c>
       <c r="P175" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37384,7 +37390,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ176">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AR176">
         <v>1.69</v>
@@ -37715,7 +37721,7 @@
         <v>191</v>
       </c>
       <c r="P178" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q178">
         <v>4.33</v>
@@ -37921,7 +37927,7 @@
         <v>192</v>
       </c>
       <c r="P179" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q179">
         <v>3.1</v>
@@ -37999,7 +38005,7 @@
         <v>0.93</v>
       </c>
       <c r="AP179">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AQ179">
         <v>0.93</v>
@@ -38205,10 +38211,10 @@
         <v>1.76</v>
       </c>
       <c r="AP180">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ180">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AR180">
         <v>1.19</v>
@@ -38333,7 +38339,7 @@
         <v>89</v>
       </c>
       <c r="P181" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q181">
         <v>2.1</v>
@@ -38696,6 +38702,418 @@
       </c>
       <c r="BP182">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7487292</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45536.72916666666</v>
+      </c>
+      <c r="F183">
+        <v>9</v>
+      </c>
+      <c r="G183" t="s">
+        <v>71</v>
+      </c>
+      <c r="H183" t="s">
+        <v>80</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>2</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>3</v>
+      </c>
+      <c r="O183" t="s">
+        <v>194</v>
+      </c>
+      <c r="P183" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q183">
+        <v>2.6</v>
+      </c>
+      <c r="R183">
+        <v>2.1</v>
+      </c>
+      <c r="S183">
+        <v>4.75</v>
+      </c>
+      <c r="T183">
+        <v>1.5</v>
+      </c>
+      <c r="U183">
+        <v>2.5</v>
+      </c>
+      <c r="V183">
+        <v>3.5</v>
+      </c>
+      <c r="W183">
+        <v>1.29</v>
+      </c>
+      <c r="X183">
+        <v>11</v>
+      </c>
+      <c r="Y183">
+        <v>1.05</v>
+      </c>
+      <c r="Z183">
+        <v>1.95</v>
+      </c>
+      <c r="AA183">
+        <v>3.1</v>
+      </c>
+      <c r="AB183">
+        <v>3.8</v>
+      </c>
+      <c r="AC183">
+        <v>1.05</v>
+      </c>
+      <c r="AD183">
+        <v>8</v>
+      </c>
+      <c r="AE183">
+        <v>1.36</v>
+      </c>
+      <c r="AF183">
+        <v>2.9</v>
+      </c>
+      <c r="AG183">
+        <v>2</v>
+      </c>
+      <c r="AH183">
+        <v>1.7</v>
+      </c>
+      <c r="AI183">
+        <v>1.91</v>
+      </c>
+      <c r="AJ183">
+        <v>1.8</v>
+      </c>
+      <c r="AK183">
+        <v>1.19</v>
+      </c>
+      <c r="AL183">
+        <v>1.29</v>
+      </c>
+      <c r="AM183">
+        <v>1.67</v>
+      </c>
+      <c r="AN183">
+        <v>1.8</v>
+      </c>
+      <c r="AO183">
+        <v>1.48</v>
+      </c>
+      <c r="AP183">
+        <v>1.84</v>
+      </c>
+      <c r="AQ183">
+        <v>1.43</v>
+      </c>
+      <c r="AR183">
+        <v>1.52</v>
+      </c>
+      <c r="AS183">
+        <v>1.2</v>
+      </c>
+      <c r="AT183">
+        <v>2.72</v>
+      </c>
+      <c r="AU183">
+        <v>4</v>
+      </c>
+      <c r="AV183">
+        <v>8</v>
+      </c>
+      <c r="AW183">
+        <v>7</v>
+      </c>
+      <c r="AX183">
+        <v>7</v>
+      </c>
+      <c r="AY183">
+        <v>11</v>
+      </c>
+      <c r="AZ183">
+        <v>15</v>
+      </c>
+      <c r="BA183">
+        <v>4</v>
+      </c>
+      <c r="BB183">
+        <v>4</v>
+      </c>
+      <c r="BC183">
+        <v>8</v>
+      </c>
+      <c r="BD183">
+        <v>1.65</v>
+      </c>
+      <c r="BE183">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF183">
+        <v>2.7</v>
+      </c>
+      <c r="BG183">
+        <v>1.38</v>
+      </c>
+      <c r="BH183">
+        <v>2.8</v>
+      </c>
+      <c r="BI183">
+        <v>1.65</v>
+      </c>
+      <c r="BJ183">
+        <v>2.1</v>
+      </c>
+      <c r="BK183">
+        <v>2.05</v>
+      </c>
+      <c r="BL183">
+        <v>1.7</v>
+      </c>
+      <c r="BM183">
+        <v>2.62</v>
+      </c>
+      <c r="BN183">
+        <v>1.42</v>
+      </c>
+      <c r="BO183">
+        <v>3.4</v>
+      </c>
+      <c r="BP183">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7487297</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="F184">
+        <v>9</v>
+      </c>
+      <c r="G184" t="s">
+        <v>76</v>
+      </c>
+      <c r="H184" t="s">
+        <v>77</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184" t="s">
+        <v>129</v>
+      </c>
+      <c r="P184" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q184">
+        <v>2.75</v>
+      </c>
+      <c r="R184">
+        <v>2.05</v>
+      </c>
+      <c r="S184">
+        <v>4.5</v>
+      </c>
+      <c r="T184">
+        <v>1.44</v>
+      </c>
+      <c r="U184">
+        <v>2.63</v>
+      </c>
+      <c r="V184">
+        <v>3.4</v>
+      </c>
+      <c r="W184">
+        <v>1.3</v>
+      </c>
+      <c r="X184">
+        <v>10</v>
+      </c>
+      <c r="Y184">
+        <v>1.06</v>
+      </c>
+      <c r="Z184">
+        <v>1.95</v>
+      </c>
+      <c r="AA184">
+        <v>3.25</v>
+      </c>
+      <c r="AB184">
+        <v>3.9</v>
+      </c>
+      <c r="AC184">
+        <v>1.06</v>
+      </c>
+      <c r="AD184">
+        <v>7.5</v>
+      </c>
+      <c r="AE184">
+        <v>1.38</v>
+      </c>
+      <c r="AF184">
+        <v>2.8</v>
+      </c>
+      <c r="AG184">
+        <v>2.25</v>
+      </c>
+      <c r="AH184">
+        <v>1.62</v>
+      </c>
+      <c r="AI184">
+        <v>2</v>
+      </c>
+      <c r="AJ184">
+        <v>1.73</v>
+      </c>
+      <c r="AK184">
+        <v>1.2</v>
+      </c>
+      <c r="AL184">
+        <v>1.26</v>
+      </c>
+      <c r="AM184">
+        <v>1.68</v>
+      </c>
+      <c r="AN184">
+        <v>1.13</v>
+      </c>
+      <c r="AO184">
+        <v>1.03</v>
+      </c>
+      <c r="AP184">
+        <v>1.19</v>
+      </c>
+      <c r="AQ184">
+        <v>1</v>
+      </c>
+      <c r="AR184">
+        <v>1.39</v>
+      </c>
+      <c r="AS184">
+        <v>1.19</v>
+      </c>
+      <c r="AT184">
+        <v>2.58</v>
+      </c>
+      <c r="AU184">
+        <v>5</v>
+      </c>
+      <c r="AV184">
+        <v>0</v>
+      </c>
+      <c r="AW184">
+        <v>2</v>
+      </c>
+      <c r="AX184">
+        <v>3</v>
+      </c>
+      <c r="AY184">
+        <v>7</v>
+      </c>
+      <c r="AZ184">
+        <v>3</v>
+      </c>
+      <c r="BA184">
+        <v>4</v>
+      </c>
+      <c r="BB184">
+        <v>5</v>
+      </c>
+      <c r="BC184">
+        <v>9</v>
+      </c>
+      <c r="BD184">
+        <v>1.6</v>
+      </c>
+      <c r="BE184">
+        <v>8.1</v>
+      </c>
+      <c r="BF184">
+        <v>2.85</v>
+      </c>
+      <c r="BG184">
+        <v>1.29</v>
+      </c>
+      <c r="BH184">
+        <v>3.3</v>
+      </c>
+      <c r="BI184">
+        <v>1.48</v>
+      </c>
+      <c r="BJ184">
+        <v>2.5</v>
+      </c>
+      <c r="BK184">
+        <v>2.38</v>
+      </c>
+      <c r="BL184">
+        <v>1.95</v>
+      </c>
+      <c r="BM184">
+        <v>2.2</v>
+      </c>
+      <c r="BN184">
+        <v>1.6</v>
+      </c>
+      <c r="BO184">
+        <v>2.8</v>
+      </c>
+      <c r="BP184">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="278">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -601,6 +601,12 @@
     <t>['45+5', '63']</t>
   </si>
   <si>
+    <t>['51', '54', '71']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -650,9 +656,6 @@
   </si>
   <si>
     <t>['55']</t>
-  </si>
-  <si>
-    <t>['75']</t>
   </si>
   <si>
     <t>['33', '58', '72']</t>
@@ -1206,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP184"/>
+  <dimension ref="A1:BP186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1543,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>1.19</v>
@@ -1671,7 +1674,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1752,7 +1755,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1955,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AQ4">
         <v>1.43</v>
@@ -2370,7 +2373,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ6">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2701,7 +2704,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2907,7 +2910,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3113,7 +3116,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3191,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ10">
         <v>1.39</v>
@@ -3319,7 +3322,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3400,7 +3403,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ11">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AR11">
         <v>1.49</v>
@@ -3606,7 +3609,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ12">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR12">
         <v>1.3</v>
@@ -3731,7 +3734,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3809,7 +3812,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>2.07</v>
@@ -4015,10 +4018,10 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR14">
         <v>1.53</v>
@@ -4143,7 +4146,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4430,7 +4433,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ16">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>1.54</v>
@@ -4761,7 +4764,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4839,7 +4842,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ18">
         <v>1.87</v>
@@ -4967,7 +4970,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5173,7 +5176,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5251,10 +5254,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ20">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR20">
         <v>1.69</v>
@@ -5379,7 +5382,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5460,7 +5463,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AR21">
         <v>1.64</v>
@@ -5585,7 +5588,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5997,7 +6000,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6075,7 +6078,7 @@
         <v>1.67</v>
       </c>
       <c r="AP24">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>1.84</v>
@@ -6284,7 +6287,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR25">
         <v>1.01</v>
@@ -6409,7 +6412,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6487,7 +6490,7 @@
         <v>0.25</v>
       </c>
       <c r="AP26">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6696,7 +6699,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ27">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.52</v>
@@ -6821,7 +6824,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -7311,7 +7314,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AQ30">
         <v>1.19</v>
@@ -7645,7 +7648,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7723,10 +7726,10 @@
         <v>1.6</v>
       </c>
       <c r="AP32">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AR32">
         <v>1.21</v>
@@ -8057,7 +8060,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8135,7 +8138,7 @@
         <v>2.2</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ34">
         <v>1.87</v>
@@ -8263,7 +8266,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8344,7 +8347,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ35">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR35">
         <v>1.5</v>
@@ -8469,7 +8472,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8675,7 +8678,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8753,7 +8756,7 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AQ37">
         <v>1.03</v>
@@ -9168,7 +9171,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR39">
         <v>2.03</v>
@@ -9293,7 +9296,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9371,10 +9374,10 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ40">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.34</v>
@@ -9499,7 +9502,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9705,7 +9708,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -10117,7 +10120,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10195,7 +10198,7 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>1.43</v>
@@ -10404,7 +10407,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ45">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AR45">
         <v>1.37</v>
@@ -10529,7 +10532,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10610,7 +10613,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ46">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR46">
         <v>1.37</v>
@@ -10735,7 +10738,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10816,7 +10819,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR47">
         <v>1.34</v>
@@ -11019,7 +11022,7 @@
         <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ48">
         <v>1.19</v>
@@ -11559,7 +11562,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11637,7 +11640,7 @@
         <v>1.63</v>
       </c>
       <c r="AP51">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ51">
         <v>1.84</v>
@@ -11843,7 +11846,7 @@
         <v>1.38</v>
       </c>
       <c r="AP52">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AQ52">
         <v>1.39</v>
@@ -12052,7 +12055,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ53">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.55</v>
@@ -12177,7 +12180,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12255,7 +12258,7 @@
         <v>1.38</v>
       </c>
       <c r="AP54">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AQ54">
         <v>2.07</v>
@@ -12383,7 +12386,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12589,7 +12592,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12795,7 +12798,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13001,7 +13004,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13082,7 +13085,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ58">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR58">
         <v>1.5</v>
@@ -13285,10 +13288,10 @@
         <v>1.11</v>
       </c>
       <c r="AP59">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR59">
         <v>1.29</v>
@@ -13413,7 +13416,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13494,7 +13497,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>1.22</v>
@@ -13697,10 +13700,10 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ61">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AR61">
         <v>1.27</v>
@@ -14315,7 +14318,7 @@
         <v>1.3</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ64">
         <v>1.03</v>
@@ -14649,7 +14652,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14855,7 +14858,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14936,7 +14939,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ67">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.34</v>
@@ -15061,7 +15064,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15139,7 +15142,7 @@
         <v>1.7</v>
       </c>
       <c r="AP68">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ68">
         <v>2.07</v>
@@ -15551,7 +15554,7 @@
         <v>1.64</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ70">
         <v>1.84</v>
@@ -15760,7 +15763,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ71">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AR71">
         <v>1.22</v>
@@ -15966,7 +15969,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR72">
         <v>1.46</v>
@@ -16091,7 +16094,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16169,7 +16172,7 @@
         <v>1.36</v>
       </c>
       <c r="AP73">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ73">
         <v>1.43</v>
@@ -16297,7 +16300,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16503,7 +16506,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16709,7 +16712,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16787,7 +16790,7 @@
         <v>2.27</v>
       </c>
       <c r="AP76">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AQ76">
         <v>1.87</v>
@@ -16996,7 +16999,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ77">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.87</v>
@@ -17121,7 +17124,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17327,7 +17330,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17405,10 +17408,10 @@
         <v>1.46</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ79">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AR79">
         <v>1.41</v>
@@ -17533,7 +17536,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17817,7 +17820,7 @@
         <v>1.08</v>
       </c>
       <c r="AP81">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AQ81">
         <v>1.03</v>
@@ -18026,7 +18029,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ82">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR82">
         <v>1.64</v>
@@ -18151,7 +18154,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18357,7 +18360,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18641,10 +18644,10 @@
         <v>1</v>
       </c>
       <c r="AP85">
+        <v>1.03</v>
+      </c>
+      <c r="AQ85">
         <v>0.97</v>
-      </c>
-      <c r="AQ85">
-        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.23</v>
@@ -18769,7 +18772,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18847,7 +18850,7 @@
         <v>1.07</v>
       </c>
       <c r="AP86">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AQ86">
         <v>1</v>
@@ -19674,7 +19677,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ90">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.42</v>
@@ -19799,7 +19802,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19877,7 +19880,7 @@
         <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AQ91">
         <v>1.39</v>
@@ -20086,7 +20089,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ92">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AR92">
         <v>1.3</v>
@@ -20211,7 +20214,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20498,7 +20501,7 @@
         <v>1</v>
       </c>
       <c r="AQ94">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR94">
         <v>1.23</v>
@@ -20623,7 +20626,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20907,7 +20910,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ96">
         <v>1.43</v>
@@ -21035,7 +21038,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21322,7 +21325,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ98">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR98">
         <v>1.6</v>
@@ -21447,7 +21450,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21525,7 +21528,7 @@
         <v>0.63</v>
       </c>
       <c r="AP99">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ99">
         <v>1.19</v>
@@ -21731,10 +21734,10 @@
         <v>1.38</v>
       </c>
       <c r="AP100">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AQ100">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR100">
         <v>1.48</v>
@@ -22271,7 +22274,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22349,10 +22352,10 @@
         <v>0.65</v>
       </c>
       <c r="AP103">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AQ103">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR103">
         <v>1.29</v>
@@ -22477,7 +22480,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22683,7 +22686,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -23095,7 +23098,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23173,7 +23176,7 @@
         <v>2.06</v>
       </c>
       <c r="AP107">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ107">
         <v>2.07</v>
@@ -23301,7 +23304,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23382,7 +23385,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ108">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AR108">
         <v>1.32</v>
@@ -23588,7 +23591,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ109">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR109">
         <v>1.21</v>
@@ -23919,7 +23922,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -23997,7 +24000,7 @@
         <v>1.11</v>
       </c>
       <c r="AP111">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ111">
         <v>1</v>
@@ -24125,7 +24128,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24203,7 +24206,7 @@
         <v>1.78</v>
       </c>
       <c r="AP112">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AQ112">
         <v>1.84</v>
@@ -24615,7 +24618,7 @@
         <v>0.83</v>
       </c>
       <c r="AP114">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ114">
         <v>1.03</v>
@@ -24743,7 +24746,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -25030,7 +25033,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR116">
         <v>1.3</v>
@@ -25155,7 +25158,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25236,7 +25239,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ117">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AR117">
         <v>1.42</v>
@@ -25361,7 +25364,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25439,7 +25442,7 @@
         <v>2.05</v>
       </c>
       <c r="AP118">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AQ118">
         <v>1.87</v>
@@ -25567,7 +25570,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25648,7 +25651,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ119">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR119">
         <v>1.48</v>
@@ -25979,7 +25982,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26057,7 +26060,7 @@
         <v>1.25</v>
       </c>
       <c r="AP121">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ121">
         <v>1.39</v>
@@ -26185,7 +26188,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26391,7 +26394,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26597,7 +26600,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -26678,7 +26681,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ124">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AR124">
         <v>1.77</v>
@@ -27009,7 +27012,7 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27087,10 +27090,10 @@
         <v>1.15</v>
       </c>
       <c r="AP126">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ126">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR126">
         <v>1.58</v>
@@ -27215,7 +27218,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27421,7 +27424,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27499,10 +27502,10 @@
         <v>0.86</v>
       </c>
       <c r="AP128">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AQ128">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR128">
         <v>1.44</v>
@@ -27627,7 +27630,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27833,7 +27836,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -28039,7 +28042,7 @@
         <v>89</v>
       </c>
       <c r="P131" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28117,7 +28120,7 @@
         <v>0.95</v>
       </c>
       <c r="AP131">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AQ131">
         <v>1</v>
@@ -28245,7 +28248,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28326,7 +28329,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ132">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR132">
         <v>1.23</v>
@@ -28532,7 +28535,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ133">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR133">
         <v>1.36</v>
@@ -28657,7 +28660,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29150,7 +29153,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ136">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AR136">
         <v>1.27</v>
@@ -29275,7 +29278,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29353,7 +29356,7 @@
         <v>1.33</v>
       </c>
       <c r="AP137">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ137">
         <v>1.43</v>
@@ -29481,7 +29484,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29559,7 +29562,7 @@
         <v>1.39</v>
       </c>
       <c r="AP138">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ138">
         <v>1.39</v>
@@ -29765,7 +29768,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AQ139">
         <v>1</v>
@@ -29893,7 +29896,7 @@
         <v>168</v>
       </c>
       <c r="P140" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
@@ -29971,10 +29974,10 @@
         <v>1.13</v>
       </c>
       <c r="AP140">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AQ140">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR140">
         <v>1.41</v>
@@ -30305,7 +30308,7 @@
         <v>133</v>
       </c>
       <c r="P142" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q142">
         <v>2.25</v>
@@ -30798,7 +30801,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ144">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR144">
         <v>1.69</v>
@@ -30923,7 +30926,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31207,7 +31210,7 @@
         <v>0.88</v>
       </c>
       <c r="AP146">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ146">
         <v>1.03</v>
@@ -31622,7 +31625,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ148">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR148">
         <v>1.5</v>
@@ -31828,7 +31831,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ149">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR149">
         <v>1.36</v>
@@ -32034,7 +32037,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ150">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AR150">
         <v>1.69</v>
@@ -32159,7 +32162,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q151">
         <v>2.1</v>
@@ -32240,7 +32243,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ151">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR151">
         <v>1.54</v>
@@ -32443,7 +32446,7 @@
         <v>1.64</v>
       </c>
       <c r="AP152">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ152">
         <v>1.84</v>
@@ -32571,7 +32574,7 @@
         <v>174</v>
       </c>
       <c r="P153" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q153">
         <v>3.75</v>
@@ -32649,7 +32652,7 @@
         <v>1.44</v>
       </c>
       <c r="AP153">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AQ153">
         <v>1.39</v>
@@ -32983,7 +32986,7 @@
         <v>113</v>
       </c>
       <c r="P155" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33061,7 +33064,7 @@
         <v>0.96</v>
       </c>
       <c r="AP155">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AQ155">
         <v>1</v>
@@ -33189,7 +33192,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q156">
         <v>6.5</v>
@@ -33473,10 +33476,10 @@
         <v>1</v>
       </c>
       <c r="AP157">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ157">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR157">
         <v>1.22</v>
@@ -34094,7 +34097,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ160">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR160">
         <v>1.68</v>
@@ -34506,7 +34509,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ162">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AR162">
         <v>1.34</v>
@@ -34631,7 +34634,7 @@
         <v>181</v>
       </c>
       <c r="P163" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q163">
         <v>3.5</v>
@@ -34709,7 +34712,7 @@
         <v>1.41</v>
       </c>
       <c r="AP163">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AQ163">
         <v>1.39</v>
@@ -34918,7 +34921,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ164">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR164">
         <v>1.17</v>
@@ -35249,7 +35252,7 @@
         <v>182</v>
       </c>
       <c r="P166" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35327,7 +35330,7 @@
         <v>1.04</v>
       </c>
       <c r="AP166">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ166">
         <v>1</v>
@@ -35739,7 +35742,7 @@
         <v>1.96</v>
       </c>
       <c r="AP168">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AQ168">
         <v>1.87</v>
@@ -35867,7 +35870,7 @@
         <v>184</v>
       </c>
       <c r="P169" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q169">
         <v>3.4</v>
@@ -35945,10 +35948,10 @@
         <v>1.54</v>
       </c>
       <c r="AP169">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ169">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AR169">
         <v>1.23</v>
@@ -36073,7 +36076,7 @@
         <v>185</v>
       </c>
       <c r="P170" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36154,7 +36157,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ170">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR170">
         <v>1.38</v>
@@ -36485,7 +36488,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q172">
         <v>6.5</v>
@@ -36772,7 +36775,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ173">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR173">
         <v>1.49</v>
@@ -37103,7 +37106,7 @@
         <v>189</v>
       </c>
       <c r="P175" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37184,7 +37187,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ175">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR175">
         <v>1.36</v>
@@ -37593,7 +37596,7 @@
         <v>1.34</v>
       </c>
       <c r="AP177">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ177">
         <v>1.39</v>
@@ -37721,7 +37724,7 @@
         <v>191</v>
       </c>
       <c r="P178" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q178">
         <v>4.33</v>
@@ -37799,7 +37802,7 @@
         <v>1.97</v>
       </c>
       <c r="AP178">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AQ178">
         <v>1.87</v>
@@ -37927,7 +37930,7 @@
         <v>192</v>
       </c>
       <c r="P179" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q179">
         <v>3.1</v>
@@ -38008,7 +38011,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ179">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR179">
         <v>1.18</v>
@@ -38339,7 +38342,7 @@
         <v>89</v>
       </c>
       <c r="P181" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q181">
         <v>2.1</v>
@@ -38751,7 +38754,7 @@
         <v>194</v>
       </c>
       <c r="P183" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q183">
         <v>2.6</v>
@@ -39114,6 +39117,418 @@
       </c>
       <c r="BP184">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7487293</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45537.75</v>
+      </c>
+      <c r="F185">
+        <v>9</v>
+      </c>
+      <c r="G185" t="s">
+        <v>70</v>
+      </c>
+      <c r="H185" t="s">
+        <v>72</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>3</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>4</v>
+      </c>
+      <c r="O185" t="s">
+        <v>195</v>
+      </c>
+      <c r="P185" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q185">
+        <v>3.75</v>
+      </c>
+      <c r="R185">
+        <v>1.91</v>
+      </c>
+      <c r="S185">
+        <v>3.6</v>
+      </c>
+      <c r="T185">
+        <v>1.57</v>
+      </c>
+      <c r="U185">
+        <v>2.25</v>
+      </c>
+      <c r="V185">
+        <v>3.75</v>
+      </c>
+      <c r="W185">
+        <v>1.25</v>
+      </c>
+      <c r="X185">
+        <v>11</v>
+      </c>
+      <c r="Y185">
+        <v>1.05</v>
+      </c>
+      <c r="Z185">
+        <v>2.75</v>
+      </c>
+      <c r="AA185">
+        <v>2.88</v>
+      </c>
+      <c r="AB185">
+        <v>2.6</v>
+      </c>
+      <c r="AC185">
+        <v>1.09</v>
+      </c>
+      <c r="AD185">
+        <v>6.5</v>
+      </c>
+      <c r="AE185">
+        <v>1.51</v>
+      </c>
+      <c r="AF185">
+        <v>2.45</v>
+      </c>
+      <c r="AG185">
+        <v>2.7</v>
+      </c>
+      <c r="AH185">
+        <v>1.44</v>
+      </c>
+      <c r="AI185">
+        <v>2.2</v>
+      </c>
+      <c r="AJ185">
+        <v>1.62</v>
+      </c>
+      <c r="AK185">
+        <v>1.45</v>
+      </c>
+      <c r="AL185">
+        <v>1.3</v>
+      </c>
+      <c r="AM185">
+        <v>1.42</v>
+      </c>
+      <c r="AN185">
+        <v>0.93</v>
+      </c>
+      <c r="AO185">
+        <v>1.47</v>
+      </c>
+      <c r="AP185">
+        <v>1</v>
+      </c>
+      <c r="AQ185">
+        <v>1.42</v>
+      </c>
+      <c r="AR185">
+        <v>1.38</v>
+      </c>
+      <c r="AS185">
+        <v>1.37</v>
+      </c>
+      <c r="AT185">
+        <v>2.75</v>
+      </c>
+      <c r="AU185">
+        <v>4</v>
+      </c>
+      <c r="AV185">
+        <v>4</v>
+      </c>
+      <c r="AW185">
+        <v>4</v>
+      </c>
+      <c r="AX185">
+        <v>3</v>
+      </c>
+      <c r="AY185">
+        <v>8</v>
+      </c>
+      <c r="AZ185">
+        <v>7</v>
+      </c>
+      <c r="BA185">
+        <v>7</v>
+      </c>
+      <c r="BB185">
+        <v>6</v>
+      </c>
+      <c r="BC185">
+        <v>13</v>
+      </c>
+      <c r="BD185">
+        <v>1.97</v>
+      </c>
+      <c r="BE185">
+        <v>7.3</v>
+      </c>
+      <c r="BF185">
+        <v>2.2</v>
+      </c>
+      <c r="BG185">
+        <v>1.38</v>
+      </c>
+      <c r="BH185">
+        <v>2.8</v>
+      </c>
+      <c r="BI185">
+        <v>1.65</v>
+      </c>
+      <c r="BJ185">
+        <v>2.1</v>
+      </c>
+      <c r="BK185">
+        <v>2</v>
+      </c>
+      <c r="BL185">
+        <v>1.73</v>
+      </c>
+      <c r="BM185">
+        <v>2.6</v>
+      </c>
+      <c r="BN185">
+        <v>1.44</v>
+      </c>
+      <c r="BO185">
+        <v>3.4</v>
+      </c>
+      <c r="BP185">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7487295</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45537.85416666666</v>
+      </c>
+      <c r="F186">
+        <v>9</v>
+      </c>
+      <c r="G186" t="s">
+        <v>81</v>
+      </c>
+      <c r="H186" t="s">
+        <v>78</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186" t="s">
+        <v>196</v>
+      </c>
+      <c r="P186" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q186">
+        <v>2.63</v>
+      </c>
+      <c r="R186">
+        <v>2.1</v>
+      </c>
+      <c r="S186">
+        <v>4.5</v>
+      </c>
+      <c r="T186">
+        <v>1.44</v>
+      </c>
+      <c r="U186">
+        <v>2.63</v>
+      </c>
+      <c r="V186">
+        <v>3.25</v>
+      </c>
+      <c r="W186">
+        <v>1.33</v>
+      </c>
+      <c r="X186">
+        <v>10</v>
+      </c>
+      <c r="Y186">
+        <v>1.06</v>
+      </c>
+      <c r="Z186">
+        <v>2.15</v>
+      </c>
+      <c r="AA186">
+        <v>3.1</v>
+      </c>
+      <c r="AB186">
+        <v>3</v>
+      </c>
+      <c r="AC186">
+        <v>1.07</v>
+      </c>
+      <c r="AD186">
+        <v>6.8</v>
+      </c>
+      <c r="AE186">
+        <v>1.35</v>
+      </c>
+      <c r="AF186">
+        <v>2.9</v>
+      </c>
+      <c r="AG186">
+        <v>2.05</v>
+      </c>
+      <c r="AH186">
+        <v>1.61</v>
+      </c>
+      <c r="AI186">
+        <v>1.91</v>
+      </c>
+      <c r="AJ186">
+        <v>1.8</v>
+      </c>
+      <c r="AK186">
+        <v>1.33</v>
+      </c>
+      <c r="AL186">
+        <v>1.28</v>
+      </c>
+      <c r="AM186">
+        <v>1.62</v>
+      </c>
+      <c r="AN186">
+        <v>0.97</v>
+      </c>
+      <c r="AO186">
+        <v>1</v>
+      </c>
+      <c r="AP186">
+        <v>1.03</v>
+      </c>
+      <c r="AQ186">
+        <v>0.97</v>
+      </c>
+      <c r="AR186">
+        <v>1.26</v>
+      </c>
+      <c r="AS186">
+        <v>1.47</v>
+      </c>
+      <c r="AT186">
+        <v>2.73</v>
+      </c>
+      <c r="AU186">
+        <v>0</v>
+      </c>
+      <c r="AV186">
+        <v>2</v>
+      </c>
+      <c r="AW186">
+        <v>2</v>
+      </c>
+      <c r="AX186">
+        <v>2</v>
+      </c>
+      <c r="AY186">
+        <v>2</v>
+      </c>
+      <c r="AZ186">
+        <v>4</v>
+      </c>
+      <c r="BA186">
+        <v>2</v>
+      </c>
+      <c r="BB186">
+        <v>7</v>
+      </c>
+      <c r="BC186">
+        <v>9</v>
+      </c>
+      <c r="BD186">
+        <v>1.62</v>
+      </c>
+      <c r="BE186">
+        <v>8</v>
+      </c>
+      <c r="BF186">
+        <v>2.8</v>
+      </c>
+      <c r="BG186">
+        <v>1.33</v>
+      </c>
+      <c r="BH186">
+        <v>3</v>
+      </c>
+      <c r="BI186">
+        <v>1.57</v>
+      </c>
+      <c r="BJ186">
+        <v>2.25</v>
+      </c>
+      <c r="BK186">
+        <v>1.91</v>
+      </c>
+      <c r="BL186">
+        <v>1.8</v>
+      </c>
+      <c r="BM186">
+        <v>2.4</v>
+      </c>
+      <c r="BN186">
+        <v>1.5</v>
+      </c>
+      <c r="BO186">
+        <v>3.2</v>
+      </c>
+      <c r="BP186">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="278">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1209,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP186"/>
+  <dimension ref="A1:BP188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1755,7 +1755,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ3">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AQ6">
         <v>1.03</v>
@@ -2579,7 +2579,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ7">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3194,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ10">
         <v>1.39</v>
@@ -3400,7 +3400,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AQ11">
         <v>1.42</v>
@@ -3815,7 +3815,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AR13">
         <v>1.34</v>
@@ -4021,7 +4021,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ14">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR14">
         <v>1.53</v>
@@ -4845,7 +4845,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ18">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -5254,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ20">
         <v>1.03</v>
@@ -5669,7 +5669,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ22">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AR22">
         <v>1.54</v>
@@ -5872,7 +5872,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AQ23">
         <v>1.43</v>
@@ -6287,7 +6287,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ25">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR25">
         <v>1.01</v>
@@ -7108,10 +7108,10 @@
         <v>2.5</v>
       </c>
       <c r="AP29">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AQ29">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AR29">
         <v>2.13</v>
@@ -7935,7 +7935,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ33">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AR33">
         <v>1.41</v>
@@ -8138,10 +8138,10 @@
         <v>2.2</v>
       </c>
       <c r="AP34">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ34">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AR34">
         <v>1.38</v>
@@ -9168,10 +9168,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AQ39">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR39">
         <v>2.03</v>
@@ -9786,7 +9786,7 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9995,7 +9995,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ43">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AR43">
         <v>1.44</v>
@@ -10819,7 +10819,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR47">
         <v>1.34</v>
@@ -11022,7 +11022,7 @@
         <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ48">
         <v>1.19</v>
@@ -11434,7 +11434,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -12052,7 +12052,7 @@
         <v>1.38</v>
       </c>
       <c r="AP53">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12261,7 +12261,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ54">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AR54">
         <v>1.53</v>
@@ -12673,7 +12673,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ56">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AR56">
         <v>1.32</v>
@@ -13291,7 +13291,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR59">
         <v>1.29</v>
@@ -13906,7 +13906,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP62">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AQ62">
         <v>1.19</v>
@@ -14112,7 +14112,7 @@
         <v>1.7</v>
       </c>
       <c r="AP63">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AQ63">
         <v>1.84</v>
@@ -14318,7 +14318,7 @@
         <v>1.3</v>
       </c>
       <c r="AP64">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ64">
         <v>1.03</v>
@@ -15145,7 +15145,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ68">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AR68">
         <v>1.27</v>
@@ -15348,7 +15348,7 @@
         <v>1.27</v>
       </c>
       <c r="AP69">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AQ69">
         <v>1.39</v>
@@ -15554,7 +15554,7 @@
         <v>1.64</v>
       </c>
       <c r="AP70">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ70">
         <v>1.84</v>
@@ -15969,7 +15969,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ72">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR72">
         <v>1.46</v>
@@ -16793,7 +16793,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ76">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AR76">
         <v>1.41</v>
@@ -16996,7 +16996,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -17205,7 +17205,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ78">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AR78">
         <v>1.39</v>
@@ -17408,7 +17408,7 @@
         <v>1.46</v>
       </c>
       <c r="AP79">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ79">
         <v>1.42</v>
@@ -17617,7 +17617,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ80">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AR80">
         <v>1.31</v>
@@ -18026,7 +18026,7 @@
         <v>0.54</v>
       </c>
       <c r="AP82">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AQ82">
         <v>1.03</v>
@@ -18647,7 +18647,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ85">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR85">
         <v>1.23</v>
@@ -19265,7 +19265,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ88">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AR88">
         <v>1.24</v>
@@ -19468,7 +19468,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AQ89">
         <v>1.03</v>
@@ -20292,10 +20292,10 @@
         <v>2.07</v>
       </c>
       <c r="AP93">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AQ93">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AR93">
         <v>1.6</v>
@@ -20910,7 +20910,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ96">
         <v>1.43</v>
@@ -21322,10 +21322,10 @@
         <v>1.06</v>
       </c>
       <c r="AP98">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AQ98">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR98">
         <v>1.6</v>
@@ -21940,7 +21940,7 @@
         <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AQ101">
         <v>1.84</v>
@@ -22973,7 +22973,7 @@
         <v>1</v>
       </c>
       <c r="AQ106">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AR106">
         <v>1.21</v>
@@ -23176,10 +23176,10 @@
         <v>2.06</v>
       </c>
       <c r="AP107">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ107">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AR107">
         <v>1.51</v>
@@ -23794,7 +23794,7 @@
         <v>0.89</v>
       </c>
       <c r="AP110">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AQ110">
         <v>1.19</v>
@@ -24000,7 +24000,7 @@
         <v>1.11</v>
       </c>
       <c r="AP111">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ111">
         <v>1</v>
@@ -24412,7 +24412,7 @@
         <v>1.39</v>
       </c>
       <c r="AP113">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AQ113">
         <v>1.39</v>
@@ -24827,7 +24827,7 @@
         <v>1</v>
       </c>
       <c r="AQ115">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AR115">
         <v>1.2</v>
@@ -25033,7 +25033,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ116">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR116">
         <v>1.3</v>
@@ -25445,7 +25445,7 @@
         <v>1</v>
       </c>
       <c r="AQ118">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AR118">
         <v>1.31</v>
@@ -26678,7 +26678,7 @@
         <v>1.6</v>
       </c>
       <c r="AP124">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AQ124">
         <v>1.42</v>
@@ -26884,7 +26884,7 @@
         <v>0.95</v>
       </c>
       <c r="AP125">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AQ125">
         <v>1.03</v>
@@ -27090,7 +27090,7 @@
         <v>1.15</v>
       </c>
       <c r="AP126">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ126">
         <v>1</v>
@@ -27711,7 +27711,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ129">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AR129">
         <v>1.48</v>
@@ -27917,7 +27917,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ130">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AR130">
         <v>1.41</v>
@@ -28329,7 +28329,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ132">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR132">
         <v>1.23</v>
@@ -28741,7 +28741,7 @@
         <v>1</v>
       </c>
       <c r="AQ134">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AR134">
         <v>1.2</v>
@@ -29356,7 +29356,7 @@
         <v>1.33</v>
       </c>
       <c r="AP137">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ137">
         <v>1.43</v>
@@ -29977,7 +29977,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ140">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR140">
         <v>1.41</v>
@@ -30386,7 +30386,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AQ142">
         <v>1.19</v>
@@ -30595,7 +30595,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ143">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AR143">
         <v>1.19</v>
@@ -30798,7 +30798,7 @@
         <v>1.04</v>
       </c>
       <c r="AP144">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AQ144">
         <v>1</v>
@@ -31210,7 +31210,7 @@
         <v>0.88</v>
       </c>
       <c r="AP146">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ146">
         <v>1.03</v>
@@ -31419,7 +31419,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ147">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AR147">
         <v>1.35</v>
@@ -32034,7 +32034,7 @@
         <v>1.63</v>
       </c>
       <c r="AP150">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AQ150">
         <v>1.42</v>
@@ -32240,7 +32240,7 @@
         <v>0.88</v>
       </c>
       <c r="AP151">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AQ151">
         <v>1.03</v>
@@ -32446,7 +32446,7 @@
         <v>1.64</v>
       </c>
       <c r="AP152">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ152">
         <v>1.84</v>
@@ -33273,7 +33273,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ156">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AR156">
         <v>1.33</v>
@@ -33891,7 +33891,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ159">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AR159">
         <v>1.5</v>
@@ -34094,10 +34094,10 @@
         <v>1.12</v>
       </c>
       <c r="AP160">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AQ160">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR160">
         <v>1.68</v>
@@ -35330,7 +35330,7 @@
         <v>1.04</v>
       </c>
       <c r="AP166">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ166">
         <v>1</v>
@@ -35536,7 +35536,7 @@
         <v>1.74</v>
       </c>
       <c r="AP167">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AQ167">
         <v>1.84</v>
@@ -35745,7 +35745,7 @@
         <v>1</v>
       </c>
       <c r="AQ168">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AR168">
         <v>1.43</v>
@@ -36157,7 +36157,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ170">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR170">
         <v>1.38</v>
@@ -36569,7 +36569,7 @@
         <v>1</v>
       </c>
       <c r="AQ172">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AR172">
         <v>1.2</v>
@@ -36978,7 +36978,7 @@
         <v>1.56</v>
       </c>
       <c r="AP174">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AQ174">
         <v>1.43</v>
@@ -37390,7 +37390,7 @@
         <v>1.17</v>
       </c>
       <c r="AP176">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AQ176">
         <v>1.19</v>
@@ -37596,7 +37596,7 @@
         <v>1.34</v>
       </c>
       <c r="AP177">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ177">
         <v>1.39</v>
@@ -37805,7 +37805,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ178">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AR178">
         <v>1.36</v>
@@ -38420,7 +38420,7 @@
         <v>0.97</v>
       </c>
       <c r="AP181">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AQ181">
         <v>1.03</v>
@@ -38629,7 +38629,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ182">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AR182">
         <v>1.35</v>
@@ -39453,7 +39453,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ186">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR186">
         <v>1.26</v>
@@ -39529,6 +39529,418 @@
       </c>
       <c r="BP186">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7487301</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45546.77083333334</v>
+      </c>
+      <c r="F187">
+        <v>10</v>
+      </c>
+      <c r="G187" t="s">
+        <v>78</v>
+      </c>
+      <c r="H187" t="s">
+        <v>79</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187" t="s">
+        <v>89</v>
+      </c>
+      <c r="P187" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q187">
+        <v>5.5</v>
+      </c>
+      <c r="R187">
+        <v>2.1</v>
+      </c>
+      <c r="S187">
+        <v>2.4</v>
+      </c>
+      <c r="T187">
+        <v>1.36</v>
+      </c>
+      <c r="U187">
+        <v>3.02</v>
+      </c>
+      <c r="V187">
+        <v>2.83</v>
+      </c>
+      <c r="W187">
+        <v>1.4</v>
+      </c>
+      <c r="X187">
+        <v>6</v>
+      </c>
+      <c r="Y187">
+        <v>1.09</v>
+      </c>
+      <c r="Z187">
+        <v>4.5</v>
+      </c>
+      <c r="AA187">
+        <v>3.5</v>
+      </c>
+      <c r="AB187">
+        <v>1.7</v>
+      </c>
+      <c r="AC187">
+        <v>1.03</v>
+      </c>
+      <c r="AD187">
+        <v>9</v>
+      </c>
+      <c r="AE187">
+        <v>1.3</v>
+      </c>
+      <c r="AF187">
+        <v>3.2</v>
+      </c>
+      <c r="AG187">
+        <v>2.15</v>
+      </c>
+      <c r="AH187">
+        <v>1.67</v>
+      </c>
+      <c r="AI187">
+        <v>2</v>
+      </c>
+      <c r="AJ187">
+        <v>1.73</v>
+      </c>
+      <c r="AK187">
+        <v>2.02</v>
+      </c>
+      <c r="AL187">
+        <v>1.2</v>
+      </c>
+      <c r="AM187">
+        <v>1.12</v>
+      </c>
+      <c r="AN187">
+        <v>0.97</v>
+      </c>
+      <c r="AO187">
+        <v>1.87</v>
+      </c>
+      <c r="AP187">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ187">
+        <v>1.91</v>
+      </c>
+      <c r="AR187">
+        <v>1.45</v>
+      </c>
+      <c r="AS187">
+        <v>1.53</v>
+      </c>
+      <c r="AT187">
+        <v>2.98</v>
+      </c>
+      <c r="AU187">
+        <v>3</v>
+      </c>
+      <c r="AV187">
+        <v>4</v>
+      </c>
+      <c r="AW187">
+        <v>9</v>
+      </c>
+      <c r="AX187">
+        <v>9</v>
+      </c>
+      <c r="AY187">
+        <v>12</v>
+      </c>
+      <c r="AZ187">
+        <v>13</v>
+      </c>
+      <c r="BA187">
+        <v>3</v>
+      </c>
+      <c r="BB187">
+        <v>5</v>
+      </c>
+      <c r="BC187">
+        <v>8</v>
+      </c>
+      <c r="BD187">
+        <v>2.98</v>
+      </c>
+      <c r="BE187">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF187">
+        <v>1.51</v>
+      </c>
+      <c r="BG187">
+        <v>1.29</v>
+      </c>
+      <c r="BH187">
+        <v>3.3</v>
+      </c>
+      <c r="BI187">
+        <v>1.52</v>
+      </c>
+      <c r="BJ187">
+        <v>2.37</v>
+      </c>
+      <c r="BK187">
+        <v>2.38</v>
+      </c>
+      <c r="BL187">
+        <v>1.84</v>
+      </c>
+      <c r="BM187">
+        <v>2.35</v>
+      </c>
+      <c r="BN187">
+        <v>1.53</v>
+      </c>
+      <c r="BO187">
+        <v>3.1</v>
+      </c>
+      <c r="BP187">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7487300</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45546.875</v>
+      </c>
+      <c r="F188">
+        <v>10</v>
+      </c>
+      <c r="G188" t="s">
+        <v>74</v>
+      </c>
+      <c r="H188" t="s">
+        <v>81</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188">
+        <v>2</v>
+      </c>
+      <c r="O188" t="s">
+        <v>197</v>
+      </c>
+      <c r="P188" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q188">
+        <v>2.25</v>
+      </c>
+      <c r="R188">
+        <v>2.2</v>
+      </c>
+      <c r="S188">
+        <v>5.5</v>
+      </c>
+      <c r="T188">
+        <v>1.4</v>
+      </c>
+      <c r="U188">
+        <v>2.84</v>
+      </c>
+      <c r="V188">
+        <v>3.06</v>
+      </c>
+      <c r="W188">
+        <v>1.35</v>
+      </c>
+      <c r="X188">
+        <v>7</v>
+      </c>
+      <c r="Y188">
+        <v>1.07</v>
+      </c>
+      <c r="Z188">
+        <v>1.6</v>
+      </c>
+      <c r="AA188">
+        <v>3.7</v>
+      </c>
+      <c r="AB188">
+        <v>5</v>
+      </c>
+      <c r="AC188">
+        <v>1.04</v>
+      </c>
+      <c r="AD188">
+        <v>8.5</v>
+      </c>
+      <c r="AE188">
+        <v>1.33</v>
+      </c>
+      <c r="AF188">
+        <v>3</v>
+      </c>
+      <c r="AG188">
+        <v>2</v>
+      </c>
+      <c r="AH188">
+        <v>1.8</v>
+      </c>
+      <c r="AI188">
+        <v>2</v>
+      </c>
+      <c r="AJ188">
+        <v>1.73</v>
+      </c>
+      <c r="AK188">
+        <v>1.13</v>
+      </c>
+      <c r="AL188">
+        <v>1.25</v>
+      </c>
+      <c r="AM188">
+        <v>2.4</v>
+      </c>
+      <c r="AN188">
+        <v>2.07</v>
+      </c>
+      <c r="AO188">
+        <v>1.03</v>
+      </c>
+      <c r="AP188">
+        <v>2.03</v>
+      </c>
+      <c r="AQ188">
+        <v>1.03</v>
+      </c>
+      <c r="AR188">
+        <v>1.64</v>
+      </c>
+      <c r="AS188">
+        <v>1.24</v>
+      </c>
+      <c r="AT188">
+        <v>2.88</v>
+      </c>
+      <c r="AU188">
+        <v>6</v>
+      </c>
+      <c r="AV188">
+        <v>3</v>
+      </c>
+      <c r="AW188">
+        <v>9</v>
+      </c>
+      <c r="AX188">
+        <v>2</v>
+      </c>
+      <c r="AY188">
+        <v>15</v>
+      </c>
+      <c r="AZ188">
+        <v>5</v>
+      </c>
+      <c r="BA188">
+        <v>7</v>
+      </c>
+      <c r="BB188">
+        <v>3</v>
+      </c>
+      <c r="BC188">
+        <v>10</v>
+      </c>
+      <c r="BD188">
+        <v>0</v>
+      </c>
+      <c r="BE188">
+        <v>0</v>
+      </c>
+      <c r="BF188">
+        <v>0</v>
+      </c>
+      <c r="BG188">
+        <v>0</v>
+      </c>
+      <c r="BH188">
+        <v>0</v>
+      </c>
+      <c r="BI188">
+        <v>0</v>
+      </c>
+      <c r="BJ188">
+        <v>0</v>
+      </c>
+      <c r="BK188">
+        <v>0</v>
+      </c>
+      <c r="BL188">
+        <v>0</v>
+      </c>
+      <c r="BM188">
+        <v>0</v>
+      </c>
+      <c r="BN188">
+        <v>0</v>
+      </c>
+      <c r="BO188">
+        <v>0</v>
+      </c>
+      <c r="BP188">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="283">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -610,6 +610,12 @@
     <t>['62']</t>
   </si>
   <si>
+    <t>['54', '76']</t>
+  </si>
+  <si>
+    <t>['10', '16']</t>
+  </si>
+  <si>
     <t>['44', '85']</t>
   </si>
   <si>
@@ -848,6 +854,15 @@
   </si>
   <si>
     <t>['74']</t>
+  </si>
+  <si>
+    <t>['44', '65', '79']</t>
+  </si>
+  <si>
+    <t>['11', '34', '64', '71']</t>
+  </si>
+  <si>
+    <t>['38', '51']</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP188"/>
+  <dimension ref="A1:BP192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1546,10 +1561,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ2">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1752,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AQ3">
         <v>0.9399999999999999</v>
@@ -1958,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ4">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2164,10 +2179,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2576,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AQ7">
         <v>1.91</v>
@@ -2704,7 +2719,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2782,10 +2797,10 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AQ8">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0.87</v>
@@ -2910,7 +2925,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2988,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ9">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AR9">
         <v>1.58</v>
@@ -3116,7 +3131,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3197,7 +3212,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ10">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AR10">
         <v>1.47</v>
@@ -3322,7 +3337,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3403,7 +3418,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ11">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR11">
         <v>1.49</v>
@@ -3606,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AQ12">
         <v>1.03</v>
@@ -3734,7 +3749,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3812,7 +3827,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ13">
         <v>2.03</v>
@@ -4018,7 +4033,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ14">
         <v>0.9399999999999999</v>
@@ -4146,7 +4161,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4224,10 +4239,10 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AQ15">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AR15">
         <v>1.29</v>
@@ -4430,10 +4445,10 @@
         <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR16">
         <v>1.54</v>
@@ -4636,10 +4651,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR17">
         <v>1.4</v>
@@ -4764,7 +4779,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4970,7 +4985,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5048,10 +5063,10 @@
         <v>1.67</v>
       </c>
       <c r="AP19">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AQ19">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AR19">
         <v>1.31</v>
@@ -5176,7 +5191,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5382,7 +5397,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5460,10 +5475,10 @@
         <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ21">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR21">
         <v>1.64</v>
@@ -5588,7 +5603,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5666,7 +5681,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
         <v>2.03</v>
@@ -5875,7 +5890,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ23">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -6078,10 +6093,10 @@
         <v>1.67</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ24">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AR24">
         <v>1.25</v>
@@ -6284,7 +6299,7 @@
         <v>0.75</v>
       </c>
       <c r="AP25">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AQ25">
         <v>0.9399999999999999</v>
@@ -6412,7 +6427,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6493,7 +6508,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6696,10 +6711,10 @@
         <v>1.75</v>
       </c>
       <c r="AP27">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR27">
         <v>1.52</v>
@@ -6824,7 +6839,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6902,10 +6917,10 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AQ28">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.41</v>
@@ -7314,10 +7329,10 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ30">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AR30">
         <v>1.49</v>
@@ -7520,10 +7535,10 @@
         <v>1.8</v>
       </c>
       <c r="AP31">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AR31">
         <v>1.28</v>
@@ -7648,7 +7663,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7726,10 +7741,10 @@
         <v>1.6</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ32">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR32">
         <v>1.21</v>
@@ -7932,7 +7947,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AQ33">
         <v>2.03</v>
@@ -8060,7 +8075,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8266,7 +8281,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8344,7 +8359,7 @@
         <v>0.6</v>
       </c>
       <c r="AP35">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AQ35">
         <v>1.03</v>
@@ -8472,7 +8487,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8550,10 +8565,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ36">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AR36">
         <v>1.5</v>
@@ -8678,7 +8693,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8756,10 +8771,10 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ37">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.56</v>
@@ -8962,10 +8977,10 @@
         <v>0.83</v>
       </c>
       <c r="AP38">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AQ38">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AR38">
         <v>1.06</v>
@@ -9377,7 +9392,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR40">
         <v>1.34</v>
@@ -9502,7 +9517,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9580,10 +9595,10 @@
         <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AQ41">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AR41">
         <v>1.42</v>
@@ -9708,7 +9723,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9789,7 +9804,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR42">
         <v>1.44</v>
@@ -9992,7 +10007,7 @@
         <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AQ43">
         <v>2.03</v>
@@ -10120,7 +10135,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10198,10 +10213,10 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ44">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AR44">
         <v>1.33</v>
@@ -10404,10 +10419,10 @@
         <v>1.71</v>
       </c>
       <c r="AP45">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AQ45">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR45">
         <v>1.37</v>
@@ -10532,7 +10547,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10610,7 +10625,7 @@
         <v>0.43</v>
       </c>
       <c r="AP46">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
         <v>1.03</v>
@@ -10738,7 +10753,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10816,7 +10831,7 @@
         <v>0.57</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ47">
         <v>0.9399999999999999</v>
@@ -11025,7 +11040,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ48">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AR48">
         <v>1.31</v>
@@ -11228,10 +11243,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AQ49">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.1</v>
@@ -11437,7 +11452,7 @@
         <v>2.03</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR50">
         <v>1.93</v>
@@ -11562,7 +11577,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11643,7 +11658,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ51">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -11846,10 +11861,10 @@
         <v>1.38</v>
       </c>
       <c r="AP52">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ52">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AR52">
         <v>1.52</v>
@@ -12055,7 +12070,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR53">
         <v>1.55</v>
@@ -12180,7 +12195,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12258,7 +12273,7 @@
         <v>1.38</v>
       </c>
       <c r="AP54">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ54">
         <v>2.03</v>
@@ -12386,7 +12401,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12464,10 +12479,10 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AQ55">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AR55">
         <v>1.34</v>
@@ -12592,7 +12607,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12670,7 +12685,7 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
         <v>1.91</v>
@@ -12798,7 +12813,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12876,10 +12891,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR57">
         <v>1.33</v>
@@ -13004,7 +13019,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13082,7 +13097,7 @@
         <v>0.44</v>
       </c>
       <c r="AP58">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AQ58">
         <v>1.03</v>
@@ -13288,7 +13303,7 @@
         <v>1.11</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ59">
         <v>0.9399999999999999</v>
@@ -13416,7 +13431,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13494,10 +13509,10 @@
         <v>1.4</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR60">
         <v>1.22</v>
@@ -13703,7 +13718,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ61">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR61">
         <v>1.27</v>
@@ -13909,7 +13924,7 @@
         <v>2.03</v>
       </c>
       <c r="AQ62">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AR62">
         <v>1.93</v>
@@ -14115,7 +14130,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ63">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AR63">
         <v>1.55</v>
@@ -14321,7 +14336,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ64">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14524,10 +14539,10 @@
         <v>1.1</v>
       </c>
       <c r="AP65">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AQ65">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AR65">
         <v>1.21</v>
@@ -14652,7 +14667,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14730,10 +14745,10 @@
         <v>1.18</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ66">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.23</v>
@@ -14858,7 +14873,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14936,10 +14951,10 @@
         <v>1.36</v>
       </c>
       <c r="AP67">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR67">
         <v>1.34</v>
@@ -15064,7 +15079,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15351,7 +15366,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ69">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AR69">
         <v>1.62</v>
@@ -15557,7 +15572,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ70">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AR70">
         <v>1.35</v>
@@ -15760,10 +15775,10 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AQ71">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR71">
         <v>1.22</v>
@@ -15966,7 +15981,7 @@
         <v>1.17</v>
       </c>
       <c r="AP72">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AQ72">
         <v>0.9399999999999999</v>
@@ -16094,7 +16109,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16175,7 +16190,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ73">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AR73">
         <v>1.25</v>
@@ -16300,7 +16315,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16378,10 +16393,10 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR74">
         <v>1.39</v>
@@ -16506,7 +16521,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16584,10 +16599,10 @@
         <v>0.55</v>
       </c>
       <c r="AP75">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ75">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AR75">
         <v>1.36</v>
@@ -16712,7 +16727,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16790,7 +16805,7 @@
         <v>2.27</v>
       </c>
       <c r="AP76">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ76">
         <v>1.91</v>
@@ -16999,7 +17014,7 @@
         <v>2.03</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR77">
         <v>1.87</v>
@@ -17124,7 +17139,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17202,7 +17217,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AQ78">
         <v>1.91</v>
@@ -17330,7 +17345,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17411,7 +17426,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ79">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR79">
         <v>1.41</v>
@@ -17536,7 +17551,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17614,7 +17629,7 @@
         <v>1.92</v>
       </c>
       <c r="AP80">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AQ80">
         <v>2.03</v>
@@ -17820,10 +17835,10 @@
         <v>1.08</v>
       </c>
       <c r="AP81">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ81">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>1.27</v>
@@ -18154,7 +18169,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18232,10 +18247,10 @@
         <v>1.31</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ83">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AR83">
         <v>1.24</v>
@@ -18360,7 +18375,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18438,10 +18453,10 @@
         <v>1.69</v>
       </c>
       <c r="AP84">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AQ84">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AR84">
         <v>1.38</v>
@@ -18772,7 +18787,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18850,10 +18865,10 @@
         <v>1.07</v>
       </c>
       <c r="AP86">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR86">
         <v>1.45</v>
@@ -19056,10 +19071,10 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AQ87">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -19262,7 +19277,7 @@
         <v>2.29</v>
       </c>
       <c r="AP88">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AQ88">
         <v>1.91</v>
@@ -19471,7 +19486,7 @@
         <v>2.03</v>
       </c>
       <c r="AQ89">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR89">
         <v>1.81</v>
@@ -19674,10 +19689,10 @@
         <v>1.36</v>
       </c>
       <c r="AP90">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR90">
         <v>1.42</v>
@@ -19802,7 +19817,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19880,10 +19895,10 @@
         <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ91">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AR91">
         <v>1.34</v>
@@ -20086,10 +20101,10 @@
         <v>1.47</v>
       </c>
       <c r="AP92">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AQ92">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR92">
         <v>1.3</v>
@@ -20214,7 +20229,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20498,7 +20513,7 @@
         <v>0.67</v>
       </c>
       <c r="AP94">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ94">
         <v>1.03</v>
@@ -20626,7 +20641,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20704,10 +20719,10 @@
         <v>1.67</v>
       </c>
       <c r="AP95">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ95">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AR95">
         <v>1.32</v>
@@ -20913,7 +20928,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ96">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AR96">
         <v>1.51</v>
@@ -21038,7 +21053,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21116,10 +21131,10 @@
         <v>1.19</v>
       </c>
       <c r="AP97">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR97">
         <v>1.2</v>
@@ -21450,7 +21465,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21531,7 +21546,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ99">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AR99">
         <v>1.2</v>
@@ -21734,10 +21749,10 @@
         <v>1.38</v>
       </c>
       <c r="AP100">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ100">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR100">
         <v>1.48</v>
@@ -21943,7 +21958,7 @@
         <v>2.03</v>
       </c>
       <c r="AQ101">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AR101">
         <v>1.8</v>
@@ -22146,10 +22161,10 @@
         <v>0.88</v>
       </c>
       <c r="AP102">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AQ102">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR102">
         <v>1.45</v>
@@ -22274,7 +22289,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22352,7 +22367,7 @@
         <v>0.65</v>
       </c>
       <c r="AP103">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ103">
         <v>1.03</v>
@@ -22480,7 +22495,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22558,10 +22573,10 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AQ104">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AR104">
         <v>1.3</v>
@@ -22686,7 +22701,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22764,10 +22779,10 @@
         <v>1.47</v>
       </c>
       <c r="AP105">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AQ105">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AR105">
         <v>1.45</v>
@@ -22970,7 +22985,7 @@
         <v>2.06</v>
       </c>
       <c r="AP106">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ106">
         <v>1.91</v>
@@ -23098,7 +23113,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23304,7 +23319,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23382,10 +23397,10 @@
         <v>1.53</v>
       </c>
       <c r="AP108">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ108">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR108">
         <v>1.32</v>
@@ -23588,10 +23603,10 @@
         <v>1.28</v>
       </c>
       <c r="AP109">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR109">
         <v>1.21</v>
@@ -23797,7 +23812,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ110">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AR110">
         <v>1.6</v>
@@ -23922,7 +23937,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24003,7 +24018,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ111">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR111">
         <v>1.48</v>
@@ -24128,7 +24143,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24206,10 +24221,10 @@
         <v>1.78</v>
       </c>
       <c r="AP112">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ112">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AR112">
         <v>1.5</v>
@@ -24415,7 +24430,7 @@
         <v>2.03</v>
       </c>
       <c r="AQ113">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AR113">
         <v>1.78</v>
@@ -24621,7 +24636,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ114">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR114">
         <v>1.26</v>
@@ -24746,7 +24761,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -24824,7 +24839,7 @@
         <v>2.17</v>
       </c>
       <c r="AP115">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ115">
         <v>2.03</v>
@@ -25030,7 +25045,7 @@
         <v>1.05</v>
       </c>
       <c r="AP116">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AQ116">
         <v>0.9399999999999999</v>
@@ -25158,7 +25173,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25236,10 +25251,10 @@
         <v>1.53</v>
       </c>
       <c r="AP117">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AQ117">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR117">
         <v>1.42</v>
@@ -25364,7 +25379,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25442,7 +25457,7 @@
         <v>2.05</v>
       </c>
       <c r="AP118">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ118">
         <v>1.91</v>
@@ -25570,7 +25585,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25648,7 +25663,7 @@
         <v>0.79</v>
       </c>
       <c r="AP119">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AQ119">
         <v>1.03</v>
@@ -25854,10 +25869,10 @@
         <v>1.5</v>
       </c>
       <c r="AP120">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ120">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AR120">
         <v>1.29</v>
@@ -25982,7 +25997,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26063,7 +26078,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ121">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AR121">
         <v>1.22</v>
@@ -26188,7 +26203,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26266,10 +26281,10 @@
         <v>0.95</v>
       </c>
       <c r="AP122">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ122">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AR122">
         <v>1.17</v>
@@ -26394,7 +26409,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26472,10 +26487,10 @@
         <v>1.75</v>
       </c>
       <c r="AP123">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AQ123">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AR123">
         <v>1.18</v>
@@ -26600,7 +26615,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -26681,7 +26696,7 @@
         <v>2.03</v>
       </c>
       <c r="AQ124">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR124">
         <v>1.77</v>
@@ -26887,7 +26902,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ125">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR125">
         <v>1.61</v>
@@ -27012,7 +27027,7 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27093,7 +27108,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ126">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR126">
         <v>1.58</v>
@@ -27218,7 +27233,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27296,10 +27311,10 @@
         <v>1.4</v>
       </c>
       <c r="AP127">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AQ127">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AR127">
         <v>1.39</v>
@@ -27424,7 +27439,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27502,7 +27517,7 @@
         <v>0.86</v>
       </c>
       <c r="AP128">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ128">
         <v>1.03</v>
@@ -27630,7 +27645,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27708,7 +27723,7 @@
         <v>2.14</v>
       </c>
       <c r="AP129">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AQ129">
         <v>1.91</v>
@@ -27836,7 +27851,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -27914,7 +27929,7 @@
         <v>2.1</v>
       </c>
       <c r="AP130">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AQ130">
         <v>2.03</v>
@@ -28042,7 +28057,7 @@
         <v>89</v>
       </c>
       <c r="P131" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28120,10 +28135,10 @@
         <v>0.95</v>
       </c>
       <c r="AP131">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ131">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR131">
         <v>1.28</v>
@@ -28248,7 +28263,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28326,7 +28341,7 @@
         <v>1.1</v>
       </c>
       <c r="AP132">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ132">
         <v>0.9399999999999999</v>
@@ -28532,7 +28547,7 @@
         <v>0.95</v>
       </c>
       <c r="AP133">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AQ133">
         <v>1.03</v>
@@ -28660,7 +28675,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -28738,7 +28753,7 @@
         <v>2.18</v>
       </c>
       <c r="AP134">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ134">
         <v>1.91</v>
@@ -28944,10 +28959,10 @@
         <v>1.41</v>
       </c>
       <c r="AP135">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AQ135">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AR135">
         <v>1.47</v>
@@ -29150,10 +29165,10 @@
         <v>1.59</v>
       </c>
       <c r="AP136">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ136">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR136">
         <v>1.27</v>
@@ -29278,7 +29293,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29359,7 +29374,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ137">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AR137">
         <v>1.57</v>
@@ -29484,7 +29499,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29565,7 +29580,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ138">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AR138">
         <v>1.21</v>
@@ -29768,10 +29783,10 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ139">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR139">
         <v>1.38</v>
@@ -29896,7 +29911,7 @@
         <v>168</v>
       </c>
       <c r="P140" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
@@ -29974,7 +29989,7 @@
         <v>1.13</v>
       </c>
       <c r="AP140">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ140">
         <v>0.9399999999999999</v>
@@ -30180,10 +30195,10 @@
         <v>1.61</v>
       </c>
       <c r="AP141">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ141">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AR141">
         <v>1.28</v>
@@ -30308,7 +30323,7 @@
         <v>133</v>
       </c>
       <c r="P142" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q142">
         <v>2.25</v>
@@ -30389,7 +30404,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ142">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AR142">
         <v>1.56</v>
@@ -30592,7 +30607,7 @@
         <v>2.14</v>
       </c>
       <c r="AP143">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AQ143">
         <v>2.03</v>
@@ -30801,7 +30816,7 @@
         <v>2.03</v>
       </c>
       <c r="AQ144">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR144">
         <v>1.69</v>
@@ -30926,7 +30941,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31004,10 +31019,10 @@
         <v>1.39</v>
       </c>
       <c r="AP145">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ145">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AR145">
         <v>1.2</v>
@@ -31213,7 +31228,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ146">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR146">
         <v>1.51</v>
@@ -31416,7 +31431,7 @@
         <v>2.13</v>
       </c>
       <c r="AP147">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AQ147">
         <v>1.91</v>
@@ -31622,7 +31637,7 @@
         <v>0.92</v>
       </c>
       <c r="AP148">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AQ148">
         <v>1.03</v>
@@ -31828,10 +31843,10 @@
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AQ149">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR149">
         <v>1.36</v>
@@ -32037,7 +32052,7 @@
         <v>2.03</v>
       </c>
       <c r="AQ150">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR150">
         <v>1.69</v>
@@ -32162,7 +32177,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q151">
         <v>2.1</v>
@@ -32449,7 +32464,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ152">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AR152">
         <v>1.52</v>
@@ -32574,7 +32589,7 @@
         <v>174</v>
       </c>
       <c r="P153" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q153">
         <v>3.75</v>
@@ -32652,10 +32667,10 @@
         <v>1.44</v>
       </c>
       <c r="AP153">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ153">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AR153">
         <v>1.41</v>
@@ -32858,10 +32873,10 @@
         <v>1.08</v>
       </c>
       <c r="AP154">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AQ154">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AR154">
         <v>1.17</v>
@@ -32986,7 +33001,7 @@
         <v>113</v>
       </c>
       <c r="P155" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33064,10 +33079,10 @@
         <v>0.96</v>
       </c>
       <c r="AP155">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ155">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR155">
         <v>1.36</v>
@@ -33192,7 +33207,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q156">
         <v>6.5</v>
@@ -33270,7 +33285,7 @@
         <v>2.17</v>
       </c>
       <c r="AP156">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ156">
         <v>2.03</v>
@@ -33479,7 +33494,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ157">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR157">
         <v>1.22</v>
@@ -33682,10 +33697,10 @@
         <v>1.52</v>
       </c>
       <c r="AP158">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AQ158">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AR158">
         <v>1.33</v>
@@ -33888,7 +33903,7 @@
         <v>2.04</v>
       </c>
       <c r="AP159">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AQ159">
         <v>1.91</v>
@@ -34300,10 +34315,10 @@
         <v>0.92</v>
       </c>
       <c r="AP161">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ161">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR161">
         <v>1.19</v>
@@ -34506,10 +34521,10 @@
         <v>1.54</v>
       </c>
       <c r="AP162">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AQ162">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR162">
         <v>1.34</v>
@@ -34634,7 +34649,7 @@
         <v>181</v>
       </c>
       <c r="P163" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q163">
         <v>3.5</v>
@@ -34712,10 +34727,10 @@
         <v>1.41</v>
       </c>
       <c r="AP163">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ163">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AR163">
         <v>1.34</v>
@@ -34918,7 +34933,7 @@
         <v>0.96</v>
       </c>
       <c r="AP164">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AQ164">
         <v>1.03</v>
@@ -35124,10 +35139,10 @@
         <v>1.11</v>
       </c>
       <c r="AP165">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ165">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AR165">
         <v>1.34</v>
@@ -35252,7 +35267,7 @@
         <v>182</v>
       </c>
       <c r="P166" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35333,7 +35348,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ166">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR166">
         <v>1.48</v>
@@ -35539,7 +35554,7 @@
         <v>2.03</v>
       </c>
       <c r="AQ167">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AR167">
         <v>1.7</v>
@@ -35742,7 +35757,7 @@
         <v>1.96</v>
       </c>
       <c r="AP168">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ168">
         <v>1.91</v>
@@ -35870,7 +35885,7 @@
         <v>184</v>
       </c>
       <c r="P169" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q169">
         <v>3.4</v>
@@ -35951,7 +35966,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ169">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR169">
         <v>1.23</v>
@@ -36076,7 +36091,7 @@
         <v>185</v>
       </c>
       <c r="P170" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36154,7 +36169,7 @@
         <v>1.04</v>
       </c>
       <c r="AP170">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AQ170">
         <v>0.9399999999999999</v>
@@ -36360,10 +36375,10 @@
         <v>0.89</v>
       </c>
       <c r="AP171">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AQ171">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR171">
         <v>1.31</v>
@@ -36488,7 +36503,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q172">
         <v>6.5</v>
@@ -36566,7 +36581,7 @@
         <v>2.07</v>
       </c>
       <c r="AP172">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ172">
         <v>2.03</v>
@@ -36772,10 +36787,10 @@
         <v>0.96</v>
       </c>
       <c r="AP173">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AQ173">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR173">
         <v>1.49</v>
@@ -36981,7 +36996,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ174">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AR174">
         <v>1.5</v>
@@ -37106,7 +37121,7 @@
         <v>189</v>
       </c>
       <c r="P175" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37184,7 +37199,7 @@
         <v>1</v>
       </c>
       <c r="AP175">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ175">
         <v>1.03</v>
@@ -37393,7 +37408,7 @@
         <v>2.03</v>
       </c>
       <c r="AQ176">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AR176">
         <v>1.69</v>
@@ -37599,7 +37614,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ177">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AR177">
         <v>1.47</v>
@@ -37724,7 +37739,7 @@
         <v>191</v>
       </c>
       <c r="P178" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q178">
         <v>4.33</v>
@@ -37802,7 +37817,7 @@
         <v>1.97</v>
       </c>
       <c r="AP178">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ178">
         <v>1.91</v>
@@ -37930,7 +37945,7 @@
         <v>192</v>
       </c>
       <c r="P179" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q179">
         <v>3.1</v>
@@ -38008,10 +38023,10 @@
         <v>0.93</v>
       </c>
       <c r="AP179">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AQ179">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR179">
         <v>1.18</v>
@@ -38214,10 +38229,10 @@
         <v>1.76</v>
       </c>
       <c r="AP180">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ180">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AR180">
         <v>1.19</v>
@@ -38342,7 +38357,7 @@
         <v>89</v>
       </c>
       <c r="P181" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q181">
         <v>2.1</v>
@@ -38423,7 +38438,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ181">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR181">
         <v>1.51</v>
@@ -38626,7 +38641,7 @@
         <v>2.14</v>
       </c>
       <c r="AP182">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AQ182">
         <v>2.03</v>
@@ -38754,7 +38769,7 @@
         <v>194</v>
       </c>
       <c r="P183" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q183">
         <v>2.6</v>
@@ -38832,10 +38847,10 @@
         <v>1.48</v>
       </c>
       <c r="AP183">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AQ183">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AR183">
         <v>1.52</v>
@@ -39038,10 +39053,10 @@
         <v>1.03</v>
       </c>
       <c r="AP184">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AQ184">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR184">
         <v>1.39</v>
@@ -39244,10 +39259,10 @@
         <v>1.47</v>
       </c>
       <c r="AP185">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ185">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR185">
         <v>1.38</v>
@@ -39784,7 +39799,7 @@
         <v>197</v>
       </c>
       <c r="P188" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q188">
         <v>2.25</v>
@@ -39941,6 +39956,830 @@
       </c>
       <c r="BP188">
         <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7487303</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45547.77083333334</v>
+      </c>
+      <c r="F189">
+        <v>10</v>
+      </c>
+      <c r="G189" t="s">
+        <v>72</v>
+      </c>
+      <c r="H189" t="s">
+        <v>80</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>2</v>
+      </c>
+      <c r="M189">
+        <v>3</v>
+      </c>
+      <c r="N189">
+        <v>5</v>
+      </c>
+      <c r="O189" t="s">
+        <v>198</v>
+      </c>
+      <c r="P189" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q189">
+        <v>3.25</v>
+      </c>
+      <c r="R189">
+        <v>2</v>
+      </c>
+      <c r="S189">
+        <v>3.75</v>
+      </c>
+      <c r="T189">
+        <v>1.53</v>
+      </c>
+      <c r="U189">
+        <v>2.42</v>
+      </c>
+      <c r="V189">
+        <v>3.4</v>
+      </c>
+      <c r="W189">
+        <v>1.29</v>
+      </c>
+      <c r="X189">
+        <v>9</v>
+      </c>
+      <c r="Y189">
+        <v>1.03</v>
+      </c>
+      <c r="Z189">
+        <v>2.4</v>
+      </c>
+      <c r="AA189">
+        <v>3.1</v>
+      </c>
+      <c r="AB189">
+        <v>2.8</v>
+      </c>
+      <c r="AC189">
+        <v>1.09</v>
+      </c>
+      <c r="AD189">
+        <v>6</v>
+      </c>
+      <c r="AE189">
+        <v>1.49</v>
+      </c>
+      <c r="AF189">
+        <v>2.5</v>
+      </c>
+      <c r="AG189">
+        <v>2.3</v>
+      </c>
+      <c r="AH189">
+        <v>1.6</v>
+      </c>
+      <c r="AI189">
+        <v>2</v>
+      </c>
+      <c r="AJ189">
+        <v>1.73</v>
+      </c>
+      <c r="AK189">
+        <v>1.42</v>
+      </c>
+      <c r="AL189">
+        <v>1.38</v>
+      </c>
+      <c r="AM189">
+        <v>1.5</v>
+      </c>
+      <c r="AN189">
+        <v>1.42</v>
+      </c>
+      <c r="AO189">
+        <v>1.43</v>
+      </c>
+      <c r="AP189">
+        <v>1.38</v>
+      </c>
+      <c r="AQ189">
+        <v>1.48</v>
+      </c>
+      <c r="AR189">
+        <v>1.35</v>
+      </c>
+      <c r="AS189">
+        <v>1.22</v>
+      </c>
+      <c r="AT189">
+        <v>2.57</v>
+      </c>
+      <c r="AU189">
+        <v>7</v>
+      </c>
+      <c r="AV189">
+        <v>5</v>
+      </c>
+      <c r="AW189">
+        <v>7</v>
+      </c>
+      <c r="AX189">
+        <v>3</v>
+      </c>
+      <c r="AY189">
+        <v>14</v>
+      </c>
+      <c r="AZ189">
+        <v>8</v>
+      </c>
+      <c r="BA189">
+        <v>5</v>
+      </c>
+      <c r="BB189">
+        <v>4</v>
+      </c>
+      <c r="BC189">
+        <v>9</v>
+      </c>
+      <c r="BD189">
+        <v>1.87</v>
+      </c>
+      <c r="BE189">
+        <v>7.8</v>
+      </c>
+      <c r="BF189">
+        <v>2.2</v>
+      </c>
+      <c r="BG189">
+        <v>1.42</v>
+      </c>
+      <c r="BH189">
+        <v>2.62</v>
+      </c>
+      <c r="BI189">
+        <v>1.7</v>
+      </c>
+      <c r="BJ189">
+        <v>2.05</v>
+      </c>
+      <c r="BK189">
+        <v>2.05</v>
+      </c>
+      <c r="BL189">
+        <v>1.7</v>
+      </c>
+      <c r="BM189">
+        <v>2.7</v>
+      </c>
+      <c r="BN189">
+        <v>1.4</v>
+      </c>
+      <c r="BO189">
+        <v>3.6</v>
+      </c>
+      <c r="BP189">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7487298</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45547.875</v>
+      </c>
+      <c r="F190">
+        <v>10</v>
+      </c>
+      <c r="G190" t="s">
+        <v>76</v>
+      </c>
+      <c r="H190" t="s">
+        <v>71</v>
+      </c>
+      <c r="I190">
+        <v>2</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>2</v>
+      </c>
+      <c r="L190">
+        <v>2</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>2</v>
+      </c>
+      <c r="O190" t="s">
+        <v>199</v>
+      </c>
+      <c r="P190" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q190">
+        <v>4</v>
+      </c>
+      <c r="R190">
+        <v>1.91</v>
+      </c>
+      <c r="S190">
+        <v>3.25</v>
+      </c>
+      <c r="T190">
+        <v>1.56</v>
+      </c>
+      <c r="U190">
+        <v>2.31</v>
+      </c>
+      <c r="V190">
+        <v>3.54</v>
+      </c>
+      <c r="W190">
+        <v>1.27</v>
+      </c>
+      <c r="X190">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y190">
+        <v>1.03</v>
+      </c>
+      <c r="Z190">
+        <v>3.1</v>
+      </c>
+      <c r="AA190">
+        <v>2.9</v>
+      </c>
+      <c r="AB190">
+        <v>2.35</v>
+      </c>
+      <c r="AC190">
+        <v>1.06</v>
+      </c>
+      <c r="AD190">
+        <v>6.55</v>
+      </c>
+      <c r="AE190">
+        <v>1.49</v>
+      </c>
+      <c r="AF190">
+        <v>2.5</v>
+      </c>
+      <c r="AG190">
+        <v>2.6</v>
+      </c>
+      <c r="AH190">
+        <v>1.48</v>
+      </c>
+      <c r="AI190">
+        <v>2.1</v>
+      </c>
+      <c r="AJ190">
+        <v>1.67</v>
+      </c>
+      <c r="AK190">
+        <v>1.63</v>
+      </c>
+      <c r="AL190">
+        <v>1.3</v>
+      </c>
+      <c r="AM190">
+        <v>1.28</v>
+      </c>
+      <c r="AN190">
+        <v>1.19</v>
+      </c>
+      <c r="AO190">
+        <v>1.84</v>
+      </c>
+      <c r="AP190">
+        <v>1.25</v>
+      </c>
+      <c r="AQ190">
+        <v>1.78</v>
+      </c>
+      <c r="AR190">
+        <v>1.38</v>
+      </c>
+      <c r="AS190">
+        <v>1.51</v>
+      </c>
+      <c r="AT190">
+        <v>2.89</v>
+      </c>
+      <c r="AU190">
+        <v>6</v>
+      </c>
+      <c r="AV190">
+        <v>7</v>
+      </c>
+      <c r="AW190">
+        <v>8</v>
+      </c>
+      <c r="AX190">
+        <v>14</v>
+      </c>
+      <c r="AY190">
+        <v>14</v>
+      </c>
+      <c r="AZ190">
+        <v>21</v>
+      </c>
+      <c r="BA190">
+        <v>2</v>
+      </c>
+      <c r="BB190">
+        <v>7</v>
+      </c>
+      <c r="BC190">
+        <v>9</v>
+      </c>
+      <c r="BD190">
+        <v>1.99</v>
+      </c>
+      <c r="BE190">
+        <v>7.8</v>
+      </c>
+      <c r="BF190">
+        <v>2.05</v>
+      </c>
+      <c r="BG190">
+        <v>1.31</v>
+      </c>
+      <c r="BH190">
+        <v>3.04</v>
+      </c>
+      <c r="BI190">
+        <v>1.57</v>
+      </c>
+      <c r="BJ190">
+        <v>2.19</v>
+      </c>
+      <c r="BK190">
+        <v>2</v>
+      </c>
+      <c r="BL190">
+        <v>1.74</v>
+      </c>
+      <c r="BM190">
+        <v>2.6</v>
+      </c>
+      <c r="BN190">
+        <v>1.41</v>
+      </c>
+      <c r="BO190">
+        <v>3.64</v>
+      </c>
+      <c r="BP190">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7487302</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45548.77083333334</v>
+      </c>
+      <c r="F191">
+        <v>10</v>
+      </c>
+      <c r="G191" t="s">
+        <v>73</v>
+      </c>
+      <c r="H191" t="s">
+        <v>70</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>2</v>
+      </c>
+      <c r="K191">
+        <v>2</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
+        <v>4</v>
+      </c>
+      <c r="N191">
+        <v>4</v>
+      </c>
+      <c r="O191" t="s">
+        <v>89</v>
+      </c>
+      <c r="P191" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q191">
+        <v>3.4</v>
+      </c>
+      <c r="R191">
+        <v>1.91</v>
+      </c>
+      <c r="S191">
+        <v>4</v>
+      </c>
+      <c r="T191">
+        <v>1.5</v>
+      </c>
+      <c r="U191">
+        <v>2.48</v>
+      </c>
+      <c r="V191">
+        <v>3.3</v>
+      </c>
+      <c r="W191">
+        <v>1.31</v>
+      </c>
+      <c r="X191">
+        <v>9.6</v>
+      </c>
+      <c r="Y191">
+        <v>1.03</v>
+      </c>
+      <c r="Z191">
+        <v>2.4</v>
+      </c>
+      <c r="AA191">
+        <v>2.9</v>
+      </c>
+      <c r="AB191">
+        <v>2.9</v>
+      </c>
+      <c r="AC191">
+        <v>1.06</v>
+      </c>
+      <c r="AD191">
+        <v>6.65</v>
+      </c>
+      <c r="AE191">
+        <v>1.44</v>
+      </c>
+      <c r="AF191">
+        <v>2.51</v>
+      </c>
+      <c r="AG191">
+        <v>2.6</v>
+      </c>
+      <c r="AH191">
+        <v>1.48</v>
+      </c>
+      <c r="AI191">
+        <v>2.2</v>
+      </c>
+      <c r="AJ191">
+        <v>1.62</v>
+      </c>
+      <c r="AK191">
+        <v>1.42</v>
+      </c>
+      <c r="AL191">
+        <v>1.33</v>
+      </c>
+      <c r="AM191">
+        <v>1.42</v>
+      </c>
+      <c r="AN191">
+        <v>1.03</v>
+      </c>
+      <c r="AO191">
+        <v>1</v>
+      </c>
+      <c r="AP191">
+        <v>1</v>
+      </c>
+      <c r="AQ191">
+        <v>1.06</v>
+      </c>
+      <c r="AR191">
+        <v>1.37</v>
+      </c>
+      <c r="AS191">
+        <v>1.38</v>
+      </c>
+      <c r="AT191">
+        <v>2.75</v>
+      </c>
+      <c r="AU191">
+        <v>4</v>
+      </c>
+      <c r="AV191">
+        <v>11</v>
+      </c>
+      <c r="AW191">
+        <v>7</v>
+      </c>
+      <c r="AX191">
+        <v>4</v>
+      </c>
+      <c r="AY191">
+        <v>11</v>
+      </c>
+      <c r="AZ191">
+        <v>15</v>
+      </c>
+      <c r="BA191">
+        <v>5</v>
+      </c>
+      <c r="BB191">
+        <v>6</v>
+      </c>
+      <c r="BC191">
+        <v>11</v>
+      </c>
+      <c r="BD191">
+        <v>2</v>
+      </c>
+      <c r="BE191">
+        <v>7.8</v>
+      </c>
+      <c r="BF191">
+        <v>2.04</v>
+      </c>
+      <c r="BG191">
+        <v>1.4</v>
+      </c>
+      <c r="BH191">
+        <v>2.7</v>
+      </c>
+      <c r="BI191">
+        <v>1.68</v>
+      </c>
+      <c r="BJ191">
+        <v>2.13</v>
+      </c>
+      <c r="BK191">
+        <v>2.11</v>
+      </c>
+      <c r="BL191">
+        <v>1.7</v>
+      </c>
+      <c r="BM191">
+        <v>2.62</v>
+      </c>
+      <c r="BN191">
+        <v>1.42</v>
+      </c>
+      <c r="BO191">
+        <v>3.6</v>
+      </c>
+      <c r="BP191">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7487299</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45548.875</v>
+      </c>
+      <c r="F192">
+        <v>10</v>
+      </c>
+      <c r="G192" t="s">
+        <v>77</v>
+      </c>
+      <c r="H192" t="s">
+        <v>75</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>2</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <v>2</v>
+      </c>
+      <c r="N192">
+        <v>3</v>
+      </c>
+      <c r="O192" t="s">
+        <v>119</v>
+      </c>
+      <c r="P192" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q192">
+        <v>4.5</v>
+      </c>
+      <c r="R192">
+        <v>2.05</v>
+      </c>
+      <c r="S192">
+        <v>2.75</v>
+      </c>
+      <c r="T192">
+        <v>1.48</v>
+      </c>
+      <c r="U192">
+        <v>2.5</v>
+      </c>
+      <c r="V192">
+        <v>3.31</v>
+      </c>
+      <c r="W192">
+        <v>1.31</v>
+      </c>
+      <c r="X192">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y192">
+        <v>1.04</v>
+      </c>
+      <c r="Z192">
+        <v>3.6</v>
+      </c>
+      <c r="AA192">
+        <v>3.2</v>
+      </c>
+      <c r="AB192">
+        <v>1.95</v>
+      </c>
+      <c r="AC192">
+        <v>1.06</v>
+      </c>
+      <c r="AD192">
+        <v>7.5</v>
+      </c>
+      <c r="AE192">
+        <v>1.38</v>
+      </c>
+      <c r="AF192">
+        <v>2.8</v>
+      </c>
+      <c r="AG192">
+        <v>2.35</v>
+      </c>
+      <c r="AH192">
+        <v>1.57</v>
+      </c>
+      <c r="AI192">
+        <v>2</v>
+      </c>
+      <c r="AJ192">
+        <v>1.73</v>
+      </c>
+      <c r="AK192">
+        <v>1.88</v>
+      </c>
+      <c r="AL192">
+        <v>1.3</v>
+      </c>
+      <c r="AM192">
+        <v>1.25</v>
+      </c>
+      <c r="AN192">
+        <v>1</v>
+      </c>
+      <c r="AO192">
+        <v>1.39</v>
+      </c>
+      <c r="AP192">
+        <v>0.97</v>
+      </c>
+      <c r="AQ192">
+        <v>1.44</v>
+      </c>
+      <c r="AR192">
+        <v>1.18</v>
+      </c>
+      <c r="AS192">
+        <v>1.33</v>
+      </c>
+      <c r="AT192">
+        <v>2.51</v>
+      </c>
+      <c r="AU192">
+        <v>5</v>
+      </c>
+      <c r="AV192">
+        <v>4</v>
+      </c>
+      <c r="AW192">
+        <v>6</v>
+      </c>
+      <c r="AX192">
+        <v>5</v>
+      </c>
+      <c r="AY192">
+        <v>11</v>
+      </c>
+      <c r="AZ192">
+        <v>9</v>
+      </c>
+      <c r="BA192">
+        <v>7</v>
+      </c>
+      <c r="BB192">
+        <v>7</v>
+      </c>
+      <c r="BC192">
+        <v>14</v>
+      </c>
+      <c r="BD192">
+        <v>2.36</v>
+      </c>
+      <c r="BE192">
+        <v>7.4</v>
+      </c>
+      <c r="BF192">
+        <v>1.85</v>
+      </c>
+      <c r="BG192">
+        <v>1.19</v>
+      </c>
+      <c r="BH192">
+        <v>3.64</v>
+      </c>
+      <c r="BI192">
+        <v>1.38</v>
+      </c>
+      <c r="BJ192">
+        <v>2.54</v>
+      </c>
+      <c r="BK192">
+        <v>2.38</v>
+      </c>
+      <c r="BL192">
+        <v>1.86</v>
+      </c>
+      <c r="BM192">
+        <v>2.12</v>
+      </c>
+      <c r="BN192">
+        <v>1.55</v>
+      </c>
+      <c r="BO192">
+        <v>2.82</v>
+      </c>
+      <c r="BP192">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -616,6 +616,9 @@
     <t>['10', '16']</t>
   </si>
   <si>
+    <t>['63', '78']</t>
+  </si>
+  <si>
     <t>['44', '85']</t>
   </si>
   <si>
@@ -863,6 +866,9 @@
   </si>
   <si>
     <t>['38', '51']</t>
+  </si>
+  <si>
+    <t>['23']</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP192"/>
+  <dimension ref="A1:BP193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2385,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AQ6">
         <v>1.03</v>
@@ -2594,7 +2600,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ7">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2719,7 +2725,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2925,7 +2931,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3131,7 +3137,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3337,7 +3343,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3415,7 +3421,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AQ11">
         <v>1.38</v>
@@ -3749,7 +3755,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3830,7 +3836,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ13">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AR13">
         <v>1.34</v>
@@ -4161,7 +4167,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4779,7 +4785,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4860,7 +4866,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ18">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -4985,7 +4991,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5191,7 +5197,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5397,7 +5403,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5603,7 +5609,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5684,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AR22">
         <v>1.54</v>
@@ -5887,7 +5893,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AQ23">
         <v>1.48</v>
@@ -6427,7 +6433,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6839,7 +6845,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -7123,10 +7129,10 @@
         <v>2.5</v>
       </c>
       <c r="AP29">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AQ29">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AR29">
         <v>2.13</v>
@@ -7663,7 +7669,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7950,7 +7956,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ33">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AR33">
         <v>1.41</v>
@@ -8075,7 +8081,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8156,7 +8162,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ34">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AR34">
         <v>1.38</v>
@@ -8281,7 +8287,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8487,7 +8493,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8693,7 +8699,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -9183,7 +9189,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AQ39">
         <v>0.9399999999999999</v>
@@ -9517,7 +9523,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9723,7 +9729,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9801,7 +9807,7 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AQ42">
         <v>0.97</v>
@@ -10010,7 +10016,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ43">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AR43">
         <v>1.44</v>
@@ -10135,7 +10141,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10547,7 +10553,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10753,7 +10759,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -11449,7 +11455,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AQ50">
         <v>0.97</v>
@@ -11577,7 +11583,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -12067,7 +12073,7 @@
         <v>1.38</v>
       </c>
       <c r="AP53">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AQ53">
         <v>1.06</v>
@@ -12195,7 +12201,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12276,7 +12282,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ54">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AR54">
         <v>1.53</v>
@@ -12401,7 +12407,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12607,7 +12613,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12688,7 +12694,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AR56">
         <v>1.32</v>
@@ -12813,7 +12819,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13019,7 +13025,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13431,7 +13437,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13921,7 +13927,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP62">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AQ62">
         <v>1.25</v>
@@ -14127,7 +14133,7 @@
         <v>1.7</v>
       </c>
       <c r="AP63">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AQ63">
         <v>1.78</v>
@@ -14667,7 +14673,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14873,7 +14879,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15079,7 +15085,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15160,7 +15166,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ68">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AR68">
         <v>1.27</v>
@@ -15363,7 +15369,7 @@
         <v>1.27</v>
       </c>
       <c r="AP69">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AQ69">
         <v>1.44</v>
@@ -16109,7 +16115,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16315,7 +16321,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16521,7 +16527,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16727,7 +16733,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16808,7 +16814,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ76">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AR76">
         <v>1.41</v>
@@ -17011,7 +17017,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AQ77">
         <v>1.06</v>
@@ -17139,7 +17145,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17220,7 +17226,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ78">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AR78">
         <v>1.39</v>
@@ -17345,7 +17351,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17551,7 +17557,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17632,7 +17638,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ80">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AR80">
         <v>1.31</v>
@@ -18041,7 +18047,7 @@
         <v>0.54</v>
       </c>
       <c r="AP82">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AQ82">
         <v>1.03</v>
@@ -18169,7 +18175,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18375,7 +18381,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18787,7 +18793,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -19280,7 +19286,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ88">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AR88">
         <v>1.24</v>
@@ -19483,7 +19489,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AQ89">
         <v>1</v>
@@ -19817,7 +19823,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -20229,7 +20235,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20307,10 +20313,10 @@
         <v>2.07</v>
       </c>
       <c r="AP93">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AQ93">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AR93">
         <v>1.6</v>
@@ -20641,7 +20647,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -21053,7 +21059,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21337,7 +21343,7 @@
         <v>1.06</v>
       </c>
       <c r="AP98">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AQ98">
         <v>0.9399999999999999</v>
@@ -21465,7 +21471,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21955,7 +21961,7 @@
         <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AQ101">
         <v>1.78</v>
@@ -22289,7 +22295,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22495,7 +22501,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22701,7 +22707,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22988,7 +22994,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ106">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AR106">
         <v>1.21</v>
@@ -23113,7 +23119,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23194,7 +23200,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ107">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AR107">
         <v>1.51</v>
@@ -23319,7 +23325,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23809,7 +23815,7 @@
         <v>0.89</v>
       </c>
       <c r="AP110">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AQ110">
         <v>1.25</v>
@@ -23937,7 +23943,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24143,7 +24149,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24427,7 +24433,7 @@
         <v>1.39</v>
       </c>
       <c r="AP113">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AQ113">
         <v>1.44</v>
@@ -24761,7 +24767,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -24842,7 +24848,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ115">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AR115">
         <v>1.2</v>
@@ -25173,7 +25179,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25379,7 +25385,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25460,7 +25466,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ118">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AR118">
         <v>1.31</v>
@@ -25585,7 +25591,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25997,7 +26003,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26203,7 +26209,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26409,7 +26415,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26615,7 +26621,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -26693,7 +26699,7 @@
         <v>1.6</v>
       </c>
       <c r="AP124">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AQ124">
         <v>1.38</v>
@@ -26899,7 +26905,7 @@
         <v>0.95</v>
       </c>
       <c r="AP125">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AQ125">
         <v>1</v>
@@ -27027,7 +27033,7 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27233,7 +27239,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27439,7 +27445,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27645,7 +27651,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27726,7 +27732,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ129">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AR129">
         <v>1.48</v>
@@ -27851,7 +27857,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -27932,7 +27938,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ130">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AR130">
         <v>1.41</v>
@@ -28057,7 +28063,7 @@
         <v>89</v>
       </c>
       <c r="P131" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28263,7 +28269,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28675,7 +28681,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -28756,7 +28762,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ134">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AR134">
         <v>1.2</v>
@@ -29293,7 +29299,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29499,7 +29505,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29911,7 +29917,7 @@
         <v>168</v>
       </c>
       <c r="P140" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
@@ -30323,7 +30329,7 @@
         <v>133</v>
       </c>
       <c r="P142" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q142">
         <v>2.25</v>
@@ -30401,7 +30407,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AQ142">
         <v>1.25</v>
@@ -30610,7 +30616,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ143">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AR143">
         <v>1.19</v>
@@ -30813,7 +30819,7 @@
         <v>1.04</v>
       </c>
       <c r="AP144">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AQ144">
         <v>1.06</v>
@@ -30941,7 +30947,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31434,7 +31440,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ147">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AR147">
         <v>1.35</v>
@@ -32049,7 +32055,7 @@
         <v>1.63</v>
       </c>
       <c r="AP150">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AQ150">
         <v>1.38</v>
@@ -32177,7 +32183,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q151">
         <v>2.1</v>
@@ -32255,7 +32261,7 @@
         <v>0.88</v>
       </c>
       <c r="AP151">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AQ151">
         <v>1.03</v>
@@ -32589,7 +32595,7 @@
         <v>174</v>
       </c>
       <c r="P153" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q153">
         <v>3.75</v>
@@ -33001,7 +33007,7 @@
         <v>113</v>
       </c>
       <c r="P155" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33207,7 +33213,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q156">
         <v>6.5</v>
@@ -33288,7 +33294,7 @@
         <v>1</v>
       </c>
       <c r="AQ156">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AR156">
         <v>1.33</v>
@@ -33906,7 +33912,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ159">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AR159">
         <v>1.5</v>
@@ -34109,7 +34115,7 @@
         <v>1.12</v>
       </c>
       <c r="AP160">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AQ160">
         <v>0.9399999999999999</v>
@@ -34649,7 +34655,7 @@
         <v>181</v>
       </c>
       <c r="P163" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q163">
         <v>3.5</v>
@@ -35267,7 +35273,7 @@
         <v>182</v>
       </c>
       <c r="P166" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35551,7 +35557,7 @@
         <v>1.74</v>
       </c>
       <c r="AP167">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AQ167">
         <v>1.78</v>
@@ -35760,7 +35766,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ168">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AR168">
         <v>1.43</v>
@@ -35885,7 +35891,7 @@
         <v>184</v>
       </c>
       <c r="P169" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q169">
         <v>3.4</v>
@@ -36091,7 +36097,7 @@
         <v>185</v>
       </c>
       <c r="P170" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36503,7 +36509,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q172">
         <v>6.5</v>
@@ -36584,7 +36590,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ172">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AR172">
         <v>1.2</v>
@@ -36993,7 +36999,7 @@
         <v>1.56</v>
       </c>
       <c r="AP174">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AQ174">
         <v>1.48</v>
@@ -37121,7 +37127,7 @@
         <v>189</v>
       </c>
       <c r="P175" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37405,7 +37411,7 @@
         <v>1.17</v>
       </c>
       <c r="AP176">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AQ176">
         <v>1.25</v>
@@ -37739,7 +37745,7 @@
         <v>191</v>
       </c>
       <c r="P178" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q178">
         <v>4.33</v>
@@ -37820,7 +37826,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ178">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AR178">
         <v>1.36</v>
@@ -37945,7 +37951,7 @@
         <v>192</v>
       </c>
       <c r="P179" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q179">
         <v>3.1</v>
@@ -38357,7 +38363,7 @@
         <v>89</v>
       </c>
       <c r="P181" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q181">
         <v>2.1</v>
@@ -38435,7 +38441,7 @@
         <v>0.97</v>
       </c>
       <c r="AP181">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AQ181">
         <v>1</v>
@@ -38644,7 +38650,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ182">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AR182">
         <v>1.35</v>
@@ -38769,7 +38775,7 @@
         <v>194</v>
       </c>
       <c r="P183" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q183">
         <v>2.6</v>
@@ -39674,7 +39680,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ187">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AR187">
         <v>1.45</v>
@@ -39799,7 +39805,7 @@
         <v>197</v>
       </c>
       <c r="P188" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q188">
         <v>2.25</v>
@@ -39877,7 +39883,7 @@
         <v>1.03</v>
       </c>
       <c r="AP188">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AQ188">
         <v>1.03</v>
@@ -40005,7 +40011,7 @@
         <v>198</v>
       </c>
       <c r="P189" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q189">
         <v>3.25</v>
@@ -40417,7 +40423,7 @@
         <v>89</v>
       </c>
       <c r="P191" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q191">
         <v>3.4</v>
@@ -40623,7 +40629,7 @@
         <v>119</v>
       </c>
       <c r="P192" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q192">
         <v>4.5</v>
@@ -40780,6 +40786,212 @@
       </c>
       <c r="BP192">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7487307</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45549.8125</v>
+      </c>
+      <c r="F193">
+        <v>11</v>
+      </c>
+      <c r="G193" t="s">
+        <v>79</v>
+      </c>
+      <c r="H193" t="s">
+        <v>74</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>2</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>3</v>
+      </c>
+      <c r="O193" t="s">
+        <v>200</v>
+      </c>
+      <c r="P193" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q193">
+        <v>3.75</v>
+      </c>
+      <c r="R193">
+        <v>1.95</v>
+      </c>
+      <c r="S193">
+        <v>3.4</v>
+      </c>
+      <c r="T193">
+        <v>1.5</v>
+      </c>
+      <c r="U193">
+        <v>2.5</v>
+      </c>
+      <c r="V193">
+        <v>3.4</v>
+      </c>
+      <c r="W193">
+        <v>1.3</v>
+      </c>
+      <c r="X193">
+        <v>10</v>
+      </c>
+      <c r="Y193">
+        <v>1.06</v>
+      </c>
+      <c r="Z193">
+        <v>2.8</v>
+      </c>
+      <c r="AA193">
+        <v>2.8</v>
+      </c>
+      <c r="AB193">
+        <v>2.5</v>
+      </c>
+      <c r="AC193">
+        <v>1.08</v>
+      </c>
+      <c r="AD193">
+        <v>7</v>
+      </c>
+      <c r="AE193">
+        <v>1.4</v>
+      </c>
+      <c r="AF193">
+        <v>2.8</v>
+      </c>
+      <c r="AG193">
+        <v>2.6</v>
+      </c>
+      <c r="AH193">
+        <v>1.48</v>
+      </c>
+      <c r="AI193">
+        <v>2.1</v>
+      </c>
+      <c r="AJ193">
+        <v>1.67</v>
+      </c>
+      <c r="AK193">
+        <v>1.45</v>
+      </c>
+      <c r="AL193">
+        <v>1.3</v>
+      </c>
+      <c r="AM193">
+        <v>1.44</v>
+      </c>
+      <c r="AN193">
+        <v>1.91</v>
+      </c>
+      <c r="AO193">
+        <v>2.03</v>
+      </c>
+      <c r="AP193">
+        <v>1.94</v>
+      </c>
+      <c r="AQ193">
+        <v>1.97</v>
+      </c>
+      <c r="AR193">
+        <v>1.54</v>
+      </c>
+      <c r="AS193">
+        <v>1.65</v>
+      </c>
+      <c r="AT193">
+        <v>3.19</v>
+      </c>
+      <c r="AU193">
+        <v>5</v>
+      </c>
+      <c r="AV193">
+        <v>3</v>
+      </c>
+      <c r="AW193">
+        <v>6</v>
+      </c>
+      <c r="AX193">
+        <v>1</v>
+      </c>
+      <c r="AY193">
+        <v>11</v>
+      </c>
+      <c r="AZ193">
+        <v>4</v>
+      </c>
+      <c r="BA193">
+        <v>4</v>
+      </c>
+      <c r="BB193">
+        <v>5</v>
+      </c>
+      <c r="BC193">
+        <v>9</v>
+      </c>
+      <c r="BD193">
+        <v>2.07</v>
+      </c>
+      <c r="BE193">
+        <v>6.15</v>
+      </c>
+      <c r="BF193">
+        <v>2.12</v>
+      </c>
+      <c r="BG193">
+        <v>1.27</v>
+      </c>
+      <c r="BH193">
+        <v>3.28</v>
+      </c>
+      <c r="BI193">
+        <v>1.58</v>
+      </c>
+      <c r="BJ193">
+        <v>2.32</v>
+      </c>
+      <c r="BK193">
+        <v>1.94</v>
+      </c>
+      <c r="BL193">
+        <v>1.83</v>
+      </c>
+      <c r="BM193">
+        <v>2.48</v>
+      </c>
+      <c r="BN193">
+        <v>1.52</v>
+      </c>
+      <c r="BO193">
+        <v>3.34</v>
+      </c>
+      <c r="BP193">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -619,6 +619,12 @@
     <t>['63', '78']</t>
   </si>
   <si>
+    <t>['22', '39', '52', '76']</t>
+  </si>
+  <si>
+    <t>['23', '43']</t>
+  </si>
+  <si>
     <t>['44', '85']</t>
   </si>
   <si>
@@ -869,6 +875,12 @@
   </si>
   <si>
     <t>['23']</t>
+  </si>
+  <si>
+    <t>['16', '19', '60']</t>
+  </si>
+  <si>
+    <t>['19', '37', '53']</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP193"/>
+  <dimension ref="A1:BP196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1570,7 +1582,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ2">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1773,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AQ3">
         <v>0.9399999999999999</v>
@@ -1979,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
         <v>1.48</v>
@@ -2188,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2394,7 +2406,7 @@
         <v>1.97</v>
       </c>
       <c r="AQ6">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2597,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ7">
         <v>1.94</v>
@@ -2725,7 +2737,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2803,7 +2815,7 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -2931,7 +2943,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3009,10 +3021,10 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ9">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AR9">
         <v>1.58</v>
@@ -3137,7 +3149,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3218,7 +3230,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ10">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR10">
         <v>1.47</v>
@@ -3343,7 +3355,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3424,7 +3436,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ11">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR11">
         <v>1.49</v>
@@ -3630,7 +3642,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ12">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>1.3</v>
@@ -3755,7 +3767,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4039,7 +4051,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ14">
         <v>0.9399999999999999</v>
@@ -4167,7 +4179,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4245,10 +4257,10 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AQ15">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR15">
         <v>1.29</v>
@@ -4657,10 +4669,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ17">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR17">
         <v>1.4</v>
@@ -4785,7 +4797,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4863,7 +4875,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
         <v>1.94</v>
@@ -4991,7 +5003,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5069,10 +5081,10 @@
         <v>1.67</v>
       </c>
       <c r="AP19">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ19">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR19">
         <v>1.31</v>
@@ -5197,7 +5209,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5278,7 +5290,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ20">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.69</v>
@@ -5403,7 +5415,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5481,10 +5493,10 @@
         <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ21">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR21">
         <v>1.64</v>
@@ -5609,7 +5621,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -6102,7 +6114,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ24">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AR24">
         <v>1.25</v>
@@ -6433,7 +6445,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6511,10 +6523,10 @@
         <v>0.25</v>
       </c>
       <c r="AP26">
+        <v>1</v>
+      </c>
+      <c r="AQ26">
         <v>1.03</v>
-      </c>
-      <c r="AQ26">
-        <v>0.97</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6717,7 +6729,7 @@
         <v>1.75</v>
       </c>
       <c r="AP27">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ27">
         <v>1.06</v>
@@ -6845,7 +6857,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6923,7 +6935,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -7335,10 +7347,10 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR30">
         <v>1.49</v>
@@ -7544,7 +7556,7 @@
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR31">
         <v>1.28</v>
@@ -7669,7 +7681,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7750,7 +7762,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ32">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR32">
         <v>1.21</v>
@@ -7953,7 +7965,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AQ33">
         <v>1.97</v>
@@ -8081,7 +8093,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8287,7 +8299,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8365,10 +8377,10 @@
         <v>0.6</v>
       </c>
       <c r="AP35">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ35">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.5</v>
@@ -8493,7 +8505,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8571,7 +8583,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ36">
         <v>1.48</v>
@@ -8699,7 +8711,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8777,7 +8789,7 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8986,7 +8998,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ38">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR38">
         <v>1.06</v>
@@ -9395,7 +9407,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
         <v>1.06</v>
@@ -9523,7 +9535,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9601,10 +9613,10 @@
         <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ41">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AR41">
         <v>1.42</v>
@@ -9729,7 +9741,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9810,7 +9822,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ42">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR42">
         <v>1.44</v>
@@ -10013,7 +10025,7 @@
         <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ43">
         <v>1.97</v>
@@ -10141,7 +10153,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10425,10 +10437,10 @@
         <v>1.71</v>
       </c>
       <c r="AP45">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AQ45">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR45">
         <v>1.37</v>
@@ -10553,7 +10565,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10634,7 +10646,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.37</v>
@@ -10759,7 +10771,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10837,7 +10849,7 @@
         <v>0.57</v>
       </c>
       <c r="AP47">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ47">
         <v>0.9399999999999999</v>
@@ -11046,7 +11058,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ48">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR48">
         <v>1.31</v>
@@ -11458,7 +11470,7 @@
         <v>1.97</v>
       </c>
       <c r="AQ50">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR50">
         <v>1.93</v>
@@ -11583,7 +11595,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11661,10 +11673,10 @@
         <v>1.63</v>
       </c>
       <c r="AP51">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ51">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -11867,10 +11879,10 @@
         <v>1.38</v>
       </c>
       <c r="AP52">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ52">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR52">
         <v>1.52</v>
@@ -12201,7 +12213,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12279,7 +12291,7 @@
         <v>1.38</v>
       </c>
       <c r="AP54">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ54">
         <v>1.97</v>
@@ -12407,7 +12419,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12485,7 +12497,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AQ55">
         <v>1.48</v>
@@ -12613,7 +12625,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12819,7 +12831,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12897,10 +12909,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ57">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR57">
         <v>1.33</v>
@@ -13025,7 +13037,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13103,10 +13115,10 @@
         <v>0.44</v>
       </c>
       <c r="AP58">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ58">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.5</v>
@@ -13437,7 +13449,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13515,7 +13527,7 @@
         <v>1.4</v>
       </c>
       <c r="AP60">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ60">
         <v>1.06</v>
@@ -13721,10 +13733,10 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ61">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR61">
         <v>1.27</v>
@@ -13930,7 +13942,7 @@
         <v>1.97</v>
       </c>
       <c r="AQ62">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR62">
         <v>1.93</v>
@@ -14136,7 +14148,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ63">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AR63">
         <v>1.55</v>
@@ -14548,7 +14560,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ65">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR65">
         <v>1.21</v>
@@ -14673,7 +14685,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14751,7 +14763,7 @@
         <v>1.18</v>
       </c>
       <c r="AP66">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -14879,7 +14891,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14957,7 +14969,7 @@
         <v>1.36</v>
       </c>
       <c r="AP67">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ67">
         <v>1.06</v>
@@ -15085,7 +15097,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15163,7 +15175,7 @@
         <v>1.7</v>
       </c>
       <c r="AP68">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ68">
         <v>1.97</v>
@@ -15372,7 +15384,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ69">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR69">
         <v>1.62</v>
@@ -15578,7 +15590,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ70">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AR70">
         <v>1.35</v>
@@ -15784,7 +15796,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ71">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR71">
         <v>1.22</v>
@@ -15987,7 +15999,7 @@
         <v>1.17</v>
       </c>
       <c r="AP72">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ72">
         <v>0.9399999999999999</v>
@@ -16115,7 +16127,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16193,7 +16205,7 @@
         <v>1.36</v>
       </c>
       <c r="AP73">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
         <v>1.48</v>
@@ -16321,7 +16333,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16399,10 +16411,10 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AQ74">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR74">
         <v>1.39</v>
@@ -16527,7 +16539,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16608,7 +16620,7 @@
         <v>1</v>
       </c>
       <c r="AQ75">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR75">
         <v>1.36</v>
@@ -16733,7 +16745,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16811,7 +16823,7 @@
         <v>2.27</v>
       </c>
       <c r="AP76">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ76">
         <v>1.94</v>
@@ -17145,7 +17157,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17223,7 +17235,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ78">
         <v>1.94</v>
@@ -17351,7 +17363,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17432,7 +17444,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ79">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR79">
         <v>1.41</v>
@@ -17557,7 +17569,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -18050,7 +18062,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ82">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.64</v>
@@ -18175,7 +18187,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18253,10 +18265,10 @@
         <v>1.31</v>
       </c>
       <c r="AP83">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ83">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR83">
         <v>1.24</v>
@@ -18381,7 +18393,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18459,10 +18471,10 @@
         <v>1.69</v>
       </c>
       <c r="AP84">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ84">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AR84">
         <v>1.38</v>
@@ -18665,7 +18677,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
         <v>0.9399999999999999</v>
@@ -18793,7 +18805,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18871,10 +18883,10 @@
         <v>1.07</v>
       </c>
       <c r="AP86">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ86">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR86">
         <v>1.45</v>
@@ -19077,10 +19089,10 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ87">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -19695,7 +19707,7 @@
         <v>1.36</v>
       </c>
       <c r="AP90">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AQ90">
         <v>1.06</v>
@@ -19823,7 +19835,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19904,7 +19916,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ91">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR91">
         <v>1.34</v>
@@ -20107,10 +20119,10 @@
         <v>1.47</v>
       </c>
       <c r="AP92">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ92">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR92">
         <v>1.3</v>
@@ -20235,7 +20247,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20519,10 +20531,10 @@
         <v>0.67</v>
       </c>
       <c r="AP94">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ94">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR94">
         <v>1.23</v>
@@ -20647,7 +20659,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20728,7 +20740,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AR95">
         <v>1.32</v>
@@ -21059,7 +21071,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21140,7 +21152,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ97">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR97">
         <v>1.2</v>
@@ -21471,7 +21483,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21549,10 +21561,10 @@
         <v>0.63</v>
       </c>
       <c r="AP99">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ99">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR99">
         <v>1.2</v>
@@ -21755,7 +21767,7 @@
         <v>1.38</v>
       </c>
       <c r="AP100">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ100">
         <v>1.06</v>
@@ -21964,7 +21976,7 @@
         <v>1.97</v>
       </c>
       <c r="AQ101">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AR101">
         <v>1.8</v>
@@ -22167,7 +22179,7 @@
         <v>0.88</v>
       </c>
       <c r="AP102">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ102">
         <v>1</v>
@@ -22295,7 +22307,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22376,7 +22388,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ103">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR103">
         <v>1.29</v>
@@ -22501,7 +22513,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22579,7 +22591,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ104">
         <v>1.48</v>
@@ -22707,7 +22719,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22785,10 +22797,10 @@
         <v>1.47</v>
       </c>
       <c r="AP105">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AQ105">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR105">
         <v>1.45</v>
@@ -22991,7 +23003,7 @@
         <v>2.06</v>
       </c>
       <c r="AP106">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ106">
         <v>1.94</v>
@@ -23119,7 +23131,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23325,7 +23337,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23406,7 +23418,7 @@
         <v>1</v>
       </c>
       <c r="AQ108">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR108">
         <v>1.32</v>
@@ -23818,7 +23830,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ110">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR110">
         <v>1.6</v>
@@ -23943,7 +23955,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24024,7 +24036,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ111">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR111">
         <v>1.48</v>
@@ -24149,7 +24161,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24227,10 +24239,10 @@
         <v>1.78</v>
       </c>
       <c r="AP112">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ112">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AR112">
         <v>1.5</v>
@@ -24436,7 +24448,7 @@
         <v>1.97</v>
       </c>
       <c r="AQ113">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR113">
         <v>1.78</v>
@@ -24639,7 +24651,7 @@
         <v>0.83</v>
       </c>
       <c r="AP114">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ114">
         <v>1</v>
@@ -24767,7 +24779,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -24845,7 +24857,7 @@
         <v>2.17</v>
       </c>
       <c r="AP115">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ115">
         <v>1.97</v>
@@ -25051,7 +25063,7 @@
         <v>1.05</v>
       </c>
       <c r="AP116">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ116">
         <v>0.9399999999999999</v>
@@ -25179,7 +25191,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25257,10 +25269,10 @@
         <v>1.53</v>
       </c>
       <c r="AP117">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ117">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR117">
         <v>1.42</v>
@@ -25385,7 +25397,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25591,7 +25603,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25669,10 +25681,10 @@
         <v>0.79</v>
       </c>
       <c r="AP119">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AQ119">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR119">
         <v>1.48</v>
@@ -26003,7 +26015,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26081,10 +26093,10 @@
         <v>1.25</v>
       </c>
       <c r="AP121">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ121">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR121">
         <v>1.22</v>
@@ -26209,7 +26221,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26287,10 +26299,10 @@
         <v>0.95</v>
       </c>
       <c r="AP122">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ122">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR122">
         <v>1.17</v>
@@ -26415,7 +26427,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26496,7 +26508,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ123">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AR123">
         <v>1.18</v>
@@ -26621,7 +26633,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -26702,7 +26714,7 @@
         <v>1.97</v>
       </c>
       <c r="AQ124">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR124">
         <v>1.77</v>
@@ -27033,7 +27045,7 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27239,7 +27251,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27317,7 +27329,7 @@
         <v>1.4</v>
       </c>
       <c r="AP127">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ127">
         <v>1.48</v>
@@ -27445,7 +27457,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27523,10 +27535,10 @@
         <v>0.86</v>
       </c>
       <c r="AP128">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ128">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR128">
         <v>1.44</v>
@@ -27651,7 +27663,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27729,7 +27741,7 @@
         <v>2.14</v>
       </c>
       <c r="AP129">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AQ129">
         <v>1.94</v>
@@ -27857,7 +27869,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -27935,7 +27947,7 @@
         <v>2.1</v>
       </c>
       <c r="AP130">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ130">
         <v>1.97</v>
@@ -28063,7 +28075,7 @@
         <v>89</v>
       </c>
       <c r="P131" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -28144,7 +28156,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ131">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR131">
         <v>1.28</v>
@@ -28269,7 +28281,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28553,10 +28565,10 @@
         <v>0.95</v>
       </c>
       <c r="AP133">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ133">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR133">
         <v>1.36</v>
@@ -28681,7 +28693,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -28759,7 +28771,7 @@
         <v>2.18</v>
       </c>
       <c r="AP134">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ134">
         <v>1.94</v>
@@ -28965,10 +28977,10 @@
         <v>1.41</v>
       </c>
       <c r="AP135">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AQ135">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR135">
         <v>1.47</v>
@@ -29174,7 +29186,7 @@
         <v>1</v>
       </c>
       <c r="AQ136">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR136">
         <v>1.27</v>
@@ -29299,7 +29311,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29505,7 +29517,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29583,10 +29595,10 @@
         <v>1.39</v>
       </c>
       <c r="AP138">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ138">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR138">
         <v>1.21</v>
@@ -29792,7 +29804,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ139">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR139">
         <v>1.38</v>
@@ -29917,7 +29929,7 @@
         <v>168</v>
       </c>
       <c r="P140" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
@@ -29995,7 +30007,7 @@
         <v>1.13</v>
       </c>
       <c r="AP140">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ140">
         <v>0.9399999999999999</v>
@@ -30204,7 +30216,7 @@
         <v>1</v>
       </c>
       <c r="AQ141">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AR141">
         <v>1.28</v>
@@ -30329,7 +30341,7 @@
         <v>133</v>
       </c>
       <c r="P142" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q142">
         <v>2.25</v>
@@ -30410,7 +30422,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ142">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR142">
         <v>1.56</v>
@@ -30947,7 +30959,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31025,7 +31037,7 @@
         <v>1.39</v>
       </c>
       <c r="AP145">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ145">
         <v>1.48</v>
@@ -31437,7 +31449,7 @@
         <v>2.13</v>
       </c>
       <c r="AP147">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ147">
         <v>1.94</v>
@@ -31643,10 +31655,10 @@
         <v>0.92</v>
       </c>
       <c r="AP148">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AQ148">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR148">
         <v>1.5</v>
@@ -31849,7 +31861,7 @@
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ149">
         <v>1.06</v>
@@ -32058,7 +32070,7 @@
         <v>1.97</v>
       </c>
       <c r="AQ150">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR150">
         <v>1.69</v>
@@ -32183,7 +32195,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q151">
         <v>2.1</v>
@@ -32264,7 +32276,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ151">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR151">
         <v>1.54</v>
@@ -32470,7 +32482,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ152">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AR152">
         <v>1.52</v>
@@ -32595,7 +32607,7 @@
         <v>174</v>
       </c>
       <c r="P153" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q153">
         <v>3.75</v>
@@ -32676,7 +32688,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ153">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR153">
         <v>1.41</v>
@@ -32882,7 +32894,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ154">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR154">
         <v>1.17</v>
@@ -33007,7 +33019,7 @@
         <v>113</v>
       </c>
       <c r="P155" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33085,10 +33097,10 @@
         <v>0.96</v>
       </c>
       <c r="AP155">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ155">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR155">
         <v>1.36</v>
@@ -33213,7 +33225,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q156">
         <v>6.5</v>
@@ -33497,7 +33509,7 @@
         <v>1</v>
       </c>
       <c r="AP157">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ157">
         <v>1.06</v>
@@ -33703,7 +33715,7 @@
         <v>1.52</v>
       </c>
       <c r="AP158">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ158">
         <v>1.48</v>
@@ -33909,7 +33921,7 @@
         <v>2.04</v>
       </c>
       <c r="AP159">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AQ159">
         <v>1.94</v>
@@ -34321,7 +34333,7 @@
         <v>0.92</v>
       </c>
       <c r="AP161">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ161">
         <v>1</v>
@@ -34527,10 +34539,10 @@
         <v>1.54</v>
       </c>
       <c r="AP162">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ162">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR162">
         <v>1.34</v>
@@ -34655,7 +34667,7 @@
         <v>181</v>
       </c>
       <c r="P163" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q163">
         <v>3.5</v>
@@ -34733,10 +34745,10 @@
         <v>1.41</v>
       </c>
       <c r="AP163">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ163">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR163">
         <v>1.34</v>
@@ -34942,7 +34954,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ164">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR164">
         <v>1.17</v>
@@ -35148,7 +35160,7 @@
         <v>1</v>
       </c>
       <c r="AQ165">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR165">
         <v>1.34</v>
@@ -35273,7 +35285,7 @@
         <v>182</v>
       </c>
       <c r="P166" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35354,7 +35366,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ166">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR166">
         <v>1.48</v>
@@ -35560,7 +35572,7 @@
         <v>1.97</v>
       </c>
       <c r="AQ167">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AR167">
         <v>1.7</v>
@@ -35891,7 +35903,7 @@
         <v>184</v>
       </c>
       <c r="P169" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q169">
         <v>3.4</v>
@@ -35969,10 +35981,10 @@
         <v>1.54</v>
       </c>
       <c r="AP169">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ169">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR169">
         <v>1.23</v>
@@ -36097,7 +36109,7 @@
         <v>185</v>
       </c>
       <c r="P170" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36175,7 +36187,7 @@
         <v>1.04</v>
       </c>
       <c r="AP170">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ170">
         <v>0.9399999999999999</v>
@@ -36381,7 +36393,7 @@
         <v>0.89</v>
       </c>
       <c r="AP171">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ171">
         <v>1</v>
@@ -36509,7 +36521,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q172">
         <v>6.5</v>
@@ -36587,7 +36599,7 @@
         <v>2.07</v>
       </c>
       <c r="AP172">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ172">
         <v>1.97</v>
@@ -36793,7 +36805,7 @@
         <v>0.96</v>
       </c>
       <c r="AP173">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AQ173">
         <v>1.06</v>
@@ -37127,7 +37139,7 @@
         <v>189</v>
       </c>
       <c r="P175" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37208,7 +37220,7 @@
         <v>1</v>
       </c>
       <c r="AQ175">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR175">
         <v>1.36</v>
@@ -37414,7 +37426,7 @@
         <v>1.97</v>
       </c>
       <c r="AQ176">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR176">
         <v>1.69</v>
@@ -37620,7 +37632,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ177">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR177">
         <v>1.47</v>
@@ -37745,7 +37757,7 @@
         <v>191</v>
       </c>
       <c r="P178" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q178">
         <v>4.33</v>
@@ -37823,7 +37835,7 @@
         <v>1.97</v>
       </c>
       <c r="AP178">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ178">
         <v>1.94</v>
@@ -37951,7 +37963,7 @@
         <v>192</v>
       </c>
       <c r="P179" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q179">
         <v>3.1</v>
@@ -38235,10 +38247,10 @@
         <v>1.76</v>
       </c>
       <c r="AP180">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ180">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AR180">
         <v>1.19</v>
@@ -38363,7 +38375,7 @@
         <v>89</v>
       </c>
       <c r="P181" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q181">
         <v>2.1</v>
@@ -38647,7 +38659,7 @@
         <v>2.14</v>
       </c>
       <c r="AP182">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ182">
         <v>1.97</v>
@@ -38775,7 +38787,7 @@
         <v>194</v>
       </c>
       <c r="P183" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q183">
         <v>2.6</v>
@@ -38853,7 +38865,7 @@
         <v>1.48</v>
       </c>
       <c r="AP183">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AQ183">
         <v>1.48</v>
@@ -39059,10 +39071,10 @@
         <v>1.03</v>
       </c>
       <c r="AP184">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ184">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR184">
         <v>1.39</v>
@@ -39268,7 +39280,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ185">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR185">
         <v>1.38</v>
@@ -39471,7 +39483,7 @@
         <v>1</v>
       </c>
       <c r="AP186">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ186">
         <v>0.9399999999999999</v>
@@ -39805,7 +39817,7 @@
         <v>197</v>
       </c>
       <c r="P188" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q188">
         <v>2.25</v>
@@ -39886,7 +39898,7 @@
         <v>1.97</v>
       </c>
       <c r="AQ188">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR188">
         <v>1.64</v>
@@ -40011,7 +40023,7 @@
         <v>198</v>
       </c>
       <c r="P189" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q189">
         <v>3.25</v>
@@ -40089,7 +40101,7 @@
         <v>1.43</v>
       </c>
       <c r="AP189">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ189">
         <v>1.48</v>
@@ -40295,10 +40307,10 @@
         <v>1.84</v>
       </c>
       <c r="AP190">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ190">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AR190">
         <v>1.38</v>
@@ -40423,7 +40435,7 @@
         <v>89</v>
       </c>
       <c r="P191" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q191">
         <v>3.4</v>
@@ -40629,7 +40641,7 @@
         <v>119</v>
       </c>
       <c r="P192" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q192">
         <v>4.5</v>
@@ -40707,10 +40719,10 @@
         <v>1.39</v>
       </c>
       <c r="AP192">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ192">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR192">
         <v>1.18</v>
@@ -40835,7 +40847,7 @@
         <v>200</v>
       </c>
       <c r="P193" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -40992,6 +41004,624 @@
       </c>
       <c r="BP193">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7487304</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45550.8125</v>
+      </c>
+      <c r="F194">
+        <v>11</v>
+      </c>
+      <c r="G194" t="s">
+        <v>71</v>
+      </c>
+      <c r="H194" t="s">
+        <v>72</v>
+      </c>
+      <c r="I194">
+        <v>2</v>
+      </c>
+      <c r="J194">
+        <v>2</v>
+      </c>
+      <c r="K194">
+        <v>4</v>
+      </c>
+      <c r="L194">
+        <v>4</v>
+      </c>
+      <c r="M194">
+        <v>3</v>
+      </c>
+      <c r="N194">
+        <v>7</v>
+      </c>
+      <c r="O194" t="s">
+        <v>201</v>
+      </c>
+      <c r="P194" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q194">
+        <v>2.63</v>
+      </c>
+      <c r="R194">
+        <v>2</v>
+      </c>
+      <c r="S194">
+        <v>5</v>
+      </c>
+      <c r="T194">
+        <v>1.5</v>
+      </c>
+      <c r="U194">
+        <v>2.5</v>
+      </c>
+      <c r="V194">
+        <v>3.4</v>
+      </c>
+      <c r="W194">
+        <v>1.3</v>
+      </c>
+      <c r="X194">
+        <v>10</v>
+      </c>
+      <c r="Y194">
+        <v>1.06</v>
+      </c>
+      <c r="Z194">
+        <v>1.61</v>
+      </c>
+      <c r="AA194">
+        <v>3.4</v>
+      </c>
+      <c r="AB194">
+        <v>4.8</v>
+      </c>
+      <c r="AC194">
+        <v>1.06</v>
+      </c>
+      <c r="AD194">
+        <v>8</v>
+      </c>
+      <c r="AE194">
+        <v>1.4</v>
+      </c>
+      <c r="AF194">
+        <v>2.8</v>
+      </c>
+      <c r="AG194">
+        <v>2.2</v>
+      </c>
+      <c r="AH194">
+        <v>1.55</v>
+      </c>
+      <c r="AI194">
+        <v>2.2</v>
+      </c>
+      <c r="AJ194">
+        <v>1.62</v>
+      </c>
+      <c r="AK194">
+        <v>1.14</v>
+      </c>
+      <c r="AL194">
+        <v>1.22</v>
+      </c>
+      <c r="AM194">
+        <v>1.91</v>
+      </c>
+      <c r="AN194">
+        <v>1.78</v>
+      </c>
+      <c r="AO194">
+        <v>1.38</v>
+      </c>
+      <c r="AP194">
+        <v>1.82</v>
+      </c>
+      <c r="AQ194">
+        <v>1.33</v>
+      </c>
+      <c r="AR194">
+        <v>1.54</v>
+      </c>
+      <c r="AS194">
+        <v>1.37</v>
+      </c>
+      <c r="AT194">
+        <v>2.91</v>
+      </c>
+      <c r="AU194">
+        <v>7</v>
+      </c>
+      <c r="AV194">
+        <v>5</v>
+      </c>
+      <c r="AW194">
+        <v>6</v>
+      </c>
+      <c r="AX194">
+        <v>4</v>
+      </c>
+      <c r="AY194">
+        <v>13</v>
+      </c>
+      <c r="AZ194">
+        <v>9</v>
+      </c>
+      <c r="BA194">
+        <v>5</v>
+      </c>
+      <c r="BB194">
+        <v>4</v>
+      </c>
+      <c r="BC194">
+        <v>9</v>
+      </c>
+      <c r="BD194">
+        <v>1.69</v>
+      </c>
+      <c r="BE194">
+        <v>7.9</v>
+      </c>
+      <c r="BF194">
+        <v>2.5</v>
+      </c>
+      <c r="BG194">
+        <v>1.32</v>
+      </c>
+      <c r="BH194">
+        <v>2.98</v>
+      </c>
+      <c r="BI194">
+        <v>1.58</v>
+      </c>
+      <c r="BJ194">
+        <v>2.17</v>
+      </c>
+      <c r="BK194">
+        <v>2</v>
+      </c>
+      <c r="BL194">
+        <v>1.69</v>
+      </c>
+      <c r="BM194">
+        <v>2.64</v>
+      </c>
+      <c r="BN194">
+        <v>1.4</v>
+      </c>
+      <c r="BO194">
+        <v>3.65</v>
+      </c>
+      <c r="BP194">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7487308</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45551.77083333334</v>
+      </c>
+      <c r="F195">
+        <v>11</v>
+      </c>
+      <c r="G195" t="s">
+        <v>81</v>
+      </c>
+      <c r="H195" t="s">
+        <v>77</v>
+      </c>
+      <c r="I195">
+        <v>2</v>
+      </c>
+      <c r="J195">
+        <v>2</v>
+      </c>
+      <c r="K195">
+        <v>4</v>
+      </c>
+      <c r="L195">
+        <v>2</v>
+      </c>
+      <c r="M195">
+        <v>3</v>
+      </c>
+      <c r="N195">
+        <v>5</v>
+      </c>
+      <c r="O195" t="s">
+        <v>202</v>
+      </c>
+      <c r="P195" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q195">
+        <v>3</v>
+      </c>
+      <c r="R195">
+        <v>2.05</v>
+      </c>
+      <c r="S195">
+        <v>3.75</v>
+      </c>
+      <c r="T195">
+        <v>1.44</v>
+      </c>
+      <c r="U195">
+        <v>2.68</v>
+      </c>
+      <c r="V195">
+        <v>3.27</v>
+      </c>
+      <c r="W195">
+        <v>1.32</v>
+      </c>
+      <c r="X195">
+        <v>8.1</v>
+      </c>
+      <c r="Y195">
+        <v>1.04</v>
+      </c>
+      <c r="Z195">
+        <v>2.2</v>
+      </c>
+      <c r="AA195">
+        <v>3.1</v>
+      </c>
+      <c r="AB195">
+        <v>3.1</v>
+      </c>
+      <c r="AC195">
+        <v>1.06</v>
+      </c>
+      <c r="AD195">
+        <v>8</v>
+      </c>
+      <c r="AE195">
+        <v>1.38</v>
+      </c>
+      <c r="AF195">
+        <v>2.94</v>
+      </c>
+      <c r="AG195">
+        <v>2.1</v>
+      </c>
+      <c r="AH195">
+        <v>1.7</v>
+      </c>
+      <c r="AI195">
+        <v>1.83</v>
+      </c>
+      <c r="AJ195">
+        <v>1.83</v>
+      </c>
+      <c r="AK195">
+        <v>1.29</v>
+      </c>
+      <c r="AL195">
+        <v>1.32</v>
+      </c>
+      <c r="AM195">
+        <v>1.7</v>
+      </c>
+      <c r="AN195">
+        <v>1.03</v>
+      </c>
+      <c r="AO195">
+        <v>0.97</v>
+      </c>
+      <c r="AP195">
+        <v>1</v>
+      </c>
+      <c r="AQ195">
+        <v>1.03</v>
+      </c>
+      <c r="AR195">
+        <v>1.24</v>
+      </c>
+      <c r="AS195">
+        <v>1.2</v>
+      </c>
+      <c r="AT195">
+        <v>2.44</v>
+      </c>
+      <c r="AU195">
+        <v>6</v>
+      </c>
+      <c r="AV195">
+        <v>7</v>
+      </c>
+      <c r="AW195">
+        <v>12</v>
+      </c>
+      <c r="AX195">
+        <v>7</v>
+      </c>
+      <c r="AY195">
+        <v>18</v>
+      </c>
+      <c r="AZ195">
+        <v>14</v>
+      </c>
+      <c r="BA195">
+        <v>4</v>
+      </c>
+      <c r="BB195">
+        <v>1</v>
+      </c>
+      <c r="BC195">
+        <v>5</v>
+      </c>
+      <c r="BD195">
+        <v>1.6</v>
+      </c>
+      <c r="BE195">
+        <v>8.1</v>
+      </c>
+      <c r="BF195">
+        <v>2.85</v>
+      </c>
+      <c r="BG195">
+        <v>1.29</v>
+      </c>
+      <c r="BH195">
+        <v>3.3</v>
+      </c>
+      <c r="BI195">
+        <v>1.48</v>
+      </c>
+      <c r="BJ195">
+        <v>2.55</v>
+      </c>
+      <c r="BK195">
+        <v>2.38</v>
+      </c>
+      <c r="BL195">
+        <v>1.98</v>
+      </c>
+      <c r="BM195">
+        <v>2.27</v>
+      </c>
+      <c r="BN195">
+        <v>1.6</v>
+      </c>
+      <c r="BO195">
+        <v>3.05</v>
+      </c>
+      <c r="BP195">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7487309</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45551.875</v>
+      </c>
+      <c r="F196">
+        <v>11</v>
+      </c>
+      <c r="G196" t="s">
+        <v>75</v>
+      </c>
+      <c r="H196" t="s">
+        <v>76</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+      <c r="O196" t="s">
+        <v>89</v>
+      </c>
+      <c r="P196" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q196">
+        <v>3</v>
+      </c>
+      <c r="R196">
+        <v>2.05</v>
+      </c>
+      <c r="S196">
+        <v>4</v>
+      </c>
+      <c r="T196">
+        <v>1.43</v>
+      </c>
+      <c r="U196">
+        <v>2.66</v>
+      </c>
+      <c r="V196">
+        <v>3.22</v>
+      </c>
+      <c r="W196">
+        <v>1.31</v>
+      </c>
+      <c r="X196">
+        <v>8.1</v>
+      </c>
+      <c r="Y196">
+        <v>1.04</v>
+      </c>
+      <c r="Z196">
+        <v>2.06</v>
+      </c>
+      <c r="AA196">
+        <v>3</v>
+      </c>
+      <c r="AB196">
+        <v>3.1</v>
+      </c>
+      <c r="AC196">
+        <v>1.08</v>
+      </c>
+      <c r="AD196">
+        <v>7</v>
+      </c>
+      <c r="AE196">
+        <v>1.36</v>
+      </c>
+      <c r="AF196">
+        <v>2.95</v>
+      </c>
+      <c r="AG196">
+        <v>2.1</v>
+      </c>
+      <c r="AH196">
+        <v>1.6</v>
+      </c>
+      <c r="AI196">
+        <v>1.83</v>
+      </c>
+      <c r="AJ196">
+        <v>1.83</v>
+      </c>
+      <c r="AK196">
+        <v>1.31</v>
+      </c>
+      <c r="AL196">
+        <v>1.37</v>
+      </c>
+      <c r="AM196">
+        <v>1.56</v>
+      </c>
+      <c r="AN196">
+        <v>1.44</v>
+      </c>
+      <c r="AO196">
+        <v>1.25</v>
+      </c>
+      <c r="AP196">
+        <v>1.42</v>
+      </c>
+      <c r="AQ196">
+        <v>1.24</v>
+      </c>
+      <c r="AR196">
+        <v>1.33</v>
+      </c>
+      <c r="AS196">
+        <v>1.39</v>
+      </c>
+      <c r="AT196">
+        <v>2.72</v>
+      </c>
+      <c r="AU196">
+        <v>0</v>
+      </c>
+      <c r="AV196">
+        <v>4</v>
+      </c>
+      <c r="AW196">
+        <v>7</v>
+      </c>
+      <c r="AX196">
+        <v>12</v>
+      </c>
+      <c r="AY196">
+        <v>7</v>
+      </c>
+      <c r="AZ196">
+        <v>16</v>
+      </c>
+      <c r="BA196">
+        <v>8</v>
+      </c>
+      <c r="BB196">
+        <v>3</v>
+      </c>
+      <c r="BC196">
+        <v>11</v>
+      </c>
+      <c r="BD196">
+        <v>1.6</v>
+      </c>
+      <c r="BE196">
+        <v>7.7</v>
+      </c>
+      <c r="BF196">
+        <v>2.9</v>
+      </c>
+      <c r="BG196">
+        <v>1.29</v>
+      </c>
+      <c r="BH196">
+        <v>3.3</v>
+      </c>
+      <c r="BI196">
+        <v>1.51</v>
+      </c>
+      <c r="BJ196">
+        <v>2.49</v>
+      </c>
+      <c r="BK196">
+        <v>2.38</v>
+      </c>
+      <c r="BL196">
+        <v>1.94</v>
+      </c>
+      <c r="BM196">
+        <v>2.34</v>
+      </c>
+      <c r="BN196">
+        <v>1.57</v>
+      </c>
+      <c r="BO196">
+        <v>3.1</v>
+      </c>
+      <c r="BP196">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="290">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,10 +625,10 @@
     <t>['23', '43']</t>
   </si>
   <si>
-    <t>['44', '85']</t>
+    <t>['90']</t>
   </si>
   <si>
-    <t>['90']</t>
+    <t>['44', '85']</t>
   </si>
   <si>
     <t>['83', '90+4']</t>
@@ -881,6 +881,9 @@
   </si>
   <si>
     <t>['19', '37', '53']</t>
+  </si>
+  <si>
+    <t>['3', '73']</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP196"/>
+  <dimension ref="A1:BP198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1579,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ2">
         <v>1.24</v>
@@ -1788,7 +1791,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ3">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1994,7 +1997,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ4">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2197,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ5">
         <v>1.03</v>
@@ -2737,7 +2740,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2818,7 +2821,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR8">
         <v>0.87</v>
@@ -2943,7 +2946,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3227,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AQ10">
         <v>1.42</v>
@@ -3639,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3845,7 +3848,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ13">
         <v>1.97</v>
@@ -4054,7 +4057,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ14">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR14">
         <v>1.53</v>
@@ -4463,10 +4466,10 @@
         <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ16">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR16">
         <v>1.54</v>
@@ -5287,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5699,7 +5702,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ22">
         <v>1.97</v>
@@ -5908,7 +5911,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ23">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -6111,7 +6114,7 @@
         <v>1.67</v>
       </c>
       <c r="AP24">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ24">
         <v>1.82</v>
@@ -6317,10 +6320,10 @@
         <v>0.75</v>
       </c>
       <c r="AP25">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AQ25">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR25">
         <v>1.01</v>
@@ -6732,7 +6735,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ27">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR27">
         <v>1.52</v>
@@ -6938,7 +6941,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR28">
         <v>1.41</v>
@@ -7553,7 +7556,7 @@
         <v>1.8</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ31">
         <v>1.42</v>
@@ -7759,7 +7762,7 @@
         <v>1.6</v>
       </c>
       <c r="AP32">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ32">
         <v>1.33</v>
@@ -8171,7 +8174,7 @@
         <v>2.2</v>
       </c>
       <c r="AP34">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AQ34">
         <v>1.94</v>
@@ -8586,7 +8589,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ36">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AR36">
         <v>1.5</v>
@@ -8711,7 +8714,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8792,7 +8795,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR37">
         <v>1.56</v>
@@ -8995,7 +8998,7 @@
         <v>0.83</v>
       </c>
       <c r="AP38">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AQ38">
         <v>1.24</v>
@@ -9204,7 +9207,7 @@
         <v>1.97</v>
       </c>
       <c r="AQ39">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR39">
         <v>2.03</v>
@@ -9410,7 +9413,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR40">
         <v>1.34</v>
@@ -10231,10 +10234,10 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ44">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AR44">
         <v>1.33</v>
@@ -10643,7 +10646,7 @@
         <v>0.43</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10852,7 +10855,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ47">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR47">
         <v>1.34</v>
@@ -11055,7 +11058,7 @@
         <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AQ48">
         <v>1.24</v>
@@ -11261,10 +11264,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR49">
         <v>1.1</v>
@@ -12088,7 +12091,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ53">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR53">
         <v>1.55</v>
@@ -12500,7 +12503,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ55">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AR55">
         <v>1.34</v>
@@ -12703,7 +12706,7 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ56">
         <v>1.94</v>
@@ -13321,10 +13324,10 @@
         <v>1.11</v>
       </c>
       <c r="AP59">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ59">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR59">
         <v>1.29</v>
@@ -13530,7 +13533,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ60">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR60">
         <v>1.22</v>
@@ -14351,10 +14354,10 @@
         <v>1.3</v>
       </c>
       <c r="AP64">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14557,7 +14560,7 @@
         <v>1.1</v>
       </c>
       <c r="AP65">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AQ65">
         <v>1.42</v>
@@ -14766,7 +14769,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR66">
         <v>1.23</v>
@@ -14972,7 +14975,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ67">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR67">
         <v>1.34</v>
@@ -15587,7 +15590,7 @@
         <v>1.64</v>
       </c>
       <c r="AP70">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AQ70">
         <v>1.82</v>
@@ -15793,7 +15796,7 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AQ71">
         <v>1.33</v>
@@ -16002,7 +16005,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ72">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR72">
         <v>1.46</v>
@@ -16208,7 +16211,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AR73">
         <v>1.25</v>
@@ -16617,7 +16620,7 @@
         <v>0.55</v>
       </c>
       <c r="AP75">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ75">
         <v>1.24</v>
@@ -17032,7 +17035,7 @@
         <v>1.97</v>
       </c>
       <c r="AQ77">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR77">
         <v>1.87</v>
@@ -17441,7 +17444,7 @@
         <v>1.46</v>
       </c>
       <c r="AP79">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AQ79">
         <v>1.33</v>
@@ -17647,7 +17650,7 @@
         <v>1.92</v>
       </c>
       <c r="AP80">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AQ80">
         <v>1.97</v>
@@ -17853,10 +17856,10 @@
         <v>1.08</v>
       </c>
       <c r="AP81">
+        <v>1.12</v>
+      </c>
+      <c r="AQ81">
         <v>1.06</v>
-      </c>
-      <c r="AQ81">
-        <v>1</v>
       </c>
       <c r="AR81">
         <v>1.27</v>
@@ -18680,7 +18683,7 @@
         <v>1</v>
       </c>
       <c r="AQ85">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR85">
         <v>1.23</v>
@@ -19295,7 +19298,7 @@
         <v>2.29</v>
       </c>
       <c r="AP88">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AQ88">
         <v>1.94</v>
@@ -19504,7 +19507,7 @@
         <v>1.97</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR89">
         <v>1.81</v>
@@ -19710,7 +19713,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ90">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR90">
         <v>1.42</v>
@@ -19913,7 +19916,7 @@
         <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ91">
         <v>1.42</v>
@@ -20737,7 +20740,7 @@
         <v>1.67</v>
       </c>
       <c r="AP95">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ95">
         <v>1.82</v>
@@ -20943,10 +20946,10 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AQ96">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AR96">
         <v>1.51</v>
@@ -21149,7 +21152,7 @@
         <v>1.19</v>
       </c>
       <c r="AP97">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AQ97">
         <v>1.03</v>
@@ -21358,7 +21361,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ98">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR98">
         <v>1.6</v>
@@ -21770,7 +21773,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ100">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR100">
         <v>1.48</v>
@@ -22182,7 +22185,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR102">
         <v>1.45</v>
@@ -22385,7 +22388,7 @@
         <v>0.65</v>
       </c>
       <c r="AP103">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ103">
         <v>1</v>
@@ -22594,7 +22597,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ104">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AR104">
         <v>1.3</v>
@@ -23209,7 +23212,7 @@
         <v>2.06</v>
       </c>
       <c r="AP107">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AQ107">
         <v>1.97</v>
@@ -23415,7 +23418,7 @@
         <v>1.53</v>
       </c>
       <c r="AP108">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ108">
         <v>1.33</v>
@@ -23621,10 +23624,10 @@
         <v>1.28</v>
       </c>
       <c r="AP109">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AQ109">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR109">
         <v>1.21</v>
@@ -24033,7 +24036,7 @@
         <v>1.11</v>
       </c>
       <c r="AP111">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AQ111">
         <v>1.03</v>
@@ -24654,7 +24657,7 @@
         <v>1</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR114">
         <v>1.26</v>
@@ -25066,7 +25069,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ116">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR116">
         <v>1.3</v>
@@ -25475,7 +25478,7 @@
         <v>2.05</v>
       </c>
       <c r="AP118">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ118">
         <v>1.94</v>
@@ -25887,10 +25890,10 @@
         <v>1.5</v>
       </c>
       <c r="AP120">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ120">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AR120">
         <v>1.29</v>
@@ -26505,7 +26508,7 @@
         <v>1.75</v>
       </c>
       <c r="AP123">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AQ123">
         <v>1.82</v>
@@ -26920,7 +26923,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ125">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR125">
         <v>1.61</v>
@@ -27123,10 +27126,10 @@
         <v>1.15</v>
       </c>
       <c r="AP126">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AQ126">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR126">
         <v>1.58</v>
@@ -27332,7 +27335,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ127">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AR127">
         <v>1.39</v>
@@ -28153,7 +28156,7 @@
         <v>0.95</v>
       </c>
       <c r="AP131">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ131">
         <v>1.03</v>
@@ -28359,10 +28362,10 @@
         <v>1.1</v>
       </c>
       <c r="AP132">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ132">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR132">
         <v>1.23</v>
@@ -29183,7 +29186,7 @@
         <v>1.59</v>
       </c>
       <c r="AP136">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ136">
         <v>1.33</v>
@@ -29389,10 +29392,10 @@
         <v>1.33</v>
       </c>
       <c r="AP137">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AQ137">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AR137">
         <v>1.57</v>
@@ -29801,7 +29804,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ139">
         <v>1.03</v>
@@ -30010,7 +30013,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ140">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR140">
         <v>1.41</v>
@@ -30213,7 +30216,7 @@
         <v>1.61</v>
       </c>
       <c r="AP141">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ141">
         <v>1.82</v>
@@ -30625,7 +30628,7 @@
         <v>2.14</v>
       </c>
       <c r="AP143">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AQ143">
         <v>1.97</v>
@@ -30834,7 +30837,7 @@
         <v>1.97</v>
       </c>
       <c r="AQ144">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR144">
         <v>1.69</v>
@@ -31040,7 +31043,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ145">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AR145">
         <v>1.2</v>
@@ -31243,10 +31246,10 @@
         <v>0.88</v>
       </c>
       <c r="AP146">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AQ146">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR146">
         <v>1.51</v>
@@ -31864,7 +31867,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ149">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR149">
         <v>1.36</v>
@@ -32479,7 +32482,7 @@
         <v>1.64</v>
       </c>
       <c r="AP152">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AQ152">
         <v>1.82</v>
@@ -32685,7 +32688,7 @@
         <v>1.44</v>
       </c>
       <c r="AP153">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ153">
         <v>1.42</v>
@@ -32891,7 +32894,7 @@
         <v>1.08</v>
       </c>
       <c r="AP154">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AQ154">
         <v>1.24</v>
@@ -33303,7 +33306,7 @@
         <v>2.17</v>
       </c>
       <c r="AP156">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ156">
         <v>1.97</v>
@@ -33512,7 +33515,7 @@
         <v>1</v>
       </c>
       <c r="AQ157">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR157">
         <v>1.22</v>
@@ -33718,7 +33721,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ158">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AR158">
         <v>1.33</v>
@@ -34130,7 +34133,7 @@
         <v>1.97</v>
       </c>
       <c r="AQ160">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR160">
         <v>1.68</v>
@@ -34336,7 +34339,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ161">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR161">
         <v>1.19</v>
@@ -34951,7 +34954,7 @@
         <v>0.96</v>
       </c>
       <c r="AP164">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AQ164">
         <v>1</v>
@@ -35157,7 +35160,7 @@
         <v>1.11</v>
       </c>
       <c r="AP165">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ165">
         <v>1.24</v>
@@ -35363,7 +35366,7 @@
         <v>1.04</v>
       </c>
       <c r="AP166">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AQ166">
         <v>1.03</v>
@@ -35775,7 +35778,7 @@
         <v>1.96</v>
       </c>
       <c r="AP168">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ168">
         <v>1.94</v>
@@ -36190,7 +36193,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ170">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR170">
         <v>1.38</v>
@@ -36396,7 +36399,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ171">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR171">
         <v>1.31</v>
@@ -36808,7 +36811,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ173">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR173">
         <v>1.49</v>
@@ -37014,7 +37017,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ174">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AR174">
         <v>1.5</v>
@@ -37217,7 +37220,7 @@
         <v>1</v>
       </c>
       <c r="AP175">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ175">
         <v>1</v>
@@ -37629,7 +37632,7 @@
         <v>1.34</v>
       </c>
       <c r="AP177">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AQ177">
         <v>1.42</v>
@@ -38041,10 +38044,10 @@
         <v>0.93</v>
       </c>
       <c r="AP179">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AQ179">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR179">
         <v>1.18</v>
@@ -38456,7 +38459,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ181">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR181">
         <v>1.51</v>
@@ -38868,7 +38871,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ183">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AR183">
         <v>1.52</v>
@@ -39277,7 +39280,7 @@
         <v>1.47</v>
       </c>
       <c r="AP185">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ185">
         <v>1.33</v>
@@ -39486,7 +39489,7 @@
         <v>1</v>
       </c>
       <c r="AQ186">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AR186">
         <v>1.26</v>
@@ -39689,7 +39692,7 @@
         <v>1.87</v>
       </c>
       <c r="AP187">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AQ187">
         <v>1.94</v>
@@ -40104,7 +40107,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ189">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AR189">
         <v>1.35</v>
@@ -40513,10 +40516,10 @@
         <v>1</v>
       </c>
       <c r="AP191">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AQ191">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR191">
         <v>1.37</v>
@@ -41622,6 +41625,418 @@
       </c>
       <c r="BP196">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7487306</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45552.77083333334</v>
+      </c>
+      <c r="F197">
+        <v>11</v>
+      </c>
+      <c r="G197" t="s">
+        <v>70</v>
+      </c>
+      <c r="H197" t="s">
+        <v>78</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>1</v>
+      </c>
+      <c r="O197" t="s">
+        <v>203</v>
+      </c>
+      <c r="P197" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q197">
+        <v>3.1</v>
+      </c>
+      <c r="R197">
+        <v>1.91</v>
+      </c>
+      <c r="S197">
+        <v>4.33</v>
+      </c>
+      <c r="T197">
+        <v>1.5</v>
+      </c>
+      <c r="U197">
+        <v>2.47</v>
+      </c>
+      <c r="V197">
+        <v>3.45</v>
+      </c>
+      <c r="W197">
+        <v>1.25</v>
+      </c>
+      <c r="X197">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y197">
+        <v>1.03</v>
+      </c>
+      <c r="Z197">
+        <v>2.2</v>
+      </c>
+      <c r="AA197">
+        <v>2.9</v>
+      </c>
+      <c r="AB197">
+        <v>3.4</v>
+      </c>
+      <c r="AC197">
+        <v>1.09</v>
+      </c>
+      <c r="AD197">
+        <v>6.5</v>
+      </c>
+      <c r="AE197">
+        <v>1.45</v>
+      </c>
+      <c r="AF197">
+        <v>2.64</v>
+      </c>
+      <c r="AG197">
+        <v>2.6</v>
+      </c>
+      <c r="AH197">
+        <v>1.48</v>
+      </c>
+      <c r="AI197">
+        <v>2.1</v>
+      </c>
+      <c r="AJ197">
+        <v>1.67</v>
+      </c>
+      <c r="AK197">
+        <v>1.3</v>
+      </c>
+      <c r="AL197">
+        <v>1.3</v>
+      </c>
+      <c r="AM197">
+        <v>1.62</v>
+      </c>
+      <c r="AN197">
+        <v>1.06</v>
+      </c>
+      <c r="AO197">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP197">
+        <v>1.12</v>
+      </c>
+      <c r="AQ197">
+        <v>0.91</v>
+      </c>
+      <c r="AR197">
+        <v>1.41</v>
+      </c>
+      <c r="AS197">
+        <v>1.45</v>
+      </c>
+      <c r="AT197">
+        <v>2.86</v>
+      </c>
+      <c r="AU197">
+        <v>4</v>
+      </c>
+      <c r="AV197">
+        <v>5</v>
+      </c>
+      <c r="AW197">
+        <v>10</v>
+      </c>
+      <c r="AX197">
+        <v>5</v>
+      </c>
+      <c r="AY197">
+        <v>14</v>
+      </c>
+      <c r="AZ197">
+        <v>10</v>
+      </c>
+      <c r="BA197">
+        <v>6</v>
+      </c>
+      <c r="BB197">
+        <v>5</v>
+      </c>
+      <c r="BC197">
+        <v>11</v>
+      </c>
+      <c r="BD197">
+        <v>1.83</v>
+      </c>
+      <c r="BE197">
+        <v>7.4</v>
+      </c>
+      <c r="BF197">
+        <v>2.4</v>
+      </c>
+      <c r="BG197">
+        <v>1.33</v>
+      </c>
+      <c r="BH197">
+        <v>3</v>
+      </c>
+      <c r="BI197">
+        <v>1.57</v>
+      </c>
+      <c r="BJ197">
+        <v>2.31</v>
+      </c>
+      <c r="BK197">
+        <v>1.97</v>
+      </c>
+      <c r="BL197">
+        <v>1.83</v>
+      </c>
+      <c r="BM197">
+        <v>2.49</v>
+      </c>
+      <c r="BN197">
+        <v>1.5</v>
+      </c>
+      <c r="BO197">
+        <v>3.2</v>
+      </c>
+      <c r="BP197">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7487305</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45552.875</v>
+      </c>
+      <c r="F198">
+        <v>11</v>
+      </c>
+      <c r="G198" t="s">
+        <v>80</v>
+      </c>
+      <c r="H198" t="s">
+        <v>73</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>2</v>
+      </c>
+      <c r="N198">
+        <v>2</v>
+      </c>
+      <c r="O198" t="s">
+        <v>89</v>
+      </c>
+      <c r="P198" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q198">
+        <v>2.63</v>
+      </c>
+      <c r="R198">
+        <v>2.1</v>
+      </c>
+      <c r="S198">
+        <v>4.5</v>
+      </c>
+      <c r="T198">
+        <v>1.49</v>
+      </c>
+      <c r="U198">
+        <v>2.63</v>
+      </c>
+      <c r="V198">
+        <v>3.25</v>
+      </c>
+      <c r="W198">
+        <v>1.3</v>
+      </c>
+      <c r="X198">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y198">
+        <v>1.04</v>
+      </c>
+      <c r="Z198">
+        <v>1.96</v>
+      </c>
+      <c r="AA198">
+        <v>3.3</v>
+      </c>
+      <c r="AB198">
+        <v>3.6</v>
+      </c>
+      <c r="AC198">
+        <v>1.08</v>
+      </c>
+      <c r="AD198">
+        <v>7</v>
+      </c>
+      <c r="AE198">
+        <v>1.42</v>
+      </c>
+      <c r="AF198">
+        <v>2.85</v>
+      </c>
+      <c r="AG198">
+        <v>2.25</v>
+      </c>
+      <c r="AH198">
+        <v>1.57</v>
+      </c>
+      <c r="AI198">
+        <v>1.91</v>
+      </c>
+      <c r="AJ198">
+        <v>1.8</v>
+      </c>
+      <c r="AK198">
+        <v>1.22</v>
+      </c>
+      <c r="AL198">
+        <v>1.28</v>
+      </c>
+      <c r="AM198">
+        <v>1.8</v>
+      </c>
+      <c r="AN198">
+        <v>1.48</v>
+      </c>
+      <c r="AO198">
+        <v>1</v>
+      </c>
+      <c r="AP198">
+        <v>1.44</v>
+      </c>
+      <c r="AQ198">
+        <v>1.06</v>
+      </c>
+      <c r="AR198">
+        <v>1.22</v>
+      </c>
+      <c r="AS198">
+        <v>1.38</v>
+      </c>
+      <c r="AT198">
+        <v>2.6</v>
+      </c>
+      <c r="AU198">
+        <v>3</v>
+      </c>
+      <c r="AV198">
+        <v>5</v>
+      </c>
+      <c r="AW198">
+        <v>7</v>
+      </c>
+      <c r="AX198">
+        <v>6</v>
+      </c>
+      <c r="AY198">
+        <v>10</v>
+      </c>
+      <c r="AZ198">
+        <v>11</v>
+      </c>
+      <c r="BA198">
+        <v>11</v>
+      </c>
+      <c r="BB198">
+        <v>2</v>
+      </c>
+      <c r="BC198">
+        <v>13</v>
+      </c>
+      <c r="BD198">
+        <v>1.49</v>
+      </c>
+      <c r="BE198">
+        <v>7.5</v>
+      </c>
+      <c r="BF198">
+        <v>3.4</v>
+      </c>
+      <c r="BG198">
+        <v>1.4</v>
+      </c>
+      <c r="BH198">
+        <v>2.7</v>
+      </c>
+      <c r="BI198">
+        <v>1.69</v>
+      </c>
+      <c r="BJ198">
+        <v>2.13</v>
+      </c>
+      <c r="BK198">
+        <v>2.13</v>
+      </c>
+      <c r="BL198">
+        <v>1.69</v>
+      </c>
+      <c r="BM198">
+        <v>2.62</v>
+      </c>
+      <c r="BN198">
+        <v>1.42</v>
+      </c>
+      <c r="BO198">
+        <v>3.6</v>
+      </c>
+      <c r="BP198">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="291">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -885,6 +885,9 @@
   <si>
     <t>['3', '73']</t>
   </si>
+  <si>
+    <t>['32', '90+5']</t>
+  </si>
 </sst>
 </file>
 
@@ -1245,7 +1248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP198"/>
+  <dimension ref="A1:BP199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1585,7 +1588,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ2">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2409,7 +2412,7 @@
         <v>1.97</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2818,7 +2821,7 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AQ8">
         <v>1.06</v>
@@ -3645,7 +3648,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR12">
         <v>1.3</v>
@@ -4263,7 +4266,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ15">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AR15">
         <v>1.29</v>
@@ -4878,7 +4881,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ18">
         <v>1.94</v>
@@ -5084,7 +5087,7 @@
         <v>1.67</v>
       </c>
       <c r="AP19">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AQ19">
         <v>1.42</v>
@@ -5293,7 +5296,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR20">
         <v>1.69</v>
@@ -6526,7 +6529,7 @@
         <v>0.25</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ26">
         <v>1.03</v>
@@ -7353,7 +7356,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AR30">
         <v>1.49</v>
@@ -8380,10 +8383,10 @@
         <v>0.6</v>
       </c>
       <c r="AP35">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR35">
         <v>1.5</v>
@@ -9001,7 +9004,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ38">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AR38">
         <v>1.06</v>
@@ -9410,7 +9413,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ40">
         <v>1.12</v>
@@ -10649,7 +10652,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR46">
         <v>1.37</v>
@@ -11061,7 +11064,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ48">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AR48">
         <v>1.31</v>
@@ -11676,7 +11679,7 @@
         <v>1.63</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ51">
         <v>1.82</v>
@@ -12912,7 +12915,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AQ57">
         <v>1.03</v>
@@ -13121,7 +13124,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR58">
         <v>1.5</v>
@@ -13736,7 +13739,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ61">
         <v>1.33</v>
@@ -13945,7 +13948,7 @@
         <v>1.97</v>
       </c>
       <c r="AQ62">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AR62">
         <v>1.93</v>
@@ -14972,7 +14975,7 @@
         <v>1.36</v>
       </c>
       <c r="AP67">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AQ67">
         <v>1.12</v>
@@ -15178,7 +15181,7 @@
         <v>1.7</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ68">
         <v>1.97</v>
@@ -16208,7 +16211,7 @@
         <v>1.36</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ73">
         <v>1.44</v>
@@ -16623,7 +16626,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ75">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AR75">
         <v>1.36</v>
@@ -17238,7 +17241,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AQ78">
         <v>1.94</v>
@@ -18065,7 +18068,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR82">
         <v>1.64</v>
@@ -18474,7 +18477,7 @@
         <v>1.69</v>
       </c>
       <c r="AP84">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AQ84">
         <v>1.82</v>
@@ -18680,7 +18683,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ85">
         <v>0.91</v>
@@ -19095,7 +19098,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ87">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -20122,7 +20125,7 @@
         <v>1.47</v>
       </c>
       <c r="AP92">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AQ92">
         <v>1.33</v>
@@ -20537,7 +20540,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ94">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR94">
         <v>1.23</v>
@@ -21564,10 +21567,10 @@
         <v>0.63</v>
       </c>
       <c r="AP99">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ99">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AR99">
         <v>1.2</v>
@@ -22391,7 +22394,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ103">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR103">
         <v>1.29</v>
@@ -22594,7 +22597,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AQ104">
         <v>1.44</v>
@@ -23833,7 +23836,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ110">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AR110">
         <v>1.6</v>
@@ -24654,7 +24657,7 @@
         <v>0.83</v>
       </c>
       <c r="AP114">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ114">
         <v>1.06</v>
@@ -25066,7 +25069,7 @@
         <v>1.05</v>
       </c>
       <c r="AP116">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AQ116">
         <v>0.91</v>
@@ -25687,7 +25690,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR119">
         <v>1.48</v>
@@ -26096,7 +26099,7 @@
         <v>1.25</v>
       </c>
       <c r="AP121">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ121">
         <v>1.42</v>
@@ -26305,7 +26308,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ122">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AR122">
         <v>1.17</v>
@@ -27541,7 +27544,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ128">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR128">
         <v>1.44</v>
@@ -27950,7 +27953,7 @@
         <v>2.1</v>
       </c>
       <c r="AP130">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AQ130">
         <v>1.97</v>
@@ -28568,10 +28571,10 @@
         <v>0.95</v>
       </c>
       <c r="AP133">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AQ133">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR133">
         <v>1.36</v>
@@ -29598,7 +29601,7 @@
         <v>1.39</v>
       </c>
       <c r="AP138">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ138">
         <v>1.42</v>
@@ -30425,7 +30428,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ142">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AR142">
         <v>1.56</v>
@@ -31661,7 +31664,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ148">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR148">
         <v>1.5</v>
@@ -31864,7 +31867,7 @@
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AQ149">
         <v>1.12</v>
@@ -32279,7 +32282,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ151">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR151">
         <v>1.54</v>
@@ -32897,7 +32900,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ154">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AR154">
         <v>1.17</v>
@@ -33512,7 +33515,7 @@
         <v>1</v>
       </c>
       <c r="AP157">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ157">
         <v>1.12</v>
@@ -34542,7 +34545,7 @@
         <v>1.54</v>
       </c>
       <c r="AP162">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AQ162">
         <v>1.33</v>
@@ -34957,7 +34960,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ164">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR164">
         <v>1.17</v>
@@ -35163,7 +35166,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ165">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AR165">
         <v>1.34</v>
@@ -35984,7 +35987,7 @@
         <v>1.54</v>
       </c>
       <c r="AP169">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ169">
         <v>1.33</v>
@@ -36190,7 +36193,7 @@
         <v>1.04</v>
       </c>
       <c r="AP170">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AQ170">
         <v>0.91</v>
@@ -37223,7 +37226,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ175">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR175">
         <v>1.36</v>
@@ -37429,7 +37432,7 @@
         <v>1.97</v>
       </c>
       <c r="AQ176">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AR176">
         <v>1.69</v>
@@ -39074,7 +39077,7 @@
         <v>1.03</v>
       </c>
       <c r="AP184">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AQ184">
         <v>1.03</v>
@@ -39486,7 +39489,7 @@
         <v>1</v>
       </c>
       <c r="AP186">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ186">
         <v>0.91</v>
@@ -39901,7 +39904,7 @@
         <v>1.97</v>
       </c>
       <c r="AQ188">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AR188">
         <v>1.64</v>
@@ -40310,7 +40313,7 @@
         <v>1.84</v>
       </c>
       <c r="AP190">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AQ190">
         <v>1.82</v>
@@ -41340,7 +41343,7 @@
         <v>0.97</v>
       </c>
       <c r="AP195">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AQ195">
         <v>1.03</v>
@@ -41549,7 +41552,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ196">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AR196">
         <v>1.33</v>
@@ -42037,6 +42040,212 @@
       </c>
       <c r="BP198">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:68">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>7487311</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45556.77083333334</v>
+      </c>
+      <c r="F199">
+        <v>12</v>
+      </c>
+      <c r="G199" t="s">
+        <v>81</v>
+      </c>
+      <c r="H199" t="s">
+        <v>76</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>2</v>
+      </c>
+      <c r="N199">
+        <v>2</v>
+      </c>
+      <c r="O199" t="s">
+        <v>89</v>
+      </c>
+      <c r="P199" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q199">
+        <v>3.25</v>
+      </c>
+      <c r="R199">
+        <v>2.1</v>
+      </c>
+      <c r="S199">
+        <v>3.25</v>
+      </c>
+      <c r="T199">
+        <v>1.48</v>
+      </c>
+      <c r="U199">
+        <v>2.45</v>
+      </c>
+      <c r="V199">
+        <v>3.1</v>
+      </c>
+      <c r="W199">
+        <v>1.33</v>
+      </c>
+      <c r="X199">
+        <v>10</v>
+      </c>
+      <c r="Y199">
+        <v>1.06</v>
+      </c>
+      <c r="Z199">
+        <v>2.6</v>
+      </c>
+      <c r="AA199">
+        <v>3</v>
+      </c>
+      <c r="AB199">
+        <v>2.6</v>
+      </c>
+      <c r="AC199">
+        <v>1.08</v>
+      </c>
+      <c r="AD199">
+        <v>7</v>
+      </c>
+      <c r="AE199">
+        <v>1.4</v>
+      </c>
+      <c r="AF199">
+        <v>2.8</v>
+      </c>
+      <c r="AG199">
+        <v>2</v>
+      </c>
+      <c r="AH199">
+        <v>1.8</v>
+      </c>
+      <c r="AI199">
+        <v>1.73</v>
+      </c>
+      <c r="AJ199">
+        <v>2</v>
+      </c>
+      <c r="AK199">
+        <v>1.45</v>
+      </c>
+      <c r="AL199">
+        <v>1.3</v>
+      </c>
+      <c r="AM199">
+        <v>1.45</v>
+      </c>
+      <c r="AN199">
+        <v>1</v>
+      </c>
+      <c r="AO199">
+        <v>1.24</v>
+      </c>
+      <c r="AP199">
+        <v>0.97</v>
+      </c>
+      <c r="AQ199">
+        <v>1.29</v>
+      </c>
+      <c r="AR199">
+        <v>1.26</v>
+      </c>
+      <c r="AS199">
+        <v>1.41</v>
+      </c>
+      <c r="AT199">
+        <v>2.67</v>
+      </c>
+      <c r="AU199">
+        <v>5</v>
+      </c>
+      <c r="AV199">
+        <v>4</v>
+      </c>
+      <c r="AW199">
+        <v>12</v>
+      </c>
+      <c r="AX199">
+        <v>5</v>
+      </c>
+      <c r="AY199">
+        <v>17</v>
+      </c>
+      <c r="AZ199">
+        <v>9</v>
+      </c>
+      <c r="BA199">
+        <v>4</v>
+      </c>
+      <c r="BB199">
+        <v>4</v>
+      </c>
+      <c r="BC199">
+        <v>8</v>
+      </c>
+      <c r="BD199">
+        <v>1.86</v>
+      </c>
+      <c r="BE199">
+        <v>6.2</v>
+      </c>
+      <c r="BF199">
+        <v>2.39</v>
+      </c>
+      <c r="BG199">
+        <v>1.33</v>
+      </c>
+      <c r="BH199">
+        <v>3</v>
+      </c>
+      <c r="BI199">
+        <v>1.56</v>
+      </c>
+      <c r="BJ199">
+        <v>2.35</v>
+      </c>
+      <c r="BK199">
+        <v>1.94</v>
+      </c>
+      <c r="BL199">
+        <v>1.85</v>
+      </c>
+      <c r="BM199">
+        <v>2.45</v>
+      </c>
+      <c r="BN199">
+        <v>1.51</v>
+      </c>
+      <c r="BO199">
+        <v>3.2</v>
+      </c>
+      <c r="BP199">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="295">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -628,6 +628,9 @@
     <t>['90']</t>
   </si>
   <si>
+    <t>['45+8']</t>
+  </si>
+  <si>
     <t>['44', '85']</t>
   </si>
   <si>
@@ -887,6 +890,15 @@
   </si>
   <si>
     <t>['32', '90+5']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['55', '90+4']</t>
+  </si>
+  <si>
+    <t>['90+9']</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP199"/>
+  <dimension ref="A1:BP204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1585,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AQ2">
         <v>1.29</v>
@@ -1791,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AQ3">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1997,10 +2009,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ4">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2206,7 +2218,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ5">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2409,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>0.97</v>
@@ -2615,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AQ7">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2743,7 +2755,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -3027,10 +3039,10 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AR9">
         <v>1.58</v>
@@ -3155,7 +3167,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3233,10 +3245,10 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="AQ10">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AR10">
         <v>1.47</v>
@@ -3361,7 +3373,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3439,10 +3451,10 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR11">
         <v>1.49</v>
@@ -3645,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AQ12">
         <v>0.97</v>
@@ -3773,7 +3785,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3851,10 +3863,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AQ13">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>1.34</v>
@@ -4057,10 +4069,10 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ14">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="AR14">
         <v>1.53</v>
@@ -4185,7 +4197,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4263,7 +4275,7 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AQ15">
         <v>1.29</v>
@@ -4472,7 +4484,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ16">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AR16">
         <v>1.54</v>
@@ -4675,10 +4687,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AQ17">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>1.4</v>
@@ -4803,7 +4815,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4884,7 +4896,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ18">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -5009,7 +5021,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5090,7 +5102,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ19">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AR19">
         <v>1.31</v>
@@ -5215,7 +5227,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5293,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="AQ20">
         <v>0.97</v>
@@ -5421,7 +5433,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5499,10 +5511,10 @@
         <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR21">
         <v>1.64</v>
@@ -5627,7 +5639,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5708,7 +5720,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ22">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AR22">
         <v>1.54</v>
@@ -5911,10 +5923,10 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="AQ23">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -6117,10 +6129,10 @@
         <v>1.67</v>
       </c>
       <c r="AP24">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AQ24">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AR24">
         <v>1.25</v>
@@ -6323,10 +6335,10 @@
         <v>0.75</v>
       </c>
       <c r="AP25">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AQ25">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="AR25">
         <v>1.01</v>
@@ -6451,7 +6463,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6532,7 +6544,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ26">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6735,10 +6747,10 @@
         <v>1.75</v>
       </c>
       <c r="AP27">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AQ27">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AR27">
         <v>1.52</v>
@@ -6863,7 +6875,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6941,7 +6953,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AQ28">
         <v>1.06</v>
@@ -7147,10 +7159,10 @@
         <v>2.5</v>
       </c>
       <c r="AP29">
+        <v>2</v>
+      </c>
+      <c r="AQ29">
         <v>1.97</v>
-      </c>
-      <c r="AQ29">
-        <v>1.94</v>
       </c>
       <c r="AR29">
         <v>2.13</v>
@@ -7353,7 +7365,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ30">
         <v>1.29</v>
@@ -7562,7 +7574,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ31">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AR31">
         <v>1.28</v>
@@ -7687,7 +7699,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7765,10 +7777,10 @@
         <v>1.6</v>
       </c>
       <c r="AP32">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AQ32">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR32">
         <v>1.21</v>
@@ -7971,10 +7983,10 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AQ33">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>1.41</v>
@@ -8099,7 +8111,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8177,10 +8189,10 @@
         <v>2.2</v>
       </c>
       <c r="AP34">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="AQ34">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="AR34">
         <v>1.38</v>
@@ -8305,7 +8317,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8511,7 +8523,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8589,10 +8601,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AR36">
         <v>1.5</v>
@@ -8795,7 +8807,7 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ37">
         <v>1.06</v>
@@ -9001,7 +9013,7 @@
         <v>0.83</v>
       </c>
       <c r="AP38">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AQ38">
         <v>1.29</v>
@@ -9207,10 +9219,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="AR39">
         <v>2.03</v>
@@ -9416,7 +9428,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ40">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AR40">
         <v>1.34</v>
@@ -9541,7 +9553,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9619,10 +9631,10 @@
         <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AQ41">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AR41">
         <v>1.42</v>
@@ -9747,7 +9759,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9825,10 +9837,10 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="AQ42">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.44</v>
@@ -10031,10 +10043,10 @@
         <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AQ43">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AR43">
         <v>1.44</v>
@@ -10159,7 +10171,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10237,10 +10249,10 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AQ44">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AR44">
         <v>1.33</v>
@@ -10443,10 +10455,10 @@
         <v>1.71</v>
       </c>
       <c r="AP45">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AQ45">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR45">
         <v>1.37</v>
@@ -10571,7 +10583,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10777,7 +10789,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10855,10 +10867,10 @@
         <v>0.57</v>
       </c>
       <c r="AP47">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="AR47">
         <v>1.34</v>
@@ -11061,7 +11073,7 @@
         <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="AQ48">
         <v>1.29</v>
@@ -11267,7 +11279,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AQ49">
         <v>1.06</v>
@@ -11473,10 +11485,10 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.93</v>
@@ -11601,7 +11613,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11682,7 +11694,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ51">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -11885,10 +11897,10 @@
         <v>1.38</v>
       </c>
       <c r="AP52">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ52">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AR52">
         <v>1.52</v>
@@ -12091,10 +12103,10 @@
         <v>1.38</v>
       </c>
       <c r="AP53">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="AQ53">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AR53">
         <v>1.55</v>
@@ -12219,7 +12231,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12297,10 +12309,10 @@
         <v>1.38</v>
       </c>
       <c r="AP54">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ54">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AR54">
         <v>1.53</v>
@@ -12425,7 +12437,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12503,10 +12515,10 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AQ55">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AR55">
         <v>1.34</v>
@@ -12631,7 +12643,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12712,7 +12724,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ56">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="AR56">
         <v>1.32</v>
@@ -12837,7 +12849,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12918,7 +12930,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ57">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.33</v>
@@ -13043,7 +13055,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13121,7 +13133,7 @@
         <v>0.44</v>
       </c>
       <c r="AP58">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AQ58">
         <v>0.97</v>
@@ -13327,10 +13339,10 @@
         <v>1.11</v>
       </c>
       <c r="AP59">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AQ59">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="AR59">
         <v>1.29</v>
@@ -13455,7 +13467,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13533,10 +13545,10 @@
         <v>1.4</v>
       </c>
       <c r="AP60">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AR60">
         <v>1.22</v>
@@ -13742,7 +13754,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ61">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR61">
         <v>1.27</v>
@@ -13945,7 +13957,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP62">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
         <v>1.29</v>
@@ -14151,10 +14163,10 @@
         <v>1.7</v>
       </c>
       <c r="AP63">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="AQ63">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AR63">
         <v>1.55</v>
@@ -14357,7 +14369,7 @@
         <v>1.3</v>
       </c>
       <c r="AP64">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="AQ64">
         <v>1.06</v>
@@ -14563,10 +14575,10 @@
         <v>1.1</v>
       </c>
       <c r="AP65">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AQ65">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AR65">
         <v>1.21</v>
@@ -14691,7 +14703,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14769,7 +14781,7 @@
         <v>1.18</v>
       </c>
       <c r="AP66">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ66">
         <v>1.06</v>
@@ -14897,7 +14909,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14978,7 +14990,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ67">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AR67">
         <v>1.34</v>
@@ -15103,7 +15115,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15184,7 +15196,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ68">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AR68">
         <v>1.27</v>
@@ -15387,10 +15399,10 @@
         <v>1.27</v>
       </c>
       <c r="AP69">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="AQ69">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AR69">
         <v>1.62</v>
@@ -15593,10 +15605,10 @@
         <v>1.64</v>
       </c>
       <c r="AP70">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="AQ70">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AR70">
         <v>1.35</v>
@@ -15799,10 +15811,10 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AQ71">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR71">
         <v>1.22</v>
@@ -16005,10 +16017,10 @@
         <v>1.17</v>
       </c>
       <c r="AP72">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AQ72">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="AR72">
         <v>1.46</v>
@@ -16133,7 +16145,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16214,7 +16226,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ73">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AR73">
         <v>1.25</v>
@@ -16339,7 +16351,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16417,10 +16429,10 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AQ74">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR74">
         <v>1.39</v>
@@ -16545,7 +16557,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16751,7 +16763,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16829,10 +16841,10 @@
         <v>2.27</v>
       </c>
       <c r="AP76">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ76">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="AR76">
         <v>1.41</v>
@@ -17035,10 +17047,10 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AQ77">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AR77">
         <v>1.87</v>
@@ -17163,7 +17175,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17244,7 +17256,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ78">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="AR78">
         <v>1.39</v>
@@ -17369,7 +17381,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17447,10 +17459,10 @@
         <v>1.46</v>
       </c>
       <c r="AP79">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="AQ79">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR79">
         <v>1.41</v>
@@ -17575,7 +17587,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17653,10 +17665,10 @@
         <v>1.92</v>
       </c>
       <c r="AP80">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AQ80">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AR80">
         <v>1.31</v>
@@ -17859,7 +17871,7 @@
         <v>1.08</v>
       </c>
       <c r="AP81">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AQ81">
         <v>1.06</v>
@@ -18065,7 +18077,7 @@
         <v>0.54</v>
       </c>
       <c r="AP82">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="AQ82">
         <v>0.97</v>
@@ -18193,7 +18205,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18271,10 +18283,10 @@
         <v>1.31</v>
       </c>
       <c r="AP83">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AR83">
         <v>1.24</v>
@@ -18399,7 +18411,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18480,7 +18492,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ84">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AR84">
         <v>1.38</v>
@@ -18686,7 +18698,7 @@
         <v>0.97</v>
       </c>
       <c r="AQ85">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="AR85">
         <v>1.23</v>
@@ -18811,7 +18823,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18889,10 +18901,10 @@
         <v>1.07</v>
       </c>
       <c r="AP86">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ86">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR86">
         <v>1.45</v>
@@ -19095,7 +19107,7 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AQ87">
         <v>1.29</v>
@@ -19301,10 +19313,10 @@
         <v>2.29</v>
       </c>
       <c r="AP88">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AQ88">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="AR88">
         <v>1.24</v>
@@ -19507,7 +19519,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AQ89">
         <v>1.06</v>
@@ -19713,10 +19725,10 @@
         <v>1.36</v>
       </c>
       <c r="AP90">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AQ90">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AR90">
         <v>1.42</v>
@@ -19841,7 +19853,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19919,10 +19931,10 @@
         <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AQ91">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AR91">
         <v>1.34</v>
@@ -20128,7 +20140,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ92">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR92">
         <v>1.3</v>
@@ -20253,7 +20265,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20331,10 +20343,10 @@
         <v>2.07</v>
       </c>
       <c r="AP93">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="AQ93">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AR93">
         <v>1.6</v>
@@ -20537,7 +20549,7 @@
         <v>0.67</v>
       </c>
       <c r="AP94">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ94">
         <v>0.97</v>
@@ -20665,7 +20677,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-   